--- a/data/ASC.MI.xlsx
+++ b/data/ASC.MI.xlsx
@@ -44,43 +44,43 @@
     <t xml:space="preserve">ASC.MI</t>
   </si>
   <si>
-    <t xml:space="preserve">1.389120221138</t>
+    <t xml:space="preserve">1.38912010192871</t>
   </si>
   <si>
     <t xml:space="preserve">1.37659430503845</t>
   </si>
   <si>
-    <t xml:space="preserve">1.37784695625305</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.36281597614288</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.35530054569244</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.38410985469818</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.35655283927917</t>
+    <t xml:space="preserve">1.37784707546234</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.36281585693359</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.35530030727386</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.38410997390747</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.35655272006989</t>
   </si>
   <si>
     <t xml:space="preserve">1.3377640247345</t>
   </si>
   <si>
-    <t xml:space="preserve">1.29642879962921</t>
+    <t xml:space="preserve">1.29642868041992</t>
   </si>
   <si>
     <t xml:space="preserve">1.30018651485443</t>
   </si>
   <si>
-    <t xml:space="preserve">1.25885128974915</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.28390288352966</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.36532127857208</t>
+    <t xml:space="preserve">1.25885105133057</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.28390276432037</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.36532115936279</t>
   </si>
   <si>
     <t xml:space="preserve">1.36156332492828</t>
@@ -92,85 +92,85 @@
     <t xml:space="preserve">1.38160479068756</t>
   </si>
   <si>
-    <t xml:space="preserve">1.38661515712738</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.37158405780792</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.30895447731018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.31521773338318</t>
+    <t xml:space="preserve">1.38661503791809</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.37158417701721</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.30895459651947</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.3152174949646</t>
   </si>
   <si>
     <t xml:space="preserve">1.31396496295929</t>
   </si>
   <si>
-    <t xml:space="preserve">1.29392373561859</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.31145989894867</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.33651161193848</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.33400642871857</t>
+    <t xml:space="preserve">1.2939236164093</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.31146001815796</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.33651173114777</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.33400654792786</t>
   </si>
   <si>
     <t xml:space="preserve">1.34026944637299</t>
   </si>
   <si>
-    <t xml:space="preserve">1.3427746295929</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.40039372444153</t>
+    <t xml:space="preserve">1.34277451038361</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.40039348602295</t>
   </si>
   <si>
     <t xml:space="preserve">1.39663577079773</t>
   </si>
   <si>
-    <t xml:space="preserve">1.39914095401764</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.3916255235672</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.39413058757782</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.38035237789154</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.39287805557251</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.41166687011719</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.42043483257294</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.42294037342072</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.43797123432159</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.43546617031097</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.42419254779816</t>
+    <t xml:space="preserve">1.39914107322693</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.39162528514862</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.39413070678711</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.38035225868225</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.39287793636322</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.41166698932648</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.42043507099152</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.42294025421143</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.4379711151123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.4354659318924</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.42419266700745</t>
   </si>
   <si>
     <t xml:space="preserve">1.41918230056763</t>
   </si>
   <si>
-    <t xml:space="preserve">1.4392237663269</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.4166773557663</t>
+    <t xml:space="preserve">1.43922400474548</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.41667711734772</t>
   </si>
   <si>
     <t xml:space="preserve">1.43296086788177</t>
@@ -179,7 +179,7 @@
     <t xml:space="preserve">1.43671858310699</t>
   </si>
   <si>
-    <t xml:space="preserve">1.44047653675079</t>
+    <t xml:space="preserve">1.44047629833221</t>
   </si>
   <si>
     <t xml:space="preserve">1.42544543743134</t>
@@ -188,34 +188,34 @@
     <t xml:space="preserve">1.44172894954681</t>
   </si>
   <si>
-    <t xml:space="preserve">1.46678078174591</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.45926511287689</t>
+    <t xml:space="preserve">1.46678066253662</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.45926523208618</t>
   </si>
   <si>
     <t xml:space="preserve">1.46177053451538</t>
   </si>
   <si>
-    <t xml:space="preserve">1.4655282497406</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.47053873538971</t>
+    <t xml:space="preserve">1.46552813053131</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.47053837776184</t>
   </si>
   <si>
     <t xml:space="preserve">1.47805404663086</t>
   </si>
   <si>
-    <t xml:space="preserve">1.45675992965698</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.45801270008087</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.46051776409149</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.48181188106537</t>
+    <t xml:space="preserve">1.45676004886627</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.45801246166229</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.46051800251007</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.48181176185608</t>
   </si>
   <si>
     <t xml:space="preserve">1.4905800819397</t>
@@ -224,34 +224,34 @@
     <t xml:space="preserve">1.49809527397156</t>
   </si>
   <si>
-    <t xml:space="preserve">1.49559044837952</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.4843168258667</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.47930634021759</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.5141693353653</t>
+    <t xml:space="preserve">1.49559020996094</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.48431670665741</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.47930645942688</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.51416945457458</t>
   </si>
   <si>
     <t xml:space="preserve">1.51149427890778</t>
   </si>
   <si>
-    <t xml:space="preserve">1.51550698280334</t>
+    <t xml:space="preserve">1.51550710201263</t>
   </si>
   <si>
     <t xml:space="preserve">1.53155827522278</t>
   </si>
   <si>
-    <t xml:space="preserve">1.54894733428955</t>
+    <t xml:space="preserve">1.54894721508026</t>
   </si>
   <si>
     <t xml:space="preserve">1.5449343919754</t>
   </si>
   <si>
-    <t xml:space="preserve">1.55964803695679</t>
+    <t xml:space="preserve">1.55964827537537</t>
   </si>
   <si>
     <t xml:space="preserve">1.5676736831665</t>
@@ -269,49 +269,49 @@
     <t xml:space="preserve">1.5877377986908</t>
   </si>
   <si>
-    <t xml:space="preserve">1.61850261688232</t>
+    <t xml:space="preserve">1.61850273609161</t>
   </si>
   <si>
     <t xml:space="preserve">1.61582732200623</t>
   </si>
   <si>
-    <t xml:space="preserve">1.63187873363495</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.64793002605438</t>
+    <t xml:space="preserve">1.63187885284424</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.64793014526367</t>
   </si>
   <si>
     <t xml:space="preserve">1.67334449291229</t>
   </si>
   <si>
-    <t xml:space="preserve">1.63321614265442</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.64525473117828</t>
+    <t xml:space="preserve">1.63321602344513</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.64525485038757</t>
   </si>
   <si>
     <t xml:space="preserve">1.62652826309204</t>
   </si>
   <si>
-    <t xml:space="preserve">1.67200696468353</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.74557542800903</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.7522634267807</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.73353683948517</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.65461802482605</t>
+    <t xml:space="preserve">1.67200660705566</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.74557518959045</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.75226318836212</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.73353672027588</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.65461790561676</t>
   </si>
   <si>
     <t xml:space="preserve">1.63856661319733</t>
   </si>
   <si>
-    <t xml:space="preserve">1.68939578533173</t>
+    <t xml:space="preserve">1.68939602375031</t>
   </si>
   <si>
     <t xml:space="preserve">1.73754954338074</t>
@@ -320,28 +320,28 @@
     <t xml:space="preserve">1.6786949634552</t>
   </si>
   <si>
-    <t xml:space="preserve">1.65194284915924</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.69608390331268</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.73219919204712</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.80576765537262</t>
+    <t xml:space="preserve">1.65194261074066</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.69608378410339</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.73219895362854</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.80576741695404</t>
   </si>
   <si>
     <t xml:space="preserve">1.79105377197266</t>
   </si>
   <si>
-    <t xml:space="preserve">1.73086178302765</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.78971612453461</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.80175459384918</t>
+    <t xml:space="preserve">1.73086142539978</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.7897162437439</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.80175447463989</t>
   </si>
   <si>
     <t xml:space="preserve">1.80309212207794</t>
@@ -359,31 +359,31 @@
     <t xml:space="preserve">1.83385717868805</t>
   </si>
   <si>
-    <t xml:space="preserve">1.83251965045929</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.87264740467072</t>
+    <t xml:space="preserve">1.83251929283142</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.87264764308929</t>
   </si>
   <si>
     <t xml:space="preserve">1.88602375984192</t>
   </si>
   <si>
-    <t xml:space="preserve">1.84990859031677</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.84589564800262</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.85258364677429</t>
+    <t xml:space="preserve">1.84990835189819</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.84589540958405</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.85258388519287</t>
   </si>
   <si>
     <t xml:space="preserve">1.86462211608887</t>
   </si>
   <si>
-    <t xml:space="preserve">1.9087632894516</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.94621586799622</t>
+    <t xml:space="preserve">1.90876305103302</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.94621610641479</t>
   </si>
   <si>
     <t xml:space="preserve">1.90608787536621</t>
@@ -395,82 +395,82 @@
     <t xml:space="preserve">1.92347681522369</t>
   </si>
   <si>
-    <t xml:space="preserve">1.89939963817596</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.89806234836578</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.89538741111755</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.91946411132812</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.92615175247192</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.91277599334717</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.92882704734802</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.91411375999451</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.79907941818237</t>
+    <t xml:space="preserve">1.89939987659454</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.89806199073792</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.8953869342804</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.91946399211884</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.9261519908905</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.91277575492859</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.92882716655731</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.91411340236664</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.79907965660095</t>
   </si>
   <si>
     <t xml:space="preserve">1.81111800670624</t>
   </si>
   <si>
-    <t xml:space="preserve">1.89137423038483</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.83920764923096</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.74958801269531</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.77098953723907</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.74156260490417</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.76965200901031</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.75493836402893</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.78302812576294</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.79506683349609</t>
+    <t xml:space="preserve">1.89137434959412</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.83920753002167</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.74958789348602</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.77098941802979</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.74156272411346</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.76965224742889</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.75493848323822</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.78302800655365</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.79506659507751</t>
   </si>
   <si>
     <t xml:space="preserve">1.75895142555237</t>
   </si>
   <si>
-    <t xml:space="preserve">1.77232766151428</t>
+    <t xml:space="preserve">1.77232730388641</t>
   </si>
   <si>
     <t xml:space="preserve">1.75092554092407</t>
   </si>
   <si>
-    <t xml:space="preserve">1.75360059738159</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.75627613067627</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.78035271167755</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.78837859630585</t>
+    <t xml:space="preserve">1.75360083580017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.75627565383911</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.78035295009613</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.78837871551514</t>
   </si>
   <si>
     <t xml:space="preserve">1.79239130020142</t>
@@ -479,79 +479,79 @@
     <t xml:space="preserve">1.79774177074432</t>
   </si>
   <si>
-    <t xml:space="preserve">1.75761353969574</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.78570318222046</t>
+    <t xml:space="preserve">1.75761389732361</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.78570342063904</t>
   </si>
   <si>
     <t xml:space="preserve">1.78169047832489</t>
   </si>
   <si>
-    <t xml:space="preserve">1.77366495132446</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.72684872150421</t>
+    <t xml:space="preserve">1.77366483211517</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.72684860229492</t>
   </si>
   <si>
     <t xml:space="preserve">1.66665637493134</t>
   </si>
   <si>
-    <t xml:space="preserve">1.62117791175842</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.62251567840576</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.62786591053009</t>
+    <t xml:space="preserve">1.62117779254913</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.62251543998718</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.62786567211151</t>
   </si>
   <si>
     <t xml:space="preserve">1.60913956165314</t>
   </si>
   <si>
-    <t xml:space="preserve">1.69207108020782</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.72417378425598</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.69875907897949</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.66531884670258</t>
+    <t xml:space="preserve">1.69207084178925</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.72417342662811</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.69875884056091</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.66531896591187</t>
   </si>
   <si>
     <t xml:space="preserve">1.62519073486328</t>
   </si>
   <si>
-    <t xml:space="preserve">1.64391696453094</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.67735731601715</t>
+    <t xml:space="preserve">1.64391708374023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.67735707759857</t>
   </si>
   <si>
     <t xml:space="preserve">1.70544707775116</t>
   </si>
   <si>
-    <t xml:space="preserve">1.7214982509613</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.71614789962769</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.73888731002808</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.72952377796173</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.72283565998077</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.77634000778198</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.80710506439209</t>
+    <t xml:space="preserve">1.72149801254272</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.71614801883698</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.73888695240021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.72952389717102</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.72283577919006</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.77633988857269</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.8071049451828</t>
   </si>
   <si>
     <t xml:space="preserve">1.79640412330627</t>
@@ -560,37 +560,37 @@
     <t xml:space="preserve">1.81914353370667</t>
   </si>
   <si>
-    <t xml:space="preserve">1.81513071060181</t>
+    <t xml:space="preserve">1.81513059139252</t>
   </si>
   <si>
     <t xml:space="preserve">1.82181882858276</t>
   </si>
   <si>
-    <t xml:space="preserve">1.83519494533539</t>
+    <t xml:space="preserve">1.83519470691681</t>
   </si>
   <si>
     <t xml:space="preserve">1.812455534935</t>
   </si>
   <si>
-    <t xml:space="preserve">1.82048082351685</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.83118164539337</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.85124576091766</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.86194658279419</t>
+    <t xml:space="preserve">1.82048094272614</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.83118188381195</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.85124599933624</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.86194705963135</t>
   </si>
   <si>
     <t xml:space="preserve">1.85927152633667</t>
   </si>
   <si>
-    <t xml:space="preserve">1.82850682735443</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.91545081138611</t>
+    <t xml:space="preserve">1.82850658893585</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.91545140743256</t>
   </si>
   <si>
     <t xml:space="preserve">1.90742540359497</t>
@@ -599,73 +599,73 @@
     <t xml:space="preserve">1.8900363445282</t>
   </si>
   <si>
-    <t xml:space="preserve">1.87799823284149</t>
+    <t xml:space="preserve">1.8779981136322</t>
   </si>
   <si>
     <t xml:space="preserve">1.92481434345245</t>
   </si>
   <si>
-    <t xml:space="preserve">1.93150246143341</t>
+    <t xml:space="preserve">1.93150210380554</t>
   </si>
   <si>
     <t xml:space="preserve">1.89672458171844</t>
   </si>
   <si>
-    <t xml:space="preserve">1.93283987045288</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.94487869739532</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.91678869724274</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.97296833992004</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.96628022193909</t>
+    <t xml:space="preserve">1.93284022808075</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.94487833976746</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.91678881645203</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.97296857833862</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.9662801027298</t>
   </si>
   <si>
     <t xml:space="preserve">1.99303221702576</t>
   </si>
   <si>
-    <t xml:space="preserve">2.0264720916748</t>
+    <t xml:space="preserve">2.02647233009338</t>
   </si>
   <si>
     <t xml:space="preserve">2.04386138916016</t>
   </si>
   <si>
-    <t xml:space="preserve">2.06125020980835</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.07061362266541</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.06660056114197</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.11074113845825</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.09469032287598</t>
+    <t xml:space="preserve">2.06125044822693</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.07061338424683</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.06660079956055</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.11074137687683</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.0946900844574</t>
   </si>
   <si>
     <t xml:space="preserve">2.15220713615417</t>
   </si>
   <si>
-    <t xml:space="preserve">2.18029689788818</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.20169878005981</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.22176313400269</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.18698501586914</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.18966054916382</t>
+    <t xml:space="preserve">2.18029713630676</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.20169854164124</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.22176289558411</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.18698477745056</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.18966031074524</t>
   </si>
   <si>
     <t xml:space="preserve">2.2338011264801</t>
@@ -674,10 +674,10 @@
     <t xml:space="preserve">2.22845101356506</t>
   </si>
   <si>
-    <t xml:space="preserve">2.24583983421326</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.28730535507202</t>
+    <t xml:space="preserve">2.24583959579468</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.2873055934906</t>
   </si>
   <si>
     <t xml:space="preserve">2.27392959594727</t>
@@ -686,13 +686,13 @@
     <t xml:space="preserve">2.2792797088623</t>
   </si>
   <si>
-    <t xml:space="preserve">2.32074522972107</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.3301088809967</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.3448224067688</t>
+    <t xml:space="preserve">2.32074570655823</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.33010911941528</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.34482264518738</t>
   </si>
   <si>
     <t xml:space="preserve">2.35418581962585</t>
@@ -704,10 +704,10 @@
     <t xml:space="preserve">2.34080982208252</t>
   </si>
   <si>
-    <t xml:space="preserve">2.36756181716919</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.35953617095947</t>
+    <t xml:space="preserve">2.36756157875061</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.35953640937805</t>
   </si>
   <si>
     <t xml:space="preserve">2.35552334785461</t>
@@ -716,118 +716,118 @@
     <t xml:space="preserve">2.33947205543518</t>
   </si>
   <si>
-    <t xml:space="preserve">2.35151028633118</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.40367746353149</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.37023687362671</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.36622405052185</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.40769004821777</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.39832663536072</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.40233945846558</t>
+    <t xml:space="preserve">2.35151052474976</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.40367698669434</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.37023711204529</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.36622452735901</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.40768980979919</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.3983268737793</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.40233969688416</t>
   </si>
   <si>
     <t xml:space="preserve">2.42240357398987</t>
   </si>
   <si>
-    <t xml:space="preserve">2.47457027435303</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.48259568214417</t>
+    <t xml:space="preserve">2.47457051277161</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.48259615898132</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.52941226959229</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.56030988693237</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.54626512527466</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.53222131729126</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.51255893707275</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.44795417785645</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.44374084472656</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.48587393760681</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.44514536857605</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.43110036849976</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.49991893768311</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.51677227020264</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.53643417358398</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.55188322067261</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.57014107704163</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.55609679222107</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.49710965156555</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.53783893585205</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.54486131668091</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.56311869621277</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.56873655319214</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.54064774513245</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.52800750732422</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.54907464981079</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.5504789352417</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.54345679283142</t>
   </si>
   <si>
     <t xml:space="preserve">2.52941203117371</t>
   </si>
   <si>
-    <t xml:space="preserve">2.56030988693237</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.54626536369324</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.53222107887268</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.51255893707275</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.44795393943787</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.44374060630798</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.48587441444397</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.44514560699463</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.43110060691833</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.49991869926453</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.51677203178406</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.53643417358398</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.55188345909119</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.57014107704163</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.55609679222107</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.49710988998413</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.53783893585205</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.54486107826233</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.56311893463135</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.56873679161072</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.54064774513245</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.52800750732422</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.54907464981079</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.55047869682312</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.54345655441284</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.52941179275513</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.61086988449097</t>
+    <t xml:space="preserve">2.61087036132812</t>
   </si>
   <si>
     <t xml:space="preserve">2.52519869804382</t>
@@ -836,25 +836,25 @@
     <t xml:space="preserve">2.5097496509552</t>
   </si>
   <si>
-    <t xml:space="preserve">2.49149179458618</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.49289655685425</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.44654965400696</t>
+    <t xml:space="preserve">2.49149203300476</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.49289631843567</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.44654989242554</t>
   </si>
   <si>
     <t xml:space="preserve">2.43671846389771</t>
   </si>
   <si>
-    <t xml:space="preserve">2.46340274810791</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.45357179641724</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.45076274871826</t>
+    <t xml:space="preserve">2.46340298652649</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.45357155799866</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.45076322555542</t>
   </si>
   <si>
     <t xml:space="preserve">2.45497632026672</t>
@@ -869,7 +869,7 @@
     <t xml:space="preserve">2.39458513259888</t>
   </si>
   <si>
-    <t xml:space="preserve">2.38475370407104</t>
+    <t xml:space="preserve">2.38475394248962</t>
   </si>
   <si>
     <t xml:space="preserve">2.40862965583801</t>
@@ -887,82 +887,82 @@
     <t xml:space="preserve">2.51536750793457</t>
   </si>
   <si>
-    <t xml:space="preserve">2.52660322189331</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.51115441322327</t>
+    <t xml:space="preserve">2.52660346031189</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.51115417480469</t>
   </si>
   <si>
     <t xml:space="preserve">2.49008774757385</t>
   </si>
   <si>
-    <t xml:space="preserve">2.47182989120483</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.47323441505432</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.4577853679657</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.4844696521759</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.44093179702759</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.48868298530579</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.57294988632202</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.53502988815308</t>
+    <t xml:space="preserve">2.47182965278625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.47323417663574</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.45778512954712</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.48446989059448</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.44093203544617</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.48868346214294</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.5729501247406</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.5350296497345</t>
   </si>
   <si>
     <t xml:space="preserve">2.55890536308289</t>
   </si>
   <si>
-    <t xml:space="preserve">2.4802565574646</t>
+    <t xml:space="preserve">2.48025631904602</t>
   </si>
   <si>
     <t xml:space="preserve">2.48166060447693</t>
   </si>
   <si>
-    <t xml:space="preserve">2.46761655807495</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.461998462677</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.53081679344177</t>
+    <t xml:space="preserve">2.46761608123779</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.46199870109558</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.53081655502319</t>
   </si>
   <si>
     <t xml:space="preserve">2.5069408416748</t>
   </si>
   <si>
-    <t xml:space="preserve">2.53362560272217</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.50272727012634</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.55469226837158</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.57435441017151</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.61227440834045</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.62350988388062</t>
+    <t xml:space="preserve">2.53362536430359</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.50272750854492</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.55469274520874</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.57435417175293</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.61227464675903</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.62351012229919</t>
   </si>
   <si>
     <t xml:space="preserve">2.67828345298767</t>
   </si>
   <si>
-    <t xml:space="preserve">2.65581274032593</t>
+    <t xml:space="preserve">2.65581250190735</t>
   </si>
   <si>
     <t xml:space="preserve">2.65440797805786</t>
@@ -977,25 +977,25 @@
     <t xml:space="preserve">2.59682559967041</t>
   </si>
   <si>
-    <t xml:space="preserve">2.54205226898193</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.56733202934265</t>
+    <t xml:space="preserve">2.54205203056335</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.56733226776123</t>
   </si>
   <si>
     <t xml:space="preserve">2.61367893218994</t>
   </si>
   <si>
-    <t xml:space="preserve">2.59822988510132</t>
+    <t xml:space="preserve">2.59823036193848</t>
   </si>
   <si>
     <t xml:space="preserve">2.57997226715088</t>
   </si>
   <si>
-    <t xml:space="preserve">2.56452345848083</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.58839917182922</t>
+    <t xml:space="preserve">2.56452322006226</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.58839893341064</t>
   </si>
   <si>
     <t xml:space="preserve">2.51396298408508</t>
@@ -1007,10 +1007,10 @@
     <t xml:space="preserve">2.58418560028076</t>
   </si>
   <si>
-    <t xml:space="preserve">2.57716369628906</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.58067464828491</t>
+    <t xml:space="preserve">2.57716345787048</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.58067440986633</t>
   </si>
   <si>
     <t xml:space="preserve">2.51747417449951</t>
@@ -1019,43 +1019,43 @@
     <t xml:space="preserve">2.31734037399292</t>
   </si>
   <si>
-    <t xml:space="preserve">2.21902894973755</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.28222942352295</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.25062918663025</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.21200656890869</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.26818442344666</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.25765109062195</t>
+    <t xml:space="preserve">2.21902918815613</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.28222918510437</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.25062894821167</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.21200680732727</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.26818466186523</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.25765132904053</t>
   </si>
   <si>
     <t xml:space="preserve">2.29627346992493</t>
   </si>
   <si>
-    <t xml:space="preserve">2.30329608917236</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.24360680580139</t>
+    <t xml:space="preserve">2.30329585075378</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.24360704421997</t>
   </si>
   <si>
     <t xml:space="preserve">2.22605133056641</t>
   </si>
   <si>
-    <t xml:space="preserve">2.20147323608398</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.19094014167786</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.14880633354187</t>
+    <t xml:space="preserve">2.20147347450256</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.1909396648407</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.14880657196045</t>
   </si>
   <si>
     <t xml:space="preserve">2.18742895126343</t>
@@ -1064,19 +1064,19 @@
     <t xml:space="preserve">2.19796228408813</t>
   </si>
   <si>
-    <t xml:space="preserve">2.22254014015198</t>
+    <t xml:space="preserve">2.2225399017334</t>
   </si>
   <si>
     <t xml:space="preserve">2.26467323303223</t>
   </si>
   <si>
-    <t xml:space="preserve">2.21551775932312</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.2471182346344</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.2541401386261</t>
+    <t xml:space="preserve">2.2155179977417</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.24711799621582</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.25413990020752</t>
   </si>
   <si>
     <t xml:space="preserve">2.30680727958679</t>
@@ -1088,28 +1088,28 @@
     <t xml:space="preserve">2.23658442497253</t>
   </si>
   <si>
-    <t xml:space="preserve">2.24009561538696</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.27871799468994</t>
+    <t xml:space="preserve">2.24009537696838</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.27871775627136</t>
   </si>
   <si>
     <t xml:space="preserve">2.28925132751465</t>
   </si>
   <si>
-    <t xml:space="preserve">2.32436227798462</t>
+    <t xml:space="preserve">2.3243625164032</t>
   </si>
   <si>
     <t xml:space="preserve">2.29978466033936</t>
   </si>
   <si>
-    <t xml:space="preserve">2.31031823158264</t>
+    <t xml:space="preserve">2.31031799316406</t>
   </si>
   <si>
     <t xml:space="preserve">2.33489608764648</t>
   </si>
   <si>
-    <t xml:space="preserve">2.33840703964233</t>
+    <t xml:space="preserve">2.33840680122375</t>
   </si>
   <si>
     <t xml:space="preserve">2.38756275177002</t>
@@ -1118,10 +1118,10 @@
     <t xml:space="preserve">2.47885203361511</t>
   </si>
   <si>
-    <t xml:space="preserve">2.46129631996155</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.47980189323425</t>
+    <t xml:space="preserve">2.46129655838013</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.47980213165283</t>
   </si>
   <si>
     <t xml:space="preserve">2.44279026985168</t>
@@ -1133,7 +1133,7 @@
     <t xml:space="preserve">2.36876654624939</t>
   </si>
   <si>
-    <t xml:space="preserve">2.41318082809448</t>
+    <t xml:space="preserve">2.4131805896759</t>
   </si>
   <si>
     <t xml:space="preserve">2.3539617061615</t>
@@ -1145,31 +1145,31 @@
     <t xml:space="preserve">2.30584597587585</t>
   </si>
   <si>
-    <t xml:space="preserve">2.29844355583191</t>
+    <t xml:space="preserve">2.29844379425049</t>
   </si>
   <si>
     <t xml:space="preserve">2.29104137420654</t>
   </si>
   <si>
-    <t xml:space="preserve">2.27993774414062</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.26143169403076</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.22441983222961</t>
+    <t xml:space="preserve">2.27993750572205</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.26143193244934</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.22441959381104</t>
   </si>
   <si>
     <t xml:space="preserve">2.12818837165833</t>
   </si>
   <si>
-    <t xml:space="preserve">2.18370676040649</t>
+    <t xml:space="preserve">2.18370699882507</t>
   </si>
   <si>
     <t xml:space="preserve">2.23182225227356</t>
   </si>
   <si>
-    <t xml:space="preserve">2.22071814537048</t>
+    <t xml:space="preserve">2.22071838378906</t>
   </si>
   <si>
     <t xml:space="preserve">2.20591378211975</t>
@@ -1187,28 +1187,28 @@
     <t xml:space="preserve">2.2022123336792</t>
   </si>
   <si>
-    <t xml:space="preserve">2.21331572532654</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.21701717376709</t>
+    <t xml:space="preserve">2.2133162021637</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.21701693534851</t>
   </si>
   <si>
     <t xml:space="preserve">2.16149926185608</t>
   </si>
   <si>
-    <t xml:space="preserve">2.26883411407471</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.24662685394287</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.18740749359131</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.1689019203186</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.15779781341553</t>
+    <t xml:space="preserve">2.26883387565613</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.24662709236145</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.18740773200989</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.16890168190002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.15779829025269</t>
   </si>
   <si>
     <t xml:space="preserve">2.13929224014282</t>
@@ -1217,13 +1217,13 @@
     <t xml:space="preserve">2.13559079170227</t>
   </si>
   <si>
-    <t xml:space="preserve">2.12078619003296</t>
+    <t xml:space="preserve">2.12078595161438</t>
   </si>
   <si>
     <t xml:space="preserve">2.12448740005493</t>
   </si>
   <si>
-    <t xml:space="preserve">2.14669466018677</t>
+    <t xml:space="preserve">2.14669442176819</t>
   </si>
   <si>
     <t xml:space="preserve">2.11708474159241</t>
@@ -1232,19 +1232,19 @@
     <t xml:space="preserve">2.10968255996704</t>
   </si>
   <si>
-    <t xml:space="preserve">2.32435178756714</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.33175420761108</t>
+    <t xml:space="preserve">2.32435202598572</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.33175444602966</t>
   </si>
   <si>
     <t xml:space="preserve">2.37246751785278</t>
   </si>
   <si>
-    <t xml:space="preserve">2.62044787406921</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.48350381851196</t>
+    <t xml:space="preserve">2.62044739723206</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.48350358009338</t>
   </si>
   <si>
     <t xml:space="preserve">2.41688179969788</t>
@@ -1256,25 +1256,25 @@
     <t xml:space="preserve">2.40577840805054</t>
   </si>
   <si>
-    <t xml:space="preserve">2.36506509780884</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.32065057754517</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.29474234580994</t>
+    <t xml:space="preserve">2.36506533622742</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.32065081596375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.29474258422852</t>
   </si>
   <si>
     <t xml:space="preserve">2.23922443389893</t>
   </si>
   <si>
-    <t xml:space="preserve">2.30954718589783</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.27623653411865</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.2836389541626</t>
+    <t xml:space="preserve">2.30954694747925</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.27623629570007</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.28363871574402</t>
   </si>
   <si>
     <t xml:space="preserve">2.30214476585388</t>
@@ -1283,82 +1283,82 @@
     <t xml:space="preserve">2.3132483959198</t>
   </si>
   <si>
-    <t xml:space="preserve">2.34285807609558</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.33915686607361</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.33545541763306</t>
+    <t xml:space="preserve">2.342857837677</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.33915710449219</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.33545565605164</t>
   </si>
   <si>
     <t xml:space="preserve">2.34655928611755</t>
   </si>
   <si>
-    <t xml:space="preserve">2.24292540550232</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.17630434036255</t>
+    <t xml:space="preserve">2.2429256439209</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.17630386352539</t>
   </si>
   <si>
     <t xml:space="preserve">2.19110894203186</t>
   </si>
   <si>
-    <t xml:space="preserve">2.23552298545837</t>
+    <t xml:space="preserve">2.23552346229553</t>
   </si>
   <si>
     <t xml:space="preserve">2.08747529983521</t>
   </si>
   <si>
-    <t xml:space="preserve">2.15039539337158</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.15409684181213</t>
+    <t xml:space="preserve">2.15039587020874</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.15409708023071</t>
   </si>
   <si>
     <t xml:space="preserve">2.25402927398682</t>
   </si>
   <si>
-    <t xml:space="preserve">2.2725350856781</t>
+    <t xml:space="preserve">2.27253484725952</t>
   </si>
   <si>
     <t xml:space="preserve">2.25032782554626</t>
   </si>
   <si>
-    <t xml:space="preserve">2.22812080383301</t>
+    <t xml:space="preserve">2.22812056541443</t>
   </si>
   <si>
     <t xml:space="preserve">2.40207695960999</t>
   </si>
   <si>
-    <t xml:space="preserve">2.43168687820435</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.38357090950012</t>
+    <t xml:space="preserve">2.43168711662292</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.3835711479187</t>
   </si>
   <si>
     <t xml:space="preserve">2.35766267776489</t>
   </si>
   <si>
-    <t xml:space="preserve">2.37616872787476</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.37986969947815</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.4242844581604</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.42798590660095</t>
+    <t xml:space="preserve">2.37616848945618</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.37986993789673</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.42428421974182</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.42798542976379</t>
   </si>
   <si>
     <t xml:space="preserve">2.44649147987366</t>
   </si>
   <si>
-    <t xml:space="preserve">2.45019245147705</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.50200915336609</t>
+    <t xml:space="preserve">2.45019268989563</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.50200986862183</t>
   </si>
   <si>
     <t xml:space="preserve">2.49460697174072</t>
@@ -1367,31 +1367,31 @@
     <t xml:space="preserve">2.49090600013733</t>
   </si>
   <si>
-    <t xml:space="preserve">2.51311326026917</t>
+    <t xml:space="preserve">2.51311302185059</t>
   </si>
   <si>
     <t xml:space="preserve">2.49830842018127</t>
   </si>
   <si>
-    <t xml:space="preserve">2.50571036338806</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.56122851371765</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.53161907196045</t>
+    <t xml:space="preserve">2.50571060180664</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.56122875213623</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.53161931037903</t>
   </si>
   <si>
     <t xml:space="preserve">2.5686309337616</t>
   </si>
   <si>
-    <t xml:space="preserve">2.52791786193848</t>
+    <t xml:space="preserve">2.5279176235199</t>
   </si>
   <si>
     <t xml:space="preserve">2.53902149200439</t>
   </si>
   <si>
-    <t xml:space="preserve">2.52051568031311</t>
+    <t xml:space="preserve">2.52051520347595</t>
   </si>
   <si>
     <t xml:space="preserve">2.5242166519165</t>
@@ -1403,7 +1403,7 @@
     <t xml:space="preserve">2.55382633209229</t>
   </si>
   <si>
-    <t xml:space="preserve">2.57603335380554</t>
+    <t xml:space="preserve">2.57603359222412</t>
   </si>
   <si>
     <t xml:space="preserve">2.60194182395935</t>
@@ -1412,58 +1412,58 @@
     <t xml:space="preserve">2.59083819389343</t>
   </si>
   <si>
-    <t xml:space="preserve">2.57973432540894</t>
+    <t xml:space="preserve">2.57973456382751</t>
   </si>
   <si>
     <t xml:space="preserve">2.62785005569458</t>
   </si>
   <si>
-    <t xml:space="preserve">2.64635610580444</t>
+    <t xml:space="preserve">2.64635634422302</t>
   </si>
   <si>
     <t xml:space="preserve">2.64265489578247</t>
   </si>
   <si>
-    <t xml:space="preserve">2.6389536857605</t>
+    <t xml:space="preserve">2.63895392417908</t>
   </si>
   <si>
     <t xml:space="preserve">2.65745973587036</t>
   </si>
   <si>
-    <t xml:space="preserve">2.67226457595825</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.71297764778137</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.72778248786926</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.70187425613403</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.69077062606812</t>
+    <t xml:space="preserve">2.67226433753967</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.71297788619995</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.72778224945068</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.70187401771545</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.69077038764954</t>
   </si>
   <si>
     <t xml:space="preserve">2.74258732795715</t>
   </si>
   <si>
-    <t xml:space="preserve">2.75739192962646</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.82401347160339</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.82031226158142</t>
+    <t xml:space="preserve">2.75739216804504</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.82401371002197</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.8203125</t>
   </si>
   <si>
     <t xml:space="preserve">2.84992218017578</t>
   </si>
   <si>
-    <t xml:space="preserve">2.83881831169128</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.02654075622559</t>
+    <t xml:space="preserve">2.83881855010986</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.02654099464417</t>
   </si>
   <si>
     <t xml:space="preserve">2.74035239219666</t>
@@ -1478,10 +1478,10 @@
     <t xml:space="preserve">2.70898938179016</t>
   </si>
   <si>
-    <t xml:space="preserve">2.68154668807983</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.75603437423706</t>
+    <t xml:space="preserve">2.68154692649841</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.75603413581848</t>
   </si>
   <si>
     <t xml:space="preserve">2.84228277206421</t>
@@ -1490,13 +1490,13 @@
     <t xml:space="preserve">2.79915833473206</t>
   </si>
   <si>
-    <t xml:space="preserve">2.82268095016479</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.78347682952881</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.7756359577179</t>
+    <t xml:space="preserve">2.82268047332764</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.78347659111023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.77563571929932</t>
   </si>
   <si>
     <t xml:space="preserve">2.76779532432556</t>
@@ -1508,7 +1508,7 @@
     <t xml:space="preserve">2.78739738464355</t>
   </si>
   <si>
-    <t xml:space="preserve">2.84620308876038</t>
+    <t xml:space="preserve">2.84620332717896</t>
   </si>
   <si>
     <t xml:space="preserve">2.85796427726746</t>
@@ -1517,61 +1517,61 @@
     <t xml:space="preserve">2.82660102844238</t>
   </si>
   <si>
-    <t xml:space="preserve">2.8344419002533</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.85012364387512</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.86188435554504</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.87364554405212</t>
+    <t xml:space="preserve">2.83444166183472</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.85012340545654</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.86188459396362</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.87364602088928</t>
   </si>
   <si>
     <t xml:space="preserve">2.99517774581909</t>
   </si>
   <si>
-    <t xml:space="preserve">2.92461085319519</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.95597386360168</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.97165536880493</t>
+    <t xml:space="preserve">2.92461061477661</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.95597410202026</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.97165560722351</t>
   </si>
   <si>
     <t xml:space="preserve">2.94813323020935</t>
   </si>
   <si>
-    <t xml:space="preserve">2.94029259681702</t>
+    <t xml:space="preserve">2.94029235839844</t>
   </si>
   <si>
     <t xml:space="preserve">2.9638147354126</t>
   </si>
   <si>
-    <t xml:space="preserve">2.95989418029785</t>
+    <t xml:space="preserve">2.95989441871643</t>
   </si>
   <si>
     <t xml:space="preserve">3.00693917274475</t>
   </si>
   <si>
-    <t xml:space="preserve">3.10494875907898</t>
+    <t xml:space="preserve">3.10494899749756</t>
   </si>
   <si>
     <t xml:space="preserve">3.06966543197632</t>
   </si>
   <si>
-    <t xml:space="preserve">3.03830218315125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.07750606536865</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.13631176948547</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.15983462333679</t>
+    <t xml:space="preserve">3.03830194473267</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.07750582695007</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.13631200790405</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.15983438491821</t>
   </si>
   <si>
     <t xml:space="preserve">3.18335652351379</t>
@@ -1586,13 +1586,13 @@
     <t xml:space="preserve">3.25392365455627</t>
   </si>
   <si>
-    <t xml:space="preserve">3.26960515975952</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.30096840858459</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.33233118057251</t>
+    <t xml:space="preserve">3.2696053981781</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.30096817016602</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.33233141899109</t>
   </si>
   <si>
     <t xml:space="preserve">3.31272912025452</t>
@@ -1607,10 +1607,10 @@
     <t xml:space="preserve">3.22648072242737</t>
   </si>
   <si>
-    <t xml:space="preserve">3.25784420967102</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.24216246604919</t>
+    <t xml:space="preserve">3.25784397125244</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.24216294288635</t>
   </si>
   <si>
     <t xml:space="preserve">3.19119739532471</t>
@@ -1619,55 +1619,55 @@
     <t xml:space="preserve">3.14023232460022</t>
   </si>
   <si>
-    <t xml:space="preserve">3.12847113609314</t>
+    <t xml:space="preserve">3.12847137451172</t>
   </si>
   <si>
     <t xml:space="preserve">3.11670994758606</t>
   </si>
   <si>
-    <t xml:space="preserve">3.0500636100769</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.05398344993591</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.21864008903503</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.21471977233887</t>
+    <t xml:space="preserve">3.05006337165833</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.05398392677307</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.21864032745361</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.21472001075745</t>
   </si>
   <si>
     <t xml:space="preserve">3.16375470161438</t>
   </si>
   <si>
-    <t xml:space="preserve">3.14807295799255</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.04222273826599</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.12063002586365</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.12455081939697</t>
+    <t xml:space="preserve">3.14807271957397</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.04222249984741</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.12063026428223</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.12455058097839</t>
   </si>
   <si>
     <t xml:space="preserve">3.08534669876099</t>
   </si>
   <si>
-    <t xml:space="preserve">3.08926701545715</t>
+    <t xml:space="preserve">3.08926725387573</t>
   </si>
   <si>
     <t xml:space="preserve">3.11278963088989</t>
   </si>
   <si>
-    <t xml:space="preserve">3.10102820396423</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.98341679573059</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.88148641586304</t>
+    <t xml:space="preserve">3.10102844238281</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.98341655731201</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.88148665428162</t>
   </si>
   <si>
     <t xml:space="preserve">2.93637204170227</t>
@@ -1679,7 +1679,7 @@
     <t xml:space="preserve">2.98733711242676</t>
   </si>
   <si>
-    <t xml:space="preserve">2.97949624061584</t>
+    <t xml:space="preserve">2.97949600219727</t>
   </si>
   <si>
     <t xml:space="preserve">2.99909830093384</t>
@@ -1688,10 +1688,10 @@
     <t xml:space="preserve">3.00301861763</t>
   </si>
   <si>
-    <t xml:space="preserve">3.05790400505066</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.03438186645508</t>
+    <t xml:space="preserve">3.05790424346924</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.0343816280365</t>
   </si>
   <si>
     <t xml:space="preserve">3.06574511528015</t>
@@ -1700,16 +1700,16 @@
     <t xml:space="preserve">3.04614281654358</t>
   </si>
   <si>
-    <t xml:space="preserve">3.03046154975891</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.9324517250061</t>
+    <t xml:space="preserve">3.03046131134033</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.93245148658752</t>
   </si>
   <si>
     <t xml:space="preserve">2.91284966468811</t>
   </si>
   <si>
-    <t xml:space="preserve">2.90108847618103</t>
+    <t xml:space="preserve">2.90108871459961</t>
   </si>
   <si>
     <t xml:space="preserve">2.94421291351318</t>
@@ -1718,34 +1718,34 @@
     <t xml:space="preserve">2.89324760437012</t>
   </si>
   <si>
-    <t xml:space="preserve">3.01870012283325</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.1519935131073</t>
+    <t xml:space="preserve">3.01870036125183</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.15199327468872</t>
   </si>
   <si>
     <t xml:space="preserve">3.17551589012146</t>
   </si>
   <si>
-    <t xml:space="preserve">3.09710812568665</t>
+    <t xml:space="preserve">3.09710788726807</t>
   </si>
   <si>
     <t xml:space="preserve">3.10886907577515</t>
   </si>
   <si>
-    <t xml:space="preserve">3.02262043952942</t>
+    <t xml:space="preserve">3.022620677948</t>
   </si>
   <si>
     <t xml:space="preserve">3.01085925102234</t>
   </si>
   <si>
-    <t xml:space="preserve">2.91676998138428</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.9520537853241</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.99125719070435</t>
+    <t xml:space="preserve">2.91677021980286</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.95205354690552</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.9912576675415</t>
   </si>
   <si>
     <t xml:space="preserve">3.13239145278931</t>
@@ -1760,28 +1760,28 @@
     <t xml:space="preserve">3.48522686958313</t>
   </si>
   <si>
-    <t xml:space="preserve">3.58323645591736</t>
+    <t xml:space="preserve">3.58323669433594</t>
   </si>
   <si>
     <t xml:space="preserve">3.52443027496338</t>
   </si>
   <si>
-    <t xml:space="preserve">3.58715677261353</t>
+    <t xml:space="preserve">3.58715653419495</t>
   </si>
   <si>
     <t xml:space="preserve">3.61459946632385</t>
   </si>
   <si>
-    <t xml:space="preserve">3.5165901184082</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.4225001335144</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.39505743980408</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.37937593460083</t>
+    <t xml:space="preserve">3.51658987998962</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.42250037193298</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.39505767822266</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.37937617301941</t>
   </si>
   <si>
     <t xml:space="preserve">3.43818211555481</t>
@@ -1790,19 +1790,19 @@
     <t xml:space="preserve">3.48130631446838</t>
   </si>
   <si>
-    <t xml:space="preserve">3.45386409759521</t>
+    <t xml:space="preserve">3.45386362075806</t>
   </si>
   <si>
     <t xml:space="preserve">3.28920745849609</t>
   </si>
   <si>
-    <t xml:space="preserve">3.26176428794861</t>
+    <t xml:space="preserve">3.26176404953003</t>
   </si>
   <si>
     <t xml:space="preserve">3.21079921722412</t>
   </si>
   <si>
-    <t xml:space="preserve">3.08142638206482</t>
+    <t xml:space="preserve">3.0814266204834</t>
   </si>
   <si>
     <t xml:space="preserve">3.26568460464478</t>
@@ -1811,16 +1811,16 @@
     <t xml:space="preserve">3.23432159423828</t>
   </si>
   <si>
-    <t xml:space="preserve">3.19511771202087</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.69722819328308</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.13269186019897</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.36399555206299</t>
+    <t xml:space="preserve">3.19511747360229</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.69722843170166</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.13269209861755</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.36399531364441</t>
   </si>
   <si>
     <t xml:space="preserve">2.45024371147156</t>
@@ -1829,19 +1829,19 @@
     <t xml:space="preserve">2.49336814880371</t>
   </si>
   <si>
-    <t xml:space="preserve">2.50512886047363</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.55217385292053</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.61882019042969</t>
+    <t xml:space="preserve">2.50512933731079</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.55217361450195</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.61882042884827</t>
   </si>
   <si>
     <t xml:space="preserve">2.60313892364502</t>
   </si>
   <si>
-    <t xml:space="preserve">2.63450169563293</t>
+    <t xml:space="preserve">2.63450193405151</t>
   </si>
   <si>
     <t xml:space="preserve">2.58353710174561</t>
@@ -1850,7 +1850,7 @@
     <t xml:space="preserve">2.54433298110962</t>
   </si>
   <si>
-    <t xml:space="preserve">2.51689052581787</t>
+    <t xml:space="preserve">2.51689004898071</t>
   </si>
   <si>
     <t xml:space="preserve">2.63842248916626</t>
@@ -1862,28 +1862,28 @@
     <t xml:space="preserve">2.50904965400696</t>
   </si>
   <si>
-    <t xml:space="preserve">2.46984553337097</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.51296973228455</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.53257179260254</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.54041266441345</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.52865147590637</t>
+    <t xml:space="preserve">2.46984577178955</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.51296997070312</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.53257203102112</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.54041290283203</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.52865123748779</t>
   </si>
   <si>
     <t xml:space="preserve">2.54825353622437</t>
   </si>
   <si>
-    <t xml:space="preserve">2.52473092079163</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.57177591323853</t>
+    <t xml:space="preserve">2.52473115921021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.57177567481995</t>
   </si>
   <si>
     <t xml:space="preserve">2.58745718002319</t>
@@ -1895,10 +1895,10 @@
     <t xml:space="preserve">2.61097955703735</t>
   </si>
   <si>
-    <t xml:space="preserve">2.65018343925476</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.62274074554443</t>
+    <t xml:space="preserve">2.65018391609192</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.62274098396301</t>
   </si>
   <si>
     <t xml:space="preserve">2.6266610622406</t>
@@ -1910,52 +1910,52 @@
     <t xml:space="preserve">2.92069053649902</t>
   </si>
   <si>
-    <t xml:space="preserve">3.30880928039551</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.44994306564331</t>
+    <t xml:space="preserve">3.30880880355835</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.44994330406189</t>
   </si>
   <si>
     <t xml:space="preserve">3.43426156044006</t>
   </si>
   <si>
-    <t xml:space="preserve">3.50704002380371</t>
+    <t xml:space="preserve">3.50703978538513</t>
   </si>
   <si>
     <t xml:space="preserve">3.32983326911926</t>
   </si>
   <si>
-    <t xml:space="preserve">3.25565385818481</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.14438438415527</t>
+    <t xml:space="preserve">3.25565409660339</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.14438462257385</t>
   </si>
   <si>
     <t xml:space="preserve">3.14026355743408</t>
   </si>
   <si>
-    <t xml:space="preserve">3.21444296836853</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.24741148948669</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.19383764266968</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.22680640220642</t>
+    <t xml:space="preserve">3.21444320678711</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.24741172790527</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.1938374042511</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.22680616378784</t>
   </si>
   <si>
     <t xml:space="preserve">3.2721381187439</t>
   </si>
   <si>
-    <t xml:space="preserve">3.21856427192688</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.11141586303711</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.06196308135986</t>
+    <t xml:space="preserve">3.21856379508972</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.11141633987427</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.06196284294128</t>
   </si>
   <si>
     <t xml:space="preserve">3.08256840705872</t>
@@ -1964,7 +1964,7 @@
     <t xml:space="preserve">3.09081077575684</t>
   </si>
   <si>
-    <t xml:space="preserve">3.11965823173523</t>
+    <t xml:space="preserve">3.11965799331665</t>
   </si>
   <si>
     <t xml:space="preserve">3.08668947219849</t>
@@ -1973,7 +1973,7 @@
     <t xml:space="preserve">3.05784201622009</t>
   </si>
   <si>
-    <t xml:space="preserve">3.04135751724243</t>
+    <t xml:space="preserve">3.04135775566101</t>
   </si>
   <si>
     <t xml:space="preserve">3.00014686584473</t>
@@ -1982,10 +1982,10 @@
     <t xml:space="preserve">2.94245171546936</t>
   </si>
   <si>
-    <t xml:space="preserve">2.91360402107239</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.93008852005005</t>
+    <t xml:space="preserve">2.91360425949097</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.93008828163147</t>
   </si>
   <si>
     <t xml:space="preserve">2.91772508621216</t>
@@ -1994,7 +1994,7 @@
     <t xml:space="preserve">2.90124082565308</t>
   </si>
   <si>
-    <t xml:space="preserve">2.90536189079285</t>
+    <t xml:space="preserve">2.90536212921143</t>
   </si>
   <si>
     <t xml:space="preserve">2.86827230453491</t>
@@ -2006,16 +2006,16 @@
     <t xml:space="preserve">2.92184615135193</t>
   </si>
   <si>
-    <t xml:space="preserve">2.87651443481445</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.89299869537354</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.80233502388</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.76112389564514</t>
+    <t xml:space="preserve">2.87651419639587</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.89299893379211</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.80233526229858</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.76112413406372</t>
   </si>
   <si>
     <t xml:space="preserve">2.74463963508606</t>
@@ -2027,7 +2027,7 @@
     <t xml:space="preserve">2.7116711139679</t>
   </si>
   <si>
-    <t xml:space="preserve">2.73227667808533</t>
+    <t xml:space="preserve">2.73227643966675</t>
   </si>
   <si>
     <t xml:space="preserve">2.82706141471863</t>
@@ -2036,46 +2036,46 @@
     <t xml:space="preserve">2.8723931312561</t>
   </si>
   <si>
-    <t xml:space="preserve">2.86002993583679</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.81469798088074</t>
+    <t xml:space="preserve">2.86003017425537</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.81469821929932</t>
   </si>
   <si>
     <t xml:space="preserve">2.81057715415955</t>
   </si>
   <si>
-    <t xml:space="preserve">2.76524543762207</t>
+    <t xml:space="preserve">2.76524519920349</t>
   </si>
   <si>
     <t xml:space="preserve">2.79409289360046</t>
   </si>
   <si>
-    <t xml:space="preserve">2.78172969818115</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.78585052490234</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.70342922210693</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.7075502872467</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.75700283050537</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.77348756790161</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.74876093864441</t>
+    <t xml:space="preserve">2.78172945976257</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.78585076332092</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.70342898368835</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.70755004882812</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.75700306892395</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.77348732948303</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.74876070022583</t>
   </si>
   <si>
     <t xml:space="preserve">2.71991324424744</t>
   </si>
   <si>
-    <t xml:space="preserve">2.72403430938721</t>
+    <t xml:space="preserve">2.72403454780579</t>
   </si>
   <si>
     <t xml:space="preserve">2.77760815620422</t>
@@ -2084,7 +2084,7 @@
     <t xml:space="preserve">2.88475656509399</t>
   </si>
   <si>
-    <t xml:space="preserve">2.64573407173157</t>
+    <t xml:space="preserve">2.64573359489441</t>
   </si>
   <si>
     <t xml:space="preserve">2.64985489845276</t>
@@ -2096,16 +2096,16 @@
     <t xml:space="preserve">2.60864400863647</t>
   </si>
   <si>
-    <t xml:space="preserve">2.6333703994751</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.62100744247437</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.62512826919556</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.59215974807739</t>
+    <t xml:space="preserve">2.63337063789368</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.62100720405579</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.62512850761414</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.59215998649597</t>
   </si>
   <si>
     <t xml:space="preserve">2.60452318191528</t>
@@ -2114,25 +2114,25 @@
     <t xml:space="preserve">2.62924957275391</t>
   </si>
   <si>
-    <t xml:space="preserve">2.64161252975464</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.61276531219482</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.58391761779785</t>
+    <t xml:space="preserve">2.64161276817322</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.61276507377625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.58391785621643</t>
   </si>
   <si>
     <t xml:space="preserve">2.59628081321716</t>
   </si>
   <si>
-    <t xml:space="preserve">2.51798033714294</t>
+    <t xml:space="preserve">2.51798057556152</t>
   </si>
   <si>
     <t xml:space="preserve">2.49737477302551</t>
   </si>
   <si>
-    <t xml:space="preserve">2.57155442237854</t>
+    <t xml:space="preserve">2.57155418395996</t>
   </si>
   <si>
     <t xml:space="preserve">2.51385927200317</t>
@@ -2141,19 +2141,19 @@
     <t xml:space="preserve">2.48913264274597</t>
   </si>
   <si>
-    <t xml:space="preserve">2.50561690330505</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.46852707862854</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.50973844528198</t>
+    <t xml:space="preserve">2.50561714172363</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.46852731704712</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.5097382068634</t>
   </si>
   <si>
     <t xml:space="preserve">2.40671133995056</t>
   </si>
   <si>
-    <t xml:space="preserve">2.42319560050964</t>
+    <t xml:space="preserve">2.42319536209106</t>
   </si>
   <si>
     <t xml:space="preserve">2.45204305648804</t>
@@ -2162,7 +2162,7 @@
     <t xml:space="preserve">2.44792199134827</t>
   </si>
   <si>
-    <t xml:space="preserve">2.47676968574524</t>
+    <t xml:space="preserve">2.47676944732666</t>
   </si>
   <si>
     <t xml:space="preserve">2.69518685340881</t>
@@ -2174,10 +2174,10 @@
     <t xml:space="preserve">2.86415100097656</t>
   </si>
   <si>
-    <t xml:space="preserve">2.88887763023376</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.89711999893188</t>
+    <t xml:space="preserve">2.88887786865234</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.89711976051331</t>
   </si>
   <si>
     <t xml:space="preserve">2.84766674041748</t>
@@ -2189,46 +2189,46 @@
     <t xml:space="preserve">2.81881928443909</t>
   </si>
   <si>
-    <t xml:space="preserve">2.83530354499817</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.83118271827698</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.03311562538147</t>
+    <t xml:space="preserve">2.83530378341675</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.83118224143982</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.03311538696289</t>
   </si>
   <si>
     <t xml:space="preserve">3.01663112640381</t>
   </si>
   <si>
-    <t xml:space="preserve">2.99602580070496</t>
+    <t xml:space="preserve">2.99602556228638</t>
   </si>
   <si>
     <t xml:space="preserve">3.02487349510193</t>
   </si>
   <si>
-    <t xml:space="preserve">3.00838875770569</t>
+    <t xml:space="preserve">3.00838899612427</t>
   </si>
   <si>
     <t xml:space="preserve">3.05372071266174</t>
   </si>
   <si>
-    <t xml:space="preserve">3.06608390808105</t>
+    <t xml:space="preserve">3.06608414649963</t>
   </si>
   <si>
     <t xml:space="preserve">3.16498994827271</t>
   </si>
   <si>
-    <t xml:space="preserve">3.10317397117615</t>
+    <t xml:space="preserve">3.10317373275757</t>
   </si>
   <si>
     <t xml:space="preserve">3.10729479789734</t>
   </si>
   <si>
-    <t xml:space="preserve">2.9754204750061</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.96717834472656</t>
+    <t xml:space="preserve">2.97542023658752</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.96717810630798</t>
   </si>
   <si>
     <t xml:space="preserve">2.98366236686707</t>
@@ -2240,25 +2240,25 @@
     <t xml:space="preserve">2.98778367042542</t>
   </si>
   <si>
-    <t xml:space="preserve">3.020751953125</t>
+    <t xml:space="preserve">3.02075219154358</t>
   </si>
   <si>
     <t xml:space="preserve">3.07844734191895</t>
   </si>
   <si>
-    <t xml:space="preserve">3.04547882080078</t>
+    <t xml:space="preserve">3.0454785823822</t>
   </si>
   <si>
     <t xml:space="preserve">3.04959964752197</t>
   </si>
   <si>
-    <t xml:space="preserve">3.03723645210266</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.0990526676178</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.09493184089661</t>
+    <t xml:space="preserve">3.03723669052124</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.09905242919922</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.09493160247803</t>
   </si>
   <si>
     <t xml:space="preserve">3.01251006126404</t>
@@ -2273,7 +2273,7 @@
     <t xml:space="preserve">3.0702052116394</t>
   </si>
   <si>
-    <t xml:space="preserve">3.14850568771362</t>
+    <t xml:space="preserve">3.14850544929504</t>
   </si>
   <si>
     <t xml:space="preserve">3.16086912155151</t>
@@ -2282,16 +2282,16 @@
     <t xml:space="preserve">3.16911101341248</t>
   </si>
   <si>
-    <t xml:space="preserve">3.18559551239014</t>
+    <t xml:space="preserve">3.18559527397156</t>
   </si>
   <si>
     <t xml:space="preserve">3.15262675285339</t>
   </si>
   <si>
-    <t xml:space="preserve">3.11553692817688</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.13202142715454</t>
+    <t xml:space="preserve">3.11553716659546</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.13202118873596</t>
   </si>
   <si>
     <t xml:space="preserve">3.12790036201477</t>
@@ -2300,7 +2300,7 @@
     <t xml:space="preserve">3.22268533706665</t>
   </si>
   <si>
-    <t xml:space="preserve">3.19795894622803</t>
+    <t xml:space="preserve">3.19795870780945</t>
   </si>
   <si>
     <t xml:space="preserve">3.17323207855225</t>
@@ -2309,19 +2309,19 @@
     <t xml:space="preserve">3.20620107650757</t>
   </si>
   <si>
-    <t xml:space="preserve">3.24329042434692</t>
+    <t xml:space="preserve">3.2432906627655</t>
   </si>
   <si>
     <t xml:space="preserve">3.18971657752991</t>
   </si>
   <si>
-    <t xml:space="preserve">3.23916935920715</t>
+    <t xml:space="preserve">3.23916959762573</t>
   </si>
   <si>
     <t xml:space="preserve">3.27625918388367</t>
   </si>
   <si>
-    <t xml:space="preserve">3.25153279304504</t>
+    <t xml:space="preserve">3.25153255462646</t>
   </si>
   <si>
     <t xml:space="preserve">3.36280179023743</t>
@@ -2336,16 +2336,16 @@
     <t xml:space="preserve">3.30510687828064</t>
   </si>
   <si>
-    <t xml:space="preserve">3.34219646453857</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.36364841461182</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.25209856033325</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.20919489860535</t>
+    <t xml:space="preserve">3.34219622612</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.36364817619324</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.25209879875183</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.20919513702393</t>
   </si>
   <si>
     <t xml:space="preserve">3.22635650634766</t>
@@ -2354,43 +2354,43 @@
     <t xml:space="preserve">3.27784085273743</t>
   </si>
   <si>
-    <t xml:space="preserve">3.23493719100952</t>
+    <t xml:space="preserve">3.2349374294281</t>
   </si>
   <si>
     <t xml:space="preserve">3.21348547935486</t>
   </si>
   <si>
-    <t xml:space="preserve">3.19632387161255</t>
+    <t xml:space="preserve">3.19632411003113</t>
   </si>
   <si>
     <t xml:space="preserve">3.21777582168579</t>
   </si>
   <si>
-    <t xml:space="preserve">3.15771079063416</t>
+    <t xml:space="preserve">3.15771055221558</t>
   </si>
   <si>
     <t xml:space="preserve">3.17487215995789</t>
   </si>
   <si>
-    <t xml:space="preserve">3.17916226387024</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.16200089454651</t>
+    <t xml:space="preserve">3.17916250228882</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.16200113296509</t>
   </si>
   <si>
     <t xml:space="preserve">3.14913010597229</t>
   </si>
   <si>
-    <t xml:space="preserve">3.18345284461975</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.17058157920837</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.20061421394348</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.1920337677002</t>
+    <t xml:space="preserve">3.18345308303833</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.17058181762695</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.20061445236206</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.19203352928162</t>
   </si>
   <si>
     <t xml:space="preserve">3.23064684867859</t>
@@ -2402,34 +2402,34 @@
     <t xml:space="preserve">3.12767815589905</t>
   </si>
   <si>
-    <t xml:space="preserve">3.13625860214233</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.10622620582581</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.0761935710907</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.08906483650208</t>
+    <t xml:space="preserve">3.13625884056091</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.10622596740723</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.07619380950928</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.0890645980835</t>
   </si>
   <si>
     <t xml:space="preserve">3.04187083244324</t>
   </si>
   <si>
-    <t xml:space="preserve">3.03758001327515</t>
+    <t xml:space="preserve">3.03758025169373</t>
   </si>
   <si>
     <t xml:space="preserve">3.0504515171051</t>
   </si>
   <si>
-    <t xml:space="preserve">3.04616117477417</t>
+    <t xml:space="preserve">3.04616093635559</t>
   </si>
   <si>
     <t xml:space="preserve">3.02899956703186</t>
   </si>
   <si>
-    <t xml:space="preserve">2.98180556297302</t>
+    <t xml:space="preserve">2.98180532455444</t>
   </si>
   <si>
     <t xml:space="preserve">3.0075478553772</t>
@@ -2453,16 +2453,16 @@
     <t xml:space="preserve">2.92174029350281</t>
   </si>
   <si>
-    <t xml:space="preserve">2.93890166282654</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.00325727462769</t>
+    <t xml:space="preserve">2.93890190124512</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.00325751304626</t>
   </si>
   <si>
     <t xml:space="preserve">3.03328990936279</t>
   </si>
   <si>
-    <t xml:space="preserve">3.02041888237</t>
+    <t xml:space="preserve">3.02041864395142</t>
   </si>
   <si>
     <t xml:space="preserve">3.01612854003906</t>
@@ -2480,7 +2480,7 @@
     <t xml:space="preserve">3.13196849822998</t>
   </si>
   <si>
-    <t xml:space="preserve">3.16629123687744</t>
+    <t xml:space="preserve">3.16629147529602</t>
   </si>
   <si>
     <t xml:space="preserve">3.11480712890625</t>
@@ -2492,7 +2492,7 @@
     <t xml:space="preserve">3.0633225440979</t>
   </si>
   <si>
-    <t xml:space="preserve">3.11051654815674</t>
+    <t xml:space="preserve">3.11051678657532</t>
   </si>
   <si>
     <t xml:space="preserve">3.08477449417114</t>
@@ -2507,10 +2507,10 @@
     <t xml:space="preserve">2.96464395523071</t>
   </si>
   <si>
-    <t xml:space="preserve">2.94748258590698</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.95177292823792</t>
+    <t xml:space="preserve">2.9474823474884</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.95177316665649</t>
   </si>
   <si>
     <t xml:space="preserve">2.95606327056885</t>
@@ -2519,16 +2519,16 @@
     <t xml:space="preserve">2.99467658996582</t>
   </si>
   <si>
-    <t xml:space="preserve">2.98609590530396</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.10193562507629</t>
+    <t xml:space="preserve">2.98609614372253</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.10193586349487</t>
   </si>
   <si>
     <t xml:space="preserve">3.05474162101746</t>
   </si>
   <si>
-    <t xml:space="preserve">2.96893429756165</t>
+    <t xml:space="preserve">2.96893453598022</t>
   </si>
   <si>
     <t xml:space="preserve">2.91745018959045</t>
@@ -2537,7 +2537,7 @@
     <t xml:space="preserve">2.93032097816467</t>
   </si>
   <si>
-    <t xml:space="preserve">2.9045786857605</t>
+    <t xml:space="preserve">2.90457892417908</t>
   </si>
   <si>
     <t xml:space="preserve">2.97751522064209</t>
@@ -2549,7 +2549,7 @@
     <t xml:space="preserve">2.94319224357605</t>
   </si>
   <si>
-    <t xml:space="preserve">2.97322463989258</t>
+    <t xml:space="preserve">2.97322487831116</t>
   </si>
   <si>
     <t xml:space="preserve">2.93461155891418</t>
@@ -2558,10 +2558,10 @@
     <t xml:space="preserve">2.79731965065002</t>
   </si>
   <si>
-    <t xml:space="preserve">2.91315984725952</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.89170789718628</t>
+    <t xml:space="preserve">2.91315960884094</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.8917076587677</t>
   </si>
   <si>
     <t xml:space="preserve">2.82306170463562</t>
@@ -2570,10 +2570,10 @@
     <t xml:space="preserve">2.77157735824585</t>
   </si>
   <si>
-    <t xml:space="preserve">2.80160999298096</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.90028858184814</t>
+    <t xml:space="preserve">2.80161023139954</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.90028882026672</t>
   </si>
   <si>
     <t xml:space="preserve">2.87454628944397</t>
@@ -2582,10 +2582,10 @@
     <t xml:space="preserve">2.83164262771606</t>
   </si>
   <si>
-    <t xml:space="preserve">2.89599823951721</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.85738492012024</t>
+    <t xml:space="preserve">2.89599800109863</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.85738468170166</t>
   </si>
   <si>
     <t xml:space="preserve">2.87025594711304</t>
@@ -2600,7 +2600,7 @@
     <t xml:space="preserve">3.1108820438385</t>
   </si>
   <si>
-    <t xml:space="preserve">3.07936811447144</t>
+    <t xml:space="preserve">3.07936835289001</t>
   </si>
   <si>
     <t xml:space="preserve">3.02984619140625</t>
@@ -2609,22 +2609,22 @@
     <t xml:space="preserve">2.98932814598083</t>
   </si>
   <si>
-    <t xml:space="preserve">2.96681833267212</t>
+    <t xml:space="preserve">2.96681809425354</t>
   </si>
   <si>
     <t xml:space="preserve">3.03434801101685</t>
   </si>
   <si>
-    <t xml:space="preserve">2.98482632637024</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.96231627464294</t>
+    <t xml:space="preserve">2.98482608795166</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.96231603622437</t>
   </si>
   <si>
     <t xml:space="preserve">2.93980622291565</t>
   </si>
   <si>
-    <t xml:space="preserve">2.93080234527588</t>
+    <t xml:space="preserve">2.9308021068573</t>
   </si>
   <si>
     <t xml:space="preserve">2.95781421661377</t>
@@ -2639,7 +2639,7 @@
     <t xml:space="preserve">3.01634001731873</t>
   </si>
   <si>
-    <t xml:space="preserve">2.99833226203918</t>
+    <t xml:space="preserve">2.99833202362061</t>
   </si>
   <si>
     <t xml:space="preserve">3.04335236549377</t>
@@ -2654,13 +2654,13 @@
     <t xml:space="preserve">2.82725620269775</t>
   </si>
   <si>
-    <t xml:space="preserve">2.78673815727234</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.88128042221069</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.82275414466858</t>
+    <t xml:space="preserve">2.78673839569092</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.88128018379211</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.82275438308716</t>
   </si>
   <si>
     <t xml:space="preserve">2.77323222160339</t>
@@ -2672,22 +2672,22 @@
     <t xml:space="preserve">2.66968607902527</t>
   </si>
   <si>
-    <t xml:space="preserve">2.65618014335632</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.70120000839233</t>
+    <t xml:space="preserve">2.6561803817749</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.70120024681091</t>
   </si>
   <si>
     <t xml:space="preserve">2.71920824050903</t>
   </si>
   <si>
-    <t xml:space="preserve">2.59765434265137</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.62916803359985</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.63367033004761</t>
+    <t xml:space="preserve">2.59765410423279</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.62916827201843</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.63367009162903</t>
   </si>
   <si>
     <t xml:space="preserve">2.53912806510925</t>
@@ -2696,7 +2696,7 @@
     <t xml:space="preserve">2.56614017486572</t>
   </si>
   <si>
-    <t xml:space="preserve">2.54813194274902</t>
+    <t xml:space="preserve">2.5481321811676</t>
   </si>
   <si>
     <t xml:space="preserve">2.60665822029114</t>
@@ -2717,7 +2717,7 @@
     <t xml:space="preserve">2.42207622528076</t>
   </si>
   <si>
-    <t xml:space="preserve">2.41757392883301</t>
+    <t xml:space="preserve">2.41757416725159</t>
   </si>
   <si>
     <t xml:space="preserve">2.38606023788452</t>
@@ -2765,10 +2765,10 @@
     <t xml:space="preserve">2.44908809661865</t>
   </si>
   <si>
-    <t xml:space="preserve">2.3905622959137</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.32303214073181</t>
+    <t xml:space="preserve">2.39056205749512</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.32303190231323</t>
   </si>
   <si>
     <t xml:space="preserve">2.20598006248474</t>
@@ -2777,16 +2777,16 @@
     <t xml:space="preserve">2.23299217224121</t>
   </si>
   <si>
-    <t xml:space="preserve">2.16096019744873</t>
+    <t xml:space="preserve">2.16096043586731</t>
   </si>
   <si>
     <t xml:space="preserve">2.21948599815369</t>
   </si>
   <si>
-    <t xml:space="preserve">2.20147800445557</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.22398829460144</t>
+    <t xml:space="preserve">2.20147824287415</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.22398805618286</t>
   </si>
   <si>
     <t xml:space="preserve">2.24199604988098</t>
@@ -2798,7 +2798,7 @@
     <t xml:space="preserve">2.27351021766663</t>
   </si>
   <si>
-    <t xml:space="preserve">2.24649810791016</t>
+    <t xml:space="preserve">2.24649786949158</t>
   </si>
   <si>
     <t xml:space="preserve">2.21498417854309</t>
@@ -2810,16 +2810,16 @@
     <t xml:space="preserve">2.12044215202332</t>
   </si>
   <si>
-    <t xml:space="preserve">1.97187626361847</t>
+    <t xml:space="preserve">1.97187614440918</t>
   </si>
   <si>
     <t xml:space="preserve">2.03490424156189</t>
   </si>
   <si>
-    <t xml:space="preserve">1.98088014125824</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.944864153862</t>
+    <t xml:space="preserve">1.98088026046753</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.94486427307129</t>
   </si>
   <si>
     <t xml:space="preserve">1.89984405040741</t>
@@ -2837,28 +2837,28 @@
     <t xml:space="preserve">1.78279209136963</t>
   </si>
   <si>
-    <t xml:space="preserve">1.75758099555969</t>
+    <t xml:space="preserve">1.7575808763504</t>
   </si>
   <si>
     <t xml:space="preserve">1.72156488895416</t>
   </si>
   <si>
-    <t xml:space="preserve">1.7017560005188</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.73777198791504</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.8098042011261</t>
+    <t xml:space="preserve">1.70175611972809</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.73777210712433</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.80980408191681</t>
   </si>
   <si>
     <t xml:space="preserve">1.8773341178894</t>
   </si>
   <si>
-    <t xml:space="preserve">2.01689600944519</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.93135821819305</t>
+    <t xml:space="preserve">2.01689624786377</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.93135809898376</t>
   </si>
   <si>
     <t xml:space="preserve">2.06191611289978</t>
@@ -2879,25 +2879,25 @@
     <t xml:space="preserve">2.14745426177979</t>
   </si>
   <si>
-    <t xml:space="preserve">2.05291199684143</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.17896819114685</t>
+    <t xml:space="preserve">2.05291223526001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.17896842956543</t>
   </si>
   <si>
     <t xml:space="preserve">2.1879723072052</t>
   </si>
   <si>
-    <t xml:space="preserve">2.14295220375061</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.1699640750885</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.28251433372498</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.28701615333557</t>
+    <t xml:space="preserve">2.14295244216919</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.16996431350708</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.2825140953064</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.28701591491699</t>
   </si>
   <si>
     <t xml:space="preserve">2.26450610160828</t>
@@ -2912,25 +2912,25 @@
     <t xml:space="preserve">2.29151821136475</t>
   </si>
   <si>
-    <t xml:space="preserve">2.31853032112122</t>
+    <t xml:space="preserve">2.31853008270264</t>
   </si>
   <si>
     <t xml:space="preserve">2.30052208900452</t>
   </si>
   <si>
-    <t xml:space="preserve">2.30502414703369</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.2780122756958</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.25100016593933</t>
+    <t xml:space="preserve">2.30502390861511</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.27801203727722</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.25099992752075</t>
   </si>
   <si>
     <t xml:space="preserve">2.17446613311768</t>
   </si>
   <si>
-    <t xml:space="preserve">2.16546201705933</t>
+    <t xml:space="preserve">2.16546225547791</t>
   </si>
   <si>
     <t xml:space="preserve">2.19697618484497</t>
@@ -2948,10 +2948,10 @@
     <t xml:space="preserve">2.33653807640076</t>
   </si>
   <si>
-    <t xml:space="preserve">2.39506435394287</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.43108034133911</t>
+    <t xml:space="preserve">2.39506411552429</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.43108010292053</t>
   </si>
   <si>
     <t xml:space="preserve">2.40857005119324</t>
@@ -2996,28 +2996,28 @@
     <t xml:space="preserve">2.54363012313843</t>
   </si>
   <si>
-    <t xml:space="preserve">2.35904812812805</t>
+    <t xml:space="preserve">2.35904788970947</t>
   </si>
   <si>
     <t xml:space="preserve">2.32753419876099</t>
   </si>
   <si>
-    <t xml:space="preserve">2.38155794143677</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.35004425048828</t>
+    <t xml:space="preserve">2.38155817985535</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.3500440120697</t>
   </si>
   <si>
     <t xml:space="preserve">2.50761413574219</t>
   </si>
   <si>
-    <t xml:space="preserve">2.52562236785889</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.58864998817444</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.62016415596008</t>
+    <t xml:space="preserve">2.52562212944031</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.58865022659302</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.62016439437866</t>
   </si>
   <si>
     <t xml:space="preserve">2.54005122184753</t>
@@ -59466,7 +59466,7 @@
     </row>
     <row r="2145">
       <c r="A2145" s="1" t="n">
-        <v>45448.6494212963</v>
+        <v>45448.2916666667</v>
       </c>
       <c r="B2145" t="n">
         <v>138107</v>
@@ -59487,6 +59487,32 @@
         <v>1122</v>
       </c>
       <c r="H2145" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2146">
+      <c r="A2146" s="1" t="n">
+        <v>45449.6494097222</v>
+      </c>
+      <c r="B2146" t="n">
+        <v>152858</v>
+      </c>
+      <c r="C2146" t="n">
+        <v>2.28500008583069</v>
+      </c>
+      <c r="D2146" t="n">
+        <v>2.25999999046326</v>
+      </c>
+      <c r="E2146" t="n">
+        <v>2.27999997138977</v>
+      </c>
+      <c r="F2146" t="n">
+        <v>2.27500009536743</v>
+      </c>
+      <c r="G2146" t="s">
+        <v>1122</v>
+      </c>
+      <c r="H2146" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/ASC.MI.xlsx
+++ b/data/ASC.MI.xlsx
@@ -44,34 +44,34 @@
     <t xml:space="preserve">ASC.MI</t>
   </si>
   <si>
-    <t xml:space="preserve">1.389120221138</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.37659430503845</t>
+    <t xml:space="preserve">1.38912034034729</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.37659418582916</t>
   </si>
   <si>
     <t xml:space="preserve">1.37784707546234</t>
   </si>
   <si>
-    <t xml:space="preserve">1.36281609535217</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.35530054569244</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.38410997390747</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.35655307769775</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.3377640247345</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.29642879962921</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.30018663406372</t>
+    <t xml:space="preserve">1.36281597614288</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.35530030727386</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.38410985469818</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.35655283927917</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.33776426315308</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.2964289188385</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.30018651485443</t>
   </si>
   <si>
     <t xml:space="preserve">1.25885105133057</t>
@@ -80,28 +80,28 @@
     <t xml:space="preserve">1.28390288352966</t>
   </si>
   <si>
-    <t xml:space="preserve">1.36532115936279</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.36156344413757</t>
+    <t xml:space="preserve">1.3653210401535</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.36156332492828</t>
   </si>
   <si>
     <t xml:space="preserve">1.35404777526855</t>
   </si>
   <si>
-    <t xml:space="preserve">1.38160479068756</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.38661515712738</t>
+    <t xml:space="preserve">1.38160467147827</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.38661503791809</t>
   </si>
   <si>
     <t xml:space="preserve">1.37158405780792</t>
   </si>
   <si>
-    <t xml:space="preserve">1.30895447731018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.31521725654602</t>
+    <t xml:space="preserve">1.30895471572876</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.3152174949646</t>
   </si>
   <si>
     <t xml:space="preserve">1.31396508216858</t>
@@ -110,85 +110,85 @@
     <t xml:space="preserve">1.2939236164093</t>
   </si>
   <si>
-    <t xml:space="preserve">1.31145966053009</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.3365113735199</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.33400642871857</t>
+    <t xml:space="preserve">1.31145989894867</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.33651173114777</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.33400654792786</t>
   </si>
   <si>
     <t xml:space="preserve">1.3402693271637</t>
   </si>
   <si>
-    <t xml:space="preserve">1.34277451038361</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.40039372444153</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.39663589000702</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.39914083480835</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.39162564277649</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.39413070678711</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.38035225868225</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.39287805557251</t>
+    <t xml:space="preserve">1.34277439117432</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.40039360523224</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.39663577079773</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.39914119243622</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.39162540435791</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.39413058757782</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.38035202026367</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.39287793636322</t>
   </si>
   <si>
     <t xml:space="preserve">1.41166687011719</t>
   </si>
   <si>
-    <t xml:space="preserve">1.42043507099152</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.42294013500214</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.43797135353088</t>
+    <t xml:space="preserve">1.42043519020081</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.42294025421143</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.4379711151123</t>
   </si>
   <si>
     <t xml:space="preserve">1.43546605110168</t>
   </si>
   <si>
-    <t xml:space="preserve">1.42419266700745</t>
+    <t xml:space="preserve">1.42419278621674</t>
   </si>
   <si>
     <t xml:space="preserve">1.41918241977692</t>
   </si>
   <si>
-    <t xml:space="preserve">1.43922388553619</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.41667711734772</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.43296098709106</t>
+    <t xml:space="preserve">1.4392237663269</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.4166773557663</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.43296110630035</t>
   </si>
   <si>
     <t xml:space="preserve">1.43671846389771</t>
   </si>
   <si>
-    <t xml:space="preserve">1.4404764175415</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.42544543743134</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.44172894954681</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.46678066253662</t>
+    <t xml:space="preserve">1.44047629833221</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.42544531822205</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.44172883033752</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.46678078174591</t>
   </si>
   <si>
     <t xml:space="preserve">1.45926511287689</t>
@@ -197,40 +197,40 @@
     <t xml:space="preserve">1.46177053451538</t>
   </si>
   <si>
-    <t xml:space="preserve">1.4655282497406</t>
+    <t xml:space="preserve">1.46552836894989</t>
   </si>
   <si>
     <t xml:space="preserve">1.47053861618042</t>
   </si>
   <si>
-    <t xml:space="preserve">1.47805404663086</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.45675992965698</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.45801281929016</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.46051776409149</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.48181188106537</t>
+    <t xml:space="preserve">1.47805380821228</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.45676016807556</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.45801270008087</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.46051788330078</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.48181176185608</t>
   </si>
   <si>
     <t xml:space="preserve">1.49057996273041</t>
   </si>
   <si>
-    <t xml:space="preserve">1.49809527397156</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.49559032917023</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.4843168258667</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.47930657863617</t>
+    <t xml:space="preserve">1.49809551239014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.49559020996094</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.48431694507599</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.47930645942688</t>
   </si>
   <si>
     <t xml:space="preserve">1.51416945457458</t>
@@ -239,19 +239,19 @@
     <t xml:space="preserve">1.51149427890778</t>
   </si>
   <si>
-    <t xml:space="preserve">1.51550710201263</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.53155815601349</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.54894709587097</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.5449343919754</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.5596479177475</t>
+    <t xml:space="preserve">1.51550722122192</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.53155827522278</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.54894721508026</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.54493427276611</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.55964803695679</t>
   </si>
   <si>
     <t xml:space="preserve">1.56767380237579</t>
@@ -260,82 +260,82 @@
     <t xml:space="preserve">1.56901121139526</t>
   </si>
   <si>
-    <t xml:space="preserve">1.57436156272888</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.5797119140625</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.5877377986908</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.61850261688232</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.61582720279694</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.63187897205353</t>
+    <t xml:space="preserve">1.57436168193817</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.57971203327179</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.58773791790009</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.61850273609161</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.61582744121552</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.63187861442566</t>
   </si>
   <si>
     <t xml:space="preserve">1.64793002605438</t>
   </si>
   <si>
-    <t xml:space="preserve">1.67334461212158</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.63321650028229</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.64525496959686</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.62652826309204</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.67200672626495</t>
+    <t xml:space="preserve">1.67334473133087</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.63321590423584</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.64525485038757</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.62652814388275</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.67200708389282</t>
   </si>
   <si>
     <t xml:space="preserve">1.74557518959045</t>
   </si>
   <si>
-    <t xml:space="preserve">1.75226306915283</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.73353683948517</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.65461826324463</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.6385669708252</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.68939566612244</t>
+    <t xml:space="preserve">1.75226318836212</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.73353672027588</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.65461790561676</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.63856685161591</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.68939590454102</t>
   </si>
   <si>
     <t xml:space="preserve">1.73754954338074</t>
   </si>
   <si>
-    <t xml:space="preserve">1.67869508266449</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.65194284915924</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.69608402252197</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.73219919204712</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.80576753616333</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.79105365276337</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.73086166381836</t>
+    <t xml:space="preserve">1.6786949634552</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.65194308757782</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.69608378410339</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.73219895362854</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.80576729774475</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.79105377197266</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.73086142539978</t>
   </si>
   <si>
     <t xml:space="preserve">1.78971612453461</t>
@@ -350,70 +350,70 @@
     <t xml:space="preserve">1.86328458786011</t>
   </si>
   <si>
-    <t xml:space="preserve">1.86863493919373</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.87131035327911</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.83385741710663</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.83251976966858</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.87264776229858</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.88602375984192</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.8499082326889</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.84589564800262</t>
+    <t xml:space="preserve">1.8686351776123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.8713104724884</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.83385717868805</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.83251953125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.87264788150787</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.88602364063263</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.84990870952606</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.84589552879333</t>
   </si>
   <si>
     <t xml:space="preserve">1.852583527565</t>
   </si>
   <si>
-    <t xml:space="preserve">1.86462199687958</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.9087632894516</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.94621622562408</t>
+    <t xml:space="preserve">1.86462223529816</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.90876305103302</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.94621610641479</t>
   </si>
   <si>
     <t xml:space="preserve">1.90608787536621</t>
   </si>
   <si>
-    <t xml:space="preserve">1.93685269355774</t>
+    <t xml:space="preserve">1.93685281276703</t>
   </si>
   <si>
     <t xml:space="preserve">1.9234766960144</t>
   </si>
   <si>
-    <t xml:space="preserve">1.89940011501312</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.89806234836578</t>
+    <t xml:space="preserve">1.89939987659454</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.8980621099472</t>
   </si>
   <si>
     <t xml:space="preserve">1.8953869342804</t>
   </si>
   <si>
-    <t xml:space="preserve">1.91946387290955</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.9261519908905</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.91277587413788</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.92882716655731</t>
+    <t xml:space="preserve">1.91946375370026</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.92615211009979</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.91277551651001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.92882704734802</t>
   </si>
   <si>
     <t xml:space="preserve">1.91411340236664</t>
@@ -422,19 +422,19 @@
     <t xml:space="preserve">1.79907953739166</t>
   </si>
   <si>
-    <t xml:space="preserve">1.81111764907837</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.89137434959412</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.83920764923096</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.74958789348602</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.77098965644836</t>
+    <t xml:space="preserve">1.81111776828766</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.89137423038483</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.83920753002167</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.7495881319046</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.77098989486694</t>
   </si>
   <si>
     <t xml:space="preserve">1.74156260490417</t>
@@ -443,19 +443,19 @@
     <t xml:space="preserve">1.76965200901031</t>
   </si>
   <si>
-    <t xml:space="preserve">1.75493860244751</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.78302824497223</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.79506659507751</t>
+    <t xml:space="preserve">1.75493848323822</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.78302836418152</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.7950667142868</t>
   </si>
   <si>
     <t xml:space="preserve">1.75895130634308</t>
   </si>
   <si>
-    <t xml:space="preserve">1.77232706546783</t>
+    <t xml:space="preserve">1.77232730388641</t>
   </si>
   <si>
     <t xml:space="preserve">1.75092554092407</t>
@@ -470,31 +470,31 @@
     <t xml:space="preserve">1.78035283088684</t>
   </si>
   <si>
-    <t xml:space="preserve">1.78837847709656</t>
+    <t xml:space="preserve">1.78837871551514</t>
   </si>
   <si>
     <t xml:space="preserve">1.79239141941071</t>
   </si>
   <si>
-    <t xml:space="preserve">1.79774188995361</t>
+    <t xml:space="preserve">1.79774177074432</t>
   </si>
   <si>
     <t xml:space="preserve">1.75761365890503</t>
   </si>
   <si>
-    <t xml:space="preserve">1.78570353984833</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.78169047832489</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.77366507053375</t>
+    <t xml:space="preserve">1.78570342063904</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.78169083595276</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.77366495132446</t>
   </si>
   <si>
     <t xml:space="preserve">1.72684860229492</t>
   </si>
   <si>
-    <t xml:space="preserve">1.66665649414062</t>
+    <t xml:space="preserve">1.66665637493134</t>
   </si>
   <si>
     <t xml:space="preserve">1.62117779254913</t>
@@ -503,85 +503,85 @@
     <t xml:space="preserve">1.62251555919647</t>
   </si>
   <si>
-    <t xml:space="preserve">1.62786614894867</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.60913956165314</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.69207096099854</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.72417342662811</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.69875884056091</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.66531896591187</t>
+    <t xml:space="preserve">1.6278657913208</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.60913944244385</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.69207108020782</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.7241735458374</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.6987589597702</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.66531872749329</t>
   </si>
   <si>
     <t xml:space="preserve">1.62519061565399</t>
   </si>
   <si>
-    <t xml:space="preserve">1.64391720294952</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.67735719680786</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.70544695854187</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.7214982509613</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.71614789962769</t>
+    <t xml:space="preserve">1.64391708374023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.67735731601715</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.70544731616974</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.72149789333344</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.71614801883698</t>
   </si>
   <si>
     <t xml:space="preserve">1.73888695240021</t>
   </si>
   <si>
-    <t xml:space="preserve">1.72952377796173</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.72283613681793</t>
+    <t xml:space="preserve">1.7295241355896</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.72283577919006</t>
   </si>
   <si>
     <t xml:space="preserve">1.77634000778198</t>
   </si>
   <si>
-    <t xml:space="preserve">1.80710518360138</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.79640448093414</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.81914341449738</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.81513094902039</t>
+    <t xml:space="preserve">1.8071049451828</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.79640460014343</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.81914329528809</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.81513059139252</t>
   </si>
   <si>
     <t xml:space="preserve">1.82181882858276</t>
   </si>
   <si>
-    <t xml:space="preserve">1.83519494533539</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.81245541572571</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.82048106193542</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.83118200302124</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.85124588012695</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.86194670200348</t>
+    <t xml:space="preserve">1.8351948261261</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.812455534935</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.82048070430756</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.83118164539337</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.85124611854553</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.86194694042206</t>
   </si>
   <si>
     <t xml:space="preserve">1.85927164554596</t>
@@ -590,40 +590,40 @@
     <t xml:space="preserve">1.82850682735443</t>
   </si>
   <si>
-    <t xml:space="preserve">1.91545128822327</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.90742552280426</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.89003670215607</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.8779981136322</t>
+    <t xml:space="preserve">1.91545116901398</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.90742540359497</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.89003658294678</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.87799823284149</t>
   </si>
   <si>
     <t xml:space="preserve">1.92481434345245</t>
   </si>
   <si>
-    <t xml:space="preserve">1.93150222301483</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.89672493934631</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.93284022808075</t>
+    <t xml:space="preserve">1.93150246143341</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.89672446250916</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.93283987045288</t>
   </si>
   <si>
     <t xml:space="preserve">1.94487833976746</t>
   </si>
   <si>
-    <t xml:space="preserve">1.91678845882416</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.97296822071075</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.9662801027298</t>
+    <t xml:space="preserve">1.91678881645203</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.97296833992004</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.96627998352051</t>
   </si>
   <si>
     <t xml:space="preserve">1.99303209781647</t>
@@ -635,13 +635,13 @@
     <t xml:space="preserve">2.04386115074158</t>
   </si>
   <si>
-    <t xml:space="preserve">2.06124997138977</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.07061314582825</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.06660032272339</t>
+    <t xml:space="preserve">2.06125020980835</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.07061338424683</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.06660079956055</t>
   </si>
   <si>
     <t xml:space="preserve">2.11074137687683</t>
@@ -653,16 +653,16 @@
     <t xml:space="preserve">2.15220713615417</t>
   </si>
   <si>
-    <t xml:space="preserve">2.18029689788818</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.20169854164124</t>
+    <t xml:space="preserve">2.1802966594696</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.20169878005981</t>
   </si>
   <si>
     <t xml:space="preserve">2.22176289558411</t>
   </si>
   <si>
-    <t xml:space="preserve">2.18698477745056</t>
+    <t xml:space="preserve">2.18698501586914</t>
   </si>
   <si>
     <t xml:space="preserve">2.18966031074524</t>
@@ -677,22 +677,22 @@
     <t xml:space="preserve">2.24583983421326</t>
   </si>
   <si>
-    <t xml:space="preserve">2.2873055934906</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.27392959594727</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.27927994728088</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.32074546813965</t>
+    <t xml:space="preserve">2.28730535507202</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.27392935752869</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.2792797088623</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.32074570655823</t>
   </si>
   <si>
     <t xml:space="preserve">2.33010864257812</t>
   </si>
   <si>
-    <t xml:space="preserve">2.34482216835022</t>
+    <t xml:space="preserve">2.3448224067688</t>
   </si>
   <si>
     <t xml:space="preserve">2.35418558120728</t>
@@ -704,13 +704,13 @@
     <t xml:space="preserve">2.34080958366394</t>
   </si>
   <si>
-    <t xml:space="preserve">2.36756157875061</t>
+    <t xml:space="preserve">2.36756181716919</t>
   </si>
   <si>
     <t xml:space="preserve">2.35953617095947</t>
   </si>
   <si>
-    <t xml:space="preserve">2.35552334785461</t>
+    <t xml:space="preserve">2.35552310943604</t>
   </si>
   <si>
     <t xml:space="preserve">2.33947205543518</t>
@@ -722,10 +722,10 @@
     <t xml:space="preserve">2.40367746353149</t>
   </si>
   <si>
-    <t xml:space="preserve">2.37023663520813</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.36622428894043</t>
+    <t xml:space="preserve">2.37023687362671</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.36622405052185</t>
   </si>
   <si>
     <t xml:space="preserve">2.40768980979919</t>
@@ -737,13 +737,13 @@
     <t xml:space="preserve">2.40233969688416</t>
   </si>
   <si>
-    <t xml:space="preserve">2.42240381240845</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.47457003593445</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.48259568214417</t>
+    <t xml:space="preserve">2.42240357398987</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.47457027435303</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.48259592056274</t>
   </si>
   <si>
     <t xml:space="preserve">2.52941203117371</t>
@@ -752,25 +752,25 @@
     <t xml:space="preserve">2.56031012535095</t>
   </si>
   <si>
-    <t xml:space="preserve">2.54626512527466</t>
+    <t xml:space="preserve">2.54626560211182</t>
   </si>
   <si>
     <t xml:space="preserve">2.53222107887268</t>
   </si>
   <si>
-    <t xml:space="preserve">2.51255869865417</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.44795417785645</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.44374060630798</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.48587417602539</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.44514536857605</t>
+    <t xml:space="preserve">2.51255893707275</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.44795441627502</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.44374108314514</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.48587393760681</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.44514513015747</t>
   </si>
   <si>
     <t xml:space="preserve">2.43110060691833</t>
@@ -779,19 +779,19 @@
     <t xml:space="preserve">2.49991846084595</t>
   </si>
   <si>
-    <t xml:space="preserve">2.51677227020264</t>
+    <t xml:space="preserve">2.51677250862122</t>
   </si>
   <si>
     <t xml:space="preserve">2.53643441200256</t>
   </si>
   <si>
-    <t xml:space="preserve">2.55188345909119</t>
+    <t xml:space="preserve">2.55188369750977</t>
   </si>
   <si>
     <t xml:space="preserve">2.57014083862305</t>
   </si>
   <si>
-    <t xml:space="preserve">2.55609655380249</t>
+    <t xml:space="preserve">2.55609703063965</t>
   </si>
   <si>
     <t xml:space="preserve">2.49710965156555</t>
@@ -800,28 +800,28 @@
     <t xml:space="preserve">2.53783869743347</t>
   </si>
   <si>
-    <t xml:space="preserve">2.54486131668091</t>
+    <t xml:space="preserve">2.54486107826233</t>
   </si>
   <si>
     <t xml:space="preserve">2.56311893463135</t>
   </si>
   <si>
-    <t xml:space="preserve">2.5687370300293</t>
+    <t xml:space="preserve">2.56873679161072</t>
   </si>
   <si>
     <t xml:space="preserve">2.54064774513245</t>
   </si>
   <si>
-    <t xml:space="preserve">2.5280077457428</t>
+    <t xml:space="preserve">2.52800750732422</t>
   </si>
   <si>
     <t xml:space="preserve">2.54907441139221</t>
   </si>
   <si>
-    <t xml:space="preserve">2.55047917366028</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.54345679283142</t>
+    <t xml:space="preserve">2.5504789352417</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.54345655441284</t>
   </si>
   <si>
     <t xml:space="preserve">2.61086988449097</t>
@@ -830,13 +830,13 @@
     <t xml:space="preserve">2.5251989364624</t>
   </si>
   <si>
-    <t xml:space="preserve">2.50974988937378</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.49149179458618</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.49289655685425</t>
+    <t xml:space="preserve">2.5097496509552</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.49149203300476</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.49289631843567</t>
   </si>
   <si>
     <t xml:space="preserve">2.44654965400696</t>
@@ -845,13 +845,13 @@
     <t xml:space="preserve">2.43671846389771</t>
   </si>
   <si>
-    <t xml:space="preserve">2.46340274810791</t>
+    <t xml:space="preserve">2.46340298652649</t>
   </si>
   <si>
     <t xml:space="preserve">2.45357203483582</t>
   </si>
   <si>
-    <t xml:space="preserve">2.45076274871826</t>
+    <t xml:space="preserve">2.45076298713684</t>
   </si>
   <si>
     <t xml:space="preserve">2.45497632026672</t>
@@ -869,16 +869,16 @@
     <t xml:space="preserve">2.38475370407104</t>
   </si>
   <si>
-    <t xml:space="preserve">2.40862941741943</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.42267394065857</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.43250489234924</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.52098512649536</t>
+    <t xml:space="preserve">2.40862965583801</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.42267417907715</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.43250513076782</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.52098560333252</t>
   </si>
   <si>
     <t xml:space="preserve">2.51536774635315</t>
@@ -893,61 +893,61 @@
     <t xml:space="preserve">2.49008750915527</t>
   </si>
   <si>
-    <t xml:space="preserve">2.47182989120483</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.47323393821716</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.45778489112854</t>
+    <t xml:space="preserve">2.47182941436768</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.47323417663574</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.4577853679657</t>
   </si>
   <si>
     <t xml:space="preserve">2.4844696521759</t>
   </si>
   <si>
-    <t xml:space="preserve">2.44093155860901</t>
+    <t xml:space="preserve">2.44093179702759</t>
   </si>
   <si>
     <t xml:space="preserve">2.48868298530579</t>
   </si>
   <si>
-    <t xml:space="preserve">2.57294988632202</t>
+    <t xml:space="preserve">2.5729501247406</t>
   </si>
   <si>
     <t xml:space="preserve">2.53502988815308</t>
   </si>
   <si>
-    <t xml:space="preserve">2.55890583992004</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.4802565574646</t>
+    <t xml:space="preserve">2.55890536308289</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.48025631904602</t>
   </si>
   <si>
     <t xml:space="preserve">2.48166060447693</t>
   </si>
   <si>
-    <t xml:space="preserve">2.46761608123779</t>
+    <t xml:space="preserve">2.46761631965637</t>
   </si>
   <si>
     <t xml:space="preserve">2.46199870109558</t>
   </si>
   <si>
-    <t xml:space="preserve">2.53081655502319</t>
+    <t xml:space="preserve">2.53081679344177</t>
   </si>
   <si>
     <t xml:space="preserve">2.5069408416748</t>
   </si>
   <si>
-    <t xml:space="preserve">2.53362560272217</t>
+    <t xml:space="preserve">2.53362536430359</t>
   </si>
   <si>
     <t xml:space="preserve">2.50272750854492</t>
   </si>
   <si>
-    <t xml:space="preserve">2.554692029953</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.57435441017151</t>
+    <t xml:space="preserve">2.55469226837158</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.57435417175293</t>
   </si>
   <si>
     <t xml:space="preserve">2.61227440834045</t>
@@ -956,16 +956,16 @@
     <t xml:space="preserve">2.62351036071777</t>
   </si>
   <si>
-    <t xml:space="preserve">2.67828345298767</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.65581274032593</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.65440773963928</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.68811464309692</t>
+    <t xml:space="preserve">2.67828369140625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.65581250190735</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.65440821647644</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.6881148815155</t>
   </si>
   <si>
     <t xml:space="preserve">2.59120774269104</t>
@@ -974,10 +974,10 @@
     <t xml:space="preserve">2.59682536125183</t>
   </si>
   <si>
-    <t xml:space="preserve">2.54205203056335</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.56733226776123</t>
+    <t xml:space="preserve">2.54205226898193</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.56733202934265</t>
   </si>
   <si>
     <t xml:space="preserve">2.61367893218994</t>
@@ -986,10 +986,10 @@
     <t xml:space="preserve">2.5982301235199</t>
   </si>
   <si>
-    <t xml:space="preserve">2.57997226715088</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.56452322006226</t>
+    <t xml:space="preserve">2.5799720287323</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.56452345848083</t>
   </si>
   <si>
     <t xml:space="preserve">2.58839893341064</t>
@@ -998,22 +998,22 @@
     <t xml:space="preserve">2.51396298408508</t>
   </si>
   <si>
-    <t xml:space="preserve">2.5666298866272</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.58418583869934</t>
+    <t xml:space="preserve">2.56663012504578</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.58418560028076</t>
   </si>
   <si>
     <t xml:space="preserve">2.57716345787048</t>
   </si>
   <si>
-    <t xml:space="preserve">2.58067440986633</t>
+    <t xml:space="preserve">2.58067464828491</t>
   </si>
   <si>
     <t xml:space="preserve">2.51747417449951</t>
   </si>
   <si>
-    <t xml:space="preserve">2.3173406124115</t>
+    <t xml:space="preserve">2.31734013557434</t>
   </si>
   <si>
     <t xml:space="preserve">2.21902894973755</t>
@@ -1031,64 +1031,64 @@
     <t xml:space="preserve">2.26818466186523</t>
   </si>
   <si>
-    <t xml:space="preserve">2.25765132904053</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.29627370834351</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.30329561233521</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.24360680580139</t>
+    <t xml:space="preserve">2.25765109062195</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.29627346992493</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.30329585075378</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.24360656738281</t>
   </si>
   <si>
     <t xml:space="preserve">2.22605133056641</t>
   </si>
   <si>
-    <t xml:space="preserve">2.20147323608398</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.19093990325928</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.14880633354187</t>
+    <t xml:space="preserve">2.20147347450256</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.1909396648407</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.14880657196045</t>
   </si>
   <si>
     <t xml:space="preserve">2.18742895126343</t>
   </si>
   <si>
-    <t xml:space="preserve">2.19796228408813</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.22254014015198</t>
+    <t xml:space="preserve">2.19796252250671</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.22253966331482</t>
   </si>
   <si>
     <t xml:space="preserve">2.26467347145081</t>
   </si>
   <si>
-    <t xml:space="preserve">2.21551775932312</t>
+    <t xml:space="preserve">2.2155179977417</t>
   </si>
   <si>
     <t xml:space="preserve">2.24711799621582</t>
   </si>
   <si>
-    <t xml:space="preserve">2.2541401386261</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.30680727958679</t>
+    <t xml:space="preserve">2.25414037704468</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.30680704116821</t>
   </si>
   <si>
     <t xml:space="preserve">2.2857403755188</t>
   </si>
   <si>
-    <t xml:space="preserve">2.23658490180969</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.24009585380554</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.27871775627136</t>
+    <t xml:space="preserve">2.23658466339111</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.24009561538696</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.27871799468994</t>
   </si>
   <si>
     <t xml:space="preserve">2.28925132751465</t>
@@ -1100,19 +1100,19 @@
     <t xml:space="preserve">2.29978489875793</t>
   </si>
   <si>
-    <t xml:space="preserve">2.31031799316406</t>
+    <t xml:space="preserve">2.31031823158264</t>
   </si>
   <si>
     <t xml:space="preserve">2.33489584922791</t>
   </si>
   <si>
-    <t xml:space="preserve">2.33840727806091</t>
+    <t xml:space="preserve">2.33840703964233</t>
   </si>
   <si>
     <t xml:space="preserve">2.38756275177002</t>
   </si>
   <si>
-    <t xml:space="preserve">2.47885203361511</t>
+    <t xml:space="preserve">2.47885179519653</t>
   </si>
   <si>
     <t xml:space="preserve">2.46129655838013</t>
@@ -1121,10 +1121,10 @@
     <t xml:space="preserve">2.47980213165283</t>
   </si>
   <si>
-    <t xml:space="preserve">2.44279026985168</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.39837598800659</t>
+    <t xml:space="preserve">2.44279003143311</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.39837574958801</t>
   </si>
   <si>
     <t xml:space="preserve">2.36876630783081</t>
@@ -1133,10 +1133,10 @@
     <t xml:space="preserve">2.4131805896759</t>
   </si>
   <si>
-    <t xml:space="preserve">2.35396146774292</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.31694960594177</t>
+    <t xml:space="preserve">2.3539617061615</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.31694984436035</t>
   </si>
   <si>
     <t xml:space="preserve">2.30584597587585</t>
@@ -1148,22 +1148,22 @@
     <t xml:space="preserve">2.29104113578796</t>
   </si>
   <si>
-    <t xml:space="preserve">2.27993774414062</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.26143169403076</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.22441983222961</t>
+    <t xml:space="preserve">2.27993726730347</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.26143145561218</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.22441959381104</t>
   </si>
   <si>
     <t xml:space="preserve">2.1281886100769</t>
   </si>
   <si>
-    <t xml:space="preserve">2.18370652198792</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.23182201385498</t>
+    <t xml:space="preserve">2.18370676040649</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.23182225227356</t>
   </si>
   <si>
     <t xml:space="preserve">2.22071838378906</t>
@@ -1172,22 +1172,22 @@
     <t xml:space="preserve">2.20591354370117</t>
   </si>
   <si>
-    <t xml:space="preserve">2.18000555038452</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.25773048400879</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.26513290405273</t>
+    <t xml:space="preserve">2.18000507354736</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.25773000717163</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.26513266563416</t>
   </si>
   <si>
     <t xml:space="preserve">2.2022123336792</t>
   </si>
   <si>
-    <t xml:space="preserve">2.21331596374512</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.21701717376709</t>
+    <t xml:space="preserve">2.2133162021637</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.21701693534851</t>
   </si>
   <si>
     <t xml:space="preserve">2.16149926185608</t>
@@ -1202,13 +1202,13 @@
     <t xml:space="preserve">2.18740749359131</t>
   </si>
   <si>
-    <t xml:space="preserve">2.16890168190002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.15779829025269</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.13929224014282</t>
+    <t xml:space="preserve">2.1689019203186</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.15779781341553</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.13929200172424</t>
   </si>
   <si>
     <t xml:space="preserve">2.13559103012085</t>
@@ -1217,7 +1217,7 @@
     <t xml:space="preserve">2.12078619003296</t>
   </si>
   <si>
-    <t xml:space="preserve">2.12448692321777</t>
+    <t xml:space="preserve">2.12448716163635</t>
   </si>
   <si>
     <t xml:space="preserve">2.14669466018677</t>
@@ -1226,40 +1226,40 @@
     <t xml:space="preserve">2.11708474159241</t>
   </si>
   <si>
-    <t xml:space="preserve">2.10968255996704</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.32435202598572</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.33175468444824</t>
+    <t xml:space="preserve">2.10968232154846</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.32435178756714</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.33175444602966</t>
   </si>
   <si>
     <t xml:space="preserve">2.37246751785278</t>
   </si>
   <si>
-    <t xml:space="preserve">2.62044739723206</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.48350358009338</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.41688179969788</t>
+    <t xml:space="preserve">2.62044763565063</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.4835033416748</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.41688203811646</t>
   </si>
   <si>
     <t xml:space="preserve">2.42058300971985</t>
   </si>
   <si>
-    <t xml:space="preserve">2.40577840805054</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.36506509780884</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.32065057754517</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.29474234580994</t>
+    <t xml:space="preserve">2.40577816963196</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.36506485939026</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.32065081596375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.29474258422852</t>
   </si>
   <si>
     <t xml:space="preserve">2.23922443389893</t>
@@ -1271,16 +1271,16 @@
     <t xml:space="preserve">2.27623653411865</t>
   </si>
   <si>
-    <t xml:space="preserve">2.2836389541626</t>
+    <t xml:space="preserve">2.28363871574402</t>
   </si>
   <si>
     <t xml:space="preserve">2.3021445274353</t>
   </si>
   <si>
-    <t xml:space="preserve">2.31324815750122</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.34285807609558</t>
+    <t xml:space="preserve">2.3132483959198</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.34285759925842</t>
   </si>
   <si>
     <t xml:space="preserve">2.33915686607361</t>
@@ -1289,37 +1289,37 @@
     <t xml:space="preserve">2.33545565605164</t>
   </si>
   <si>
-    <t xml:space="preserve">2.34655928611755</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.24292588233948</t>
+    <t xml:space="preserve">2.34655904769897</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.24292540550232</t>
   </si>
   <si>
     <t xml:space="preserve">2.17630410194397</t>
   </si>
   <si>
-    <t xml:space="preserve">2.19110870361328</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.23552346229553</t>
+    <t xml:space="preserve">2.19110918045044</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.23552322387695</t>
   </si>
   <si>
     <t xml:space="preserve">2.08747529983521</t>
   </si>
   <si>
-    <t xml:space="preserve">2.15039587020874</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.15409708023071</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.25402927398682</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.27253532409668</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.25032782554626</t>
+    <t xml:space="preserve">2.15039563179016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.15409684181213</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.2540295124054</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.2725350856781</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.25032806396484</t>
   </si>
   <si>
     <t xml:space="preserve">2.22812080383301</t>
@@ -1340,19 +1340,19 @@
     <t xml:space="preserve">2.37616872787476</t>
   </si>
   <si>
-    <t xml:space="preserve">2.37986993789673</t>
+    <t xml:space="preserve">2.37986969947815</t>
   </si>
   <si>
     <t xml:space="preserve">2.4242844581604</t>
   </si>
   <si>
-    <t xml:space="preserve">2.42798519134521</t>
+    <t xml:space="preserve">2.42798542976379</t>
   </si>
   <si>
     <t xml:space="preserve">2.44649147987366</t>
   </si>
   <si>
-    <t xml:space="preserve">2.45019268989563</t>
+    <t xml:space="preserve">2.45019245147705</t>
   </si>
   <si>
     <t xml:space="preserve">2.50200939178467</t>
@@ -1361,10 +1361,10 @@
     <t xml:space="preserve">2.49460697174072</t>
   </si>
   <si>
-    <t xml:space="preserve">2.49090576171875</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.51311278343201</t>
+    <t xml:space="preserve">2.49090600013733</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.51311302185059</t>
   </si>
   <si>
     <t xml:space="preserve">2.4983081817627</t>
@@ -1373,19 +1373,19 @@
     <t xml:space="preserve">2.50571060180664</t>
   </si>
   <si>
-    <t xml:space="preserve">2.56122851371765</t>
+    <t xml:space="preserve">2.56122875213623</t>
   </si>
   <si>
     <t xml:space="preserve">2.53161931037903</t>
   </si>
   <si>
-    <t xml:space="preserve">2.5686309337616</t>
+    <t xml:space="preserve">2.56863117218018</t>
   </si>
   <si>
     <t xml:space="preserve">2.52791786193848</t>
   </si>
   <si>
-    <t xml:space="preserve">2.53902149200439</t>
+    <t xml:space="preserve">2.53902173042297</t>
   </si>
   <si>
     <t xml:space="preserve">2.52051544189453</t>
@@ -1397,13 +1397,13 @@
     <t xml:space="preserve">2.54272270202637</t>
   </si>
   <si>
-    <t xml:space="preserve">2.55382609367371</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.57603335380554</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.60194206237793</t>
+    <t xml:space="preserve">2.55382657051086</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.5760338306427</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.60194182395935</t>
   </si>
   <si>
     <t xml:space="preserve">2.59083843231201</t>
@@ -1412,7 +1412,7 @@
     <t xml:space="preserve">2.57973456382751</t>
   </si>
   <si>
-    <t xml:space="preserve">2.627849817276</t>
+    <t xml:space="preserve">2.62785005569458</t>
   </si>
   <si>
     <t xml:space="preserve">2.64635634422302</t>
@@ -1421,19 +1421,19 @@
     <t xml:space="preserve">2.64265489578247</t>
   </si>
   <si>
-    <t xml:space="preserve">2.6389536857605</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.65745973587036</t>
+    <t xml:space="preserve">2.63895416259766</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.65745997428894</t>
   </si>
   <si>
     <t xml:space="preserve">2.67226457595825</t>
   </si>
   <si>
-    <t xml:space="preserve">2.71297764778137</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.72778224945068</t>
+    <t xml:space="preserve">2.71297788619995</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.72778248786926</t>
   </si>
   <si>
     <t xml:space="preserve">2.70187425613403</t>
@@ -1442,10 +1442,10 @@
     <t xml:space="preserve">2.69077038764954</t>
   </si>
   <si>
-    <t xml:space="preserve">2.74258708953857</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.75739192962646</t>
+    <t xml:space="preserve">2.74258732795715</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.75739216804504</t>
   </si>
   <si>
     <t xml:space="preserve">2.82401371002197</t>
@@ -1454,10 +1454,10 @@
     <t xml:space="preserve">2.82031226158142</t>
   </si>
   <si>
-    <t xml:space="preserve">2.84992170333862</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.83881831169128</t>
+    <t xml:space="preserve">2.8499219417572</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.83881855010986</t>
   </si>
   <si>
     <t xml:space="preserve">3.02654099464417</t>
@@ -1466,7 +1466,7 @@
     <t xml:space="preserve">2.74035263061523</t>
   </si>
   <si>
-    <t xml:space="preserve">2.73643207550049</t>
+    <t xml:space="preserve">2.73643231391907</t>
   </si>
   <si>
     <t xml:space="preserve">2.68938755989075</t>
@@ -1478,10 +1478,10 @@
     <t xml:space="preserve">2.68154668807983</t>
   </si>
   <si>
-    <t xml:space="preserve">2.75603437423706</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.84228253364563</t>
+    <t xml:space="preserve">2.75603413581848</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.84228277206421</t>
   </si>
   <si>
     <t xml:space="preserve">2.79915833473206</t>
@@ -1490,16 +1490,16 @@
     <t xml:space="preserve">2.82268071174622</t>
   </si>
   <si>
-    <t xml:space="preserve">2.78347659111023</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.77563571929932</t>
+    <t xml:space="preserve">2.78347682952881</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.7756359577179</t>
   </si>
   <si>
     <t xml:space="preserve">2.76779508590698</t>
   </si>
   <si>
-    <t xml:space="preserve">2.79131746292114</t>
+    <t xml:space="preserve">2.79131770133972</t>
   </si>
   <si>
     <t xml:space="preserve">2.78739714622498</t>
@@ -1508,7 +1508,7 @@
     <t xml:space="preserve">2.84620308876038</t>
   </si>
   <si>
-    <t xml:space="preserve">2.85796451568604</t>
+    <t xml:space="preserve">2.85796403884888</t>
   </si>
   <si>
     <t xml:space="preserve">2.82660102844238</t>
@@ -1520,7 +1520,7 @@
     <t xml:space="preserve">2.85012340545654</t>
   </si>
   <si>
-    <t xml:space="preserve">2.8618848323822</t>
+    <t xml:space="preserve">2.86188459396362</t>
   </si>
   <si>
     <t xml:space="preserve">2.8736457824707</t>
@@ -1532,19 +1532,19 @@
     <t xml:space="preserve">2.92461085319519</t>
   </si>
   <si>
-    <t xml:space="preserve">2.95597386360168</t>
+    <t xml:space="preserve">2.95597362518311</t>
   </si>
   <si>
     <t xml:space="preserve">2.97165560722351</t>
   </si>
   <si>
-    <t xml:space="preserve">2.94813299179077</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.94029235839844</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.9638147354126</t>
+    <t xml:space="preserve">2.94813323020935</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.94029259681702</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.96381449699402</t>
   </si>
   <si>
     <t xml:space="preserve">2.95989441871643</t>
@@ -1553,7 +1553,7 @@
     <t xml:space="preserve">3.00693893432617</t>
   </si>
   <si>
-    <t xml:space="preserve">3.10494875907898</t>
+    <t xml:space="preserve">3.1049485206604</t>
   </si>
   <si>
     <t xml:space="preserve">3.06966519355774</t>
@@ -1565,25 +1565,25 @@
     <t xml:space="preserve">3.07750606536865</t>
   </si>
   <si>
-    <t xml:space="preserve">3.13631176948547</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.15983462333679</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.18335652351379</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.23824191093445</t>
+    <t xml:space="preserve">3.13631200790405</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.15983438491821</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.18335676193237</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.23824214935303</t>
   </si>
   <si>
     <t xml:space="preserve">3.25000309944153</t>
   </si>
   <si>
-    <t xml:space="preserve">3.25392365455627</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.2696053981781</t>
+    <t xml:space="preserve">3.2539234161377</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.26960515975952</t>
   </si>
   <si>
     <t xml:space="preserve">3.30096840858459</t>
@@ -1592,37 +1592,37 @@
     <t xml:space="preserve">3.33233141899109</t>
   </si>
   <si>
-    <t xml:space="preserve">3.31272959709167</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.27744555473328</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.20687937736511</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.22648072242737</t>
+    <t xml:space="preserve">3.3127293586731</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.27744579315186</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.20687890052795</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.22648096084595</t>
   </si>
   <si>
     <t xml:space="preserve">3.25784397125244</t>
   </si>
   <si>
-    <t xml:space="preserve">3.24216246604919</t>
+    <t xml:space="preserve">3.24216270446777</t>
   </si>
   <si>
     <t xml:space="preserve">3.19119739532471</t>
   </si>
   <si>
-    <t xml:space="preserve">3.14023232460022</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.12847089767456</t>
+    <t xml:space="preserve">3.1402325630188</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.12847137451172</t>
   </si>
   <si>
     <t xml:space="preserve">3.11670970916748</t>
   </si>
   <si>
-    <t xml:space="preserve">3.0500636100769</t>
+    <t xml:space="preserve">3.05006337165833</t>
   </si>
   <si>
     <t xml:space="preserve">3.05398368835449</t>
@@ -1631,10 +1631,10 @@
     <t xml:space="preserve">3.21864008903503</t>
   </si>
   <si>
-    <t xml:space="preserve">3.21471977233887</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.16375470161438</t>
+    <t xml:space="preserve">3.21471953392029</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.1637544631958</t>
   </si>
   <si>
     <t xml:space="preserve">3.14807295799255</t>
@@ -1643,16 +1643,16 @@
     <t xml:space="preserve">3.04222273826599</t>
   </si>
   <si>
-    <t xml:space="preserve">3.12063026428223</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.12455034255981</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.08534669876099</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.08926749229431</t>
+    <t xml:space="preserve">3.12063050270081</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.12455058097839</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.08534693717957</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.08926725387573</t>
   </si>
   <si>
     <t xml:space="preserve">3.11278963088989</t>
@@ -1661,22 +1661,22 @@
     <t xml:space="preserve">3.10102820396423</t>
   </si>
   <si>
-    <t xml:space="preserve">2.98341703414917</t>
+    <t xml:space="preserve">2.98341679573059</t>
   </si>
   <si>
     <t xml:space="preserve">2.88148641586304</t>
   </si>
   <si>
-    <t xml:space="preserve">2.93637204170227</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.97557616233826</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.98733711242676</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.97949647903442</t>
+    <t xml:space="preserve">2.93637180328369</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.97557592391968</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.98733735084534</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.97949624061584</t>
   </si>
   <si>
     <t xml:space="preserve">2.99909830093384</t>
@@ -1685,13 +1685,13 @@
     <t xml:space="preserve">3.00301837921143</t>
   </si>
   <si>
-    <t xml:space="preserve">3.05790424346924</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.0343816280365</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.06574511528015</t>
+    <t xml:space="preserve">3.05790400505066</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.03438186645508</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.06574487686157</t>
   </si>
   <si>
     <t xml:space="preserve">3.04614305496216</t>
@@ -1703,28 +1703,28 @@
     <t xml:space="preserve">2.9324517250061</t>
   </si>
   <si>
-    <t xml:space="preserve">2.91284966468811</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.90108847618103</t>
+    <t xml:space="preserve">2.91284942626953</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.90108823776245</t>
   </si>
   <si>
     <t xml:space="preserve">2.94421315193176</t>
   </si>
   <si>
-    <t xml:space="preserve">2.89324760437012</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.01869988441467</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.1519935131073</t>
+    <t xml:space="preserve">2.89324808120728</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.01870012283325</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.15199327468872</t>
   </si>
   <si>
     <t xml:space="preserve">3.17551589012146</t>
   </si>
   <si>
-    <t xml:space="preserve">3.09710836410522</t>
+    <t xml:space="preserve">3.09710812568665</t>
   </si>
   <si>
     <t xml:space="preserve">3.10886907577515</t>
@@ -1736,13 +1736,13 @@
     <t xml:space="preserve">3.01085925102234</t>
   </si>
   <si>
-    <t xml:space="preserve">2.91677021980286</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.9520537853241</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.99125742912292</t>
+    <t xml:space="preserve">2.91676998138428</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.95205330848694</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.9912576675415</t>
   </si>
   <si>
     <t xml:space="preserve">3.13239145278931</t>
@@ -1751,7 +1751,7 @@
     <t xml:space="preserve">3.46562480926514</t>
   </si>
   <si>
-    <t xml:space="preserve">3.54795289039612</t>
+    <t xml:space="preserve">3.5479531288147</t>
   </si>
   <si>
     <t xml:space="preserve">3.48522639274597</t>
@@ -1760,19 +1760,19 @@
     <t xml:space="preserve">3.58323621749878</t>
   </si>
   <si>
-    <t xml:space="preserve">3.52443075180054</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.58715653419495</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.61459970474243</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.51658987998962</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.4225001335144</t>
+    <t xml:space="preserve">3.52443051338196</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.58715677261353</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.61459946632385</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.51658964157104</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.42250037193298</t>
   </si>
   <si>
     <t xml:space="preserve">3.39505767822266</t>
@@ -1781,34 +1781,34 @@
     <t xml:space="preserve">3.37937617301941</t>
   </si>
   <si>
-    <t xml:space="preserve">3.43818235397339</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.48130655288696</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.45386362075806</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.28920722007751</t>
+    <t xml:space="preserve">3.43818187713623</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.48130631446838</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.45386338233948</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.28920745849609</t>
   </si>
   <si>
     <t xml:space="preserve">3.26176428794861</t>
   </si>
   <si>
-    <t xml:space="preserve">3.21079921722412</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.08142638206482</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.26568508148193</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.23432159423828</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.19511747360229</t>
+    <t xml:space="preserve">3.21079897880554</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.0814266204834</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.26568484306335</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.23432183265686</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.19511771202087</t>
   </si>
   <si>
     <t xml:space="preserve">2.69722843170166</t>
@@ -1817,13 +1817,13 @@
     <t xml:space="preserve">2.13269233703613</t>
   </si>
   <si>
-    <t xml:space="preserve">2.36399507522583</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.45024347305298</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.49336791038513</t>
+    <t xml:space="preserve">2.36399531364441</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.45024371147156</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.49336814880371</t>
   </si>
   <si>
     <t xml:space="preserve">2.50512909889221</t>
@@ -1838,13 +1838,13 @@
     <t xml:space="preserve">2.60313892364502</t>
   </si>
   <si>
-    <t xml:space="preserve">2.63450217247009</t>
+    <t xml:space="preserve">2.63450193405151</t>
   </si>
   <si>
     <t xml:space="preserve">2.58353710174561</t>
   </si>
   <si>
-    <t xml:space="preserve">2.54433274269104</t>
+    <t xml:space="preserve">2.5443332195282</t>
   </si>
   <si>
     <t xml:space="preserve">2.51689052581787</t>
@@ -1856,13 +1856,13 @@
     <t xml:space="preserve">2.4972882270813</t>
   </si>
   <si>
-    <t xml:space="preserve">2.50904965400696</t>
+    <t xml:space="preserve">2.50904941558838</t>
   </si>
   <si>
     <t xml:space="preserve">2.46984577178955</t>
   </si>
   <si>
-    <t xml:space="preserve">2.51296997070312</t>
+    <t xml:space="preserve">2.51296973228455</t>
   </si>
   <si>
     <t xml:space="preserve">2.53257179260254</t>
@@ -1871,10 +1871,10 @@
     <t xml:space="preserve">2.54041266441345</t>
   </si>
   <si>
-    <t xml:space="preserve">2.52865171432495</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.54825329780579</t>
+    <t xml:space="preserve">2.52865147590637</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.54825353622437</t>
   </si>
   <si>
     <t xml:space="preserve">2.52473115921021</t>
@@ -1898,16 +1898,16 @@
     <t xml:space="preserve">2.62274074554443</t>
   </si>
   <si>
-    <t xml:space="preserve">2.62666130065918</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.72075057029724</t>
+    <t xml:space="preserve">2.6266610622406</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.72075033187866</t>
   </si>
   <si>
     <t xml:space="preserve">2.92069053649902</t>
   </si>
   <si>
-    <t xml:space="preserve">3.30880856513977</t>
+    <t xml:space="preserve">3.30880880355835</t>
   </si>
   <si>
     <t xml:space="preserve">3.44994306564331</t>
@@ -1928,7 +1928,7 @@
     <t xml:space="preserve">3.14438462257385</t>
   </si>
   <si>
-    <t xml:space="preserve">3.1402633190155</t>
+    <t xml:space="preserve">3.14026355743408</t>
   </si>
   <si>
     <t xml:space="preserve">3.21444296836853</t>
@@ -1937,10 +1937,10 @@
     <t xml:space="preserve">3.24741172790527</t>
   </si>
   <si>
-    <t xml:space="preserve">3.1938374042511</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.22680616378784</t>
+    <t xml:space="preserve">3.19383764266968</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.22680640220642</t>
   </si>
   <si>
     <t xml:space="preserve">3.2721381187439</t>
@@ -1955,19 +1955,19 @@
     <t xml:space="preserve">3.06196308135986</t>
   </si>
   <si>
-    <t xml:space="preserve">3.08256816864014</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.09081053733826</t>
+    <t xml:space="preserve">3.08256840705872</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.09081077575684</t>
   </si>
   <si>
     <t xml:space="preserve">3.11965823173523</t>
   </si>
   <si>
-    <t xml:space="preserve">3.08668947219849</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.05784177780151</t>
+    <t xml:space="preserve">3.08668923377991</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.05784201622009</t>
   </si>
   <si>
     <t xml:space="preserve">3.04135751724243</t>
@@ -1976,7 +1976,7 @@
     <t xml:space="preserve">3.00014686584473</t>
   </si>
   <si>
-    <t xml:space="preserve">2.94245147705078</t>
+    <t xml:space="preserve">2.94245171546936</t>
   </si>
   <si>
     <t xml:space="preserve">2.91360425949097</t>
@@ -1985,13 +1985,13 @@
     <t xml:space="preserve">2.93008852005005</t>
   </si>
   <si>
-    <t xml:space="preserve">2.91772484779358</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.9012405872345</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.90536212921143</t>
+    <t xml:space="preserve">2.91772508621216</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.90124082565308</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.90536189079285</t>
   </si>
   <si>
     <t xml:space="preserve">2.86827206611633</t>
@@ -2003,28 +2003,28 @@
     <t xml:space="preserve">2.92184638977051</t>
   </si>
   <si>
-    <t xml:space="preserve">2.87651419639587</t>
+    <t xml:space="preserve">2.87651443481445</t>
   </si>
   <si>
     <t xml:space="preserve">2.89299845695496</t>
   </si>
   <si>
-    <t xml:space="preserve">2.80233478546143</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.76112389564514</t>
+    <t xml:space="preserve">2.80233502388</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.76112413406372</t>
   </si>
   <si>
     <t xml:space="preserve">2.74463987350464</t>
   </si>
   <si>
-    <t xml:space="preserve">2.7528817653656</t>
+    <t xml:space="preserve">2.75288200378418</t>
   </si>
   <si>
     <t xml:space="preserve">2.7116711139679</t>
   </si>
   <si>
-    <t xml:space="preserve">2.73227667808533</t>
+    <t xml:space="preserve">2.73227643966675</t>
   </si>
   <si>
     <t xml:space="preserve">2.82706141471863</t>
@@ -2036,7 +2036,7 @@
     <t xml:space="preserve">2.86002993583679</t>
   </si>
   <si>
-    <t xml:space="preserve">2.81469821929932</t>
+    <t xml:space="preserve">2.81469798088074</t>
   </si>
   <si>
     <t xml:space="preserve">2.81057715415955</t>
@@ -2045,10 +2045,10 @@
     <t xml:space="preserve">2.76524519920349</t>
   </si>
   <si>
-    <t xml:space="preserve">2.79409289360046</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.78172945976257</t>
+    <t xml:space="preserve">2.79409313201904</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.78172969818115</t>
   </si>
   <si>
     <t xml:space="preserve">2.78585076332092</t>
@@ -2057,13 +2057,13 @@
     <t xml:space="preserve">2.70342898368835</t>
   </si>
   <si>
-    <t xml:space="preserve">2.70755004882812</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.75700306892395</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.77348756790161</t>
+    <t xml:space="preserve">2.7075502872467</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.75700283050537</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.77348732948303</t>
   </si>
   <si>
     <t xml:space="preserve">2.74876093864441</t>
@@ -2072,7 +2072,7 @@
     <t xml:space="preserve">2.71991324424744</t>
   </si>
   <si>
-    <t xml:space="preserve">2.72403454780579</t>
+    <t xml:space="preserve">2.72403430938721</t>
   </si>
   <si>
     <t xml:space="preserve">2.77760815620422</t>
@@ -2093,43 +2093,43 @@
     <t xml:space="preserve">2.60864424705505</t>
   </si>
   <si>
-    <t xml:space="preserve">2.63337087631226</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.62100720405579</t>
+    <t xml:space="preserve">2.63337063789368</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.62100744247437</t>
   </si>
   <si>
     <t xml:space="preserve">2.62512850761414</t>
   </si>
   <si>
-    <t xml:space="preserve">2.59215998649597</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.60452318191528</t>
+    <t xml:space="preserve">2.59215974807739</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.6045229434967</t>
   </si>
   <si>
     <t xml:space="preserve">2.62924957275391</t>
   </si>
   <si>
-    <t xml:space="preserve">2.64161276817322</t>
+    <t xml:space="preserve">2.64161252975464</t>
   </si>
   <si>
     <t xml:space="preserve">2.61276531219482</t>
   </si>
   <si>
-    <t xml:space="preserve">2.58391761779785</t>
+    <t xml:space="preserve">2.58391737937927</t>
   </si>
   <si>
     <t xml:space="preserve">2.59628081321716</t>
   </si>
   <si>
-    <t xml:space="preserve">2.51798057556152</t>
+    <t xml:space="preserve">2.51798009872437</t>
   </si>
   <si>
     <t xml:space="preserve">2.49737501144409</t>
   </si>
   <si>
-    <t xml:space="preserve">2.57155418395996</t>
+    <t xml:space="preserve">2.57155442237854</t>
   </si>
   <si>
     <t xml:space="preserve">2.51385927200317</t>
@@ -2138,40 +2138,40 @@
     <t xml:space="preserve">2.48913288116455</t>
   </si>
   <si>
-    <t xml:space="preserve">2.50561714172363</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.46852731704712</t>
+    <t xml:space="preserve">2.50561690330505</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.46852707862854</t>
   </si>
   <si>
     <t xml:space="preserve">2.5097382068634</t>
   </si>
   <si>
-    <t xml:space="preserve">2.40671110153198</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.42319560050964</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.45204329490662</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.44792199134827</t>
+    <t xml:space="preserve">2.40671133995056</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.42319536209106</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.45204305648804</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.44792175292969</t>
   </si>
   <si>
     <t xml:space="preserve">2.47676968574524</t>
   </si>
   <si>
-    <t xml:space="preserve">2.69518661499023</t>
+    <t xml:space="preserve">2.69518685340881</t>
   </si>
   <si>
     <t xml:space="preserve">2.74051880836487</t>
   </si>
   <si>
-    <t xml:space="preserve">2.86415123939514</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.88887763023376</t>
+    <t xml:space="preserve">2.86415100097656</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.88887786865234</t>
   </si>
   <si>
     <t xml:space="preserve">2.89711999893188</t>
@@ -2189,16 +2189,16 @@
     <t xml:space="preserve">2.83530354499817</t>
   </si>
   <si>
-    <t xml:space="preserve">2.8311824798584</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.03311538696289</t>
+    <t xml:space="preserve">2.83118271827698</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.03311562538147</t>
   </si>
   <si>
     <t xml:space="preserve">3.01663112640381</t>
   </si>
   <si>
-    <t xml:space="preserve">2.99602580070496</t>
+    <t xml:space="preserve">2.99602556228638</t>
   </si>
   <si>
     <t xml:space="preserve">3.02487349510193</t>
@@ -2210,10 +2210,10 @@
     <t xml:space="preserve">3.05372071266174</t>
   </si>
   <si>
-    <t xml:space="preserve">3.06608414649963</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.16498994827271</t>
+    <t xml:space="preserve">3.06608390808105</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.16498970985413</t>
   </si>
   <si>
     <t xml:space="preserve">3.10317397117615</t>
@@ -2222,43 +2222,43 @@
     <t xml:space="preserve">3.10729479789734</t>
   </si>
   <si>
-    <t xml:space="preserve">2.97542023658752</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.96717810630798</t>
+    <t xml:space="preserve">2.9754204750061</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.96717834472656</t>
   </si>
   <si>
     <t xml:space="preserve">2.98366236686707</t>
   </si>
   <si>
-    <t xml:space="preserve">2.95481514930725</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.98778343200684</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.02075219154358</t>
+    <t xml:space="preserve">2.95481491088867</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.98778367042542</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.020751953125</t>
   </si>
   <si>
     <t xml:space="preserve">3.07844734191895</t>
   </si>
   <si>
-    <t xml:space="preserve">3.0454785823822</t>
+    <t xml:space="preserve">3.04547882080078</t>
   </si>
   <si>
     <t xml:space="preserve">3.04959988594055</t>
   </si>
   <si>
-    <t xml:space="preserve">3.03723645210266</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.09905242919922</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.09493207931519</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.01250982284546</t>
+    <t xml:space="preserve">3.03723621368408</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.0990526676178</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.09493184089661</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.01251006126404</t>
   </si>
   <si>
     <t xml:space="preserve">2.96305704116821</t>
@@ -2270,7 +2270,7 @@
     <t xml:space="preserve">3.0702052116394</t>
   </si>
   <si>
-    <t xml:space="preserve">3.14850544929504</t>
+    <t xml:space="preserve">3.14850568771362</t>
   </si>
   <si>
     <t xml:space="preserve">3.16086912155151</t>
@@ -2288,16 +2288,16 @@
     <t xml:space="preserve">3.11553692817688</t>
   </si>
   <si>
-    <t xml:space="preserve">3.13202118873596</t>
+    <t xml:space="preserve">3.13202142715454</t>
   </si>
   <si>
     <t xml:space="preserve">3.12790036201477</t>
   </si>
   <si>
-    <t xml:space="preserve">3.22268509864807</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.19795870780945</t>
+    <t xml:space="preserve">3.22268533706665</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.19795894622803</t>
   </si>
   <si>
     <t xml:space="preserve">3.17323184013367</t>
@@ -2309,10 +2309,10 @@
     <t xml:space="preserve">3.24329042434692</t>
   </si>
   <si>
-    <t xml:space="preserve">3.18971633911133</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.23916935920715</t>
+    <t xml:space="preserve">3.18971657752991</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.23916959762573</t>
   </si>
   <si>
     <t xml:space="preserve">3.27625918388367</t>
@@ -2327,7 +2327,7 @@
     <t xml:space="preserve">3.35868072509766</t>
   </si>
   <si>
-    <t xml:space="preserve">3.34631776809692</t>
+    <t xml:space="preserve">3.34631729125977</t>
   </si>
   <si>
     <t xml:space="preserve">3.30510687828064</t>
@@ -2336,7 +2336,7 @@
     <t xml:space="preserve">3.34219646453857</t>
   </si>
   <si>
-    <t xml:space="preserve">3.36364817619324</t>
+    <t xml:space="preserve">3.36364841461182</t>
   </si>
   <si>
     <t xml:space="preserve">3.25209856033325</t>
@@ -2345,10 +2345,10 @@
     <t xml:space="preserve">3.20919489860535</t>
   </si>
   <si>
-    <t xml:space="preserve">3.22635626792908</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.27784061431885</t>
+    <t xml:space="preserve">3.22635650634766</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.27784085273743</t>
   </si>
   <si>
     <t xml:space="preserve">3.23493719100952</t>
@@ -2363,19 +2363,19 @@
     <t xml:space="preserve">3.21777582168579</t>
   </si>
   <si>
-    <t xml:space="preserve">3.15771055221558</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.17487192153931</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.17916250228882</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.16200113296509</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.14912986755371</t>
+    <t xml:space="preserve">3.15771079063416</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.17487215995789</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.17916226387024</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.16200089454651</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.14913010597229</t>
   </si>
   <si>
     <t xml:space="preserve">3.18345284461975</t>
@@ -2387,28 +2387,28 @@
     <t xml:space="preserve">3.20061421394348</t>
   </si>
   <si>
-    <t xml:space="preserve">3.19203352928162</t>
+    <t xml:space="preserve">3.1920337677002</t>
   </si>
   <si>
     <t xml:space="preserve">3.23064684867859</t>
   </si>
   <si>
-    <t xml:space="preserve">3.22206616401672</t>
+    <t xml:space="preserve">3.2220664024353</t>
   </si>
   <si>
     <t xml:space="preserve">3.12767815589905</t>
   </si>
   <si>
-    <t xml:space="preserve">3.13625884056091</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.10622596740723</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.07619380950928</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.0890645980835</t>
+    <t xml:space="preserve">3.13625860214233</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.10622620582581</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.0761935710907</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.08906483650208</t>
   </si>
   <si>
     <t xml:space="preserve">3.04187083244324</t>
@@ -2420,7 +2420,7 @@
     <t xml:space="preserve">3.0504515171051</t>
   </si>
   <si>
-    <t xml:space="preserve">3.04616093635559</t>
+    <t xml:space="preserve">3.04616117477417</t>
   </si>
   <si>
     <t xml:space="preserve">3.02899956703186</t>
@@ -2429,10 +2429,10 @@
     <t xml:space="preserve">2.98180556297302</t>
   </si>
   <si>
-    <t xml:space="preserve">3.00754809379578</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.05903244018555</t>
+    <t xml:space="preserve">3.0075478553772</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.05903220176697</t>
   </si>
   <si>
     <t xml:space="preserve">3.08048391342163</t>
@@ -2447,25 +2447,25 @@
     <t xml:space="preserve">2.90886926651001</t>
   </si>
   <si>
-    <t xml:space="preserve">2.92174053192139</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.93890190124512</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.00325751304626</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.03329014778137</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.02041864395142</t>
+    <t xml:space="preserve">2.92174029350281</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.93890166282654</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.00325727462769</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.03328990936279</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.02041888237</t>
   </si>
   <si>
     <t xml:space="preserve">3.01612854003906</t>
   </si>
   <si>
-    <t xml:space="preserve">3.01183795928955</t>
+    <t xml:space="preserve">3.01183819770813</t>
   </si>
   <si>
     <t xml:space="preserve">3.06761288642883</t>
@@ -2477,7 +2477,7 @@
     <t xml:space="preserve">3.13196849822998</t>
   </si>
   <si>
-    <t xml:space="preserve">3.16629147529602</t>
+    <t xml:space="preserve">3.16629123687744</t>
   </si>
   <si>
     <t xml:space="preserve">3.11480712890625</t>
@@ -2486,16 +2486,16 @@
     <t xml:space="preserve">3.09335517883301</t>
   </si>
   <si>
-    <t xml:space="preserve">3.06332230567932</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.11051678657532</t>
+    <t xml:space="preserve">3.0633225440979</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.11051654815674</t>
   </si>
   <si>
     <t xml:space="preserve">3.08477449417114</t>
   </si>
   <si>
-    <t xml:space="preserve">3.07190299034119</t>
+    <t xml:space="preserve">3.07190322875977</t>
   </si>
   <si>
     <t xml:space="preserve">3.02470946311951</t>
@@ -2507,7 +2507,7 @@
     <t xml:space="preserve">2.94748258590698</t>
   </si>
   <si>
-    <t xml:space="preserve">2.95177316665649</t>
+    <t xml:space="preserve">2.95177292823792</t>
   </si>
   <si>
     <t xml:space="preserve">2.95606327056885</t>
@@ -2519,13 +2519,13 @@
     <t xml:space="preserve">2.98609590530396</t>
   </si>
   <si>
-    <t xml:space="preserve">3.10193586349487</t>
+    <t xml:space="preserve">3.10193562507629</t>
   </si>
   <si>
     <t xml:space="preserve">3.05474162101746</t>
   </si>
   <si>
-    <t xml:space="preserve">2.96893453598022</t>
+    <t xml:space="preserve">2.96893429756165</t>
   </si>
   <si>
     <t xml:space="preserve">2.91745018959045</t>
@@ -2534,7 +2534,7 @@
     <t xml:space="preserve">2.93032097816467</t>
   </si>
   <si>
-    <t xml:space="preserve">2.90457892417908</t>
+    <t xml:space="preserve">2.9045786857605</t>
   </si>
   <si>
     <t xml:space="preserve">2.97751522064209</t>
@@ -2546,7 +2546,7 @@
     <t xml:space="preserve">2.94319224357605</t>
   </si>
   <si>
-    <t xml:space="preserve">2.97322487831116</t>
+    <t xml:space="preserve">2.97322463989258</t>
   </si>
   <si>
     <t xml:space="preserve">2.93461155891418</t>
@@ -2555,10 +2555,10 @@
     <t xml:space="preserve">2.79731965065002</t>
   </si>
   <si>
-    <t xml:space="preserve">2.91315960884094</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.8917076587677</t>
+    <t xml:space="preserve">2.91315984725952</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.89170789718628</t>
   </si>
   <si>
     <t xml:space="preserve">2.82306170463562</t>
@@ -2567,10 +2567,10 @@
     <t xml:space="preserve">2.77157735824585</t>
   </si>
   <si>
-    <t xml:space="preserve">2.80161023139954</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.90028882026672</t>
+    <t xml:space="preserve">2.80160999298096</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.90028858184814</t>
   </si>
   <si>
     <t xml:space="preserve">2.87454628944397</t>
@@ -2582,10 +2582,10 @@
     <t xml:space="preserve">2.89599823951721</t>
   </si>
   <si>
-    <t xml:space="preserve">2.85738468170166</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.87025618553162</t>
+    <t xml:space="preserve">2.85738492012024</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.87025594711304</t>
   </si>
   <si>
     <t xml:space="preserve">3.09737634658813</t>
@@ -2597,7 +2597,7 @@
     <t xml:space="preserve">3.1108820438385</t>
   </si>
   <si>
-    <t xml:space="preserve">3.07936835289001</t>
+    <t xml:space="preserve">3.07936811447144</t>
   </si>
   <si>
     <t xml:space="preserve">3.02984619140625</t>
@@ -2606,22 +2606,22 @@
     <t xml:space="preserve">2.98932814598083</t>
   </si>
   <si>
-    <t xml:space="preserve">2.96681809425354</t>
+    <t xml:space="preserve">2.96681833267212</t>
   </si>
   <si>
     <t xml:space="preserve">3.03434801101685</t>
   </si>
   <si>
-    <t xml:space="preserve">2.98482608795166</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.96231603622437</t>
+    <t xml:space="preserve">2.98482632637024</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.96231627464294</t>
   </si>
   <si>
     <t xml:space="preserve">2.93980622291565</t>
   </si>
   <si>
-    <t xml:space="preserve">2.9308021068573</t>
+    <t xml:space="preserve">2.93080234527588</t>
   </si>
   <si>
     <t xml:space="preserve">2.95781421661377</t>
@@ -2636,7 +2636,7 @@
     <t xml:space="preserve">3.01634001731873</t>
   </si>
   <si>
-    <t xml:space="preserve">2.99833202362061</t>
+    <t xml:space="preserve">2.99833226203918</t>
   </si>
   <si>
     <t xml:space="preserve">3.04335236549377</t>
@@ -2651,13 +2651,13 @@
     <t xml:space="preserve">2.82725620269775</t>
   </si>
   <si>
-    <t xml:space="preserve">2.78673839569092</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.88128018379211</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.82275438308716</t>
+    <t xml:space="preserve">2.78673815727234</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.88128042221069</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.82275414466858</t>
   </si>
   <si>
     <t xml:space="preserve">2.77323222160339</t>
@@ -2669,22 +2669,22 @@
     <t xml:space="preserve">2.66968607902527</t>
   </si>
   <si>
-    <t xml:space="preserve">2.6561803817749</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.70120024681091</t>
+    <t xml:space="preserve">2.65618014335632</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.70120000839233</t>
   </si>
   <si>
     <t xml:space="preserve">2.71920824050903</t>
   </si>
   <si>
-    <t xml:space="preserve">2.59765410423279</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.62916827201843</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.63367009162903</t>
+    <t xml:space="preserve">2.59765434265137</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.62916803359985</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.63367033004761</t>
   </si>
   <si>
     <t xml:space="preserve">2.53912806510925</t>
@@ -2693,7 +2693,7 @@
     <t xml:space="preserve">2.56614017486572</t>
   </si>
   <si>
-    <t xml:space="preserve">2.5481321811676</t>
+    <t xml:space="preserve">2.54813194274902</t>
   </si>
   <si>
     <t xml:space="preserve">2.60665822029114</t>
@@ -2714,7 +2714,7 @@
     <t xml:space="preserve">2.42207622528076</t>
   </si>
   <si>
-    <t xml:space="preserve">2.41757416725159</t>
+    <t xml:space="preserve">2.41757392883301</t>
   </si>
   <si>
     <t xml:space="preserve">2.38606023788452</t>
@@ -2762,10 +2762,10 @@
     <t xml:space="preserve">2.44908809661865</t>
   </si>
   <si>
-    <t xml:space="preserve">2.39056205749512</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.32303190231323</t>
+    <t xml:space="preserve">2.3905622959137</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.32303214073181</t>
   </si>
   <si>
     <t xml:space="preserve">2.20598006248474</t>
@@ -2774,16 +2774,16 @@
     <t xml:space="preserve">2.23299217224121</t>
   </si>
   <si>
-    <t xml:space="preserve">2.16096043586731</t>
+    <t xml:space="preserve">2.16096019744873</t>
   </si>
   <si>
     <t xml:space="preserve">2.21948599815369</t>
   </si>
   <si>
-    <t xml:space="preserve">2.20147824287415</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.22398805618286</t>
+    <t xml:space="preserve">2.20147800445557</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.22398829460144</t>
   </si>
   <si>
     <t xml:space="preserve">2.24199604988098</t>
@@ -2795,7 +2795,7 @@
     <t xml:space="preserve">2.27351021766663</t>
   </si>
   <si>
-    <t xml:space="preserve">2.24649786949158</t>
+    <t xml:space="preserve">2.24649810791016</t>
   </si>
   <si>
     <t xml:space="preserve">2.21498417854309</t>
@@ -2807,16 +2807,16 @@
     <t xml:space="preserve">2.12044215202332</t>
   </si>
   <si>
-    <t xml:space="preserve">1.97187614440918</t>
+    <t xml:space="preserve">1.97187626361847</t>
   </si>
   <si>
     <t xml:space="preserve">2.03490424156189</t>
   </si>
   <si>
-    <t xml:space="preserve">1.98088026046753</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.94486427307129</t>
+    <t xml:space="preserve">1.98088014125824</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.944864153862</t>
   </si>
   <si>
     <t xml:space="preserve">1.89984405040741</t>
@@ -2834,28 +2834,28 @@
     <t xml:space="preserve">1.78279209136963</t>
   </si>
   <si>
-    <t xml:space="preserve">1.7575808763504</t>
+    <t xml:space="preserve">1.75758099555969</t>
   </si>
   <si>
     <t xml:space="preserve">1.72156488895416</t>
   </si>
   <si>
-    <t xml:space="preserve">1.70175611972809</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.73777210712433</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.80980408191681</t>
+    <t xml:space="preserve">1.7017560005188</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.73777198791504</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.8098042011261</t>
   </si>
   <si>
     <t xml:space="preserve">1.8773341178894</t>
   </si>
   <si>
-    <t xml:space="preserve">2.01689624786377</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.93135809898376</t>
+    <t xml:space="preserve">2.01689600944519</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.93135821819305</t>
   </si>
   <si>
     <t xml:space="preserve">2.06191611289978</t>
@@ -2876,25 +2876,25 @@
     <t xml:space="preserve">2.14745426177979</t>
   </si>
   <si>
-    <t xml:space="preserve">2.05291223526001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.17896842956543</t>
+    <t xml:space="preserve">2.05291199684143</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.17896819114685</t>
   </si>
   <si>
     <t xml:space="preserve">2.1879723072052</t>
   </si>
   <si>
-    <t xml:space="preserve">2.14295244216919</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.16996431350708</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.2825140953064</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.28701591491699</t>
+    <t xml:space="preserve">2.14295220375061</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.1699640750885</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.28251433372498</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.28701615333557</t>
   </si>
   <si>
     <t xml:space="preserve">2.26450610160828</t>
@@ -2909,25 +2909,25 @@
     <t xml:space="preserve">2.29151821136475</t>
   </si>
   <si>
-    <t xml:space="preserve">2.31853008270264</t>
+    <t xml:space="preserve">2.31853032112122</t>
   </si>
   <si>
     <t xml:space="preserve">2.30052208900452</t>
   </si>
   <si>
-    <t xml:space="preserve">2.30502390861511</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.27801203727722</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.25099992752075</t>
+    <t xml:space="preserve">2.30502414703369</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.2780122756958</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.25100016593933</t>
   </si>
   <si>
     <t xml:space="preserve">2.17446613311768</t>
   </si>
   <si>
-    <t xml:space="preserve">2.16546225547791</t>
+    <t xml:space="preserve">2.16546201705933</t>
   </si>
   <si>
     <t xml:space="preserve">2.19697618484497</t>
@@ -2945,10 +2945,10 @@
     <t xml:space="preserve">2.33653807640076</t>
   </si>
   <si>
-    <t xml:space="preserve">2.39506411552429</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.43108010292053</t>
+    <t xml:space="preserve">2.39506435394287</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.43108034133911</t>
   </si>
   <si>
     <t xml:space="preserve">2.40857005119324</t>
@@ -2993,28 +2993,28 @@
     <t xml:space="preserve">2.54363012313843</t>
   </si>
   <si>
-    <t xml:space="preserve">2.35904788970947</t>
+    <t xml:space="preserve">2.35904812812805</t>
   </si>
   <si>
     <t xml:space="preserve">2.32753419876099</t>
   </si>
   <si>
-    <t xml:space="preserve">2.38155817985535</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.3500440120697</t>
+    <t xml:space="preserve">2.38155794143677</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.35004425048828</t>
   </si>
   <si>
     <t xml:space="preserve">2.50761413574219</t>
   </si>
   <si>
-    <t xml:space="preserve">2.52562212944031</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.58865022659302</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.62016439437866</t>
+    <t xml:space="preserve">2.52562236785889</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.58864998817444</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.62016415596008</t>
   </si>
   <si>
     <t xml:space="preserve">2.54005122184753</t>
@@ -59518,7 +59518,7 @@
     </row>
     <row r="2147">
       <c r="A2147" s="1" t="n">
-        <v>45450.6495486111</v>
+        <v>45450.2916666667</v>
       </c>
       <c r="B2147" t="n">
         <v>214867</v>
@@ -59539,6 +59539,32 @@
         <v>1122</v>
       </c>
       <c r="H2147" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2148">
+      <c r="A2148" s="1" t="n">
+        <v>45453.6495486111</v>
+      </c>
+      <c r="B2148" t="n">
+        <v>164039</v>
+      </c>
+      <c r="C2148" t="n">
+        <v>2.28999996185303</v>
+      </c>
+      <c r="D2148" t="n">
+        <v>2.25999999046326</v>
+      </c>
+      <c r="E2148" t="n">
+        <v>2.27999997138977</v>
+      </c>
+      <c r="F2148" t="n">
+        <v>2.27999997138977</v>
+      </c>
+      <c r="G2148" t="s">
+        <v>1106</v>
+      </c>
+      <c r="H2148" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/ASC.MI.xlsx
+++ b/data/ASC.MI.xlsx
@@ -44,40 +44,40 @@
     <t xml:space="preserve">ASC.MI</t>
   </si>
   <si>
-    <t xml:space="preserve">1.38912034034729</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.37659430503845</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.37784695625305</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.36281609535217</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.35530030727386</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.38410985469818</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.35655295848846</t>
+    <t xml:space="preserve">1.389120221138</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.37659442424774</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.37784707546234</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.36281597614288</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.35530054569244</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.38410997390747</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.35655272006989</t>
   </si>
   <si>
     <t xml:space="preserve">1.33776414394379</t>
   </si>
   <si>
-    <t xml:space="preserve">1.29642879962921</t>
+    <t xml:space="preserve">1.29642868041992</t>
   </si>
   <si>
     <t xml:space="preserve">1.30018639564514</t>
   </si>
   <si>
-    <t xml:space="preserve">1.25885117053986</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.28390276432037</t>
+    <t xml:space="preserve">1.25885105133057</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.28390288352966</t>
   </si>
   <si>
     <t xml:space="preserve">1.36532115936279</t>
@@ -86,16 +86,16 @@
     <t xml:space="preserve">1.36156332492828</t>
   </si>
   <si>
-    <t xml:space="preserve">1.35404789447784</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.38160479068756</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.38661503791809</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.37158417701721</t>
+    <t xml:space="preserve">1.35404777526855</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.38160467147827</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.3866149187088</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.37158405780792</t>
   </si>
   <si>
     <t xml:space="preserve">1.30895459651947</t>
@@ -110,52 +110,52 @@
     <t xml:space="preserve">1.29392349720001</t>
   </si>
   <si>
-    <t xml:space="preserve">1.31145989894867</t>
+    <t xml:space="preserve">1.31145977973938</t>
   </si>
   <si>
     <t xml:space="preserve">1.33651161193848</t>
   </si>
   <si>
-    <t xml:space="preserve">1.33400642871857</t>
+    <t xml:space="preserve">1.33400654792786</t>
   </si>
   <si>
     <t xml:space="preserve">1.34026944637299</t>
   </si>
   <si>
-    <t xml:space="preserve">1.34277451038361</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.40039372444153</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.39663577079773</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.39914095401764</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.39162528514862</t>
+    <t xml:space="preserve">1.3427746295929</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.40039348602295</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.39663589000702</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.39914107322693</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.39162540435791</t>
   </si>
   <si>
     <t xml:space="preserve">1.39413070678711</t>
   </si>
   <si>
-    <t xml:space="preserve">1.38035202026367</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.39287793636322</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.41166687011719</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.42043483257294</t>
+    <t xml:space="preserve">1.38035213947296</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.39287805557251</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.41166698932648</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.42043495178223</t>
   </si>
   <si>
     <t xml:space="preserve">1.42294025421143</t>
   </si>
   <si>
-    <t xml:space="preserve">1.43797135353088</t>
+    <t xml:space="preserve">1.4379711151123</t>
   </si>
   <si>
     <t xml:space="preserve">1.43546605110168</t>
@@ -167,109 +167,109 @@
     <t xml:space="preserve">1.41918230056763</t>
   </si>
   <si>
-    <t xml:space="preserve">1.4392237663269</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.41667723655701</t>
+    <t xml:space="preserve">1.43922400474548</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.4166773557663</t>
   </si>
   <si>
     <t xml:space="preserve">1.43296086788177</t>
   </si>
   <si>
-    <t xml:space="preserve">1.43671858310699</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.44047629833221</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.42544531822205</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.44172894954681</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.46678078174591</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.45926523208618</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.4617702960968</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.4655282497406</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.47053849697113</t>
+    <t xml:space="preserve">1.43671870231628</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.4404764175415</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.42544519901276</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.4417290687561</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.4667809009552</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.45926511287689</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.46177053451538</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.46552813053131</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.47053861618042</t>
   </si>
   <si>
     <t xml:space="preserve">1.47805392742157</t>
   </si>
   <si>
-    <t xml:space="preserve">1.45675992965698</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.45801270008087</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.46051788330078</t>
+    <t xml:space="preserve">1.45676016807556</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.45801258087158</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.46051800251007</t>
   </si>
   <si>
     <t xml:space="preserve">1.48181164264679</t>
   </si>
   <si>
-    <t xml:space="preserve">1.49057996273041</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.49809539318085</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.49559020996094</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.4843168258667</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.47930669784546</t>
+    <t xml:space="preserve">1.4905800819397</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.49809551239014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.49559056758881</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.48431694507599</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.47930645942688</t>
   </si>
   <si>
     <t xml:space="preserve">1.51416945457458</t>
   </si>
   <si>
-    <t xml:space="preserve">1.5114940404892</t>
+    <t xml:space="preserve">1.51149427890778</t>
   </si>
   <si>
     <t xml:space="preserve">1.51550698280334</t>
   </si>
   <si>
-    <t xml:space="preserve">1.53155815601349</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.54894733428955</t>
+    <t xml:space="preserve">1.53155827522278</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.54894697666168</t>
   </si>
   <si>
     <t xml:space="preserve">1.5449343919754</t>
   </si>
   <si>
-    <t xml:space="preserve">1.55964815616608</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.5676736831665</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.56901121139526</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.57436180114746</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.57971215248108</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.58773767948151</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.6185028553009</t>
+    <t xml:space="preserve">1.55964803695679</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.56767380237579</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.56901097297668</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.57436168193817</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.57971203327179</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.5877377986908</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.61850273609161</t>
   </si>
   <si>
     <t xml:space="preserve">1.61582732200623</t>
@@ -284,16 +284,16 @@
     <t xml:space="preserve">1.67334461212158</t>
   </si>
   <si>
-    <t xml:space="preserve">1.63321626186371</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.64525496959686</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.62652826309204</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.67200720310211</t>
+    <t xml:space="preserve">1.633216381073</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.64525485038757</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.62652814388275</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.67200696468353</t>
   </si>
   <si>
     <t xml:space="preserve">1.74557507038116</t>
@@ -302,133 +302,133 @@
     <t xml:space="preserve">1.75226318836212</t>
   </si>
   <si>
-    <t xml:space="preserve">1.73353683948517</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.65461790561676</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.63856673240662</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.68939590454102</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.73754978179932</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.67869508266449</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.65194284915924</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.69608390331268</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.73219907283783</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.80576741695404</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.79105365276337</t>
+    <t xml:space="preserve">1.7335364818573</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.65461814403534</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.6385669708252</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.68939566612244</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.73754954338074</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.67869484424591</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.65194296836853</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.6960836648941</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.73219919204712</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.80576777458191</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.79105377197266</t>
   </si>
   <si>
     <t xml:space="preserve">1.73086142539978</t>
   </si>
   <si>
-    <t xml:space="preserve">1.78971600532532</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.80175471305847</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.80309224128723</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.86328458786011</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.86863470077515</t>
+    <t xml:space="preserve">1.78971648216248</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.80175483226776</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.80309236049652</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.8632847070694</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.86863493919373</t>
   </si>
   <si>
     <t xml:space="preserve">1.87130999565125</t>
   </si>
   <si>
-    <t xml:space="preserve">1.83385741710663</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.83251965045929</t>
+    <t xml:space="preserve">1.83385694026947</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.83251941204071</t>
   </si>
   <si>
     <t xml:space="preserve">1.87264764308929</t>
   </si>
   <si>
-    <t xml:space="preserve">1.88602364063263</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.8499082326889</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.84589564800262</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.85258340835571</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.86462211608887</t>
+    <t xml:space="preserve">1.88602375984192</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.84990847110748</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.84589552879333</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.85258364677429</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.86462235450745</t>
   </si>
   <si>
     <t xml:space="preserve">1.9087632894516</t>
   </si>
   <si>
-    <t xml:space="preserve">1.94621610641479</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.90608787536621</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.93685257434845</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.92347657680511</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.89939975738525</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.89806234836578</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.89538729190826</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.91946363449097</t>
+    <t xml:space="preserve">1.94621586799622</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.90608775615692</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.93685281276703</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.9234766960144</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.89939987659454</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.89806199073792</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.89538717269897</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.91946411132812</t>
   </si>
   <si>
     <t xml:space="preserve">1.9261519908905</t>
   </si>
   <si>
-    <t xml:space="preserve">1.91277575492859</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.92882740497589</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.91411328315735</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.79907953739166</t>
+    <t xml:space="preserve">1.9127756357193</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.92882704734802</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.91411340236664</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.79907941818237</t>
   </si>
   <si>
     <t xml:space="preserve">1.81111788749695</t>
   </si>
   <si>
-    <t xml:space="preserve">1.89137423038483</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.83920764923096</t>
+    <t xml:space="preserve">1.89137399196625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.83920729160309</t>
   </si>
   <si>
     <t xml:space="preserve">1.74958801269531</t>
@@ -443,34 +443,34 @@
     <t xml:space="preserve">1.76965200901031</t>
   </si>
   <si>
-    <t xml:space="preserve">1.75493848323822</t>
+    <t xml:space="preserve">1.75493836402893</t>
   </si>
   <si>
     <t xml:space="preserve">1.78302812576294</t>
   </si>
   <si>
-    <t xml:space="preserve">1.79506659507751</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.75895130634308</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.77232730388641</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.75092542171478</t>
+    <t xml:space="preserve">1.7950667142868</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.75895142555237</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.77232718467712</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.75092577934265</t>
   </si>
   <si>
     <t xml:space="preserve">1.75360095500946</t>
   </si>
   <si>
-    <t xml:space="preserve">1.75627589225769</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.78035306930542</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.78837859630585</t>
+    <t xml:space="preserve">1.75627601146698</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.78035295009613</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.78837823867798</t>
   </si>
   <si>
     <t xml:space="preserve">1.79239141941071</t>
@@ -479,16 +479,16 @@
     <t xml:space="preserve">1.79774177074432</t>
   </si>
   <si>
-    <t xml:space="preserve">1.75761353969574</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.78570353984833</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.78169071674347</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.77366471290588</t>
+    <t xml:space="preserve">1.75761389732361</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.78570330142975</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.7816903591156</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.77366483211517</t>
   </si>
   <si>
     <t xml:space="preserve">1.72684860229492</t>
@@ -512,31 +512,31 @@
     <t xml:space="preserve">1.69207096099854</t>
   </si>
   <si>
-    <t xml:space="preserve">1.72417330741882</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.69875907897949</t>
+    <t xml:space="preserve">1.7241735458374</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.69875884056091</t>
   </si>
   <si>
     <t xml:space="preserve">1.66531896591187</t>
   </si>
   <si>
-    <t xml:space="preserve">1.62519061565399</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.64391708374023</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.67735719680786</t>
+    <t xml:space="preserve">1.62519085407257</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.64391732215881</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.67735743522644</t>
   </si>
   <si>
     <t xml:space="preserve">1.70544719696045</t>
   </si>
   <si>
-    <t xml:space="preserve">1.7214982509613</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.7161477804184</t>
+    <t xml:space="preserve">1.72149837017059</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.71614789962769</t>
   </si>
   <si>
     <t xml:space="preserve">1.73888719081879</t>
@@ -545,58 +545,58 @@
     <t xml:space="preserve">1.72952377796173</t>
   </si>
   <si>
-    <t xml:space="preserve">1.72283601760864</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.77634012699127</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.8071049451828</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.79640412330627</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.81914365291595</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.81513094902039</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.82181870937347</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.8351948261261</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.812455534935</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.82048094272614</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.83118212223053</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.85124588012695</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.86194658279419</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.85927128791809</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.82850682735443</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.91545128822327</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.90742540359497</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.89003658294678</t>
+    <t xml:space="preserve">1.72283589839935</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.77634024620056</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.80710482597351</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.79640448093414</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.81914353370667</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.8151308298111</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.8218184709549</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.83519458770752</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.81245565414429</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.82048082351685</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.83118200302124</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.85124599933624</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.86194694042206</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.85927152633667</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.82850646972656</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.91545140743256</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.90742528438568</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.89003670215607</t>
   </si>
   <si>
     <t xml:space="preserve">1.8779981136322</t>
@@ -605,46 +605,46 @@
     <t xml:space="preserve">1.92481434345245</t>
   </si>
   <si>
-    <t xml:space="preserve">1.93150222301483</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.89672446250916</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.93284010887146</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.94487869739532</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.91678845882416</t>
+    <t xml:space="preserve">1.93150234222412</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.89672458171844</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.93283975124359</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.94487845897675</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.91678869724274</t>
   </si>
   <si>
     <t xml:space="preserve">1.97296810150146</t>
   </si>
   <si>
-    <t xml:space="preserve">1.96628022193909</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.99303197860718</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.02647256851196</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.04386115074158</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.06124997138977</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.07061314582825</t>
+    <t xml:space="preserve">1.96628046035767</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.99303245544434</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.0264720916748</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.04386138916016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.06125020980835</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.07061338424683</t>
   </si>
   <si>
     <t xml:space="preserve">2.06660032272339</t>
   </si>
   <si>
-    <t xml:space="preserve">2.11074137687683</t>
+    <t xml:space="preserve">2.11074113845825</t>
   </si>
   <si>
     <t xml:space="preserve">2.09469032287598</t>
@@ -653,40 +653,40 @@
     <t xml:space="preserve">2.15220713615417</t>
   </si>
   <si>
-    <t xml:space="preserve">2.18029713630676</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.20169878005981</t>
+    <t xml:space="preserve">2.1802966594696</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.20169901847839</t>
   </si>
   <si>
     <t xml:space="preserve">2.22176289558411</t>
   </si>
   <si>
-    <t xml:space="preserve">2.18698501586914</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.18966007232666</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.23380088806152</t>
+    <t xml:space="preserve">2.18698477745056</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.18966031074524</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.23380136489868</t>
   </si>
   <si>
     <t xml:space="preserve">2.22845077514648</t>
   </si>
   <si>
-    <t xml:space="preserve">2.24583983421326</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.28730535507202</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.27392935752869</t>
+    <t xml:space="preserve">2.24583959579468</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.2873055934906</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.27392983436584</t>
   </si>
   <si>
     <t xml:space="preserve">2.2792797088623</t>
   </si>
   <si>
-    <t xml:space="preserve">2.32074546813965</t>
+    <t xml:space="preserve">2.32074594497681</t>
   </si>
   <si>
     <t xml:space="preserve">2.3301088809967</t>
@@ -698,13 +698,13 @@
     <t xml:space="preserve">2.35418581962585</t>
   </si>
   <si>
-    <t xml:space="preserve">2.35819864273071</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.34080982208252</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.36756205558777</t>
+    <t xml:space="preserve">2.35819888114929</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.3408100605011</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.36756181716919</t>
   </si>
   <si>
     <t xml:space="preserve">2.35953617095947</t>
@@ -716,34 +716,34 @@
     <t xml:space="preserve">2.3394718170166</t>
   </si>
   <si>
-    <t xml:space="preserve">2.35151052474976</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.40367722511292</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.37023663520813</t>
+    <t xml:space="preserve">2.35151076316833</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.40367698669434</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.37023687362671</t>
   </si>
   <si>
     <t xml:space="preserve">2.36622428894043</t>
   </si>
   <si>
-    <t xml:space="preserve">2.40768957138062</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.39832663536072</t>
+    <t xml:space="preserve">2.40769004821777</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.3983268737793</t>
   </si>
   <si>
     <t xml:space="preserve">2.40233945846558</t>
   </si>
   <si>
-    <t xml:space="preserve">2.42240357398987</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.47457003593445</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.48259568214417</t>
+    <t xml:space="preserve">2.42240333557129</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.47457027435303</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.48259592056274</t>
   </si>
   <si>
     <t xml:space="preserve">2.52941203117371</t>
@@ -752,46 +752,46 @@
     <t xml:space="preserve">2.56031012535095</t>
   </si>
   <si>
-    <t xml:space="preserve">2.54626536369324</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.53222107887268</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.51255893707275</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.44795417785645</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.44374060630798</t>
+    <t xml:space="preserve">2.54626560211182</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.5322208404541</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.5125584602356</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.44795393943787</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.44374084472656</t>
   </si>
   <si>
     <t xml:space="preserve">2.48587417602539</t>
   </si>
   <si>
-    <t xml:space="preserve">2.44514513015747</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.43110084533691</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.49991869926453</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.51677227020264</t>
+    <t xml:space="preserve">2.44514536857605</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.43110060691833</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.49991846084595</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.51677203178406</t>
   </si>
   <si>
     <t xml:space="preserve">2.53643441200256</t>
   </si>
   <si>
-    <t xml:space="preserve">2.55188322067261</t>
+    <t xml:space="preserve">2.55188345909119</t>
   </si>
   <si>
     <t xml:space="preserve">2.57014107704163</t>
   </si>
   <si>
-    <t xml:space="preserve">2.55609655380249</t>
+    <t xml:space="preserve">2.55609679222107</t>
   </si>
   <si>
     <t xml:space="preserve">2.49710965156555</t>
@@ -803,16 +803,16 @@
     <t xml:space="preserve">2.54486107826233</t>
   </si>
   <si>
-    <t xml:space="preserve">2.56311869621277</t>
+    <t xml:space="preserve">2.56311917304993</t>
   </si>
   <si>
     <t xml:space="preserve">2.56873679161072</t>
   </si>
   <si>
-    <t xml:space="preserve">2.54064750671387</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.5280077457428</t>
+    <t xml:space="preserve">2.54064774513245</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.52800726890564</t>
   </si>
   <si>
     <t xml:space="preserve">2.54907464981079</t>
@@ -824,16 +824,16 @@
     <t xml:space="preserve">2.54345655441284</t>
   </si>
   <si>
-    <t xml:space="preserve">2.61087012290955</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.5251989364624</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.50974941253662</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.49149203300476</t>
+    <t xml:space="preserve">2.61087036132812</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.52519845962524</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.5097496509552</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.49149179458618</t>
   </si>
   <si>
     <t xml:space="preserve">2.49289655685425</t>
@@ -842,16 +842,16 @@
     <t xml:space="preserve">2.44654941558838</t>
   </si>
   <si>
-    <t xml:space="preserve">2.43671846389771</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.46340298652649</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.45357155799866</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.45076298713684</t>
+    <t xml:space="preserve">2.43671870231628</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.46340274810791</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.45357179641724</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.45076274871826</t>
   </si>
   <si>
     <t xml:space="preserve">2.45497632026672</t>
@@ -860,19 +860,19 @@
     <t xml:space="preserve">2.46059417724609</t>
   </si>
   <si>
-    <t xml:space="preserve">2.43531394004822</t>
+    <t xml:space="preserve">2.43531370162964</t>
   </si>
   <si>
     <t xml:space="preserve">2.3945848941803</t>
   </si>
   <si>
-    <t xml:space="preserve">2.38475370407104</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.40862989425659</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.42267394065857</t>
+    <t xml:space="preserve">2.38475394248962</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.40862965583801</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.42267417907715</t>
   </si>
   <si>
     <t xml:space="preserve">2.43250513076782</t>
@@ -881,22 +881,22 @@
     <t xml:space="preserve">2.52098536491394</t>
   </si>
   <si>
-    <t xml:space="preserve">2.51536774635315</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.52660322189331</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.51115441322327</t>
+    <t xml:space="preserve">2.51536750793457</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.52660298347473</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.51115417480469</t>
   </si>
   <si>
     <t xml:space="preserve">2.49008774757385</t>
   </si>
   <si>
-    <t xml:space="preserve">2.47182965278625</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.47323441505432</t>
+    <t xml:space="preserve">2.47182989120483</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.47323417663574</t>
   </si>
   <si>
     <t xml:space="preserve">2.4577853679657</t>
@@ -908,46 +908,46 @@
     <t xml:space="preserve">2.44093203544617</t>
   </si>
   <si>
-    <t xml:space="preserve">2.48868298530579</t>
+    <t xml:space="preserve">2.48868274688721</t>
   </si>
   <si>
     <t xml:space="preserve">2.57294988632202</t>
   </si>
   <si>
-    <t xml:space="preserve">2.5350296497345</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.55890560150146</t>
+    <t xml:space="preserve">2.53502988815308</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.55890536308289</t>
   </si>
   <si>
     <t xml:space="preserve">2.48025631904602</t>
   </si>
   <si>
-    <t xml:space="preserve">2.48166060447693</t>
+    <t xml:space="preserve">2.48166084289551</t>
   </si>
   <si>
     <t xml:space="preserve">2.46761631965637</t>
   </si>
   <si>
-    <t xml:space="preserve">2.46199870109558</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.53081631660461</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.50694060325623</t>
+    <t xml:space="preserve">2.461998462677</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.53081655502319</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.50694108009338</t>
   </si>
   <si>
     <t xml:space="preserve">2.53362536430359</t>
   </si>
   <si>
-    <t xml:space="preserve">2.50272750854492</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.55469250679016</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.57435441017151</t>
+    <t xml:space="preserve">2.50272727012634</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.55469226837158</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.57435417175293</t>
   </si>
   <si>
     <t xml:space="preserve">2.61227464675903</t>
@@ -965,13 +965,13 @@
     <t xml:space="preserve">2.65440797805786</t>
   </si>
   <si>
-    <t xml:space="preserve">2.68811511993408</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.59120774269104</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.59682583808899</t>
+    <t xml:space="preserve">2.6881148815155</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.59120798110962</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.59682559967041</t>
   </si>
   <si>
     <t xml:space="preserve">2.54205203056335</t>
@@ -980,19 +980,19 @@
     <t xml:space="preserve">2.56733202934265</t>
   </si>
   <si>
-    <t xml:space="preserve">2.61367893218994</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.59822988510132</t>
+    <t xml:space="preserve">2.61367917060852</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.5982301235199</t>
   </si>
   <si>
     <t xml:space="preserve">2.57997226715088</t>
   </si>
   <si>
-    <t xml:space="preserve">2.56452369689941</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.58839869499207</t>
+    <t xml:space="preserve">2.56452345848083</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.58839917182922</t>
   </si>
   <si>
     <t xml:space="preserve">2.51396298408508</t>
@@ -1004,97 +1004,97 @@
     <t xml:space="preserve">2.58418583869934</t>
   </si>
   <si>
-    <t xml:space="preserve">2.57716369628906</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.58067464828491</t>
+    <t xml:space="preserve">2.57716345787048</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.58067440986633</t>
   </si>
   <si>
     <t xml:space="preserve">2.51747441291809</t>
   </si>
   <si>
-    <t xml:space="preserve">2.31734037399292</t>
+    <t xml:space="preserve">2.31734013557434</t>
   </si>
   <si>
     <t xml:space="preserve">2.21902894973755</t>
   </si>
   <si>
-    <t xml:space="preserve">2.28222894668579</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.25062894821167</t>
+    <t xml:space="preserve">2.28222942352295</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.25062870979309</t>
   </si>
   <si>
     <t xml:space="preserve">2.21200680732727</t>
   </si>
   <si>
-    <t xml:space="preserve">2.26818466186523</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.25765132904053</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.29627370834351</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.30329585075378</t>
+    <t xml:space="preserve">2.26818490028381</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.25765109062195</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.29627323150635</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.30329561233521</t>
   </si>
   <si>
     <t xml:space="preserve">2.24360680580139</t>
   </si>
   <si>
-    <t xml:space="preserve">2.22605133056641</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.20147323608398</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.19093990325928</t>
+    <t xml:space="preserve">2.22605109214783</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.20147347450256</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.1909396648407</t>
   </si>
   <si>
     <t xml:space="preserve">2.14880633354187</t>
   </si>
   <si>
-    <t xml:space="preserve">2.18742895126343</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.19796204566956</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.2225399017334</t>
+    <t xml:space="preserve">2.18742871284485</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.19796228408813</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.22253966331482</t>
   </si>
   <si>
     <t xml:space="preserve">2.26467347145081</t>
   </si>
   <si>
-    <t xml:space="preserve">2.2155179977417</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.2471182346344</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.25414037704468</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.30680704116821</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.2857403755188</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.23658442497253</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.24009537696838</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.27871799468994</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.28925156593323</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.3243625164032</t>
+    <t xml:space="preserve">2.21551775932312</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.24711775779724</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.2541401386261</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.30680680274963</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.28574061393738</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.23658418655396</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.24009561538696</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.27871775627136</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.28925132751465</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.32436227798462</t>
   </si>
   <si>
     <t xml:space="preserve">2.29978466033936</t>
@@ -1103,37 +1103,37 @@
     <t xml:space="preserve">2.31031799316406</t>
   </si>
   <si>
-    <t xml:space="preserve">2.33489608764648</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.33840703964233</t>
+    <t xml:space="preserve">2.33489584922791</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.33840727806091</t>
   </si>
   <si>
     <t xml:space="preserve">2.3875629901886</t>
   </si>
   <si>
-    <t xml:space="preserve">2.47885179519653</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.46129655838013</t>
+    <t xml:space="preserve">2.47885203361511</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.46129631996155</t>
   </si>
   <si>
     <t xml:space="preserve">2.47980213165283</t>
   </si>
   <si>
-    <t xml:space="preserve">2.44279003143311</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.39837622642517</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.36876630783081</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.41318082809448</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.3539617061615</t>
+    <t xml:space="preserve">2.44279026985168</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.39837598800659</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.36876654624939</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.4131805896759</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.35396146774292</t>
   </si>
   <si>
     <t xml:space="preserve">2.31694960594177</t>
@@ -1142,25 +1142,25 @@
     <t xml:space="preserve">2.30584597587585</t>
   </si>
   <si>
-    <t xml:space="preserve">2.29844331741333</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.29104161262512</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.27993774414062</t>
+    <t xml:space="preserve">2.29844355583191</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.29104113578796</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.27993750572205</t>
   </si>
   <si>
     <t xml:space="preserve">2.26143169403076</t>
   </si>
   <si>
-    <t xml:space="preserve">2.22441959381104</t>
+    <t xml:space="preserve">2.22441983222961</t>
   </si>
   <si>
     <t xml:space="preserve">2.12818837165833</t>
   </si>
   <si>
-    <t xml:space="preserve">2.18370676040649</t>
+    <t xml:space="preserve">2.18370652198792</t>
   </si>
   <si>
     <t xml:space="preserve">2.23182225227356</t>
@@ -1172,7 +1172,7 @@
     <t xml:space="preserve">2.20591378211975</t>
   </si>
   <si>
-    <t xml:space="preserve">2.18000531196594</t>
+    <t xml:space="preserve">2.18000507354736</t>
   </si>
   <si>
     <t xml:space="preserve">2.25773048400879</t>
@@ -1187,37 +1187,37 @@
     <t xml:space="preserve">2.21331596374512</t>
   </si>
   <si>
-    <t xml:space="preserve">2.21701717376709</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.16149926185608</t>
+    <t xml:space="preserve">2.21701693534851</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.16149950027466</t>
   </si>
   <si>
     <t xml:space="preserve">2.26883411407471</t>
   </si>
   <si>
-    <t xml:space="preserve">2.24662685394287</t>
+    <t xml:space="preserve">2.24662661552429</t>
   </si>
   <si>
     <t xml:space="preserve">2.18740749359131</t>
   </si>
   <si>
-    <t xml:space="preserve">2.1689019203186</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.15779781341553</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.13929224014282</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.13559103012085</t>
+    <t xml:space="preserve">2.16890168190002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.15779829025269</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.13929200172424</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.13559079170227</t>
   </si>
   <si>
     <t xml:space="preserve">2.12078595161438</t>
   </si>
   <si>
-    <t xml:space="preserve">2.12448716163635</t>
+    <t xml:space="preserve">2.12448740005493</t>
   </si>
   <si>
     <t xml:space="preserve">2.14669466018677</t>
@@ -1229,28 +1229,28 @@
     <t xml:space="preserve">2.10968255996704</t>
   </si>
   <si>
-    <t xml:space="preserve">2.32435202598572</t>
+    <t xml:space="preserve">2.32435178756714</t>
   </si>
   <si>
     <t xml:space="preserve">2.33175444602966</t>
   </si>
   <si>
-    <t xml:space="preserve">2.3724672794342</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.62044763565063</t>
+    <t xml:space="preserve">2.37246751785278</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.62044739723206</t>
   </si>
   <si>
     <t xml:space="preserve">2.48350358009338</t>
   </si>
   <si>
-    <t xml:space="preserve">2.41688203811646</t>
+    <t xml:space="preserve">2.41688179969788</t>
   </si>
   <si>
     <t xml:space="preserve">2.42058300971985</t>
   </si>
   <si>
-    <t xml:space="preserve">2.40577793121338</t>
+    <t xml:space="preserve">2.40577840805054</t>
   </si>
   <si>
     <t xml:space="preserve">2.36506533622742</t>
@@ -1259,37 +1259,37 @@
     <t xml:space="preserve">2.32065081596375</t>
   </si>
   <si>
-    <t xml:space="preserve">2.29474258422852</t>
+    <t xml:space="preserve">2.29474234580994</t>
   </si>
   <si>
     <t xml:space="preserve">2.23922443389893</t>
   </si>
   <si>
-    <t xml:space="preserve">2.30954694747925</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.27623653411865</t>
+    <t xml:space="preserve">2.30954718589783</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.27623629570007</t>
   </si>
   <si>
     <t xml:space="preserve">2.28363871574402</t>
   </si>
   <si>
-    <t xml:space="preserve">2.30214476585388</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.31324863433838</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.342857837677</t>
+    <t xml:space="preserve">2.3021445274353</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.3132483959198</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.34285807609558</t>
   </si>
   <si>
     <t xml:space="preserve">2.33915686607361</t>
   </si>
   <si>
-    <t xml:space="preserve">2.33545517921448</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.34655904769897</t>
+    <t xml:space="preserve">2.33545541763306</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.34655928611755</t>
   </si>
   <si>
     <t xml:space="preserve">2.2429256439209</t>
@@ -1298,13 +1298,13 @@
     <t xml:space="preserve">2.17630410194397</t>
   </si>
   <si>
-    <t xml:space="preserve">2.19110894203186</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.23552322387695</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.08747529983521</t>
+    <t xml:space="preserve">2.19110870361328</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.23552346229553</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.08747553825378</t>
   </si>
   <si>
     <t xml:space="preserve">2.15039563179016</t>
@@ -1313,16 +1313,16 @@
     <t xml:space="preserve">2.15409684181213</t>
   </si>
   <si>
-    <t xml:space="preserve">2.2540295124054</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.27253484725952</t>
+    <t xml:space="preserve">2.25402927398682</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.2725350856781</t>
   </si>
   <si>
     <t xml:space="preserve">2.25032782554626</t>
   </si>
   <si>
-    <t xml:space="preserve">2.22812056541443</t>
+    <t xml:space="preserve">2.22812080383301</t>
   </si>
   <si>
     <t xml:space="preserve">2.40207719802856</t>
@@ -1343,13 +1343,13 @@
     <t xml:space="preserve">2.37986993789673</t>
   </si>
   <si>
-    <t xml:space="preserve">2.42428421974182</t>
+    <t xml:space="preserve">2.42428398132324</t>
   </si>
   <si>
     <t xml:space="preserve">2.42798542976379</t>
   </si>
   <si>
-    <t xml:space="preserve">2.44649171829224</t>
+    <t xml:space="preserve">2.44649147987366</t>
   </si>
   <si>
     <t xml:space="preserve">2.45019268989563</t>
@@ -1364,22 +1364,22 @@
     <t xml:space="preserve">2.49090576171875</t>
   </si>
   <si>
-    <t xml:space="preserve">2.51311302185059</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.4983081817627</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.50571084022522</t>
+    <t xml:space="preserve">2.51311326026917</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.49830794334412</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.50571060180664</t>
   </si>
   <si>
     <t xml:space="preserve">2.56122851371765</t>
   </si>
   <si>
-    <t xml:space="preserve">2.53161931037903</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.56863117218018</t>
+    <t xml:space="preserve">2.53161907196045</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.56863069534302</t>
   </si>
   <si>
     <t xml:space="preserve">2.5279176235199</t>
@@ -1391,7 +1391,7 @@
     <t xml:space="preserve">2.52051544189453</t>
   </si>
   <si>
-    <t xml:space="preserve">2.5242166519165</t>
+    <t xml:space="preserve">2.52421689033508</t>
   </si>
   <si>
     <t xml:space="preserve">2.54272270202637</t>
@@ -1406,34 +1406,34 @@
     <t xml:space="preserve">2.60194182395935</t>
   </si>
   <si>
-    <t xml:space="preserve">2.59083819389343</t>
+    <t xml:space="preserve">2.59083795547485</t>
   </si>
   <si>
     <t xml:space="preserve">2.57973456382751</t>
   </si>
   <si>
-    <t xml:space="preserve">2.62785005569458</t>
+    <t xml:space="preserve">2.62785029411316</t>
   </si>
   <si>
     <t xml:space="preserve">2.64635634422302</t>
   </si>
   <si>
-    <t xml:space="preserve">2.64265489578247</t>
+    <t xml:space="preserve">2.64265465736389</t>
   </si>
   <si>
     <t xml:space="preserve">2.6389536857605</t>
   </si>
   <si>
-    <t xml:space="preserve">2.65745973587036</t>
+    <t xml:space="preserve">2.65745949745178</t>
   </si>
   <si>
     <t xml:space="preserve">2.67226433753967</t>
   </si>
   <si>
-    <t xml:space="preserve">2.71297764778137</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.72778272628784</t>
+    <t xml:space="preserve">2.71297740936279</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.72778224945068</t>
   </si>
   <si>
     <t xml:space="preserve">2.70187425613403</t>
@@ -1442,22 +1442,22 @@
     <t xml:space="preserve">2.69077062606812</t>
   </si>
   <si>
-    <t xml:space="preserve">2.74258732795715</t>
+    <t xml:space="preserve">2.74258685112</t>
   </si>
   <si>
     <t xml:space="preserve">2.75739216804504</t>
   </si>
   <si>
-    <t xml:space="preserve">2.82401371002197</t>
+    <t xml:space="preserve">2.82401347160339</t>
   </si>
   <si>
     <t xml:space="preserve">2.82031226158142</t>
   </si>
   <si>
-    <t xml:space="preserve">2.84992218017578</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.83881855010986</t>
+    <t xml:space="preserve">2.8499219417572</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.83881831169128</t>
   </si>
   <si>
     <t xml:space="preserve">3.02654075622559</t>
@@ -1466,13 +1466,13 @@
     <t xml:space="preserve">2.74035239219666</t>
   </si>
   <si>
-    <t xml:space="preserve">2.73643231391907</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.68938755989075</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.70898914337158</t>
+    <t xml:space="preserve">2.73643207550049</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.68938732147217</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.70898938179016</t>
   </si>
   <si>
     <t xml:space="preserve">2.68154668807983</t>
@@ -1481,13 +1481,13 @@
     <t xml:space="preserve">2.75603413581848</t>
   </si>
   <si>
-    <t xml:space="preserve">2.84228277206421</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.79915809631348</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.82268071174622</t>
+    <t xml:space="preserve">2.84228253364563</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.79915833473206</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.82268095016479</t>
   </si>
   <si>
     <t xml:space="preserve">2.78347682952881</t>
@@ -1502,7 +1502,7 @@
     <t xml:space="preserve">2.79131746292114</t>
   </si>
   <si>
-    <t xml:space="preserve">2.78739714622498</t>
+    <t xml:space="preserve">2.78739738464355</t>
   </si>
   <si>
     <t xml:space="preserve">2.84620332717896</t>
@@ -1514,16 +1514,16 @@
     <t xml:space="preserve">2.82660102844238</t>
   </si>
   <si>
-    <t xml:space="preserve">2.8344419002533</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.85012340545654</t>
+    <t xml:space="preserve">2.83444166183472</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.85012364387512</t>
   </si>
   <si>
     <t xml:space="preserve">2.8618848323822</t>
   </si>
   <si>
-    <t xml:space="preserve">2.8736457824707</t>
+    <t xml:space="preserve">2.87364554405212</t>
   </si>
   <si>
     <t xml:space="preserve">2.99517774581909</t>
@@ -1535,28 +1535,28 @@
     <t xml:space="preserve">2.95597410202026</t>
   </si>
   <si>
-    <t xml:space="preserve">2.97165560722351</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.94813299179077</t>
+    <t xml:space="preserve">2.97165536880493</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.94813323020935</t>
   </si>
   <si>
     <t xml:space="preserve">2.94029259681702</t>
   </si>
   <si>
-    <t xml:space="preserve">2.9638147354126</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.95989441871643</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.00693917274475</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.10494875907898</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.06966519355774</t>
+    <t xml:space="preserve">2.96381449699402</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.95989465713501</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.00693893432617</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.1049485206604</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.06966543197632</t>
   </si>
   <si>
     <t xml:space="preserve">3.03830218315125</t>
@@ -1571,31 +1571,31 @@
     <t xml:space="preserve">3.15983438491821</t>
   </si>
   <si>
-    <t xml:space="preserve">3.18335676193237</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.23824167251587</t>
+    <t xml:space="preserve">3.18335652351379</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.23824214935303</t>
   </si>
   <si>
     <t xml:space="preserve">3.25000333786011</t>
   </si>
   <si>
-    <t xml:space="preserve">3.2539234161377</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.26960492134094</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.30096817016602</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.33233118057251</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.3127293586731</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.27744603157043</t>
+    <t xml:space="preserve">3.25392365455627</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.26960515975952</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.30096840858459</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.33233141899109</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.31272912025452</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.27744579315186</t>
   </si>
   <si>
     <t xml:space="preserve">3.20687890052795</t>
@@ -1604,25 +1604,25 @@
     <t xml:space="preserve">3.22648072242737</t>
   </si>
   <si>
-    <t xml:space="preserve">3.2578444480896</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.24216270446777</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.19119739532471</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.14023208618164</t>
+    <t xml:space="preserve">3.25784397125244</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.24216246604919</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.19119763374329</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.14023232460022</t>
   </si>
   <si>
     <t xml:space="preserve">3.12847137451172</t>
   </si>
   <si>
-    <t xml:space="preserve">3.11670994758606</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.0500636100769</t>
+    <t xml:space="preserve">3.11670970916748</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.05006313323975</t>
   </si>
   <si>
     <t xml:space="preserve">3.05398368835449</t>
@@ -1634,28 +1634,28 @@
     <t xml:space="preserve">3.21471953392029</t>
   </si>
   <si>
-    <t xml:space="preserve">3.16375470161438</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.14807295799255</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.04222249984741</t>
+    <t xml:space="preserve">3.1637544631958</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.14807271957397</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.04222273826599</t>
   </si>
   <si>
     <t xml:space="preserve">3.12063026428223</t>
   </si>
   <si>
-    <t xml:space="preserve">3.12455034255981</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.08534693717957</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.08926749229431</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.11278986930847</t>
+    <t xml:space="preserve">3.12455058097839</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.08534669876099</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.08926701545715</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.11278963088989</t>
   </si>
   <si>
     <t xml:space="preserve">3.10102844238281</t>
@@ -1664,22 +1664,22 @@
     <t xml:space="preserve">2.98341679573059</t>
   </si>
   <si>
-    <t xml:space="preserve">2.88148641586304</t>
+    <t xml:space="preserve">2.88148665428162</t>
   </si>
   <si>
     <t xml:space="preserve">2.93637204170227</t>
   </si>
   <si>
-    <t xml:space="preserve">2.97557592391968</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.98733711242676</t>
+    <t xml:space="preserve">2.97557640075684</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.98733687400818</t>
   </si>
   <si>
     <t xml:space="preserve">2.97949624061584</t>
   </si>
   <si>
-    <t xml:space="preserve">2.99909806251526</t>
+    <t xml:space="preserve">2.99909853935242</t>
   </si>
   <si>
     <t xml:space="preserve">3.00301861763</t>
@@ -1691,7 +1691,7 @@
     <t xml:space="preserve">3.03438186645508</t>
   </si>
   <si>
-    <t xml:space="preserve">3.06574511528015</t>
+    <t xml:space="preserve">3.06574487686157</t>
   </si>
   <si>
     <t xml:space="preserve">3.04614281654358</t>
@@ -1703,7 +1703,7 @@
     <t xml:space="preserve">2.93245148658752</t>
   </si>
   <si>
-    <t xml:space="preserve">2.91284966468811</t>
+    <t xml:space="preserve">2.91284942626953</t>
   </si>
   <si>
     <t xml:space="preserve">2.90108847618103</t>
@@ -1712,13 +1712,13 @@
     <t xml:space="preserve">2.94421291351318</t>
   </si>
   <si>
-    <t xml:space="preserve">2.8932478427887</t>
+    <t xml:space="preserve">2.89324760437012</t>
   </si>
   <si>
     <t xml:space="preserve">3.01870012283325</t>
   </si>
   <si>
-    <t xml:space="preserve">3.1519935131073</t>
+    <t xml:space="preserve">3.15199375152588</t>
   </si>
   <si>
     <t xml:space="preserve">3.17551589012146</t>
@@ -1730,7 +1730,7 @@
     <t xml:space="preserve">3.10886907577515</t>
   </si>
   <si>
-    <t xml:space="preserve">3.022620677948</t>
+    <t xml:space="preserve">3.02262043952942</t>
   </si>
   <si>
     <t xml:space="preserve">3.01085925102234</t>
@@ -1742,7 +1742,7 @@
     <t xml:space="preserve">2.95205354690552</t>
   </si>
   <si>
-    <t xml:space="preserve">2.9912576675415</t>
+    <t xml:space="preserve">2.99125742912292</t>
   </si>
   <si>
     <t xml:space="preserve">3.13239145278931</t>
@@ -1751,40 +1751,40 @@
     <t xml:space="preserve">3.46562433242798</t>
   </si>
   <si>
-    <t xml:space="preserve">3.54795289039612</t>
+    <t xml:space="preserve">3.54795265197754</t>
   </si>
   <si>
     <t xml:space="preserve">3.48522686958313</t>
   </si>
   <si>
-    <t xml:space="preserve">3.58323669433594</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.52443027496338</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.58715653419495</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.61459970474243</t>
+    <t xml:space="preserve">3.58323621749878</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.52443051338196</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.58715677261353</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.61459946632385</t>
   </si>
   <si>
     <t xml:space="preserve">3.5165901184082</t>
   </si>
   <si>
-    <t xml:space="preserve">3.42250037193298</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.39505767822266</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.37937617301941</t>
+    <t xml:space="preserve">3.42249989509583</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.39505743980408</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.37937593460083</t>
   </si>
   <si>
     <t xml:space="preserve">3.43818187713623</t>
   </si>
   <si>
-    <t xml:space="preserve">3.48130631446838</t>
+    <t xml:space="preserve">3.48130655288696</t>
   </si>
   <si>
     <t xml:space="preserve">3.45386385917664</t>
@@ -1793,19 +1793,19 @@
     <t xml:space="preserve">3.28920745849609</t>
   </si>
   <si>
-    <t xml:space="preserve">3.26176452636719</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.2107994556427</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.0814266204834</t>
+    <t xml:space="preserve">3.26176428794861</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.21079921722412</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.08142638206482</t>
   </si>
   <si>
     <t xml:space="preserve">3.26568460464478</t>
   </si>
   <si>
-    <t xml:space="preserve">3.23432183265686</t>
+    <t xml:space="preserve">3.23432159423828</t>
   </si>
   <si>
     <t xml:space="preserve">3.19511771202087</t>
@@ -1823,7 +1823,7 @@
     <t xml:space="preserve">2.45024371147156</t>
   </si>
   <si>
-    <t xml:space="preserve">2.49336814880371</t>
+    <t xml:space="preserve">2.49336791038513</t>
   </si>
   <si>
     <t xml:space="preserve">2.50512909889221</t>
@@ -1832,22 +1832,22 @@
     <t xml:space="preserve">2.55217385292053</t>
   </si>
   <si>
-    <t xml:space="preserve">2.61882042884827</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.60313868522644</t>
+    <t xml:space="preserve">2.61882019042969</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.60313892364502</t>
   </si>
   <si>
     <t xml:space="preserve">2.63450193405151</t>
   </si>
   <si>
-    <t xml:space="preserve">2.58353686332703</t>
+    <t xml:space="preserve">2.58353710174561</t>
   </si>
   <si>
     <t xml:space="preserve">2.5443332195282</t>
   </si>
   <si>
-    <t xml:space="preserve">2.51689028739929</t>
+    <t xml:space="preserve">2.51689052581787</t>
   </si>
   <si>
     <t xml:space="preserve">2.63842248916626</t>
@@ -1871,7 +1871,7 @@
     <t xml:space="preserve">2.54041266441345</t>
   </si>
   <si>
-    <t xml:space="preserve">2.52865147590637</t>
+    <t xml:space="preserve">2.52865123748779</t>
   </si>
   <si>
     <t xml:space="preserve">2.54825329780579</t>
@@ -1880,31 +1880,31 @@
     <t xml:space="preserve">2.52473115921021</t>
   </si>
   <si>
-    <t xml:space="preserve">2.57177591323853</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.58745718002319</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.64234256744385</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.61097955703735</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.65018391609192</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.62274098396301</t>
+    <t xml:space="preserve">2.57177567481995</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.58745741844177</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.64234280586243</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.61097979545593</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.65018367767334</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.62274074554443</t>
   </si>
   <si>
     <t xml:space="preserve">2.6266610622406</t>
   </si>
   <si>
-    <t xml:space="preserve">2.72075080871582</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.92069029808044</t>
+    <t xml:space="preserve">2.72075057029724</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.92069053649902</t>
   </si>
   <si>
     <t xml:space="preserve">3.30880904197693</t>
@@ -1913,28 +1913,28 @@
     <t xml:space="preserve">3.44994306564331</t>
   </si>
   <si>
-    <t xml:space="preserve">3.43426156044006</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.50703954696655</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.32983326911926</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.25565385818481</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.14438486099243</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.14026355743408</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.21444320678711</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.24741196632385</t>
+    <t xml:space="preserve">3.43426179885864</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.50703978538513</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.32983303070068</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.25565409660339</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.14438462257385</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.1402633190155</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.21444296836853</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.24741148948669</t>
   </si>
   <si>
     <t xml:space="preserve">3.19383764266968</t>
@@ -1958,7 +1958,7 @@
     <t xml:space="preserve">3.08256816864014</t>
   </si>
   <si>
-    <t xml:space="preserve">3.09081077575684</t>
+    <t xml:space="preserve">3.09081053733826</t>
   </si>
   <si>
     <t xml:space="preserve">3.11965823173523</t>
@@ -1970,25 +1970,25 @@
     <t xml:space="preserve">3.05784201622009</t>
   </si>
   <si>
-    <t xml:space="preserve">3.04135775566101</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.00014662742615</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.94245147705078</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.91360425949097</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.93008828163147</t>
+    <t xml:space="preserve">3.04135751724243</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.00014686584473</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.94245171546936</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.91360402107239</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.93008852005005</t>
   </si>
   <si>
     <t xml:space="preserve">2.91772484779358</t>
   </si>
   <si>
-    <t xml:space="preserve">2.9012405872345</t>
+    <t xml:space="preserve">2.90124082565308</t>
   </si>
   <si>
     <t xml:space="preserve">2.90536212921143</t>
@@ -1997,7 +1997,7 @@
     <t xml:space="preserve">2.86827230453491</t>
   </si>
   <si>
-    <t xml:space="preserve">2.78997159004211</t>
+    <t xml:space="preserve">2.78997135162354</t>
   </si>
   <si>
     <t xml:space="preserve">2.92184638977051</t>
@@ -2012,13 +2012,13 @@
     <t xml:space="preserve">2.80233502388</t>
   </si>
   <si>
-    <t xml:space="preserve">2.76112389564514</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.74463963508606</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.75288200378418</t>
+    <t xml:space="preserve">2.76112413406372</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.74463987350464</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.7528817653656</t>
   </si>
   <si>
     <t xml:space="preserve">2.71167087554932</t>
@@ -2030,7 +2030,7 @@
     <t xml:space="preserve">2.82706141471863</t>
   </si>
   <si>
-    <t xml:space="preserve">2.8723931312561</t>
+    <t xml:space="preserve">2.87239336967468</t>
   </si>
   <si>
     <t xml:space="preserve">2.86003017425537</t>
@@ -2042,7 +2042,7 @@
     <t xml:space="preserve">2.81057715415955</t>
   </si>
   <si>
-    <t xml:space="preserve">2.76524496078491</t>
+    <t xml:space="preserve">2.76524543762207</t>
   </si>
   <si>
     <t xml:space="preserve">2.79409265518188</t>
@@ -2051,34 +2051,34 @@
     <t xml:space="preserve">2.78172945976257</t>
   </si>
   <si>
-    <t xml:space="preserve">2.7858510017395</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.70342922210693</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.7075502872467</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.75700330734253</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.77348756790161</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.74876070022583</t>
+    <t xml:space="preserve">2.78585052490234</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.70342898368835</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.70755004882812</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.75700306892395</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.77348732948303</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.74876093864441</t>
   </si>
   <si>
     <t xml:space="preserve">2.71991324424744</t>
   </si>
   <si>
-    <t xml:space="preserve">2.72403454780579</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.77760815620422</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.88475680351257</t>
+    <t xml:space="preserve">2.72403430938721</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.7776083946228</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.88475632667542</t>
   </si>
   <si>
     <t xml:space="preserve">2.64573383331299</t>
@@ -2090,7 +2090,7 @@
     <t xml:space="preserve">2.66221809387207</t>
   </si>
   <si>
-    <t xml:space="preserve">2.6086437702179</t>
+    <t xml:space="preserve">2.60864400863647</t>
   </si>
   <si>
     <t xml:space="preserve">2.63337063789368</t>
@@ -2105,25 +2105,25 @@
     <t xml:space="preserve">2.59215974807739</t>
   </si>
   <si>
-    <t xml:space="preserve">2.60452342033386</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.62924957275391</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.64161252975464</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.61276507377625</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.58391761779785</t>
+    <t xml:space="preserve">2.60452318191528</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.62924933433533</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.64161276817322</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.61276531219482</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.58391737937927</t>
   </si>
   <si>
     <t xml:space="preserve">2.59628081321716</t>
   </si>
   <si>
-    <t xml:space="preserve">2.51798057556152</t>
+    <t xml:space="preserve">2.51798033714294</t>
   </si>
   <si>
     <t xml:space="preserve">2.49737477302551</t>
@@ -2132,10 +2132,10 @@
     <t xml:space="preserve">2.57155442237854</t>
   </si>
   <si>
-    <t xml:space="preserve">2.51385903358459</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.48913288116455</t>
+    <t xml:space="preserve">2.51385927200317</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.48913264274597</t>
   </si>
   <si>
     <t xml:space="preserve">2.50561714172363</t>
@@ -2144,16 +2144,16 @@
     <t xml:space="preserve">2.46852731704712</t>
   </si>
   <si>
-    <t xml:space="preserve">2.50973796844482</t>
+    <t xml:space="preserve">2.50973844528198</t>
   </si>
   <si>
     <t xml:space="preserve">2.40671110153198</t>
   </si>
   <si>
-    <t xml:space="preserve">2.42319560050964</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.45204329490662</t>
+    <t xml:space="preserve">2.42319536209106</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.45204305648804</t>
   </si>
   <si>
     <t xml:space="preserve">2.44792222976685</t>
@@ -2168,16 +2168,16 @@
     <t xml:space="preserve">2.74051880836487</t>
   </si>
   <si>
-    <t xml:space="preserve">2.86415100097656</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.88887786865234</t>
+    <t xml:space="preserve">2.86415123939514</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.88887763023376</t>
   </si>
   <si>
     <t xml:space="preserve">2.89711976051331</t>
   </si>
   <si>
-    <t xml:space="preserve">2.8476665019989</t>
+    <t xml:space="preserve">2.84766674041748</t>
   </si>
   <si>
     <t xml:space="preserve">2.84354591369629</t>
@@ -2186,13 +2186,13 @@
     <t xml:space="preserve">2.81881928443909</t>
   </si>
   <si>
-    <t xml:space="preserve">2.83530378341675</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.83118224143982</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.03311538696289</t>
+    <t xml:space="preserve">2.83530354499817</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.8311824798584</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.03311562538147</t>
   </si>
   <si>
     <t xml:space="preserve">3.01663112640381</t>
@@ -2204,13 +2204,13 @@
     <t xml:space="preserve">3.02487349510193</t>
   </si>
   <si>
-    <t xml:space="preserve">3.00838923454285</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.05372095108032</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.06608414649963</t>
+    <t xml:space="preserve">3.00838899612427</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.05372071266174</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.06608438491821</t>
   </si>
   <si>
     <t xml:space="preserve">3.16498994827271</t>
@@ -2219,25 +2219,25 @@
     <t xml:space="preserve">3.10317373275757</t>
   </si>
   <si>
-    <t xml:space="preserve">3.10729503631592</t>
+    <t xml:space="preserve">3.10729479789734</t>
   </si>
   <si>
     <t xml:space="preserve">2.97542023658752</t>
   </si>
   <si>
-    <t xml:space="preserve">2.96717810630798</t>
+    <t xml:space="preserve">2.96717834472656</t>
   </si>
   <si>
     <t xml:space="preserve">2.98366236686707</t>
   </si>
   <si>
-    <t xml:space="preserve">2.95481514930725</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.98778367042542</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.02075219154358</t>
+    <t xml:space="preserve">2.95481491088867</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.98778343200684</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.020751953125</t>
   </si>
   <si>
     <t xml:space="preserve">3.07844734191895</t>
@@ -2246,13 +2246,13 @@
     <t xml:space="preserve">3.0454785823822</t>
   </si>
   <si>
-    <t xml:space="preserve">3.04959964752197</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.03723669052124</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.09905242919922</t>
+    <t xml:space="preserve">3.04959988594055</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.03723645210266</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.0990526676178</t>
   </si>
   <si>
     <t xml:space="preserve">3.09493184089661</t>
@@ -2261,37 +2261,37 @@
     <t xml:space="preserve">3.01250982284546</t>
   </si>
   <si>
-    <t xml:space="preserve">2.96305704116821</t>
+    <t xml:space="preserve">2.96305727958679</t>
   </si>
   <si>
     <t xml:space="preserve">3.0042679309845</t>
   </si>
   <si>
-    <t xml:space="preserve">3.07020497322083</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.14850544929504</t>
+    <t xml:space="preserve">3.0702052116394</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.14850568771362</t>
   </si>
   <si>
     <t xml:space="preserve">3.16086912155151</t>
   </si>
   <si>
-    <t xml:space="preserve">3.16911101341248</t>
+    <t xml:space="preserve">3.16911125183105</t>
   </si>
   <si>
     <t xml:space="preserve">3.18559527397156</t>
   </si>
   <si>
-    <t xml:space="preserve">3.15262651443481</t>
+    <t xml:space="preserve">3.15262699127197</t>
   </si>
   <si>
     <t xml:space="preserve">3.11553692817688</t>
   </si>
   <si>
-    <t xml:space="preserve">3.13202118873596</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.12790036201477</t>
+    <t xml:space="preserve">3.13202142715454</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.12790060043335</t>
   </si>
   <si>
     <t xml:space="preserve">3.22268533706665</t>
@@ -2303,10 +2303,10 @@
     <t xml:space="preserve">3.17323207855225</t>
   </si>
   <si>
-    <t xml:space="preserve">3.20620107650757</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.2432906627655</t>
+    <t xml:space="preserve">3.20620083808899</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.24329042434692</t>
   </si>
   <si>
     <t xml:space="preserve">3.18971657752991</t>
@@ -2318,7 +2318,7 @@
     <t xml:space="preserve">3.27625918388367</t>
   </si>
   <si>
-    <t xml:space="preserve">3.25153231620789</t>
+    <t xml:space="preserve">3.25153279304504</t>
   </si>
   <si>
     <t xml:space="preserve">3.36280179023743</t>
@@ -2327,16 +2327,16 @@
     <t xml:space="preserve">3.35868072509766</t>
   </si>
   <si>
-    <t xml:space="preserve">3.34631776809692</t>
+    <t xml:space="preserve">3.34631752967834</t>
   </si>
   <si>
     <t xml:space="preserve">3.30510687828064</t>
   </si>
   <si>
-    <t xml:space="preserve">3.34219646453857</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.36364817619324</t>
+    <t xml:space="preserve">3.34219622612</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.36364841461182</t>
   </si>
   <si>
     <t xml:space="preserve">3.25209856033325</t>
@@ -2345,10 +2345,10 @@
     <t xml:space="preserve">3.20919489860535</t>
   </si>
   <si>
-    <t xml:space="preserve">3.22635626792908</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.27784061431885</t>
+    <t xml:space="preserve">3.22635650634766</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.27784085273743</t>
   </si>
   <si>
     <t xml:space="preserve">3.23493719100952</t>
@@ -2363,19 +2363,19 @@
     <t xml:space="preserve">3.21777582168579</t>
   </si>
   <si>
-    <t xml:space="preserve">3.15771055221558</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.17487192153931</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.17916250228882</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.16200113296509</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.14912986755371</t>
+    <t xml:space="preserve">3.15771079063416</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.17487215995789</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.17916226387024</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.16200089454651</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.14913010597229</t>
   </si>
   <si>
     <t xml:space="preserve">3.18345284461975</t>
@@ -2387,28 +2387,28 @@
     <t xml:space="preserve">3.20061421394348</t>
   </si>
   <si>
-    <t xml:space="preserve">3.19203352928162</t>
+    <t xml:space="preserve">3.1920337677002</t>
   </si>
   <si>
     <t xml:space="preserve">3.23064684867859</t>
   </si>
   <si>
-    <t xml:space="preserve">3.22206616401672</t>
+    <t xml:space="preserve">3.2220664024353</t>
   </si>
   <si>
     <t xml:space="preserve">3.12767815589905</t>
   </si>
   <si>
-    <t xml:space="preserve">3.13625884056091</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.10622596740723</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.07619380950928</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.0890645980835</t>
+    <t xml:space="preserve">3.13625860214233</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.10622620582581</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.0761935710907</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.08906483650208</t>
   </si>
   <si>
     <t xml:space="preserve">3.04187083244324</t>
@@ -2420,7 +2420,7 @@
     <t xml:space="preserve">3.0504515171051</t>
   </si>
   <si>
-    <t xml:space="preserve">3.04616093635559</t>
+    <t xml:space="preserve">3.04616117477417</t>
   </si>
   <si>
     <t xml:space="preserve">3.02899956703186</t>
@@ -2429,10 +2429,10 @@
     <t xml:space="preserve">2.98180556297302</t>
   </si>
   <si>
-    <t xml:space="preserve">3.00754809379578</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.05903244018555</t>
+    <t xml:space="preserve">3.0075478553772</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.05903220176697</t>
   </si>
   <si>
     <t xml:space="preserve">3.08048391342163</t>
@@ -2447,25 +2447,25 @@
     <t xml:space="preserve">2.90886926651001</t>
   </si>
   <si>
-    <t xml:space="preserve">2.92174053192139</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.93890190124512</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.00325751304626</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.03329014778137</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.02041864395142</t>
+    <t xml:space="preserve">2.92174029350281</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.93890166282654</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.00325727462769</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.03328990936279</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.02041888237</t>
   </si>
   <si>
     <t xml:space="preserve">3.01612854003906</t>
   </si>
   <si>
-    <t xml:space="preserve">3.01183795928955</t>
+    <t xml:space="preserve">3.01183819770813</t>
   </si>
   <si>
     <t xml:space="preserve">3.06761288642883</t>
@@ -2477,7 +2477,7 @@
     <t xml:space="preserve">3.13196849822998</t>
   </si>
   <si>
-    <t xml:space="preserve">3.16629147529602</t>
+    <t xml:space="preserve">3.16629123687744</t>
   </si>
   <si>
     <t xml:space="preserve">3.11480712890625</t>
@@ -2486,16 +2486,16 @@
     <t xml:space="preserve">3.09335517883301</t>
   </si>
   <si>
-    <t xml:space="preserve">3.06332230567932</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.11051678657532</t>
+    <t xml:space="preserve">3.0633225440979</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.11051654815674</t>
   </si>
   <si>
     <t xml:space="preserve">3.08477449417114</t>
   </si>
   <si>
-    <t xml:space="preserve">3.07190299034119</t>
+    <t xml:space="preserve">3.07190322875977</t>
   </si>
   <si>
     <t xml:space="preserve">3.02470946311951</t>
@@ -2507,7 +2507,7 @@
     <t xml:space="preserve">2.94748258590698</t>
   </si>
   <si>
-    <t xml:space="preserve">2.95177316665649</t>
+    <t xml:space="preserve">2.95177292823792</t>
   </si>
   <si>
     <t xml:space="preserve">2.95606327056885</t>
@@ -2519,13 +2519,13 @@
     <t xml:space="preserve">2.98609590530396</t>
   </si>
   <si>
-    <t xml:space="preserve">3.10193586349487</t>
+    <t xml:space="preserve">3.10193562507629</t>
   </si>
   <si>
     <t xml:space="preserve">3.05474162101746</t>
   </si>
   <si>
-    <t xml:space="preserve">2.96893453598022</t>
+    <t xml:space="preserve">2.96893429756165</t>
   </si>
   <si>
     <t xml:space="preserve">2.91745018959045</t>
@@ -2534,7 +2534,7 @@
     <t xml:space="preserve">2.93032097816467</t>
   </si>
   <si>
-    <t xml:space="preserve">2.90457892417908</t>
+    <t xml:space="preserve">2.9045786857605</t>
   </si>
   <si>
     <t xml:space="preserve">2.97751522064209</t>
@@ -2546,7 +2546,7 @@
     <t xml:space="preserve">2.94319224357605</t>
   </si>
   <si>
-    <t xml:space="preserve">2.97322487831116</t>
+    <t xml:space="preserve">2.97322463989258</t>
   </si>
   <si>
     <t xml:space="preserve">2.93461155891418</t>
@@ -2555,10 +2555,10 @@
     <t xml:space="preserve">2.79731965065002</t>
   </si>
   <si>
-    <t xml:space="preserve">2.91315960884094</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.8917076587677</t>
+    <t xml:space="preserve">2.91315984725952</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.89170789718628</t>
   </si>
   <si>
     <t xml:space="preserve">2.82306170463562</t>
@@ -2567,10 +2567,10 @@
     <t xml:space="preserve">2.77157735824585</t>
   </si>
   <si>
-    <t xml:space="preserve">2.80161023139954</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.90028882026672</t>
+    <t xml:space="preserve">2.80160999298096</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.90028858184814</t>
   </si>
   <si>
     <t xml:space="preserve">2.87454628944397</t>
@@ -2582,10 +2582,10 @@
     <t xml:space="preserve">2.89599823951721</t>
   </si>
   <si>
-    <t xml:space="preserve">2.85738468170166</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.87025618553162</t>
+    <t xml:space="preserve">2.85738492012024</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.87025594711304</t>
   </si>
   <si>
     <t xml:space="preserve">3.09737634658813</t>
@@ -2597,7 +2597,7 @@
     <t xml:space="preserve">3.1108820438385</t>
   </si>
   <si>
-    <t xml:space="preserve">3.07936835289001</t>
+    <t xml:space="preserve">3.07936811447144</t>
   </si>
   <si>
     <t xml:space="preserve">3.02984619140625</t>
@@ -2606,22 +2606,22 @@
     <t xml:space="preserve">2.98932814598083</t>
   </si>
   <si>
-    <t xml:space="preserve">2.96681809425354</t>
+    <t xml:space="preserve">2.96681833267212</t>
   </si>
   <si>
     <t xml:space="preserve">3.03434801101685</t>
   </si>
   <si>
-    <t xml:space="preserve">2.98482608795166</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.96231603622437</t>
+    <t xml:space="preserve">2.98482632637024</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.96231627464294</t>
   </si>
   <si>
     <t xml:space="preserve">2.93980622291565</t>
   </si>
   <si>
-    <t xml:space="preserve">2.9308021068573</t>
+    <t xml:space="preserve">2.93080234527588</t>
   </si>
   <si>
     <t xml:space="preserve">2.95781421661377</t>
@@ -2636,7 +2636,7 @@
     <t xml:space="preserve">3.01634001731873</t>
   </si>
   <si>
-    <t xml:space="preserve">2.99833202362061</t>
+    <t xml:space="preserve">2.99833226203918</t>
   </si>
   <si>
     <t xml:space="preserve">3.04335236549377</t>
@@ -2651,13 +2651,13 @@
     <t xml:space="preserve">2.82725620269775</t>
   </si>
   <si>
-    <t xml:space="preserve">2.78673839569092</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.88128018379211</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.82275438308716</t>
+    <t xml:space="preserve">2.78673815727234</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.88128042221069</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.82275414466858</t>
   </si>
   <si>
     <t xml:space="preserve">2.77323222160339</t>
@@ -2669,22 +2669,22 @@
     <t xml:space="preserve">2.66968607902527</t>
   </si>
   <si>
-    <t xml:space="preserve">2.6561803817749</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.70120024681091</t>
+    <t xml:space="preserve">2.65618014335632</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.70120000839233</t>
   </si>
   <si>
     <t xml:space="preserve">2.71920824050903</t>
   </si>
   <si>
-    <t xml:space="preserve">2.59765410423279</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.62916827201843</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.63367009162903</t>
+    <t xml:space="preserve">2.59765434265137</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.62916803359985</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.63367033004761</t>
   </si>
   <si>
     <t xml:space="preserve">2.53912806510925</t>
@@ -2693,7 +2693,7 @@
     <t xml:space="preserve">2.56614017486572</t>
   </si>
   <si>
-    <t xml:space="preserve">2.5481321811676</t>
+    <t xml:space="preserve">2.54813194274902</t>
   </si>
   <si>
     <t xml:space="preserve">2.60665822029114</t>
@@ -2714,7 +2714,7 @@
     <t xml:space="preserve">2.42207622528076</t>
   </si>
   <si>
-    <t xml:space="preserve">2.41757416725159</t>
+    <t xml:space="preserve">2.41757392883301</t>
   </si>
   <si>
     <t xml:space="preserve">2.38606023788452</t>
@@ -2762,10 +2762,10 @@
     <t xml:space="preserve">2.44908809661865</t>
   </si>
   <si>
-    <t xml:space="preserve">2.39056205749512</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.32303190231323</t>
+    <t xml:space="preserve">2.3905622959137</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.32303214073181</t>
   </si>
   <si>
     <t xml:space="preserve">2.20598006248474</t>
@@ -2774,16 +2774,16 @@
     <t xml:space="preserve">2.23299217224121</t>
   </si>
   <si>
-    <t xml:space="preserve">2.16096043586731</t>
+    <t xml:space="preserve">2.16096019744873</t>
   </si>
   <si>
     <t xml:space="preserve">2.21948599815369</t>
   </si>
   <si>
-    <t xml:space="preserve">2.20147824287415</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.22398805618286</t>
+    <t xml:space="preserve">2.20147800445557</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.22398829460144</t>
   </si>
   <si>
     <t xml:space="preserve">2.24199604988098</t>
@@ -2795,7 +2795,7 @@
     <t xml:space="preserve">2.27351021766663</t>
   </si>
   <si>
-    <t xml:space="preserve">2.24649786949158</t>
+    <t xml:space="preserve">2.24649810791016</t>
   </si>
   <si>
     <t xml:space="preserve">2.21498417854309</t>
@@ -2807,16 +2807,16 @@
     <t xml:space="preserve">2.12044215202332</t>
   </si>
   <si>
-    <t xml:space="preserve">1.97187614440918</t>
+    <t xml:space="preserve">1.97187626361847</t>
   </si>
   <si>
     <t xml:space="preserve">2.03490424156189</t>
   </si>
   <si>
-    <t xml:space="preserve">1.98088026046753</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.94486427307129</t>
+    <t xml:space="preserve">1.98088014125824</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.944864153862</t>
   </si>
   <si>
     <t xml:space="preserve">1.89984405040741</t>
@@ -2834,28 +2834,28 @@
     <t xml:space="preserve">1.78279209136963</t>
   </si>
   <si>
-    <t xml:space="preserve">1.7575808763504</t>
+    <t xml:space="preserve">1.75758099555969</t>
   </si>
   <si>
     <t xml:space="preserve">1.72156488895416</t>
   </si>
   <si>
-    <t xml:space="preserve">1.70175611972809</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.73777210712433</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.80980408191681</t>
+    <t xml:space="preserve">1.7017560005188</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.73777198791504</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.8098042011261</t>
   </si>
   <si>
     <t xml:space="preserve">1.8773341178894</t>
   </si>
   <si>
-    <t xml:space="preserve">2.01689624786377</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.93135809898376</t>
+    <t xml:space="preserve">2.01689600944519</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.93135821819305</t>
   </si>
   <si>
     <t xml:space="preserve">2.06191611289978</t>
@@ -2876,25 +2876,25 @@
     <t xml:space="preserve">2.14745426177979</t>
   </si>
   <si>
-    <t xml:space="preserve">2.05291223526001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.17896842956543</t>
+    <t xml:space="preserve">2.05291199684143</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.17896819114685</t>
   </si>
   <si>
     <t xml:space="preserve">2.1879723072052</t>
   </si>
   <si>
-    <t xml:space="preserve">2.14295244216919</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.16996431350708</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.2825140953064</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.28701591491699</t>
+    <t xml:space="preserve">2.14295220375061</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.1699640750885</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.28251433372498</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.28701615333557</t>
   </si>
   <si>
     <t xml:space="preserve">2.26450610160828</t>
@@ -2909,25 +2909,25 @@
     <t xml:space="preserve">2.29151821136475</t>
   </si>
   <si>
-    <t xml:space="preserve">2.31853008270264</t>
+    <t xml:space="preserve">2.31853032112122</t>
   </si>
   <si>
     <t xml:space="preserve">2.30052208900452</t>
   </si>
   <si>
-    <t xml:space="preserve">2.30502390861511</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.27801203727722</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.25099992752075</t>
+    <t xml:space="preserve">2.30502414703369</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.2780122756958</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.25100016593933</t>
   </si>
   <si>
     <t xml:space="preserve">2.17446613311768</t>
   </si>
   <si>
-    <t xml:space="preserve">2.16546225547791</t>
+    <t xml:space="preserve">2.16546201705933</t>
   </si>
   <si>
     <t xml:space="preserve">2.19697618484497</t>
@@ -2945,10 +2945,10 @@
     <t xml:space="preserve">2.33653807640076</t>
   </si>
   <si>
-    <t xml:space="preserve">2.39506411552429</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.43108010292053</t>
+    <t xml:space="preserve">2.39506435394287</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.43108034133911</t>
   </si>
   <si>
     <t xml:space="preserve">2.40857005119324</t>
@@ -2993,28 +2993,28 @@
     <t xml:space="preserve">2.54363012313843</t>
   </si>
   <si>
-    <t xml:space="preserve">2.35904788970947</t>
+    <t xml:space="preserve">2.35904812812805</t>
   </si>
   <si>
     <t xml:space="preserve">2.32753419876099</t>
   </si>
   <si>
-    <t xml:space="preserve">2.38155817985535</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.3500440120697</t>
+    <t xml:space="preserve">2.38155794143677</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.35004425048828</t>
   </si>
   <si>
     <t xml:space="preserve">2.50761413574219</t>
   </si>
   <si>
-    <t xml:space="preserve">2.52562212944031</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.58865022659302</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.62016439437866</t>
+    <t xml:space="preserve">2.52562236785889</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.58864998817444</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.62016415596008</t>
   </si>
   <si>
     <t xml:space="preserve">2.54005122184753</t>
@@ -59570,27 +59570,79 @@
     </row>
     <row r="2149">
       <c r="A2149" s="1" t="n">
-        <v>45455.6493402778</v>
+        <v>45454.2916666667</v>
       </c>
       <c r="B2149" t="n">
+        <v>331514</v>
+      </c>
+      <c r="C2149" t="n">
+        <v>2.28999996185303</v>
+      </c>
+      <c r="D2149" t="n">
+        <v>2.23000001907349</v>
+      </c>
+      <c r="E2149" t="n">
+        <v>2.25500011444092</v>
+      </c>
+      <c r="F2149" t="n">
+        <v>2.24000000953674</v>
+      </c>
+      <c r="G2149" t="s">
+        <v>1107</v>
+      </c>
+      <c r="H2149" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2150">
+      <c r="A2150" s="1" t="n">
+        <v>45455.2916666667</v>
+      </c>
+      <c r="B2150" t="n">
         <v>233993</v>
       </c>
-      <c r="C2149" t="n">
+      <c r="C2150" t="n">
         <v>2.26999998092651</v>
       </c>
-      <c r="D2149" t="n">
+      <c r="D2150" t="n">
         <v>2.21499991416931</v>
       </c>
-      <c r="E2149" t="n">
+      <c r="E2150" t="n">
         <v>2.26999998092651</v>
       </c>
-      <c r="F2149" t="n">
+      <c r="F2150" t="n">
         <v>2.25500011444092</v>
       </c>
-      <c r="G2149" t="s">
+      <c r="G2150" t="s">
         <v>1109</v>
       </c>
-      <c r="H2149" t="s">
+      <c r="H2150" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2151">
+      <c r="A2151" s="1" t="n">
+        <v>45456.6495023148</v>
+      </c>
+      <c r="B2151" t="n">
+        <v>76721</v>
+      </c>
+      <c r="C2151" t="n">
+        <v>2.26999998092651</v>
+      </c>
+      <c r="D2151" t="n">
+        <v>2.24499988555908</v>
+      </c>
+      <c r="E2151" t="n">
+        <v>2.25999999046326</v>
+      </c>
+      <c r="F2151" t="n">
+        <v>2.25999999046326</v>
+      </c>
+      <c r="G2151" t="s">
+        <v>1120</v>
+      </c>
+      <c r="H2151" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/ASC.MI.xlsx
+++ b/data/ASC.MI.xlsx
@@ -47,7 +47,7 @@
     <t xml:space="preserve">1.389120221138</t>
   </si>
   <si>
-    <t xml:space="preserve">1.37659442424774</t>
+    <t xml:space="preserve">1.37659430503845</t>
   </si>
   <si>
     <t xml:space="preserve">1.37784707546234</t>
@@ -56,22 +56,22 @@
     <t xml:space="preserve">1.36281597614288</t>
   </si>
   <si>
-    <t xml:space="preserve">1.35530054569244</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.38410997390747</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.35655272006989</t>
+    <t xml:space="preserve">1.35530042648315</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.38410985469818</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.35655295848846</t>
   </si>
   <si>
     <t xml:space="preserve">1.33776414394379</t>
   </si>
   <si>
-    <t xml:space="preserve">1.29642868041992</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.30018639564514</t>
+    <t xml:space="preserve">1.29642879962921</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.30018651485443</t>
   </si>
   <si>
     <t xml:space="preserve">1.25885105133057</t>
@@ -83,52 +83,52 @@
     <t xml:space="preserve">1.36532115936279</t>
   </si>
   <si>
-    <t xml:space="preserve">1.36156332492828</t>
+    <t xml:space="preserve">1.36156320571899</t>
   </si>
   <si>
     <t xml:space="preserve">1.35404777526855</t>
   </si>
   <si>
-    <t xml:space="preserve">1.38160467147827</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.3866149187088</t>
+    <t xml:space="preserve">1.38160490989685</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.38661503791809</t>
   </si>
   <si>
     <t xml:space="preserve">1.37158405780792</t>
   </si>
   <si>
-    <t xml:space="preserve">1.30895459651947</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.3152174949646</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.31396508216858</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.29392349720001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.31145977973938</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.33651161193848</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.33400654792786</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.34026944637299</t>
+    <t xml:space="preserve">1.30895447731018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.31521761417389</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.31396496295929</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.2939236164093</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.31146001815796</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.33651173114777</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.33400642871857</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.3402693271637</t>
   </si>
   <si>
     <t xml:space="preserve">1.3427746295929</t>
   </si>
   <si>
-    <t xml:space="preserve">1.40039348602295</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.39663589000702</t>
+    <t xml:space="preserve">1.40039360523224</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.39663577079773</t>
   </si>
   <si>
     <t xml:space="preserve">1.39914107322693</t>
@@ -137,37 +137,37 @@
     <t xml:space="preserve">1.39162540435791</t>
   </si>
   <si>
-    <t xml:space="preserve">1.39413070678711</t>
+    <t xml:space="preserve">1.3941308259964</t>
   </si>
   <si>
     <t xml:space="preserve">1.38035213947296</t>
   </si>
   <si>
-    <t xml:space="preserve">1.39287805557251</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.41166698932648</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.42043495178223</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.42294025421143</t>
+    <t xml:space="preserve">1.3928781747818</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.41166687011719</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.42043483257294</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.42294013500214</t>
   </si>
   <si>
     <t xml:space="preserve">1.4379711151123</t>
   </si>
   <si>
-    <t xml:space="preserve">1.43546605110168</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.42419278621674</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.41918230056763</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.43922400474548</t>
+    <t xml:space="preserve">1.4354659318924</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.42419290542603</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.41918241977692</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.4392237663269</t>
   </si>
   <si>
     <t xml:space="preserve">1.4166773557663</t>
@@ -176,67 +176,67 @@
     <t xml:space="preserve">1.43296086788177</t>
   </si>
   <si>
-    <t xml:space="preserve">1.43671870231628</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.4404764175415</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.42544519901276</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.4417290687561</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.4667809009552</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.45926511287689</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.46177053451538</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.46552813053131</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.47053861618042</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.47805392742157</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.45676016807556</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.45801258087158</t>
+    <t xml:space="preserve">1.43671858310699</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.44047629833221</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.42544531822205</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.44172894954681</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.46678066253662</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.45926535129547</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.46177041530609</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.46552801132202</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.47053849697113</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.47805404663086</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.45675992965698</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.45801281929016</t>
   </si>
   <si>
     <t xml:space="preserve">1.46051800251007</t>
   </si>
   <si>
-    <t xml:space="preserve">1.48181164264679</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.4905800819397</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.49809551239014</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.49559056758881</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.48431694507599</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.47930645942688</t>
+    <t xml:space="preserve">1.48181176185608</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.49057996273041</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.49809539318085</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.49559032917023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.48431658744812</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.47930669784546</t>
   </si>
   <si>
     <t xml:space="preserve">1.51416945457458</t>
   </si>
   <si>
-    <t xml:space="preserve">1.51149427890778</t>
+    <t xml:space="preserve">1.51149415969849</t>
   </si>
   <si>
     <t xml:space="preserve">1.51550698280334</t>
@@ -245,10 +245,10 @@
     <t xml:space="preserve">1.53155827522278</t>
   </si>
   <si>
-    <t xml:space="preserve">1.54894697666168</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.5449343919754</t>
+    <t xml:space="preserve">1.54894709587097</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.54493415355682</t>
   </si>
   <si>
     <t xml:space="preserve">1.55964803695679</t>
@@ -257,88 +257,88 @@
     <t xml:space="preserve">1.56767380237579</t>
   </si>
   <si>
-    <t xml:space="preserve">1.56901097297668</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.57436168193817</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.57971203327179</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.5877377986908</t>
+    <t xml:space="preserve">1.56901121139526</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.57436180114746</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.57971215248108</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.58773756027222</t>
   </si>
   <si>
     <t xml:space="preserve">1.61850273609161</t>
   </si>
   <si>
-    <t xml:space="preserve">1.61582732200623</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.63187873363495</t>
+    <t xml:space="preserve">1.61582720279694</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.63187861442566</t>
   </si>
   <si>
     <t xml:space="preserve">1.64793002605438</t>
   </si>
   <si>
-    <t xml:space="preserve">1.67334461212158</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.633216381073</t>
+    <t xml:space="preserve">1.67334449291229</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.63321614265442</t>
   </si>
   <si>
     <t xml:space="preserve">1.64525485038757</t>
   </si>
   <si>
-    <t xml:space="preserve">1.62652814388275</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.67200696468353</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.74557507038116</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.75226318836212</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.7335364818573</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.65461814403534</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.6385669708252</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.68939566612244</t>
+    <t xml:space="preserve">1.62652826309204</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.67200684547424</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.74557530879974</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.75226294994354</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.73353683948517</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.65461790561676</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.63856685161591</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.68939578533173</t>
   </si>
   <si>
     <t xml:space="preserve">1.73754954338074</t>
   </si>
   <si>
-    <t xml:space="preserve">1.67869484424591</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.65194296836853</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.6960836648941</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.73219919204712</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.80576777458191</t>
+    <t xml:space="preserve">1.6786949634552</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.65194284915924</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.69608354568481</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.73219907283783</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.80576729774475</t>
   </si>
   <si>
     <t xml:space="preserve">1.79105377197266</t>
   </si>
   <si>
-    <t xml:space="preserve">1.73086142539978</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.78971648216248</t>
+    <t xml:space="preserve">1.73086154460907</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.7897162437439</t>
   </si>
   <si>
     <t xml:space="preserve">1.80175483226776</t>
@@ -347,34 +347,34 @@
     <t xml:space="preserve">1.80309236049652</t>
   </si>
   <si>
-    <t xml:space="preserve">1.8632847070694</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.86863493919373</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.87130999565125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.83385694026947</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.83251941204071</t>
+    <t xml:space="preserve">1.86328458786011</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.86863481998444</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.87131023406982</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.83385729789734</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.83251953125</t>
   </si>
   <si>
     <t xml:space="preserve">1.87264764308929</t>
   </si>
   <si>
-    <t xml:space="preserve">1.88602375984192</t>
+    <t xml:space="preserve">1.88602352142334</t>
   </si>
   <si>
     <t xml:space="preserve">1.84990847110748</t>
   </si>
   <si>
-    <t xml:space="preserve">1.84589552879333</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.85258364677429</t>
+    <t xml:space="preserve">1.84589576721191</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.85258376598358</t>
   </si>
   <si>
     <t xml:space="preserve">1.86462235450745</t>
@@ -386,7 +386,7 @@
     <t xml:space="preserve">1.94621586799622</t>
   </si>
   <si>
-    <t xml:space="preserve">1.90608775615692</t>
+    <t xml:space="preserve">1.90608787536621</t>
   </si>
   <si>
     <t xml:space="preserve">1.93685281276703</t>
@@ -398,19 +398,19 @@
     <t xml:space="preserve">1.89939987659454</t>
   </si>
   <si>
-    <t xml:space="preserve">1.89806199073792</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.89538717269897</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.91946411132812</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.9261519908905</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.9127756357193</t>
+    <t xml:space="preserve">1.89806234836578</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.8953869342804</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.91946375370026</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.92615234851837</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.91277575492859</t>
   </si>
   <si>
     <t xml:space="preserve">1.92882704734802</t>
@@ -419,25 +419,25 @@
     <t xml:space="preserve">1.91411340236664</t>
   </si>
   <si>
-    <t xml:space="preserve">1.79907941818237</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.81111788749695</t>
+    <t xml:space="preserve">1.79907953739166</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.81111764907837</t>
   </si>
   <si>
     <t xml:space="preserve">1.89137399196625</t>
   </si>
   <si>
-    <t xml:space="preserve">1.83920729160309</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.74958801269531</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.77098965644836</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.7415623664856</t>
+    <t xml:space="preserve">1.83920753002167</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.74958789348602</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.77098977565765</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.74156260490417</t>
   </si>
   <si>
     <t xml:space="preserve">1.76965200901031</t>
@@ -446,64 +446,64 @@
     <t xml:space="preserve">1.75493836402893</t>
   </si>
   <si>
-    <t xml:space="preserve">1.78302812576294</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.7950667142868</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.75895142555237</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.77232718467712</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.75092577934265</t>
+    <t xml:space="preserve">1.78302800655365</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.79506647586823</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.75895130634308</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.77232730388641</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.75092554092407</t>
   </si>
   <si>
     <t xml:space="preserve">1.75360095500946</t>
   </si>
   <si>
-    <t xml:space="preserve">1.75627601146698</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.78035295009613</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.78837823867798</t>
+    <t xml:space="preserve">1.7562757730484</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.78035306930542</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.78837847709656</t>
   </si>
   <si>
     <t xml:space="preserve">1.79239141941071</t>
   </si>
   <si>
-    <t xml:space="preserve">1.79774177074432</t>
+    <t xml:space="preserve">1.79774188995361</t>
   </si>
   <si>
     <t xml:space="preserve">1.75761389732361</t>
   </si>
   <si>
-    <t xml:space="preserve">1.78570330142975</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.7816903591156</t>
+    <t xml:space="preserve">1.78570353984833</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.78169071674347</t>
   </si>
   <si>
     <t xml:space="preserve">1.77366483211517</t>
   </si>
   <si>
-    <t xml:space="preserve">1.72684860229492</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.66665649414062</t>
+    <t xml:space="preserve">1.7268488407135</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.6666567325592</t>
   </si>
   <si>
     <t xml:space="preserve">1.62117779254913</t>
   </si>
   <si>
-    <t xml:space="preserve">1.62251567840576</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.6278657913208</t>
+    <t xml:space="preserve">1.62251555919647</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.62786602973938</t>
   </si>
   <si>
     <t xml:space="preserve">1.60913920402527</t>
@@ -512,124 +512,124 @@
     <t xml:space="preserve">1.69207096099854</t>
   </si>
   <si>
-    <t xml:space="preserve">1.7241735458374</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.69875884056091</t>
+    <t xml:space="preserve">1.72417366504669</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.69875919818878</t>
   </si>
   <si>
     <t xml:space="preserve">1.66531896591187</t>
   </si>
   <si>
-    <t xml:space="preserve">1.62519085407257</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.64391732215881</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.67735743522644</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.70544719696045</t>
+    <t xml:space="preserve">1.62519073486328</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.64391708374023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.67735707759857</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.70544695854187</t>
   </si>
   <si>
     <t xml:space="preserve">1.72149837017059</t>
   </si>
   <si>
-    <t xml:space="preserve">1.71614789962769</t>
+    <t xml:space="preserve">1.7161477804184</t>
   </si>
   <si>
     <t xml:space="preserve">1.73888719081879</t>
   </si>
   <si>
-    <t xml:space="preserve">1.72952377796173</t>
+    <t xml:space="preserve">1.72952389717102</t>
   </si>
   <si>
     <t xml:space="preserve">1.72283589839935</t>
   </si>
   <si>
-    <t xml:space="preserve">1.77634024620056</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.80710482597351</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.79640448093414</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.81914353370667</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.8151308298111</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.8218184709549</t>
+    <t xml:space="preserve">1.77634000778198</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.80710518360138</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.79640424251556</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.81914365291595</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.81513071060181</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.82181859016418</t>
   </si>
   <si>
     <t xml:space="preserve">1.83519458770752</t>
   </si>
   <si>
-    <t xml:space="preserve">1.81245565414429</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.82048082351685</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.83118200302124</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.85124599933624</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.86194694042206</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.85927152633667</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.82850646972656</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.91545140743256</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.90742528438568</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.89003670215607</t>
+    <t xml:space="preserve">1.81245541572571</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.82048094272614</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.83118188381195</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.85124576091766</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.86194670200348</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.85927140712738</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.82850682735443</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.91545116901398</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.90742516517639</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.89003658294678</t>
   </si>
   <si>
     <t xml:space="preserve">1.8779981136322</t>
   </si>
   <si>
-    <t xml:space="preserve">1.92481434345245</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.93150234222412</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.89672458171844</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.93283975124359</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.94487845897675</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.91678869724274</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.97296810150146</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.96628046035767</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.99303245544434</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.0264720916748</t>
+    <t xml:space="preserve">1.92481410503387</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.93150222301483</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.89672446250916</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.93284034729004</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.94487857818604</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.91678857803345</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.97296786308289</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.96628022193909</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.99303209781647</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.02647233009338</t>
   </si>
   <si>
     <t xml:space="preserve">2.04386138916016</t>
@@ -638,13 +638,13 @@
     <t xml:space="preserve">2.06125020980835</t>
   </si>
   <si>
-    <t xml:space="preserve">2.07061338424683</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.06660032272339</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.11074113845825</t>
+    <t xml:space="preserve">2.07061314582825</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.06660079956055</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.11074161529541</t>
   </si>
   <si>
     <t xml:space="preserve">2.09469032287598</t>
@@ -653,16 +653,16 @@
     <t xml:space="preserve">2.15220713615417</t>
   </si>
   <si>
-    <t xml:space="preserve">2.1802966594696</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.20169901847839</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.22176289558411</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.18698477745056</t>
+    <t xml:space="preserve">2.18029689788818</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.20169878005981</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.22176313400269</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.18698501586914</t>
   </si>
   <si>
     <t xml:space="preserve">2.18966031074524</t>
@@ -680,28 +680,28 @@
     <t xml:space="preserve">2.2873055934906</t>
   </si>
   <si>
-    <t xml:space="preserve">2.27392983436584</t>
+    <t xml:space="preserve">2.27392935752869</t>
   </si>
   <si>
     <t xml:space="preserve">2.2792797088623</t>
   </si>
   <si>
-    <t xml:space="preserve">2.32074594497681</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.3301088809967</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.3448224067688</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.35418581962585</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.35819888114929</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.3408100605011</t>
+    <t xml:space="preserve">2.32074546813965</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.33010864257812</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.34482264518738</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.35418558120728</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.35819840431213</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.34080982208252</t>
   </si>
   <si>
     <t xml:space="preserve">2.36756181716919</t>
@@ -710,64 +710,64 @@
     <t xml:space="preserve">2.35953617095947</t>
   </si>
   <si>
-    <t xml:space="preserve">2.35552358627319</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.3394718170166</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.35151076316833</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.40367698669434</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.37023687362671</t>
+    <t xml:space="preserve">2.35552334785461</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.33947205543518</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.35151052474976</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.40367722511292</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.37023663520813</t>
   </si>
   <si>
     <t xml:space="preserve">2.36622428894043</t>
   </si>
   <si>
-    <t xml:space="preserve">2.40769004821777</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.3983268737793</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.40233945846558</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.42240333557129</t>
+    <t xml:space="preserve">2.40768980979919</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.39832639694214</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.402339220047</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.42240381240845</t>
   </si>
   <si>
     <t xml:space="preserve">2.47457027435303</t>
   </si>
   <si>
-    <t xml:space="preserve">2.48259592056274</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.52941203117371</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.56031012535095</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.54626560211182</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.5322208404541</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.5125584602356</t>
+    <t xml:space="preserve">2.48259615898132</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.52941179275513</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.56030988693237</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.54626536369324</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.53222107887268</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.51255869865417</t>
   </si>
   <si>
     <t xml:space="preserve">2.44795393943787</t>
   </si>
   <si>
-    <t xml:space="preserve">2.44374084472656</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.48587417602539</t>
+    <t xml:space="preserve">2.4437403678894</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.48587393760681</t>
   </si>
   <si>
     <t xml:space="preserve">2.44514536857605</t>
@@ -779,7 +779,7 @@
     <t xml:space="preserve">2.49991846084595</t>
   </si>
   <si>
-    <t xml:space="preserve">2.51677203178406</t>
+    <t xml:space="preserve">2.51677227020264</t>
   </si>
   <si>
     <t xml:space="preserve">2.53643441200256</t>
@@ -797,13 +797,13 @@
     <t xml:space="preserve">2.49710965156555</t>
   </si>
   <si>
-    <t xml:space="preserve">2.53783893585205</t>
+    <t xml:space="preserve">2.53783869743347</t>
   </si>
   <si>
     <t xml:space="preserve">2.54486107826233</t>
   </si>
   <si>
-    <t xml:space="preserve">2.56311917304993</t>
+    <t xml:space="preserve">2.56311893463135</t>
   </si>
   <si>
     <t xml:space="preserve">2.56873679161072</t>
@@ -812,10 +812,10 @@
     <t xml:space="preserve">2.54064774513245</t>
   </si>
   <si>
-    <t xml:space="preserve">2.52800726890564</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.54907464981079</t>
+    <t xml:space="preserve">2.52800750732422</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.54907441139221</t>
   </si>
   <si>
     <t xml:space="preserve">2.5504789352417</t>
@@ -824,22 +824,22 @@
     <t xml:space="preserve">2.54345655441284</t>
   </si>
   <si>
-    <t xml:space="preserve">2.61087036132812</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.52519845962524</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.5097496509552</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.49149179458618</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.49289655685425</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.44654941558838</t>
+    <t xml:space="preserve">2.61087012290955</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.5251989364624</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.50974988937378</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.49149203300476</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.49289631843567</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.44654989242554</t>
   </si>
   <si>
     <t xml:space="preserve">2.43671870231628</t>
@@ -848,31 +848,31 @@
     <t xml:space="preserve">2.46340274810791</t>
   </si>
   <si>
-    <t xml:space="preserve">2.45357179641724</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.45076274871826</t>
+    <t xml:space="preserve">2.45357203483582</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.45076298713684</t>
   </si>
   <si>
     <t xml:space="preserve">2.45497632026672</t>
   </si>
   <si>
-    <t xml:space="preserve">2.46059417724609</t>
+    <t xml:space="preserve">2.46059393882751</t>
   </si>
   <si>
     <t xml:space="preserve">2.43531370162964</t>
   </si>
   <si>
-    <t xml:space="preserve">2.3945848941803</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.38475394248962</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.40862965583801</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.42267417907715</t>
+    <t xml:space="preserve">2.39458537101746</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.3847541809082</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.40862941741943</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.42267394065857</t>
   </si>
   <si>
     <t xml:space="preserve">2.43250513076782</t>
@@ -881,25 +881,25 @@
     <t xml:space="preserve">2.52098536491394</t>
   </si>
   <si>
-    <t xml:space="preserve">2.51536750793457</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.52660298347473</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.51115417480469</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.49008774757385</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.47182989120483</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.47323417663574</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.4577853679657</t>
+    <t xml:space="preserve">2.51536774635315</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.52660346031189</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.51115441322327</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.49008750915527</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.47182941436768</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.47323441505432</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.45778512954712</t>
   </si>
   <si>
     <t xml:space="preserve">2.48446989059448</t>
@@ -908,49 +908,49 @@
     <t xml:space="preserve">2.44093203544617</t>
   </si>
   <si>
-    <t xml:space="preserve">2.48868274688721</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.57294988632202</t>
+    <t xml:space="preserve">2.48868298530579</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.5729501247406</t>
   </si>
   <si>
     <t xml:space="preserve">2.53502988815308</t>
   </si>
   <si>
-    <t xml:space="preserve">2.55890536308289</t>
+    <t xml:space="preserve">2.55890583992004</t>
   </si>
   <si>
     <t xml:space="preserve">2.48025631904602</t>
   </si>
   <si>
-    <t xml:space="preserve">2.48166084289551</t>
+    <t xml:space="preserve">2.48166060447693</t>
   </si>
   <si>
     <t xml:space="preserve">2.46761631965637</t>
   </si>
   <si>
-    <t xml:space="preserve">2.461998462677</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.53081655502319</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.50694108009338</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.53362536430359</t>
+    <t xml:space="preserve">2.46199870109558</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.53081679344177</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.50694131851196</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.53362560272217</t>
   </si>
   <si>
     <t xml:space="preserve">2.50272727012634</t>
   </si>
   <si>
-    <t xml:space="preserve">2.55469226837158</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.57435417175293</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.61227464675903</t>
+    <t xml:space="preserve">2.554692029953</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.57435441017151</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.61227440834045</t>
   </si>
   <si>
     <t xml:space="preserve">2.62351012229919</t>
@@ -965,7 +965,7 @@
     <t xml:space="preserve">2.65440797805786</t>
   </si>
   <si>
-    <t xml:space="preserve">2.6881148815155</t>
+    <t xml:space="preserve">2.68811464309692</t>
   </si>
   <si>
     <t xml:space="preserve">2.59120798110962</t>
@@ -977,13 +977,13 @@
     <t xml:space="preserve">2.54205203056335</t>
   </si>
   <si>
-    <t xml:space="preserve">2.56733202934265</t>
+    <t xml:space="preserve">2.56733226776123</t>
   </si>
   <si>
     <t xml:space="preserve">2.61367917060852</t>
   </si>
   <si>
-    <t xml:space="preserve">2.5982301235199</t>
+    <t xml:space="preserve">2.59822988510132</t>
   </si>
   <si>
     <t xml:space="preserve">2.57997226715088</t>
@@ -995,10 +995,10 @@
     <t xml:space="preserve">2.58839917182922</t>
   </si>
   <si>
-    <t xml:space="preserve">2.51396298408508</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.5666298866272</t>
+    <t xml:space="preserve">2.51396322250366</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.56663012504578</t>
   </si>
   <si>
     <t xml:space="preserve">2.58418583869934</t>
@@ -1007,70 +1007,70 @@
     <t xml:space="preserve">2.57716345787048</t>
   </si>
   <si>
-    <t xml:space="preserve">2.58067440986633</t>
+    <t xml:space="preserve">2.58067417144775</t>
   </si>
   <si>
     <t xml:space="preserve">2.51747441291809</t>
   </si>
   <si>
-    <t xml:space="preserve">2.31734013557434</t>
+    <t xml:space="preserve">2.31734037399292</t>
   </si>
   <si>
     <t xml:space="preserve">2.21902894973755</t>
   </si>
   <si>
-    <t xml:space="preserve">2.28222942352295</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.25062870979309</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.21200680732727</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.26818490028381</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.25765109062195</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.29627323150635</t>
+    <t xml:space="preserve">2.28222918510437</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.25062894821167</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.21200656890869</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.26818442344666</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.25765132904053</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.29627346992493</t>
   </si>
   <si>
     <t xml:space="preserve">2.30329561233521</t>
   </si>
   <si>
-    <t xml:space="preserve">2.24360680580139</t>
+    <t xml:space="preserve">2.24360704421997</t>
   </si>
   <si>
     <t xml:space="preserve">2.22605109214783</t>
   </si>
   <si>
-    <t xml:space="preserve">2.20147347450256</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.1909396648407</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.14880633354187</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.18742871284485</t>
+    <t xml:space="preserve">2.20147323608398</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.19093990325928</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.14880681037903</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.18742895126343</t>
   </si>
   <si>
     <t xml:space="preserve">2.19796228408813</t>
   </si>
   <si>
-    <t xml:space="preserve">2.22253966331482</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.26467347145081</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.21551775932312</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.24711775779724</t>
+    <t xml:space="preserve">2.22254014015198</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.26467370986938</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.2155179977417</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.24711799621582</t>
   </si>
   <si>
     <t xml:space="preserve">2.2541401386261</t>
@@ -1079,10 +1079,10 @@
     <t xml:space="preserve">2.30680680274963</t>
   </si>
   <si>
-    <t xml:space="preserve">2.28574061393738</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.23658418655396</t>
+    <t xml:space="preserve">2.2857403755188</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.23658442497253</t>
   </si>
   <si>
     <t xml:space="preserve">2.24009561538696</t>
@@ -1091,10 +1091,10 @@
     <t xml:space="preserve">2.27871775627136</t>
   </si>
   <si>
-    <t xml:space="preserve">2.28925132751465</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.32436227798462</t>
+    <t xml:space="preserve">2.28925108909607</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.3243625164032</t>
   </si>
   <si>
     <t xml:space="preserve">2.29978466033936</t>
@@ -1106,7 +1106,7 @@
     <t xml:space="preserve">2.33489584922791</t>
   </si>
   <si>
-    <t xml:space="preserve">2.33840727806091</t>
+    <t xml:space="preserve">2.33840703964233</t>
   </si>
   <si>
     <t xml:space="preserve">2.3875629901886</t>
@@ -1115,7 +1115,7 @@
     <t xml:space="preserve">2.47885203361511</t>
   </si>
   <si>
-    <t xml:space="preserve">2.46129631996155</t>
+    <t xml:space="preserve">2.46129608154297</t>
   </si>
   <si>
     <t xml:space="preserve">2.47980213165283</t>
@@ -1124,16 +1124,16 @@
     <t xml:space="preserve">2.44279026985168</t>
   </si>
   <si>
-    <t xml:space="preserve">2.39837598800659</t>
+    <t xml:space="preserve">2.39837551116943</t>
   </si>
   <si>
     <t xml:space="preserve">2.36876654624939</t>
   </si>
   <si>
-    <t xml:space="preserve">2.4131805896759</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.35396146774292</t>
+    <t xml:space="preserve">2.41318035125732</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.3539617061615</t>
   </si>
   <si>
     <t xml:space="preserve">2.31694960594177</t>
@@ -1154,28 +1154,28 @@
     <t xml:space="preserve">2.26143169403076</t>
   </si>
   <si>
-    <t xml:space="preserve">2.22441983222961</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.12818837165833</t>
+    <t xml:space="preserve">2.22441959381104</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.1281886100769</t>
   </si>
   <si>
     <t xml:space="preserve">2.18370652198792</t>
   </si>
   <si>
-    <t xml:space="preserve">2.23182225227356</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.22071862220764</t>
+    <t xml:space="preserve">2.23182201385498</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.22071814537048</t>
   </si>
   <si>
     <t xml:space="preserve">2.20591378211975</t>
   </si>
   <si>
-    <t xml:space="preserve">2.18000507354736</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.25773048400879</t>
+    <t xml:space="preserve">2.18000531196594</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.25773024559021</t>
   </si>
   <si>
     <t xml:space="preserve">2.26513266563416</t>
@@ -1187,76 +1187,76 @@
     <t xml:space="preserve">2.21331596374512</t>
   </si>
   <si>
-    <t xml:space="preserve">2.21701693534851</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.16149950027466</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.26883411407471</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.24662661552429</t>
+    <t xml:space="preserve">2.21701717376709</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.16149926185608</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.26883387565613</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.24662709236145</t>
   </si>
   <si>
     <t xml:space="preserve">2.18740749359131</t>
   </si>
   <si>
-    <t xml:space="preserve">2.16890168190002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.15779829025269</t>
+    <t xml:space="preserve">2.16890144348145</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.15779805183411</t>
   </si>
   <si>
     <t xml:space="preserve">2.13929200172424</t>
   </si>
   <si>
-    <t xml:space="preserve">2.13559079170227</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.12078595161438</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.12448740005493</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.14669466018677</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.11708474159241</t>
+    <t xml:space="preserve">2.13559126853943</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.12078642845154</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.12448716163635</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.14669442176819</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.11708498001099</t>
   </si>
   <si>
     <t xml:space="preserve">2.10968255996704</t>
   </si>
   <si>
-    <t xml:space="preserve">2.32435178756714</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.33175444602966</t>
+    <t xml:space="preserve">2.3243522644043</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.33175420761108</t>
   </si>
   <si>
     <t xml:space="preserve">2.37246751785278</t>
   </si>
   <si>
-    <t xml:space="preserve">2.62044739723206</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.48350358009338</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.41688179969788</t>
+    <t xml:space="preserve">2.62044763565063</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.4835033416748</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.41688203811646</t>
   </si>
   <si>
     <t xml:space="preserve">2.42058300971985</t>
   </si>
   <si>
-    <t xml:space="preserve">2.40577840805054</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.36506533622742</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.32065081596375</t>
+    <t xml:space="preserve">2.40577816963196</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.36506509780884</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.32065057754517</t>
   </si>
   <si>
     <t xml:space="preserve">2.29474234580994</t>
@@ -1277,10 +1277,10 @@
     <t xml:space="preserve">2.3021445274353</t>
   </si>
   <si>
-    <t xml:space="preserve">2.3132483959198</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.34285807609558</t>
+    <t xml:space="preserve">2.31324815750122</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.342857837677</t>
   </si>
   <si>
     <t xml:space="preserve">2.33915686607361</t>
@@ -1289,25 +1289,25 @@
     <t xml:space="preserve">2.33545541763306</t>
   </si>
   <si>
-    <t xml:space="preserve">2.34655928611755</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.2429256439209</t>
+    <t xml:space="preserve">2.34655904769897</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.24292588233948</t>
   </si>
   <si>
     <t xml:space="preserve">2.17630410194397</t>
   </si>
   <si>
-    <t xml:space="preserve">2.19110870361328</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.23552346229553</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.08747553825378</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.15039563179016</t>
+    <t xml:space="preserve">2.19110894203186</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.23552322387695</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.08747529983521</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.15039587020874</t>
   </si>
   <si>
     <t xml:space="preserve">2.15409684181213</t>
@@ -1322,40 +1322,40 @@
     <t xml:space="preserve">2.25032782554626</t>
   </si>
   <si>
-    <t xml:space="preserve">2.22812080383301</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.40207719802856</t>
+    <t xml:space="preserve">2.22812104225159</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.40207695960999</t>
   </si>
   <si>
     <t xml:space="preserve">2.43168663978577</t>
   </si>
   <si>
-    <t xml:space="preserve">2.3835711479187</t>
+    <t xml:space="preserve">2.38357090950012</t>
   </si>
   <si>
     <t xml:space="preserve">2.35766267776489</t>
   </si>
   <si>
-    <t xml:space="preserve">2.37616872787476</t>
+    <t xml:space="preserve">2.37616848945618</t>
   </si>
   <si>
     <t xml:space="preserve">2.37986993789673</t>
   </si>
   <si>
-    <t xml:space="preserve">2.42428398132324</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.42798542976379</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.44649147987366</t>
+    <t xml:space="preserve">2.42428421974182</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.42798519134521</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.44649124145508</t>
   </si>
   <si>
     <t xml:space="preserve">2.45019268989563</t>
   </si>
   <si>
-    <t xml:space="preserve">2.50200963020325</t>
+    <t xml:space="preserve">2.50200939178467</t>
   </si>
   <si>
     <t xml:space="preserve">2.49460697174072</t>
@@ -1364,73 +1364,73 @@
     <t xml:space="preserve">2.49090576171875</t>
   </si>
   <si>
-    <t xml:space="preserve">2.51311326026917</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.49830794334412</t>
+    <t xml:space="preserve">2.51311302185059</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.4983081817627</t>
   </si>
   <si>
     <t xml:space="preserve">2.50571060180664</t>
   </si>
   <si>
-    <t xml:space="preserve">2.56122851371765</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.53161907196045</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.56863069534302</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.5279176235199</t>
+    <t xml:space="preserve">2.56122875213623</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.53161931037903</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.56863117218018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.52791786193848</t>
   </si>
   <si>
     <t xml:space="preserve">2.53902149200439</t>
   </si>
   <si>
-    <t xml:space="preserve">2.52051544189453</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.52421689033508</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.54272270202637</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.55382609367371</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.57603359222412</t>
+    <t xml:space="preserve">2.52051520347595</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.5242166519165</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.54272294044495</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.55382633209229</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.57603335380554</t>
   </si>
   <si>
     <t xml:space="preserve">2.60194182395935</t>
   </si>
   <si>
-    <t xml:space="preserve">2.59083795547485</t>
+    <t xml:space="preserve">2.59083819389343</t>
   </si>
   <si>
     <t xml:space="preserve">2.57973456382751</t>
   </si>
   <si>
-    <t xml:space="preserve">2.62785029411316</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.64635634422302</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.64265465736389</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.6389536857605</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.65745949745178</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.67226433753967</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.71297740936279</t>
+    <t xml:space="preserve">2.62785005569458</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.64635610580444</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.64265513420105</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.63895392417908</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.65745973587036</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.67226457595825</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.71297764778137</t>
   </si>
   <si>
     <t xml:space="preserve">2.72778224945068</t>
@@ -1439,37 +1439,37 @@
     <t xml:space="preserve">2.70187425613403</t>
   </si>
   <si>
-    <t xml:space="preserve">2.69077062606812</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.74258685112</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.75739216804504</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.82401347160339</t>
+    <t xml:space="preserve">2.69077038764954</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.74258708953857</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.75739192962646</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.82401371002197</t>
   </si>
   <si>
     <t xml:space="preserve">2.82031226158142</t>
   </si>
   <si>
-    <t xml:space="preserve">2.8499219417572</t>
+    <t xml:space="preserve">2.84992170333862</t>
   </si>
   <si>
     <t xml:space="preserve">2.83881831169128</t>
   </si>
   <si>
-    <t xml:space="preserve">3.02654075622559</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.74035239219666</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.73643207550049</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.68938732147217</t>
+    <t xml:space="preserve">3.02654123306274</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.74035263061523</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.73643231391907</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.68938779830933</t>
   </si>
   <si>
     <t xml:space="preserve">2.70898938179016</t>
@@ -1487,16 +1487,16 @@
     <t xml:space="preserve">2.79915833473206</t>
   </si>
   <si>
-    <t xml:space="preserve">2.82268095016479</t>
+    <t xml:space="preserve">2.82268071174622</t>
   </si>
   <si>
     <t xml:space="preserve">2.78347682952881</t>
   </si>
   <si>
-    <t xml:space="preserve">2.77563571929932</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.76779532432556</t>
+    <t xml:space="preserve">2.7756359577179</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.7677948474884</t>
   </si>
   <si>
     <t xml:space="preserve">2.79131746292114</t>
@@ -1505,25 +1505,25 @@
     <t xml:space="preserve">2.78739738464355</t>
   </si>
   <si>
-    <t xml:space="preserve">2.84620332717896</t>
+    <t xml:space="preserve">2.84620308876038</t>
   </si>
   <si>
     <t xml:space="preserve">2.85796427726746</t>
   </si>
   <si>
-    <t xml:space="preserve">2.82660102844238</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.83444166183472</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.85012364387512</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.8618848323822</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.87364554405212</t>
+    <t xml:space="preserve">2.82660126686096</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.8344419002533</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.85012316703796</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.86188459396362</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.8736457824707</t>
   </si>
   <si>
     <t xml:space="preserve">2.99517774581909</t>
@@ -1532,7 +1532,7 @@
     <t xml:space="preserve">2.92461085319519</t>
   </si>
   <si>
-    <t xml:space="preserve">2.95597410202026</t>
+    <t xml:space="preserve">2.95597386360168</t>
   </si>
   <si>
     <t xml:space="preserve">2.97165536880493</t>
@@ -1547,16 +1547,16 @@
     <t xml:space="preserve">2.96381449699402</t>
   </si>
   <si>
-    <t xml:space="preserve">2.95989465713501</t>
+    <t xml:space="preserve">2.95989441871643</t>
   </si>
   <si>
     <t xml:space="preserve">3.00693893432617</t>
   </si>
   <si>
-    <t xml:space="preserve">3.1049485206604</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.06966543197632</t>
+    <t xml:space="preserve">3.10494875907898</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.06966519355774</t>
   </si>
   <si>
     <t xml:space="preserve">3.03830218315125</t>
@@ -1565,19 +1565,19 @@
     <t xml:space="preserve">3.07750606536865</t>
   </si>
   <si>
-    <t xml:space="preserve">3.13631200790405</t>
+    <t xml:space="preserve">3.13631176948547</t>
   </si>
   <si>
     <t xml:space="preserve">3.15983438491821</t>
   </si>
   <si>
-    <t xml:space="preserve">3.18335652351379</t>
+    <t xml:space="preserve">3.18335628509521</t>
   </si>
   <si>
     <t xml:space="preserve">3.23824214935303</t>
   </si>
   <si>
-    <t xml:space="preserve">3.25000333786011</t>
+    <t xml:space="preserve">3.25000309944153</t>
   </si>
   <si>
     <t xml:space="preserve">3.25392365455627</t>
@@ -1592,22 +1592,22 @@
     <t xml:space="preserve">3.33233141899109</t>
   </si>
   <si>
-    <t xml:space="preserve">3.31272912025452</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.27744579315186</t>
+    <t xml:space="preserve">3.3127293586731</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.27744555473328</t>
   </si>
   <si>
     <t xml:space="preserve">3.20687890052795</t>
   </si>
   <si>
-    <t xml:space="preserve">3.22648072242737</t>
+    <t xml:space="preserve">3.22648048400879</t>
   </si>
   <si>
     <t xml:space="preserve">3.25784397125244</t>
   </si>
   <si>
-    <t xml:space="preserve">3.24216246604919</t>
+    <t xml:space="preserve">3.24216294288635</t>
   </si>
   <si>
     <t xml:space="preserve">3.19119763374329</t>
@@ -1616,13 +1616,13 @@
     <t xml:space="preserve">3.14023232460022</t>
   </si>
   <si>
-    <t xml:space="preserve">3.12847137451172</t>
+    <t xml:space="preserve">3.12847113609314</t>
   </si>
   <si>
     <t xml:space="preserve">3.11670970916748</t>
   </si>
   <si>
-    <t xml:space="preserve">3.05006313323975</t>
+    <t xml:space="preserve">3.05006337165833</t>
   </si>
   <si>
     <t xml:space="preserve">3.05398368835449</t>
@@ -1637,13 +1637,13 @@
     <t xml:space="preserve">3.1637544631958</t>
   </si>
   <si>
-    <t xml:space="preserve">3.14807271957397</t>
+    <t xml:space="preserve">3.14807319641113</t>
   </si>
   <si>
     <t xml:space="preserve">3.04222273826599</t>
   </si>
   <si>
-    <t xml:space="preserve">3.12063026428223</t>
+    <t xml:space="preserve">3.12063050270081</t>
   </si>
   <si>
     <t xml:space="preserve">3.12455058097839</t>
@@ -1652,73 +1652,73 @@
     <t xml:space="preserve">3.08534669876099</t>
   </si>
   <si>
-    <t xml:space="preserve">3.08926701545715</t>
+    <t xml:space="preserve">3.08926725387573</t>
   </si>
   <si>
     <t xml:space="preserve">3.11278963088989</t>
   </si>
   <si>
-    <t xml:space="preserve">3.10102844238281</t>
+    <t xml:space="preserve">3.10102820396423</t>
   </si>
   <si>
     <t xml:space="preserve">2.98341679573059</t>
   </si>
   <si>
-    <t xml:space="preserve">2.88148665428162</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.93637204170227</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.97557640075684</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.98733687400818</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.97949624061584</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.99909853935242</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.00301861763</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.05790424346924</t>
+    <t xml:space="preserve">2.88148641586304</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.93637180328369</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.97557592391968</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.98733711242676</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.97949647903442</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.99909830093384</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.00301837921143</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.05790400505066</t>
   </si>
   <si>
     <t xml:space="preserve">3.03438186645508</t>
   </si>
   <si>
-    <t xml:space="preserve">3.06574487686157</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.04614281654358</t>
+    <t xml:space="preserve">3.06574511528015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.04614305496216</t>
   </si>
   <si>
     <t xml:space="preserve">3.03046131134033</t>
   </si>
   <si>
-    <t xml:space="preserve">2.93245148658752</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.91284942626953</t>
+    <t xml:space="preserve">2.9324517250061</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.91284966468811</t>
   </si>
   <si>
     <t xml:space="preserve">2.90108847618103</t>
   </si>
   <si>
-    <t xml:space="preserve">2.94421291351318</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.89324760437012</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.01870012283325</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.15199375152588</t>
+    <t xml:space="preserve">2.94421315193176</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.8932478427887</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.01869988441467</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.15199327468872</t>
   </si>
   <si>
     <t xml:space="preserve">3.17551589012146</t>
@@ -1730,64 +1730,64 @@
     <t xml:space="preserve">3.10886907577515</t>
   </si>
   <si>
-    <t xml:space="preserve">3.02262043952942</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.01085925102234</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.91677021980286</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.95205354690552</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.99125742912292</t>
+    <t xml:space="preserve">3.022620677948</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.01085901260376</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.91676998138428</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.9520537853241</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.9912576675415</t>
   </si>
   <si>
     <t xml:space="preserve">3.13239145278931</t>
   </si>
   <si>
-    <t xml:space="preserve">3.46562433242798</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.54795265197754</t>
+    <t xml:space="preserve">3.46562480926514</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.5479531288147</t>
   </si>
   <si>
     <t xml:space="preserve">3.48522686958313</t>
   </si>
   <si>
-    <t xml:space="preserve">3.58323621749878</t>
+    <t xml:space="preserve">3.58323645591736</t>
   </si>
   <si>
     <t xml:space="preserve">3.52443051338196</t>
   </si>
   <si>
-    <t xml:space="preserve">3.58715677261353</t>
+    <t xml:space="preserve">3.58715653419495</t>
   </si>
   <si>
     <t xml:space="preserve">3.61459946632385</t>
   </si>
   <si>
-    <t xml:space="preserve">3.5165901184082</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.42249989509583</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.39505743980408</t>
+    <t xml:space="preserve">3.51658964157104</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.4225001335144</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.39505767822266</t>
   </si>
   <si>
     <t xml:space="preserve">3.37937593460083</t>
   </si>
   <si>
-    <t xml:space="preserve">3.43818187713623</t>
+    <t xml:space="preserve">3.43818211555481</t>
   </si>
   <si>
     <t xml:space="preserve">3.48130655288696</t>
   </si>
   <si>
-    <t xml:space="preserve">3.45386385917664</t>
+    <t xml:space="preserve">3.45386338233948</t>
   </si>
   <si>
     <t xml:space="preserve">3.28920745849609</t>
@@ -1796,25 +1796,25 @@
     <t xml:space="preserve">3.26176428794861</t>
   </si>
   <si>
-    <t xml:space="preserve">3.21079921722412</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.08142638206482</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.26568460464478</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.23432159423828</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.19511771202087</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.69722843170166</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.13269209861755</t>
+    <t xml:space="preserve">3.21079897880554</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.0814266204834</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.26568484306335</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.23432183265686</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.19511795043945</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.69722819328308</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.13269233703613</t>
   </si>
   <si>
     <t xml:space="preserve">2.36399531364441</t>
@@ -1823,19 +1823,19 @@
     <t xml:space="preserve">2.45024371147156</t>
   </si>
   <si>
-    <t xml:space="preserve">2.49336791038513</t>
+    <t xml:space="preserve">2.49336814880371</t>
   </si>
   <si>
     <t xml:space="preserve">2.50512909889221</t>
   </si>
   <si>
-    <t xml:space="preserve">2.55217385292053</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.61882019042969</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.60313892364502</t>
+    <t xml:space="preserve">2.55217361450195</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.61882066726685</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.60313868522644</t>
   </si>
   <si>
     <t xml:space="preserve">2.63450193405151</t>
@@ -1847,19 +1847,19 @@
     <t xml:space="preserve">2.5443332195282</t>
   </si>
   <si>
-    <t xml:space="preserve">2.51689052581787</t>
+    <t xml:space="preserve">2.51689028739929</t>
   </si>
   <si>
     <t xml:space="preserve">2.63842248916626</t>
   </si>
   <si>
-    <t xml:space="preserve">2.4972882270813</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.50904965400696</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.46984553337097</t>
+    <t xml:space="preserve">2.49728846549988</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.50904941558838</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.46984577178955</t>
   </si>
   <si>
     <t xml:space="preserve">2.51296973228455</t>
@@ -1871,7 +1871,7 @@
     <t xml:space="preserve">2.54041266441345</t>
   </si>
   <si>
-    <t xml:space="preserve">2.52865123748779</t>
+    <t xml:space="preserve">2.52865147590637</t>
   </si>
   <si>
     <t xml:space="preserve">2.54825329780579</t>
@@ -1880,7 +1880,7 @@
     <t xml:space="preserve">2.52473115921021</t>
   </si>
   <si>
-    <t xml:space="preserve">2.57177567481995</t>
+    <t xml:space="preserve">2.57177591323853</t>
   </si>
   <si>
     <t xml:space="preserve">2.58745741844177</t>
@@ -1901,16 +1901,16 @@
     <t xml:space="preserve">2.6266610622406</t>
   </si>
   <si>
-    <t xml:space="preserve">2.72075057029724</t>
+    <t xml:space="preserve">2.72075033187866</t>
   </si>
   <si>
     <t xml:space="preserve">2.92069053649902</t>
   </si>
   <si>
-    <t xml:space="preserve">3.30880904197693</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.44994306564331</t>
+    <t xml:space="preserve">3.30880856513977</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.44994330406189</t>
   </si>
   <si>
     <t xml:space="preserve">3.43426179885864</t>
@@ -1919,31 +1919,31 @@
     <t xml:space="preserve">3.50703978538513</t>
   </si>
   <si>
-    <t xml:space="preserve">3.32983303070068</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.25565409660339</t>
+    <t xml:space="preserve">3.32983326911926</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.25565385818481</t>
   </si>
   <si>
     <t xml:space="preserve">3.14438462257385</t>
   </si>
   <si>
-    <t xml:space="preserve">3.1402633190155</t>
+    <t xml:space="preserve">3.14026355743408</t>
   </si>
   <si>
     <t xml:space="preserve">3.21444296836853</t>
   </si>
   <si>
-    <t xml:space="preserve">3.24741148948669</t>
+    <t xml:space="preserve">3.24741172790527</t>
   </si>
   <si>
     <t xml:space="preserve">3.19383764266968</t>
   </si>
   <si>
-    <t xml:space="preserve">3.22680616378784</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.27213835716248</t>
+    <t xml:space="preserve">3.22680640220642</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.2721381187439</t>
   </si>
   <si>
     <t xml:space="preserve">3.2185640335083</t>
@@ -1955,16 +1955,16 @@
     <t xml:space="preserve">3.06196308135986</t>
   </si>
   <si>
-    <t xml:space="preserve">3.08256816864014</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.09081053733826</t>
+    <t xml:space="preserve">3.08256840705872</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.09081077575684</t>
   </si>
   <si>
     <t xml:space="preserve">3.11965823173523</t>
   </si>
   <si>
-    <t xml:space="preserve">3.08668947219849</t>
+    <t xml:space="preserve">3.08668923377991</t>
   </si>
   <si>
     <t xml:space="preserve">3.05784201622009</t>
@@ -1979,25 +1979,25 @@
     <t xml:space="preserve">2.94245171546936</t>
   </si>
   <si>
-    <t xml:space="preserve">2.91360402107239</t>
+    <t xml:space="preserve">2.91360425949097</t>
   </si>
   <si>
     <t xml:space="preserve">2.93008852005005</t>
   </si>
   <si>
-    <t xml:space="preserve">2.91772484779358</t>
+    <t xml:space="preserve">2.91772508621216</t>
   </si>
   <si>
     <t xml:space="preserve">2.90124082565308</t>
   </si>
   <si>
-    <t xml:space="preserve">2.90536212921143</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.86827230453491</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.78997135162354</t>
+    <t xml:space="preserve">2.90536189079285</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.86827206611633</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.78997159004211</t>
   </si>
   <si>
     <t xml:space="preserve">2.92184638977051</t>
@@ -2006,7 +2006,7 @@
     <t xml:space="preserve">2.87651443481445</t>
   </si>
   <si>
-    <t xml:space="preserve">2.89299869537354</t>
+    <t xml:space="preserve">2.89299845695496</t>
   </si>
   <si>
     <t xml:space="preserve">2.80233502388</t>
@@ -2018,22 +2018,22 @@
     <t xml:space="preserve">2.74463987350464</t>
   </si>
   <si>
-    <t xml:space="preserve">2.7528817653656</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.71167087554932</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.73227667808533</t>
+    <t xml:space="preserve">2.75288200378418</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.7116711139679</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.73227643966675</t>
   </si>
   <si>
     <t xml:space="preserve">2.82706141471863</t>
   </si>
   <si>
-    <t xml:space="preserve">2.87239336967468</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.86003017425537</t>
+    <t xml:space="preserve">2.8723931312561</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.86002993583679</t>
   </si>
   <si>
     <t xml:space="preserve">2.81469798088074</t>
@@ -2042,25 +2042,25 @@
     <t xml:space="preserve">2.81057715415955</t>
   </si>
   <si>
-    <t xml:space="preserve">2.76524543762207</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.79409265518188</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.78172945976257</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.78585052490234</t>
+    <t xml:space="preserve">2.76524519920349</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.79409313201904</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.78172969818115</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.78585076332092</t>
   </si>
   <si>
     <t xml:space="preserve">2.70342898368835</t>
   </si>
   <si>
-    <t xml:space="preserve">2.70755004882812</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.75700306892395</t>
+    <t xml:space="preserve">2.7075502872467</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.75700283050537</t>
   </si>
   <si>
     <t xml:space="preserve">2.77348732948303</t>
@@ -2075,10 +2075,10 @@
     <t xml:space="preserve">2.72403430938721</t>
   </si>
   <si>
-    <t xml:space="preserve">2.7776083946228</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.88475632667542</t>
+    <t xml:space="preserve">2.77760815620422</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.88475656509399</t>
   </si>
   <si>
     <t xml:space="preserve">2.64573383331299</t>
@@ -2090,7 +2090,7 @@
     <t xml:space="preserve">2.66221809387207</t>
   </si>
   <si>
-    <t xml:space="preserve">2.60864400863647</t>
+    <t xml:space="preserve">2.60864424705505</t>
   </si>
   <si>
     <t xml:space="preserve">2.63337063789368</t>
@@ -2099,19 +2099,19 @@
     <t xml:space="preserve">2.62100744247437</t>
   </si>
   <si>
-    <t xml:space="preserve">2.62512826919556</t>
+    <t xml:space="preserve">2.62512850761414</t>
   </si>
   <si>
     <t xml:space="preserve">2.59215974807739</t>
   </si>
   <si>
-    <t xml:space="preserve">2.60452318191528</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.62924933433533</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.64161276817322</t>
+    <t xml:space="preserve">2.6045229434967</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.62924957275391</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.64161252975464</t>
   </si>
   <si>
     <t xml:space="preserve">2.61276531219482</t>
@@ -2123,10 +2123,10 @@
     <t xml:space="preserve">2.59628081321716</t>
   </si>
   <si>
-    <t xml:space="preserve">2.51798033714294</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.49737477302551</t>
+    <t xml:space="preserve">2.51798009872437</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.49737501144409</t>
   </si>
   <si>
     <t xml:space="preserve">2.57155442237854</t>
@@ -2135,19 +2135,19 @@
     <t xml:space="preserve">2.51385927200317</t>
   </si>
   <si>
-    <t xml:space="preserve">2.48913264274597</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.50561714172363</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.46852731704712</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.50973844528198</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.40671110153198</t>
+    <t xml:space="preserve">2.48913288116455</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.50561690330505</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.46852707862854</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.5097382068634</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.40671133995056</t>
   </si>
   <si>
     <t xml:space="preserve">2.42319536209106</t>
@@ -2156,31 +2156,31 @@
     <t xml:space="preserve">2.45204305648804</t>
   </si>
   <si>
-    <t xml:space="preserve">2.44792222976685</t>
+    <t xml:space="preserve">2.44792175292969</t>
   </si>
   <si>
     <t xml:space="preserve">2.47676968574524</t>
   </si>
   <si>
-    <t xml:space="preserve">2.69518661499023</t>
+    <t xml:space="preserve">2.69518685340881</t>
   </si>
   <si>
     <t xml:space="preserve">2.74051880836487</t>
   </si>
   <si>
-    <t xml:space="preserve">2.86415123939514</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.88887763023376</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.89711976051331</t>
+    <t xml:space="preserve">2.86415100097656</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.88887786865234</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.89711999893188</t>
   </si>
   <si>
     <t xml:space="preserve">2.84766674041748</t>
   </si>
   <si>
-    <t xml:space="preserve">2.84354591369629</t>
+    <t xml:space="preserve">2.84354567527771</t>
   </si>
   <si>
     <t xml:space="preserve">2.81881928443909</t>
@@ -2189,7 +2189,7 @@
     <t xml:space="preserve">2.83530354499817</t>
   </si>
   <si>
-    <t xml:space="preserve">2.8311824798584</t>
+    <t xml:space="preserve">2.83118271827698</t>
   </si>
   <si>
     <t xml:space="preserve">3.03311562538147</t>
@@ -2210,19 +2210,19 @@
     <t xml:space="preserve">3.05372071266174</t>
   </si>
   <si>
-    <t xml:space="preserve">3.06608438491821</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.16498994827271</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.10317373275757</t>
+    <t xml:space="preserve">3.06608390808105</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.16498970985413</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.10317397117615</t>
   </si>
   <si>
     <t xml:space="preserve">3.10729479789734</t>
   </si>
   <si>
-    <t xml:space="preserve">2.97542023658752</t>
+    <t xml:space="preserve">2.9754204750061</t>
   </si>
   <si>
     <t xml:space="preserve">2.96717834472656</t>
@@ -2234,7 +2234,7 @@
     <t xml:space="preserve">2.95481491088867</t>
   </si>
   <si>
-    <t xml:space="preserve">2.98778343200684</t>
+    <t xml:space="preserve">2.98778367042542</t>
   </si>
   <si>
     <t xml:space="preserve">3.020751953125</t>
@@ -2243,13 +2243,13 @@
     <t xml:space="preserve">3.07844734191895</t>
   </si>
   <si>
-    <t xml:space="preserve">3.0454785823822</t>
+    <t xml:space="preserve">3.04547882080078</t>
   </si>
   <si>
     <t xml:space="preserve">3.04959988594055</t>
   </si>
   <si>
-    <t xml:space="preserve">3.03723645210266</t>
+    <t xml:space="preserve">3.03723621368408</t>
   </si>
   <si>
     <t xml:space="preserve">3.0990526676178</t>
@@ -2258,10 +2258,10 @@
     <t xml:space="preserve">3.09493184089661</t>
   </si>
   <si>
-    <t xml:space="preserve">3.01250982284546</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.96305727958679</t>
+    <t xml:space="preserve">3.01251006126404</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.96305704116821</t>
   </si>
   <si>
     <t xml:space="preserve">3.0042679309845</t>
@@ -2276,13 +2276,13 @@
     <t xml:space="preserve">3.16086912155151</t>
   </si>
   <si>
-    <t xml:space="preserve">3.16911125183105</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.18559527397156</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.15262699127197</t>
+    <t xml:space="preserve">3.16911101341248</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.18559551239014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.15262675285339</t>
   </si>
   <si>
     <t xml:space="preserve">3.11553692817688</t>
@@ -2291,19 +2291,19 @@
     <t xml:space="preserve">3.13202142715454</t>
   </si>
   <si>
-    <t xml:space="preserve">3.12790060043335</t>
+    <t xml:space="preserve">3.12790036201477</t>
   </si>
   <si>
     <t xml:space="preserve">3.22268533706665</t>
   </si>
   <si>
-    <t xml:space="preserve">3.19795870780945</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.17323207855225</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.20620083808899</t>
+    <t xml:space="preserve">3.19795894622803</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.17323184013367</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.20620107650757</t>
   </si>
   <si>
     <t xml:space="preserve">3.24329042434692</t>
@@ -2318,7 +2318,7 @@
     <t xml:space="preserve">3.27625918388367</t>
   </si>
   <si>
-    <t xml:space="preserve">3.25153279304504</t>
+    <t xml:space="preserve">3.25153255462646</t>
   </si>
   <si>
     <t xml:space="preserve">3.36280179023743</t>
@@ -2327,13 +2327,13 @@
     <t xml:space="preserve">3.35868072509766</t>
   </si>
   <si>
-    <t xml:space="preserve">3.34631752967834</t>
+    <t xml:space="preserve">3.34631729125977</t>
   </si>
   <si>
     <t xml:space="preserve">3.30510687828064</t>
   </si>
   <si>
-    <t xml:space="preserve">3.34219622612</t>
+    <t xml:space="preserve">3.34219646453857</t>
   </si>
   <si>
     <t xml:space="preserve">3.36364841461182</t>
@@ -59622,7 +59622,7 @@
     </row>
     <row r="2151">
       <c r="A2151" s="1" t="n">
-        <v>45456.6495023148</v>
+        <v>45456.2916666667</v>
       </c>
       <c r="B2151" t="n">
         <v>76721</v>
@@ -59643,6 +59643,32 @@
         <v>1120</v>
       </c>
       <c r="H2151" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2152">
+      <c r="A2152" s="1" t="n">
+        <v>45457.6493981481</v>
+      </c>
+      <c r="B2152" t="n">
+        <v>485067</v>
+      </c>
+      <c r="C2152" t="n">
+        <v>2.26500010490417</v>
+      </c>
+      <c r="D2152" t="n">
+        <v>2.19000005722046</v>
+      </c>
+      <c r="E2152" t="n">
+        <v>2.26500010490417</v>
+      </c>
+      <c r="F2152" t="n">
+        <v>2.22499990463257</v>
+      </c>
+      <c r="G2152" t="s">
+        <v>1116</v>
+      </c>
+      <c r="H2152" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/ASC.MI.xlsx
+++ b/data/ASC.MI.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1123" uniqueCount="1123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1124" uniqueCount="1124">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -47,7 +47,7 @@
     <t xml:space="preserve">1.389120221138</t>
   </si>
   <si>
-    <t xml:space="preserve">1.37659430503845</t>
+    <t xml:space="preserve">1.37659442424774</t>
   </si>
   <si>
     <t xml:space="preserve">1.37784707546234</t>
@@ -62,13 +62,13 @@
     <t xml:space="preserve">1.38410985469818</t>
   </si>
   <si>
-    <t xml:space="preserve">1.35655295848846</t>
+    <t xml:space="preserve">1.35655283927917</t>
   </si>
   <si>
     <t xml:space="preserve">1.33776414394379</t>
   </si>
   <si>
-    <t xml:space="preserve">1.29642879962921</t>
+    <t xml:space="preserve">1.29642868041992</t>
   </si>
   <si>
     <t xml:space="preserve">1.30018651485443</t>
@@ -80,7 +80,7 @@
     <t xml:space="preserve">1.28390288352966</t>
   </si>
   <si>
-    <t xml:space="preserve">1.36532115936279</t>
+    <t xml:space="preserve">1.3653210401535</t>
   </si>
   <si>
     <t xml:space="preserve">1.36156320571899</t>
@@ -89,7 +89,7 @@
     <t xml:space="preserve">1.35404777526855</t>
   </si>
   <si>
-    <t xml:space="preserve">1.38160490989685</t>
+    <t xml:space="preserve">1.38160502910614</t>
   </si>
   <si>
     <t xml:space="preserve">1.38661503791809</t>
@@ -98,31 +98,31 @@
     <t xml:space="preserve">1.37158405780792</t>
   </si>
   <si>
-    <t xml:space="preserve">1.30895447731018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.31521761417389</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.31396496295929</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.2939236164093</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.31146001815796</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.33651173114777</t>
+    <t xml:space="preserve">1.30895459651947</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.3152174949646</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.31396520137787</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.29392349720001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.31145989894867</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.33651161193848</t>
   </si>
   <si>
     <t xml:space="preserve">1.33400642871857</t>
   </si>
   <si>
-    <t xml:space="preserve">1.3402693271637</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.3427746295929</t>
+    <t xml:space="preserve">1.34026944637299</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.34277451038361</t>
   </si>
   <si>
     <t xml:space="preserve">1.40039360523224</t>
@@ -131,34 +131,34 @@
     <t xml:space="preserve">1.39663577079773</t>
   </si>
   <si>
-    <t xml:space="preserve">1.39914107322693</t>
+    <t xml:space="preserve">1.39914095401764</t>
   </si>
   <si>
     <t xml:space="preserve">1.39162540435791</t>
   </si>
   <si>
-    <t xml:space="preserve">1.3941308259964</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.38035213947296</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.3928781747818</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.41166687011719</t>
+    <t xml:space="preserve">1.39413070678711</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.38035202026367</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.39287793636322</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.41166698932648</t>
   </si>
   <si>
     <t xml:space="preserve">1.42043483257294</t>
   </si>
   <si>
-    <t xml:space="preserve">1.42294013500214</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.4379711151123</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.4354659318924</t>
+    <t xml:space="preserve">1.42294025421143</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.43797135353088</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.43546605110168</t>
   </si>
   <si>
     <t xml:space="preserve">1.42419290542603</t>
@@ -167,28 +167,28 @@
     <t xml:space="preserve">1.41918241977692</t>
   </si>
   <si>
-    <t xml:space="preserve">1.4392237663269</t>
+    <t xml:space="preserve">1.43922388553619</t>
   </si>
   <si>
     <t xml:space="preserve">1.4166773557663</t>
   </si>
   <si>
-    <t xml:space="preserve">1.43296086788177</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.43671858310699</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.44047629833221</t>
+    <t xml:space="preserve">1.43296110630035</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.43671846389771</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.4404764175415</t>
   </si>
   <si>
     <t xml:space="preserve">1.42544531822205</t>
   </si>
   <si>
-    <t xml:space="preserve">1.44172894954681</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.46678066253662</t>
+    <t xml:space="preserve">1.4417290687561</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.46678054332733</t>
   </si>
   <si>
     <t xml:space="preserve">1.45926535129547</t>
@@ -197,82 +197,82 @@
     <t xml:space="preserve">1.46177041530609</t>
   </si>
   <si>
-    <t xml:space="preserve">1.46552801132202</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.47053849697113</t>
+    <t xml:space="preserve">1.4655282497406</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.47053837776184</t>
   </si>
   <si>
     <t xml:space="preserve">1.47805404663086</t>
   </si>
   <si>
-    <t xml:space="preserve">1.45675992965698</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.45801281929016</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.46051800251007</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.48181176185608</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.49057996273041</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.49809539318085</t>
+    <t xml:space="preserve">1.45676004886627</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.45801258087158</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.46051788330078</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.48181188106537</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.49057984352112</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.49809527397156</t>
   </si>
   <si>
     <t xml:space="preserve">1.49559032917023</t>
   </si>
   <si>
-    <t xml:space="preserve">1.48431658744812</t>
+    <t xml:space="preserve">1.48431694507599</t>
   </si>
   <si>
     <t xml:space="preserve">1.47930669784546</t>
   </si>
   <si>
-    <t xml:space="preserve">1.51416945457458</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.51149415969849</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.51550698280334</t>
+    <t xml:space="preserve">1.5141693353653</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.51149427890778</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.51550710201263</t>
   </si>
   <si>
     <t xml:space="preserve">1.53155827522278</t>
   </si>
   <si>
-    <t xml:space="preserve">1.54894709587097</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.54493415355682</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.55964803695679</t>
+    <t xml:space="preserve">1.54894721508026</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.54493427276611</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.55964827537537</t>
   </si>
   <si>
     <t xml:space="preserve">1.56767380237579</t>
   </si>
   <si>
-    <t xml:space="preserve">1.56901121139526</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.57436180114746</t>
+    <t xml:space="preserve">1.56901109218597</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.57436168193817</t>
   </si>
   <si>
     <t xml:space="preserve">1.57971215248108</t>
   </si>
   <si>
-    <t xml:space="preserve">1.58773756027222</t>
+    <t xml:space="preserve">1.58773767948151</t>
   </si>
   <si>
     <t xml:space="preserve">1.61850273609161</t>
   </si>
   <si>
-    <t xml:space="preserve">1.61582720279694</t>
+    <t xml:space="preserve">1.61582708358765</t>
   </si>
   <si>
     <t xml:space="preserve">1.63187861442566</t>
@@ -281,106 +281,106 @@
     <t xml:space="preserve">1.64793002605438</t>
   </si>
   <si>
-    <t xml:space="preserve">1.67334449291229</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.63321614265442</t>
+    <t xml:space="preserve">1.67334461212158</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.63321626186371</t>
   </si>
   <si>
     <t xml:space="preserve">1.64525485038757</t>
   </si>
   <si>
-    <t xml:space="preserve">1.62652826309204</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.67200684547424</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.74557530879974</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.75226294994354</t>
+    <t xml:space="preserve">1.62652802467346</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.67200708389282</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.74557518959045</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.75226318836212</t>
   </si>
   <si>
     <t xml:space="preserve">1.73353683948517</t>
   </si>
   <si>
-    <t xml:space="preserve">1.65461790561676</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.63856685161591</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.68939578533173</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.73754954338074</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.6786949634552</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.65194284915924</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.69608354568481</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.73219907283783</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.80576729774475</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.79105377197266</t>
+    <t xml:space="preserve">1.65461778640747</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.63856673240662</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.68939566612244</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.73754942417145</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.67869508266449</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.65194296836853</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.69608390331268</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.73219919204712</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.80576765537262</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.79105353355408</t>
   </si>
   <si>
     <t xml:space="preserve">1.73086154460907</t>
   </si>
   <si>
-    <t xml:space="preserve">1.7897162437439</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.80175483226776</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.80309236049652</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.86328458786011</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.86863481998444</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.87131023406982</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.83385729789734</t>
+    <t xml:space="preserve">1.78971648216248</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.80175471305847</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.80309247970581</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.86328434944153</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.86863470077515</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.87131011486053</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.83385717868805</t>
   </si>
   <si>
     <t xml:space="preserve">1.83251953125</t>
   </si>
   <si>
-    <t xml:space="preserve">1.87264764308929</t>
+    <t xml:space="preserve">1.87264776229858</t>
   </si>
   <si>
     <t xml:space="preserve">1.88602352142334</t>
   </si>
   <si>
-    <t xml:space="preserve">1.84990847110748</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.84589576721191</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.85258376598358</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.86462235450745</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.9087632894516</t>
+    <t xml:space="preserve">1.84990859031677</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.84589552879333</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.85258328914642</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.86462199687958</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.90876305103302</t>
   </si>
   <si>
     <t xml:space="preserve">1.94621586799622</t>
@@ -389,13 +389,13 @@
     <t xml:space="preserve">1.90608787536621</t>
   </si>
   <si>
-    <t xml:space="preserve">1.93685281276703</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.9234766960144</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.89939987659454</t>
+    <t xml:space="preserve">1.93685293197632</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.92347657680511</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.89939951896667</t>
   </si>
   <si>
     <t xml:space="preserve">1.89806234836578</t>
@@ -407,85 +407,85 @@
     <t xml:space="preserve">1.91946375370026</t>
   </si>
   <si>
-    <t xml:space="preserve">1.92615234851837</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.91277575492859</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.92882704734802</t>
+    <t xml:space="preserve">1.92615222930908</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.91277539730072</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.92882716655731</t>
   </si>
   <si>
     <t xml:space="preserve">1.91411340236664</t>
   </si>
   <si>
-    <t xml:space="preserve">1.79907953739166</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.81111764907837</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.89137399196625</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.83920753002167</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.74958789348602</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.77098977565765</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.74156260490417</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.76965200901031</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.75493836402893</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.78302800655365</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.79506647586823</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.75895130634308</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.77232730388641</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.75092554092407</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.75360095500946</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.7562757730484</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.78035306930542</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.78837847709656</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.79239141941071</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.79774188995361</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.75761389732361</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.78570353984833</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.78169071674347</t>
+    <t xml:space="preserve">1.79907929897308</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.81111776828766</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.89137423038483</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.83920764923096</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.7495881319046</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.77098989486694</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.74156224727631</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.7696521282196</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.75493824481964</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.78302824497223</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.79506659507751</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.75895142555237</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.7723274230957</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.75092601776123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.75360083580017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.75627613067627</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.78035283088684</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.78837859630585</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.79239130020142</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.79774177074432</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.75761377811432</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.78570342063904</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.78169059753418</t>
   </si>
   <si>
     <t xml:space="preserve">1.77366483211517</t>
@@ -494,64 +494,64 @@
     <t xml:space="preserve">1.7268488407135</t>
   </si>
   <si>
-    <t xml:space="preserve">1.6666567325592</t>
+    <t xml:space="preserve">1.66665649414062</t>
   </si>
   <si>
     <t xml:space="preserve">1.62117779254913</t>
   </si>
   <si>
-    <t xml:space="preserve">1.62251555919647</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.62786602973938</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.60913920402527</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.69207096099854</t>
+    <t xml:space="preserve">1.62251543998718</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.6278657913208</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.60913932323456</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.69207084178925</t>
   </si>
   <si>
     <t xml:space="preserve">1.72417366504669</t>
   </si>
   <si>
-    <t xml:space="preserve">1.69875919818878</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.66531896591187</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.62519073486328</t>
+    <t xml:space="preserve">1.69875907897949</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.66531872749329</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.62519085407257</t>
   </si>
   <si>
     <t xml:space="preserve">1.64391708374023</t>
   </si>
   <si>
-    <t xml:space="preserve">1.67735707759857</t>
+    <t xml:space="preserve">1.67735731601715</t>
   </si>
   <si>
     <t xml:space="preserve">1.70544695854187</t>
   </si>
   <si>
-    <t xml:space="preserve">1.72149837017059</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.7161477804184</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.73888719081879</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.72952389717102</t>
+    <t xml:space="preserve">1.72149789333344</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.71614801883698</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.73888695240021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.7295241355896</t>
   </si>
   <si>
     <t xml:space="preserve">1.72283589839935</t>
   </si>
   <si>
-    <t xml:space="preserve">1.77634000778198</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.80710518360138</t>
+    <t xml:space="preserve">1.77633988857269</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.80710482597351</t>
   </si>
   <si>
     <t xml:space="preserve">1.79640424251556</t>
@@ -560,91 +560,91 @@
     <t xml:space="preserve">1.81914365291595</t>
   </si>
   <si>
-    <t xml:space="preserve">1.81513071060181</t>
+    <t xml:space="preserve">1.81513035297394</t>
   </si>
   <si>
     <t xml:space="preserve">1.82181859016418</t>
   </si>
   <si>
-    <t xml:space="preserve">1.83519458770752</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.81245541572571</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.82048094272614</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.83118188381195</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.85124576091766</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.86194670200348</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.85927140712738</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.82850682735443</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.91545116901398</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.90742516517639</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.89003658294678</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.8779981136322</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.92481410503387</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.93150222301483</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.89672446250916</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.93284034729004</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.94487857818604</t>
+    <t xml:space="preserve">1.83519470691681</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.81245565414429</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.82048106193542</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.83118176460266</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.85124611854553</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.86194682121277</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.85927164554596</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.82850658893585</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.91545104980469</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.90742528438568</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.89003682136536</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.87799823284149</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.92481434345245</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.93150234222412</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.89672458171844</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.93284022808075</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.94487869739532</t>
   </si>
   <si>
     <t xml:space="preserve">1.91678857803345</t>
   </si>
   <si>
-    <t xml:space="preserve">1.97296786308289</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.96628022193909</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.99303209781647</t>
+    <t xml:space="preserve">1.97296810150146</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.96628034114838</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.99303233623505</t>
   </si>
   <si>
     <t xml:space="preserve">2.02647233009338</t>
   </si>
   <si>
-    <t xml:space="preserve">2.04386138916016</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.06125020980835</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.07061314582825</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.06660079956055</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.11074161529541</t>
+    <t xml:space="preserve">2.04386162757874</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.06124997138977</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.07061338424683</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.06660008430481</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.11074137687683</t>
   </si>
   <si>
     <t xml:space="preserve">2.09469032287598</t>
@@ -653,7 +653,7 @@
     <t xml:space="preserve">2.15220713615417</t>
   </si>
   <si>
-    <t xml:space="preserve">2.18029689788818</t>
+    <t xml:space="preserve">2.18029713630676</t>
   </si>
   <si>
     <t xml:space="preserve">2.20169878005981</t>
@@ -671,16 +671,16 @@
     <t xml:space="preserve">2.23380136489868</t>
   </si>
   <si>
-    <t xml:space="preserve">2.22845077514648</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.24583959579468</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.2873055934906</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.27392935752869</t>
+    <t xml:space="preserve">2.22845101356506</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.24583983421326</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.28730535507202</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.27392959594727</t>
   </si>
   <si>
     <t xml:space="preserve">2.2792797088623</t>
@@ -689,10 +689,10 @@
     <t xml:space="preserve">2.32074546813965</t>
   </si>
   <si>
-    <t xml:space="preserve">2.33010864257812</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.34482264518738</t>
+    <t xml:space="preserve">2.3301088809967</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.3448224067688</t>
   </si>
   <si>
     <t xml:space="preserve">2.35418558120728</t>
@@ -707,25 +707,25 @@
     <t xml:space="preserve">2.36756181716919</t>
   </si>
   <si>
-    <t xml:space="preserve">2.35953617095947</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.35552334785461</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.33947205543518</t>
+    <t xml:space="preserve">2.35953593254089</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.35552310943604</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.3394718170166</t>
   </si>
   <si>
     <t xml:space="preserve">2.35151052474976</t>
   </si>
   <si>
-    <t xml:space="preserve">2.40367722511292</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.37023663520813</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.36622428894043</t>
+    <t xml:space="preserve">2.40367698669434</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.37023711204529</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.36622405052185</t>
   </si>
   <si>
     <t xml:space="preserve">2.40768980979919</t>
@@ -737,37 +737,37 @@
     <t xml:space="preserve">2.402339220047</t>
   </si>
   <si>
-    <t xml:space="preserve">2.42240381240845</t>
+    <t xml:space="preserve">2.42240357398987</t>
   </si>
   <si>
     <t xml:space="preserve">2.47457027435303</t>
   </si>
   <si>
-    <t xml:space="preserve">2.48259615898132</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.52941179275513</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.56030988693237</t>
+    <t xml:space="preserve">2.48259592056274</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.52941203117371</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.56031012535095</t>
   </si>
   <si>
     <t xml:space="preserve">2.54626536369324</t>
   </si>
   <si>
-    <t xml:space="preserve">2.53222107887268</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.51255869865417</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.44795393943787</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.4437403678894</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.48587393760681</t>
+    <t xml:space="preserve">2.53222060203552</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.5125584602356</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.44795417785645</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.44374060630798</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.48587441444397</t>
   </si>
   <si>
     <t xml:space="preserve">2.44514536857605</t>
@@ -779,13 +779,13 @@
     <t xml:space="preserve">2.49991846084595</t>
   </si>
   <si>
-    <t xml:space="preserve">2.51677227020264</t>
+    <t xml:space="preserve">2.51677203178406</t>
   </si>
   <si>
     <t xml:space="preserve">2.53643441200256</t>
   </si>
   <si>
-    <t xml:space="preserve">2.55188345909119</t>
+    <t xml:space="preserve">2.55188322067261</t>
   </si>
   <si>
     <t xml:space="preserve">2.57014107704163</t>
@@ -794,7 +794,7 @@
     <t xml:space="preserve">2.55609679222107</t>
   </si>
   <si>
-    <t xml:space="preserve">2.49710965156555</t>
+    <t xml:space="preserve">2.49710988998413</t>
   </si>
   <si>
     <t xml:space="preserve">2.53783869743347</t>
@@ -803,7 +803,7 @@
     <t xml:space="preserve">2.54486107826233</t>
   </si>
   <si>
-    <t xml:space="preserve">2.56311893463135</t>
+    <t xml:space="preserve">2.56311869621277</t>
   </si>
   <si>
     <t xml:space="preserve">2.56873679161072</t>
@@ -818,7 +818,7 @@
     <t xml:space="preserve">2.54907441139221</t>
   </si>
   <si>
-    <t xml:space="preserve">2.5504789352417</t>
+    <t xml:space="preserve">2.55047869682312</t>
   </si>
   <si>
     <t xml:space="preserve">2.54345655441284</t>
@@ -827,28 +827,28 @@
     <t xml:space="preserve">2.61087012290955</t>
   </si>
   <si>
-    <t xml:space="preserve">2.5251989364624</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.50974988937378</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.49149203300476</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.49289631843567</t>
+    <t xml:space="preserve">2.52519869804382</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.5097496509552</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.49149179458618</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.49289608001709</t>
   </si>
   <si>
     <t xml:space="preserve">2.44654989242554</t>
   </si>
   <si>
-    <t xml:space="preserve">2.43671870231628</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.46340274810791</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.45357203483582</t>
+    <t xml:space="preserve">2.43671846389771</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.46340298652649</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.45357179641724</t>
   </si>
   <si>
     <t xml:space="preserve">2.45076298713684</t>
@@ -860,55 +860,55 @@
     <t xml:space="preserve">2.46059393882751</t>
   </si>
   <si>
-    <t xml:space="preserve">2.43531370162964</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.39458537101746</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.3847541809082</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.40862941741943</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.42267394065857</t>
+    <t xml:space="preserve">2.43531394004822</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.39458513259888</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.38475370407104</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.40862965583801</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.42267417907715</t>
   </si>
   <si>
     <t xml:space="preserve">2.43250513076782</t>
   </si>
   <si>
-    <t xml:space="preserve">2.52098536491394</t>
+    <t xml:space="preserve">2.52098560333252</t>
   </si>
   <si>
     <t xml:space="preserve">2.51536774635315</t>
   </si>
   <si>
-    <t xml:space="preserve">2.52660346031189</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.51115441322327</t>
+    <t xml:space="preserve">2.52660322189331</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.51115393638611</t>
   </si>
   <si>
     <t xml:space="preserve">2.49008750915527</t>
   </si>
   <si>
-    <t xml:space="preserve">2.47182941436768</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.47323441505432</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.45778512954712</t>
+    <t xml:space="preserve">2.47182965278625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.47323393821716</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.4577853679657</t>
   </si>
   <si>
     <t xml:space="preserve">2.48446989059448</t>
   </si>
   <si>
-    <t xml:space="preserve">2.44093203544617</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.48868298530579</t>
+    <t xml:space="preserve">2.44093155860901</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.48868322372437</t>
   </si>
   <si>
     <t xml:space="preserve">2.5729501247406</t>
@@ -917,61 +917,61 @@
     <t xml:space="preserve">2.53502988815308</t>
   </si>
   <si>
-    <t xml:space="preserve">2.55890583992004</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.48025631904602</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.48166060447693</t>
+    <t xml:space="preserve">2.55890560150146</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.4802565574646</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.48166036605835</t>
   </si>
   <si>
     <t xml:space="preserve">2.46761631965637</t>
   </si>
   <si>
-    <t xml:space="preserve">2.46199870109558</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.53081679344177</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.50694131851196</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.53362560272217</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.50272727012634</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.554692029953</t>
+    <t xml:space="preserve">2.461998462677</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.53081631660461</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.5069408416748</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.53362536430359</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.50272750854492</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.55469226837158</t>
   </si>
   <si>
     <t xml:space="preserve">2.57435441017151</t>
   </si>
   <si>
-    <t xml:space="preserve">2.61227440834045</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.62351012229919</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.67828369140625</t>
+    <t xml:space="preserve">2.61227464675903</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.62351036071777</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.67828345298767</t>
   </si>
   <si>
     <t xml:space="preserve">2.65581250190735</t>
   </si>
   <si>
-    <t xml:space="preserve">2.65440797805786</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.68811464309692</t>
+    <t xml:space="preserve">2.65440821647644</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.6881148815155</t>
   </si>
   <si>
     <t xml:space="preserve">2.59120798110962</t>
   </si>
   <si>
-    <t xml:space="preserve">2.59682559967041</t>
+    <t xml:space="preserve">2.59682583808899</t>
   </si>
   <si>
     <t xml:space="preserve">2.54205203056335</t>
@@ -983,16 +983,16 @@
     <t xml:space="preserve">2.61367917060852</t>
   </si>
   <si>
-    <t xml:space="preserve">2.59822988510132</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.57997226715088</t>
+    <t xml:space="preserve">2.5982301235199</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.5799720287323</t>
   </si>
   <si>
     <t xml:space="preserve">2.56452345848083</t>
   </si>
   <si>
-    <t xml:space="preserve">2.58839917182922</t>
+    <t xml:space="preserve">2.58839893341064</t>
   </si>
   <si>
     <t xml:space="preserve">2.51396322250366</t>
@@ -1004,43 +1004,43 @@
     <t xml:space="preserve">2.58418583869934</t>
   </si>
   <si>
-    <t xml:space="preserve">2.57716345787048</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.58067417144775</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.51747441291809</t>
+    <t xml:space="preserve">2.57716369628906</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.58067440986633</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.51747417449951</t>
   </si>
   <si>
     <t xml:space="preserve">2.31734037399292</t>
   </si>
   <si>
-    <t xml:space="preserve">2.21902894973755</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.28222918510437</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.25062894821167</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.21200656890869</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.26818442344666</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.25765132904053</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.29627346992493</t>
+    <t xml:space="preserve">2.21902918815613</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.28222894668579</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.25062870979309</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.21200680732727</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.26818466186523</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.25765085220337</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.29627370834351</t>
   </si>
   <si>
     <t xml:space="preserve">2.30329561233521</t>
   </si>
   <si>
-    <t xml:space="preserve">2.24360704421997</t>
+    <t xml:space="preserve">2.24360680580139</t>
   </si>
   <si>
     <t xml:space="preserve">2.22605109214783</t>
@@ -1049,55 +1049,55 @@
     <t xml:space="preserve">2.20147323608398</t>
   </si>
   <si>
-    <t xml:space="preserve">2.19093990325928</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.14880681037903</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.18742895126343</t>
+    <t xml:space="preserve">2.1909396648407</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.14880633354187</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.18742871284485</t>
   </si>
   <si>
     <t xml:space="preserve">2.19796228408813</t>
   </si>
   <si>
-    <t xml:space="preserve">2.22254014015198</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.26467370986938</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.2155179977417</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.24711799621582</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.2541401386261</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.30680680274963</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.2857403755188</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.23658442497253</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.24009561538696</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.27871775627136</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.28925108909607</t>
+    <t xml:space="preserve">2.22253966331482</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.26467323303223</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.21551775932312</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.24711775779724</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.25413990020752</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.30680727958679</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.28574013710022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.23658466339111</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.24009537696838</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.27871751785278</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.28925156593323</t>
   </si>
   <si>
     <t xml:space="preserve">2.3243625164032</t>
   </si>
   <si>
-    <t xml:space="preserve">2.29978466033936</t>
+    <t xml:space="preserve">2.29978489875793</t>
   </si>
   <si>
     <t xml:space="preserve">2.31031799316406</t>
@@ -1106,7 +1106,7 @@
     <t xml:space="preserve">2.33489584922791</t>
   </si>
   <si>
-    <t xml:space="preserve">2.33840703964233</t>
+    <t xml:space="preserve">2.33840727806091</t>
   </si>
   <si>
     <t xml:space="preserve">2.3875629901886</t>
@@ -1115,16 +1115,16 @@
     <t xml:space="preserve">2.47885203361511</t>
   </si>
   <si>
-    <t xml:space="preserve">2.46129608154297</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.47980213165283</t>
+    <t xml:space="preserve">2.46129655838013</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.47980237007141</t>
   </si>
   <si>
     <t xml:space="preserve">2.44279026985168</t>
   </si>
   <si>
-    <t xml:space="preserve">2.39837551116943</t>
+    <t xml:space="preserve">2.39837598800659</t>
   </si>
   <si>
     <t xml:space="preserve">2.36876654624939</t>
@@ -1139,10 +1139,10 @@
     <t xml:space="preserve">2.31694960594177</t>
   </si>
   <si>
-    <t xml:space="preserve">2.30584597587585</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.29844355583191</t>
+    <t xml:space="preserve">2.30584573745728</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.29844331741333</t>
   </si>
   <si>
     <t xml:space="preserve">2.29104113578796</t>
@@ -1154,7 +1154,7 @@
     <t xml:space="preserve">2.26143169403076</t>
   </si>
   <si>
-    <t xml:space="preserve">2.22441959381104</t>
+    <t xml:space="preserve">2.22441983222961</t>
   </si>
   <si>
     <t xml:space="preserve">2.1281886100769</t>
@@ -1166,7 +1166,7 @@
     <t xml:space="preserve">2.23182201385498</t>
   </si>
   <si>
-    <t xml:space="preserve">2.22071814537048</t>
+    <t xml:space="preserve">2.22071838378906</t>
   </si>
   <si>
     <t xml:space="preserve">2.20591378211975</t>
@@ -1175,10 +1175,10 @@
     <t xml:space="preserve">2.18000531196594</t>
   </si>
   <si>
-    <t xml:space="preserve">2.25773024559021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.26513266563416</t>
+    <t xml:space="preserve">2.25773048400879</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.26513290405273</t>
   </si>
   <si>
     <t xml:space="preserve">2.2022123336792</t>
@@ -1187,31 +1187,31 @@
     <t xml:space="preserve">2.21331596374512</t>
   </si>
   <si>
-    <t xml:space="preserve">2.21701717376709</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.16149926185608</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.26883387565613</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.24662709236145</t>
+    <t xml:space="preserve">2.21701693534851</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.16149950027466</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.26883411407471</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.24662685394287</t>
   </si>
   <si>
     <t xml:space="preserve">2.18740749359131</t>
   </si>
   <si>
-    <t xml:space="preserve">2.16890144348145</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.15779805183411</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.13929200172424</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.13559126853943</t>
+    <t xml:space="preserve">2.16890168190002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.15779829025269</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.13929224014282</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.13559079170227</t>
   </si>
   <si>
     <t xml:space="preserve">2.12078642845154</t>
@@ -1223,28 +1223,28 @@
     <t xml:space="preserve">2.14669442176819</t>
   </si>
   <si>
-    <t xml:space="preserve">2.11708498001099</t>
+    <t xml:space="preserve">2.11708474159241</t>
   </si>
   <si>
     <t xml:space="preserve">2.10968255996704</t>
   </si>
   <si>
-    <t xml:space="preserve">2.3243522644043</t>
+    <t xml:space="preserve">2.32435202598572</t>
   </si>
   <si>
     <t xml:space="preserve">2.33175420761108</t>
   </si>
   <si>
-    <t xml:space="preserve">2.37246751785278</t>
+    <t xml:space="preserve">2.37246775627136</t>
   </si>
   <si>
     <t xml:space="preserve">2.62044763565063</t>
   </si>
   <si>
-    <t xml:space="preserve">2.4835033416748</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.41688203811646</t>
+    <t xml:space="preserve">2.48350358009338</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.41688179969788</t>
   </si>
   <si>
     <t xml:space="preserve">2.42058300971985</t>
@@ -1265,10 +1265,10 @@
     <t xml:space="preserve">2.23922443389893</t>
   </si>
   <si>
-    <t xml:space="preserve">2.30954718589783</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.27623629570007</t>
+    <t xml:space="preserve">2.30954694747925</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.27623653411865</t>
   </si>
   <si>
     <t xml:space="preserve">2.28363871574402</t>
@@ -1280,91 +1280,91 @@
     <t xml:space="preserve">2.31324815750122</t>
   </si>
   <si>
-    <t xml:space="preserve">2.342857837677</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.33915686607361</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.33545541763306</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.34655904769897</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.24292588233948</t>
+    <t xml:space="preserve">2.34285807609558</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.33915710449219</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.33545565605164</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.34655928611755</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.2429256439209</t>
   </si>
   <si>
     <t xml:space="preserve">2.17630410194397</t>
   </si>
   <si>
-    <t xml:space="preserve">2.19110894203186</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.23552322387695</t>
+    <t xml:space="preserve">2.19110870361328</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.23552346229553</t>
   </si>
   <si>
     <t xml:space="preserve">2.08747529983521</t>
   </si>
   <si>
-    <t xml:space="preserve">2.15039587020874</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.15409684181213</t>
+    <t xml:space="preserve">2.15039563179016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.15409708023071</t>
   </si>
   <si>
     <t xml:space="preserve">2.25402927398682</t>
   </si>
   <si>
-    <t xml:space="preserve">2.2725350856781</t>
+    <t xml:space="preserve">2.27253532409668</t>
   </si>
   <si>
     <t xml:space="preserve">2.25032782554626</t>
   </si>
   <si>
-    <t xml:space="preserve">2.22812104225159</t>
+    <t xml:space="preserve">2.22812080383301</t>
   </si>
   <si>
     <t xml:space="preserve">2.40207695960999</t>
   </si>
   <si>
-    <t xml:space="preserve">2.43168663978577</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.38357090950012</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.35766267776489</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.37616848945618</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.37986993789673</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.42428421974182</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.42798519134521</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.44649124145508</t>
+    <t xml:space="preserve">2.43168687820435</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.3835711479187</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.35766291618347</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.37616896629333</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.37987017631531</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.4242844581604</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.42798542976379</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.44649147987366</t>
   </si>
   <si>
     <t xml:space="preserve">2.45019268989563</t>
   </si>
   <si>
-    <t xml:space="preserve">2.50200939178467</t>
+    <t xml:space="preserve">2.50200963020325</t>
   </si>
   <si>
     <t xml:space="preserve">2.49460697174072</t>
   </si>
   <si>
-    <t xml:space="preserve">2.49090576171875</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.51311302185059</t>
+    <t xml:space="preserve">2.49090600013733</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.51311278343201</t>
   </si>
   <si>
     <t xml:space="preserve">2.4983081817627</t>
@@ -1373,16 +1373,16 @@
     <t xml:space="preserve">2.50571060180664</t>
   </si>
   <si>
-    <t xml:space="preserve">2.56122875213623</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.53161931037903</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.56863117218018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.52791786193848</t>
+    <t xml:space="preserve">2.56122851371765</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.53161907196045</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.5686309337616</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.52791738510132</t>
   </si>
   <si>
     <t xml:space="preserve">2.53902149200439</t>
@@ -1394,7 +1394,7 @@
     <t xml:space="preserve">2.5242166519165</t>
   </si>
   <si>
-    <t xml:space="preserve">2.54272294044495</t>
+    <t xml:space="preserve">2.54272270202637</t>
   </si>
   <si>
     <t xml:space="preserve">2.55382633209229</t>
@@ -1403,28 +1403,28 @@
     <t xml:space="preserve">2.57603335380554</t>
   </si>
   <si>
-    <t xml:space="preserve">2.60194182395935</t>
+    <t xml:space="preserve">2.60194206237793</t>
   </si>
   <si>
     <t xml:space="preserve">2.59083819389343</t>
   </si>
   <si>
-    <t xml:space="preserve">2.57973456382751</t>
+    <t xml:space="preserve">2.57973432540894</t>
   </si>
   <si>
     <t xml:space="preserve">2.62785005569458</t>
   </si>
   <si>
-    <t xml:space="preserve">2.64635610580444</t>
+    <t xml:space="preserve">2.64635634422302</t>
   </si>
   <si>
     <t xml:space="preserve">2.64265513420105</t>
   </si>
   <si>
-    <t xml:space="preserve">2.63895392417908</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.65745973587036</t>
+    <t xml:space="preserve">2.6389536857605</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.65745997428894</t>
   </si>
   <si>
     <t xml:space="preserve">2.67226457595825</t>
@@ -1436,22 +1436,22 @@
     <t xml:space="preserve">2.72778224945068</t>
   </si>
   <si>
-    <t xml:space="preserve">2.70187425613403</t>
+    <t xml:space="preserve">2.70187449455261</t>
   </si>
   <si>
     <t xml:space="preserve">2.69077038764954</t>
   </si>
   <si>
-    <t xml:space="preserve">2.74258708953857</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.75739192962646</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.82401371002197</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.82031226158142</t>
+    <t xml:space="preserve">2.74258685112</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.75739216804504</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.82401347160339</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.8203125</t>
   </si>
   <si>
     <t xml:space="preserve">2.84992170333862</t>
@@ -1460,16 +1460,16 @@
     <t xml:space="preserve">2.83881831169128</t>
   </si>
   <si>
-    <t xml:space="preserve">3.02654123306274</t>
+    <t xml:space="preserve">3.02654075622559</t>
   </si>
   <si>
     <t xml:space="preserve">2.74035263061523</t>
   </si>
   <si>
-    <t xml:space="preserve">2.73643231391907</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.68938779830933</t>
+    <t xml:space="preserve">2.73643183708191</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.68938755989075</t>
   </si>
   <si>
     <t xml:space="preserve">2.70898938179016</t>
@@ -1478,34 +1478,34 @@
     <t xml:space="preserve">2.68154668807983</t>
   </si>
   <si>
-    <t xml:space="preserve">2.75603413581848</t>
+    <t xml:space="preserve">2.75603437423706</t>
   </si>
   <si>
     <t xml:space="preserve">2.84228253364563</t>
   </si>
   <si>
-    <t xml:space="preserve">2.79915833473206</t>
+    <t xml:space="preserve">2.79915857315063</t>
   </si>
   <si>
     <t xml:space="preserve">2.82268071174622</t>
   </si>
   <si>
-    <t xml:space="preserve">2.78347682952881</t>
+    <t xml:space="preserve">2.78347659111023</t>
   </si>
   <si>
     <t xml:space="preserve">2.7756359577179</t>
   </si>
   <si>
-    <t xml:space="preserve">2.7677948474884</t>
+    <t xml:space="preserve">2.76779508590698</t>
   </si>
   <si>
     <t xml:space="preserve">2.79131746292114</t>
   </si>
   <si>
-    <t xml:space="preserve">2.78739738464355</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.84620308876038</t>
+    <t xml:space="preserve">2.78739714622498</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.84620332717896</t>
   </si>
   <si>
     <t xml:space="preserve">2.85796427726746</t>
@@ -1517,10 +1517,10 @@
     <t xml:space="preserve">2.8344419002533</t>
   </si>
   <si>
-    <t xml:space="preserve">2.85012316703796</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.86188459396362</t>
+    <t xml:space="preserve">2.85012340545654</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.86188507080078</t>
   </si>
   <si>
     <t xml:space="preserve">2.8736457824707</t>
@@ -1535,13 +1535,13 @@
     <t xml:space="preserve">2.95597386360168</t>
   </si>
   <si>
-    <t xml:space="preserve">2.97165536880493</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.94813323020935</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.94029259681702</t>
+    <t xml:space="preserve">2.97165560722351</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.94813299179077</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.94029235839844</t>
   </si>
   <si>
     <t xml:space="preserve">2.96381449699402</t>
@@ -1571,10 +1571,10 @@
     <t xml:space="preserve">3.15983438491821</t>
   </si>
   <si>
-    <t xml:space="preserve">3.18335628509521</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.23824214935303</t>
+    <t xml:space="preserve">3.18335652351379</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.23824191093445</t>
   </si>
   <si>
     <t xml:space="preserve">3.25000309944153</t>
@@ -1583,7 +1583,7 @@
     <t xml:space="preserve">3.25392365455627</t>
   </si>
   <si>
-    <t xml:space="preserve">3.26960515975952</t>
+    <t xml:space="preserve">3.2696053981781</t>
   </si>
   <si>
     <t xml:space="preserve">3.30096840858459</t>
@@ -1598,7 +1598,7 @@
     <t xml:space="preserve">3.27744555473328</t>
   </si>
   <si>
-    <t xml:space="preserve">3.20687890052795</t>
+    <t xml:space="preserve">3.20687913894653</t>
   </si>
   <si>
     <t xml:space="preserve">3.22648048400879</t>
@@ -1607,13 +1607,13 @@
     <t xml:space="preserve">3.25784397125244</t>
   </si>
   <si>
-    <t xml:space="preserve">3.24216294288635</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.19119763374329</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.14023232460022</t>
+    <t xml:space="preserve">3.24216246604919</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.19119739532471</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.14023208618164</t>
   </si>
   <si>
     <t xml:space="preserve">3.12847113609314</t>
@@ -1631,10 +1631,10 @@
     <t xml:space="preserve">3.21864008903503</t>
   </si>
   <si>
-    <t xml:space="preserve">3.21471953392029</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.1637544631958</t>
+    <t xml:space="preserve">3.21471977233887</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.16375470161438</t>
   </si>
   <si>
     <t xml:space="preserve">3.14807319641113</t>
@@ -1643,7 +1643,7 @@
     <t xml:space="preserve">3.04222273826599</t>
   </si>
   <si>
-    <t xml:space="preserve">3.12063050270081</t>
+    <t xml:space="preserve">3.12063026428223</t>
   </si>
   <si>
     <t xml:space="preserve">3.12455058097839</t>
@@ -1652,13 +1652,13 @@
     <t xml:space="preserve">3.08534669876099</t>
   </si>
   <si>
-    <t xml:space="preserve">3.08926725387573</t>
+    <t xml:space="preserve">3.08926749229431</t>
   </si>
   <si>
     <t xml:space="preserve">3.11278963088989</t>
   </si>
   <si>
-    <t xml:space="preserve">3.10102820396423</t>
+    <t xml:space="preserve">3.10102844238281</t>
   </si>
   <si>
     <t xml:space="preserve">2.98341679573059</t>
@@ -1667,34 +1667,34 @@
     <t xml:space="preserve">2.88148641586304</t>
   </si>
   <si>
-    <t xml:space="preserve">2.93637180328369</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.97557592391968</t>
+    <t xml:space="preserve">2.93637204170227</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.97557616233826</t>
   </si>
   <si>
     <t xml:space="preserve">2.98733711242676</t>
   </si>
   <si>
-    <t xml:space="preserve">2.97949647903442</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.99909830093384</t>
+    <t xml:space="preserve">2.97949624061584</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.99909806251526</t>
   </si>
   <si>
     <t xml:space="preserve">3.00301837921143</t>
   </si>
   <si>
-    <t xml:space="preserve">3.05790400505066</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.03438186645508</t>
+    <t xml:space="preserve">3.05790424346924</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.0343816280365</t>
   </si>
   <si>
     <t xml:space="preserve">3.06574511528015</t>
   </si>
   <si>
-    <t xml:space="preserve">3.04614305496216</t>
+    <t xml:space="preserve">3.04614281654358</t>
   </si>
   <si>
     <t xml:space="preserve">3.03046131134033</t>
@@ -1709,40 +1709,40 @@
     <t xml:space="preserve">2.90108847618103</t>
   </si>
   <si>
-    <t xml:space="preserve">2.94421315193176</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.8932478427887</t>
+    <t xml:space="preserve">2.94421291351318</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.89324760437012</t>
   </si>
   <si>
     <t xml:space="preserve">3.01869988441467</t>
   </si>
   <si>
-    <t xml:space="preserve">3.15199327468872</t>
+    <t xml:space="preserve">3.1519935131073</t>
   </si>
   <si>
     <t xml:space="preserve">3.17551589012146</t>
   </si>
   <si>
-    <t xml:space="preserve">3.09710812568665</t>
+    <t xml:space="preserve">3.09710836410522</t>
   </si>
   <si>
     <t xml:space="preserve">3.10886907577515</t>
   </si>
   <si>
-    <t xml:space="preserve">3.022620677948</t>
+    <t xml:space="preserve">3.02262043952942</t>
   </si>
   <si>
     <t xml:space="preserve">3.01085901260376</t>
   </si>
   <si>
-    <t xml:space="preserve">2.91676998138428</t>
+    <t xml:space="preserve">2.91677021980286</t>
   </si>
   <si>
     <t xml:space="preserve">2.9520537853241</t>
   </si>
   <si>
-    <t xml:space="preserve">2.9912576675415</t>
+    <t xml:space="preserve">2.99125742912292</t>
   </si>
   <si>
     <t xml:space="preserve">3.13239145278931</t>
@@ -1754,22 +1754,22 @@
     <t xml:space="preserve">3.5479531288147</t>
   </si>
   <si>
-    <t xml:space="preserve">3.48522686958313</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.58323645591736</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.52443051338196</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.58715653419495</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.61459946632385</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.51658964157104</t>
+    <t xml:space="preserve">3.48522639274597</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.58323621749878</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.52443075180054</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.58715677261353</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.61459970474243</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.5165901184082</t>
   </si>
   <si>
     <t xml:space="preserve">3.4225001335144</t>
@@ -1778,25 +1778,25 @@
     <t xml:space="preserve">3.39505767822266</t>
   </si>
   <si>
-    <t xml:space="preserve">3.37937593460083</t>
+    <t xml:space="preserve">3.37937617301941</t>
   </si>
   <si>
     <t xml:space="preserve">3.43818211555481</t>
   </si>
   <si>
-    <t xml:space="preserve">3.48130655288696</t>
+    <t xml:space="preserve">3.48130631446838</t>
   </si>
   <si>
     <t xml:space="preserve">3.45386338233948</t>
   </si>
   <si>
-    <t xml:space="preserve">3.28920745849609</t>
+    <t xml:space="preserve">3.28920722007751</t>
   </si>
   <si>
     <t xml:space="preserve">3.26176428794861</t>
   </si>
   <si>
-    <t xml:space="preserve">3.21079897880554</t>
+    <t xml:space="preserve">3.21079921722412</t>
   </si>
   <si>
     <t xml:space="preserve">3.0814266204834</t>
@@ -1805,22 +1805,22 @@
     <t xml:space="preserve">3.26568484306335</t>
   </si>
   <si>
-    <t xml:space="preserve">3.23432183265686</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.19511795043945</t>
+    <t xml:space="preserve">3.23432159423828</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.19511771202087</t>
   </si>
   <si>
     <t xml:space="preserve">2.69722819328308</t>
   </si>
   <si>
-    <t xml:space="preserve">2.13269233703613</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.36399531364441</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.45024371147156</t>
+    <t xml:space="preserve">2.13269209861755</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.36399507522583</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.45024347305298</t>
   </si>
   <si>
     <t xml:space="preserve">2.49336814880371</t>
@@ -1829,25 +1829,25 @@
     <t xml:space="preserve">2.50512909889221</t>
   </si>
   <si>
-    <t xml:space="preserve">2.55217361450195</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.61882066726685</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.60313868522644</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.63450193405151</t>
+    <t xml:space="preserve">2.55217385292053</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.61882042884827</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.60313892364502</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.63450217247009</t>
   </si>
   <si>
     <t xml:space="preserve">2.58353710174561</t>
   </si>
   <si>
-    <t xml:space="preserve">2.5443332195282</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.51689028739929</t>
+    <t xml:space="preserve">2.54433298110962</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.51689052581787</t>
   </si>
   <si>
     <t xml:space="preserve">2.63842248916626</t>
@@ -1856,22 +1856,22 @@
     <t xml:space="preserve">2.49728846549988</t>
   </si>
   <si>
-    <t xml:space="preserve">2.50904941558838</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.46984577178955</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.51296973228455</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.53257179260254</t>
+    <t xml:space="preserve">2.50904965400696</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.46984553337097</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.5129702091217</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.53257203102112</t>
   </si>
   <si>
     <t xml:space="preserve">2.54041266441345</t>
   </si>
   <si>
-    <t xml:space="preserve">2.52865147590637</t>
+    <t xml:space="preserve">2.52865171432495</t>
   </si>
   <si>
     <t xml:space="preserve">2.54825329780579</t>
@@ -1880,7 +1880,7 @@
     <t xml:space="preserve">2.52473115921021</t>
   </si>
   <si>
-    <t xml:space="preserve">2.57177591323853</t>
+    <t xml:space="preserve">2.57177567481995</t>
   </si>
   <si>
     <t xml:space="preserve">2.58745741844177</t>
@@ -1889,7 +1889,7 @@
     <t xml:space="preserve">2.64234280586243</t>
   </si>
   <si>
-    <t xml:space="preserve">2.61097979545593</t>
+    <t xml:space="preserve">2.61097955703735</t>
   </si>
   <si>
     <t xml:space="preserve">2.65018367767334</t>
@@ -1898,10 +1898,10 @@
     <t xml:space="preserve">2.62274074554443</t>
   </si>
   <si>
-    <t xml:space="preserve">2.6266610622406</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.72075033187866</t>
+    <t xml:space="preserve">2.62666130065918</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.72075057029724</t>
   </si>
   <si>
     <t xml:space="preserve">2.92069053649902</t>
@@ -1928,7 +1928,7 @@
     <t xml:space="preserve">3.14438462257385</t>
   </si>
   <si>
-    <t xml:space="preserve">3.14026355743408</t>
+    <t xml:space="preserve">3.1402633190155</t>
   </si>
   <si>
     <t xml:space="preserve">3.21444296836853</t>
@@ -1937,10 +1937,10 @@
     <t xml:space="preserve">3.24741172790527</t>
   </si>
   <si>
-    <t xml:space="preserve">3.19383764266968</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.22680640220642</t>
+    <t xml:space="preserve">3.1938374042511</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.22680616378784</t>
   </si>
   <si>
     <t xml:space="preserve">3.2721381187439</t>
@@ -1955,19 +1955,19 @@
     <t xml:space="preserve">3.06196308135986</t>
   </si>
   <si>
-    <t xml:space="preserve">3.08256840705872</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.09081077575684</t>
+    <t xml:space="preserve">3.08256816864014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.09081053733826</t>
   </si>
   <si>
     <t xml:space="preserve">3.11965823173523</t>
   </si>
   <si>
-    <t xml:space="preserve">3.08668923377991</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.05784201622009</t>
+    <t xml:space="preserve">3.08668947219849</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.05784177780151</t>
   </si>
   <si>
     <t xml:space="preserve">3.04135751724243</t>
@@ -1976,7 +1976,7 @@
     <t xml:space="preserve">3.00014686584473</t>
   </si>
   <si>
-    <t xml:space="preserve">2.94245171546936</t>
+    <t xml:space="preserve">2.94245147705078</t>
   </si>
   <si>
     <t xml:space="preserve">2.91360425949097</t>
@@ -1985,13 +1985,13 @@
     <t xml:space="preserve">2.93008852005005</t>
   </si>
   <si>
-    <t xml:space="preserve">2.91772508621216</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.90124082565308</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.90536189079285</t>
+    <t xml:space="preserve">2.91772484779358</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.9012405872345</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.90536212921143</t>
   </si>
   <si>
     <t xml:space="preserve">2.86827206611633</t>
@@ -2003,28 +2003,28 @@
     <t xml:space="preserve">2.92184638977051</t>
   </si>
   <si>
-    <t xml:space="preserve">2.87651443481445</t>
+    <t xml:space="preserve">2.87651419639587</t>
   </si>
   <si>
     <t xml:space="preserve">2.89299845695496</t>
   </si>
   <si>
-    <t xml:space="preserve">2.80233502388</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.76112413406372</t>
+    <t xml:space="preserve">2.80233478546143</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.76112389564514</t>
   </si>
   <si>
     <t xml:space="preserve">2.74463987350464</t>
   </si>
   <si>
-    <t xml:space="preserve">2.75288200378418</t>
+    <t xml:space="preserve">2.7528817653656</t>
   </si>
   <si>
     <t xml:space="preserve">2.7116711139679</t>
   </si>
   <si>
-    <t xml:space="preserve">2.73227643966675</t>
+    <t xml:space="preserve">2.73227667808533</t>
   </si>
   <si>
     <t xml:space="preserve">2.82706141471863</t>
@@ -2036,7 +2036,7 @@
     <t xml:space="preserve">2.86002993583679</t>
   </si>
   <si>
-    <t xml:space="preserve">2.81469798088074</t>
+    <t xml:space="preserve">2.81469821929932</t>
   </si>
   <si>
     <t xml:space="preserve">2.81057715415955</t>
@@ -2045,10 +2045,10 @@
     <t xml:space="preserve">2.76524519920349</t>
   </si>
   <si>
-    <t xml:space="preserve">2.79409313201904</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.78172969818115</t>
+    <t xml:space="preserve">2.79409289360046</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.78172945976257</t>
   </si>
   <si>
     <t xml:space="preserve">2.78585076332092</t>
@@ -2057,13 +2057,13 @@
     <t xml:space="preserve">2.70342898368835</t>
   </si>
   <si>
-    <t xml:space="preserve">2.7075502872467</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.75700283050537</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.77348732948303</t>
+    <t xml:space="preserve">2.70755004882812</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.75700306892395</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.77348756790161</t>
   </si>
   <si>
     <t xml:space="preserve">2.74876093864441</t>
@@ -2072,7 +2072,7 @@
     <t xml:space="preserve">2.71991324424744</t>
   </si>
   <si>
-    <t xml:space="preserve">2.72403430938721</t>
+    <t xml:space="preserve">2.72403454780579</t>
   </si>
   <si>
     <t xml:space="preserve">2.77760815620422</t>
@@ -2093,43 +2093,43 @@
     <t xml:space="preserve">2.60864424705505</t>
   </si>
   <si>
-    <t xml:space="preserve">2.63337063789368</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.62100744247437</t>
+    <t xml:space="preserve">2.63337087631226</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.62100720405579</t>
   </si>
   <si>
     <t xml:space="preserve">2.62512850761414</t>
   </si>
   <si>
-    <t xml:space="preserve">2.59215974807739</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.6045229434967</t>
+    <t xml:space="preserve">2.59215998649597</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.60452318191528</t>
   </si>
   <si>
     <t xml:space="preserve">2.62924957275391</t>
   </si>
   <si>
-    <t xml:space="preserve">2.64161252975464</t>
+    <t xml:space="preserve">2.64161276817322</t>
   </si>
   <si>
     <t xml:space="preserve">2.61276531219482</t>
   </si>
   <si>
-    <t xml:space="preserve">2.58391737937927</t>
+    <t xml:space="preserve">2.58391761779785</t>
   </si>
   <si>
     <t xml:space="preserve">2.59628081321716</t>
   </si>
   <si>
-    <t xml:space="preserve">2.51798009872437</t>
+    <t xml:space="preserve">2.51798057556152</t>
   </si>
   <si>
     <t xml:space="preserve">2.49737501144409</t>
   </si>
   <si>
-    <t xml:space="preserve">2.57155442237854</t>
+    <t xml:space="preserve">2.57155418395996</t>
   </si>
   <si>
     <t xml:space="preserve">2.51385927200317</t>
@@ -2138,40 +2138,40 @@
     <t xml:space="preserve">2.48913288116455</t>
   </si>
   <si>
-    <t xml:space="preserve">2.50561690330505</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.46852707862854</t>
+    <t xml:space="preserve">2.50561714172363</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.46852731704712</t>
   </si>
   <si>
     <t xml:space="preserve">2.5097382068634</t>
   </si>
   <si>
-    <t xml:space="preserve">2.40671133995056</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.42319536209106</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.45204305648804</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.44792175292969</t>
+    <t xml:space="preserve">2.40671110153198</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.42319560050964</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.45204329490662</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.44792199134827</t>
   </si>
   <si>
     <t xml:space="preserve">2.47676968574524</t>
   </si>
   <si>
-    <t xml:space="preserve">2.69518685340881</t>
+    <t xml:space="preserve">2.69518661499023</t>
   </si>
   <si>
     <t xml:space="preserve">2.74051880836487</t>
   </si>
   <si>
-    <t xml:space="preserve">2.86415100097656</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.88887786865234</t>
+    <t xml:space="preserve">2.86415123939514</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.88887763023376</t>
   </si>
   <si>
     <t xml:space="preserve">2.89711999893188</t>
@@ -2189,16 +2189,16 @@
     <t xml:space="preserve">2.83530354499817</t>
   </si>
   <si>
-    <t xml:space="preserve">2.83118271827698</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.03311562538147</t>
+    <t xml:space="preserve">2.8311824798584</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.03311538696289</t>
   </si>
   <si>
     <t xml:space="preserve">3.01663112640381</t>
   </si>
   <si>
-    <t xml:space="preserve">2.99602556228638</t>
+    <t xml:space="preserve">2.99602580070496</t>
   </si>
   <si>
     <t xml:space="preserve">3.02487349510193</t>
@@ -2210,10 +2210,10 @@
     <t xml:space="preserve">3.05372071266174</t>
   </si>
   <si>
-    <t xml:space="preserve">3.06608390808105</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.16498970985413</t>
+    <t xml:space="preserve">3.06608414649963</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.16498994827271</t>
   </si>
   <si>
     <t xml:space="preserve">3.10317397117615</t>
@@ -2222,43 +2222,43 @@
     <t xml:space="preserve">3.10729479789734</t>
   </si>
   <si>
-    <t xml:space="preserve">2.9754204750061</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.96717834472656</t>
+    <t xml:space="preserve">2.97542023658752</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.96717810630798</t>
   </si>
   <si>
     <t xml:space="preserve">2.98366236686707</t>
   </si>
   <si>
-    <t xml:space="preserve">2.95481491088867</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.98778367042542</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.020751953125</t>
+    <t xml:space="preserve">2.95481514930725</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.98778343200684</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.02075219154358</t>
   </si>
   <si>
     <t xml:space="preserve">3.07844734191895</t>
   </si>
   <si>
-    <t xml:space="preserve">3.04547882080078</t>
+    <t xml:space="preserve">3.0454785823822</t>
   </si>
   <si>
     <t xml:space="preserve">3.04959988594055</t>
   </si>
   <si>
-    <t xml:space="preserve">3.03723621368408</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.0990526676178</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.09493184089661</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.01251006126404</t>
+    <t xml:space="preserve">3.03723645210266</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.09905242919922</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.09493207931519</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.01250982284546</t>
   </si>
   <si>
     <t xml:space="preserve">2.96305704116821</t>
@@ -2270,7 +2270,7 @@
     <t xml:space="preserve">3.0702052116394</t>
   </si>
   <si>
-    <t xml:space="preserve">3.14850568771362</t>
+    <t xml:space="preserve">3.14850544929504</t>
   </si>
   <si>
     <t xml:space="preserve">3.16086912155151</t>
@@ -2288,16 +2288,16 @@
     <t xml:space="preserve">3.11553692817688</t>
   </si>
   <si>
-    <t xml:space="preserve">3.13202142715454</t>
+    <t xml:space="preserve">3.13202118873596</t>
   </si>
   <si>
     <t xml:space="preserve">3.12790036201477</t>
   </si>
   <si>
-    <t xml:space="preserve">3.22268533706665</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.19795894622803</t>
+    <t xml:space="preserve">3.22268509864807</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.19795870780945</t>
   </si>
   <si>
     <t xml:space="preserve">3.17323184013367</t>
@@ -2309,10 +2309,10 @@
     <t xml:space="preserve">3.24329042434692</t>
   </si>
   <si>
-    <t xml:space="preserve">3.18971657752991</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.23916959762573</t>
+    <t xml:space="preserve">3.18971633911133</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.23916935920715</t>
   </si>
   <si>
     <t xml:space="preserve">3.27625918388367</t>
@@ -2327,7 +2327,7 @@
     <t xml:space="preserve">3.35868072509766</t>
   </si>
   <si>
-    <t xml:space="preserve">3.34631729125977</t>
+    <t xml:space="preserve">3.34631776809692</t>
   </si>
   <si>
     <t xml:space="preserve">3.30510687828064</t>
@@ -2336,7 +2336,7 @@
     <t xml:space="preserve">3.34219646453857</t>
   </si>
   <si>
-    <t xml:space="preserve">3.36364841461182</t>
+    <t xml:space="preserve">3.36364817619324</t>
   </si>
   <si>
     <t xml:space="preserve">3.25209856033325</t>
@@ -2345,10 +2345,10 @@
     <t xml:space="preserve">3.20919489860535</t>
   </si>
   <si>
-    <t xml:space="preserve">3.22635650634766</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.27784085273743</t>
+    <t xml:space="preserve">3.22635626792908</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.27784061431885</t>
   </si>
   <si>
     <t xml:space="preserve">3.23493719100952</t>
@@ -2363,19 +2363,19 @@
     <t xml:space="preserve">3.21777582168579</t>
   </si>
   <si>
-    <t xml:space="preserve">3.15771079063416</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.17487215995789</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.17916226387024</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.16200089454651</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.14913010597229</t>
+    <t xml:space="preserve">3.15771055221558</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.17487192153931</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.17916250228882</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.16200113296509</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.14912986755371</t>
   </si>
   <si>
     <t xml:space="preserve">3.18345284461975</t>
@@ -2387,28 +2387,28 @@
     <t xml:space="preserve">3.20061421394348</t>
   </si>
   <si>
-    <t xml:space="preserve">3.1920337677002</t>
+    <t xml:space="preserve">3.19203352928162</t>
   </si>
   <si>
     <t xml:space="preserve">3.23064684867859</t>
   </si>
   <si>
-    <t xml:space="preserve">3.2220664024353</t>
+    <t xml:space="preserve">3.22206616401672</t>
   </si>
   <si>
     <t xml:space="preserve">3.12767815589905</t>
   </si>
   <si>
-    <t xml:space="preserve">3.13625860214233</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.10622620582581</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.0761935710907</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.08906483650208</t>
+    <t xml:space="preserve">3.13625884056091</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.10622596740723</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.07619380950928</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.0890645980835</t>
   </si>
   <si>
     <t xml:space="preserve">3.04187083244324</t>
@@ -2420,7 +2420,7 @@
     <t xml:space="preserve">3.0504515171051</t>
   </si>
   <si>
-    <t xml:space="preserve">3.04616117477417</t>
+    <t xml:space="preserve">3.04616093635559</t>
   </si>
   <si>
     <t xml:space="preserve">3.02899956703186</t>
@@ -2429,10 +2429,10 @@
     <t xml:space="preserve">2.98180556297302</t>
   </si>
   <si>
-    <t xml:space="preserve">3.0075478553772</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.05903220176697</t>
+    <t xml:space="preserve">3.00754809379578</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.05903244018555</t>
   </si>
   <si>
     <t xml:space="preserve">3.08048391342163</t>
@@ -2447,25 +2447,25 @@
     <t xml:space="preserve">2.90886926651001</t>
   </si>
   <si>
-    <t xml:space="preserve">2.92174029350281</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.93890166282654</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.00325727462769</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.03328990936279</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.02041888237</t>
+    <t xml:space="preserve">2.92174053192139</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.93890190124512</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.00325751304626</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.03329014778137</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.02041864395142</t>
   </si>
   <si>
     <t xml:space="preserve">3.01612854003906</t>
   </si>
   <si>
-    <t xml:space="preserve">3.01183819770813</t>
+    <t xml:space="preserve">3.01183795928955</t>
   </si>
   <si>
     <t xml:space="preserve">3.06761288642883</t>
@@ -2477,7 +2477,7 @@
     <t xml:space="preserve">3.13196849822998</t>
   </si>
   <si>
-    <t xml:space="preserve">3.16629123687744</t>
+    <t xml:space="preserve">3.16629147529602</t>
   </si>
   <si>
     <t xml:space="preserve">3.11480712890625</t>
@@ -2486,16 +2486,16 @@
     <t xml:space="preserve">3.09335517883301</t>
   </si>
   <si>
-    <t xml:space="preserve">3.0633225440979</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.11051654815674</t>
+    <t xml:space="preserve">3.06332230567932</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.11051678657532</t>
   </si>
   <si>
     <t xml:space="preserve">3.08477449417114</t>
   </si>
   <si>
-    <t xml:space="preserve">3.07190322875977</t>
+    <t xml:space="preserve">3.07190299034119</t>
   </si>
   <si>
     <t xml:space="preserve">3.02470946311951</t>
@@ -2507,7 +2507,7 @@
     <t xml:space="preserve">2.94748258590698</t>
   </si>
   <si>
-    <t xml:space="preserve">2.95177292823792</t>
+    <t xml:space="preserve">2.95177316665649</t>
   </si>
   <si>
     <t xml:space="preserve">2.95606327056885</t>
@@ -2519,13 +2519,13 @@
     <t xml:space="preserve">2.98609590530396</t>
   </si>
   <si>
-    <t xml:space="preserve">3.10193562507629</t>
+    <t xml:space="preserve">3.10193586349487</t>
   </si>
   <si>
     <t xml:space="preserve">3.05474162101746</t>
   </si>
   <si>
-    <t xml:space="preserve">2.96893429756165</t>
+    <t xml:space="preserve">2.96893453598022</t>
   </si>
   <si>
     <t xml:space="preserve">2.91745018959045</t>
@@ -2534,7 +2534,7 @@
     <t xml:space="preserve">2.93032097816467</t>
   </si>
   <si>
-    <t xml:space="preserve">2.9045786857605</t>
+    <t xml:space="preserve">2.90457892417908</t>
   </si>
   <si>
     <t xml:space="preserve">2.97751522064209</t>
@@ -2546,7 +2546,7 @@
     <t xml:space="preserve">2.94319224357605</t>
   </si>
   <si>
-    <t xml:space="preserve">2.97322463989258</t>
+    <t xml:space="preserve">2.97322487831116</t>
   </si>
   <si>
     <t xml:space="preserve">2.93461155891418</t>
@@ -2555,10 +2555,10 @@
     <t xml:space="preserve">2.79731965065002</t>
   </si>
   <si>
-    <t xml:space="preserve">2.91315984725952</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.89170789718628</t>
+    <t xml:space="preserve">2.91315960884094</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.8917076587677</t>
   </si>
   <si>
     <t xml:space="preserve">2.82306170463562</t>
@@ -2567,10 +2567,10 @@
     <t xml:space="preserve">2.77157735824585</t>
   </si>
   <si>
-    <t xml:space="preserve">2.80160999298096</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.90028858184814</t>
+    <t xml:space="preserve">2.80161023139954</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.90028882026672</t>
   </si>
   <si>
     <t xml:space="preserve">2.87454628944397</t>
@@ -2582,10 +2582,10 @@
     <t xml:space="preserve">2.89599823951721</t>
   </si>
   <si>
-    <t xml:space="preserve">2.85738492012024</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.87025594711304</t>
+    <t xml:space="preserve">2.85738468170166</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.87025618553162</t>
   </si>
   <si>
     <t xml:space="preserve">3.09737634658813</t>
@@ -2597,7 +2597,7 @@
     <t xml:space="preserve">3.1108820438385</t>
   </si>
   <si>
-    <t xml:space="preserve">3.07936811447144</t>
+    <t xml:space="preserve">3.07936835289001</t>
   </si>
   <si>
     <t xml:space="preserve">3.02984619140625</t>
@@ -2606,22 +2606,22 @@
     <t xml:space="preserve">2.98932814598083</t>
   </si>
   <si>
-    <t xml:space="preserve">2.96681833267212</t>
+    <t xml:space="preserve">2.96681809425354</t>
   </si>
   <si>
     <t xml:space="preserve">3.03434801101685</t>
   </si>
   <si>
-    <t xml:space="preserve">2.98482632637024</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.96231627464294</t>
+    <t xml:space="preserve">2.98482608795166</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.96231603622437</t>
   </si>
   <si>
     <t xml:space="preserve">2.93980622291565</t>
   </si>
   <si>
-    <t xml:space="preserve">2.93080234527588</t>
+    <t xml:space="preserve">2.9308021068573</t>
   </si>
   <si>
     <t xml:space="preserve">2.95781421661377</t>
@@ -2636,7 +2636,7 @@
     <t xml:space="preserve">3.01634001731873</t>
   </si>
   <si>
-    <t xml:space="preserve">2.99833226203918</t>
+    <t xml:space="preserve">2.99833202362061</t>
   </si>
   <si>
     <t xml:space="preserve">3.04335236549377</t>
@@ -2651,13 +2651,13 @@
     <t xml:space="preserve">2.82725620269775</t>
   </si>
   <si>
-    <t xml:space="preserve">2.78673815727234</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.88128042221069</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.82275414466858</t>
+    <t xml:space="preserve">2.78673839569092</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.88128018379211</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.82275438308716</t>
   </si>
   <si>
     <t xml:space="preserve">2.77323222160339</t>
@@ -2669,22 +2669,22 @@
     <t xml:space="preserve">2.66968607902527</t>
   </si>
   <si>
-    <t xml:space="preserve">2.65618014335632</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.70120000839233</t>
+    <t xml:space="preserve">2.6561803817749</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.70120024681091</t>
   </si>
   <si>
     <t xml:space="preserve">2.71920824050903</t>
   </si>
   <si>
-    <t xml:space="preserve">2.59765434265137</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.62916803359985</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.63367033004761</t>
+    <t xml:space="preserve">2.59765410423279</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.62916827201843</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.63367009162903</t>
   </si>
   <si>
     <t xml:space="preserve">2.53912806510925</t>
@@ -2693,7 +2693,7 @@
     <t xml:space="preserve">2.56614017486572</t>
   </si>
   <si>
-    <t xml:space="preserve">2.54813194274902</t>
+    <t xml:space="preserve">2.5481321811676</t>
   </si>
   <si>
     <t xml:space="preserve">2.60665822029114</t>
@@ -2714,7 +2714,7 @@
     <t xml:space="preserve">2.42207622528076</t>
   </si>
   <si>
-    <t xml:space="preserve">2.41757392883301</t>
+    <t xml:space="preserve">2.41757416725159</t>
   </si>
   <si>
     <t xml:space="preserve">2.38606023788452</t>
@@ -2762,10 +2762,10 @@
     <t xml:space="preserve">2.44908809661865</t>
   </si>
   <si>
-    <t xml:space="preserve">2.3905622959137</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.32303214073181</t>
+    <t xml:space="preserve">2.39056205749512</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.32303190231323</t>
   </si>
   <si>
     <t xml:space="preserve">2.20598006248474</t>
@@ -2774,16 +2774,16 @@
     <t xml:space="preserve">2.23299217224121</t>
   </si>
   <si>
-    <t xml:space="preserve">2.16096019744873</t>
+    <t xml:space="preserve">2.16096043586731</t>
   </si>
   <si>
     <t xml:space="preserve">2.21948599815369</t>
   </si>
   <si>
-    <t xml:space="preserve">2.20147800445557</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.22398829460144</t>
+    <t xml:space="preserve">2.20147824287415</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.22398805618286</t>
   </si>
   <si>
     <t xml:space="preserve">2.24199604988098</t>
@@ -2795,7 +2795,7 @@
     <t xml:space="preserve">2.27351021766663</t>
   </si>
   <si>
-    <t xml:space="preserve">2.24649810791016</t>
+    <t xml:space="preserve">2.24649786949158</t>
   </si>
   <si>
     <t xml:space="preserve">2.21498417854309</t>
@@ -2807,16 +2807,16 @@
     <t xml:space="preserve">2.12044215202332</t>
   </si>
   <si>
-    <t xml:space="preserve">1.97187626361847</t>
+    <t xml:space="preserve">1.97187614440918</t>
   </si>
   <si>
     <t xml:space="preserve">2.03490424156189</t>
   </si>
   <si>
-    <t xml:space="preserve">1.98088014125824</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.944864153862</t>
+    <t xml:space="preserve">1.98088026046753</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.94486427307129</t>
   </si>
   <si>
     <t xml:space="preserve">1.89984405040741</t>
@@ -2834,28 +2834,28 @@
     <t xml:space="preserve">1.78279209136963</t>
   </si>
   <si>
-    <t xml:space="preserve">1.75758099555969</t>
+    <t xml:space="preserve">1.7575808763504</t>
   </si>
   <si>
     <t xml:space="preserve">1.72156488895416</t>
   </si>
   <si>
-    <t xml:space="preserve">1.7017560005188</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.73777198791504</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.8098042011261</t>
+    <t xml:space="preserve">1.70175611972809</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.73777210712433</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.80980408191681</t>
   </si>
   <si>
     <t xml:space="preserve">1.8773341178894</t>
   </si>
   <si>
-    <t xml:space="preserve">2.01689600944519</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.93135821819305</t>
+    <t xml:space="preserve">2.01689624786377</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.93135809898376</t>
   </si>
   <si>
     <t xml:space="preserve">2.06191611289978</t>
@@ -2876,25 +2876,25 @@
     <t xml:space="preserve">2.14745426177979</t>
   </si>
   <si>
-    <t xml:space="preserve">2.05291199684143</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.17896819114685</t>
+    <t xml:space="preserve">2.05291223526001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.17896842956543</t>
   </si>
   <si>
     <t xml:space="preserve">2.1879723072052</t>
   </si>
   <si>
-    <t xml:space="preserve">2.14295220375061</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.1699640750885</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.28251433372498</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.28701615333557</t>
+    <t xml:space="preserve">2.14295244216919</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.16996431350708</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.2825140953064</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.28701591491699</t>
   </si>
   <si>
     <t xml:space="preserve">2.26450610160828</t>
@@ -2909,25 +2909,25 @@
     <t xml:space="preserve">2.29151821136475</t>
   </si>
   <si>
-    <t xml:space="preserve">2.31853032112122</t>
+    <t xml:space="preserve">2.31853008270264</t>
   </si>
   <si>
     <t xml:space="preserve">2.30052208900452</t>
   </si>
   <si>
-    <t xml:space="preserve">2.30502414703369</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.2780122756958</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.25100016593933</t>
+    <t xml:space="preserve">2.30502390861511</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.27801203727722</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.25099992752075</t>
   </si>
   <si>
     <t xml:space="preserve">2.17446613311768</t>
   </si>
   <si>
-    <t xml:space="preserve">2.16546201705933</t>
+    <t xml:space="preserve">2.16546225547791</t>
   </si>
   <si>
     <t xml:space="preserve">2.19697618484497</t>
@@ -2945,10 +2945,10 @@
     <t xml:space="preserve">2.33653807640076</t>
   </si>
   <si>
-    <t xml:space="preserve">2.39506435394287</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.43108034133911</t>
+    <t xml:space="preserve">2.39506411552429</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.43108010292053</t>
   </si>
   <si>
     <t xml:space="preserve">2.40857005119324</t>
@@ -2993,28 +2993,28 @@
     <t xml:space="preserve">2.54363012313843</t>
   </si>
   <si>
-    <t xml:space="preserve">2.35904812812805</t>
+    <t xml:space="preserve">2.35904788970947</t>
   </si>
   <si>
     <t xml:space="preserve">2.32753419876099</t>
   </si>
   <si>
-    <t xml:space="preserve">2.38155794143677</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.35004425048828</t>
+    <t xml:space="preserve">2.38155817985535</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.3500440120697</t>
   </si>
   <si>
     <t xml:space="preserve">2.50761413574219</t>
   </si>
   <si>
-    <t xml:space="preserve">2.52562236785889</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.58864998817444</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.62016415596008</t>
+    <t xml:space="preserve">2.52562212944031</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.58865022659302</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.62016439437866</t>
   </si>
   <si>
     <t xml:space="preserve">2.54005122184753</t>
@@ -3381,6 +3381,9 @@
   </si>
   <si>
     <t xml:space="preserve">2.28999996185303</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.21499991416931</t>
   </si>
 </sst>
 </file>
@@ -59648,7 +59651,7 @@
     </row>
     <row r="2152">
       <c r="A2152" s="1" t="n">
-        <v>45457.6493981481</v>
+        <v>45457.2916666667</v>
       </c>
       <c r="B2152" t="n">
         <v>485067</v>
@@ -59669,6 +59672,32 @@
         <v>1116</v>
       </c>
       <c r="H2152" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2153">
+      <c r="A2153" s="1" t="n">
+        <v>45460.649525463</v>
+      </c>
+      <c r="B2153" t="n">
+        <v>229890</v>
+      </c>
+      <c r="C2153" t="n">
+        <v>2.24000000953674</v>
+      </c>
+      <c r="D2153" t="n">
+        <v>2.1949999332428</v>
+      </c>
+      <c r="E2153" t="n">
+        <v>2.1949999332428</v>
+      </c>
+      <c r="F2153" t="n">
+        <v>2.21499991416931</v>
+      </c>
+      <c r="G2153" t="s">
+        <v>1123</v>
+      </c>
+      <c r="H2153" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/ASC.MI.xlsx
+++ b/data/ASC.MI.xlsx
@@ -38,64 +38,64 @@
     <t xml:space="preserve">ticker</t>
   </si>
   <si>
-    <t xml:space="preserve">1.38786768913269</t>
+    <t xml:space="preserve">1.38786780834198</t>
   </si>
   <si>
     <t xml:space="preserve">ASC.MI</t>
   </si>
   <si>
-    <t xml:space="preserve">1.389120221138</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.37659442424774</t>
+    <t xml:space="preserve">1.38912034034729</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.37659430503845</t>
   </si>
   <si>
     <t xml:space="preserve">1.37784707546234</t>
   </si>
   <si>
-    <t xml:space="preserve">1.36281597614288</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.35530042648315</t>
+    <t xml:space="preserve">1.36281621456146</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.35530054569244</t>
   </si>
   <si>
     <t xml:space="preserve">1.38410985469818</t>
   </si>
   <si>
-    <t xml:space="preserve">1.35655283927917</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.33776414394379</t>
+    <t xml:space="preserve">1.35655319690704</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.3377640247345</t>
   </si>
   <si>
     <t xml:space="preserve">1.29642868041992</t>
   </si>
   <si>
-    <t xml:space="preserve">1.30018651485443</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.25885105133057</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.28390288352966</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.3653210401535</t>
+    <t xml:space="preserve">1.30018639564514</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.25885117053986</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.28390264511108</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.36532115936279</t>
   </si>
   <si>
     <t xml:space="preserve">1.36156320571899</t>
   </si>
   <si>
-    <t xml:space="preserve">1.35404777526855</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.38160502910614</t>
+    <t xml:space="preserve">1.35404765605927</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.38160490989685</t>
   </si>
   <si>
     <t xml:space="preserve">1.38661503791809</t>
   </si>
   <si>
-    <t xml:space="preserve">1.37158405780792</t>
+    <t xml:space="preserve">1.3715842962265</t>
   </si>
   <si>
     <t xml:space="preserve">1.30895459651947</t>
@@ -104,19 +104,19 @@
     <t xml:space="preserve">1.3152174949646</t>
   </si>
   <si>
-    <t xml:space="preserve">1.31396520137787</t>
+    <t xml:space="preserve">1.31396496295929</t>
   </si>
   <si>
     <t xml:space="preserve">1.29392349720001</t>
   </si>
   <si>
-    <t xml:space="preserve">1.31145989894867</t>
+    <t xml:space="preserve">1.31146001815796</t>
   </si>
   <si>
     <t xml:space="preserve">1.33651161193848</t>
   </si>
   <si>
-    <t xml:space="preserve">1.33400642871857</t>
+    <t xml:space="preserve">1.33400666713715</t>
   </si>
   <si>
     <t xml:space="preserve">1.34026944637299</t>
@@ -125,13 +125,13 @@
     <t xml:space="preserve">1.34277451038361</t>
   </si>
   <si>
-    <t xml:space="preserve">1.40039360523224</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.39663577079773</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.39914095401764</t>
+    <t xml:space="preserve">1.40039372444153</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.39663589000702</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.39914107322693</t>
   </si>
   <si>
     <t xml:space="preserve">1.39162540435791</t>
@@ -140,16 +140,16 @@
     <t xml:space="preserve">1.39413070678711</t>
   </si>
   <si>
-    <t xml:space="preserve">1.38035202026367</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.39287793636322</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.41166698932648</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.42043483257294</t>
+    <t xml:space="preserve">1.38035213947296</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.3928781747818</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.41166687011719</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.42043471336365</t>
   </si>
   <si>
     <t xml:space="preserve">1.42294025421143</t>
@@ -161,25 +161,25 @@
     <t xml:space="preserve">1.43546605110168</t>
   </si>
   <si>
-    <t xml:space="preserve">1.42419290542603</t>
+    <t xml:space="preserve">1.42419278621674</t>
   </si>
   <si>
     <t xml:space="preserve">1.41918241977692</t>
   </si>
   <si>
-    <t xml:space="preserve">1.43922388553619</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.4166773557663</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.43296110630035</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.43671846389771</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.4404764175415</t>
+    <t xml:space="preserve">1.4392237663269</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.41667723655701</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.43296098709106</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.43671858310699</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.44047653675079</t>
   </si>
   <si>
     <t xml:space="preserve">1.42544531822205</t>
@@ -188,37 +188,37 @@
     <t xml:space="preserve">1.4417290687561</t>
   </si>
   <si>
-    <t xml:space="preserve">1.46678054332733</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.45926535129547</t>
+    <t xml:space="preserve">1.46678078174591</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.4592649936676</t>
   </si>
   <si>
     <t xml:space="preserve">1.46177041530609</t>
   </si>
   <si>
-    <t xml:space="preserve">1.4655282497406</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.47053837776184</t>
+    <t xml:space="preserve">1.46552801132202</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.47053849697113</t>
   </si>
   <si>
     <t xml:space="preserve">1.47805404663086</t>
   </si>
   <si>
-    <t xml:space="preserve">1.45676004886627</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.45801258087158</t>
+    <t xml:space="preserve">1.45676028728485</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.45801270008087</t>
   </si>
   <si>
     <t xml:space="preserve">1.46051788330078</t>
   </si>
   <si>
-    <t xml:space="preserve">1.48181188106537</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.49057984352112</t>
+    <t xml:space="preserve">1.48181176185608</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.49058020114899</t>
   </si>
   <si>
     <t xml:space="preserve">1.49809527397156</t>
@@ -230,259 +230,259 @@
     <t xml:space="preserve">1.48431694507599</t>
   </si>
   <si>
-    <t xml:space="preserve">1.47930669784546</t>
+    <t xml:space="preserve">1.47930681705475</t>
   </si>
   <si>
     <t xml:space="preserve">1.5141693353653</t>
   </si>
   <si>
-    <t xml:space="preserve">1.51149427890778</t>
+    <t xml:space="preserve">1.51149439811707</t>
   </si>
   <si>
     <t xml:space="preserve">1.51550710201263</t>
   </si>
   <si>
-    <t xml:space="preserve">1.53155827522278</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.54894721508026</t>
+    <t xml:space="preserve">1.53155815601349</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.54894697666168</t>
   </si>
   <si>
     <t xml:space="preserve">1.54493427276611</t>
   </si>
   <si>
-    <t xml:space="preserve">1.55964827537537</t>
+    <t xml:space="preserve">1.5596479177475</t>
   </si>
   <si>
     <t xml:space="preserve">1.56767380237579</t>
   </si>
   <si>
-    <t xml:space="preserve">1.56901109218597</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.57436168193817</t>
+    <t xml:space="preserve">1.56901133060455</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.57436180114746</t>
   </si>
   <si>
     <t xml:space="preserve">1.57971215248108</t>
   </si>
   <si>
-    <t xml:space="preserve">1.58773767948151</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.61850273609161</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.61582708358765</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.63187861442566</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.64793002605438</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.67334461212158</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.63321626186371</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.64525485038757</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.62652802467346</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.67200708389282</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.74557518959045</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.75226318836212</t>
+    <t xml:space="preserve">1.5877377986908</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.6185028553009</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.61582767963409</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.63187873363495</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.6479297876358</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.67334449291229</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.633216381073</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.64525473117828</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.62652826309204</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.67200696468353</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.74557530879974</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.75226294994354</t>
   </si>
   <si>
     <t xml:space="preserve">1.73353683948517</t>
   </si>
   <si>
-    <t xml:space="preserve">1.65461778640747</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.63856673240662</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.68939566612244</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.73754942417145</t>
+    <t xml:space="preserve">1.65461814403534</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.6385669708252</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.68939578533173</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.73754954338074</t>
   </si>
   <si>
     <t xml:space="preserve">1.67869508266449</t>
   </si>
   <si>
-    <t xml:space="preserve">1.65194296836853</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.69608390331268</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.73219919204712</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.80576765537262</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.79105353355408</t>
+    <t xml:space="preserve">1.65194272994995</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.69608354568481</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.73219895362854</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.80576753616333</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.79105365276337</t>
   </si>
   <si>
     <t xml:space="preserve">1.73086154460907</t>
   </si>
   <si>
-    <t xml:space="preserve">1.78971648216248</t>
+    <t xml:space="preserve">1.7897162437439</t>
   </si>
   <si>
     <t xml:space="preserve">1.80175471305847</t>
   </si>
   <si>
-    <t xml:space="preserve">1.80309247970581</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.86328434944153</t>
+    <t xml:space="preserve">1.80309212207794</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.86328446865082</t>
   </si>
   <si>
     <t xml:space="preserve">1.86863470077515</t>
   </si>
   <si>
-    <t xml:space="preserve">1.87131011486053</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.83385717868805</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.83251953125</t>
+    <t xml:space="preserve">1.87130987644196</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.83385741710663</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.83251976966858</t>
   </si>
   <si>
     <t xml:space="preserve">1.87264776229858</t>
   </si>
   <si>
-    <t xml:space="preserve">1.88602352142334</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.84990859031677</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.84589552879333</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.85258328914642</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.86462199687958</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.90876305103302</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.94621586799622</t>
+    <t xml:space="preserve">1.88602387905121</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.84990835189819</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.84589564800262</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.85258400440216</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.86462223529816</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.90876317024231</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.94621634483337</t>
   </si>
   <si>
     <t xml:space="preserve">1.90608787536621</t>
   </si>
   <si>
-    <t xml:space="preserve">1.93685293197632</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.92347657680511</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.89939951896667</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.89806234836578</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.8953869342804</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.91946375370026</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.92615222930908</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.91277539730072</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.92882716655731</t>
+    <t xml:space="preserve">1.93685257434845</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.9234766960144</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.89939987659454</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.8980621099472</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.89538705348969</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.91946411132812</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.9261519908905</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.91277575492859</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.9288272857666</t>
   </si>
   <si>
     <t xml:space="preserve">1.91411340236664</t>
   </si>
   <si>
-    <t xml:space="preserve">1.79907929897308</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.81111776828766</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.89137423038483</t>
+    <t xml:space="preserve">1.79907941818237</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.81111788749695</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.89137399196625</t>
   </si>
   <si>
     <t xml:space="preserve">1.83920764923096</t>
   </si>
   <si>
-    <t xml:space="preserve">1.7495881319046</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.77098989486694</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.74156224727631</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.7696521282196</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.75493824481964</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.78302824497223</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.79506659507751</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.75895142555237</t>
+    <t xml:space="preserve">1.74958801269531</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.77098953723907</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.7415623664856</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.76965224742889</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.75493836402893</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.78302788734436</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.79506683349609</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.75895118713379</t>
   </si>
   <si>
     <t xml:space="preserve">1.7723274230957</t>
   </si>
   <si>
-    <t xml:space="preserve">1.75092601776123</t>
+    <t xml:space="preserve">1.75092577934265</t>
   </si>
   <si>
     <t xml:space="preserve">1.75360083580017</t>
   </si>
   <si>
-    <t xml:space="preserve">1.75627613067627</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.78035283088684</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.78837859630585</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.79239130020142</t>
+    <t xml:space="preserve">1.7562757730484</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.78035295009613</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.78837847709656</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.79239141941071</t>
   </si>
   <si>
     <t xml:space="preserve">1.79774177074432</t>
   </si>
   <si>
-    <t xml:space="preserve">1.75761377811432</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.78570342063904</t>
+    <t xml:space="preserve">1.75761365890503</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.78570330142975</t>
   </si>
   <si>
     <t xml:space="preserve">1.78169059753418</t>
@@ -491,22 +491,22 @@
     <t xml:space="preserve">1.77366483211517</t>
   </si>
   <si>
-    <t xml:space="preserve">1.7268488407135</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.66665649414062</t>
+    <t xml:space="preserve">1.72684872150421</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.66665637493134</t>
   </si>
   <si>
     <t xml:space="preserve">1.62117779254913</t>
   </si>
   <si>
-    <t xml:space="preserve">1.62251543998718</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.6278657913208</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.60913932323456</t>
+    <t xml:space="preserve">1.62251555919647</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.62786567211151</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.60913944244385</t>
   </si>
   <si>
     <t xml:space="preserve">1.69207084178925</t>
@@ -515,79 +515,79 @@
     <t xml:space="preserve">1.72417366504669</t>
   </si>
   <si>
-    <t xml:space="preserve">1.69875907897949</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.66531872749329</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.62519085407257</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.64391708374023</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.67735731601715</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.70544695854187</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.72149789333344</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.71614801883698</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.73888695240021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.7295241355896</t>
+    <t xml:space="preserve">1.69875919818878</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.66531884670258</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.62519073486328</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.64391696453094</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.67735743522644</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.70544707775116</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.72149837017059</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.71614766120911</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.73888731002808</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.72952377796173</t>
   </si>
   <si>
     <t xml:space="preserve">1.72283589839935</t>
   </si>
   <si>
-    <t xml:space="preserve">1.77633988857269</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.80710482597351</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.79640424251556</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.81914365291595</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.81513035297394</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.82181859016418</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.83519470691681</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.81245565414429</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.82048106193542</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.83118176460266</t>
+    <t xml:space="preserve">1.77634000778198</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.80710506439209</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.79640448093414</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.81914341449738</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.81513047218323</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.82181894779205</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.83519458770752</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.812455534935</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.82048082351685</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.83118212223053</t>
   </si>
   <si>
     <t xml:space="preserve">1.85124611854553</t>
   </si>
   <si>
-    <t xml:space="preserve">1.86194682121277</t>
+    <t xml:space="preserve">1.86194694042206</t>
   </si>
   <si>
     <t xml:space="preserve">1.85927164554596</t>
   </si>
   <si>
-    <t xml:space="preserve">1.82850658893585</t>
+    <t xml:space="preserve">1.82850670814514</t>
   </si>
   <si>
     <t xml:space="preserve">1.91545104980469</t>
@@ -596,10 +596,10 @@
     <t xml:space="preserve">1.90742528438568</t>
   </si>
   <si>
-    <t xml:space="preserve">1.89003682136536</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.87799823284149</t>
+    <t xml:space="preserve">1.89003658294678</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.87799835205078</t>
   </si>
   <si>
     <t xml:space="preserve">1.92481434345245</t>
@@ -608,10 +608,10 @@
     <t xml:space="preserve">1.93150234222412</t>
   </si>
   <si>
-    <t xml:space="preserve">1.89672458171844</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.93284022808075</t>
+    <t xml:space="preserve">1.89672446250916</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.93283998966217</t>
   </si>
   <si>
     <t xml:space="preserve">1.94487869739532</t>
@@ -620,19 +620,19 @@
     <t xml:space="preserve">1.91678857803345</t>
   </si>
   <si>
-    <t xml:space="preserve">1.97296810150146</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.96628034114838</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.99303233623505</t>
+    <t xml:space="preserve">1.97296857833862</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.96628022193909</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.99303245544434</t>
   </si>
   <si>
     <t xml:space="preserve">2.02647233009338</t>
   </si>
   <si>
-    <t xml:space="preserve">2.04386162757874</t>
+    <t xml:space="preserve">2.04386115074158</t>
   </si>
   <si>
     <t xml:space="preserve">2.06124997138977</t>
@@ -641,7 +641,7 @@
     <t xml:space="preserve">2.07061338424683</t>
   </si>
   <si>
-    <t xml:space="preserve">2.06660008430481</t>
+    <t xml:space="preserve">2.06660032272339</t>
   </si>
   <si>
     <t xml:space="preserve">2.11074137687683</t>
@@ -650,7 +650,7 @@
     <t xml:space="preserve">2.09469032287598</t>
   </si>
   <si>
-    <t xml:space="preserve">2.15220713615417</t>
+    <t xml:space="preserve">2.15220737457275</t>
   </si>
   <si>
     <t xml:space="preserve">2.18029713630676</t>
@@ -659,22 +659,22 @@
     <t xml:space="preserve">2.20169878005981</t>
   </si>
   <si>
-    <t xml:space="preserve">2.22176313400269</t>
+    <t xml:space="preserve">2.22176289558411</t>
   </si>
   <si>
     <t xml:space="preserve">2.18698501586914</t>
   </si>
   <si>
-    <t xml:space="preserve">2.18966031074524</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.23380136489868</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.22845101356506</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.24583983421326</t>
+    <t xml:space="preserve">2.18966007232666</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.2338011264801</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.22845077514648</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.24583959579468</t>
   </si>
   <si>
     <t xml:space="preserve">2.28730535507202</t>
@@ -683,13 +683,13 @@
     <t xml:space="preserve">2.27392959594727</t>
   </si>
   <si>
-    <t xml:space="preserve">2.2792797088623</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.32074546813965</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.3301088809967</t>
+    <t xml:space="preserve">2.27927994728088</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.32074570655823</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.33010864257812</t>
   </si>
   <si>
     <t xml:space="preserve">2.3448224067688</t>
@@ -698,67 +698,67 @@
     <t xml:space="preserve">2.35418558120728</t>
   </si>
   <si>
-    <t xml:space="preserve">2.35819840431213</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.34080982208252</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.36756181716919</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.35953593254089</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.35552310943604</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.3394718170166</t>
+    <t xml:space="preserve">2.35819864273071</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.34080958366394</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.36756134033203</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.35953617095947</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.35552358627319</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.33947205543518</t>
   </si>
   <si>
     <t xml:space="preserve">2.35151052474976</t>
   </si>
   <si>
-    <t xml:space="preserve">2.40367698669434</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.37023711204529</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.36622405052185</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.40768980979919</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.39832639694214</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.402339220047</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.42240357398987</t>
+    <t xml:space="preserve">2.40367722511292</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.37023687362671</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.36622428894043</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.40769004821777</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.39832663536072</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.40233969688416</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.42240381240845</t>
   </si>
   <si>
     <t xml:space="preserve">2.47457027435303</t>
   </si>
   <si>
-    <t xml:space="preserve">2.48259592056274</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.52941203117371</t>
+    <t xml:space="preserve">2.48259568214417</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.52941179275513</t>
   </si>
   <si>
     <t xml:space="preserve">2.56031012535095</t>
   </si>
   <si>
-    <t xml:space="preserve">2.54626536369324</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.53222060203552</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.5125584602356</t>
+    <t xml:space="preserve">2.54626560211182</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.5322208404541</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.51255869865417</t>
   </si>
   <si>
     <t xml:space="preserve">2.44795417785645</t>
@@ -767,16 +767,16 @@
     <t xml:space="preserve">2.44374060630798</t>
   </si>
   <si>
-    <t xml:space="preserve">2.48587441444397</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.44514536857605</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.43110060691833</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.49991846084595</t>
+    <t xml:space="preserve">2.48587417602539</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.44514489173889</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.43110084533691</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.49991869926453</t>
   </si>
   <si>
     <t xml:space="preserve">2.51677203178406</t>
@@ -785,79 +785,79 @@
     <t xml:space="preserve">2.53643441200256</t>
   </si>
   <si>
-    <t xml:space="preserve">2.55188322067261</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.57014107704163</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.55609679222107</t>
+    <t xml:space="preserve">2.55188345909119</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.57014083862305</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.55609655380249</t>
   </si>
   <si>
     <t xml:space="preserve">2.49710988998413</t>
   </si>
   <si>
-    <t xml:space="preserve">2.53783869743347</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.54486107826233</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.56311869621277</t>
+    <t xml:space="preserve">2.53783893585205</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.54486131668091</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.56311893463135</t>
   </si>
   <si>
     <t xml:space="preserve">2.56873679161072</t>
   </si>
   <si>
-    <t xml:space="preserve">2.54064774513245</t>
+    <t xml:space="preserve">2.54064750671387</t>
   </si>
   <si>
     <t xml:space="preserve">2.52800750732422</t>
   </si>
   <si>
-    <t xml:space="preserve">2.54907441139221</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.55047869682312</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.54345655441284</t>
+    <t xml:space="preserve">2.54907464981079</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.5504789352417</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.54345679283142</t>
   </si>
   <si>
     <t xml:space="preserve">2.61087012290955</t>
   </si>
   <si>
-    <t xml:space="preserve">2.52519869804382</t>
+    <t xml:space="preserve">2.52519845962524</t>
   </si>
   <si>
     <t xml:space="preserve">2.5097496509552</t>
   </si>
   <si>
-    <t xml:space="preserve">2.49149179458618</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.49289608001709</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.44654989242554</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.43671846389771</t>
+    <t xml:space="preserve">2.49149203300476</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.49289655685425</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.44654965400696</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.43671822547913</t>
   </si>
   <si>
     <t xml:space="preserve">2.46340298652649</t>
   </si>
   <si>
-    <t xml:space="preserve">2.45357179641724</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.45076298713684</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.45497632026672</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.46059393882751</t>
+    <t xml:space="preserve">2.45357203483582</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.45076274871826</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.45497608184814</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.46059370040894</t>
   </si>
   <si>
     <t xml:space="preserve">2.43531394004822</t>
@@ -878,37 +878,37 @@
     <t xml:space="preserve">2.43250513076782</t>
   </si>
   <si>
-    <t xml:space="preserve">2.52098560333252</t>
+    <t xml:space="preserve">2.52098536491394</t>
   </si>
   <si>
     <t xml:space="preserve">2.51536774635315</t>
   </si>
   <si>
-    <t xml:space="preserve">2.52660322189331</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.51115393638611</t>
+    <t xml:space="preserve">2.52660298347473</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.51115417480469</t>
   </si>
   <si>
     <t xml:space="preserve">2.49008750915527</t>
   </si>
   <si>
-    <t xml:space="preserve">2.47182965278625</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.47323393821716</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.4577853679657</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.48446989059448</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.44093155860901</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.48868322372437</t>
+    <t xml:space="preserve">2.47182989120483</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.47323417663574</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.45778512954712</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.48447012901306</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.44093179702759</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.48868298530579</t>
   </si>
   <si>
     <t xml:space="preserve">2.5729501247406</t>
@@ -917,61 +917,61 @@
     <t xml:space="preserve">2.53502988815308</t>
   </si>
   <si>
-    <t xml:space="preserve">2.55890560150146</t>
+    <t xml:space="preserve">2.55890583992004</t>
   </si>
   <si>
     <t xml:space="preserve">2.4802565574646</t>
   </si>
   <si>
-    <t xml:space="preserve">2.48166036605835</t>
+    <t xml:space="preserve">2.48166060447693</t>
   </si>
   <si>
     <t xml:space="preserve">2.46761631965637</t>
   </si>
   <si>
-    <t xml:space="preserve">2.461998462677</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.53081631660461</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.5069408416748</t>
+    <t xml:space="preserve">2.46199870109558</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.53081655502319</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.50694108009338</t>
   </si>
   <si>
     <t xml:space="preserve">2.53362536430359</t>
   </si>
   <si>
-    <t xml:space="preserve">2.50272750854492</t>
+    <t xml:space="preserve">2.50272727012634</t>
   </si>
   <si>
     <t xml:space="preserve">2.55469226837158</t>
   </si>
   <si>
-    <t xml:space="preserve">2.57435441017151</t>
+    <t xml:space="preserve">2.57435417175293</t>
   </si>
   <si>
     <t xml:space="preserve">2.61227464675903</t>
   </si>
   <si>
-    <t xml:space="preserve">2.62351036071777</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.67828345298767</t>
+    <t xml:space="preserve">2.62351012229919</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.67828369140625</t>
   </si>
   <si>
     <t xml:space="preserve">2.65581250190735</t>
   </si>
   <si>
-    <t xml:space="preserve">2.65440821647644</t>
+    <t xml:space="preserve">2.65440797805786</t>
   </si>
   <si>
     <t xml:space="preserve">2.6881148815155</t>
   </si>
   <si>
-    <t xml:space="preserve">2.59120798110962</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.59682583808899</t>
+    <t xml:space="preserve">2.59120774269104</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.59682559967041</t>
   </si>
   <si>
     <t xml:space="preserve">2.54205203056335</t>
@@ -980,13 +980,13 @@
     <t xml:space="preserve">2.56733226776123</t>
   </si>
   <si>
-    <t xml:space="preserve">2.61367917060852</t>
+    <t xml:space="preserve">2.61367893218994</t>
   </si>
   <si>
     <t xml:space="preserve">2.5982301235199</t>
   </si>
   <si>
-    <t xml:space="preserve">2.5799720287323</t>
+    <t xml:space="preserve">2.57997226715088</t>
   </si>
   <si>
     <t xml:space="preserve">2.56452345848083</t>
@@ -995,34 +995,34 @@
     <t xml:space="preserve">2.58839893341064</t>
   </si>
   <si>
-    <t xml:space="preserve">2.51396322250366</t>
+    <t xml:space="preserve">2.51396298408508</t>
   </si>
   <si>
     <t xml:space="preserve">2.56663012504578</t>
   </si>
   <si>
-    <t xml:space="preserve">2.58418583869934</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.57716369628906</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.58067440986633</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.51747417449951</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.31734037399292</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.21902918815613</t>
+    <t xml:space="preserve">2.58418536186218</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.57716345787048</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.58067417144775</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.51747441291809</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.31734013557434</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.21902894973755</t>
   </si>
   <si>
     <t xml:space="preserve">2.28222894668579</t>
   </si>
   <si>
-    <t xml:space="preserve">2.25062870979309</t>
+    <t xml:space="preserve">2.25062894821167</t>
   </si>
   <si>
     <t xml:space="preserve">2.21200680732727</t>
@@ -1031,19 +1031,19 @@
     <t xml:space="preserve">2.26818466186523</t>
   </si>
   <si>
-    <t xml:space="preserve">2.25765085220337</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.29627370834351</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.30329561233521</t>
+    <t xml:space="preserve">2.25765109062195</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.29627346992493</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.30329585075378</t>
   </si>
   <si>
     <t xml:space="preserve">2.24360680580139</t>
   </si>
   <si>
-    <t xml:space="preserve">2.22605109214783</t>
+    <t xml:space="preserve">2.22605156898499</t>
   </si>
   <si>
     <t xml:space="preserve">2.20147323608398</t>
@@ -1061,34 +1061,34 @@
     <t xml:space="preserve">2.19796228408813</t>
   </si>
   <si>
-    <t xml:space="preserve">2.22253966331482</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.26467323303223</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.21551775932312</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.24711775779724</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.25413990020752</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.30680727958679</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.28574013710022</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.23658466339111</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.24009537696838</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.27871751785278</t>
+    <t xml:space="preserve">2.22254014015198</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.26467347145081</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.2155179977417</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.24711799621582</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.25414037704468</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.30680680274963</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.2857403755188</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.23658442497253</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.24009561538696</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.27871799468994</t>
   </si>
   <si>
     <t xml:space="preserve">2.28925156593323</t>
@@ -1103,25 +1103,25 @@
     <t xml:space="preserve">2.31031799316406</t>
   </si>
   <si>
-    <t xml:space="preserve">2.33489584922791</t>
+    <t xml:space="preserve">2.33489608764648</t>
   </si>
   <si>
     <t xml:space="preserve">2.33840727806091</t>
   </si>
   <si>
-    <t xml:space="preserve">2.3875629901886</t>
+    <t xml:space="preserve">2.38756275177002</t>
   </si>
   <si>
     <t xml:space="preserve">2.47885203361511</t>
   </si>
   <si>
-    <t xml:space="preserve">2.46129655838013</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.47980237007141</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.44279026985168</t>
+    <t xml:space="preserve">2.46129608154297</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.47980213165283</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.44279050827026</t>
   </si>
   <si>
     <t xml:space="preserve">2.39837598800659</t>
@@ -1130,28 +1130,28 @@
     <t xml:space="preserve">2.36876654624939</t>
   </si>
   <si>
-    <t xml:space="preserve">2.41318035125732</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.3539617061615</t>
+    <t xml:space="preserve">2.41318082809448</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.35396146774292</t>
   </si>
   <si>
     <t xml:space="preserve">2.31694960594177</t>
   </si>
   <si>
-    <t xml:space="preserve">2.30584573745728</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.29844331741333</t>
+    <t xml:space="preserve">2.30584621429443</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.29844379425049</t>
   </si>
   <si>
     <t xml:space="preserve">2.29104113578796</t>
   </si>
   <si>
-    <t xml:space="preserve">2.27993750572205</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.26143169403076</t>
+    <t xml:space="preserve">2.27993774414062</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.26143145561218</t>
   </si>
   <si>
     <t xml:space="preserve">2.22441983222961</t>
@@ -1163,10 +1163,10 @@
     <t xml:space="preserve">2.18370652198792</t>
   </si>
   <si>
-    <t xml:space="preserve">2.23182201385498</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.22071838378906</t>
+    <t xml:space="preserve">2.23182225227356</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.22071862220764</t>
   </si>
   <si>
     <t xml:space="preserve">2.20591378211975</t>
@@ -1175,19 +1175,19 @@
     <t xml:space="preserve">2.18000531196594</t>
   </si>
   <si>
-    <t xml:space="preserve">2.25773048400879</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.26513290405273</t>
+    <t xml:space="preserve">2.25773024559021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.26513266563416</t>
   </si>
   <si>
     <t xml:space="preserve">2.2022123336792</t>
   </si>
   <si>
-    <t xml:space="preserve">2.21331596374512</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.21701693534851</t>
+    <t xml:space="preserve">2.2133162021637</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.21701717376709</t>
   </si>
   <si>
     <t xml:space="preserve">2.16149950027466</t>
@@ -1199,7 +1199,7 @@
     <t xml:space="preserve">2.24662685394287</t>
   </si>
   <si>
-    <t xml:space="preserve">2.18740749359131</t>
+    <t xml:space="preserve">2.18740773200989</t>
   </si>
   <si>
     <t xml:space="preserve">2.16890168190002</t>
@@ -1211,31 +1211,31 @@
     <t xml:space="preserve">2.13929224014282</t>
   </si>
   <si>
-    <t xml:space="preserve">2.13559079170227</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.12078642845154</t>
+    <t xml:space="preserve">2.13559103012085</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.12078619003296</t>
   </si>
   <si>
     <t xml:space="preserve">2.12448716163635</t>
   </si>
   <si>
-    <t xml:space="preserve">2.14669442176819</t>
+    <t xml:space="preserve">2.14669466018677</t>
   </si>
   <si>
     <t xml:space="preserve">2.11708474159241</t>
   </si>
   <si>
-    <t xml:space="preserve">2.10968255996704</t>
+    <t xml:space="preserve">2.10968232154846</t>
   </si>
   <si>
     <t xml:space="preserve">2.32435202598572</t>
   </si>
   <si>
-    <t xml:space="preserve">2.33175420761108</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.37246775627136</t>
+    <t xml:space="preserve">2.33175444602966</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.37246751785278</t>
   </si>
   <si>
     <t xml:space="preserve">2.62044763565063</t>
@@ -1244,19 +1244,19 @@
     <t xml:space="preserve">2.48350358009338</t>
   </si>
   <si>
-    <t xml:space="preserve">2.41688179969788</t>
+    <t xml:space="preserve">2.41688203811646</t>
   </si>
   <si>
     <t xml:space="preserve">2.42058300971985</t>
   </si>
   <si>
-    <t xml:space="preserve">2.40577816963196</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.36506509780884</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.32065057754517</t>
+    <t xml:space="preserve">2.40577793121338</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.36506533622742</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.32065081596375</t>
   </si>
   <si>
     <t xml:space="preserve">2.29474234580994</t>
@@ -1265,13 +1265,13 @@
     <t xml:space="preserve">2.23922443389893</t>
   </si>
   <si>
-    <t xml:space="preserve">2.30954694747925</t>
+    <t xml:space="preserve">2.30954718589783</t>
   </si>
   <si>
     <t xml:space="preserve">2.27623653411865</t>
   </si>
   <si>
-    <t xml:space="preserve">2.28363871574402</t>
+    <t xml:space="preserve">2.2836389541626</t>
   </si>
   <si>
     <t xml:space="preserve">2.3021445274353</t>
@@ -1280,10 +1280,10 @@
     <t xml:space="preserve">2.31324815750122</t>
   </si>
   <si>
-    <t xml:space="preserve">2.34285807609558</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.33915710449219</t>
+    <t xml:space="preserve">2.342857837677</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.33915662765503</t>
   </si>
   <si>
     <t xml:space="preserve">2.33545565605164</t>
@@ -1292,79 +1292,79 @@
     <t xml:space="preserve">2.34655928611755</t>
   </si>
   <si>
-    <t xml:space="preserve">2.2429256439209</t>
+    <t xml:space="preserve">2.24292588233948</t>
   </si>
   <si>
     <t xml:space="preserve">2.17630410194397</t>
   </si>
   <si>
-    <t xml:space="preserve">2.19110870361328</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.23552346229553</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.08747529983521</t>
+    <t xml:space="preserve">2.19110894203186</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.23552322387695</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.08747553825378</t>
   </si>
   <si>
     <t xml:space="preserve">2.15039563179016</t>
   </si>
   <si>
-    <t xml:space="preserve">2.15409708023071</t>
+    <t xml:space="preserve">2.15409684181213</t>
   </si>
   <si>
     <t xml:space="preserve">2.25402927398682</t>
   </si>
   <si>
-    <t xml:space="preserve">2.27253532409668</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.25032782554626</t>
+    <t xml:space="preserve">2.2725350856781</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.25032806396484</t>
   </si>
   <si>
     <t xml:space="preserve">2.22812080383301</t>
   </si>
   <si>
-    <t xml:space="preserve">2.40207695960999</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.43168687820435</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.3835711479187</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.35766291618347</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.37616896629333</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.37987017631531</t>
+    <t xml:space="preserve">2.40207719802856</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.43168663978577</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.38357090950012</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.35766267776489</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.37616872787476</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.37986969947815</t>
   </si>
   <si>
     <t xml:space="preserve">2.4242844581604</t>
   </si>
   <si>
-    <t xml:space="preserve">2.42798542976379</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.44649147987366</t>
+    <t xml:space="preserve">2.42798566818237</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.44649124145508</t>
   </si>
   <si>
     <t xml:space="preserve">2.45019268989563</t>
   </si>
   <si>
-    <t xml:space="preserve">2.50200963020325</t>
+    <t xml:space="preserve">2.50200939178467</t>
   </si>
   <si>
     <t xml:space="preserve">2.49460697174072</t>
   </si>
   <si>
-    <t xml:space="preserve">2.49090600013733</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.51311278343201</t>
+    <t xml:space="preserve">2.49090576171875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.51311326026917</t>
   </si>
   <si>
     <t xml:space="preserve">2.4983081817627</t>
@@ -1373,7 +1373,7 @@
     <t xml:space="preserve">2.50571060180664</t>
   </si>
   <si>
-    <t xml:space="preserve">2.56122851371765</t>
+    <t xml:space="preserve">2.56122875213623</t>
   </si>
   <si>
     <t xml:space="preserve">2.53161907196045</t>
@@ -1382,10 +1382,10 @@
     <t xml:space="preserve">2.5686309337616</t>
   </si>
   <si>
-    <t xml:space="preserve">2.52791738510132</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.53902149200439</t>
+    <t xml:space="preserve">2.5279176235199</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.53902173042297</t>
   </si>
   <si>
     <t xml:space="preserve">2.52051520347595</t>
@@ -1394,10 +1394,10 @@
     <t xml:space="preserve">2.5242166519165</t>
   </si>
   <si>
-    <t xml:space="preserve">2.54272270202637</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.55382633209229</t>
+    <t xml:space="preserve">2.54272246360779</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.55382609367371</t>
   </si>
   <si>
     <t xml:space="preserve">2.57603335380554</t>
@@ -1409,22 +1409,22 @@
     <t xml:space="preserve">2.59083819389343</t>
   </si>
   <si>
-    <t xml:space="preserve">2.57973432540894</t>
+    <t xml:space="preserve">2.57973456382751</t>
   </si>
   <si>
     <t xml:space="preserve">2.62785005569458</t>
   </si>
   <si>
-    <t xml:space="preserve">2.64635634422302</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.64265513420105</t>
+    <t xml:space="preserve">2.64635610580444</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.64265465736389</t>
   </si>
   <si>
     <t xml:space="preserve">2.6389536857605</t>
   </si>
   <si>
-    <t xml:space="preserve">2.65745997428894</t>
+    <t xml:space="preserve">2.65745949745178</t>
   </si>
   <si>
     <t xml:space="preserve">2.67226457595825</t>
@@ -1433,19 +1433,19 @@
     <t xml:space="preserve">2.71297764778137</t>
   </si>
   <si>
-    <t xml:space="preserve">2.72778224945068</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.70187449455261</t>
+    <t xml:space="preserve">2.72778248786926</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.70187401771545</t>
   </si>
   <si>
     <t xml:space="preserve">2.69077038764954</t>
   </si>
   <si>
-    <t xml:space="preserve">2.74258685112</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.75739216804504</t>
+    <t xml:space="preserve">2.74258708953857</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.75739192962646</t>
   </si>
   <si>
     <t xml:space="preserve">2.82401347160339</t>
@@ -1460,13 +1460,13 @@
     <t xml:space="preserve">2.83881831169128</t>
   </si>
   <si>
-    <t xml:space="preserve">3.02654075622559</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.74035263061523</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.73643183708191</t>
+    <t xml:space="preserve">3.02654099464417</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.74035239219666</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.73643207550049</t>
   </si>
   <si>
     <t xml:space="preserve">2.68938755989075</t>
@@ -1484,7 +1484,7 @@
     <t xml:space="preserve">2.84228253364563</t>
   </si>
   <si>
-    <t xml:space="preserve">2.79915857315063</t>
+    <t xml:space="preserve">2.79915833473206</t>
   </si>
   <si>
     <t xml:space="preserve">2.82268071174622</t>
@@ -1496,22 +1496,22 @@
     <t xml:space="preserve">2.7756359577179</t>
   </si>
   <si>
-    <t xml:space="preserve">2.76779508590698</t>
+    <t xml:space="preserve">2.76779532432556</t>
   </si>
   <si>
     <t xml:space="preserve">2.79131746292114</t>
   </si>
   <si>
-    <t xml:space="preserve">2.78739714622498</t>
+    <t xml:space="preserve">2.78739738464355</t>
   </si>
   <si>
     <t xml:space="preserve">2.84620332717896</t>
   </si>
   <si>
-    <t xml:space="preserve">2.85796427726746</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.82660126686096</t>
+    <t xml:space="preserve">2.85796451568604</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.8266007900238</t>
   </si>
   <si>
     <t xml:space="preserve">2.8344419002533</t>
@@ -1520,22 +1520,22 @@
     <t xml:space="preserve">2.85012340545654</t>
   </si>
   <si>
-    <t xml:space="preserve">2.86188507080078</t>
+    <t xml:space="preserve">2.86188459396362</t>
   </si>
   <si>
     <t xml:space="preserve">2.8736457824707</t>
   </si>
   <si>
-    <t xml:space="preserve">2.99517774581909</t>
+    <t xml:space="preserve">2.99517750740051</t>
   </si>
   <si>
     <t xml:space="preserve">2.92461085319519</t>
   </si>
   <si>
-    <t xml:space="preserve">2.95597386360168</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.97165560722351</t>
+    <t xml:space="preserve">2.95597410202026</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.97165536880493</t>
   </si>
   <si>
     <t xml:space="preserve">2.94813299179077</t>
@@ -1547,25 +1547,25 @@
     <t xml:space="preserve">2.96381449699402</t>
   </si>
   <si>
-    <t xml:space="preserve">2.95989441871643</t>
+    <t xml:space="preserve">2.95989465713501</t>
   </si>
   <si>
     <t xml:space="preserve">3.00693893432617</t>
   </si>
   <si>
-    <t xml:space="preserve">3.10494875907898</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.06966519355774</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.03830218315125</t>
+    <t xml:space="preserve">3.1049485206604</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.06966543197632</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.03830194473267</t>
   </si>
   <si>
     <t xml:space="preserve">3.07750606536865</t>
   </si>
   <si>
-    <t xml:space="preserve">3.13631176948547</t>
+    <t xml:space="preserve">3.13631200790405</t>
   </si>
   <si>
     <t xml:space="preserve">3.15983438491821</t>
@@ -1574,7 +1574,7 @@
     <t xml:space="preserve">3.18335652351379</t>
   </si>
   <si>
-    <t xml:space="preserve">3.23824191093445</t>
+    <t xml:space="preserve">3.23824214935303</t>
   </si>
   <si>
     <t xml:space="preserve">3.25000309944153</t>
@@ -1583,7 +1583,7 @@
     <t xml:space="preserve">3.25392365455627</t>
   </si>
   <si>
-    <t xml:space="preserve">3.2696053981781</t>
+    <t xml:space="preserve">3.26960515975952</t>
   </si>
   <si>
     <t xml:space="preserve">3.30096840858459</t>
@@ -1595,16 +1595,16 @@
     <t xml:space="preserve">3.3127293586731</t>
   </si>
   <si>
-    <t xml:space="preserve">3.27744555473328</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.20687913894653</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.22648048400879</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.25784397125244</t>
+    <t xml:space="preserve">3.27744579315186</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.20687890052795</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.22648072242737</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.25784420967102</t>
   </si>
   <si>
     <t xml:space="preserve">3.24216246604919</t>
@@ -1613,16 +1613,16 @@
     <t xml:space="preserve">3.19119739532471</t>
   </si>
   <si>
-    <t xml:space="preserve">3.14023208618164</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.12847113609314</t>
+    <t xml:space="preserve">3.14023232460022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.12847137451172</t>
   </si>
   <si>
     <t xml:space="preserve">3.11670970916748</t>
   </si>
   <si>
-    <t xml:space="preserve">3.05006337165833</t>
+    <t xml:space="preserve">3.05006313323975</t>
   </si>
   <si>
     <t xml:space="preserve">3.05398368835449</t>
@@ -1631,13 +1631,13 @@
     <t xml:space="preserve">3.21864008903503</t>
   </si>
   <si>
-    <t xml:space="preserve">3.21471977233887</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.16375470161438</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.14807319641113</t>
+    <t xml:space="preserve">3.21471953392029</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.1637544631958</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.14807295799255</t>
   </si>
   <si>
     <t xml:space="preserve">3.04222273826599</t>
@@ -1646,19 +1646,19 @@
     <t xml:space="preserve">3.12063026428223</t>
   </si>
   <si>
-    <t xml:space="preserve">3.12455058097839</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.08534669876099</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.08926749229431</t>
+    <t xml:space="preserve">3.12455081939697</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.08534693717957</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.08926725387573</t>
   </si>
   <si>
     <t xml:space="preserve">3.11278963088989</t>
   </si>
   <si>
-    <t xml:space="preserve">3.10102844238281</t>
+    <t xml:space="preserve">3.10102868080139</t>
   </si>
   <si>
     <t xml:space="preserve">2.98341679573059</t>
@@ -1667,7 +1667,7 @@
     <t xml:space="preserve">2.88148641586304</t>
   </si>
   <si>
-    <t xml:space="preserve">2.93637204170227</t>
+    <t xml:space="preserve">2.93637180328369</t>
   </si>
   <si>
     <t xml:space="preserve">2.97557616233826</t>
@@ -1679,28 +1679,28 @@
     <t xml:space="preserve">2.97949624061584</t>
   </si>
   <si>
-    <t xml:space="preserve">2.99909806251526</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.00301837921143</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.05790424346924</t>
+    <t xml:space="preserve">2.99909830093384</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.00301861763</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.05790448188782</t>
   </si>
   <si>
     <t xml:space="preserve">3.0343816280365</t>
   </si>
   <si>
-    <t xml:space="preserve">3.06574511528015</t>
+    <t xml:space="preserve">3.06574487686157</t>
   </si>
   <si>
     <t xml:space="preserve">3.04614281654358</t>
   </si>
   <si>
-    <t xml:space="preserve">3.03046131134033</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.9324517250061</t>
+    <t xml:space="preserve">3.03046154975891</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.93245196342468</t>
   </si>
   <si>
     <t xml:space="preserve">2.91284966468811</t>
@@ -1715,7 +1715,7 @@
     <t xml:space="preserve">2.89324760437012</t>
   </si>
   <si>
-    <t xml:space="preserve">3.01869988441467</t>
+    <t xml:space="preserve">3.01870012283325</t>
   </si>
   <si>
     <t xml:space="preserve">3.1519935131073</t>
@@ -1724,7 +1724,7 @@
     <t xml:space="preserve">3.17551589012146</t>
   </si>
   <si>
-    <t xml:space="preserve">3.09710836410522</t>
+    <t xml:space="preserve">3.09710788726807</t>
   </si>
   <si>
     <t xml:space="preserve">3.10886907577515</t>
@@ -1733,13 +1733,13 @@
     <t xml:space="preserve">3.02262043952942</t>
   </si>
   <si>
-    <t xml:space="preserve">3.01085901260376</t>
+    <t xml:space="preserve">3.01085948944092</t>
   </si>
   <si>
     <t xml:space="preserve">2.91677021980286</t>
   </si>
   <si>
-    <t xml:space="preserve">2.9520537853241</t>
+    <t xml:space="preserve">2.95205354690552</t>
   </si>
   <si>
     <t xml:space="preserve">2.99125742912292</t>
@@ -1751,46 +1751,46 @@
     <t xml:space="preserve">3.46562480926514</t>
   </si>
   <si>
-    <t xml:space="preserve">3.5479531288147</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.48522639274597</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.58323621749878</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.52443075180054</t>
+    <t xml:space="preserve">3.54795289039612</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.48522686958313</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.58323645591736</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.52443027496338</t>
   </si>
   <si>
     <t xml:space="preserve">3.58715677261353</t>
   </si>
   <si>
-    <t xml:space="preserve">3.61459970474243</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.5165901184082</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.4225001335144</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.39505767822266</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.37937617301941</t>
+    <t xml:space="preserve">3.61459946632385</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.51658964157104</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.42249989509583</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.39505743980408</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.37937593460083</t>
   </si>
   <si>
     <t xml:space="preserve">3.43818211555481</t>
   </si>
   <si>
-    <t xml:space="preserve">3.48130631446838</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.45386338233948</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.28920722007751</t>
+    <t xml:space="preserve">3.4813060760498</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.45386362075806</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.28920745849609</t>
   </si>
   <si>
     <t xml:space="preserve">3.26176428794861</t>
@@ -1799,31 +1799,31 @@
     <t xml:space="preserve">3.21079921722412</t>
   </si>
   <si>
-    <t xml:space="preserve">3.0814266204834</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.26568484306335</t>
+    <t xml:space="preserve">3.08142638206482</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.26568460464478</t>
   </si>
   <si>
     <t xml:space="preserve">3.23432159423828</t>
   </si>
   <si>
-    <t xml:space="preserve">3.19511771202087</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.69722819328308</t>
+    <t xml:space="preserve">3.19511747360229</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.69722843170166</t>
   </si>
   <si>
     <t xml:space="preserve">2.13269209861755</t>
   </si>
   <si>
-    <t xml:space="preserve">2.36399507522583</t>
+    <t xml:space="preserve">2.36399531364441</t>
   </si>
   <si>
     <t xml:space="preserve">2.45024347305298</t>
   </si>
   <si>
-    <t xml:space="preserve">2.49336814880371</t>
+    <t xml:space="preserve">2.49336791038513</t>
   </si>
   <si>
     <t xml:space="preserve">2.50512909889221</t>
@@ -1835,16 +1835,16 @@
     <t xml:space="preserve">2.61882042884827</t>
   </si>
   <si>
-    <t xml:space="preserve">2.60313892364502</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.63450217247009</t>
+    <t xml:space="preserve">2.60313868522644</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.63450193405151</t>
   </si>
   <si>
     <t xml:space="preserve">2.58353710174561</t>
   </si>
   <si>
-    <t xml:space="preserve">2.54433298110962</t>
+    <t xml:space="preserve">2.5443332195282</t>
   </si>
   <si>
     <t xml:space="preserve">2.51689052581787</t>
@@ -1853,7 +1853,7 @@
     <t xml:space="preserve">2.63842248916626</t>
   </si>
   <si>
-    <t xml:space="preserve">2.49728846549988</t>
+    <t xml:space="preserve">2.4972882270813</t>
   </si>
   <si>
     <t xml:space="preserve">2.50904965400696</t>
@@ -1862,7 +1862,7 @@
     <t xml:space="preserve">2.46984553337097</t>
   </si>
   <si>
-    <t xml:space="preserve">2.5129702091217</t>
+    <t xml:space="preserve">2.51296973228455</t>
   </si>
   <si>
     <t xml:space="preserve">2.53257203102112</t>
@@ -1871,13 +1871,13 @@
     <t xml:space="preserve">2.54041266441345</t>
   </si>
   <si>
-    <t xml:space="preserve">2.52865171432495</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.54825329780579</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.52473115921021</t>
+    <t xml:space="preserve">2.52865123748779</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.54825305938721</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.52473092079163</t>
   </si>
   <si>
     <t xml:space="preserve">2.57177567481995</t>
@@ -1889,28 +1889,28 @@
     <t xml:space="preserve">2.64234280586243</t>
   </si>
   <si>
-    <t xml:space="preserve">2.61097955703735</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.65018367767334</t>
+    <t xml:space="preserve">2.61097979545593</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.65018343925476</t>
   </si>
   <si>
     <t xml:space="preserve">2.62274074554443</t>
   </si>
   <si>
-    <t xml:space="preserve">2.62666130065918</t>
+    <t xml:space="preserve">2.6266610622406</t>
   </si>
   <si>
     <t xml:space="preserve">2.72075057029724</t>
   </si>
   <si>
-    <t xml:space="preserve">2.92069053649902</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.30880856513977</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.44994330406189</t>
+    <t xml:space="preserve">2.92069029808044</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.30880880355835</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.44994306564331</t>
   </si>
   <si>
     <t xml:space="preserve">3.43426179885864</t>
@@ -1919,13 +1919,13 @@
     <t xml:space="preserve">3.50703978538513</t>
   </si>
   <si>
-    <t xml:space="preserve">3.32983326911926</t>
+    <t xml:space="preserve">3.32983303070068</t>
   </si>
   <si>
     <t xml:space="preserve">3.25565385818481</t>
   </si>
   <si>
-    <t xml:space="preserve">3.14438462257385</t>
+    <t xml:space="preserve">3.14438486099243</t>
   </si>
   <si>
     <t xml:space="preserve">3.1402633190155</t>
@@ -1937,13 +1937,13 @@
     <t xml:space="preserve">3.24741172790527</t>
   </si>
   <si>
-    <t xml:space="preserve">3.1938374042511</t>
+    <t xml:space="preserve">3.19383764266968</t>
   </si>
   <si>
     <t xml:space="preserve">3.22680616378784</t>
   </si>
   <si>
-    <t xml:space="preserve">3.2721381187439</t>
+    <t xml:space="preserve">3.27213835716248</t>
   </si>
   <si>
     <t xml:space="preserve">3.2185640335083</t>
@@ -1955,31 +1955,31 @@
     <t xml:space="preserve">3.06196308135986</t>
   </si>
   <si>
-    <t xml:space="preserve">3.08256816864014</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.09081053733826</t>
+    <t xml:space="preserve">3.08256840705872</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.09081029891968</t>
   </si>
   <si>
     <t xml:space="preserve">3.11965823173523</t>
   </si>
   <si>
-    <t xml:space="preserve">3.08668947219849</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.05784177780151</t>
+    <t xml:space="preserve">3.08668923377991</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.05784201622009</t>
   </si>
   <si>
     <t xml:space="preserve">3.04135751724243</t>
   </si>
   <si>
-    <t xml:space="preserve">3.00014686584473</t>
+    <t xml:space="preserve">3.00014710426331</t>
   </si>
   <si>
     <t xml:space="preserve">2.94245147705078</t>
   </si>
   <si>
-    <t xml:space="preserve">2.91360425949097</t>
+    <t xml:space="preserve">2.91360402107239</t>
   </si>
   <si>
     <t xml:space="preserve">2.93008852005005</t>
@@ -1988,7 +1988,7 @@
     <t xml:space="preserve">2.91772484779358</t>
   </si>
   <si>
-    <t xml:space="preserve">2.9012405872345</t>
+    <t xml:space="preserve">2.90124082565308</t>
   </si>
   <si>
     <t xml:space="preserve">2.90536212921143</t>
@@ -1997,52 +1997,52 @@
     <t xml:space="preserve">2.86827206611633</t>
   </si>
   <si>
-    <t xml:space="preserve">2.78997159004211</t>
+    <t xml:space="preserve">2.78997135162354</t>
   </si>
   <si>
     <t xml:space="preserve">2.92184638977051</t>
   </si>
   <si>
-    <t xml:space="preserve">2.87651419639587</t>
+    <t xml:space="preserve">2.87651443481445</t>
   </si>
   <si>
     <t xml:space="preserve">2.89299845695496</t>
   </si>
   <si>
-    <t xml:space="preserve">2.80233478546143</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.76112389564514</t>
+    <t xml:space="preserve">2.80233502388</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.76112413406372</t>
   </si>
   <si>
     <t xml:space="preserve">2.74463987350464</t>
   </si>
   <si>
-    <t xml:space="preserve">2.7528817653656</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.7116711139679</t>
+    <t xml:space="preserve">2.75288200378418</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.71167087554932</t>
   </si>
   <si>
     <t xml:space="preserve">2.73227667808533</t>
   </si>
   <si>
-    <t xml:space="preserve">2.82706141471863</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.8723931312561</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.86002993583679</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.81469821929932</t>
+    <t xml:space="preserve">2.82706165313721</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.87239336967468</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.86003017425537</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.81469798088074</t>
   </si>
   <si>
     <t xml:space="preserve">2.81057715415955</t>
   </si>
   <si>
-    <t xml:space="preserve">2.76524519920349</t>
+    <t xml:space="preserve">2.76524543762207</t>
   </si>
   <si>
     <t xml:space="preserve">2.79409289360046</t>
@@ -2051,7 +2051,7 @@
     <t xml:space="preserve">2.78172945976257</t>
   </si>
   <si>
-    <t xml:space="preserve">2.78585076332092</t>
+    <t xml:space="preserve">2.78585052490234</t>
   </si>
   <si>
     <t xml:space="preserve">2.70342898368835</t>
@@ -2063,7 +2063,7 @@
     <t xml:space="preserve">2.75700306892395</t>
   </si>
   <si>
-    <t xml:space="preserve">2.77348756790161</t>
+    <t xml:space="preserve">2.77348732948303</t>
   </si>
   <si>
     <t xml:space="preserve">2.74876093864441</t>
@@ -2072,13 +2072,13 @@
     <t xml:space="preserve">2.71991324424744</t>
   </si>
   <si>
-    <t xml:space="preserve">2.72403454780579</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.77760815620422</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.88475656509399</t>
+    <t xml:space="preserve">2.72403430938721</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.7776083946228</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.88475632667542</t>
   </si>
   <si>
     <t xml:space="preserve">2.64573383331299</t>
@@ -2087,22 +2087,22 @@
     <t xml:space="preserve">2.64985489845276</t>
   </si>
   <si>
-    <t xml:space="preserve">2.66221809387207</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.60864424705505</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.63337087631226</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.62100720405579</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.62512850761414</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.59215998649597</t>
+    <t xml:space="preserve">2.66221833229065</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.60864400863647</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.63337063789368</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.62100744247437</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.62512826919556</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.59215974807739</t>
   </si>
   <si>
     <t xml:space="preserve">2.60452318191528</t>
@@ -2123,19 +2123,19 @@
     <t xml:space="preserve">2.59628081321716</t>
   </si>
   <si>
-    <t xml:space="preserve">2.51798057556152</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.49737501144409</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.57155418395996</t>
+    <t xml:space="preserve">2.51798033714294</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.49737477302551</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.57155442237854</t>
   </si>
   <si>
     <t xml:space="preserve">2.51385927200317</t>
   </si>
   <si>
-    <t xml:space="preserve">2.48913288116455</t>
+    <t xml:space="preserve">2.48913264274597</t>
   </si>
   <si>
     <t xml:space="preserve">2.50561714172363</t>
@@ -2144,22 +2144,22 @@
     <t xml:space="preserve">2.46852731704712</t>
   </si>
   <si>
-    <t xml:space="preserve">2.5097382068634</t>
+    <t xml:space="preserve">2.50973844528198</t>
   </si>
   <si>
     <t xml:space="preserve">2.40671110153198</t>
   </si>
   <si>
-    <t xml:space="preserve">2.42319560050964</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.45204329490662</t>
+    <t xml:space="preserve">2.42319536209106</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.45204281806946</t>
   </si>
   <si>
     <t xml:space="preserve">2.44792199134827</t>
   </si>
   <si>
-    <t xml:space="preserve">2.47676968574524</t>
+    <t xml:space="preserve">2.47676944732666</t>
   </si>
   <si>
     <t xml:space="preserve">2.69518661499023</t>
@@ -2168,19 +2168,19 @@
     <t xml:space="preserve">2.74051880836487</t>
   </si>
   <si>
-    <t xml:space="preserve">2.86415123939514</t>
+    <t xml:space="preserve">2.86415100097656</t>
   </si>
   <si>
     <t xml:space="preserve">2.88887763023376</t>
   </si>
   <si>
-    <t xml:space="preserve">2.89711999893188</t>
+    <t xml:space="preserve">2.89711976051331</t>
   </si>
   <si>
     <t xml:space="preserve">2.84766674041748</t>
   </si>
   <si>
-    <t xml:space="preserve">2.84354567527771</t>
+    <t xml:space="preserve">2.84354591369629</t>
   </si>
   <si>
     <t xml:space="preserve">2.81881928443909</t>
@@ -2192,13 +2192,13 @@
     <t xml:space="preserve">2.8311824798584</t>
   </si>
   <si>
-    <t xml:space="preserve">3.03311538696289</t>
+    <t xml:space="preserve">3.03311562538147</t>
   </si>
   <si>
     <t xml:space="preserve">3.01663112640381</t>
   </si>
   <si>
-    <t xml:space="preserve">2.99602580070496</t>
+    <t xml:space="preserve">2.99602556228638</t>
   </si>
   <si>
     <t xml:space="preserve">3.02487349510193</t>
@@ -2207,7 +2207,7 @@
     <t xml:space="preserve">3.00838899612427</t>
   </si>
   <si>
-    <t xml:space="preserve">3.05372071266174</t>
+    <t xml:space="preserve">3.05372095108032</t>
   </si>
   <si>
     <t xml:space="preserve">3.06608414649963</t>
@@ -2222,7 +2222,7 @@
     <t xml:space="preserve">3.10729479789734</t>
   </si>
   <si>
-    <t xml:space="preserve">2.97542023658752</t>
+    <t xml:space="preserve">2.9754204750061</t>
   </si>
   <si>
     <t xml:space="preserve">2.96717810630798</t>
@@ -2252,10 +2252,10 @@
     <t xml:space="preserve">3.03723645210266</t>
   </si>
   <si>
-    <t xml:space="preserve">3.09905242919922</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.09493207931519</t>
+    <t xml:space="preserve">3.0990526676178</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.09493184089661</t>
   </si>
   <si>
     <t xml:space="preserve">3.01250982284546</t>
@@ -2270,16 +2270,16 @@
     <t xml:space="preserve">3.0702052116394</t>
   </si>
   <si>
-    <t xml:space="preserve">3.14850544929504</t>
+    <t xml:space="preserve">3.14850568771362</t>
   </si>
   <si>
     <t xml:space="preserve">3.16086912155151</t>
   </si>
   <si>
-    <t xml:space="preserve">3.16911101341248</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.18559551239014</t>
+    <t xml:space="preserve">3.16911125183105</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.18559527397156</t>
   </si>
   <si>
     <t xml:space="preserve">3.15262675285339</t>
@@ -2288,31 +2288,31 @@
     <t xml:space="preserve">3.11553692817688</t>
   </si>
   <si>
-    <t xml:space="preserve">3.13202118873596</t>
+    <t xml:space="preserve">3.13202142715454</t>
   </si>
   <si>
     <t xml:space="preserve">3.12790036201477</t>
   </si>
   <si>
-    <t xml:space="preserve">3.22268509864807</t>
+    <t xml:space="preserve">3.22268533706665</t>
   </si>
   <si>
     <t xml:space="preserve">3.19795870780945</t>
   </si>
   <si>
-    <t xml:space="preserve">3.17323184013367</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.20620107650757</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.24329042434692</t>
+    <t xml:space="preserve">3.17323207855225</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.20620083808899</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.2432906627655</t>
   </si>
   <si>
     <t xml:space="preserve">3.18971633911133</t>
   </si>
   <si>
-    <t xml:space="preserve">3.23916935920715</t>
+    <t xml:space="preserve">3.23916959762573</t>
   </si>
   <si>
     <t xml:space="preserve">3.27625918388367</t>
@@ -2321,13 +2321,13 @@
     <t xml:space="preserve">3.25153255462646</t>
   </si>
   <si>
-    <t xml:space="preserve">3.36280179023743</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.35868072509766</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.34631776809692</t>
+    <t xml:space="preserve">3.36280202865601</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.35868048667908</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.34631752967834</t>
   </si>
   <si>
     <t xml:space="preserve">3.30510687828064</t>
@@ -2342,40 +2342,40 @@
     <t xml:space="preserve">3.25209856033325</t>
   </si>
   <si>
-    <t xml:space="preserve">3.20919489860535</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.22635626792908</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.27784061431885</t>
+    <t xml:space="preserve">3.20919513702393</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.22635650634766</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.27784085273743</t>
   </si>
   <si>
     <t xml:space="preserve">3.23493719100952</t>
   </si>
   <si>
-    <t xml:space="preserve">3.21348547935486</t>
+    <t xml:space="preserve">3.21348524093628</t>
   </si>
   <si>
     <t xml:space="preserve">3.19632387161255</t>
   </si>
   <si>
-    <t xml:space="preserve">3.21777582168579</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.15771055221558</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.17487192153931</t>
+    <t xml:space="preserve">3.21777558326721</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.15771079063416</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.17487215995789</t>
   </si>
   <si>
     <t xml:space="preserve">3.17916250228882</t>
   </si>
   <si>
-    <t xml:space="preserve">3.16200113296509</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.14912986755371</t>
+    <t xml:space="preserve">3.16200089454651</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.14913010597229</t>
   </si>
   <si>
     <t xml:space="preserve">3.18345284461975</t>
@@ -2390,19 +2390,19 @@
     <t xml:space="preserve">3.19203352928162</t>
   </si>
   <si>
-    <t xml:space="preserve">3.23064684867859</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.22206616401672</t>
+    <t xml:space="preserve">3.23064708709717</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.2220664024353</t>
   </si>
   <si>
     <t xml:space="preserve">3.12767815589905</t>
   </si>
   <si>
-    <t xml:space="preserve">3.13625884056091</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.10622596740723</t>
+    <t xml:space="preserve">3.13625860214233</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.10622620582581</t>
   </si>
   <si>
     <t xml:space="preserve">3.07619380950928</t>
@@ -2420,19 +2420,19 @@
     <t xml:space="preserve">3.0504515171051</t>
   </si>
   <si>
-    <t xml:space="preserve">3.04616093635559</t>
+    <t xml:space="preserve">3.04616117477417</t>
   </si>
   <si>
     <t xml:space="preserve">3.02899956703186</t>
   </si>
   <si>
-    <t xml:space="preserve">2.98180556297302</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.00754809379578</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.05903244018555</t>
+    <t xml:space="preserve">2.98180532455444</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.0075478553772</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.05903220176697</t>
   </si>
   <si>
     <t xml:space="preserve">3.08048391342163</t>
@@ -2444,22 +2444,22 @@
     <t xml:space="preserve">2.99038624763489</t>
   </si>
   <si>
-    <t xml:space="preserve">2.90886926651001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.92174053192139</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.93890190124512</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.00325751304626</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.03329014778137</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.02041864395142</t>
+    <t xml:space="preserve">2.90886950492859</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.92174029350281</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.93890166282654</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.00325727462769</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.03328990936279</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.02041888237</t>
   </si>
   <si>
     <t xml:space="preserve">3.01612854003906</t>
@@ -2477,10 +2477,10 @@
     <t xml:space="preserve">3.13196849822998</t>
   </si>
   <si>
-    <t xml:space="preserve">3.16629147529602</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.11480712890625</t>
+    <t xml:space="preserve">3.16629123687744</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.11480689048767</t>
   </si>
   <si>
     <t xml:space="preserve">3.09335517883301</t>
@@ -2489,13 +2489,13 @@
     <t xml:space="preserve">3.06332230567932</t>
   </si>
   <si>
-    <t xml:space="preserve">3.11051678657532</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.08477449417114</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.07190299034119</t>
+    <t xml:space="preserve">3.11051654815674</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.08477425575256</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.07190322875977</t>
   </si>
   <si>
     <t xml:space="preserve">3.02470946311951</t>
@@ -2507,16 +2507,16 @@
     <t xml:space="preserve">2.94748258590698</t>
   </si>
   <si>
-    <t xml:space="preserve">2.95177316665649</t>
+    <t xml:space="preserve">2.95177292823792</t>
   </si>
   <si>
     <t xml:space="preserve">2.95606327056885</t>
   </si>
   <si>
-    <t xml:space="preserve">2.99467658996582</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.98609590530396</t>
+    <t xml:space="preserve">2.9946768283844</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.98609566688538</t>
   </si>
   <si>
     <t xml:space="preserve">3.10193586349487</t>
@@ -2534,7 +2534,7 @@
     <t xml:space="preserve">2.93032097816467</t>
   </si>
   <si>
-    <t xml:space="preserve">2.90457892417908</t>
+    <t xml:space="preserve">2.9045786857605</t>
   </si>
   <si>
     <t xml:space="preserve">2.97751522064209</t>
@@ -2543,7 +2543,7 @@
     <t xml:space="preserve">2.92603087425232</t>
   </si>
   <si>
-    <t xml:space="preserve">2.94319224357605</t>
+    <t xml:space="preserve">2.94319248199463</t>
   </si>
   <si>
     <t xml:space="preserve">2.97322487831116</t>
@@ -2552,25 +2552,25 @@
     <t xml:space="preserve">2.93461155891418</t>
   </si>
   <si>
-    <t xml:space="preserve">2.79731965065002</t>
+    <t xml:space="preserve">2.7973198890686</t>
   </si>
   <si>
     <t xml:space="preserve">2.91315960884094</t>
   </si>
   <si>
-    <t xml:space="preserve">2.8917076587677</t>
+    <t xml:space="preserve">2.89170789718628</t>
   </si>
   <si>
     <t xml:space="preserve">2.82306170463562</t>
   </si>
   <si>
-    <t xml:space="preserve">2.77157735824585</t>
+    <t xml:space="preserve">2.77157759666443</t>
   </si>
   <si>
     <t xml:space="preserve">2.80161023139954</t>
   </si>
   <si>
-    <t xml:space="preserve">2.90028882026672</t>
+    <t xml:space="preserve">2.90028858184814</t>
   </si>
   <si>
     <t xml:space="preserve">2.87454628944397</t>
@@ -2582,10 +2582,10 @@
     <t xml:space="preserve">2.89599823951721</t>
   </si>
   <si>
-    <t xml:space="preserve">2.85738468170166</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.87025618553162</t>
+    <t xml:space="preserve">2.85738492012024</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.87025594711304</t>
   </si>
   <si>
     <t xml:space="preserve">3.09737634658813</t>
@@ -2597,7 +2597,7 @@
     <t xml:space="preserve">3.1108820438385</t>
   </si>
   <si>
-    <t xml:space="preserve">3.07936835289001</t>
+    <t xml:space="preserve">3.07936811447144</t>
   </si>
   <si>
     <t xml:space="preserve">3.02984619140625</t>
@@ -2606,22 +2606,22 @@
     <t xml:space="preserve">2.98932814598083</t>
   </si>
   <si>
-    <t xml:space="preserve">2.96681809425354</t>
+    <t xml:space="preserve">2.96681833267212</t>
   </si>
   <si>
     <t xml:space="preserve">3.03434801101685</t>
   </si>
   <si>
-    <t xml:space="preserve">2.98482608795166</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.96231603622437</t>
+    <t xml:space="preserve">2.98482632637024</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.96231627464294</t>
   </si>
   <si>
     <t xml:space="preserve">2.93980622291565</t>
   </si>
   <si>
-    <t xml:space="preserve">2.9308021068573</t>
+    <t xml:space="preserve">2.93080234527588</t>
   </si>
   <si>
     <t xml:space="preserve">2.95781421661377</t>
@@ -2636,7 +2636,7 @@
     <t xml:space="preserve">3.01634001731873</t>
   </si>
   <si>
-    <t xml:space="preserve">2.99833202362061</t>
+    <t xml:space="preserve">2.99833226203918</t>
   </si>
   <si>
     <t xml:space="preserve">3.04335236549377</t>
@@ -2651,13 +2651,13 @@
     <t xml:space="preserve">2.82725620269775</t>
   </si>
   <si>
-    <t xml:space="preserve">2.78673839569092</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.88128018379211</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.82275438308716</t>
+    <t xml:space="preserve">2.78673815727234</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.88128042221069</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.82275414466858</t>
   </si>
   <si>
     <t xml:space="preserve">2.77323222160339</t>
@@ -2669,22 +2669,22 @@
     <t xml:space="preserve">2.66968607902527</t>
   </si>
   <si>
-    <t xml:space="preserve">2.6561803817749</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.70120024681091</t>
+    <t xml:space="preserve">2.65618014335632</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.70120000839233</t>
   </si>
   <si>
     <t xml:space="preserve">2.71920824050903</t>
   </si>
   <si>
-    <t xml:space="preserve">2.59765410423279</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.62916827201843</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.63367009162903</t>
+    <t xml:space="preserve">2.59765434265137</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.62916803359985</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.63367033004761</t>
   </si>
   <si>
     <t xml:space="preserve">2.53912806510925</t>
@@ -2693,7 +2693,7 @@
     <t xml:space="preserve">2.56614017486572</t>
   </si>
   <si>
-    <t xml:space="preserve">2.5481321811676</t>
+    <t xml:space="preserve">2.54813194274902</t>
   </si>
   <si>
     <t xml:space="preserve">2.60665822029114</t>
@@ -2714,7 +2714,7 @@
     <t xml:space="preserve">2.42207622528076</t>
   </si>
   <si>
-    <t xml:space="preserve">2.41757416725159</t>
+    <t xml:space="preserve">2.41757392883301</t>
   </si>
   <si>
     <t xml:space="preserve">2.38606023788452</t>
@@ -2762,10 +2762,10 @@
     <t xml:space="preserve">2.44908809661865</t>
   </si>
   <si>
-    <t xml:space="preserve">2.39056205749512</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.32303190231323</t>
+    <t xml:space="preserve">2.3905622959137</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.32303214073181</t>
   </si>
   <si>
     <t xml:space="preserve">2.20598006248474</t>
@@ -2774,16 +2774,16 @@
     <t xml:space="preserve">2.23299217224121</t>
   </si>
   <si>
-    <t xml:space="preserve">2.16096043586731</t>
+    <t xml:space="preserve">2.16096019744873</t>
   </si>
   <si>
     <t xml:space="preserve">2.21948599815369</t>
   </si>
   <si>
-    <t xml:space="preserve">2.20147824287415</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.22398805618286</t>
+    <t xml:space="preserve">2.20147800445557</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.22398829460144</t>
   </si>
   <si>
     <t xml:space="preserve">2.24199604988098</t>
@@ -2795,7 +2795,7 @@
     <t xml:space="preserve">2.27351021766663</t>
   </si>
   <si>
-    <t xml:space="preserve">2.24649786949158</t>
+    <t xml:space="preserve">2.24649810791016</t>
   </si>
   <si>
     <t xml:space="preserve">2.21498417854309</t>
@@ -2807,16 +2807,16 @@
     <t xml:space="preserve">2.12044215202332</t>
   </si>
   <si>
-    <t xml:space="preserve">1.97187614440918</t>
+    <t xml:space="preserve">1.97187626361847</t>
   </si>
   <si>
     <t xml:space="preserve">2.03490424156189</t>
   </si>
   <si>
-    <t xml:space="preserve">1.98088026046753</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.94486427307129</t>
+    <t xml:space="preserve">1.98088014125824</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.944864153862</t>
   </si>
   <si>
     <t xml:space="preserve">1.89984405040741</t>
@@ -2834,28 +2834,28 @@
     <t xml:space="preserve">1.78279209136963</t>
   </si>
   <si>
-    <t xml:space="preserve">1.7575808763504</t>
+    <t xml:space="preserve">1.75758099555969</t>
   </si>
   <si>
     <t xml:space="preserve">1.72156488895416</t>
   </si>
   <si>
-    <t xml:space="preserve">1.70175611972809</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.73777210712433</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.80980408191681</t>
+    <t xml:space="preserve">1.7017560005188</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.73777198791504</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.8098042011261</t>
   </si>
   <si>
     <t xml:space="preserve">1.8773341178894</t>
   </si>
   <si>
-    <t xml:space="preserve">2.01689624786377</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.93135809898376</t>
+    <t xml:space="preserve">2.01689600944519</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.93135821819305</t>
   </si>
   <si>
     <t xml:space="preserve">2.06191611289978</t>
@@ -2876,25 +2876,25 @@
     <t xml:space="preserve">2.14745426177979</t>
   </si>
   <si>
-    <t xml:space="preserve">2.05291223526001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.17896842956543</t>
+    <t xml:space="preserve">2.05291199684143</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.17896819114685</t>
   </si>
   <si>
     <t xml:space="preserve">2.1879723072052</t>
   </si>
   <si>
-    <t xml:space="preserve">2.14295244216919</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.16996431350708</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.2825140953064</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.28701591491699</t>
+    <t xml:space="preserve">2.14295220375061</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.1699640750885</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.28251433372498</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.28701615333557</t>
   </si>
   <si>
     <t xml:space="preserve">2.26450610160828</t>
@@ -2909,25 +2909,25 @@
     <t xml:space="preserve">2.29151821136475</t>
   </si>
   <si>
-    <t xml:space="preserve">2.31853008270264</t>
+    <t xml:space="preserve">2.31853032112122</t>
   </si>
   <si>
     <t xml:space="preserve">2.30052208900452</t>
   </si>
   <si>
-    <t xml:space="preserve">2.30502390861511</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.27801203727722</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.25099992752075</t>
+    <t xml:space="preserve">2.30502414703369</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.2780122756958</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.25100016593933</t>
   </si>
   <si>
     <t xml:space="preserve">2.17446613311768</t>
   </si>
   <si>
-    <t xml:space="preserve">2.16546225547791</t>
+    <t xml:space="preserve">2.16546201705933</t>
   </si>
   <si>
     <t xml:space="preserve">2.19697618484497</t>
@@ -2945,10 +2945,10 @@
     <t xml:space="preserve">2.33653807640076</t>
   </si>
   <si>
-    <t xml:space="preserve">2.39506411552429</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.43108010292053</t>
+    <t xml:space="preserve">2.39506435394287</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.43108034133911</t>
   </si>
   <si>
     <t xml:space="preserve">2.40857005119324</t>
@@ -2993,28 +2993,28 @@
     <t xml:space="preserve">2.54363012313843</t>
   </si>
   <si>
-    <t xml:space="preserve">2.35904788970947</t>
+    <t xml:space="preserve">2.35904812812805</t>
   </si>
   <si>
     <t xml:space="preserve">2.32753419876099</t>
   </si>
   <si>
-    <t xml:space="preserve">2.38155817985535</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.3500440120697</t>
+    <t xml:space="preserve">2.38155794143677</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.35004425048828</t>
   </si>
   <si>
     <t xml:space="preserve">2.50761413574219</t>
   </si>
   <si>
-    <t xml:space="preserve">2.52562212944031</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.58865022659302</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.62016439437866</t>
+    <t xml:space="preserve">2.52562236785889</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.58864998817444</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.62016415596008</t>
   </si>
   <si>
     <t xml:space="preserve">2.54005122184753</t>
@@ -59677,7 +59677,7 @@
     </row>
     <row r="2153">
       <c r="A2153" s="1" t="n">
-        <v>45460.649525463</v>
+        <v>45460.2916666667</v>
       </c>
       <c r="B2153" t="n">
         <v>229890</v>
@@ -59698,6 +59698,32 @@
         <v>1123</v>
       </c>
       <c r="H2153" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2154">
+      <c r="A2154" s="1" t="n">
+        <v>45461.6495023148</v>
+      </c>
+      <c r="B2154" t="n">
+        <v>144229</v>
+      </c>
+      <c r="C2154" t="n">
+        <v>2.23000001907349</v>
+      </c>
+      <c r="D2154" t="n">
+        <v>2.19000005722046</v>
+      </c>
+      <c r="E2154" t="n">
+        <v>2.19000005722046</v>
+      </c>
+      <c r="F2154" t="n">
+        <v>2.23499989509583</v>
+      </c>
+      <c r="G2154" t="s">
+        <v>1110</v>
+      </c>
+      <c r="H2154" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/ASC.MI.xlsx
+++ b/data/ASC.MI.xlsx
@@ -38,13 +38,13 @@
     <t xml:space="preserve">ticker</t>
   </si>
   <si>
-    <t xml:space="preserve">1.38786768913269</t>
+    <t xml:space="preserve">1.38786780834198</t>
   </si>
   <si>
     <t xml:space="preserve">ASC.MI</t>
   </si>
   <si>
-    <t xml:space="preserve">1.389120221138</t>
+    <t xml:space="preserve">1.38912045955658</t>
   </si>
   <si>
     <t xml:space="preserve">1.37659430503845</t>
@@ -53,37 +53,37 @@
     <t xml:space="preserve">1.37784707546234</t>
   </si>
   <si>
-    <t xml:space="preserve">1.36281597614288</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.35530030727386</t>
+    <t xml:space="preserve">1.36281609535217</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.35530042648315</t>
   </si>
   <si>
     <t xml:space="preserve">1.38411009311676</t>
   </si>
   <si>
-    <t xml:space="preserve">1.35655283927917</t>
+    <t xml:space="preserve">1.35655295848846</t>
   </si>
   <si>
     <t xml:space="preserve">1.33776414394379</t>
   </si>
   <si>
-    <t xml:space="preserve">1.29642868041992</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.30018651485443</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.25885117053986</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.28390300273895</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.36532115936279</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.36156332492828</t>
+    <t xml:space="preserve">1.29642879962921</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.30018639564514</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.25885128974915</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.28390288352966</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.3653210401535</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.36156320571899</t>
   </si>
   <si>
     <t xml:space="preserve">1.35404777526855</t>
@@ -92,133 +92,133 @@
     <t xml:space="preserve">1.38160490989685</t>
   </si>
   <si>
-    <t xml:space="preserve">1.38661503791809</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.37158393859863</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.30895459651947</t>
+    <t xml:space="preserve">1.38661515712738</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.37158405780792</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.30895447731018</t>
   </si>
   <si>
     <t xml:space="preserve">1.3152174949646</t>
   </si>
   <si>
-    <t xml:space="preserve">1.31396496295929</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.29392349720001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.31145977973938</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.33651173114777</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.33400642871857</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.3402693271637</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.34277474880219</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.40039348602295</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.39663589000702</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.39914107322693</t>
+    <t xml:space="preserve">1.31396508216858</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.2939236164093</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.31145989894867</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.33651161193848</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.33400630950928</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.34026956558228</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.34277451038361</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.40039360523224</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.39663577079773</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.39914095401764</t>
   </si>
   <si>
     <t xml:space="preserve">1.39162528514862</t>
   </si>
   <si>
-    <t xml:space="preserve">1.39413070678711</t>
+    <t xml:space="preserve">1.3941308259964</t>
   </si>
   <si>
     <t xml:space="preserve">1.38035202026367</t>
   </si>
   <si>
-    <t xml:space="preserve">1.39287805557251</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.4116667509079</t>
+    <t xml:space="preserve">1.39287793636322</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.41166687011719</t>
   </si>
   <si>
     <t xml:space="preserve">1.42043483257294</t>
   </si>
   <si>
-    <t xml:space="preserve">1.42294013500214</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.4379711151123</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.4354659318924</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.42419266700745</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.41918241977692</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.43922388553619</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.41667723655701</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.43296098709106</t>
+    <t xml:space="preserve">1.42294025421143</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.43797135353088</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.43546605110168</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.42419290542603</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.41918253898621</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.4392237663269</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.4166773557663</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.43296086788177</t>
   </si>
   <si>
     <t xml:space="preserve">1.43671858310699</t>
   </si>
   <si>
-    <t xml:space="preserve">1.4404764175415</t>
+    <t xml:space="preserve">1.44047653675079</t>
   </si>
   <si>
     <t xml:space="preserve">1.42544519901276</t>
   </si>
   <si>
-    <t xml:space="preserve">1.44172894954681</t>
+    <t xml:space="preserve">1.4417290687561</t>
   </si>
   <si>
     <t xml:space="preserve">1.46678078174591</t>
   </si>
   <si>
-    <t xml:space="preserve">1.45926535129547</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.46177053451538</t>
+    <t xml:space="preserve">1.45926523208618</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.4617702960968</t>
   </si>
   <si>
     <t xml:space="preserve">1.4655282497406</t>
   </si>
   <si>
-    <t xml:space="preserve">1.47053849697113</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.47805392742157</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.45676004886627</t>
+    <t xml:space="preserve">1.47053873538971</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.47805416584015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.45676016807556</t>
   </si>
   <si>
     <t xml:space="preserve">1.45801270008087</t>
   </si>
   <si>
-    <t xml:space="preserve">1.46051788330078</t>
+    <t xml:space="preserve">1.46051776409149</t>
   </si>
   <si>
     <t xml:space="preserve">1.48181164264679</t>
   </si>
   <si>
-    <t xml:space="preserve">1.49057996273041</t>
+    <t xml:space="preserve">1.4905800819397</t>
   </si>
   <si>
     <t xml:space="preserve">1.49809539318085</t>
@@ -230,19 +230,19 @@
     <t xml:space="preserve">1.4843168258667</t>
   </si>
   <si>
-    <t xml:space="preserve">1.47930657863617</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.51416957378387</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.51149427890778</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.51550710201263</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.53155839443207</t>
+    <t xml:space="preserve">1.47930669784546</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.51416945457458</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.5114940404892</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.51550722122192</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.53155827522278</t>
   </si>
   <si>
     <t xml:space="preserve">1.54894721508026</t>
@@ -254,7 +254,7 @@
     <t xml:space="preserve">1.55964803695679</t>
   </si>
   <si>
-    <t xml:space="preserve">1.56767380237579</t>
+    <t xml:space="preserve">1.5676736831665</t>
   </si>
   <si>
     <t xml:space="preserve">1.56901121139526</t>
@@ -263,13 +263,13 @@
     <t xml:space="preserve">1.57436180114746</t>
   </si>
   <si>
-    <t xml:space="preserve">1.57971203327179</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.58773767948151</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.61850273609161</t>
+    <t xml:space="preserve">1.57971215248108</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.5877377986908</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.61850261688232</t>
   </si>
   <si>
     <t xml:space="preserve">1.61582732200623</t>
@@ -278,10 +278,10 @@
     <t xml:space="preserve">1.63187873363495</t>
   </si>
   <si>
-    <t xml:space="preserve">1.64793002605438</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.67334461212158</t>
+    <t xml:space="preserve">1.6479297876358</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.67334425449371</t>
   </si>
   <si>
     <t xml:space="preserve">1.63321650028229</t>
@@ -290,145 +290,145 @@
     <t xml:space="preserve">1.64525473117828</t>
   </si>
   <si>
-    <t xml:space="preserve">1.62652802467346</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.67200708389282</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.74557507038116</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.75226330757141</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.73353683948517</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.65461778640747</t>
+    <t xml:space="preserve">1.62652826309204</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.67200696468353</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.74557518959045</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.75226318836212</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.73353672027588</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.65461802482605</t>
   </si>
   <si>
     <t xml:space="preserve">1.63856661319733</t>
   </si>
   <si>
-    <t xml:space="preserve">1.68939578533173</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.73754990100861</t>
+    <t xml:space="preserve">1.68939602375031</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.73754978179932</t>
   </si>
   <si>
     <t xml:space="preserve">1.6786949634552</t>
   </si>
   <si>
-    <t xml:space="preserve">1.65194296836853</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.69608390331268</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.73219931125641</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.80576741695404</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.79105401039124</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.73086154460907</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.78971636295319</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.80175459384918</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.80309236049652</t>
+    <t xml:space="preserve">1.65194308757782</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.6960836648941</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.73219895362854</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.80576729774475</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.79105377197266</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.73086142539978</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.78971612453461</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.80175471305847</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.80309247970581</t>
   </si>
   <si>
     <t xml:space="preserve">1.86328446865082</t>
   </si>
   <si>
-    <t xml:space="preserve">1.86863481998444</t>
+    <t xml:space="preserve">1.86863470077515</t>
   </si>
   <si>
     <t xml:space="preserve">1.87131011486053</t>
   </si>
   <si>
-    <t xml:space="preserve">1.83385729789734</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.83251941204071</t>
+    <t xml:space="preserve">1.83385741710663</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.83251976966858</t>
   </si>
   <si>
     <t xml:space="preserve">1.87264764308929</t>
   </si>
   <si>
-    <t xml:space="preserve">1.88602387905121</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.84990847110748</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.84589576721191</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.852583527565</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.86462187767029</t>
+    <t xml:space="preserve">1.88602352142334</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.84990835189819</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.84589564800262</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.85258376598358</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.86462211608887</t>
   </si>
   <si>
     <t xml:space="preserve">1.90876305103302</t>
   </si>
   <si>
-    <t xml:space="preserve">1.94621622562408</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.90608763694763</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.93685281276703</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.92347693443298</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.89939987659454</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.89806234836578</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.89538717269897</t>
+    <t xml:space="preserve">1.94621610641479</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.90608787536621</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.93685269355774</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.92347657680511</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.89939975738525</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.89806258678436</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.89538741111755</t>
   </si>
   <si>
     <t xml:space="preserve">1.91946399211884</t>
   </si>
   <si>
-    <t xml:space="preserve">1.92615211009979</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.91277599334717</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.92882704734802</t>
+    <t xml:space="preserve">1.9261519908905</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.91277587413788</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.92882740497589</t>
   </si>
   <si>
     <t xml:space="preserve">1.91411364078522</t>
   </si>
   <si>
-    <t xml:space="preserve">1.79907929897308</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.81111764907837</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.89137423038483</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.83920729160309</t>
+    <t xml:space="preserve">1.79907941818237</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.81111776828766</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.89137399196625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.83920764923096</t>
   </si>
   <si>
     <t xml:space="preserve">1.74958789348602</t>
@@ -437,10 +437,10 @@
     <t xml:space="preserve">1.77098977565765</t>
   </si>
   <si>
-    <t xml:space="preserve">1.74156248569489</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.76965224742889</t>
+    <t xml:space="preserve">1.7415623664856</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.76965188980103</t>
   </si>
   <si>
     <t xml:space="preserve">1.75493860244751</t>
@@ -449,58 +449,58 @@
     <t xml:space="preserve">1.78302800655365</t>
   </si>
   <si>
-    <t xml:space="preserve">1.79506659507751</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.75895118713379</t>
+    <t xml:space="preserve">1.7950667142868</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.75895130634308</t>
   </si>
   <si>
     <t xml:space="preserve">1.77232730388641</t>
   </si>
   <si>
-    <t xml:space="preserve">1.75092566013336</t>
+    <t xml:space="preserve">1.75092542171478</t>
   </si>
   <si>
     <t xml:space="preserve">1.75360071659088</t>
   </si>
   <si>
-    <t xml:space="preserve">1.75627601146698</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.78035295009613</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.78837871551514</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.79239130020142</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.79774177074432</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.75761377811432</t>
+    <t xml:space="preserve">1.75627589225769</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.78035306930542</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.78837823867798</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.79239165782928</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.79774165153503</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.75761365890503</t>
   </si>
   <si>
     <t xml:space="preserve">1.78570353984833</t>
   </si>
   <si>
-    <t xml:space="preserve">1.78169071674347</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.77366483211517</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.72684872150421</t>
+    <t xml:space="preserve">1.78169059753418</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.77366471290588</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.7268488407135</t>
   </si>
   <si>
     <t xml:space="preserve">1.66665661334991</t>
   </si>
   <si>
-    <t xml:space="preserve">1.62117767333984</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.62251543998718</t>
+    <t xml:space="preserve">1.62117779254913</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.62251567840576</t>
   </si>
   <si>
     <t xml:space="preserve">1.62786614894867</t>
@@ -512,76 +512,76 @@
     <t xml:space="preserve">1.69207096099854</t>
   </si>
   <si>
-    <t xml:space="preserve">1.72417342662811</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.69875884056091</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.66531896591187</t>
+    <t xml:space="preserve">1.72417366504669</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.69875907897949</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.66531884670258</t>
   </si>
   <si>
     <t xml:space="preserve">1.6251904964447</t>
   </si>
   <si>
-    <t xml:space="preserve">1.64391720294952</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.67735731601715</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.70544719696045</t>
+    <t xml:space="preserve">1.64391708374023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.67735719680786</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.70544695854187</t>
   </si>
   <si>
     <t xml:space="preserve">1.7214982509613</t>
   </si>
   <si>
-    <t xml:space="preserve">1.71614789962769</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.73888731002808</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.72952377796173</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.72283577919006</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.77634012699127</t>
+    <t xml:space="preserve">1.71614766120911</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.73888719081879</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.72952401638031</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.72283589839935</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.77634036540985</t>
   </si>
   <si>
     <t xml:space="preserve">1.80710482597351</t>
   </si>
   <si>
-    <t xml:space="preserve">1.79640424251556</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.81914353370667</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.81513094902039</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.82181870937347</t>
+    <t xml:space="preserve">1.79640436172485</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.81914365291595</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.8151308298111</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.82181859016418</t>
   </si>
   <si>
     <t xml:space="preserve">1.83519470691681</t>
   </si>
   <si>
-    <t xml:space="preserve">1.81245541572571</t>
+    <t xml:space="preserve">1.81245529651642</t>
   </si>
   <si>
     <t xml:space="preserve">1.82048106193542</t>
   </si>
   <si>
-    <t xml:space="preserve">1.83118188381195</t>
+    <t xml:space="preserve">1.83118176460266</t>
   </si>
   <si>
     <t xml:space="preserve">1.85124611854553</t>
   </si>
   <si>
-    <t xml:space="preserve">1.86194682121277</t>
+    <t xml:space="preserve">1.86194694042206</t>
   </si>
   <si>
     <t xml:space="preserve">1.85927152633667</t>
@@ -590,49 +590,49 @@
     <t xml:space="preserve">1.82850670814514</t>
   </si>
   <si>
-    <t xml:space="preserve">1.9154509305954</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.90742540359497</t>
+    <t xml:space="preserve">1.91545128822327</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.90742528438568</t>
   </si>
   <si>
     <t xml:space="preserve">1.89003658294678</t>
   </si>
   <si>
-    <t xml:space="preserve">1.87799823284149</t>
+    <t xml:space="preserve">1.8779981136322</t>
   </si>
   <si>
     <t xml:space="preserve">1.92481410503387</t>
   </si>
   <si>
-    <t xml:space="preserve">1.93150246143341</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.89672422409058</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.93284010887146</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.94487833976746</t>
+    <t xml:space="preserve">1.93150234222412</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.89672482013702</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.93284022808075</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.9448789358139</t>
   </si>
   <si>
     <t xml:space="preserve">1.91678881645203</t>
   </si>
   <si>
-    <t xml:space="preserve">1.97296786308289</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.96628022193909</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.99303209781647</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.02647233009338</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.043860912323</t>
+    <t xml:space="preserve">1.97296810150146</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.9662801027298</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.99303269386292</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.02647280693054</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.04386115074158</t>
   </si>
   <si>
     <t xml:space="preserve">2.06124997138977</t>
@@ -647,31 +647,31 @@
     <t xml:space="preserve">2.11074137687683</t>
   </si>
   <si>
-    <t xml:space="preserve">2.09469032287598</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.15220737457275</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.18029689788818</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.20169854164124</t>
+    <t xml:space="preserve">2.0946900844574</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.15220713615417</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.18029713630676</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.20169878005981</t>
   </si>
   <si>
     <t xml:space="preserve">2.22176289558411</t>
   </si>
   <si>
-    <t xml:space="preserve">2.18698501586914</t>
+    <t xml:space="preserve">2.18698477745056</t>
   </si>
   <si>
     <t xml:space="preserve">2.18966007232666</t>
   </si>
   <si>
-    <t xml:space="preserve">2.23380136489868</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.22845101356506</t>
+    <t xml:space="preserve">2.23380088806152</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.22845053672791</t>
   </si>
   <si>
     <t xml:space="preserve">2.24583959579468</t>
@@ -680,22 +680,22 @@
     <t xml:space="preserve">2.28730535507202</t>
   </si>
   <si>
-    <t xml:space="preserve">2.27392935752869</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.2792797088623</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.32074546813965</t>
+    <t xml:space="preserve">2.27392959594727</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.27927994728088</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.32074570655823</t>
   </si>
   <si>
     <t xml:space="preserve">2.3301088809967</t>
   </si>
   <si>
-    <t xml:space="preserve">2.34482264518738</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.35418581962585</t>
+    <t xml:space="preserve">2.3448224067688</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.35418558120728</t>
   </si>
   <si>
     <t xml:space="preserve">2.35819840431213</t>
@@ -707,7 +707,7 @@
     <t xml:space="preserve">2.36756181716919</t>
   </si>
   <si>
-    <t xml:space="preserve">2.35953593254089</t>
+    <t xml:space="preserve">2.35953617095947</t>
   </si>
   <si>
     <t xml:space="preserve">2.35552334785461</t>
@@ -716,10 +716,10 @@
     <t xml:space="preserve">2.3394718170166</t>
   </si>
   <si>
-    <t xml:space="preserve">2.35151028633118</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.40367722511292</t>
+    <t xml:space="preserve">2.35151076316833</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.40367746353149</t>
   </si>
   <si>
     <t xml:space="preserve">2.37023687362671</t>
@@ -728,22 +728,22 @@
     <t xml:space="preserve">2.36622428894043</t>
   </si>
   <si>
-    <t xml:space="preserve">2.40768957138062</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.3983268737793</t>
+    <t xml:space="preserve">2.40768980979919</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.39832663536072</t>
   </si>
   <si>
     <t xml:space="preserve">2.40233945846558</t>
   </si>
   <si>
-    <t xml:space="preserve">2.42240381240845</t>
+    <t xml:space="preserve">2.42240357398987</t>
   </si>
   <si>
     <t xml:space="preserve">2.47457027435303</t>
   </si>
   <si>
-    <t xml:space="preserve">2.48259592056274</t>
+    <t xml:space="preserve">2.48259568214417</t>
   </si>
   <si>
     <t xml:space="preserve">2.52941203117371</t>
@@ -752,22 +752,22 @@
     <t xml:space="preserve">2.56030988693237</t>
   </si>
   <si>
-    <t xml:space="preserve">2.54626512527466</t>
+    <t xml:space="preserve">2.54626536369324</t>
   </si>
   <si>
     <t xml:space="preserve">2.5322208404541</t>
   </si>
   <si>
-    <t xml:space="preserve">2.51255869865417</t>
+    <t xml:space="preserve">2.5125584602356</t>
   </si>
   <si>
     <t xml:space="preserve">2.44795393943787</t>
   </si>
   <si>
-    <t xml:space="preserve">2.44374084472656</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.48587417602539</t>
+    <t xml:space="preserve">2.44374060630798</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.48587441444397</t>
   </si>
   <si>
     <t xml:space="preserve">2.44514536857605</t>
@@ -776,7 +776,7 @@
     <t xml:space="preserve">2.43110060691833</t>
   </si>
   <si>
-    <t xml:space="preserve">2.49991846084595</t>
+    <t xml:space="preserve">2.49991869926453</t>
   </si>
   <si>
     <t xml:space="preserve">2.51677227020264</t>
@@ -785,22 +785,22 @@
     <t xml:space="preserve">2.53643441200256</t>
   </si>
   <si>
-    <t xml:space="preserve">2.55188345909119</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.57014131546021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.55609679222107</t>
+    <t xml:space="preserve">2.55188322067261</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.57014083862305</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.55609655380249</t>
   </si>
   <si>
     <t xml:space="preserve">2.49710965156555</t>
   </si>
   <si>
-    <t xml:space="preserve">2.53783893585205</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.54486083984375</t>
+    <t xml:space="preserve">2.53783869743347</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.54486131668091</t>
   </si>
   <si>
     <t xml:space="preserve">2.56311893463135</t>
@@ -818,13 +818,13 @@
     <t xml:space="preserve">2.54907464981079</t>
   </si>
   <si>
-    <t xml:space="preserve">2.5504789352417</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.54345679283142</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.61087012290955</t>
+    <t xml:space="preserve">2.55047869682312</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.54345655441284</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.61086988449097</t>
   </si>
   <si>
     <t xml:space="preserve">2.52519869804382</t>
@@ -836,10 +836,10 @@
     <t xml:space="preserve">2.49149203300476</t>
   </si>
   <si>
-    <t xml:space="preserve">2.49289655685425</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.44654941558838</t>
+    <t xml:space="preserve">2.49289608001709</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.44654965400696</t>
   </si>
   <si>
     <t xml:space="preserve">2.43671870231628</t>
@@ -857,19 +857,19 @@
     <t xml:space="preserve">2.4549765586853</t>
   </si>
   <si>
-    <t xml:space="preserve">2.46059393882751</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.43531394004822</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.39458537101746</t>
+    <t xml:space="preserve">2.46059370040894</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.43531441688538</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.3945848941803</t>
   </si>
   <si>
     <t xml:space="preserve">2.38475370407104</t>
   </si>
   <si>
-    <t xml:space="preserve">2.40862989425659</t>
+    <t xml:space="preserve">2.40862965583801</t>
   </si>
   <si>
     <t xml:space="preserve">2.42267394065857</t>
@@ -881,19 +881,19 @@
     <t xml:space="preserve">2.52098512649536</t>
   </si>
   <si>
-    <t xml:space="preserve">2.51536798477173</t>
+    <t xml:space="preserve">2.51536750793457</t>
   </si>
   <si>
     <t xml:space="preserve">2.52660322189331</t>
   </si>
   <si>
-    <t xml:space="preserve">2.51115441322327</t>
+    <t xml:space="preserve">2.51115417480469</t>
   </si>
   <si>
     <t xml:space="preserve">2.49008774757385</t>
   </si>
   <si>
-    <t xml:space="preserve">2.47182965278625</t>
+    <t xml:space="preserve">2.47182941436768</t>
   </si>
   <si>
     <t xml:space="preserve">2.47323417663574</t>
@@ -902,13 +902,13 @@
     <t xml:space="preserve">2.4577853679657</t>
   </si>
   <si>
-    <t xml:space="preserve">2.4844696521759</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.44093203544617</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.48868322372437</t>
+    <t xml:space="preserve">2.48446989059448</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.44093227386475</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.48868298530579</t>
   </si>
   <si>
     <t xml:space="preserve">2.5729501247406</t>
@@ -917,7 +917,7 @@
     <t xml:space="preserve">2.53502988815308</t>
   </si>
   <si>
-    <t xml:space="preserve">2.55890536308289</t>
+    <t xml:space="preserve">2.55890560150146</t>
   </si>
   <si>
     <t xml:space="preserve">2.48025631904602</t>
@@ -926,34 +926,34 @@
     <t xml:space="preserve">2.48166084289551</t>
   </si>
   <si>
-    <t xml:space="preserve">2.46761631965637</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.46199870109558</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.53081655502319</t>
+    <t xml:space="preserve">2.46761655807495</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.461998462677</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.53081679344177</t>
   </si>
   <si>
     <t xml:space="preserve">2.5069408416748</t>
   </si>
   <si>
-    <t xml:space="preserve">2.53362512588501</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.50272750854492</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.55469226837158</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.57435441017151</t>
+    <t xml:space="preserve">2.53362536430359</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.50272727012634</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.55469250679016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.57435417175293</t>
   </si>
   <si>
     <t xml:space="preserve">2.61227464675903</t>
   </si>
   <si>
-    <t xml:space="preserve">2.62351036071777</t>
+    <t xml:space="preserve">2.62351012229919</t>
   </si>
   <si>
     <t xml:space="preserve">2.67828345298767</t>
@@ -962,88 +962,88 @@
     <t xml:space="preserve">2.65581250190735</t>
   </si>
   <si>
-    <t xml:space="preserve">2.65440821647644</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.6881148815155</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.59120798110962</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.59682583808899</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.54205226898193</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.56733202934265</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.61367893218994</t>
+    <t xml:space="preserve">2.65440797805786</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.68811464309692</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.59120774269104</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.59682559967041</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.54205179214478</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.56733226776123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.61367917060852</t>
   </si>
   <si>
     <t xml:space="preserve">2.5982301235199</t>
   </si>
   <si>
-    <t xml:space="preserve">2.5799720287323</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.56452345848083</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.58839893341064</t>
+    <t xml:space="preserve">2.57997226715088</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.56452298164368</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.58839917182922</t>
   </si>
   <si>
     <t xml:space="preserve">2.51396322250366</t>
   </si>
   <si>
-    <t xml:space="preserve">2.56663036346436</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.58418560028076</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.57716345787048</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.58067440986633</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.51747441291809</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.31734013557434</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.21902871131897</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.28222870826721</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.25062870979309</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.21200704574585</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.26818442344666</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.25765085220337</t>
+    <t xml:space="preserve">2.5666298866272</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.58418583869934</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.57716369628906</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.58067417144775</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.51747417449951</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.3173406124115</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.21902918815613</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.28222918510437</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.25062894821167</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.21200656890869</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.26818466186523</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.25765132904053</t>
   </si>
   <si>
     <t xml:space="preserve">2.29627370834351</t>
   </si>
   <si>
-    <t xml:space="preserve">2.30329561233521</t>
+    <t xml:space="preserve">2.30329585075378</t>
   </si>
   <si>
     <t xml:space="preserve">2.24360680580139</t>
   </si>
   <si>
-    <t xml:space="preserve">2.22605133056641</t>
+    <t xml:space="preserve">2.22605109214783</t>
   </si>
   <si>
     <t xml:space="preserve">2.20147323608398</t>
@@ -1052,10 +1052,10 @@
     <t xml:space="preserve">2.19093990325928</t>
   </si>
   <si>
-    <t xml:space="preserve">2.14880633354187</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.18742918968201</t>
+    <t xml:space="preserve">2.14880657196045</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.18742895126343</t>
   </si>
   <si>
     <t xml:space="preserve">2.19796228408813</t>
@@ -1064,55 +1064,55 @@
     <t xml:space="preserve">2.2225399017334</t>
   </si>
   <si>
-    <t xml:space="preserve">2.26467370986938</t>
+    <t xml:space="preserve">2.26467347145081</t>
   </si>
   <si>
     <t xml:space="preserve">2.21551775932312</t>
   </si>
   <si>
-    <t xml:space="preserve">2.24711799621582</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.2541401386261</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.30680680274963</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.2857403755188</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.23658466339111</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.24009561538696</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.27871775627136</t>
+    <t xml:space="preserve">2.24711775779724</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.25414037704468</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.30680704116821</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.28574013710022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.23658442497253</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.24009585380554</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.27871799468994</t>
   </si>
   <si>
     <t xml:space="preserve">2.28925132751465</t>
   </si>
   <si>
-    <t xml:space="preserve">2.3243625164032</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.29978466033936</t>
+    <t xml:space="preserve">2.32436227798462</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.29978489875793</t>
   </si>
   <si>
     <t xml:space="preserve">2.31031799316406</t>
   </si>
   <si>
-    <t xml:space="preserve">2.33489584922791</t>
+    <t xml:space="preserve">2.33489608764648</t>
   </si>
   <si>
     <t xml:space="preserve">2.33840703964233</t>
   </si>
   <si>
-    <t xml:space="preserve">2.3875629901886</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.47885179519653</t>
+    <t xml:space="preserve">2.38756275177002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.47885203361511</t>
   </si>
   <si>
     <t xml:space="preserve">2.46129655838013</t>
@@ -1121,10 +1121,10 @@
     <t xml:space="preserve">2.47980213165283</t>
   </si>
   <si>
-    <t xml:space="preserve">2.44279003143311</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.39837574958801</t>
+    <t xml:space="preserve">2.44279026985168</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.39837598800659</t>
   </si>
   <si>
     <t xml:space="preserve">2.36876630783081</t>
@@ -1133,13 +1133,13 @@
     <t xml:space="preserve">2.4131805896759</t>
   </si>
   <si>
-    <t xml:space="preserve">2.35396146774292</t>
+    <t xml:space="preserve">2.3539617061615</t>
   </si>
   <si>
     <t xml:space="preserve">2.31694960594177</t>
   </si>
   <si>
-    <t xml:space="preserve">2.30584597587585</t>
+    <t xml:space="preserve">2.30584621429443</t>
   </si>
   <si>
     <t xml:space="preserve">2.29844379425049</t>
@@ -1148,16 +1148,16 @@
     <t xml:space="preserve">2.29104113578796</t>
   </si>
   <si>
-    <t xml:space="preserve">2.27993750572205</t>
+    <t xml:space="preserve">2.27993726730347</t>
   </si>
   <si>
     <t xml:space="preserve">2.26143169403076</t>
   </si>
   <si>
-    <t xml:space="preserve">2.22441959381104</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.12818837165833</t>
+    <t xml:space="preserve">2.22441983222961</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.12818884849548</t>
   </si>
   <si>
     <t xml:space="preserve">2.18370652198792</t>
@@ -1169,19 +1169,19 @@
     <t xml:space="preserve">2.22071838378906</t>
   </si>
   <si>
-    <t xml:space="preserve">2.20591354370117</t>
+    <t xml:space="preserve">2.20591378211975</t>
   </si>
   <si>
     <t xml:space="preserve">2.18000531196594</t>
   </si>
   <si>
-    <t xml:space="preserve">2.25773024559021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.26513266563416</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.2022123336792</t>
+    <t xml:space="preserve">2.25773048400879</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.26513290405273</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.20221257209778</t>
   </si>
   <si>
     <t xml:space="preserve">2.21331596374512</t>
@@ -1190,16 +1190,16 @@
     <t xml:space="preserve">2.21701717376709</t>
   </si>
   <si>
-    <t xml:space="preserve">2.16149926185608</t>
+    <t xml:space="preserve">2.16149950027466</t>
   </si>
   <si>
     <t xml:space="preserve">2.26883387565613</t>
   </si>
   <si>
-    <t xml:space="preserve">2.24662685394287</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.18740797042847</t>
+    <t xml:space="preserve">2.24662709236145</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.18740725517273</t>
   </si>
   <si>
     <t xml:space="preserve">2.16890168190002</t>
@@ -1211,22 +1211,22 @@
     <t xml:space="preserve">2.13929224014282</t>
   </si>
   <si>
-    <t xml:space="preserve">2.13559103012085</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.12078642845154</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.12448740005493</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.14669466018677</t>
+    <t xml:space="preserve">2.13559079170227</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.12078595161438</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.12448716163635</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.14669442176819</t>
   </si>
   <si>
     <t xml:space="preserve">2.11708474159241</t>
   </si>
   <si>
-    <t xml:space="preserve">2.10968255996704</t>
+    <t xml:space="preserve">2.10968232154846</t>
   </si>
   <si>
     <t xml:space="preserve">2.32435202598572</t>
@@ -1235,10 +1235,10 @@
     <t xml:space="preserve">2.33175420761108</t>
   </si>
   <si>
-    <t xml:space="preserve">2.37246751785278</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.62044739723206</t>
+    <t xml:space="preserve">2.3724672794342</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.62044763565063</t>
   </si>
   <si>
     <t xml:space="preserve">2.48350358009338</t>
@@ -1253,10 +1253,10 @@
     <t xml:space="preserve">2.40577816963196</t>
   </si>
   <si>
-    <t xml:space="preserve">2.36506485939026</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.32065081596375</t>
+    <t xml:space="preserve">2.36506509780884</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.32065057754517</t>
   </si>
   <si>
     <t xml:space="preserve">2.29474234580994</t>
@@ -1268,7 +1268,7 @@
     <t xml:space="preserve">2.30954694747925</t>
   </si>
   <si>
-    <t xml:space="preserve">2.27623653411865</t>
+    <t xml:space="preserve">2.27623629570007</t>
   </si>
   <si>
     <t xml:space="preserve">2.2836389541626</t>
@@ -1280,55 +1280,55 @@
     <t xml:space="preserve">2.3132483959198</t>
   </si>
   <si>
-    <t xml:space="preserve">2.342857837677</t>
+    <t xml:space="preserve">2.34285759925842</t>
   </si>
   <si>
     <t xml:space="preserve">2.33915686607361</t>
   </si>
   <si>
-    <t xml:space="preserve">2.33545541763306</t>
+    <t xml:space="preserve">2.33545565605164</t>
   </si>
   <si>
     <t xml:space="preserve">2.34655928611755</t>
   </si>
   <si>
-    <t xml:space="preserve">2.24292540550232</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.17630386352539</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.19110870361328</t>
+    <t xml:space="preserve">2.2429256439209</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.17630410194397</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.19110894203186</t>
   </si>
   <si>
     <t xml:space="preserve">2.23552322387695</t>
   </si>
   <si>
-    <t xml:space="preserve">2.08747529983521</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.15039563179016</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.15409684181213</t>
+    <t xml:space="preserve">2.08747553825378</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.15039587020874</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.15409708023071</t>
   </si>
   <si>
     <t xml:space="preserve">2.25402927398682</t>
   </si>
   <si>
-    <t xml:space="preserve">2.2725350856781</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.25032806396484</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.22812080383301</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.40207695960999</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.43168663978577</t>
+    <t xml:space="preserve">2.27253532409668</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.25032782554626</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.22812056541443</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.40207719802856</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.43168687820435</t>
   </si>
   <si>
     <t xml:space="preserve">2.38357090950012</t>
@@ -1337,22 +1337,22 @@
     <t xml:space="preserve">2.35766267776489</t>
   </si>
   <si>
-    <t xml:space="preserve">2.37616872787476</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.37986969947815</t>
+    <t xml:space="preserve">2.37616896629333</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.37986993789673</t>
   </si>
   <si>
     <t xml:space="preserve">2.4242844581604</t>
   </si>
   <si>
-    <t xml:space="preserve">2.42798519134521</t>
+    <t xml:space="preserve">2.42798542976379</t>
   </si>
   <si>
     <t xml:space="preserve">2.44649124145508</t>
   </si>
   <si>
-    <t xml:space="preserve">2.45019245147705</t>
+    <t xml:space="preserve">2.45019268989563</t>
   </si>
   <si>
     <t xml:space="preserve">2.50200939178467</t>
@@ -1361,7 +1361,7 @@
     <t xml:space="preserve">2.49460697174072</t>
   </si>
   <si>
-    <t xml:space="preserve">2.49090576171875</t>
+    <t xml:space="preserve">2.49090600013733</t>
   </si>
   <si>
     <t xml:space="preserve">2.51311302185059</t>
@@ -1370,7 +1370,7 @@
     <t xml:space="preserve">2.4983081817627</t>
   </si>
   <si>
-    <t xml:space="preserve">2.50571060180664</t>
+    <t xml:space="preserve">2.50571084022522</t>
   </si>
   <si>
     <t xml:space="preserve">2.56122875213623</t>
@@ -1379,82 +1379,82 @@
     <t xml:space="preserve">2.53161907196045</t>
   </si>
   <si>
-    <t xml:space="preserve">2.56863117218018</t>
+    <t xml:space="preserve">2.5686309337616</t>
   </si>
   <si>
     <t xml:space="preserve">2.52791786193848</t>
   </si>
   <si>
-    <t xml:space="preserve">2.53902149200439</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.52051568031311</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.5242166519165</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.54272270202637</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.55382609367371</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.57603311538696</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.60194182395935</t>
+    <t xml:space="preserve">2.53902125358582</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.52051544189453</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.52421641349792</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.54272246360779</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.55382633209229</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.57603359222412</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.60194206237793</t>
   </si>
   <si>
     <t xml:space="preserve">2.59083819389343</t>
   </si>
   <si>
-    <t xml:space="preserve">2.57973456382751</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.62785029411316</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.64635634422302</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.64265465736389</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.6389536857605</t>
+    <t xml:space="preserve">2.57973432540894</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.62785005569458</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.64635610580444</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.64265489578247</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.63895392417908</t>
   </si>
   <si>
     <t xml:space="preserve">2.65745973587036</t>
   </si>
   <si>
-    <t xml:space="preserve">2.67226457595825</t>
+    <t xml:space="preserve">2.67226433753967</t>
   </si>
   <si>
     <t xml:space="preserve">2.71297764778137</t>
   </si>
   <si>
-    <t xml:space="preserve">2.72778224945068</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.70187425613403</t>
+    <t xml:space="preserve">2.72778272628784</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.70187401771545</t>
   </si>
   <si>
     <t xml:space="preserve">2.69077062606812</t>
   </si>
   <si>
-    <t xml:space="preserve">2.74258732795715</t>
+    <t xml:space="preserve">2.74258708953857</t>
   </si>
   <si>
     <t xml:space="preserve">2.75739216804504</t>
   </si>
   <si>
-    <t xml:space="preserve">2.82401371002197</t>
+    <t xml:space="preserve">2.82401347160339</t>
   </si>
   <si>
     <t xml:space="preserve">2.8203125</t>
   </si>
   <si>
-    <t xml:space="preserve">2.84992218017578</t>
+    <t xml:space="preserve">2.8499219417572</t>
   </si>
   <si>
     <t xml:space="preserve">2.83881831169128</t>
@@ -1463,13 +1463,13 @@
     <t xml:space="preserve">3.02654099464417</t>
   </si>
   <si>
-    <t xml:space="preserve">2.74035263061523</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.73643231391907</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.68938779830933</t>
+    <t xml:space="preserve">2.74035239219666</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.73643207550049</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.68938732147217</t>
   </si>
   <si>
     <t xml:space="preserve">2.70898938179016</t>
@@ -1478,46 +1478,46 @@
     <t xml:space="preserve">2.68154668807983</t>
   </si>
   <si>
-    <t xml:space="preserve">2.75603413581848</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.84228277206421</t>
+    <t xml:space="preserve">2.75603437423706</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.84228253364563</t>
   </si>
   <si>
     <t xml:space="preserve">2.79915833473206</t>
   </si>
   <si>
-    <t xml:space="preserve">2.82268047332764</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.78347706794739</t>
+    <t xml:space="preserve">2.82268095016479</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.78347659111023</t>
   </si>
   <si>
     <t xml:space="preserve">2.7756359577179</t>
   </si>
   <si>
-    <t xml:space="preserve">2.76779508590698</t>
+    <t xml:space="preserve">2.76779532432556</t>
   </si>
   <si>
     <t xml:space="preserve">2.79131746292114</t>
   </si>
   <si>
-    <t xml:space="preserve">2.78739738464355</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.84620308876038</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.85796403884888</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.82660102844238</t>
+    <t xml:space="preserve">2.78739714622498</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.84620332717896</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.85796427726746</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.8266007900238</t>
   </si>
   <si>
     <t xml:space="preserve">2.8344419002533</t>
   </si>
   <si>
-    <t xml:space="preserve">2.85012340545654</t>
+    <t xml:space="preserve">2.85012364387512</t>
   </si>
   <si>
     <t xml:space="preserve">2.86188459396362</t>
@@ -1526,13 +1526,13 @@
     <t xml:space="preserve">2.8736457824707</t>
   </si>
   <si>
-    <t xml:space="preserve">2.99517798423767</t>
+    <t xml:space="preserve">2.99517750740051</t>
   </si>
   <si>
     <t xml:space="preserve">2.92461085319519</t>
   </si>
   <si>
-    <t xml:space="preserve">2.95597386360168</t>
+    <t xml:space="preserve">2.95597410202026</t>
   </si>
   <si>
     <t xml:space="preserve">2.97165536880493</t>
@@ -1544,40 +1544,40 @@
     <t xml:space="preserve">2.94029235839844</t>
   </si>
   <si>
-    <t xml:space="preserve">2.9638147354126</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.95989441871643</t>
+    <t xml:space="preserve">2.96381449699402</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.95989465713501</t>
   </si>
   <si>
     <t xml:space="preserve">3.00693893432617</t>
   </si>
   <si>
-    <t xml:space="preserve">3.10494875907898</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.06966519355774</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.03830242156982</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.07750582695007</t>
+    <t xml:space="preserve">3.1049485206604</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.06966543197632</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.03830194473267</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.07750606536865</t>
   </si>
   <si>
     <t xml:space="preserve">3.13631200790405</t>
   </si>
   <si>
-    <t xml:space="preserve">3.15983438491821</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.18335676193237</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.23824214935303</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.25000333786011</t>
+    <t xml:space="preserve">3.15983414649963</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.18335652351379</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.23824238777161</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.25000309944153</t>
   </si>
   <si>
     <t xml:space="preserve">3.25392365455627</t>
@@ -1589,16 +1589,16 @@
     <t xml:space="preserve">3.30096840858459</t>
   </si>
   <si>
-    <t xml:space="preserve">3.33233118057251</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.31272912025452</t>
+    <t xml:space="preserve">3.33233141899109</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.31272959709167</t>
   </si>
   <si>
     <t xml:space="preserve">3.27744579315186</t>
   </si>
   <si>
-    <t xml:space="preserve">3.20687913894653</t>
+    <t xml:space="preserve">3.20687890052795</t>
   </si>
   <si>
     <t xml:space="preserve">3.22648072242737</t>
@@ -1610,13 +1610,13 @@
     <t xml:space="preserve">3.24216246604919</t>
   </si>
   <si>
-    <t xml:space="preserve">3.19119739532471</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.1402325630188</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.12847113609314</t>
+    <t xml:space="preserve">3.19119763374329</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.14023232460022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.12847137451172</t>
   </si>
   <si>
     <t xml:space="preserve">3.11670970916748</t>
@@ -1637,40 +1637,40 @@
     <t xml:space="preserve">3.1637544631958</t>
   </si>
   <si>
-    <t xml:space="preserve">3.14807319641113</t>
+    <t xml:space="preserve">3.14807295799255</t>
   </si>
   <si>
     <t xml:space="preserve">3.04222273826599</t>
   </si>
   <si>
-    <t xml:space="preserve">3.12063026428223</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.12455058097839</t>
+    <t xml:space="preserve">3.12063050270081</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.12455081939697</t>
   </si>
   <si>
     <t xml:space="preserve">3.08534693717957</t>
   </si>
   <si>
-    <t xml:space="preserve">3.08926725387573</t>
+    <t xml:space="preserve">3.08926701545715</t>
   </si>
   <si>
     <t xml:space="preserve">3.11278963088989</t>
   </si>
   <si>
-    <t xml:space="preserve">3.10102820396423</t>
+    <t xml:space="preserve">3.10102868080139</t>
   </si>
   <si>
     <t xml:space="preserve">2.98341679573059</t>
   </si>
   <si>
-    <t xml:space="preserve">2.88148665428162</t>
+    <t xml:space="preserve">2.88148617744446</t>
   </si>
   <si>
     <t xml:space="preserve">2.93637180328369</t>
   </si>
   <si>
-    <t xml:space="preserve">2.97557592391968</t>
+    <t xml:space="preserve">2.97557616233826</t>
   </si>
   <si>
     <t xml:space="preserve">2.98733711242676</t>
@@ -1685,7 +1685,7 @@
     <t xml:space="preserve">3.00301861763</t>
   </si>
   <si>
-    <t xml:space="preserve">3.05790400505066</t>
+    <t xml:space="preserve">3.05790448188782</t>
   </si>
   <si>
     <t xml:space="preserve">3.0343816280365</t>
@@ -1700,67 +1700,67 @@
     <t xml:space="preserve">3.03046154975891</t>
   </si>
   <si>
-    <t xml:space="preserve">2.9324517250061</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.91284942626953</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.90108823776245</t>
+    <t xml:space="preserve">2.93245196342468</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.91284966468811</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.90108847618103</t>
   </si>
   <si>
     <t xml:space="preserve">2.94421291351318</t>
   </si>
   <si>
-    <t xml:space="preserve">2.8932478427887</t>
+    <t xml:space="preserve">2.89324760437012</t>
   </si>
   <si>
     <t xml:space="preserve">3.01870012283325</t>
   </si>
   <si>
-    <t xml:space="preserve">3.15199327468872</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.17551612854004</t>
+    <t xml:space="preserve">3.1519935131073</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.17551589012146</t>
   </si>
   <si>
     <t xml:space="preserve">3.09710812568665</t>
   </si>
   <si>
-    <t xml:space="preserve">3.10886931419373</t>
+    <t xml:space="preserve">3.10886907577515</t>
   </si>
   <si>
     <t xml:space="preserve">3.02262043952942</t>
   </si>
   <si>
-    <t xml:space="preserve">3.01085901260376</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.91676998138428</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.9520537853241</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.9912576675415</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.13239145278931</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.46562433242798</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.5479531288147</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.48522663116455</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.58323669433594</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.5244300365448</t>
+    <t xml:space="preserve">3.01085948944092</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.91677021980286</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.95205354690552</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.99125742912292</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.13239121437073</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.46562480926514</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.54795289039612</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.48522686958313</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.58323645591736</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.52443027496338</t>
   </si>
   <si>
     <t xml:space="preserve">3.58715677261353</t>
@@ -1772,46 +1772,46 @@
     <t xml:space="preserve">3.51658964157104</t>
   </si>
   <si>
-    <t xml:space="preserve">3.42249989509583</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.39505791664124</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.37937569618225</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.43818235397339</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.4813060760498</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.45386362075806</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.28920722007751</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.26176404953003</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.21079897880554</t>
+    <t xml:space="preserve">3.42250037193298</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.3950572013855</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.37937617301941</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.43818187713623</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.48130655288696</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.45386338233948</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.28920745849609</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.26176428794861</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.21079921722412</t>
   </si>
   <si>
     <t xml:space="preserve">3.08142638206482</t>
   </si>
   <si>
-    <t xml:space="preserve">3.2656843662262</t>
+    <t xml:space="preserve">3.26568484306335</t>
   </si>
   <si>
     <t xml:space="preserve">3.23432159423828</t>
   </si>
   <si>
-    <t xml:space="preserve">3.19511747360229</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.69722819328308</t>
+    <t xml:space="preserve">3.19511771202087</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.69722843170166</t>
   </si>
   <si>
     <t xml:space="preserve">2.13269209861755</t>
@@ -1820,34 +1820,34 @@
     <t xml:space="preserve">2.36399531364441</t>
   </si>
   <si>
-    <t xml:space="preserve">2.45024347305298</t>
+    <t xml:space="preserve">2.45024371147156</t>
   </si>
   <si>
     <t xml:space="preserve">2.49336814880371</t>
   </si>
   <si>
-    <t xml:space="preserve">2.50512886047363</t>
+    <t xml:space="preserve">2.50512909889221</t>
   </si>
   <si>
     <t xml:space="preserve">2.55217385292053</t>
   </si>
   <si>
-    <t xml:space="preserve">2.61882042884827</t>
+    <t xml:space="preserve">2.61882019042969</t>
   </si>
   <si>
     <t xml:space="preserve">2.60313868522644</t>
   </si>
   <si>
-    <t xml:space="preserve">2.63450217247009</t>
+    <t xml:space="preserve">2.63450193405151</t>
   </si>
   <si>
     <t xml:space="preserve">2.58353710174561</t>
   </si>
   <si>
-    <t xml:space="preserve">2.54433298110962</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.51689028739929</t>
+    <t xml:space="preserve">2.5443332195282</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.51689052581787</t>
   </si>
   <si>
     <t xml:space="preserve">2.63842248916626</t>
@@ -1856,28 +1856,28 @@
     <t xml:space="preserve">2.4972882270813</t>
   </si>
   <si>
-    <t xml:space="preserve">2.50904965400696</t>
+    <t xml:space="preserve">2.50904941558838</t>
   </si>
   <si>
     <t xml:space="preserve">2.46984553337097</t>
   </si>
   <si>
-    <t xml:space="preserve">2.51296997070312</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.53257203102112</t>
+    <t xml:space="preserve">2.51296973228455</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.53257179260254</t>
   </si>
   <si>
     <t xml:space="preserve">2.54041266441345</t>
   </si>
   <si>
-    <t xml:space="preserve">2.52865147590637</t>
+    <t xml:space="preserve">2.52865123748779</t>
   </si>
   <si>
     <t xml:space="preserve">2.54825329780579</t>
   </si>
   <si>
-    <t xml:space="preserve">2.52473115921021</t>
+    <t xml:space="preserve">2.52473092079163</t>
   </si>
   <si>
     <t xml:space="preserve">2.57177567481995</t>
@@ -1889,13 +1889,13 @@
     <t xml:space="preserve">2.64234280586243</t>
   </si>
   <si>
-    <t xml:space="preserve">2.61097955703735</t>
+    <t xml:space="preserve">2.61097979545593</t>
   </si>
   <si>
     <t xml:space="preserve">2.65018343925476</t>
   </si>
   <si>
-    <t xml:space="preserve">2.62274098396301</t>
+    <t xml:space="preserve">2.62274074554443</t>
   </si>
   <si>
     <t xml:space="preserve">2.6266610622406</t>
@@ -1910,13 +1910,13 @@
     <t xml:space="preserve">3.30880880355835</t>
   </si>
   <si>
-    <t xml:space="preserve">3.44994330406189</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.43426203727722</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.50704002380371</t>
+    <t xml:space="preserve">3.44994306564331</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.43426179885864</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.50703978538513</t>
   </si>
   <si>
     <t xml:space="preserve">3.32983303070068</t>
@@ -1925,10 +1925,10 @@
     <t xml:space="preserve">3.25565385818481</t>
   </si>
   <si>
-    <t xml:space="preserve">3.14438462257385</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.14026355743408</t>
+    <t xml:space="preserve">3.14438486099243</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.1402633190155</t>
   </si>
   <si>
     <t xml:space="preserve">3.21444296836853</t>
@@ -1943,22 +1943,22 @@
     <t xml:space="preserve">3.22680616378784</t>
   </si>
   <si>
-    <t xml:space="preserve">3.2721381187439</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.21856427192688</t>
+    <t xml:space="preserve">3.27213835716248</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.2185640335083</t>
   </si>
   <si>
     <t xml:space="preserve">3.11141610145569</t>
   </si>
   <si>
-    <t xml:space="preserve">3.06196284294128</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.08256864547729</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.09081053733826</t>
+    <t xml:space="preserve">3.06196308135986</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.08256840705872</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.09081029891968</t>
   </si>
   <si>
     <t xml:space="preserve">3.11965823173523</t>
@@ -1985,7 +1985,7 @@
     <t xml:space="preserve">2.93008852005005</t>
   </si>
   <si>
-    <t xml:space="preserve">2.91772508621216</t>
+    <t xml:space="preserve">2.91772484779358</t>
   </si>
   <si>
     <t xml:space="preserve">2.90124082565308</t>
@@ -1997,10 +1997,10 @@
     <t xml:space="preserve">2.86827206611633</t>
   </si>
   <si>
-    <t xml:space="preserve">2.78997159004211</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.92184615135193</t>
+    <t xml:space="preserve">2.78997135162354</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.92184638977051</t>
   </si>
   <si>
     <t xml:space="preserve">2.87651443481445</t>
@@ -2009,10 +2009,10 @@
     <t xml:space="preserve">2.89299845695496</t>
   </si>
   <si>
-    <t xml:space="preserve">2.80233526229858</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.76112389564514</t>
+    <t xml:space="preserve">2.80233502388</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.76112413406372</t>
   </si>
   <si>
     <t xml:space="preserve">2.74463987350464</t>
@@ -2021,7 +2021,7 @@
     <t xml:space="preserve">2.75288200378418</t>
   </si>
   <si>
-    <t xml:space="preserve">2.7116711139679</t>
+    <t xml:space="preserve">2.71167087554932</t>
   </si>
   <si>
     <t xml:space="preserve">2.73227667808533</t>
@@ -2030,7 +2030,7 @@
     <t xml:space="preserve">2.82706165313721</t>
   </si>
   <si>
-    <t xml:space="preserve">2.8723931312561</t>
+    <t xml:space="preserve">2.87239336967468</t>
   </si>
   <si>
     <t xml:space="preserve">2.86003017425537</t>
@@ -2057,7 +2057,7 @@
     <t xml:space="preserve">2.70342898368835</t>
   </si>
   <si>
-    <t xml:space="preserve">2.7075502872467</t>
+    <t xml:space="preserve">2.70755004882812</t>
   </si>
   <si>
     <t xml:space="preserve">2.75700306892395</t>
@@ -2066,7 +2066,7 @@
     <t xml:space="preserve">2.77348732948303</t>
   </si>
   <si>
-    <t xml:space="preserve">2.74876070022583</t>
+    <t xml:space="preserve">2.74876093864441</t>
   </si>
   <si>
     <t xml:space="preserve">2.71991324424744</t>
@@ -2078,7 +2078,7 @@
     <t xml:space="preserve">2.7776083946228</t>
   </si>
   <si>
-    <t xml:space="preserve">2.88475656509399</t>
+    <t xml:space="preserve">2.88475632667542</t>
   </si>
   <si>
     <t xml:space="preserve">2.64573383331299</t>
@@ -2093,7 +2093,7 @@
     <t xml:space="preserve">2.60864400863647</t>
   </si>
   <si>
-    <t xml:space="preserve">2.6333703994751</t>
+    <t xml:space="preserve">2.63337063789368</t>
   </si>
   <si>
     <t xml:space="preserve">2.62100744247437</t>
@@ -2108,7 +2108,7 @@
     <t xml:space="preserve">2.60452318191528</t>
   </si>
   <si>
-    <t xml:space="preserve">2.62924981117249</t>
+    <t xml:space="preserve">2.62924957275391</t>
   </si>
   <si>
     <t xml:space="preserve">2.64161276817322</t>
@@ -2132,22 +2132,22 @@
     <t xml:space="preserve">2.57155442237854</t>
   </si>
   <si>
-    <t xml:space="preserve">2.51385951042175</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.48913288116455</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.50561690330505</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.46852707862854</t>
+    <t xml:space="preserve">2.51385927200317</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.48913264274597</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.50561714172363</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.46852731704712</t>
   </si>
   <si>
     <t xml:space="preserve">2.50973844528198</t>
   </si>
   <si>
-    <t xml:space="preserve">2.40671133995056</t>
+    <t xml:space="preserve">2.40671110153198</t>
   </si>
   <si>
     <t xml:space="preserve">2.42319536209106</t>
@@ -2156,31 +2156,31 @@
     <t xml:space="preserve">2.45204281806946</t>
   </si>
   <si>
-    <t xml:space="preserve">2.44792175292969</t>
+    <t xml:space="preserve">2.44792199134827</t>
   </si>
   <si>
     <t xml:space="preserve">2.47676944732666</t>
   </si>
   <si>
-    <t xml:space="preserve">2.69518685340881</t>
+    <t xml:space="preserve">2.69518661499023</t>
   </si>
   <si>
     <t xml:space="preserve">2.74051880836487</t>
   </si>
   <si>
-    <t xml:space="preserve">2.86415076255798</t>
+    <t xml:space="preserve">2.86415100097656</t>
   </si>
   <si>
     <t xml:space="preserve">2.88887763023376</t>
   </si>
   <si>
-    <t xml:space="preserve">2.89711999893188</t>
+    <t xml:space="preserve">2.89711976051331</t>
   </si>
   <si>
     <t xml:space="preserve">2.84766674041748</t>
   </si>
   <si>
-    <t xml:space="preserve">2.84354567527771</t>
+    <t xml:space="preserve">2.84354591369629</t>
   </si>
   <si>
     <t xml:space="preserve">2.81881928443909</t>
@@ -2198,7 +2198,7 @@
     <t xml:space="preserve">3.01663112640381</t>
   </si>
   <si>
-    <t xml:space="preserve">2.99602580070496</t>
+    <t xml:space="preserve">2.99602556228638</t>
   </si>
   <si>
     <t xml:space="preserve">3.02487349510193</t>
@@ -2210,10 +2210,10 @@
     <t xml:space="preserve">3.05372095108032</t>
   </si>
   <si>
-    <t xml:space="preserve">3.06608390808105</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.16498970985413</t>
+    <t xml:space="preserve">3.06608414649963</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.16498994827271</t>
   </si>
   <si>
     <t xml:space="preserve">3.10317397117615</t>
@@ -2234,7 +2234,7 @@
     <t xml:space="preserve">2.95481514930725</t>
   </si>
   <si>
-    <t xml:space="preserve">2.98778367042542</t>
+    <t xml:space="preserve">2.98778343200684</t>
   </si>
   <si>
     <t xml:space="preserve">3.02075219154358</t>
@@ -2243,22 +2243,22 @@
     <t xml:space="preserve">3.07844734191895</t>
   </si>
   <si>
-    <t xml:space="preserve">3.04547882080078</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.04959964752197</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.03723621368408</t>
+    <t xml:space="preserve">3.0454785823822</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.04959988594055</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.03723645210266</t>
   </si>
   <si>
     <t xml:space="preserve">3.0990526676178</t>
   </si>
   <si>
-    <t xml:space="preserve">3.09493160247803</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.01251006126404</t>
+    <t xml:space="preserve">3.09493184089661</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.01250982284546</t>
   </si>
   <si>
     <t xml:space="preserve">2.96305704116821</t>
@@ -2279,7 +2279,7 @@
     <t xml:space="preserve">3.16911125183105</t>
   </si>
   <si>
-    <t xml:space="preserve">3.18559551239014</t>
+    <t xml:space="preserve">3.18559527397156</t>
   </si>
   <si>
     <t xml:space="preserve">3.15262675285339</t>
@@ -2294,10 +2294,10 @@
     <t xml:space="preserve">3.12790036201477</t>
   </si>
   <si>
-    <t xml:space="preserve">3.22268509864807</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.19795894622803</t>
+    <t xml:space="preserve">3.22268533706665</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.19795870780945</t>
   </si>
   <si>
     <t xml:space="preserve">3.17323207855225</t>
@@ -2312,7 +2312,7 @@
     <t xml:space="preserve">3.18971633911133</t>
   </si>
   <si>
-    <t xml:space="preserve">3.23916935920715</t>
+    <t xml:space="preserve">3.23916959762573</t>
   </si>
   <si>
     <t xml:space="preserve">3.27625918388367</t>
@@ -59755,7 +59755,7 @@
     </row>
     <row r="2156">
       <c r="A2156" s="1" t="n">
-        <v>45463.6494097222</v>
+        <v>45463.2916666667</v>
       </c>
       <c r="B2156" t="n">
         <v>96012</v>
@@ -59776,6 +59776,32 @@
         <v>1119</v>
       </c>
       <c r="H2156" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2157">
+      <c r="A2157" s="1" t="n">
+        <v>45464.649525463</v>
+      </c>
+      <c r="B2157" t="n">
+        <v>283863</v>
+      </c>
+      <c r="C2157" t="n">
+        <v>2.25999999046326</v>
+      </c>
+      <c r="D2157" t="n">
+        <v>2.22499990463257</v>
+      </c>
+      <c r="E2157" t="n">
+        <v>2.25500011444092</v>
+      </c>
+      <c r="F2157" t="n">
+        <v>2.24499988555908</v>
+      </c>
+      <c r="G2157" t="s">
+        <v>1119</v>
+      </c>
+      <c r="H2157" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/ASC.MI.xlsx
+++ b/data/ASC.MI.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1128" uniqueCount="1128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1129" uniqueCount="1129">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -38,7 +38,7 @@
     <t xml:space="preserve">ticker</t>
   </si>
   <si>
-    <t xml:space="preserve">1.31329572200775</t>
+    <t xml:space="preserve">1.31329584121704</t>
   </si>
   <si>
     <t xml:space="preserve">ASC.MI</t>
@@ -47,16 +47,16 @@
     <t xml:space="preserve">1.31448101997375</t>
   </si>
   <si>
-    <t xml:space="preserve">1.3026282787323</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.3038135766983</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.28959023952484</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.28247845172882</t>
+    <t xml:space="preserve">1.30262804031372</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.30381369590759</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.28959012031555</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.28247833251953</t>
   </si>
   <si>
     <t xml:space="preserve">1.30974006652832</t>
@@ -74,10 +74,10 @@
     <t xml:space="preserve">1.23032569885254</t>
   </si>
   <si>
-    <t xml:space="preserve">1.19121146202087</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.21491718292236</t>
+    <t xml:space="preserve">1.19121134281158</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.21491694450378</t>
   </si>
   <si>
     <t xml:space="preserve">1.29196059703827</t>
@@ -86,7 +86,7 @@
     <t xml:space="preserve">1.28840482234955</t>
   </si>
   <si>
-    <t xml:space="preserve">1.28129303455353</t>
+    <t xml:space="preserve">1.28129315376282</t>
   </si>
   <si>
     <t xml:space="preserve">1.30736935138702</t>
@@ -95,10 +95,10 @@
     <t xml:space="preserve">1.31211042404175</t>
   </si>
   <si>
-    <t xml:space="preserve">1.297886967659</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.23862266540527</t>
+    <t xml:space="preserve">1.29788708686829</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.23862278461456</t>
   </si>
   <si>
     <t xml:space="preserve">1.244549036026</t>
@@ -107,13 +107,13 @@
     <t xml:space="preserve">1.24336397647858</t>
   </si>
   <si>
-    <t xml:space="preserve">1.22439932823181</t>
+    <t xml:space="preserve">1.2243994474411</t>
   </si>
   <si>
     <t xml:space="preserve">1.24099338054657</t>
   </si>
   <si>
-    <t xml:space="preserve">1.26469910144806</t>
+    <t xml:space="preserve">1.26469898223877</t>
   </si>
   <si>
     <t xml:space="preserve">1.26232850551605</t>
@@ -122,52 +122,52 @@
     <t xml:space="preserve">1.26825487613678</t>
   </si>
   <si>
-    <t xml:space="preserve">1.27062547206879</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.3251485824585</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.32159280776978</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.32396340370178</t>
+    <t xml:space="preserve">1.2706253528595</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.32514870166779</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.32159268856049</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.32396328449249</t>
   </si>
   <si>
     <t xml:space="preserve">1.31685137748718</t>
   </si>
   <si>
-    <t xml:space="preserve">1.31922233104706</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.30618405342102</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.31803679466248</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.33581614494324</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.34411287307739</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.34648382663727</t>
+    <t xml:space="preserve">1.31922221183777</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.30618393421173</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.31803703308105</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.33581602573395</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.34411299228668</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.34648394584656</t>
   </si>
   <si>
     <t xml:space="preserve">1.36070716381073</t>
   </si>
   <si>
-    <t xml:space="preserve">1.35833644866943</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.34766900539398</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.34292793273926</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.36189258098602</t>
+    <t xml:space="preserve">1.35833656787872</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.34766888618469</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.34292781352997</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.36189234256744</t>
   </si>
   <si>
     <t xml:space="preserve">1.34055733680725</t>
@@ -176,79 +176,79 @@
     <t xml:space="preserve">1.35596597194672</t>
   </si>
   <si>
-    <t xml:space="preserve">1.35952186584473</t>
+    <t xml:space="preserve">1.35952174663544</t>
   </si>
   <si>
     <t xml:space="preserve">1.36307764053345</t>
   </si>
   <si>
-    <t xml:space="preserve">1.3488541841507</t>
+    <t xml:space="preserve">1.34885430335999</t>
   </si>
   <si>
     <t xml:space="preserve">1.36426305770874</t>
   </si>
   <si>
-    <t xml:space="preserve">1.38796854019165</t>
+    <t xml:space="preserve">1.38796865940094</t>
   </si>
   <si>
     <t xml:space="preserve">1.38085699081421</t>
   </si>
   <si>
-    <t xml:space="preserve">1.38322758674622</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.38678336143494</t>
+    <t xml:space="preserve">1.38322734832764</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.38678348064423</t>
   </si>
   <si>
     <t xml:space="preserve">1.39152467250824</t>
   </si>
   <si>
-    <t xml:space="preserve">1.3986359834671</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.3784863948822</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.3796718120575</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.3820424079895</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.4021919965744</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.41048908233643</t>
+    <t xml:space="preserve">1.39863622188568</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.37848615646362</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.37967169284821</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.38204228878021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.40219187736511</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.410489320755</t>
   </si>
   <si>
     <t xml:space="preserve">1.41760087013245</t>
   </si>
   <si>
-    <t xml:space="preserve">1.41523039340973</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.40456259250641</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.3998214006424</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.43281102180481</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.4302796125412</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.43407690525055</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.44926559925079</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.46572029590607</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.46192288398743</t>
+    <t xml:space="preserve">1.41523015499115</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.40456247329712</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.39982151985168</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.4328111410141</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.43027985095978</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.43407678604126</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.44926571846008</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.46572017669678</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.46192300319672</t>
   </si>
   <si>
     <t xml:space="preserve">1.47584617137909</t>
@@ -257,31 +257,31 @@
     <t xml:space="preserve">1.48344051837921</t>
   </si>
   <si>
-    <t xml:space="preserve">1.48470628261566</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.48976910114288</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.4948319196701</t>
+    <t xml:space="preserve">1.48470604419708</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.48976922035217</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.49483203887939</t>
   </si>
   <si>
     <t xml:space="preserve">1.50242638587952</t>
   </si>
   <si>
-    <t xml:space="preserve">1.53153836727142</t>
+    <t xml:space="preserve">1.53153848648071</t>
   </si>
   <si>
     <t xml:space="preserve">1.52900671958923</t>
   </si>
   <si>
-    <t xml:space="preserve">1.54419565200806</t>
+    <t xml:space="preserve">1.54419589042664</t>
   </si>
   <si>
     <t xml:space="preserve">1.55938458442688</t>
   </si>
   <si>
-    <t xml:space="preserve">1.58343362808228</t>
+    <t xml:space="preserve">1.58343350887299</t>
   </si>
   <si>
     <t xml:space="preserve">1.5454615354538</t>
@@ -290,46 +290,46 @@
     <t xml:space="preserve">1.55685317516327</t>
   </si>
   <si>
-    <t xml:space="preserve">1.53913283348083</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.58216774463654</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.65178310871124</t>
+    <t xml:space="preserve">1.53913271427155</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.58216786384583</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.65178322792053</t>
   </si>
   <si>
     <t xml:space="preserve">1.6581118106842</t>
   </si>
   <si>
-    <t xml:space="preserve">1.64039134979248</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.56571292877197</t>
+    <t xml:space="preserve">1.64039146900177</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.56571316719055</t>
   </si>
   <si>
     <t xml:space="preserve">1.5505245923996</t>
   </si>
   <si>
-    <t xml:space="preserve">1.5986225605011</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.64418888092041</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.5884964466095</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.56318175792694</t>
+    <t xml:space="preserve">1.59862232208252</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.64418876171112</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.58849656581879</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.56318199634552</t>
   </si>
   <si>
     <t xml:space="preserve">1.60495090484619</t>
   </si>
   <si>
-    <t xml:space="preserve">1.63912582397461</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.70874130725861</t>
+    <t xml:space="preserve">1.63912570476532</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.70874106884003</t>
   </si>
   <si>
     <t xml:space="preserve">1.69481813907623</t>
@@ -338,7 +338,7 @@
     <t xml:space="preserve">1.63786005973816</t>
   </si>
   <si>
-    <t xml:space="preserve">1.69355249404907</t>
+    <t xml:space="preserve">1.69355237483978</t>
   </si>
   <si>
     <t xml:space="preserve">1.70494401454926</t>
@@ -353,37 +353,37 @@
     <t xml:space="preserve">1.76823055744171</t>
   </si>
   <si>
-    <t xml:space="preserve">1.77076208591461</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.73532199859619</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.73405563831329</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.77202785015106</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.78468501567841</t>
+    <t xml:space="preserve">1.77076232433319</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.73532176017761</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.73405611515045</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.77202808856964</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.7846851348877</t>
   </si>
   <si>
     <t xml:space="preserve">1.75051057338715</t>
   </si>
   <si>
-    <t xml:space="preserve">1.7467132806778</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.75304186344147</t>
+    <t xml:space="preserve">1.74671339988708</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.75304198265076</t>
   </si>
   <si>
     <t xml:space="preserve">1.76443350315094</t>
   </si>
   <si>
-    <t xml:space="preserve">1.80620276927948</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.84164321422577</t>
+    <t xml:space="preserve">1.80620288848877</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.84164333343506</t>
   </si>
   <si>
     <t xml:space="preserve">1.80367124080658</t>
@@ -392,49 +392,49 @@
     <t xml:space="preserve">1.8327831029892</t>
   </si>
   <si>
-    <t xml:space="preserve">1.82012581825256</t>
+    <t xml:space="preserve">1.82012569904327</t>
   </si>
   <si>
     <t xml:space="preserve">1.79734265804291</t>
   </si>
   <si>
-    <t xml:space="preserve">1.79607677459717</t>
+    <t xml:space="preserve">1.79607713222504</t>
   </si>
   <si>
     <t xml:space="preserve">1.79354548454285</t>
   </si>
   <si>
-    <t xml:space="preserve">1.81632852554321</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.82265734672546</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.81000006198883</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.82518875598907</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.81126570701599</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.70241248607635</t>
+    <t xml:space="preserve">1.8163286447525</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.82265758514404</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.80999982357025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.82518863677979</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.8112655878067</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.70241236686707</t>
   </si>
   <si>
     <t xml:space="preserve">1.71380388736725</t>
   </si>
   <si>
-    <t xml:space="preserve">1.7897481918335</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.74038445949554</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.65558016300201</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.67583239078522</t>
+    <t xml:space="preserve">1.78974795341492</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.74038481712341</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.65558040142059</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.67583191394806</t>
   </si>
   <si>
     <t xml:space="preserve">1.64798605442047</t>
@@ -443,70 +443,70 @@
     <t xml:space="preserve">1.6745662689209</t>
   </si>
   <si>
-    <t xml:space="preserve">1.66064345836639</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.68722355365753</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.69861531257629</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.66444039344788</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.67709767818451</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.65684604644775</t>
+    <t xml:space="preserve">1.66064321994781</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.68722367286682</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.698615193367</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.66444051265717</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.6770977973938</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.65684580802917</t>
   </si>
   <si>
     <t xml:space="preserve">1.65937757492065</t>
   </si>
   <si>
-    <t xml:space="preserve">1.66190874576569</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.68469214439392</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.69228661060333</t>
+    <t xml:space="preserve">1.66190898418427</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.6846923828125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.69228649139404</t>
   </si>
   <si>
     <t xml:space="preserve">1.69608390331268</t>
   </si>
   <si>
-    <t xml:space="preserve">1.70114696025848</t>
+    <t xml:space="preserve">1.70114636421204</t>
   </si>
   <si>
     <t xml:space="preserve">1.66317474842072</t>
   </si>
   <si>
-    <t xml:space="preserve">1.68975508213043</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.68595826625824</t>
+    <t xml:space="preserve">1.68975520133972</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.68595790863037</t>
   </si>
   <si>
     <t xml:space="preserve">1.67836344242096</t>
   </si>
   <si>
-    <t xml:space="preserve">1.63406300544739</t>
+    <t xml:space="preserve">1.6340628862381</t>
   </si>
   <si>
     <t xml:space="preserve">1.57710492610931</t>
   </si>
   <si>
-    <t xml:space="preserve">1.53406977653503</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.53533565998077</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.540398478508</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.52267813682556</t>
+    <t xml:space="preserve">1.53406989574432</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.53533554077148</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.54039859771729</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.52267801761627</t>
   </si>
   <si>
     <t xml:space="preserve">1.60115385055542</t>
@@ -515,136 +515,136 @@
     <t xml:space="preserve">1.63153147697449</t>
   </si>
   <si>
-    <t xml:space="preserve">1.60748219490051</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.57583904266357</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.53786706924438</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.55558717250824</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.58723080158234</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.61381137371063</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.6289998292923</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.62393712997437</t>
+    <t xml:space="preserve">1.60748255252838</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.57583916187286</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.53786683082581</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.55558729171753</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.58723056316376</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.61381113529205</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.62899994850159</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.62393689155579</t>
   </si>
   <si>
     <t xml:space="preserve">1.64545452594757</t>
   </si>
   <si>
-    <t xml:space="preserve">1.63659429550171</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.63026571273804</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.68089497089386</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.71000695228577</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.69988131523132</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.72139847278595</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.71760141849518</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.72392988204956</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.73658728599548</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.71506989002228</t>
+    <t xml:space="preserve">1.63659405708313</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.63026559352875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.68089473247528</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.71000707149506</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.69988107681274</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.72139871120453</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.71760153770447</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.72393012046814</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.73658740520477</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.71506977081299</t>
   </si>
   <si>
     <t xml:space="preserve">1.72266411781311</t>
   </si>
   <si>
-    <t xml:space="preserve">1.73279023170471</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.75177597999573</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.76190221309662</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.75937068462372</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.73025870323181</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.81253135204315</t>
+    <t xml:space="preserve">1.73279011249542</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.75177609920502</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.76190209388733</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.75937056541443</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.7302588224411</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.81253170967102</t>
   </si>
   <si>
     <t xml:space="preserve">1.80493688583374</t>
   </si>
   <si>
-    <t xml:space="preserve">1.78848254680634</t>
+    <t xml:space="preserve">1.78848242759705</t>
   </si>
   <si>
     <t xml:space="preserve">1.77709078788757</t>
   </si>
   <si>
-    <t xml:space="preserve">1.82139158248901</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.82771992683411</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.7948112487793</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.82898604869843</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.84037744998932</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.81379735469818</t>
+    <t xml:space="preserve">1.82139134407043</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.8277200460434</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.79481089115143</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.828986287117</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.84037721157074</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.81379699707031</t>
   </si>
   <si>
     <t xml:space="preserve">1.86695790290833</t>
   </si>
   <si>
-    <t xml:space="preserve">1.86062932014465</t>
+    <t xml:space="preserve">1.86062920093536</t>
   </si>
   <si>
     <t xml:space="preserve">1.8859441280365</t>
   </si>
   <si>
-    <t xml:space="preserve">1.91758704185486</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.93404173851013</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.95049667358398</t>
+    <t xml:space="preserve">1.91758751869202</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.93404197692871</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.95049679279327</t>
   </si>
   <si>
     <t xml:space="preserve">1.9593563079834</t>
   </si>
   <si>
-    <t xml:space="preserve">1.95555925369263</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.99732863903046</t>
+    <t xml:space="preserve">1.95555937290192</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.99732840061188</t>
   </si>
   <si>
     <t xml:space="preserve">1.98213982582092</t>
@@ -653,16 +653,16 @@
     <t xml:space="preserve">2.03656649589539</t>
   </si>
   <si>
-    <t xml:space="preserve">2.0631468296051</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.08339858055115</t>
+    <t xml:space="preserve">2.06314659118652</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.08339881896973</t>
   </si>
   <si>
     <t xml:space="preserve">2.10238456726074</t>
   </si>
   <si>
-    <t xml:space="preserve">2.06947565078735</t>
+    <t xml:space="preserve">2.06947541236877</t>
   </si>
   <si>
     <t xml:space="preserve">2.07200694084167</t>
@@ -680,16 +680,16 @@
     <t xml:space="preserve">2.16440534591675</t>
   </si>
   <si>
-    <t xml:space="preserve">2.15174794197083</t>
+    <t xml:space="preserve">2.1517481803894</t>
   </si>
   <si>
     <t xml:space="preserve">2.15681099891663</t>
   </si>
   <si>
-    <t xml:space="preserve">2.19604897499084</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.20490884780884</t>
+    <t xml:space="preserve">2.19604873657227</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.20490908622742</t>
   </si>
   <si>
     <t xml:space="preserve">2.21883201599121</t>
@@ -698,139 +698,142 @@
     <t xml:space="preserve">2.22769236564636</t>
   </si>
   <si>
-    <t xml:space="preserve">2.23148941993713</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.21503496170044</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.24034929275513</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.23275518417358</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.22895836830139</t>
+    <t xml:space="preserve">2.23148918151855</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.21503472328186</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.24034953117371</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.232754945755</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.22895765304565</t>
   </si>
   <si>
     <t xml:space="preserve">2.21376919746399</t>
   </si>
   <si>
-    <t xml:space="preserve">2.22516059875488</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.27452445030212</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.24288082122803</t>
+    <t xml:space="preserve">2.22516083717346</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.2745246887207</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.24288058280945</t>
   </si>
   <si>
     <t xml:space="preserve">2.23908376693726</t>
   </si>
   <si>
-    <t xml:space="preserve">2.27832126617432</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.2694616317749</t>
+    <t xml:space="preserve">2.2783215045929</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.26946139335632</t>
   </si>
   <si>
     <t xml:space="preserve">2.27325868606567</t>
   </si>
   <si>
-    <t xml:space="preserve">2.29224419593811</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.34160828590393</t>
+    <t xml:space="preserve">2.29224491119385</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.34160804748535</t>
   </si>
   <si>
     <t xml:space="preserve">2.34920287132263</t>
   </si>
   <si>
+    <t xml:space="preserve">2.39350318908691</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.4227409362793</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.4094512462616</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.39616131782532</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.37755584716797</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.3164222240448</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.31243515014648</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.35230493545532</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.31376457214355</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.3004744052887</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.36559462547302</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.38154268264771</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.40014839172363</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.4147675037384</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.43204379081726</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.41875433921814</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.3629367351532</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.40147757530212</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.40812230110168</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.4253990650177</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.43071508407593</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.40413546562195</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.392174243927</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.412109375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.41343832015991</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.40679335594177</t>
+  </si>
+  <si>
     <t xml:space="preserve">2.39350342750549</t>
   </si>
   <si>
-    <t xml:space="preserve">2.42274117469788</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.40945148468018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.3961615562439</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.37755537033081</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.31642246246338</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.31243562698364</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.35230493545532</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.31376457214355</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.30047464370728</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.36559462547302</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.38154268264771</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.40014815330505</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.41476726531982</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.43204426765442</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.41875433921814</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.3629367351532</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.40147757530212</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.40812206268311</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.4253990650177</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.43071484565735</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.40413546562195</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.39217448234558</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.41210961341858</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.41343832015991</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.40679335594177</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.47058439254761</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.38951659202576</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.37489771842957</t>
+    <t xml:space="preserve">2.47058463096619</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.38951635360718</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.37489748001099</t>
   </si>
   <si>
     <t xml:space="preserve">2.35762071609497</t>
@@ -839,19 +842,19 @@
     <t xml:space="preserve">2.35894966125488</t>
   </si>
   <si>
-    <t xml:space="preserve">2.31509327888489</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.30579018592834</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.33104109764099</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.32173848152161</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.31907987594604</t>
+    <t xml:space="preserve">2.31509351730347</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.30579042434692</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.33104085922241</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.32173824310303</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.3190803527832</t>
   </si>
   <si>
     <t xml:space="preserve">2.32306718826294</t>
@@ -860,52 +863,52 @@
     <t xml:space="preserve">2.32838296890259</t>
   </si>
   <si>
-    <t xml:space="preserve">2.30446124076843</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.26592063903809</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.25661778450012</t>
+    <t xml:space="preserve">2.30446100234985</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.26592087745667</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.25661826133728</t>
   </si>
   <si>
     <t xml:space="preserve">2.27921056747437</t>
   </si>
   <si>
-    <t xml:space="preserve">2.29250073432922</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.30180335044861</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.38552951812744</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.38021373748779</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.39084529876709</t>
+    <t xml:space="preserve">2.29250049591064</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.30180358886719</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.38552927970886</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.38021397590637</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.39084577560425</t>
   </si>
   <si>
     <t xml:space="preserve">2.37622666358948</t>
   </si>
   <si>
-    <t xml:space="preserve">2.35629224777222</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.33901500701904</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.34034419059753</t>
+    <t xml:space="preserve">2.35629177093506</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.33901476860046</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.34034395217896</t>
   </si>
   <si>
     <t xml:space="preserve">2.32572507858276</t>
   </si>
   <si>
-    <t xml:space="preserve">2.35097599029541</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.30977725982666</t>
+    <t xml:space="preserve">2.35097575187683</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.30977749824524</t>
   </si>
   <si>
     <t xml:space="preserve">2.35496282577515</t>
@@ -914,49 +917,49 @@
     <t xml:space="preserve">2.43470215797424</t>
   </si>
   <si>
-    <t xml:space="preserve">2.39881896972656</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.42141199111938</t>
+    <t xml:space="preserve">2.3988196849823</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.42141222953796</t>
   </si>
   <si>
     <t xml:space="preserve">2.34698891639709</t>
   </si>
   <si>
-    <t xml:space="preserve">2.34831809997559</t>
+    <t xml:space="preserve">2.34831762313843</t>
   </si>
   <si>
     <t xml:space="preserve">2.33502793312073</t>
   </si>
   <si>
-    <t xml:space="preserve">2.32971239089966</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.39483237266541</t>
+    <t xml:space="preserve">2.32971215248108</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.39483284950256</t>
   </si>
   <si>
     <t xml:space="preserve">2.37223958969116</t>
   </si>
   <si>
-    <t xml:space="preserve">2.39749050140381</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.36825227737427</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.41742491722107</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.43603110313416</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.4719135761261</t>
+    <t xml:space="preserve">2.39749026298523</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.36825251579285</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.41742515563965</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.43603086471558</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.47191333770752</t>
   </si>
   <si>
     <t xml:space="preserve">2.48254537582397</t>
   </si>
   <si>
-    <t xml:space="preserve">2.53437614440918</t>
+    <t xml:space="preserve">2.5343759059906</t>
   </si>
   <si>
     <t xml:space="preserve">2.51311206817627</t>
@@ -971,76 +974,76 @@
     <t xml:space="preserve">2.45197868347168</t>
   </si>
   <si>
-    <t xml:space="preserve">2.45729422569275</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.40546464920044</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.42938590049744</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.47324252128601</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.4586238861084</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.44134712219238</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.42672801017761</t>
+    <t xml:space="preserve">2.45729470252991</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.40546417236328</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.42938613891602</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.47324275970459</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.45862364768982</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.4413468837738</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.42672824859619</t>
   </si>
   <si>
     <t xml:space="preserve">2.44932103157043</t>
   </si>
   <si>
-    <t xml:space="preserve">2.37888479232788</t>
+    <t xml:space="preserve">2.37888431549072</t>
   </si>
   <si>
     <t xml:space="preserve">2.42872166633606</t>
   </si>
   <si>
-    <t xml:space="preserve">2.4453341960907</t>
+    <t xml:space="preserve">2.44533395767212</t>
   </si>
   <si>
     <t xml:space="preserve">2.43868899345398</t>
   </si>
   <si>
-    <t xml:space="preserve">2.44201135635376</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.3822066783905</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.19282698631287</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.09979724884033</t>
+    <t xml:space="preserve">2.44201111793518</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.38220715522766</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.19282650947571</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.09979748725891</t>
   </si>
   <si>
     <t xml:space="preserve">2.15960192680359</t>
   </si>
   <si>
-    <t xml:space="preserve">2.12969994544983</t>
+    <t xml:space="preserve">2.12969970703125</t>
   </si>
   <si>
     <t xml:space="preserve">2.09315276145935</t>
   </si>
   <si>
-    <t xml:space="preserve">2.14631199836731</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.13634467124939</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.17289185523987</t>
+    <t xml:space="preserve">2.14631175994873</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.13634443283081</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.17289161682129</t>
   </si>
   <si>
     <t xml:space="preserve">2.17953681945801</t>
   </si>
   <si>
-    <t xml:space="preserve">2.12305474281311</t>
+    <t xml:space="preserve">2.12305498123169</t>
   </si>
   <si>
     <t xml:space="preserve">2.10644268989563</t>
@@ -1049,28 +1052,28 @@
     <t xml:space="preserve">2.08318519592285</t>
   </si>
   <si>
-    <t xml:space="preserve">2.07321786880493</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.03334832191467</t>
+    <t xml:space="preserve">2.07321810722351</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.03334856033325</t>
   </si>
   <si>
     <t xml:space="preserve">2.06989550590515</t>
   </si>
   <si>
-    <t xml:space="preserve">2.07986259460449</t>
+    <t xml:space="preserve">2.07986307144165</t>
   </si>
   <si>
     <t xml:space="preserve">2.10312008857727</t>
   </si>
   <si>
-    <t xml:space="preserve">2.14298939704895</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.09647512435913</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.12637710571289</t>
+    <t xml:space="preserve">2.14298987388611</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.09647536277771</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.12637734413147</t>
   </si>
   <si>
     <t xml:space="preserve">2.13302230834961</t>
@@ -1079,7 +1082,7 @@
     <t xml:space="preserve">2.18285918235779</t>
   </si>
   <si>
-    <t xml:space="preserve">2.16292428970337</t>
+    <t xml:space="preserve">2.16292452812195</t>
   </si>
   <si>
     <t xml:space="preserve">2.11640977859497</t>
@@ -1088,49 +1091,49 @@
     <t xml:space="preserve">2.11973237991333</t>
   </si>
   <si>
-    <t xml:space="preserve">2.15627956390381</t>
+    <t xml:space="preserve">2.15627932548523</t>
   </si>
   <si>
     <t xml:space="preserve">2.16624689102173</t>
   </si>
   <si>
-    <t xml:space="preserve">2.19947123527527</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.17621421813965</t>
+    <t xml:space="preserve">2.19947171211243</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.17621445655823</t>
   </si>
   <si>
     <t xml:space="preserve">2.18618154525757</t>
   </si>
   <si>
-    <t xml:space="preserve">2.20943927764893</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.21276116371155</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.2592761516571</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.3456597328186</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.3290479183197</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.3465588092804</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.44279003143311</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.39837598800659</t>
+    <t xml:space="preserve">2.20943880081177</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.21276140213013</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.25927591323853</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.34566020965576</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.32904767990112</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.34655904769897</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.44279026985168</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.39837551116943</t>
   </si>
   <si>
     <t xml:space="preserve">2.36876654624939</t>
   </si>
   <si>
-    <t xml:space="preserve">2.4131805896759</t>
+    <t xml:space="preserve">2.41318035125732</t>
   </si>
   <si>
     <t xml:space="preserve">2.3539617061615</t>
@@ -1139,7 +1142,7 @@
     <t xml:space="preserve">2.31694960594177</t>
   </si>
   <si>
-    <t xml:space="preserve">2.30584573745728</t>
+    <t xml:space="preserve">2.30584597587585</t>
   </si>
   <si>
     <t xml:space="preserve">2.29844355583191</t>
@@ -1148,16 +1151,16 @@
     <t xml:space="preserve">2.29104113578796</t>
   </si>
   <si>
-    <t xml:space="preserve">2.27993774414062</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.26143145561218</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.22441983222961</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.12818837165833</t>
+    <t xml:space="preserve">2.27993750572205</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.26143169403076</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.22441959381104</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.1281886100769</t>
   </si>
   <si>
     <t xml:space="preserve">2.18370652198792</t>
@@ -1166,19 +1169,19 @@
     <t xml:space="preserve">2.23182201385498</t>
   </si>
   <si>
-    <t xml:space="preserve">2.22071838378906</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.20591354370117</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.18000555038452</t>
+    <t xml:space="preserve">2.22071814537048</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.20591378211975</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.18000531196594</t>
   </si>
   <si>
     <t xml:space="preserve">2.25773024559021</t>
   </si>
   <si>
-    <t xml:space="preserve">2.26513290405273</t>
+    <t xml:space="preserve">2.26513266563416</t>
   </si>
   <si>
     <t xml:space="preserve">2.2022123336792</t>
@@ -1196,67 +1199,67 @@
     <t xml:space="preserve">2.26883387565613</t>
   </si>
   <si>
-    <t xml:space="preserve">2.24662685394287</t>
+    <t xml:space="preserve">2.24662709236145</t>
   </si>
   <si>
     <t xml:space="preserve">2.18740749359131</t>
   </si>
   <si>
-    <t xml:space="preserve">2.1689019203186</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.15779829025269</t>
+    <t xml:space="preserve">2.16890144348145</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.15779805183411</t>
   </si>
   <si>
     <t xml:space="preserve">2.13929200172424</t>
   </si>
   <si>
-    <t xml:space="preserve">2.13559079170227</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.12078595161438</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.12448740005493</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.14669466018677</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.11708474159241</t>
+    <t xml:space="preserve">2.13559126853943</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.12078642845154</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.12448716163635</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.14669442176819</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.11708498001099</t>
   </si>
   <si>
     <t xml:space="preserve">2.10968255996704</t>
   </si>
   <si>
-    <t xml:space="preserve">2.32435178756714</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.33175444602966</t>
+    <t xml:space="preserve">2.3243522644043</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.33175420761108</t>
   </si>
   <si>
     <t xml:space="preserve">2.37246751785278</t>
   </si>
   <si>
-    <t xml:space="preserve">2.62044739723206</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.48350381851196</t>
+    <t xml:space="preserve">2.62044763565063</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.4835033416748</t>
   </si>
   <si>
     <t xml:space="preserve">2.47980213165283</t>
   </si>
   <si>
-    <t xml:space="preserve">2.41688179969788</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.42058277130127</t>
+    <t xml:space="preserve">2.41688203811646</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.42058300971985</t>
   </si>
   <si>
     <t xml:space="preserve">2.40577816963196</t>
   </si>
   <si>
-    <t xml:space="preserve">2.36506533622742</t>
+    <t xml:space="preserve">2.36506509780884</t>
   </si>
   <si>
     <t xml:space="preserve">2.32065057754517</t>
@@ -1268,37 +1271,34 @@
     <t xml:space="preserve">2.23922443389893</t>
   </si>
   <si>
-    <t xml:space="preserve">2.30954742431641</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.27623653411865</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.2836389541626</t>
+    <t xml:space="preserve">2.30954718589783</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.27623629570007</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.28363871574402</t>
   </si>
   <si>
     <t xml:space="preserve">2.3021445274353</t>
   </si>
   <si>
-    <t xml:space="preserve">2.31324863433838</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.34285807609558</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.33915710449219</t>
+    <t xml:space="preserve">2.31324815750122</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.342857837677</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.33915686607361</t>
   </si>
   <si>
     <t xml:space="preserve">2.33545541763306</t>
   </si>
   <si>
-    <t xml:space="preserve">2.34655904769897</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.2429256439209</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.17630386352539</t>
+    <t xml:space="preserve">2.24292588233948</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.17630410194397</t>
   </si>
   <si>
     <t xml:space="preserve">2.19110894203186</t>
@@ -1310,49 +1310,49 @@
     <t xml:space="preserve">2.08747529983521</t>
   </si>
   <si>
-    <t xml:space="preserve">2.15039563179016</t>
+    <t xml:space="preserve">2.15039587020874</t>
   </si>
   <si>
     <t xml:space="preserve">2.15409684181213</t>
   </si>
   <si>
-    <t xml:space="preserve">2.2540295124054</t>
+    <t xml:space="preserve">2.25402927398682</t>
   </si>
   <si>
     <t xml:space="preserve">2.2725350856781</t>
   </si>
   <si>
-    <t xml:space="preserve">2.25032806396484</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.22812080383301</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.40207719802856</t>
+    <t xml:space="preserve">2.25032782554626</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.22812104225159</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.40207695960999</t>
   </si>
   <si>
     <t xml:space="preserve">2.43168663978577</t>
   </si>
   <si>
-    <t xml:space="preserve">2.3835711479187</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.35766243934631</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.37616872787476</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.37986969947815</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.4242844581604</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.42798566818237</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.44649147987366</t>
+    <t xml:space="preserve">2.38357090950012</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.35766267776489</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.37616848945618</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.37986993789673</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.42428421974182</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.42798519134521</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.44649124145508</t>
   </si>
   <si>
     <t xml:space="preserve">2.45019268989563</t>
@@ -1361,43 +1361,43 @@
     <t xml:space="preserve">2.50200939178467</t>
   </si>
   <si>
-    <t xml:space="preserve">2.4946072101593</t>
+    <t xml:space="preserve">2.49460697174072</t>
   </si>
   <si>
     <t xml:space="preserve">2.49090576171875</t>
   </si>
   <si>
-    <t xml:space="preserve">2.51311326026917</t>
+    <t xml:space="preserve">2.51311302185059</t>
   </si>
   <si>
     <t xml:space="preserve">2.4983081817627</t>
   </si>
   <si>
-    <t xml:space="preserve">2.50571036338806</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.56122827529907</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.53161907196045</t>
+    <t xml:space="preserve">2.50571060180664</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.56122875213623</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.53161931037903</t>
   </si>
   <si>
     <t xml:space="preserve">2.56863117218018</t>
   </si>
   <si>
-    <t xml:space="preserve">2.5279176235199</t>
+    <t xml:space="preserve">2.52791786193848</t>
   </si>
   <si>
     <t xml:space="preserve">2.53902149200439</t>
   </si>
   <si>
-    <t xml:space="preserve">2.52051544189453</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.52421689033508</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.54272246360779</t>
+    <t xml:space="preserve">2.52051520347595</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.5242166519165</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.54272294044495</t>
   </si>
   <si>
     <t xml:space="preserve">2.55382633209229</t>
@@ -1409,7 +1409,7 @@
     <t xml:space="preserve">2.60194182395935</t>
   </si>
   <si>
-    <t xml:space="preserve">2.59083795547485</t>
+    <t xml:space="preserve">2.59083819389343</t>
   </si>
   <si>
     <t xml:space="preserve">2.57973456382751</t>
@@ -1418,31 +1418,31 @@
     <t xml:space="preserve">2.62785005569458</t>
   </si>
   <si>
-    <t xml:space="preserve">2.64635634422302</t>
+    <t xml:space="preserve">2.64635610580444</t>
   </si>
   <si>
     <t xml:space="preserve">2.64265513420105</t>
   </si>
   <si>
-    <t xml:space="preserve">2.6389536857605</t>
+    <t xml:space="preserve">2.63895392417908</t>
   </si>
   <si>
     <t xml:space="preserve">2.65745973587036</t>
   </si>
   <si>
-    <t xml:space="preserve">2.67226433753967</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.71297740936279</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.72778248786926</t>
+    <t xml:space="preserve">2.67226457595825</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.71297764778137</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.72778224945068</t>
   </si>
   <si>
     <t xml:space="preserve">2.70187425613403</t>
   </si>
   <si>
-    <t xml:space="preserve">2.69077062606812</t>
+    <t xml:space="preserve">2.69077038764954</t>
   </si>
   <si>
     <t xml:space="preserve">2.74258708953857</t>
@@ -1457,22 +1457,22 @@
     <t xml:space="preserve">2.82031226158142</t>
   </si>
   <si>
-    <t xml:space="preserve">2.8499219417572</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.83881855010986</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.02654075622559</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.74035239219666</t>
+    <t xml:space="preserve">2.84992170333862</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.83881831169128</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.02654123306274</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.74035263061523</t>
   </si>
   <si>
     <t xml:space="preserve">2.73643231391907</t>
   </si>
   <si>
-    <t xml:space="preserve">2.68938755989075</t>
+    <t xml:space="preserve">2.68938779830933</t>
   </si>
   <si>
     <t xml:space="preserve">2.70898938179016</t>
@@ -1490,16 +1490,16 @@
     <t xml:space="preserve">2.79915833473206</t>
   </si>
   <si>
-    <t xml:space="preserve">2.82268095016479</t>
+    <t xml:space="preserve">2.82268071174622</t>
   </si>
   <si>
     <t xml:space="preserve">2.78347682952881</t>
   </si>
   <si>
-    <t xml:space="preserve">2.77563571929932</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.76779508590698</t>
+    <t xml:space="preserve">2.7756359577179</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.7677948474884</t>
   </si>
   <si>
     <t xml:space="preserve">2.79131746292114</t>
@@ -1520,13 +1520,13 @@
     <t xml:space="preserve">2.8344419002533</t>
   </si>
   <si>
-    <t xml:space="preserve">2.85012340545654</t>
+    <t xml:space="preserve">2.85012316703796</t>
   </si>
   <si>
     <t xml:space="preserve">2.86188459396362</t>
   </si>
   <si>
-    <t xml:space="preserve">2.87364554405212</t>
+    <t xml:space="preserve">2.8736457824707</t>
   </si>
   <si>
     <t xml:space="preserve">2.99517774581909</t>
@@ -1544,16 +1544,16 @@
     <t xml:space="preserve">2.94813323020935</t>
   </si>
   <si>
-    <t xml:space="preserve">2.94029235839844</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.9638147354126</t>
+    <t xml:space="preserve">2.94029259681702</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.96381449699402</t>
   </si>
   <si>
     <t xml:space="preserve">2.95989441871643</t>
   </si>
   <si>
-    <t xml:space="preserve">3.00693917274475</t>
+    <t xml:space="preserve">3.00693893432617</t>
   </si>
   <si>
     <t xml:space="preserve">3.10494875907898</t>
@@ -1571,16 +1571,16 @@
     <t xml:space="preserve">3.13631176948547</t>
   </si>
   <si>
-    <t xml:space="preserve">3.15983462333679</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.18335652351379</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.23824191093445</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.25000333786011</t>
+    <t xml:space="preserve">3.15983438491821</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.18335628509521</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.23824214935303</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.25000309944153</t>
   </si>
   <si>
     <t xml:space="preserve">3.25392365455627</t>
@@ -1592,13 +1592,13 @@
     <t xml:space="preserve">3.30096840858459</t>
   </si>
   <si>
-    <t xml:space="preserve">3.33233118057251</t>
+    <t xml:space="preserve">3.33233141899109</t>
   </si>
   <si>
     <t xml:space="preserve">3.3127293586731</t>
   </si>
   <si>
-    <t xml:space="preserve">3.27744603157043</t>
+    <t xml:space="preserve">3.27744555473328</t>
   </si>
   <si>
     <t xml:space="preserve">3.20687890052795</t>
@@ -1607,22 +1607,22 @@
     <t xml:space="preserve">3.22648048400879</t>
   </si>
   <si>
-    <t xml:space="preserve">3.25784420967102</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.24216246604919</t>
+    <t xml:space="preserve">3.25784397125244</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.24216294288635</t>
   </si>
   <si>
     <t xml:space="preserve">3.19119763374329</t>
   </si>
   <si>
-    <t xml:space="preserve">3.14023208618164</t>
+    <t xml:space="preserve">3.14023232460022</t>
   </si>
   <si>
     <t xml:space="preserve">3.12847113609314</t>
   </si>
   <si>
-    <t xml:space="preserve">3.11670994758606</t>
+    <t xml:space="preserve">3.11670970916748</t>
   </si>
   <si>
     <t xml:space="preserve">3.05006337165833</t>
@@ -1634,34 +1634,34 @@
     <t xml:space="preserve">3.21864008903503</t>
   </si>
   <si>
-    <t xml:space="preserve">3.21471977233887</t>
+    <t xml:space="preserve">3.21471953392029</t>
   </si>
   <si>
     <t xml:space="preserve">3.1637544631958</t>
   </si>
   <si>
-    <t xml:space="preserve">3.14807271957397</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.04222249984741</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.12063026428223</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.12455034255981</t>
+    <t xml:space="preserve">3.14807319641113</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.04222273826599</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.12063050270081</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.12455058097839</t>
   </si>
   <si>
     <t xml:space="preserve">3.08534669876099</t>
   </si>
   <si>
-    <t xml:space="preserve">3.08926701545715</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.11278986930847</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.10102844238281</t>
+    <t xml:space="preserve">3.08926725387573</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.11278963088989</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.10102820396423</t>
   </si>
   <si>
     <t xml:space="preserve">2.98341679573059</t>
@@ -1670,22 +1670,22 @@
     <t xml:space="preserve">2.88148641586304</t>
   </si>
   <si>
-    <t xml:space="preserve">2.93637204170227</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.97557616233826</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.98733687400818</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.97949624061584</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.99909853935242</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.00301861763</t>
+    <t xml:space="preserve">2.93637180328369</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.97557592391968</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.98733711242676</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.97949647903442</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.99909830093384</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.00301837921143</t>
   </si>
   <si>
     <t xml:space="preserve">3.05790400505066</t>
@@ -1697,37 +1697,37 @@
     <t xml:space="preserve">3.06574511528015</t>
   </si>
   <si>
-    <t xml:space="preserve">3.04614281654358</t>
+    <t xml:space="preserve">3.04614305496216</t>
   </si>
   <si>
     <t xml:space="preserve">3.03046131134033</t>
   </si>
   <si>
-    <t xml:space="preserve">2.93245148658752</t>
+    <t xml:space="preserve">2.9324517250061</t>
   </si>
   <si>
     <t xml:space="preserve">2.91284966468811</t>
   </si>
   <si>
-    <t xml:space="preserve">2.90108871459961</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.94421291351318</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.89324760437012</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.01870012283325</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.1519935131073</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.17551612854004</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.09710836410522</t>
+    <t xml:space="preserve">2.90108847618103</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.94421315193176</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.8932478427887</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.01869988441467</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.15199327468872</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.17551589012146</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.09710812568665</t>
   </si>
   <si>
     <t xml:space="preserve">3.10886907577515</t>
@@ -1736,25 +1736,25 @@
     <t xml:space="preserve">3.022620677948</t>
   </si>
   <si>
-    <t xml:space="preserve">3.01085925102234</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.91677045822144</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.95205354690552</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.99125742912292</t>
+    <t xml:space="preserve">3.01085901260376</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.91676998138428</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.9520537853241</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.9912576675415</t>
   </si>
   <si>
     <t xml:space="preserve">3.13239145278931</t>
   </si>
   <si>
-    <t xml:space="preserve">3.46562433242798</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.54795265197754</t>
+    <t xml:space="preserve">3.46562480926514</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.5479531288147</t>
   </si>
   <si>
     <t xml:space="preserve">3.48522686958313</t>
@@ -1769,28 +1769,28 @@
     <t xml:space="preserve">3.58715653419495</t>
   </si>
   <si>
-    <t xml:space="preserve">3.61459970474243</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.5165901184082</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.42249989509583</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.39505743980408</t>
+    <t xml:space="preserve">3.61459946632385</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.51658964157104</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.4225001335144</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.39505767822266</t>
   </si>
   <si>
     <t xml:space="preserve">3.37937593460083</t>
   </si>
   <si>
-    <t xml:space="preserve">3.43818187713623</t>
+    <t xml:space="preserve">3.43818211555481</t>
   </si>
   <si>
     <t xml:space="preserve">3.48130655288696</t>
   </si>
   <si>
-    <t xml:space="preserve">3.45386385917664</t>
+    <t xml:space="preserve">3.45386338233948</t>
   </si>
   <si>
     <t xml:space="preserve">3.28920745849609</t>
@@ -1799,28 +1799,28 @@
     <t xml:space="preserve">3.26176428794861</t>
   </si>
   <si>
-    <t xml:space="preserve">3.21079921722412</t>
+    <t xml:space="preserve">3.21079897880554</t>
   </si>
   <si>
     <t xml:space="preserve">3.0814266204834</t>
   </si>
   <si>
-    <t xml:space="preserve">3.26568460464478</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.23432159423828</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.19511771202087</t>
+    <t xml:space="preserve">3.26568484306335</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.23432183265686</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.19511795043945</t>
   </si>
   <si>
     <t xml:space="preserve">2.69722819328308</t>
   </si>
   <si>
-    <t xml:space="preserve">2.13269209861755</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.36399507522583</t>
+    <t xml:space="preserve">2.13269233703613</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.36399531364441</t>
   </si>
   <si>
     <t xml:space="preserve">2.45024371147156</t>
@@ -1832,13 +1832,13 @@
     <t xml:space="preserve">2.50512909889221</t>
   </si>
   <si>
-    <t xml:space="preserve">2.55217385292053</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.61882019042969</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.60313892364502</t>
+    <t xml:space="preserve">2.55217361450195</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.61882066726685</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.60313868522644</t>
   </si>
   <si>
     <t xml:space="preserve">2.63450193405151</t>
@@ -1847,25 +1847,25 @@
     <t xml:space="preserve">2.58353710174561</t>
   </si>
   <si>
-    <t xml:space="preserve">2.54433298110962</t>
+    <t xml:space="preserve">2.5443332195282</t>
   </si>
   <si>
     <t xml:space="preserve">2.51689028739929</t>
   </si>
   <si>
-    <t xml:space="preserve">2.63842225074768</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.4972882270813</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.50904965400696</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.46984553337097</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.51296997070312</t>
+    <t xml:space="preserve">2.63842248916626</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.49728846549988</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.50904941558838</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.46984577178955</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.51296973228455</t>
   </si>
   <si>
     <t xml:space="preserve">2.53257179260254</t>
@@ -1883,10 +1883,10 @@
     <t xml:space="preserve">2.52473115921021</t>
   </si>
   <si>
-    <t xml:space="preserve">2.57177567481995</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.58745718002319</t>
+    <t xml:space="preserve">2.57177591323853</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.58745741844177</t>
   </si>
   <si>
     <t xml:space="preserve">2.64234280586243</t>
@@ -1895,58 +1895,58 @@
     <t xml:space="preserve">2.61097979545593</t>
   </si>
   <si>
-    <t xml:space="preserve">2.65018343925476</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.62274098396301</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.62666130065918</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.72075080871582</t>
+    <t xml:space="preserve">2.65018367767334</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.62274074554443</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.6266610622406</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.72075033187866</t>
   </si>
   <si>
     <t xml:space="preserve">2.92069053649902</t>
   </si>
   <si>
-    <t xml:space="preserve">3.30880928039551</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.44994306564331</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.43426156044006</t>
+    <t xml:space="preserve">3.30880856513977</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.44994330406189</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.43426179885864</t>
   </si>
   <si>
     <t xml:space="preserve">3.50703978538513</t>
   </si>
   <si>
-    <t xml:space="preserve">3.32983303070068</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.25565409660339</t>
+    <t xml:space="preserve">3.32983326911926</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.25565385818481</t>
   </si>
   <si>
     <t xml:space="preserve">3.14438462257385</t>
   </si>
   <si>
-    <t xml:space="preserve">3.1402633190155</t>
+    <t xml:space="preserve">3.14026355743408</t>
   </si>
   <si>
     <t xml:space="preserve">3.21444296836853</t>
   </si>
   <si>
-    <t xml:space="preserve">3.24741148948669</t>
+    <t xml:space="preserve">3.24741172790527</t>
   </si>
   <si>
     <t xml:space="preserve">3.19383764266968</t>
   </si>
   <si>
-    <t xml:space="preserve">3.22680616378784</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.27213835716248</t>
+    <t xml:space="preserve">3.22680640220642</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.2721381187439</t>
   </si>
   <si>
     <t xml:space="preserve">3.2185640335083</t>
@@ -1958,16 +1958,16 @@
     <t xml:space="preserve">3.06196308135986</t>
   </si>
   <si>
-    <t xml:space="preserve">3.08256816864014</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.09081053733826</t>
+    <t xml:space="preserve">3.08256840705872</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.09081077575684</t>
   </si>
   <si>
     <t xml:space="preserve">3.11965823173523</t>
   </si>
   <si>
-    <t xml:space="preserve">3.08668947219849</t>
+    <t xml:space="preserve">3.08668923377991</t>
   </si>
   <si>
     <t xml:space="preserve">3.05784201622009</t>
@@ -1982,25 +1982,25 @@
     <t xml:space="preserve">2.94245171546936</t>
   </si>
   <si>
-    <t xml:space="preserve">2.91360402107239</t>
+    <t xml:space="preserve">2.91360425949097</t>
   </si>
   <si>
     <t xml:space="preserve">2.93008852005005</t>
   </si>
   <si>
-    <t xml:space="preserve">2.91772484779358</t>
+    <t xml:space="preserve">2.91772508621216</t>
   </si>
   <si>
     <t xml:space="preserve">2.90124082565308</t>
   </si>
   <si>
-    <t xml:space="preserve">2.90536212921143</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.86827230453491</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.78997135162354</t>
+    <t xml:space="preserve">2.90536189079285</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.86827206611633</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.78997159004211</t>
   </si>
   <si>
     <t xml:space="preserve">2.92184638977051</t>
@@ -2009,7 +2009,7 @@
     <t xml:space="preserve">2.87651443481445</t>
   </si>
   <si>
-    <t xml:space="preserve">2.89299869537354</t>
+    <t xml:space="preserve">2.89299845695496</t>
   </si>
   <si>
     <t xml:space="preserve">2.80233502388</t>
@@ -2021,22 +2021,22 @@
     <t xml:space="preserve">2.74463987350464</t>
   </si>
   <si>
-    <t xml:space="preserve">2.7528817653656</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.71167087554932</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.73227667808533</t>
+    <t xml:space="preserve">2.75288200378418</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.7116711139679</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.73227643966675</t>
   </si>
   <si>
     <t xml:space="preserve">2.82706141471863</t>
   </si>
   <si>
-    <t xml:space="preserve">2.87239336967468</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.86003017425537</t>
+    <t xml:space="preserve">2.8723931312561</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.86002993583679</t>
   </si>
   <si>
     <t xml:space="preserve">2.81469798088074</t>
@@ -2045,25 +2045,25 @@
     <t xml:space="preserve">2.81057715415955</t>
   </si>
   <si>
-    <t xml:space="preserve">2.76524543762207</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.79409265518188</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.78172945976257</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.78585052490234</t>
+    <t xml:space="preserve">2.76524519920349</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.79409313201904</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.78172969818115</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.78585076332092</t>
   </si>
   <si>
     <t xml:space="preserve">2.70342898368835</t>
   </si>
   <si>
-    <t xml:space="preserve">2.70755004882812</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.75700306892395</t>
+    <t xml:space="preserve">2.7075502872467</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.75700283050537</t>
   </si>
   <si>
     <t xml:space="preserve">2.77348732948303</t>
@@ -2078,10 +2078,10 @@
     <t xml:space="preserve">2.72403430938721</t>
   </si>
   <si>
-    <t xml:space="preserve">2.7776083946228</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.88475632667542</t>
+    <t xml:space="preserve">2.77760815620422</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.88475656509399</t>
   </si>
   <si>
     <t xml:space="preserve">2.64573383331299</t>
@@ -2093,7 +2093,7 @@
     <t xml:space="preserve">2.66221809387207</t>
   </si>
   <si>
-    <t xml:space="preserve">2.60864400863647</t>
+    <t xml:space="preserve">2.60864424705505</t>
   </si>
   <si>
     <t xml:space="preserve">2.63337063789368</t>
@@ -2102,19 +2102,19 @@
     <t xml:space="preserve">2.62100744247437</t>
   </si>
   <si>
-    <t xml:space="preserve">2.62512826919556</t>
+    <t xml:space="preserve">2.62512850761414</t>
   </si>
   <si>
     <t xml:space="preserve">2.59215974807739</t>
   </si>
   <si>
-    <t xml:space="preserve">2.60452318191528</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.62924933433533</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.64161276817322</t>
+    <t xml:space="preserve">2.6045229434967</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.62924957275391</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.64161252975464</t>
   </si>
   <si>
     <t xml:space="preserve">2.61276531219482</t>
@@ -2126,10 +2126,10 @@
     <t xml:space="preserve">2.59628081321716</t>
   </si>
   <si>
-    <t xml:space="preserve">2.51798033714294</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.49737477302551</t>
+    <t xml:space="preserve">2.51798009872437</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.49737501144409</t>
   </si>
   <si>
     <t xml:space="preserve">2.57155442237854</t>
@@ -2138,19 +2138,19 @@
     <t xml:space="preserve">2.51385927200317</t>
   </si>
   <si>
-    <t xml:space="preserve">2.48913264274597</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.50561714172363</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.46852731704712</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.50973844528198</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.40671110153198</t>
+    <t xml:space="preserve">2.48913288116455</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.50561690330505</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.46852707862854</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.5097382068634</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.40671133995056</t>
   </si>
   <si>
     <t xml:space="preserve">2.42319536209106</t>
@@ -2159,31 +2159,31 @@
     <t xml:space="preserve">2.45204305648804</t>
   </si>
   <si>
-    <t xml:space="preserve">2.44792222976685</t>
+    <t xml:space="preserve">2.44792175292969</t>
   </si>
   <si>
     <t xml:space="preserve">2.47676968574524</t>
   </si>
   <si>
-    <t xml:space="preserve">2.69518661499023</t>
+    <t xml:space="preserve">2.69518685340881</t>
   </si>
   <si>
     <t xml:space="preserve">2.74051880836487</t>
   </si>
   <si>
-    <t xml:space="preserve">2.86415123939514</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.88887763023376</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.89711976051331</t>
+    <t xml:space="preserve">2.86415100097656</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.88887786865234</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.89711999893188</t>
   </si>
   <si>
     <t xml:space="preserve">2.84766674041748</t>
   </si>
   <si>
-    <t xml:space="preserve">2.84354591369629</t>
+    <t xml:space="preserve">2.84354567527771</t>
   </si>
   <si>
     <t xml:space="preserve">2.81881928443909</t>
@@ -2192,7 +2192,7 @@
     <t xml:space="preserve">2.83530354499817</t>
   </si>
   <si>
-    <t xml:space="preserve">2.8311824798584</t>
+    <t xml:space="preserve">2.83118271827698</t>
   </si>
   <si>
     <t xml:space="preserve">3.03311562538147</t>
@@ -2213,19 +2213,19 @@
     <t xml:space="preserve">3.05372071266174</t>
   </si>
   <si>
-    <t xml:space="preserve">3.06608438491821</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.16498994827271</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.10317373275757</t>
+    <t xml:space="preserve">3.06608390808105</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.16498970985413</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.10317397117615</t>
   </si>
   <si>
     <t xml:space="preserve">3.10729479789734</t>
   </si>
   <si>
-    <t xml:space="preserve">2.97542023658752</t>
+    <t xml:space="preserve">2.9754204750061</t>
   </si>
   <si>
     <t xml:space="preserve">2.96717834472656</t>
@@ -2237,7 +2237,7 @@
     <t xml:space="preserve">2.95481491088867</t>
   </si>
   <si>
-    <t xml:space="preserve">2.98778343200684</t>
+    <t xml:space="preserve">2.98778367042542</t>
   </si>
   <si>
     <t xml:space="preserve">3.020751953125</t>
@@ -2246,13 +2246,13 @@
     <t xml:space="preserve">3.07844734191895</t>
   </si>
   <si>
-    <t xml:space="preserve">3.0454785823822</t>
+    <t xml:space="preserve">3.04547882080078</t>
   </si>
   <si>
     <t xml:space="preserve">3.04959988594055</t>
   </si>
   <si>
-    <t xml:space="preserve">3.03723645210266</t>
+    <t xml:space="preserve">3.03723621368408</t>
   </si>
   <si>
     <t xml:space="preserve">3.0990526676178</t>
@@ -2261,10 +2261,10 @@
     <t xml:space="preserve">3.09493184089661</t>
   </si>
   <si>
-    <t xml:space="preserve">3.01250982284546</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.96305727958679</t>
+    <t xml:space="preserve">3.01251006126404</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.96305704116821</t>
   </si>
   <si>
     <t xml:space="preserve">3.0042679309845</t>
@@ -2279,13 +2279,13 @@
     <t xml:space="preserve">3.16086912155151</t>
   </si>
   <si>
-    <t xml:space="preserve">3.16911125183105</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.18559527397156</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.15262699127197</t>
+    <t xml:space="preserve">3.16911101341248</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.18559551239014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.15262675285339</t>
   </si>
   <si>
     <t xml:space="preserve">3.11553692817688</t>
@@ -2294,19 +2294,19 @@
     <t xml:space="preserve">3.13202142715454</t>
   </si>
   <si>
-    <t xml:space="preserve">3.12790060043335</t>
+    <t xml:space="preserve">3.12790036201477</t>
   </si>
   <si>
     <t xml:space="preserve">3.22268533706665</t>
   </si>
   <si>
-    <t xml:space="preserve">3.19795870780945</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.17323207855225</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.20620083808899</t>
+    <t xml:space="preserve">3.19795894622803</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.17323184013367</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.20620107650757</t>
   </si>
   <si>
     <t xml:space="preserve">3.24329042434692</t>
@@ -2321,7 +2321,7 @@
     <t xml:space="preserve">3.27625918388367</t>
   </si>
   <si>
-    <t xml:space="preserve">3.25153279304504</t>
+    <t xml:space="preserve">3.25153255462646</t>
   </si>
   <si>
     <t xml:space="preserve">3.36280179023743</t>
@@ -2330,13 +2330,13 @@
     <t xml:space="preserve">3.35868072509766</t>
   </si>
   <si>
-    <t xml:space="preserve">3.34631752967834</t>
+    <t xml:space="preserve">3.34631729125977</t>
   </si>
   <si>
     <t xml:space="preserve">3.30510687828064</t>
   </si>
   <si>
-    <t xml:space="preserve">3.34219622612</t>
+    <t xml:space="preserve">3.34219646453857</t>
   </si>
   <si>
     <t xml:space="preserve">3.36364841461182</t>
@@ -3396,6 +3396,9 @@
   </si>
   <si>
     <t xml:space="preserve">2.32500004768372</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.35500001907349</t>
   </si>
 </sst>
 </file>
@@ -13375,7 +13378,7 @@
         <v>3.60199999809265</v>
       </c>
       <c r="G371" t="s">
-        <v>244</v>
+        <v>270</v>
       </c>
       <c r="H371" t="s">
         <v>9</v>
@@ -13453,7 +13456,7 @@
         <v>3.71799993515015</v>
       </c>
       <c r="G374" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="H374" t="s">
         <v>9</v>
@@ -13531,7 +13534,7 @@
         <v>3.59599995613098</v>
       </c>
       <c r="G377" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="H377" t="s">
         <v>9</v>
@@ -13557,7 +13560,7 @@
         <v>3.57399988174438</v>
       </c>
       <c r="G378" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="H378" t="s">
         <v>9</v>
@@ -13583,7 +13586,7 @@
         <v>3.54800009727478</v>
       </c>
       <c r="G379" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="H379" t="s">
         <v>9</v>
@@ -13609,7 +13612,7 @@
         <v>3.54999995231628</v>
       </c>
       <c r="G380" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="H380" t="s">
         <v>9</v>
@@ -13791,7 +13794,7 @@
         <v>3.48399996757507</v>
       </c>
       <c r="G387" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="H387" t="s">
         <v>9</v>
@@ -13817,7 +13820,7 @@
         <v>3.47000002861023</v>
       </c>
       <c r="G388" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="H388" t="s">
         <v>9</v>
@@ -13843,7 +13846,7 @@
         <v>3.47000002861023</v>
       </c>
       <c r="G389" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="H389" t="s">
         <v>9</v>
@@ -13869,7 +13872,7 @@
         <v>3.50799989700317</v>
       </c>
       <c r="G390" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="H390" t="s">
         <v>9</v>
@@ -13895,7 +13898,7 @@
         <v>3.49399995803833</v>
       </c>
       <c r="G391" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="H391" t="s">
         <v>9</v>
@@ -13921,7 +13924,7 @@
         <v>3.49000000953674</v>
       </c>
       <c r="G392" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="H392" t="s">
         <v>9</v>
@@ -13947,7 +13950,7 @@
         <v>3.49600005149841</v>
       </c>
       <c r="G393" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="H393" t="s">
         <v>9</v>
@@ -13973,7 +13976,7 @@
         <v>3.49399995803833</v>
       </c>
       <c r="G394" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="H394" t="s">
         <v>9</v>
@@ -14025,7 +14028,7 @@
         <v>3.50399994850159</v>
       </c>
       <c r="G396" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="H396" t="s">
         <v>9</v>
@@ -14077,7 +14080,7 @@
         <v>3.46799993515015</v>
       </c>
       <c r="G398" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="H398" t="s">
         <v>9</v>
@@ -14103,7 +14106,7 @@
         <v>3.41000008583069</v>
       </c>
       <c r="G399" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="H399" t="s">
         <v>9</v>
@@ -14129,7 +14132,7 @@
         <v>3.39599990844727</v>
       </c>
       <c r="G400" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="H400" t="s">
         <v>9</v>
@@ -14155,7 +14158,7 @@
         <v>3.47000002861023</v>
       </c>
       <c r="G401" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="H401" t="s">
         <v>9</v>
@@ -14181,7 +14184,7 @@
         <v>3.4300000667572</v>
       </c>
       <c r="G402" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="H402" t="s">
         <v>9</v>
@@ -14233,7 +14236,7 @@
         <v>3.45000004768372</v>
       </c>
       <c r="G404" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="H404" t="s">
         <v>9</v>
@@ -14259,7 +14262,7 @@
         <v>3.46399998664856</v>
       </c>
       <c r="G405" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="H405" t="s">
         <v>9</v>
@@ -14285,7 +14288,7 @@
         <v>3.4300000667572</v>
       </c>
       <c r="G406" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="H406" t="s">
         <v>9</v>
@@ -14311,7 +14314,7 @@
         <v>3.58999991416931</v>
       </c>
       <c r="G407" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="H407" t="s">
         <v>9</v>
@@ -14337,7 +14340,7 @@
         <v>3.54999995231628</v>
       </c>
       <c r="G408" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="H408" t="s">
         <v>9</v>
@@ -14363,7 +14366,7 @@
         <v>3.58200001716614</v>
       </c>
       <c r="G409" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="H409" t="s">
         <v>9</v>
@@ -14389,7 +14392,7 @@
         <v>3.59800004959106</v>
       </c>
       <c r="G410" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="H410" t="s">
         <v>9</v>
@@ -14415,7 +14418,7 @@
         <v>3.57599997520447</v>
       </c>
       <c r="G411" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="H411" t="s">
         <v>9</v>
@@ -14467,7 +14470,7 @@
         <v>3.58200001716614</v>
       </c>
       <c r="G413" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="H413" t="s">
         <v>9</v>
@@ -14493,7 +14496,7 @@
         <v>3.5460000038147</v>
       </c>
       <c r="G414" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="H414" t="s">
         <v>9</v>
@@ -14545,7 +14548,7 @@
         <v>3.51999998092651</v>
       </c>
       <c r="G416" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="H416" t="s">
         <v>9</v>
@@ -14571,7 +14574,7 @@
         <v>3.5220000743866</v>
       </c>
       <c r="G417" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="H417" t="s">
         <v>9</v>
@@ -14597,7 +14600,7 @@
         <v>3.5</v>
       </c>
       <c r="G418" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="H418" t="s">
         <v>9</v>
@@ -14623,7 +14626,7 @@
         <v>3.53800010681152</v>
       </c>
       <c r="G419" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="H419" t="s">
         <v>9</v>
@@ -14649,7 +14652,7 @@
         <v>3.4760000705719</v>
       </c>
       <c r="G420" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="H420" t="s">
         <v>9</v>
@@ -14675,7 +14678,7 @@
         <v>3.49000000953674</v>
       </c>
       <c r="G421" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="H421" t="s">
         <v>9</v>
@@ -14701,7 +14704,7 @@
         <v>3.49000000953674</v>
       </c>
       <c r="G422" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="H422" t="s">
         <v>9</v>
@@ -14727,7 +14730,7 @@
         <v>3.49000000953674</v>
       </c>
       <c r="G423" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="H423" t="s">
         <v>9</v>
@@ -14753,7 +14756,7 @@
         <v>3.47000002861023</v>
       </c>
       <c r="G424" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="H424" t="s">
         <v>9</v>
@@ -14779,7 +14782,7 @@
         <v>3.51999998092651</v>
       </c>
       <c r="G425" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="H425" t="s">
         <v>9</v>
@@ -14805,7 +14808,7 @@
         <v>3.49000000953674</v>
       </c>
       <c r="G426" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="H426" t="s">
         <v>9</v>
@@ -14831,7 +14834,7 @@
         <v>3.54399991035461</v>
       </c>
       <c r="G427" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="H427" t="s">
         <v>9</v>
@@ -14857,7 +14860,7 @@
         <v>3.60199999809265</v>
       </c>
       <c r="G428" t="s">
-        <v>244</v>
+        <v>270</v>
       </c>
       <c r="H428" t="s">
         <v>9</v>
@@ -14909,7 +14912,7 @@
         <v>3.66400003433228</v>
       </c>
       <c r="G430" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="H430" t="s">
         <v>9</v>
@@ -14935,7 +14938,7 @@
         <v>3.60999989509583</v>
       </c>
       <c r="G431" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="H431" t="s">
         <v>9</v>
@@ -15039,7 +15042,7 @@
         <v>3.64400005340576</v>
       </c>
       <c r="G435" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="H435" t="s">
         <v>9</v>
@@ -15065,7 +15068,7 @@
         <v>3.60999989509583</v>
       </c>
       <c r="G436" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="H436" t="s">
         <v>9</v>
@@ -15091,7 +15094,7 @@
         <v>3.59800004959106</v>
       </c>
       <c r="G437" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="H437" t="s">
         <v>9</v>
@@ -15143,7 +15146,7 @@
         <v>3.54999995231628</v>
       </c>
       <c r="G439" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="H439" t="s">
         <v>9</v>
@@ -15169,7 +15172,7 @@
         <v>3.53200006484985</v>
       </c>
       <c r="G440" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="H440" t="s">
         <v>9</v>
@@ -15221,7 +15224,7 @@
         <v>3.53399991989136</v>
       </c>
       <c r="G442" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="H442" t="s">
         <v>9</v>
@@ -15273,7 +15276,7 @@
         <v>3.5</v>
       </c>
       <c r="G444" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="H444" t="s">
         <v>9</v>
@@ -15325,7 +15328,7 @@
         <v>3.49000000953674</v>
       </c>
       <c r="G446" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="H446" t="s">
         <v>9</v>
@@ -15351,7 +15354,7 @@
         <v>3.51399993896484</v>
       </c>
       <c r="G447" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="H447" t="s">
         <v>9</v>
@@ -15377,7 +15380,7 @@
         <v>3.50600004196167</v>
       </c>
       <c r="G448" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="H448" t="s">
         <v>9</v>
@@ -15403,7 +15406,7 @@
         <v>3.51999998092651</v>
       </c>
       <c r="G449" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="H449" t="s">
         <v>9</v>
@@ -15429,7 +15432,7 @@
         <v>3.5</v>
       </c>
       <c r="G450" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="H450" t="s">
         <v>9</v>
@@ -15585,7 +15588,7 @@
         <v>3.57399988174438</v>
       </c>
       <c r="G456" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="H456" t="s">
         <v>9</v>
@@ -15611,7 +15614,7 @@
         <v>3.51999998092651</v>
       </c>
       <c r="G457" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="H457" t="s">
         <v>9</v>
@@ -15663,7 +15666,7 @@
         <v>3.60400009155273</v>
       </c>
       <c r="G459" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="H459" t="s">
         <v>9</v>
@@ -15741,7 +15744,7 @@
         <v>3.5699999332428</v>
       </c>
       <c r="G462" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="H462" t="s">
         <v>9</v>
@@ -15793,7 +15796,7 @@
         <v>3.60800004005432</v>
       </c>
       <c r="G464" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="H464" t="s">
         <v>9</v>
@@ -15819,7 +15822,7 @@
         <v>3.56399989128113</v>
       </c>
       <c r="G465" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="H465" t="s">
         <v>9</v>
@@ -15845,7 +15848,7 @@
         <v>3.57599997520447</v>
       </c>
       <c r="G466" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="H466" t="s">
         <v>9</v>
@@ -15923,7 +15926,7 @@
         <v>3.63800001144409</v>
       </c>
       <c r="G469" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="H469" t="s">
         <v>9</v>
@@ -15975,7 +15978,7 @@
         <v>3.66599988937378</v>
       </c>
       <c r="G471" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="H471" t="s">
         <v>9</v>
@@ -16001,7 +16004,7 @@
         <v>3.72000002861023</v>
       </c>
       <c r="G472" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="H472" t="s">
         <v>9</v>
@@ -16027,7 +16030,7 @@
         <v>3.73600006103516</v>
       </c>
       <c r="G473" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="H473" t="s">
         <v>9</v>
@@ -16053,7 +16056,7 @@
         <v>3.81399989128113</v>
       </c>
       <c r="G474" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="H474" t="s">
         <v>9</v>
@@ -16079,7 +16082,7 @@
         <v>3.78200006484985</v>
       </c>
       <c r="G475" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="H475" t="s">
         <v>9</v>
@@ -16105,7 +16108,7 @@
         <v>3.77999997138977</v>
       </c>
       <c r="G476" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="H476" t="s">
         <v>9</v>
@@ -16131,7 +16134,7 @@
         <v>3.82800006866455</v>
       </c>
       <c r="G477" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="H477" t="s">
         <v>9</v>
@@ -16157,7 +16160,7 @@
         <v>3.69000005722046</v>
       </c>
       <c r="G478" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="H478" t="s">
         <v>9</v>
@@ -16183,7 +16186,7 @@
         <v>3.69799995422363</v>
       </c>
       <c r="G479" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="H479" t="s">
         <v>9</v>
@@ -16235,7 +16238,7 @@
         <v>3.5699999332428</v>
       </c>
       <c r="G481" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="H481" t="s">
         <v>9</v>
@@ -16261,7 +16264,7 @@
         <v>3.60400009155273</v>
       </c>
       <c r="G482" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="H482" t="s">
         <v>9</v>
@@ -16287,7 +16290,7 @@
         <v>3.57599997520447</v>
       </c>
       <c r="G483" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="H483" t="s">
         <v>9</v>
@@ -16313,7 +16316,7 @@
         <v>3.59599995613098</v>
       </c>
       <c r="G484" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="H484" t="s">
         <v>9</v>
@@ -16339,7 +16342,7 @@
         <v>3.61999988555908</v>
       </c>
       <c r="G485" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="H485" t="s">
         <v>9</v>
@@ -16391,7 +16394,7 @@
         <v>3.65599989891052</v>
       </c>
       <c r="G487" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="H487" t="s">
         <v>9</v>
@@ -16443,7 +16446,7 @@
         <v>3.60400009155273</v>
       </c>
       <c r="G489" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="H489" t="s">
         <v>9</v>
@@ -16521,7 +16524,7 @@
         <v>3.72199988365173</v>
       </c>
       <c r="G492" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="H492" t="s">
         <v>9</v>
@@ -16547,7 +16550,7 @@
         <v>3.64400005340576</v>
       </c>
       <c r="G493" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="H493" t="s">
         <v>9</v>
@@ -16573,7 +16576,7 @@
         <v>3.70000004768372</v>
       </c>
       <c r="G494" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="H494" t="s">
         <v>9</v>
@@ -16599,7 +16602,7 @@
         <v>3.67400002479553</v>
       </c>
       <c r="G495" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="H495" t="s">
         <v>9</v>
@@ -16625,7 +16628,7 @@
         <v>3.65199995040894</v>
       </c>
       <c r="G496" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="H496" t="s">
         <v>9</v>
@@ -16651,7 +16654,7 @@
         <v>3.68600010871887</v>
       </c>
       <c r="G497" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="H497" t="s">
         <v>9</v>
@@ -16729,7 +16732,7 @@
         <v>3.57999992370605</v>
       </c>
       <c r="G500" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="H500" t="s">
         <v>9</v>
@@ -16755,7 +16758,7 @@
         <v>3.63800001144409</v>
       </c>
       <c r="G501" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="H501" t="s">
         <v>9</v>
@@ -16859,7 +16862,7 @@
         <v>3.58200001716614</v>
       </c>
       <c r="G505" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="H505" t="s">
         <v>9</v>
@@ -16911,7 +16914,7 @@
         <v>3.61999988555908</v>
       </c>
       <c r="G507" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="H507" t="s">
         <v>9</v>
@@ -16937,7 +16940,7 @@
         <v>3.58999991416931</v>
       </c>
       <c r="G508" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="H508" t="s">
         <v>9</v>
@@ -16963,7 +16966,7 @@
         <v>3.58200001716614</v>
       </c>
       <c r="G509" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="H509" t="s">
         <v>9</v>
@@ -16989,7 +16992,7 @@
         <v>3.60199999809265</v>
       </c>
       <c r="G510" t="s">
-        <v>244</v>
+        <v>270</v>
       </c>
       <c r="H510" t="s">
         <v>9</v>
@@ -17015,7 +17018,7 @@
         <v>3.5460000038147</v>
       </c>
       <c r="G511" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="H511" t="s">
         <v>9</v>
@@ -17041,7 +17044,7 @@
         <v>3.54800009727478</v>
       </c>
       <c r="G512" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="H512" t="s">
         <v>9</v>
@@ -17067,7 +17070,7 @@
         <v>3.58999991416931</v>
       </c>
       <c r="G513" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="H513" t="s">
         <v>9</v>
@@ -17119,7 +17122,7 @@
         <v>3.69000005722046</v>
       </c>
       <c r="G515" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="H515" t="s">
         <v>9</v>
@@ -17145,7 +17148,7 @@
         <v>3.65499997138977</v>
       </c>
       <c r="G516" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="H516" t="s">
         <v>9</v>
@@ -17171,7 +17174,7 @@
         <v>3.69000005722046</v>
       </c>
       <c r="G517" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="H517" t="s">
         <v>9</v>
@@ -17275,7 +17278,7 @@
         <v>3.6800000667572</v>
       </c>
       <c r="G521" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="H521" t="s">
         <v>9</v>
@@ -17327,7 +17330,7 @@
         <v>3.67000007629395</v>
       </c>
       <c r="G523" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="H523" t="s">
         <v>9</v>
@@ -17353,7 +17356,7 @@
         <v>3.67499995231628</v>
       </c>
       <c r="G524" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="H524" t="s">
         <v>9</v>
@@ -17405,7 +17408,7 @@
         <v>3.65499997138977</v>
       </c>
       <c r="G526" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="H526" t="s">
         <v>9</v>
@@ -17431,7 +17434,7 @@
         <v>3.67499995231628</v>
       </c>
       <c r="G527" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="H527" t="s">
         <v>9</v>
@@ -17483,7 +17486,7 @@
         <v>3.61999988555908</v>
       </c>
       <c r="G529" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="H529" t="s">
         <v>9</v>
@@ -17509,7 +17512,7 @@
         <v>3.61999988555908</v>
       </c>
       <c r="G530" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="H530" t="s">
         <v>9</v>
@@ -17535,7 +17538,7 @@
         <v>3.58999991416931</v>
       </c>
       <c r="G531" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="H531" t="s">
         <v>9</v>
@@ -17561,7 +17564,7 @@
         <v>3.58500003814697</v>
       </c>
       <c r="G532" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="H532" t="s">
         <v>9</v>
@@ -17587,7 +17590,7 @@
         <v>3.54999995231628</v>
       </c>
       <c r="G533" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="H533" t="s">
         <v>9</v>
@@ -17613,7 +17616,7 @@
         <v>3.54999995231628</v>
       </c>
       <c r="G534" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="H534" t="s">
         <v>9</v>
@@ -17639,7 +17642,7 @@
         <v>3.45000004768372</v>
       </c>
       <c r="G535" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="H535" t="s">
         <v>9</v>
@@ -17665,7 +17668,7 @@
         <v>3.29999995231628</v>
       </c>
       <c r="G536" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="H536" t="s">
         <v>9</v>
@@ -17691,7 +17694,7 @@
         <v>3.16000008583069</v>
       </c>
       <c r="G537" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="H537" t="s">
         <v>9</v>
@@ -17717,7 +17720,7 @@
         <v>3.25</v>
       </c>
       <c r="G538" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="H538" t="s">
         <v>9</v>
@@ -17743,7 +17746,7 @@
         <v>3.20499992370605</v>
       </c>
       <c r="G539" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="H539" t="s">
         <v>9</v>
@@ -17769,7 +17772,7 @@
         <v>3.15000009536743</v>
       </c>
       <c r="G540" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="H540" t="s">
         <v>9</v>
@@ -17795,7 +17798,7 @@
         <v>3.25</v>
       </c>
       <c r="G541" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="H541" t="s">
         <v>9</v>
@@ -17821,7 +17824,7 @@
         <v>3.23000001907349</v>
       </c>
       <c r="G542" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="H542" t="s">
         <v>9</v>
@@ -17847,7 +17850,7 @@
         <v>3.21499991416931</v>
       </c>
       <c r="G543" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="H543" t="s">
         <v>9</v>
@@ -17873,7 +17876,7 @@
         <v>3.21499991416931</v>
       </c>
       <c r="G544" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="H544" t="s">
         <v>9</v>
@@ -17899,7 +17902,7 @@
         <v>3.26999998092651</v>
       </c>
       <c r="G545" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="H545" t="s">
         <v>9</v>
@@ -17925,7 +17928,7 @@
         <v>3.23000001907349</v>
       </c>
       <c r="G546" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="H546" t="s">
         <v>9</v>
@@ -17951,7 +17954,7 @@
         <v>3.25</v>
       </c>
       <c r="G547" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="H547" t="s">
         <v>9</v>
@@ -17977,7 +17980,7 @@
         <v>3.27999997138977</v>
       </c>
       <c r="G548" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="H548" t="s">
         <v>9</v>
@@ -18003,7 +18006,7 @@
         <v>3.1949999332428</v>
       </c>
       <c r="G549" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="H549" t="s">
         <v>9</v>
@@ -18029,7 +18032,7 @@
         <v>3.17000007629395</v>
       </c>
       <c r="G550" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="H550" t="s">
         <v>9</v>
@@ -18055,7 +18058,7 @@
         <v>3.17000007629395</v>
       </c>
       <c r="G551" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="H551" t="s">
         <v>9</v>
@@ -18081,7 +18084,7 @@
         <v>3.13499999046326</v>
       </c>
       <c r="G552" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="H552" t="s">
         <v>9</v>
@@ -18107,7 +18110,7 @@
         <v>3.11999988555908</v>
       </c>
       <c r="G553" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="H553" t="s">
         <v>9</v>
@@ -18133,7 +18136,7 @@
         <v>3.11999988555908</v>
       </c>
       <c r="G554" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="H554" t="s">
         <v>9</v>
@@ -18159,7 +18162,7 @@
         <v>3.05999994277954</v>
       </c>
       <c r="G555" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="H555" t="s">
         <v>9</v>
@@ -18185,7 +18188,7 @@
         <v>3.05999994277954</v>
       </c>
       <c r="G556" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="H556" t="s">
         <v>9</v>
@@ -18211,7 +18214,7 @@
         <v>3.11500000953674</v>
       </c>
       <c r="G557" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="H557" t="s">
         <v>9</v>
@@ -18237,7 +18240,7 @@
         <v>3.13000011444092</v>
       </c>
       <c r="G558" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="H558" t="s">
         <v>9</v>
@@ -18263,7 +18266,7 @@
         <v>3.13000011444092</v>
       </c>
       <c r="G559" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="H559" t="s">
         <v>9</v>
@@ -18289,7 +18292,7 @@
         <v>3.16499996185303</v>
       </c>
       <c r="G560" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="H560" t="s">
         <v>9</v>
@@ -18315,7 +18318,7 @@
         <v>3.22499990463257</v>
       </c>
       <c r="G561" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="H561" t="s">
         <v>9</v>
@@ -18341,7 +18344,7 @@
         <v>3.15499997138977</v>
       </c>
       <c r="G562" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="H562" t="s">
         <v>9</v>
@@ -18367,7 +18370,7 @@
         <v>3.15499997138977</v>
       </c>
       <c r="G563" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="H563" t="s">
         <v>9</v>
@@ -18393,7 +18396,7 @@
         <v>3.20000004768372</v>
       </c>
       <c r="G564" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="H564" t="s">
         <v>9</v>
@@ -18419,7 +18422,7 @@
         <v>3.21000003814697</v>
       </c>
       <c r="G565" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="H565" t="s">
         <v>9</v>
@@ -18445,7 +18448,7 @@
         <v>3.28500008583069</v>
       </c>
       <c r="G566" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="H566" t="s">
         <v>9</v>
@@ -18471,7 +18474,7 @@
         <v>3.28500008583069</v>
       </c>
       <c r="G567" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="H567" t="s">
         <v>9</v>
@@ -18497,7 +18500,7 @@
         <v>3.25500011444092</v>
       </c>
       <c r="G568" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="H568" t="s">
         <v>9</v>
@@ -18523,7 +18526,7 @@
         <v>3.25</v>
       </c>
       <c r="G569" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="H569" t="s">
         <v>9</v>
@@ -18549,7 +18552,7 @@
         <v>3.20499992370605</v>
       </c>
       <c r="G570" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="H570" t="s">
         <v>9</v>
@@ -18575,7 +18578,7 @@
         <v>3.18499994277954</v>
       </c>
       <c r="G571" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="H571" t="s">
         <v>9</v>
@@ -18601,7 +18604,7 @@
         <v>3.19000005722046</v>
       </c>
       <c r="G572" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="H572" t="s">
         <v>9</v>
@@ -18627,7 +18630,7 @@
         <v>3.24499988555908</v>
       </c>
       <c r="G573" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="H573" t="s">
         <v>9</v>
@@ -18653,7 +18656,7 @@
         <v>3.25999999046326</v>
       </c>
       <c r="G574" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="H574" t="s">
         <v>9</v>
@@ -18679,7 +18682,7 @@
         <v>3.25</v>
       </c>
       <c r="G575" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="H575" t="s">
         <v>9</v>
@@ -18705,7 +18708,7 @@
         <v>3.21000003814697</v>
       </c>
       <c r="G576" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="H576" t="s">
         <v>9</v>
@@ -18731,7 +18734,7 @@
         <v>3.25999999046326</v>
       </c>
       <c r="G577" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="H577" t="s">
         <v>9</v>
@@ -18757,7 +18760,7 @@
         <v>3.28500008583069</v>
       </c>
       <c r="G578" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="H578" t="s">
         <v>9</v>
@@ -18783,7 +18786,7 @@
         <v>3.30999994277954</v>
       </c>
       <c r="G579" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="H579" t="s">
         <v>9</v>
@@ -18809,7 +18812,7 @@
         <v>3.27999997138977</v>
       </c>
       <c r="G580" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="H580" t="s">
         <v>9</v>
@@ -18835,7 +18838,7 @@
         <v>3.25999999046326</v>
       </c>
       <c r="G581" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="H581" t="s">
         <v>9</v>
@@ -18861,7 +18864,7 @@
         <v>3.26999998092651</v>
       </c>
       <c r="G582" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="H582" t="s">
         <v>9</v>
@@ -18887,7 +18890,7 @@
         <v>3.27500009536743</v>
       </c>
       <c r="G583" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="H583" t="s">
         <v>9</v>
@@ -18913,7 +18916,7 @@
         <v>3.28999996185303</v>
       </c>
       <c r="G584" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="H584" t="s">
         <v>9</v>
@@ -18939,7 +18942,7 @@
         <v>3.28999996185303</v>
       </c>
       <c r="G585" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="H585" t="s">
         <v>9</v>
@@ -18965,7 +18968,7 @@
         <v>3.28999996185303</v>
       </c>
       <c r="G586" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="H586" t="s">
         <v>9</v>
@@ -18991,7 +18994,7 @@
         <v>3.29999995231628</v>
       </c>
       <c r="G587" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="H587" t="s">
         <v>9</v>
@@ -19017,7 +19020,7 @@
         <v>3.29999995231628</v>
       </c>
       <c r="G588" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="H588" t="s">
         <v>9</v>
@@ -19043,7 +19046,7 @@
         <v>3.29999995231628</v>
       </c>
       <c r="G589" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="H589" t="s">
         <v>9</v>
@@ -19069,7 +19072,7 @@
         <v>3.32500004768372</v>
       </c>
       <c r="G590" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="H590" t="s">
         <v>9</v>
@@ -19095,7 +19098,7 @@
         <v>3.29999995231628</v>
       </c>
       <c r="G591" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="H591" t="s">
         <v>9</v>
@@ -19121,7 +19124,7 @@
         <v>3.30999994277954</v>
       </c>
       <c r="G592" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="H592" t="s">
         <v>9</v>
@@ -19147,7 +19150,7 @@
         <v>3.32999992370605</v>
       </c>
       <c r="G593" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="H593" t="s">
         <v>9</v>
@@ -19173,7 +19176,7 @@
         <v>3.40000009536743</v>
       </c>
       <c r="G594" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="H594" t="s">
         <v>9</v>
@@ -19199,7 +19202,7 @@
         <v>3.52999997138977</v>
       </c>
       <c r="G595" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="H595" t="s">
         <v>9</v>
@@ -19225,7 +19228,7 @@
         <v>3.5</v>
       </c>
       <c r="G596" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="H596" t="s">
         <v>9</v>
@@ -19251,7 +19254,7 @@
         <v>3.50500011444092</v>
       </c>
       <c r="G597" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="H597" t="s">
         <v>9</v>
@@ -19277,7 +19280,7 @@
         <v>3.34999990463257</v>
       </c>
       <c r="G598" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="H598" t="s">
         <v>9</v>
@@ -19303,7 +19306,7 @@
         <v>3.29999995231628</v>
       </c>
       <c r="G599" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="H599" t="s">
         <v>9</v>
@@ -19329,7 +19332,7 @@
         <v>3.29999995231628</v>
       </c>
       <c r="G600" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="H600" t="s">
         <v>9</v>
@@ -19355,7 +19358,7 @@
         <v>3.24000000953674</v>
       </c>
       <c r="G601" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="H601" t="s">
         <v>9</v>
@@ -19381,7 +19384,7 @@
         <v>3.20000004768372</v>
       </c>
       <c r="G602" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="H602" t="s">
         <v>9</v>
@@ -19407,7 +19410,7 @@
         <v>3.25999999046326</v>
       </c>
       <c r="G603" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="H603" t="s">
         <v>9</v>
@@ -19433,7 +19436,7 @@
         <v>3.1800000667572</v>
       </c>
       <c r="G604" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="H604" t="s">
         <v>9</v>
@@ -19459,7 +19462,7 @@
         <v>3.13000011444092</v>
       </c>
       <c r="G605" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="H605" t="s">
         <v>9</v>
@@ -19485,7 +19488,7 @@
         <v>3.13000011444092</v>
       </c>
       <c r="G606" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="H606" t="s">
         <v>9</v>
@@ -19511,7 +19514,7 @@
         <v>3.11500000953674</v>
       </c>
       <c r="G607" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="H607" t="s">
         <v>9</v>
@@ -19537,7 +19540,7 @@
         <v>3.10500001907349</v>
       </c>
       <c r="G608" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="H608" t="s">
         <v>9</v>
@@ -19563,7 +19566,7 @@
         <v>3.09500002861023</v>
       </c>
       <c r="G609" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="H609" t="s">
         <v>9</v>
@@ -19589,7 +19592,7 @@
         <v>3.07999992370605</v>
       </c>
       <c r="G610" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="H610" t="s">
         <v>9</v>
@@ -19615,7 +19618,7 @@
         <v>3.07999992370605</v>
       </c>
       <c r="G611" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="H611" t="s">
         <v>9</v>
@@ -19641,7 +19644,7 @@
         <v>3.0550000667572</v>
       </c>
       <c r="G612" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="H612" t="s">
         <v>9</v>
@@ -19667,7 +19670,7 @@
         <v>3.00500011444092</v>
       </c>
       <c r="G613" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="H613" t="s">
         <v>9</v>
@@ -19693,7 +19696,7 @@
         <v>2.875</v>
       </c>
       <c r="G614" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="H614" t="s">
         <v>9</v>
@@ -19719,7 +19722,7 @@
         <v>2.95000004768372</v>
       </c>
       <c r="G615" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="H615" t="s">
         <v>9</v>
@@ -19745,7 +19748,7 @@
         <v>3.00500011444092</v>
       </c>
       <c r="G616" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="H616" t="s">
         <v>9</v>
@@ -19771,7 +19774,7 @@
         <v>3.01500010490417</v>
       </c>
       <c r="G617" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="H617" t="s">
         <v>9</v>
@@ -19797,7 +19800,7 @@
         <v>3</v>
       </c>
       <c r="G618" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="H618" t="s">
         <v>9</v>
@@ -19823,7 +19826,7 @@
         <v>3</v>
       </c>
       <c r="G619" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="H619" t="s">
         <v>9</v>
@@ -19849,7 +19852,7 @@
         <v>2.98000001907349</v>
       </c>
       <c r="G620" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="H620" t="s">
         <v>9</v>
@@ -19875,7 +19878,7 @@
         <v>3.00500011444092</v>
       </c>
       <c r="G621" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="H621" t="s">
         <v>9</v>
@@ -19901,7 +19904,7 @@
         <v>2.9449999332428</v>
       </c>
       <c r="G622" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="H622" t="s">
         <v>9</v>
@@ -19927,7 +19930,7 @@
         <v>3.04999995231628</v>
       </c>
       <c r="G623" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="H623" t="s">
         <v>9</v>
@@ -19953,7 +19956,7 @@
         <v>3.05999994277954</v>
       </c>
       <c r="G624" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="H624" t="s">
         <v>9</v>
@@ -19979,7 +19982,7 @@
         <v>3.01500010490417</v>
       </c>
       <c r="G625" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="H625" t="s">
         <v>9</v>
@@ -20005,7 +20008,7 @@
         <v>3.05999994277954</v>
       </c>
       <c r="G626" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="H626" t="s">
         <v>9</v>
@@ -20031,7 +20034,7 @@
         <v>2.97499990463257</v>
       </c>
       <c r="G627" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="H627" t="s">
         <v>9</v>
@@ -20057,7 +20060,7 @@
         <v>2.99000000953674</v>
       </c>
       <c r="G628" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="H628" t="s">
         <v>9</v>
@@ -20083,7 +20086,7 @@
         <v>2.97499990463257</v>
       </c>
       <c r="G629" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="H629" t="s">
         <v>9</v>
@@ -20109,7 +20112,7 @@
         <v>2.99499988555908</v>
       </c>
       <c r="G630" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="H630" t="s">
         <v>9</v>
@@ -20135,7 +20138,7 @@
         <v>2.92000007629395</v>
       </c>
       <c r="G631" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="H631" t="s">
         <v>9</v>
@@ -20161,7 +20164,7 @@
         <v>3.06500005722046</v>
       </c>
       <c r="G632" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="H632" t="s">
         <v>9</v>
@@ -20187,7 +20190,7 @@
         <v>2.95000004768372</v>
       </c>
       <c r="G633" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="H633" t="s">
         <v>9</v>
@@ -20213,7 +20216,7 @@
         <v>3.03500008583069</v>
       </c>
       <c r="G634" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="H634" t="s">
         <v>9</v>
@@ -20239,7 +20242,7 @@
         <v>3</v>
       </c>
       <c r="G635" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="H635" t="s">
         <v>9</v>
@@ -20265,7 +20268,7 @@
         <v>3</v>
       </c>
       <c r="G636" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="H636" t="s">
         <v>9</v>
@@ -20291,7 +20294,7 @@
         <v>2.99000000953674</v>
       </c>
       <c r="G637" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="H637" t="s">
         <v>9</v>
@@ -20317,7 +20320,7 @@
         <v>2.9449999332428</v>
       </c>
       <c r="G638" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="H638" t="s">
         <v>9</v>
@@ -20343,7 +20346,7 @@
         <v>2.95499992370605</v>
       </c>
       <c r="G639" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="H639" t="s">
         <v>9</v>
@@ -20369,7 +20372,7 @@
         <v>2.9300000667572</v>
       </c>
       <c r="G640" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="H640" t="s">
         <v>9</v>
@@ -20395,7 +20398,7 @@
         <v>2.97499990463257</v>
       </c>
       <c r="G641" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="H641" t="s">
         <v>9</v>
@@ -20421,7 +20424,7 @@
         <v>2.99499988555908</v>
       </c>
       <c r="G642" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="H642" t="s">
         <v>9</v>
@@ -20447,7 +20450,7 @@
         <v>2.95499992370605</v>
       </c>
       <c r="G643" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="H643" t="s">
         <v>9</v>
@@ -20473,7 +20476,7 @@
         <v>2.9300000667572</v>
       </c>
       <c r="G644" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="H644" t="s">
         <v>9</v>
@@ -20499,7 +20502,7 @@
         <v>2.91499996185303</v>
       </c>
       <c r="G645" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="H645" t="s">
         <v>9</v>
@@ -20525,7 +20528,7 @@
         <v>2.89000010490417</v>
       </c>
       <c r="G646" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="H646" t="s">
         <v>9</v>
@@ -20551,7 +20554,7 @@
         <v>2.88499999046326</v>
       </c>
       <c r="G647" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="H647" t="s">
         <v>9</v>
@@ -20577,7 +20580,7 @@
         <v>2.86500000953674</v>
       </c>
       <c r="G648" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="H648" t="s">
         <v>9</v>
@@ -20603,7 +20606,7 @@
         <v>2.86999988555908</v>
       </c>
       <c r="G649" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="H649" t="s">
         <v>9</v>
@@ -20629,7 +20632,7 @@
         <v>2.89000010490417</v>
       </c>
       <c r="G650" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="H650" t="s">
         <v>9</v>
@@ -20655,7 +20658,7 @@
         <v>2.90000009536743</v>
       </c>
       <c r="G651" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="H651" t="s">
         <v>9</v>
@@ -20681,7 +20684,7 @@
         <v>2.89000010490417</v>
       </c>
       <c r="G652" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="H652" t="s">
         <v>9</v>
@@ -20707,7 +20710,7 @@
         <v>2.85999989509583</v>
       </c>
       <c r="G653" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="H653" t="s">
         <v>9</v>
@@ -20733,7 +20736,7 @@
         <v>2.84999990463257</v>
       </c>
       <c r="G654" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="H654" t="s">
         <v>9</v>
@@ -20759,7 +20762,7 @@
         <v>2.90000009536743</v>
       </c>
       <c r="G655" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="H655" t="s">
         <v>9</v>
@@ -20785,7 +20788,7 @@
         <v>3.14000010490417</v>
       </c>
       <c r="G656" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="H656" t="s">
         <v>9</v>
@@ -20811,7 +20814,7 @@
         <v>3.15000009536743</v>
       </c>
       <c r="G657" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="H657" t="s">
         <v>9</v>
@@ -20837,7 +20840,7 @@
         <v>3.20499992370605</v>
       </c>
       <c r="G658" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="H658" t="s">
         <v>9</v>
@@ -20863,7 +20866,7 @@
         <v>3.1800000667572</v>
       </c>
       <c r="G659" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="H659" t="s">
         <v>9</v>
@@ -20889,7 +20892,7 @@
         <v>3.53999996185303</v>
       </c>
       <c r="G660" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="H660" t="s">
         <v>9</v>
@@ -20915,7 +20918,7 @@
         <v>3.35500001907349</v>
       </c>
       <c r="G661" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="H661" t="s">
         <v>9</v>
@@ -20941,7 +20944,7 @@
         <v>3.34999990463257</v>
       </c>
       <c r="G662" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="H662" t="s">
         <v>9</v>
@@ -20967,7 +20970,7 @@
         <v>3.26500010490417</v>
       </c>
       <c r="G663" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="H663" t="s">
         <v>9</v>
@@ -20993,7 +20996,7 @@
         <v>3.26999998092651</v>
       </c>
       <c r="G664" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="H664" t="s">
         <v>9</v>
@@ -21019,7 +21022,7 @@
         <v>3.25</v>
       </c>
       <c r="G665" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="H665" t="s">
         <v>9</v>
@@ -21045,7 +21048,7 @@
         <v>3.1949999332428</v>
       </c>
       <c r="G666" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="H666" t="s">
         <v>9</v>
@@ -21071,7 +21074,7 @@
         <v>3.13499999046326</v>
       </c>
       <c r="G667" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="H667" t="s">
         <v>9</v>
@@ -21097,7 +21100,7 @@
         <v>3.09999990463257</v>
       </c>
       <c r="G668" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="H668" t="s">
         <v>9</v>
@@ -21123,7 +21126,7 @@
         <v>3.13000011444092</v>
       </c>
       <c r="G669" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="H669" t="s">
         <v>9</v>
@@ -21149,7 +21152,7 @@
         <v>3.02500009536743</v>
       </c>
       <c r="G670" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="H670" t="s">
         <v>9</v>
@@ -21175,7 +21178,7 @@
         <v>3.05999994277954</v>
       </c>
       <c r="G671" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="H671" t="s">
         <v>9</v>
@@ -21201,7 +21204,7 @@
         <v>3.03500008583069</v>
       </c>
       <c r="G672" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="H672" t="s">
         <v>9</v>
@@ -21227,7 +21230,7 @@
         <v>3.07999992370605</v>
       </c>
       <c r="G673" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="H673" t="s">
         <v>9</v>
@@ -21253,7 +21256,7 @@
         <v>3.11999988555908</v>
       </c>
       <c r="G674" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="H674" t="s">
         <v>9</v>
@@ -21279,7 +21282,7 @@
         <v>3.07500004768372</v>
       </c>
       <c r="G675" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="H675" t="s">
         <v>9</v>
@@ -21305,7 +21308,7 @@
         <v>3.09500002861023</v>
       </c>
       <c r="G676" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="H676" t="s">
         <v>9</v>
@@ -21331,7 +21334,7 @@
         <v>3.08500003814697</v>
       </c>
       <c r="G677" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="H677" t="s">
         <v>9</v>
@@ -21357,7 +21360,7 @@
         <v>3.05999994277954</v>
       </c>
       <c r="G678" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="H678" t="s">
         <v>9</v>
@@ -21383,7 +21386,7 @@
         <v>3.10999989509583</v>
       </c>
       <c r="G679" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="H679" t="s">
         <v>9</v>
@@ -21409,7 +21412,7 @@
         <v>3.10999989509583</v>
       </c>
       <c r="G680" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="H680" t="s">
         <v>9</v>
@@ -21435,7 +21438,7 @@
         <v>3.10999989509583</v>
       </c>
       <c r="G681" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="H681" t="s">
         <v>9</v>
@@ -21461,7 +21464,7 @@
         <v>3.125</v>
       </c>
       <c r="G682" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="H682" t="s">
         <v>9</v>
@@ -21487,7 +21490,7 @@
         <v>3.10999989509583</v>
       </c>
       <c r="G683" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="H683" t="s">
         <v>9</v>
@@ -21513,7 +21516,7 @@
         <v>3.10500001907349</v>
       </c>
       <c r="G684" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="H684" t="s">
         <v>9</v>
@@ -21539,7 +21542,7 @@
         <v>3.11500000953674</v>
       </c>
       <c r="G685" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="H685" t="s">
         <v>9</v>
@@ -21565,7 +21568,7 @@
         <v>3.11500000953674</v>
       </c>
       <c r="G686" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="H686" t="s">
         <v>9</v>
@@ -21591,7 +21594,7 @@
         <v>3.13000011444092</v>
       </c>
       <c r="G687" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="H687" t="s">
         <v>9</v>
@@ -21617,7 +21620,7 @@
         <v>3.13000011444092</v>
       </c>
       <c r="G688" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="H688" t="s">
         <v>9</v>
@@ -21643,7 +21646,7 @@
         <v>3.16499996185303</v>
       </c>
       <c r="G689" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="H689" t="s">
         <v>9</v>
@@ -21669,7 +21672,7 @@
         <v>3.16000008583069</v>
       </c>
       <c r="G690" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="H690" t="s">
         <v>9</v>
@@ -21695,7 +21698,7 @@
         <v>3.15499997138977</v>
       </c>
       <c r="G691" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="H691" t="s">
         <v>9</v>
@@ -21721,7 +21724,7 @@
         <v>3.15499997138977</v>
       </c>
       <c r="G692" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="H692" t="s">
         <v>9</v>
@@ -21747,7 +21750,7 @@
         <v>3.17000007629395</v>
       </c>
       <c r="G693" t="s">
-        <v>426</v>
+        <v>369</v>
       </c>
       <c r="H693" t="s">
         <v>9</v>
@@ -21773,7 +21776,7 @@
         <v>3.17000007629395</v>
       </c>
       <c r="G694" t="s">
-        <v>426</v>
+        <v>369</v>
       </c>
       <c r="H694" t="s">
         <v>9</v>
@@ -21799,7 +21802,7 @@
         <v>3.16000008583069</v>
       </c>
       <c r="G695" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="H695" t="s">
         <v>9</v>
@@ -21825,7 +21828,7 @@
         <v>3.17000007629395</v>
       </c>
       <c r="G696" t="s">
-        <v>426</v>
+        <v>369</v>
       </c>
       <c r="H696" t="s">
         <v>9</v>
@@ -21851,7 +21854,7 @@
         <v>3.16000008583069</v>
       </c>
       <c r="G697" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="H697" t="s">
         <v>9</v>
@@ -21877,7 +21880,7 @@
         <v>3.16000008583069</v>
       </c>
       <c r="G698" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="H698" t="s">
         <v>9</v>
@@ -21903,7 +21906,7 @@
         <v>3.16000008583069</v>
       </c>
       <c r="G699" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="H699" t="s">
         <v>9</v>
@@ -21929,7 +21932,7 @@
         <v>3.10999989509583</v>
       </c>
       <c r="G700" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="H700" t="s">
         <v>9</v>
@@ -21981,7 +21984,7 @@
         <v>2.98000001907349</v>
       </c>
       <c r="G702" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="H702" t="s">
         <v>9</v>
@@ -22007,7 +22010,7 @@
         <v>2.97499990463257</v>
       </c>
       <c r="G703" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="H703" t="s">
         <v>9</v>
@@ -22033,7 +22036,7 @@
         <v>2.97499990463257</v>
       </c>
       <c r="G704" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="H704" t="s">
         <v>9</v>
@@ -22059,7 +22062,7 @@
         <v>3.01500010490417</v>
       </c>
       <c r="G705" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="H705" t="s">
         <v>9</v>
@@ -22137,7 +22140,7 @@
         <v>2.9449999332428</v>
       </c>
       <c r="G708" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="H708" t="s">
         <v>9</v>
@@ -22163,7 +22166,7 @@
         <v>3.01500010490417</v>
       </c>
       <c r="G709" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="H709" t="s">
         <v>9</v>
@@ -22241,7 +22244,7 @@
         <v>2.9449999332428</v>
       </c>
       <c r="G712" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="H712" t="s">
         <v>9</v>
@@ -22293,7 +22296,7 @@
         <v>3.08500003814697</v>
       </c>
       <c r="G714" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="H714" t="s">
         <v>9</v>
@@ -22319,7 +22322,7 @@
         <v>3.05999994277954</v>
       </c>
       <c r="G715" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="H715" t="s">
         <v>9</v>
@@ -22345,7 +22348,7 @@
         <v>2.99000000953674</v>
       </c>
       <c r="G716" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="H716" t="s">
         <v>9</v>
@@ -22371,7 +22374,7 @@
         <v>2.97499990463257</v>
       </c>
       <c r="G717" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="H717" t="s">
         <v>9</v>
@@ -22397,7 +22400,7 @@
         <v>2.875</v>
       </c>
       <c r="G718" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="H718" t="s">
         <v>9</v>
@@ -22423,7 +22426,7 @@
         <v>2.86999988555908</v>
       </c>
       <c r="G719" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="H719" t="s">
         <v>9</v>
@@ -22449,7 +22452,7 @@
         <v>2.84999990463257</v>
       </c>
       <c r="G720" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="H720" t="s">
         <v>9</v>
@@ -22527,7 +22530,7 @@
         <v>2.89000010490417</v>
       </c>
       <c r="G723" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="H723" t="s">
         <v>9</v>
@@ -22553,7 +22556,7 @@
         <v>2.90000009536743</v>
       </c>
       <c r="G724" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="H724" t="s">
         <v>9</v>
@@ -22605,7 +22608,7 @@
         <v>2.97499990463257</v>
       </c>
       <c r="G726" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="H726" t="s">
         <v>9</v>
@@ -22631,7 +22634,7 @@
         <v>3.04999995231628</v>
       </c>
       <c r="G727" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="H727" t="s">
         <v>9</v>
@@ -22709,7 +22712,7 @@
         <v>3.08500003814697</v>
       </c>
       <c r="G730" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="H730" t="s">
         <v>9</v>
@@ -22735,7 +22738,7 @@
         <v>3.04999995231628</v>
       </c>
       <c r="G731" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="H731" t="s">
         <v>9</v>
@@ -22761,7 +22764,7 @@
         <v>3.04999995231628</v>
       </c>
       <c r="G732" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="H732" t="s">
         <v>9</v>
@@ -22787,7 +22790,7 @@
         <v>3.03500008583069</v>
       </c>
       <c r="G733" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="H733" t="s">
         <v>9</v>
@@ -22839,7 +22842,7 @@
         <v>2.99000000953674</v>
       </c>
       <c r="G735" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="H735" t="s">
         <v>9</v>
@@ -22891,7 +22894,7 @@
         <v>3</v>
       </c>
       <c r="G737" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="H737" t="s">
         <v>9</v>
@@ -22917,7 +22920,7 @@
         <v>3.04999995231628</v>
       </c>
       <c r="G738" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="H738" t="s">
         <v>9</v>
@@ -22969,7 +22972,7 @@
         <v>3</v>
       </c>
       <c r="G740" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="H740" t="s">
         <v>9</v>
@@ -22995,7 +22998,7 @@
         <v>3.04999995231628</v>
       </c>
       <c r="G741" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="H741" t="s">
         <v>9</v>
@@ -23021,7 +23024,7 @@
         <v>3.07999992370605</v>
       </c>
       <c r="G742" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="H742" t="s">
         <v>9</v>
@@ -23047,7 +23050,7 @@
         <v>3.05999994277954</v>
       </c>
       <c r="G743" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="H743" t="s">
         <v>9</v>
@@ -23125,7 +23128,7 @@
         <v>3.09500002861023</v>
       </c>
       <c r="G746" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="H746" t="s">
         <v>9</v>
@@ -23151,7 +23154,7 @@
         <v>3.08500003814697</v>
       </c>
       <c r="G747" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="H747" t="s">
         <v>9</v>
@@ -23203,7 +23206,7 @@
         <v>3.20000004768372</v>
       </c>
       <c r="G749" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="H749" t="s">
         <v>9</v>
@@ -23229,7 +23232,7 @@
         <v>3.08500003814697</v>
       </c>
       <c r="G750" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="H750" t="s">
         <v>9</v>
@@ -23255,7 +23258,7 @@
         <v>3.07500004768372</v>
       </c>
       <c r="G751" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="H751" t="s">
         <v>9</v>
@@ -23281,7 +23284,7 @@
         <v>3.08500003814697</v>
       </c>
       <c r="G752" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="H752" t="s">
         <v>9</v>
@@ -23307,7 +23310,7 @@
         <v>3.07999992370605</v>
       </c>
       <c r="G753" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="H753" t="s">
         <v>9</v>
@@ -23333,7 +23336,7 @@
         <v>3.11999988555908</v>
       </c>
       <c r="G754" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="H754" t="s">
         <v>9</v>
@@ -23359,7 +23362,7 @@
         <v>3.10999989509583</v>
       </c>
       <c r="G755" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="H755" t="s">
         <v>9</v>
@@ -23385,7 +23388,7 @@
         <v>3.125</v>
       </c>
       <c r="G756" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="H756" t="s">
         <v>9</v>
@@ -23437,7 +23440,7 @@
         <v>3.07500004768372</v>
       </c>
       <c r="G758" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="H758" t="s">
         <v>9</v>
@@ -23463,7 +23466,7 @@
         <v>3.07999992370605</v>
       </c>
       <c r="G759" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="H759" t="s">
         <v>9</v>
@@ -23515,7 +23518,7 @@
         <v>3.07500004768372</v>
       </c>
       <c r="G761" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="H761" t="s">
         <v>9</v>
@@ -23567,7 +23570,7 @@
         <v>3.10999989509583</v>
       </c>
       <c r="G763" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="H763" t="s">
         <v>9</v>
@@ -23593,7 +23596,7 @@
         <v>3.09500002861023</v>
       </c>
       <c r="G764" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="H764" t="s">
         <v>9</v>
@@ -23671,7 +23674,7 @@
         <v>3.24000000953674</v>
       </c>
       <c r="G767" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="H767" t="s">
         <v>9</v>
@@ -23723,7 +23726,7 @@
         <v>3.1949999332428</v>
       </c>
       <c r="G769" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="H769" t="s">
         <v>9</v>
@@ -23775,7 +23778,7 @@
         <v>3.1949999332428</v>
       </c>
       <c r="G771" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="H771" t="s">
         <v>9</v>
@@ -23801,7 +23804,7 @@
         <v>3.1800000667572</v>
       </c>
       <c r="G772" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="H772" t="s">
         <v>9</v>
@@ -23827,7 +23830,7 @@
         <v>3.1800000667572</v>
       </c>
       <c r="G773" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="H773" t="s">
         <v>9</v>
@@ -23853,7 +23856,7 @@
         <v>3.16499996185303</v>
       </c>
       <c r="G774" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="H774" t="s">
         <v>9</v>
@@ -23879,7 +23882,7 @@
         <v>3.1800000667572</v>
       </c>
       <c r="G775" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="H775" t="s">
         <v>9</v>
@@ -23931,7 +23934,7 @@
         <v>3.20000004768372</v>
       </c>
       <c r="G777" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="H777" t="s">
         <v>9</v>
@@ -23983,7 +23986,7 @@
         <v>3.20499992370605</v>
       </c>
       <c r="G779" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="H779" t="s">
         <v>9</v>
@@ -24061,7 +24064,7 @@
         <v>3.20000004768372</v>
       </c>
       <c r="G782" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="H782" t="s">
         <v>9</v>
@@ -24087,7 +24090,7 @@
         <v>3.20000004768372</v>
       </c>
       <c r="G783" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="H783" t="s">
         <v>9</v>
@@ -24191,7 +24194,7 @@
         <v>3.24000000953674</v>
       </c>
       <c r="G787" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="H787" t="s">
         <v>9</v>
@@ -24217,7 +24220,7 @@
         <v>3.25</v>
       </c>
       <c r="G788" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="H788" t="s">
         <v>9</v>
@@ -24269,7 +24272,7 @@
         <v>3.25999999046326</v>
       </c>
       <c r="G790" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="H790" t="s">
         <v>9</v>
@@ -24295,7 +24298,7 @@
         <v>3.25</v>
       </c>
       <c r="G791" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="H791" t="s">
         <v>9</v>
@@ -24321,7 +24324,7 @@
         <v>3.24000000953674</v>
       </c>
       <c r="G792" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="H792" t="s">
         <v>9</v>
@@ -24347,7 +24350,7 @@
         <v>3.26999998092651</v>
       </c>
       <c r="G793" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="H793" t="s">
         <v>9</v>
@@ -24373,7 +24376,7 @@
         <v>3.25999999046326</v>
       </c>
       <c r="G794" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="H794" t="s">
         <v>9</v>
@@ -24425,7 +24428,7 @@
         <v>3.29999995231628</v>
       </c>
       <c r="G796" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="H796" t="s">
         <v>9</v>
@@ -24685,7 +24688,7 @@
         <v>3.34999990463257</v>
       </c>
       <c r="G806" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="H806" t="s">
         <v>9</v>
@@ -25179,7 +25182,7 @@
         <v>3.53999996185303</v>
       </c>
       <c r="G825" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="H825" t="s">
         <v>9</v>
@@ -59949,7 +59952,7 @@
     </row>
     <row r="2163">
       <c r="A2163" s="1" t="n">
-        <v>45474.6495023148</v>
+        <v>45474.2916666667</v>
       </c>
       <c r="B2163" t="n">
         <v>154247</v>
@@ -59970,6 +59973,32 @@
         <v>1127</v>
       </c>
       <c r="H2163" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2164">
+      <c r="A2164" s="1" t="n">
+        <v>45475.6496412037</v>
+      </c>
+      <c r="B2164" t="n">
+        <v>226510</v>
+      </c>
+      <c r="C2164" t="n">
+        <v>2.375</v>
+      </c>
+      <c r="D2164" t="n">
+        <v>2.29999995231628</v>
+      </c>
+      <c r="E2164" t="n">
+        <v>2.32500004768372</v>
+      </c>
+      <c r="F2164" t="n">
+        <v>2.35500001907349</v>
+      </c>
+      <c r="G2164" t="s">
+        <v>1128</v>
+      </c>
+      <c r="H2164" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/ASC.MI.xlsx
+++ b/data/ASC.MI.xlsx
@@ -38,31 +38,31 @@
     <t xml:space="preserve">ticker</t>
   </si>
   <si>
-    <t xml:space="preserve">1.31329584121704</t>
+    <t xml:space="preserve">1.31329572200775</t>
   </si>
   <si>
     <t xml:space="preserve">ASC.MI</t>
   </si>
   <si>
-    <t xml:space="preserve">1.31448101997375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.30262804031372</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.30381369590759</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.28959012031555</t>
+    <t xml:space="preserve">1.31448090076447</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.30262815952301</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.30381345748901</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.28959000110626</t>
   </si>
   <si>
     <t xml:space="preserve">1.28247833251953</t>
   </si>
   <si>
-    <t xml:space="preserve">1.30974006652832</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.28366363048553</t>
+    <t xml:space="preserve">1.30973994731903</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.28366339206696</t>
   </si>
   <si>
     <t xml:space="preserve">1.26588416099548</t>
@@ -71,13 +71,13 @@
     <t xml:space="preserve">1.22676992416382</t>
   </si>
   <si>
-    <t xml:space="preserve">1.23032569885254</t>
+    <t xml:space="preserve">1.23032581806183</t>
   </si>
   <si>
     <t xml:space="preserve">1.19121134281158</t>
   </si>
   <si>
-    <t xml:space="preserve">1.21491694450378</t>
+    <t xml:space="preserve">1.21491730213165</t>
   </si>
   <si>
     <t xml:space="preserve">1.29196059703827</t>
@@ -86,7 +86,7 @@
     <t xml:space="preserve">1.28840482234955</t>
   </si>
   <si>
-    <t xml:space="preserve">1.28129315376282</t>
+    <t xml:space="preserve">1.28129303455353</t>
   </si>
   <si>
     <t xml:space="preserve">1.30736935138702</t>
@@ -95,10 +95,10 @@
     <t xml:space="preserve">1.31211042404175</t>
   </si>
   <si>
-    <t xml:space="preserve">1.29788708686829</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.23862278461456</t>
+    <t xml:space="preserve">1.29788720607758</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.23862290382385</t>
   </si>
   <si>
     <t xml:space="preserve">1.244549036026</t>
@@ -113,58 +113,58 @@
     <t xml:space="preserve">1.24099338054657</t>
   </si>
   <si>
-    <t xml:space="preserve">1.26469898223877</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.26232850551605</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.26825487613678</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.2706253528595</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.32514870166779</t>
+    <t xml:space="preserve">1.26469910144806</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.26232838630676</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.26825499534607</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.27062547206879</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.32514846324921</t>
   </si>
   <si>
     <t xml:space="preserve">1.32159268856049</t>
   </si>
   <si>
-    <t xml:space="preserve">1.32396328449249</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.31685137748718</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.31922221183777</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.30618393421173</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.31803703308105</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.33581602573395</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.34411299228668</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.34648394584656</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.36070716381073</t>
+    <t xml:space="preserve">1.32396340370178</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.31685149669647</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.31922233104706</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.30618405342102</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.31803691387177</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.33581614494324</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.34411311149597</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.34648370742798</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.36070692539215</t>
   </si>
   <si>
     <t xml:space="preserve">1.35833656787872</t>
   </si>
   <si>
-    <t xml:space="preserve">1.34766888618469</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.34292781352997</t>
+    <t xml:space="preserve">1.34766900539398</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.34292793273926</t>
   </si>
   <si>
     <t xml:space="preserve">1.36189234256744</t>
@@ -173,49 +173,49 @@
     <t xml:space="preserve">1.34055733680725</t>
   </si>
   <si>
-    <t xml:space="preserve">1.35596597194672</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.35952174663544</t>
+    <t xml:space="preserve">1.35596585273743</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.35952186584473</t>
   </si>
   <si>
     <t xml:space="preserve">1.36307764053345</t>
   </si>
   <si>
-    <t xml:space="preserve">1.34885430335999</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.36426305770874</t>
+    <t xml:space="preserve">1.34885406494141</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.36426293849945</t>
   </si>
   <si>
     <t xml:space="preserve">1.38796865940094</t>
   </si>
   <si>
-    <t xml:space="preserve">1.38085699081421</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.38322734832764</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.38678348064423</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.39152467250824</t>
+    <t xml:space="preserve">1.38085687160492</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.38322770595551</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.38678359985352</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.39152455329895</t>
   </si>
   <si>
     <t xml:space="preserve">1.39863622188568</t>
   </si>
   <si>
-    <t xml:space="preserve">1.37848615646362</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.37967169284821</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.38204228878021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.40219187736511</t>
+    <t xml:space="preserve">1.37848651409149</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.3796718120575</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.3820424079895</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.40219223499298</t>
   </si>
   <si>
     <t xml:space="preserve">1.410489320755</t>
@@ -230,19 +230,19 @@
     <t xml:space="preserve">1.40456247329712</t>
   </si>
   <si>
-    <t xml:space="preserve">1.39982151985168</t>
+    <t xml:space="preserve">1.39982128143311</t>
   </si>
   <si>
     <t xml:space="preserve">1.4328111410141</t>
   </si>
   <si>
-    <t xml:space="preserve">1.43027985095978</t>
+    <t xml:space="preserve">1.43027973175049</t>
   </si>
   <si>
     <t xml:space="preserve">1.43407678604126</t>
   </si>
   <si>
-    <t xml:space="preserve">1.44926571846008</t>
+    <t xml:space="preserve">1.44926559925079</t>
   </si>
   <si>
     <t xml:space="preserve">1.46572017669678</t>
@@ -251,7 +251,7 @@
     <t xml:space="preserve">1.46192300319672</t>
   </si>
   <si>
-    <t xml:space="preserve">1.47584617137909</t>
+    <t xml:space="preserve">1.47584629058838</t>
   </si>
   <si>
     <t xml:space="preserve">1.48344051837921</t>
@@ -260,79 +260,79 @@
     <t xml:space="preserve">1.48470604419708</t>
   </si>
   <si>
-    <t xml:space="preserve">1.48976922035217</t>
+    <t xml:space="preserve">1.48976910114288</t>
   </si>
   <si>
     <t xml:space="preserve">1.49483203887939</t>
   </si>
   <si>
-    <t xml:space="preserve">1.50242638587952</t>
+    <t xml:space="preserve">1.50242650508881</t>
   </si>
   <si>
     <t xml:space="preserve">1.53153848648071</t>
   </si>
   <si>
-    <t xml:space="preserve">1.52900671958923</t>
+    <t xml:space="preserve">1.52900695800781</t>
   </si>
   <si>
     <t xml:space="preserve">1.54419589042664</t>
   </si>
   <si>
-    <t xml:space="preserve">1.55938458442688</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.58343350887299</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.5454615354538</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.55685317516327</t>
+    <t xml:space="preserve">1.55938470363617</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.58343362808228</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.54546117782593</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.55685305595398</t>
   </si>
   <si>
     <t xml:space="preserve">1.53913271427155</t>
   </si>
   <si>
-    <t xml:space="preserve">1.58216786384583</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.65178322792053</t>
+    <t xml:space="preserve">1.58216750621796</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.65178298950195</t>
   </si>
   <si>
     <t xml:space="preserve">1.6581118106842</t>
   </si>
   <si>
-    <t xml:space="preserve">1.64039146900177</t>
+    <t xml:space="preserve">1.64039158821106</t>
   </si>
   <si>
     <t xml:space="preserve">1.56571316719055</t>
   </si>
   <si>
-    <t xml:space="preserve">1.5505245923996</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.59862232208252</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.64418876171112</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.58849656581879</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.56318199634552</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.60495090484619</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.63912570476532</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.70874106884003</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.69481813907623</t>
+    <t xml:space="preserve">1.55052447319031</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.59862244129181</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.64418888092041</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.58849632740021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.56318163871765</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.60495102405548</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.63912546634674</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.70874130725861</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.69481801986694</t>
   </si>
   <si>
     <t xml:space="preserve">1.63786005973816</t>
@@ -341,49 +341,49 @@
     <t xml:space="preserve">1.69355237483978</t>
   </si>
   <si>
-    <t xml:space="preserve">1.70494401454926</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.70620954036713</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.76316785812378</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.76823055744171</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.77076232433319</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.73532176017761</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.73405611515045</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.77202808856964</t>
+    <t xml:space="preserve">1.70494377613068</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.70620977878571</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.76316773891449</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.768230676651</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.7707622051239</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.73532164096832</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.73405563831329</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.77202785015106</t>
   </si>
   <si>
     <t xml:space="preserve">1.7846851348877</t>
   </si>
   <si>
-    <t xml:space="preserve">1.75051057338715</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.74671339988708</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.75304198265076</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.76443350315094</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.80620288848877</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.84164333343506</t>
+    <t xml:space="preserve">1.75051021575928</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.7467132806778</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.75304222106934</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.76443374156952</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.80620276927948</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.84164345264435</t>
   </si>
   <si>
     <t xml:space="preserve">1.80367124080658</t>
@@ -392,94 +392,94 @@
     <t xml:space="preserve">1.8327831029892</t>
   </si>
   <si>
-    <t xml:space="preserve">1.82012569904327</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.79734265804291</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.79607713222504</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.79354548454285</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.8163286447525</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.82265758514404</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.80999982357025</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.82518863677979</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.8112655878067</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.70241236686707</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.71380388736725</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.78974795341492</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.74038481712341</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.65558040142059</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.67583191394806</t>
+    <t xml:space="preserve">1.82012581825256</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.79734241962433</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.79607689380646</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.79354536533356</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.81632876396179</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.82265734672546</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.80999970436096</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.8251885175705</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.81126570701599</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.70241272449493</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.71380400657654</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.78974843025208</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.74038469791412</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.6555802822113</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.67583203315735</t>
   </si>
   <si>
     <t xml:space="preserve">1.64798605442047</t>
   </si>
   <si>
-    <t xml:space="preserve">1.6745662689209</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.66064321994781</t>
+    <t xml:space="preserve">1.67456638813019</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.66064345836639</t>
   </si>
   <si>
     <t xml:space="preserve">1.68722367286682</t>
   </si>
   <si>
-    <t xml:space="preserve">1.698615193367</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.66444051265717</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.6770977973938</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.65684580802917</t>
+    <t xml:space="preserve">1.69861555099487</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.66444063186646</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.67709767818451</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.65684592723846</t>
   </si>
   <si>
     <t xml:space="preserve">1.65937757492065</t>
   </si>
   <si>
-    <t xml:space="preserve">1.66190898418427</t>
+    <t xml:space="preserve">1.66190886497498</t>
   </si>
   <si>
     <t xml:space="preserve">1.6846923828125</t>
   </si>
   <si>
-    <t xml:space="preserve">1.69228649139404</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.69608390331268</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.70114636421204</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.66317474842072</t>
+    <t xml:space="preserve">1.69228672981262</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.69608402252197</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.70114684104919</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.66317486763</t>
   </si>
   <si>
     <t xml:space="preserve">1.68975520133972</t>
@@ -488,88 +488,88 @@
     <t xml:space="preserve">1.68595790863037</t>
   </si>
   <si>
-    <t xml:space="preserve">1.67836344242096</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.6340628862381</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.57710492610931</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.53406989574432</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.53533554077148</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.54039859771729</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.52267801761627</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.60115385055542</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.63153147697449</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.60748255252838</t>
+    <t xml:space="preserve">1.67836356163025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.63406276702881</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.57710480690002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.53406965732574</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.53533565998077</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.54039824008942</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.52267825603485</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.60115361213684</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.6315313577652</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.6074823141098</t>
   </si>
   <si>
     <t xml:space="preserve">1.57583916187286</t>
   </si>
   <si>
-    <t xml:space="preserve">1.53786683082581</t>
+    <t xml:space="preserve">1.53786718845367</t>
   </si>
   <si>
     <t xml:space="preserve">1.55558729171753</t>
   </si>
   <si>
-    <t xml:space="preserve">1.58723056316376</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.61381113529205</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.62899994850159</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.62393689155579</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.64545452594757</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.63659405708313</t>
+    <t xml:space="preserve">1.58723044395447</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.61381125450134</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.62899959087372</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.62393712997437</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.6454541683197</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.63659417629242</t>
   </si>
   <si>
     <t xml:space="preserve">1.63026559352875</t>
   </si>
   <si>
-    <t xml:space="preserve">1.68089473247528</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.71000707149506</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.69988107681274</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.72139871120453</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.71760153770447</t>
+    <t xml:space="preserve">1.68089497089386</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.71000683307648</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.69988083839417</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.72139859199524</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.71760129928589</t>
   </si>
   <si>
     <t xml:space="preserve">1.72393012046814</t>
   </si>
   <si>
-    <t xml:space="preserve">1.73658740520477</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.71506977081299</t>
+    <t xml:space="preserve">1.73658716678619</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.71507012844086</t>
   </si>
   <si>
     <t xml:space="preserve">1.72266411781311</t>
@@ -578,85 +578,85 @@
     <t xml:space="preserve">1.73279011249542</t>
   </si>
   <si>
-    <t xml:space="preserve">1.75177609920502</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.76190209388733</t>
+    <t xml:space="preserve">1.75177621841431</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.76190233230591</t>
   </si>
   <si>
     <t xml:space="preserve">1.75937056541443</t>
   </si>
   <si>
-    <t xml:space="preserve">1.7302588224411</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.81253170967102</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.80493688583374</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.78848242759705</t>
+    <t xml:space="preserve">1.73025870323181</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.81253147125244</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.80493700504303</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.78848230838776</t>
   </si>
   <si>
     <t xml:space="preserve">1.77709078788757</t>
   </si>
   <si>
-    <t xml:space="preserve">1.82139134407043</t>
+    <t xml:space="preserve">1.82139182090759</t>
   </si>
   <si>
     <t xml:space="preserve">1.8277200460434</t>
   </si>
   <si>
-    <t xml:space="preserve">1.79481089115143</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.828986287117</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.84037721157074</t>
+    <t xml:space="preserve">1.79481101036072</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.82898604869843</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.84037744998932</t>
   </si>
   <si>
     <t xml:space="preserve">1.81379699707031</t>
   </si>
   <si>
-    <t xml:space="preserve">1.86695790290833</t>
+    <t xml:space="preserve">1.86695837974548</t>
   </si>
   <si>
     <t xml:space="preserve">1.86062920093536</t>
   </si>
   <si>
-    <t xml:space="preserve">1.8859441280365</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.91758751869202</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.93404197692871</t>
+    <t xml:space="preserve">1.88594400882721</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.91758739948273</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.93404161930084</t>
   </si>
   <si>
     <t xml:space="preserve">1.95049679279327</t>
   </si>
   <si>
-    <t xml:space="preserve">1.9593563079834</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.95555937290192</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.99732840061188</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.98213982582092</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.03656649589539</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.06314659118652</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.08339881896973</t>
+    <t xml:space="preserve">1.95935666561127</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.95555949211121</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.9973281621933</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.98213970661163</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.03656625747681</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.0631468296051</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.08339834213257</t>
   </si>
   <si>
     <t xml:space="preserve">2.10238456726074</t>
@@ -665,10 +665,10 @@
     <t xml:space="preserve">2.06947541236877</t>
   </si>
   <si>
-    <t xml:space="preserve">2.07200694084167</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.11377620697021</t>
+    <t xml:space="preserve">2.0720067024231</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.11377596855164</t>
   </si>
   <si>
     <t xml:space="preserve">2.10871338844299</t>
@@ -677,16 +677,16 @@
     <t xml:space="preserve">2.12516784667969</t>
   </si>
   <si>
-    <t xml:space="preserve">2.16440534591675</t>
+    <t xml:space="preserve">2.16440558433533</t>
   </si>
   <si>
     <t xml:space="preserve">2.1517481803894</t>
   </si>
   <si>
-    <t xml:space="preserve">2.15681099891663</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.19604873657227</t>
+    <t xml:space="preserve">2.15681123733521</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.19604897499084</t>
   </si>
   <si>
     <t xml:space="preserve">2.20490908622742</t>
@@ -695,22 +695,22 @@
     <t xml:space="preserve">2.21883201599121</t>
   </si>
   <si>
-    <t xml:space="preserve">2.22769236564636</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.23148918151855</t>
+    <t xml:space="preserve">2.2276918888092</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.23148965835571</t>
   </si>
   <si>
     <t xml:space="preserve">2.21503472328186</t>
   </si>
   <si>
-    <t xml:space="preserve">2.24034953117371</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.232754945755</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.22895765304565</t>
+    <t xml:space="preserve">2.24034905433655</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.23275518417358</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.22895789146423</t>
   </si>
   <si>
     <t xml:space="preserve">2.21376919746399</t>
@@ -719,16 +719,16 @@
     <t xml:space="preserve">2.22516083717346</t>
   </si>
   <si>
-    <t xml:space="preserve">2.2745246887207</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.24288058280945</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.23908376693726</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.2783215045929</t>
+    <t xml:space="preserve">2.27452445030212</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.24288129806519</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.23908400535583</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.27832126617432</t>
   </si>
   <si>
     <t xml:space="preserve">2.26946139335632</t>
@@ -740,22 +740,22 @@
     <t xml:space="preserve">2.29224491119385</t>
   </si>
   <si>
-    <t xml:space="preserve">2.34160804748535</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.34920287132263</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.39350318908691</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.4227409362793</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.4094512462616</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.39616131782532</t>
+    <t xml:space="preserve">2.34160828590393</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.34920263290405</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.39350342750549</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.42274117469788</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.40945100784302</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.39616179466248</t>
   </si>
   <si>
     <t xml:space="preserve">2.37755584716797</t>
@@ -764,16 +764,16 @@
     <t xml:space="preserve">2.3164222240448</t>
   </si>
   <si>
-    <t xml:space="preserve">2.31243515014648</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.35230493545532</t>
+    <t xml:space="preserve">2.31243538856506</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.35230445861816</t>
   </si>
   <si>
     <t xml:space="preserve">2.31376457214355</t>
   </si>
   <si>
-    <t xml:space="preserve">2.3004744052887</t>
+    <t xml:space="preserve">2.30047416687012</t>
   </si>
   <si>
     <t xml:space="preserve">2.36559462547302</t>
@@ -785,7 +785,7 @@
     <t xml:space="preserve">2.40014839172363</t>
   </si>
   <si>
-    <t xml:space="preserve">2.4147675037384</t>
+    <t xml:space="preserve">2.41476726531982</t>
   </si>
   <si>
     <t xml:space="preserve">2.43204379081726</t>
@@ -800,46 +800,43 @@
     <t xml:space="preserve">2.40147757530212</t>
   </si>
   <si>
-    <t xml:space="preserve">2.40812230110168</t>
+    <t xml:space="preserve">2.40812253952026</t>
   </si>
   <si>
     <t xml:space="preserve">2.4253990650177</t>
   </si>
   <si>
-    <t xml:space="preserve">2.43071508407593</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.40413546562195</t>
+    <t xml:space="preserve">2.43071484565735</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.40413522720337</t>
   </si>
   <si>
     <t xml:space="preserve">2.392174243927</t>
   </si>
   <si>
-    <t xml:space="preserve">2.412109375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.41343832015991</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.40679335594177</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.39350342750549</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.47058463096619</t>
+    <t xml:space="preserve">2.41210961341858</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.41343855857849</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.40679359436035</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.47058486938477</t>
   </si>
   <si>
     <t xml:space="preserve">2.38951635360718</t>
   </si>
   <si>
-    <t xml:space="preserve">2.37489748001099</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.35762071609497</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.35894966125488</t>
+    <t xml:space="preserve">2.37489771842957</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.35762095451355</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.3589494228363</t>
   </si>
   <si>
     <t xml:space="preserve">2.31509351730347</t>
@@ -848,43 +845,43 @@
     <t xml:space="preserve">2.30579042434692</t>
   </si>
   <si>
-    <t xml:space="preserve">2.33104085922241</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.32173824310303</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.3190803527832</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.32306718826294</t>
+    <t xml:space="preserve">2.33104109764099</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.32173800468445</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.31908059120178</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.32306694984436</t>
   </si>
   <si>
     <t xml:space="preserve">2.32838296890259</t>
   </si>
   <si>
-    <t xml:space="preserve">2.30446100234985</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.26592087745667</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.25661826133728</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.27921056747437</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.29250049591064</t>
+    <t xml:space="preserve">2.30446124076843</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.26592063903809</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.25661778450012</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.27921080589294</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.29250073432922</t>
   </si>
   <si>
     <t xml:space="preserve">2.30180358886719</t>
   </si>
   <si>
-    <t xml:space="preserve">2.38552927970886</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.38021397590637</t>
+    <t xml:space="preserve">2.38552951812744</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.38021349906921</t>
   </si>
   <si>
     <t xml:space="preserve">2.39084577560425</t>
@@ -902,31 +899,31 @@
     <t xml:space="preserve">2.34034395217896</t>
   </si>
   <si>
-    <t xml:space="preserve">2.32572507858276</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.35097575187683</t>
+    <t xml:space="preserve">2.32572531700134</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.35097599029541</t>
   </si>
   <si>
     <t xml:space="preserve">2.30977749824524</t>
   </si>
   <si>
-    <t xml:space="preserve">2.35496282577515</t>
+    <t xml:space="preserve">2.35496306419373</t>
   </si>
   <si>
     <t xml:space="preserve">2.43470215797424</t>
   </si>
   <si>
-    <t xml:space="preserve">2.3988196849823</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.42141222953796</t>
+    <t xml:space="preserve">2.39881920814514</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.42141175270081</t>
   </si>
   <si>
     <t xml:space="preserve">2.34698891639709</t>
   </si>
   <si>
-    <t xml:space="preserve">2.34831762313843</t>
+    <t xml:space="preserve">2.34831786155701</t>
   </si>
   <si>
     <t xml:space="preserve">2.33502793312073</t>
@@ -935,34 +932,34 @@
     <t xml:space="preserve">2.32971215248108</t>
   </si>
   <si>
-    <t xml:space="preserve">2.39483284950256</t>
+    <t xml:space="preserve">2.39483237266541</t>
   </si>
   <si>
     <t xml:space="preserve">2.37223958969116</t>
   </si>
   <si>
-    <t xml:space="preserve">2.39749026298523</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.36825251579285</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.41742515563965</t>
+    <t xml:space="preserve">2.39749050140381</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.36825275421143</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.41742539405823</t>
   </si>
   <si>
     <t xml:space="preserve">2.43603086471558</t>
   </si>
   <si>
-    <t xml:space="preserve">2.47191333770752</t>
+    <t xml:space="preserve">2.47191381454468</t>
   </si>
   <si>
     <t xml:space="preserve">2.48254537582397</t>
   </si>
   <si>
-    <t xml:space="preserve">2.5343759059906</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.51311206817627</t>
+    <t xml:space="preserve">2.53437566757202</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.51311230659485</t>
   </si>
   <si>
     <t xml:space="preserve">2.51178312301636</t>
@@ -974,7 +971,7 @@
     <t xml:space="preserve">2.45197868347168</t>
   </si>
   <si>
-    <t xml:space="preserve">2.45729470252991</t>
+    <t xml:space="preserve">2.45729494094849</t>
   </si>
   <si>
     <t xml:space="preserve">2.40546417236328</t>
@@ -983,25 +980,25 @@
     <t xml:space="preserve">2.42938613891602</t>
   </si>
   <si>
-    <t xml:space="preserve">2.47324275970459</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.45862364768982</t>
+    <t xml:space="preserve">2.47324252128601</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.4586238861084</t>
   </si>
   <si>
     <t xml:space="preserve">2.4413468837738</t>
   </si>
   <si>
-    <t xml:space="preserve">2.42672824859619</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.44932103157043</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.37888431549072</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.42872166633606</t>
+    <t xml:space="preserve">2.42672801017761</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.44932079315186</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.3788845539093</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.42872142791748</t>
   </si>
   <si>
     <t xml:space="preserve">2.44533395767212</t>
@@ -1010,7 +1007,7 @@
     <t xml:space="preserve">2.43868899345398</t>
   </si>
   <si>
-    <t xml:space="preserve">2.44201111793518</t>
+    <t xml:space="preserve">2.44201135635376</t>
   </si>
   <si>
     <t xml:space="preserve">2.38220715522766</t>
@@ -1019,10 +1016,10 @@
     <t xml:space="preserve">2.19282650947571</t>
   </si>
   <si>
-    <t xml:space="preserve">2.09979748725891</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.15960192680359</t>
+    <t xml:space="preserve">2.09979772567749</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.15960216522217</t>
   </si>
   <si>
     <t xml:space="preserve">2.12969970703125</t>
@@ -1031,58 +1028,58 @@
     <t xml:space="preserve">2.09315276145935</t>
   </si>
   <si>
-    <t xml:space="preserve">2.14631175994873</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.13634443283081</t>
+    <t xml:space="preserve">2.14631223678589</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.13634467124939</t>
   </si>
   <si>
     <t xml:space="preserve">2.17289161682129</t>
   </si>
   <si>
-    <t xml:space="preserve">2.17953681945801</t>
+    <t xml:space="preserve">2.17953658103943</t>
   </si>
   <si>
     <t xml:space="preserve">2.12305498123169</t>
   </si>
   <si>
-    <t xml:space="preserve">2.10644268989563</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.08318519592285</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.07321810722351</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.03334856033325</t>
+    <t xml:space="preserve">2.10644245147705</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.08318543434143</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.07321763038635</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.03334832191467</t>
   </si>
   <si>
     <t xml:space="preserve">2.06989550590515</t>
   </si>
   <si>
-    <t xml:space="preserve">2.07986307144165</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.10312008857727</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.14298987388611</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.09647536277771</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.12637734413147</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.13302230834961</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.18285918235779</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.16292452812195</t>
+    <t xml:space="preserve">2.07986259460449</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.10311985015869</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.14298939704895</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.09647488594055</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.12637758255005</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.13302206993103</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.18285942077637</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.16292428970337</t>
   </si>
   <si>
     <t xml:space="preserve">2.11640977859497</t>
@@ -1097,16 +1094,16 @@
     <t xml:space="preserve">2.16624689102173</t>
   </si>
   <si>
-    <t xml:space="preserve">2.19947171211243</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.17621445655823</t>
+    <t xml:space="preserve">2.19947147369385</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.17621421813965</t>
   </si>
   <si>
     <t xml:space="preserve">2.18618154525757</t>
   </si>
   <si>
-    <t xml:space="preserve">2.20943880081177</t>
+    <t xml:space="preserve">2.20943903923035</t>
   </si>
   <si>
     <t xml:space="preserve">2.21276140213013</t>
@@ -1115,10 +1112,10 @@
     <t xml:space="preserve">2.25927591323853</t>
   </si>
   <si>
-    <t xml:space="preserve">2.34566020965576</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.32904767990112</t>
+    <t xml:space="preserve">2.34565997123718</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.3290479183197</t>
   </si>
   <si>
     <t xml:space="preserve">2.34655904769897</t>
@@ -1127,13 +1124,13 @@
     <t xml:space="preserve">2.44279026985168</t>
   </si>
   <si>
-    <t xml:space="preserve">2.39837551116943</t>
+    <t xml:space="preserve">2.39837622642517</t>
   </si>
   <si>
     <t xml:space="preserve">2.36876654624939</t>
   </si>
   <si>
-    <t xml:space="preserve">2.41318035125732</t>
+    <t xml:space="preserve">2.4131805896759</t>
   </si>
   <si>
     <t xml:space="preserve">2.3539617061615</t>
@@ -1145,31 +1142,31 @@
     <t xml:space="preserve">2.30584597587585</t>
   </si>
   <si>
-    <t xml:space="preserve">2.29844355583191</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.29104113578796</t>
+    <t xml:space="preserve">2.29844379425049</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.29104137420654</t>
   </si>
   <si>
     <t xml:space="preserve">2.27993750572205</t>
   </si>
   <si>
-    <t xml:space="preserve">2.26143169403076</t>
+    <t xml:space="preserve">2.26143193244934</t>
   </si>
   <si>
     <t xml:space="preserve">2.22441959381104</t>
   </si>
   <si>
-    <t xml:space="preserve">2.1281886100769</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.18370652198792</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.23182201385498</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.22071814537048</t>
+    <t xml:space="preserve">2.12818837165833</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.18370699882507</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.23182225227356</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.22071838378906</t>
   </si>
   <si>
     <t xml:space="preserve">2.20591378211975</t>
@@ -1178,19 +1175,19 @@
     <t xml:space="preserve">2.18000531196594</t>
   </si>
   <si>
-    <t xml:space="preserve">2.25773024559021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.26513266563416</t>
+    <t xml:space="preserve">2.25773048400879</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.26513290405273</t>
   </si>
   <si>
     <t xml:space="preserve">2.2022123336792</t>
   </si>
   <si>
-    <t xml:space="preserve">2.21331596374512</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.21701717376709</t>
+    <t xml:space="preserve">2.2133162021637</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.21701693534851</t>
   </si>
   <si>
     <t xml:space="preserve">2.16149926185608</t>
@@ -1202,76 +1199,76 @@
     <t xml:space="preserve">2.24662709236145</t>
   </si>
   <si>
-    <t xml:space="preserve">2.18740749359131</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.16890144348145</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.15779805183411</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.13929200172424</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.13559126853943</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.12078642845154</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.12448716163635</t>
+    <t xml:space="preserve">2.18740773200989</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.16890168190002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.15779829025269</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.13929224014282</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.13559079170227</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.12078595161438</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.12448740005493</t>
   </si>
   <si>
     <t xml:space="preserve">2.14669442176819</t>
   </si>
   <si>
-    <t xml:space="preserve">2.11708498001099</t>
+    <t xml:space="preserve">2.11708474159241</t>
   </si>
   <si>
     <t xml:space="preserve">2.10968255996704</t>
   </si>
   <si>
-    <t xml:space="preserve">2.3243522644043</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.33175420761108</t>
+    <t xml:space="preserve">2.32435202598572</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.33175444602966</t>
   </si>
   <si>
     <t xml:space="preserve">2.37246751785278</t>
   </si>
   <si>
-    <t xml:space="preserve">2.62044763565063</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.4835033416748</t>
+    <t xml:space="preserve">2.62044739723206</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.48350358009338</t>
   </si>
   <si>
     <t xml:space="preserve">2.47980213165283</t>
   </si>
   <si>
-    <t xml:space="preserve">2.41688203811646</t>
+    <t xml:space="preserve">2.41688179969788</t>
   </si>
   <si>
     <t xml:space="preserve">2.42058300971985</t>
   </si>
   <si>
-    <t xml:space="preserve">2.40577816963196</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.36506509780884</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.32065057754517</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.29474234580994</t>
+    <t xml:space="preserve">2.40577840805054</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.36506533622742</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.32065081596375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.29474258422852</t>
   </si>
   <si>
     <t xml:space="preserve">2.23922443389893</t>
   </si>
   <si>
-    <t xml:space="preserve">2.30954718589783</t>
+    <t xml:space="preserve">2.30954694747925</t>
   </si>
   <si>
     <t xml:space="preserve">2.27623629570007</t>
@@ -1280,31 +1277,34 @@
     <t xml:space="preserve">2.28363871574402</t>
   </si>
   <si>
-    <t xml:space="preserve">2.3021445274353</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.31324815750122</t>
+    <t xml:space="preserve">2.30214476585388</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.3132483959198</t>
   </si>
   <si>
     <t xml:space="preserve">2.342857837677</t>
   </si>
   <si>
-    <t xml:space="preserve">2.33915686607361</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.33545541763306</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.24292588233948</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.17630410194397</t>
+    <t xml:space="preserve">2.33915710449219</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.33545565605164</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.34655928611755</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.2429256439209</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.17630386352539</t>
   </si>
   <si>
     <t xml:space="preserve">2.19110894203186</t>
   </si>
   <si>
-    <t xml:space="preserve">2.23552322387695</t>
+    <t xml:space="preserve">2.23552346229553</t>
   </si>
   <si>
     <t xml:space="preserve">2.08747529983521</t>
@@ -1313,28 +1313,28 @@
     <t xml:space="preserve">2.15039587020874</t>
   </si>
   <si>
-    <t xml:space="preserve">2.15409684181213</t>
+    <t xml:space="preserve">2.15409708023071</t>
   </si>
   <si>
     <t xml:space="preserve">2.25402927398682</t>
   </si>
   <si>
-    <t xml:space="preserve">2.2725350856781</t>
+    <t xml:space="preserve">2.27253484725952</t>
   </si>
   <si>
     <t xml:space="preserve">2.25032782554626</t>
   </si>
   <si>
-    <t xml:space="preserve">2.22812104225159</t>
+    <t xml:space="preserve">2.22812056541443</t>
   </si>
   <si>
     <t xml:space="preserve">2.40207695960999</t>
   </si>
   <si>
-    <t xml:space="preserve">2.43168663978577</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.38357090950012</t>
+    <t xml:space="preserve">2.43168711662292</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.3835711479187</t>
   </si>
   <si>
     <t xml:space="preserve">2.35766267776489</t>
@@ -1349,28 +1349,28 @@
     <t xml:space="preserve">2.42428421974182</t>
   </si>
   <si>
-    <t xml:space="preserve">2.42798519134521</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.44649124145508</t>
+    <t xml:space="preserve">2.42798542976379</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.44649147987366</t>
   </si>
   <si>
     <t xml:space="preserve">2.45019268989563</t>
   </si>
   <si>
-    <t xml:space="preserve">2.50200939178467</t>
+    <t xml:space="preserve">2.50200986862183</t>
   </si>
   <si>
     <t xml:space="preserve">2.49460697174072</t>
   </si>
   <si>
-    <t xml:space="preserve">2.49090576171875</t>
+    <t xml:space="preserve">2.49090600013733</t>
   </si>
   <si>
     <t xml:space="preserve">2.51311302185059</t>
   </si>
   <si>
-    <t xml:space="preserve">2.4983081817627</t>
+    <t xml:space="preserve">2.49830842018127</t>
   </si>
   <si>
     <t xml:space="preserve">2.50571060180664</t>
@@ -1382,10 +1382,10 @@
     <t xml:space="preserve">2.53161931037903</t>
   </si>
   <si>
-    <t xml:space="preserve">2.56863117218018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.52791786193848</t>
+    <t xml:space="preserve">2.5686309337616</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.5279176235199</t>
   </si>
   <si>
     <t xml:space="preserve">2.53902149200439</t>
@@ -1397,13 +1397,13 @@
     <t xml:space="preserve">2.5242166519165</t>
   </si>
   <si>
-    <t xml:space="preserve">2.54272294044495</t>
+    <t xml:space="preserve">2.54272270202637</t>
   </si>
   <si>
     <t xml:space="preserve">2.55382633209229</t>
   </si>
   <si>
-    <t xml:space="preserve">2.57603335380554</t>
+    <t xml:space="preserve">2.57603359222412</t>
   </si>
   <si>
     <t xml:space="preserve">2.60194182395935</t>
@@ -1418,10 +1418,10 @@
     <t xml:space="preserve">2.62785005569458</t>
   </si>
   <si>
-    <t xml:space="preserve">2.64635610580444</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.64265513420105</t>
+    <t xml:space="preserve">2.64635634422302</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.64265489578247</t>
   </si>
   <si>
     <t xml:space="preserve">2.63895392417908</t>
@@ -1430,154 +1430,154 @@
     <t xml:space="preserve">2.65745973587036</t>
   </si>
   <si>
-    <t xml:space="preserve">2.67226457595825</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.71297764778137</t>
+    <t xml:space="preserve">2.67226433753967</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.71297788619995</t>
   </si>
   <si>
     <t xml:space="preserve">2.72778224945068</t>
   </si>
   <si>
-    <t xml:space="preserve">2.70187425613403</t>
+    <t xml:space="preserve">2.70187401771545</t>
   </si>
   <si>
     <t xml:space="preserve">2.69077038764954</t>
   </si>
   <si>
-    <t xml:space="preserve">2.74258708953857</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.75739192962646</t>
+    <t xml:space="preserve">2.74258732795715</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.75739216804504</t>
   </si>
   <si>
     <t xml:space="preserve">2.82401371002197</t>
   </si>
   <si>
-    <t xml:space="preserve">2.82031226158142</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.84992170333862</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.83881831169128</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.02654123306274</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.74035263061523</t>
+    <t xml:space="preserve">2.8203125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.84992218017578</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.83881855010986</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.02654099464417</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.74035239219666</t>
   </si>
   <si>
     <t xml:space="preserve">2.73643231391907</t>
   </si>
   <si>
-    <t xml:space="preserve">2.68938779830933</t>
+    <t xml:space="preserve">2.68938755989075</t>
   </si>
   <si>
     <t xml:space="preserve">2.70898938179016</t>
   </si>
   <si>
-    <t xml:space="preserve">2.68154668807983</t>
+    <t xml:space="preserve">2.68154692649841</t>
   </si>
   <si>
     <t xml:space="preserve">2.75603413581848</t>
   </si>
   <si>
-    <t xml:space="preserve">2.84228253364563</t>
+    <t xml:space="preserve">2.84228277206421</t>
   </si>
   <si>
     <t xml:space="preserve">2.79915833473206</t>
   </si>
   <si>
-    <t xml:space="preserve">2.82268071174622</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.78347682952881</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.7756359577179</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.7677948474884</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.79131746292114</t>
+    <t xml:space="preserve">2.82268047332764</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.78347659111023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.77563571929932</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.76779532432556</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.79131770133972</t>
   </si>
   <si>
     <t xml:space="preserve">2.78739738464355</t>
   </si>
   <si>
-    <t xml:space="preserve">2.84620308876038</t>
+    <t xml:space="preserve">2.84620332717896</t>
   </si>
   <si>
     <t xml:space="preserve">2.85796427726746</t>
   </si>
   <si>
-    <t xml:space="preserve">2.82660126686096</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.8344419002533</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.85012316703796</t>
+    <t xml:space="preserve">2.82660102844238</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.83444166183472</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.85012340545654</t>
   </si>
   <si>
     <t xml:space="preserve">2.86188459396362</t>
   </si>
   <si>
-    <t xml:space="preserve">2.8736457824707</t>
+    <t xml:space="preserve">2.87364602088928</t>
   </si>
   <si>
     <t xml:space="preserve">2.99517774581909</t>
   </si>
   <si>
-    <t xml:space="preserve">2.92461085319519</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.95597386360168</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.97165536880493</t>
+    <t xml:space="preserve">2.92461061477661</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.95597410202026</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.97165560722351</t>
   </si>
   <si>
     <t xml:space="preserve">2.94813323020935</t>
   </si>
   <si>
-    <t xml:space="preserve">2.94029259681702</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.96381449699402</t>
+    <t xml:space="preserve">2.94029235839844</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.9638147354126</t>
   </si>
   <si>
     <t xml:space="preserve">2.95989441871643</t>
   </si>
   <si>
-    <t xml:space="preserve">3.00693893432617</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.10494875907898</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.06966519355774</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.03830218315125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.07750606536865</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.13631176948547</t>
+    <t xml:space="preserve">3.00693917274475</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.10494899749756</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.06966543197632</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.03830194473267</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.07750582695007</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.13631200790405</t>
   </si>
   <si>
     <t xml:space="preserve">3.15983438491821</t>
   </si>
   <si>
-    <t xml:space="preserve">3.18335628509521</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.23824214935303</t>
+    <t xml:space="preserve">3.18335652351379</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.23824191093445</t>
   </si>
   <si>
     <t xml:space="preserve">3.25000309944153</t>
@@ -1586,25 +1586,25 @@
     <t xml:space="preserve">3.25392365455627</t>
   </si>
   <si>
-    <t xml:space="preserve">3.26960515975952</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.30096840858459</t>
+    <t xml:space="preserve">3.2696053981781</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.30096817016602</t>
   </si>
   <si>
     <t xml:space="preserve">3.33233141899109</t>
   </si>
   <si>
-    <t xml:space="preserve">3.3127293586731</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.27744555473328</t>
+    <t xml:space="preserve">3.31272912025452</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.27744603157043</t>
   </si>
   <si>
     <t xml:space="preserve">3.20687890052795</t>
   </si>
   <si>
-    <t xml:space="preserve">3.22648048400879</t>
+    <t xml:space="preserve">3.22648072242737</t>
   </si>
   <si>
     <t xml:space="preserve">3.25784397125244</t>
@@ -1613,40 +1613,40 @@
     <t xml:space="preserve">3.24216294288635</t>
   </si>
   <si>
-    <t xml:space="preserve">3.19119763374329</t>
+    <t xml:space="preserve">3.19119739532471</t>
   </si>
   <si>
     <t xml:space="preserve">3.14023232460022</t>
   </si>
   <si>
-    <t xml:space="preserve">3.12847113609314</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.11670970916748</t>
+    <t xml:space="preserve">3.12847137451172</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.11670994758606</t>
   </si>
   <si>
     <t xml:space="preserve">3.05006337165833</t>
   </si>
   <si>
-    <t xml:space="preserve">3.05398368835449</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.21864008903503</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.21471953392029</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.1637544631958</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.14807319641113</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.04222273826599</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.12063050270081</t>
+    <t xml:space="preserve">3.05398392677307</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.21864032745361</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.21472001075745</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.16375470161438</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.14807271957397</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.04222249984741</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.12063026428223</t>
   </si>
   <si>
     <t xml:space="preserve">3.12455058097839</t>
@@ -1661,16 +1661,16 @@
     <t xml:space="preserve">3.11278963088989</t>
   </si>
   <si>
-    <t xml:space="preserve">3.10102820396423</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.98341679573059</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.88148641586304</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.93637180328369</t>
+    <t xml:space="preserve">3.10102844238281</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.98341655731201</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.88148665428162</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.93637204170227</t>
   </si>
   <si>
     <t xml:space="preserve">2.97557592391968</t>
@@ -1679,46 +1679,46 @@
     <t xml:space="preserve">2.98733711242676</t>
   </si>
   <si>
-    <t xml:space="preserve">2.97949647903442</t>
+    <t xml:space="preserve">2.97949600219727</t>
   </si>
   <si>
     <t xml:space="preserve">2.99909830093384</t>
   </si>
   <si>
-    <t xml:space="preserve">3.00301837921143</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.05790400505066</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.03438186645508</t>
+    <t xml:space="preserve">3.00301861763</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.05790424346924</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.0343816280365</t>
   </si>
   <si>
     <t xml:space="preserve">3.06574511528015</t>
   </si>
   <si>
-    <t xml:space="preserve">3.04614305496216</t>
+    <t xml:space="preserve">3.04614281654358</t>
   </si>
   <si>
     <t xml:space="preserve">3.03046131134033</t>
   </si>
   <si>
-    <t xml:space="preserve">2.9324517250061</t>
+    <t xml:space="preserve">2.93245148658752</t>
   </si>
   <si>
     <t xml:space="preserve">2.91284966468811</t>
   </si>
   <si>
-    <t xml:space="preserve">2.90108847618103</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.94421315193176</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.8932478427887</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.01869988441467</t>
+    <t xml:space="preserve">2.90108871459961</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.94421291351318</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.89324760437012</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.01870036125183</t>
   </si>
   <si>
     <t xml:space="preserve">3.15199327468872</t>
@@ -1727,7 +1727,7 @@
     <t xml:space="preserve">3.17551589012146</t>
   </si>
   <si>
-    <t xml:space="preserve">3.09710812568665</t>
+    <t xml:space="preserve">3.09710788726807</t>
   </si>
   <si>
     <t xml:space="preserve">3.10886907577515</t>
@@ -1736,13 +1736,13 @@
     <t xml:space="preserve">3.022620677948</t>
   </si>
   <si>
-    <t xml:space="preserve">3.01085901260376</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.91676998138428</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.9520537853241</t>
+    <t xml:space="preserve">3.01085925102234</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.91677021980286</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.95205354690552</t>
   </si>
   <si>
     <t xml:space="preserve">2.9912576675415</t>
@@ -1751,19 +1751,19 @@
     <t xml:space="preserve">3.13239145278931</t>
   </si>
   <si>
-    <t xml:space="preserve">3.46562480926514</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.5479531288147</t>
+    <t xml:space="preserve">3.46562457084656</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.54795289039612</t>
   </si>
   <si>
     <t xml:space="preserve">3.48522686958313</t>
   </si>
   <si>
-    <t xml:space="preserve">3.58323645591736</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.52443051338196</t>
+    <t xml:space="preserve">3.58323669433594</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.52443027496338</t>
   </si>
   <si>
     <t xml:space="preserve">3.58715653419495</t>
@@ -1772,52 +1772,52 @@
     <t xml:space="preserve">3.61459946632385</t>
   </si>
   <si>
-    <t xml:space="preserve">3.51658964157104</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.4225001335144</t>
+    <t xml:space="preserve">3.51658987998962</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.42250037193298</t>
   </si>
   <si>
     <t xml:space="preserve">3.39505767822266</t>
   </si>
   <si>
-    <t xml:space="preserve">3.37937593460083</t>
+    <t xml:space="preserve">3.37937617301941</t>
   </si>
   <si>
     <t xml:space="preserve">3.43818211555481</t>
   </si>
   <si>
-    <t xml:space="preserve">3.48130655288696</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.45386338233948</t>
+    <t xml:space="preserve">3.48130631446838</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.45386362075806</t>
   </si>
   <si>
     <t xml:space="preserve">3.28920745849609</t>
   </si>
   <si>
-    <t xml:space="preserve">3.26176428794861</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.21079897880554</t>
+    <t xml:space="preserve">3.26176404953003</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.21079921722412</t>
   </si>
   <si>
     <t xml:space="preserve">3.0814266204834</t>
   </si>
   <si>
-    <t xml:space="preserve">3.26568484306335</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.23432183265686</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.19511795043945</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.69722819328308</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.13269233703613</t>
+    <t xml:space="preserve">3.26568460464478</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.23432159423828</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.19511747360229</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.69722843170166</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.13269209861755</t>
   </si>
   <si>
     <t xml:space="preserve">2.36399531364441</t>
@@ -1829,16 +1829,16 @@
     <t xml:space="preserve">2.49336814880371</t>
   </si>
   <si>
-    <t xml:space="preserve">2.50512909889221</t>
+    <t xml:space="preserve">2.50512933731079</t>
   </si>
   <si>
     <t xml:space="preserve">2.55217361450195</t>
   </si>
   <si>
-    <t xml:space="preserve">2.61882066726685</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.60313868522644</t>
+    <t xml:space="preserve">2.61882042884827</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.60313892364502</t>
   </si>
   <si>
     <t xml:space="preserve">2.63450193405151</t>
@@ -1847,76 +1847,76 @@
     <t xml:space="preserve">2.58353710174561</t>
   </si>
   <si>
-    <t xml:space="preserve">2.5443332195282</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.51689028739929</t>
+    <t xml:space="preserve">2.54433298110962</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.51689004898071</t>
   </si>
   <si>
     <t xml:space="preserve">2.63842248916626</t>
   </si>
   <si>
-    <t xml:space="preserve">2.49728846549988</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.50904941558838</t>
+    <t xml:space="preserve">2.4972882270813</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.50904965400696</t>
   </si>
   <si>
     <t xml:space="preserve">2.46984577178955</t>
   </si>
   <si>
-    <t xml:space="preserve">2.51296973228455</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.53257179260254</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.54041266441345</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.52865147590637</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.54825329780579</t>
+    <t xml:space="preserve">2.51296997070312</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.53257203102112</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.54041290283203</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.52865123748779</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.54825353622437</t>
   </si>
   <si>
     <t xml:space="preserve">2.52473115921021</t>
   </si>
   <si>
-    <t xml:space="preserve">2.57177591323853</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.58745741844177</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.64234280586243</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.61097979545593</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.65018367767334</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.62274074554443</t>
+    <t xml:space="preserve">2.57177567481995</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.58745718002319</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.64234256744385</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.61097955703735</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.65018391609192</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.62274098396301</t>
   </si>
   <si>
     <t xml:space="preserve">2.6266610622406</t>
   </si>
   <si>
-    <t xml:space="preserve">2.72075033187866</t>
+    <t xml:space="preserve">2.72075057029724</t>
   </si>
   <si>
     <t xml:space="preserve">2.92069053649902</t>
   </si>
   <si>
-    <t xml:space="preserve">3.30880856513977</t>
+    <t xml:space="preserve">3.30880880355835</t>
   </si>
   <si>
     <t xml:space="preserve">3.44994330406189</t>
   </si>
   <si>
-    <t xml:space="preserve">3.43426179885864</t>
+    <t xml:space="preserve">3.43426156044006</t>
   </si>
   <si>
     <t xml:space="preserve">3.50703978538513</t>
@@ -1925,7 +1925,7 @@
     <t xml:space="preserve">3.32983326911926</t>
   </si>
   <si>
-    <t xml:space="preserve">3.25565385818481</t>
+    <t xml:space="preserve">3.25565409660339</t>
   </si>
   <si>
     <t xml:space="preserve">3.14438462257385</t>
@@ -1934,28 +1934,28 @@
     <t xml:space="preserve">3.14026355743408</t>
   </si>
   <si>
-    <t xml:space="preserve">3.21444296836853</t>
+    <t xml:space="preserve">3.21444320678711</t>
   </si>
   <si>
     <t xml:space="preserve">3.24741172790527</t>
   </si>
   <si>
-    <t xml:space="preserve">3.19383764266968</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.22680640220642</t>
+    <t xml:space="preserve">3.1938374042511</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.22680616378784</t>
   </si>
   <si>
     <t xml:space="preserve">3.2721381187439</t>
   </si>
   <si>
-    <t xml:space="preserve">3.2185640335083</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.11141610145569</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.06196308135986</t>
+    <t xml:space="preserve">3.21856379508972</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.11141633987427</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.06196284294128</t>
   </si>
   <si>
     <t xml:space="preserve">3.08256840705872</t>
@@ -1964,16 +1964,16 @@
     <t xml:space="preserve">3.09081077575684</t>
   </si>
   <si>
-    <t xml:space="preserve">3.11965823173523</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.08668923377991</t>
+    <t xml:space="preserve">3.11965799331665</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.08668947219849</t>
   </si>
   <si>
     <t xml:space="preserve">3.05784201622009</t>
   </si>
   <si>
-    <t xml:space="preserve">3.04135751724243</t>
+    <t xml:space="preserve">3.04135775566101</t>
   </si>
   <si>
     <t xml:space="preserve">3.00014686584473</t>
@@ -1985,7 +1985,7 @@
     <t xml:space="preserve">2.91360425949097</t>
   </si>
   <si>
-    <t xml:space="preserve">2.93008852005005</t>
+    <t xml:space="preserve">2.93008828163147</t>
   </si>
   <si>
     <t xml:space="preserve">2.91772508621216</t>
@@ -1994,34 +1994,34 @@
     <t xml:space="preserve">2.90124082565308</t>
   </si>
   <si>
-    <t xml:space="preserve">2.90536189079285</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.86827206611633</t>
+    <t xml:space="preserve">2.90536212921143</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.86827230453491</t>
   </si>
   <si>
     <t xml:space="preserve">2.78997159004211</t>
   </si>
   <si>
-    <t xml:space="preserve">2.92184638977051</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.87651443481445</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.89299845695496</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.80233502388</t>
+    <t xml:space="preserve">2.92184615135193</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.87651419639587</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.89299893379211</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.80233526229858</t>
   </si>
   <si>
     <t xml:space="preserve">2.76112413406372</t>
   </si>
   <si>
-    <t xml:space="preserve">2.74463987350464</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.75288200378418</t>
+    <t xml:space="preserve">2.74463963508606</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.7528817653656</t>
   </si>
   <si>
     <t xml:space="preserve">2.7116711139679</t>
@@ -2036,10 +2036,10 @@
     <t xml:space="preserve">2.8723931312561</t>
   </si>
   <si>
-    <t xml:space="preserve">2.86002993583679</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.81469798088074</t>
+    <t xml:space="preserve">2.86003017425537</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.81469821929932</t>
   </si>
   <si>
     <t xml:space="preserve">2.81057715415955</t>
@@ -2048,10 +2048,10 @@
     <t xml:space="preserve">2.76524519920349</t>
   </si>
   <si>
-    <t xml:space="preserve">2.79409313201904</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.78172969818115</t>
+    <t xml:space="preserve">2.79409289360046</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.78172945976257</t>
   </si>
   <si>
     <t xml:space="preserve">2.78585076332092</t>
@@ -2060,22 +2060,22 @@
     <t xml:space="preserve">2.70342898368835</t>
   </si>
   <si>
-    <t xml:space="preserve">2.7075502872467</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.75700283050537</t>
+    <t xml:space="preserve">2.70755004882812</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.75700306892395</t>
   </si>
   <si>
     <t xml:space="preserve">2.77348732948303</t>
   </si>
   <si>
-    <t xml:space="preserve">2.74876093864441</t>
+    <t xml:space="preserve">2.74876070022583</t>
   </si>
   <si>
     <t xml:space="preserve">2.71991324424744</t>
   </si>
   <si>
-    <t xml:space="preserve">2.72403430938721</t>
+    <t xml:space="preserve">2.72403454780579</t>
   </si>
   <si>
     <t xml:space="preserve">2.77760815620422</t>
@@ -2084,7 +2084,7 @@
     <t xml:space="preserve">2.88475656509399</t>
   </si>
   <si>
-    <t xml:space="preserve">2.64573383331299</t>
+    <t xml:space="preserve">2.64573359489441</t>
   </si>
   <si>
     <t xml:space="preserve">2.64985489845276</t>
@@ -2093,58 +2093,58 @@
     <t xml:space="preserve">2.66221809387207</t>
   </si>
   <si>
-    <t xml:space="preserve">2.60864424705505</t>
+    <t xml:space="preserve">2.60864400863647</t>
   </si>
   <si>
     <t xml:space="preserve">2.63337063789368</t>
   </si>
   <si>
-    <t xml:space="preserve">2.62100744247437</t>
+    <t xml:space="preserve">2.62100720405579</t>
   </si>
   <si>
     <t xml:space="preserve">2.62512850761414</t>
   </si>
   <si>
-    <t xml:space="preserve">2.59215974807739</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.6045229434967</t>
+    <t xml:space="preserve">2.59215998649597</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.60452318191528</t>
   </si>
   <si>
     <t xml:space="preserve">2.62924957275391</t>
   </si>
   <si>
-    <t xml:space="preserve">2.64161252975464</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.61276531219482</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.58391737937927</t>
+    <t xml:space="preserve">2.64161276817322</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.61276507377625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.58391785621643</t>
   </si>
   <si>
     <t xml:space="preserve">2.59628081321716</t>
   </si>
   <si>
-    <t xml:space="preserve">2.51798009872437</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.49737501144409</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.57155442237854</t>
+    <t xml:space="preserve">2.51798057556152</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.49737477302551</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.57155418395996</t>
   </si>
   <si>
     <t xml:space="preserve">2.51385927200317</t>
   </si>
   <si>
-    <t xml:space="preserve">2.48913288116455</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.50561690330505</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.46852707862854</t>
+    <t xml:space="preserve">2.48913264274597</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.50561714172363</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.46852731704712</t>
   </si>
   <si>
     <t xml:space="preserve">2.5097382068634</t>
@@ -2159,10 +2159,10 @@
     <t xml:space="preserve">2.45204305648804</t>
   </si>
   <si>
-    <t xml:space="preserve">2.44792175292969</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.47676968574524</t>
+    <t xml:space="preserve">2.44792199134827</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.47676944732666</t>
   </si>
   <si>
     <t xml:space="preserve">2.69518685340881</t>
@@ -2177,7 +2177,7 @@
     <t xml:space="preserve">2.88887786865234</t>
   </si>
   <si>
-    <t xml:space="preserve">2.89711999893188</t>
+    <t xml:space="preserve">2.89711976051331</t>
   </si>
   <si>
     <t xml:space="preserve">2.84766674041748</t>
@@ -2189,13 +2189,13 @@
     <t xml:space="preserve">2.81881928443909</t>
   </si>
   <si>
-    <t xml:space="preserve">2.83530354499817</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.83118271827698</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.03311562538147</t>
+    <t xml:space="preserve">2.83530378341675</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.83118224143982</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.03311538696289</t>
   </si>
   <si>
     <t xml:space="preserve">3.01663112640381</t>
@@ -2213,22 +2213,22 @@
     <t xml:space="preserve">3.05372071266174</t>
   </si>
   <si>
-    <t xml:space="preserve">3.06608390808105</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.16498970985413</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.10317397117615</t>
+    <t xml:space="preserve">3.06608414649963</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.16498994827271</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.10317373275757</t>
   </si>
   <si>
     <t xml:space="preserve">3.10729479789734</t>
   </si>
   <si>
-    <t xml:space="preserve">2.9754204750061</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.96717834472656</t>
+    <t xml:space="preserve">2.97542023658752</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.96717810630798</t>
   </si>
   <si>
     <t xml:space="preserve">2.98366236686707</t>
@@ -2240,25 +2240,25 @@
     <t xml:space="preserve">2.98778367042542</t>
   </si>
   <si>
-    <t xml:space="preserve">3.020751953125</t>
+    <t xml:space="preserve">3.02075219154358</t>
   </si>
   <si>
     <t xml:space="preserve">3.07844734191895</t>
   </si>
   <si>
-    <t xml:space="preserve">3.04547882080078</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.04959988594055</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.03723621368408</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.0990526676178</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.09493184089661</t>
+    <t xml:space="preserve">3.0454785823822</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.04959964752197</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.03723669052124</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.09905242919922</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.09493160247803</t>
   </si>
   <si>
     <t xml:space="preserve">3.01251006126404</t>
@@ -2273,7 +2273,7 @@
     <t xml:space="preserve">3.0702052116394</t>
   </si>
   <si>
-    <t xml:space="preserve">3.14850568771362</t>
+    <t xml:space="preserve">3.14850544929504</t>
   </si>
   <si>
     <t xml:space="preserve">3.16086912155151</t>
@@ -2282,16 +2282,16 @@
     <t xml:space="preserve">3.16911101341248</t>
   </si>
   <si>
-    <t xml:space="preserve">3.18559551239014</t>
+    <t xml:space="preserve">3.18559527397156</t>
   </si>
   <si>
     <t xml:space="preserve">3.15262675285339</t>
   </si>
   <si>
-    <t xml:space="preserve">3.11553692817688</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.13202142715454</t>
+    <t xml:space="preserve">3.11553716659546</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.13202118873596</t>
   </si>
   <si>
     <t xml:space="preserve">3.12790036201477</t>
@@ -2300,16 +2300,16 @@
     <t xml:space="preserve">3.22268533706665</t>
   </si>
   <si>
-    <t xml:space="preserve">3.19795894622803</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.17323184013367</t>
+    <t xml:space="preserve">3.19795870780945</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.17323207855225</t>
   </si>
   <si>
     <t xml:space="preserve">3.20620107650757</t>
   </si>
   <si>
-    <t xml:space="preserve">3.24329042434692</t>
+    <t xml:space="preserve">3.2432906627655</t>
   </si>
   <si>
     <t xml:space="preserve">3.18971657752991</t>
@@ -2330,22 +2330,22 @@
     <t xml:space="preserve">3.35868072509766</t>
   </si>
   <si>
-    <t xml:space="preserve">3.34631729125977</t>
+    <t xml:space="preserve">3.34631752967834</t>
   </si>
   <si>
     <t xml:space="preserve">3.30510687828064</t>
   </si>
   <si>
-    <t xml:space="preserve">3.34219646453857</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.36364841461182</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.25209856033325</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.20919489860535</t>
+    <t xml:space="preserve">3.34219622612</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.36364817619324</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.25209879875183</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.20919513702393</t>
   </si>
   <si>
     <t xml:space="preserve">3.22635650634766</t>
@@ -2354,43 +2354,43 @@
     <t xml:space="preserve">3.27784085273743</t>
   </si>
   <si>
-    <t xml:space="preserve">3.23493719100952</t>
+    <t xml:space="preserve">3.2349374294281</t>
   </si>
   <si>
     <t xml:space="preserve">3.21348547935486</t>
   </si>
   <si>
-    <t xml:space="preserve">3.19632387161255</t>
+    <t xml:space="preserve">3.19632411003113</t>
   </si>
   <si>
     <t xml:space="preserve">3.21777582168579</t>
   </si>
   <si>
-    <t xml:space="preserve">3.15771079063416</t>
+    <t xml:space="preserve">3.15771055221558</t>
   </si>
   <si>
     <t xml:space="preserve">3.17487215995789</t>
   </si>
   <si>
-    <t xml:space="preserve">3.17916226387024</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.16200089454651</t>
+    <t xml:space="preserve">3.17916250228882</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.16200113296509</t>
   </si>
   <si>
     <t xml:space="preserve">3.14913010597229</t>
   </si>
   <si>
-    <t xml:space="preserve">3.18345284461975</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.17058157920837</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.20061421394348</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.1920337677002</t>
+    <t xml:space="preserve">3.18345308303833</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.17058181762695</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.20061445236206</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.19203352928162</t>
   </si>
   <si>
     <t xml:space="preserve">3.23064684867859</t>
@@ -2402,34 +2402,34 @@
     <t xml:space="preserve">3.12767815589905</t>
   </si>
   <si>
-    <t xml:space="preserve">3.13625860214233</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.10622620582581</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.0761935710907</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.08906483650208</t>
+    <t xml:space="preserve">3.13625884056091</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.10622596740723</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.07619380950928</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.0890645980835</t>
   </si>
   <si>
     <t xml:space="preserve">3.04187083244324</t>
   </si>
   <si>
-    <t xml:space="preserve">3.03758001327515</t>
+    <t xml:space="preserve">3.03758025169373</t>
   </si>
   <si>
     <t xml:space="preserve">3.0504515171051</t>
   </si>
   <si>
-    <t xml:space="preserve">3.04616117477417</t>
+    <t xml:space="preserve">3.04616093635559</t>
   </si>
   <si>
     <t xml:space="preserve">3.02899956703186</t>
   </si>
   <si>
-    <t xml:space="preserve">2.98180556297302</t>
+    <t xml:space="preserve">2.98180532455444</t>
   </si>
   <si>
     <t xml:space="preserve">3.0075478553772</t>
@@ -2453,16 +2453,16 @@
     <t xml:space="preserve">2.92174029350281</t>
   </si>
   <si>
-    <t xml:space="preserve">2.93890166282654</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.00325727462769</t>
+    <t xml:space="preserve">2.93890190124512</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.00325751304626</t>
   </si>
   <si>
     <t xml:space="preserve">3.03328990936279</t>
   </si>
   <si>
-    <t xml:space="preserve">3.02041888237</t>
+    <t xml:space="preserve">3.02041864395142</t>
   </si>
   <si>
     <t xml:space="preserve">3.01612854003906</t>
@@ -2480,7 +2480,7 @@
     <t xml:space="preserve">3.13196849822998</t>
   </si>
   <si>
-    <t xml:space="preserve">3.16629123687744</t>
+    <t xml:space="preserve">3.16629147529602</t>
   </si>
   <si>
     <t xml:space="preserve">3.11480712890625</t>
@@ -2492,7 +2492,7 @@
     <t xml:space="preserve">3.0633225440979</t>
   </si>
   <si>
-    <t xml:space="preserve">3.11051654815674</t>
+    <t xml:space="preserve">3.11051678657532</t>
   </si>
   <si>
     <t xml:space="preserve">3.08477449417114</t>
@@ -2507,10 +2507,10 @@
     <t xml:space="preserve">2.96464395523071</t>
   </si>
   <si>
-    <t xml:space="preserve">2.94748258590698</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.95177292823792</t>
+    <t xml:space="preserve">2.9474823474884</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.95177316665649</t>
   </si>
   <si>
     <t xml:space="preserve">2.95606327056885</t>
@@ -2519,16 +2519,16 @@
     <t xml:space="preserve">2.99467658996582</t>
   </si>
   <si>
-    <t xml:space="preserve">2.98609590530396</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.10193562507629</t>
+    <t xml:space="preserve">2.98609614372253</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.10193586349487</t>
   </si>
   <si>
     <t xml:space="preserve">3.05474162101746</t>
   </si>
   <si>
-    <t xml:space="preserve">2.96893429756165</t>
+    <t xml:space="preserve">2.96893453598022</t>
   </si>
   <si>
     <t xml:space="preserve">2.91745018959045</t>
@@ -2537,7 +2537,7 @@
     <t xml:space="preserve">2.93032097816467</t>
   </si>
   <si>
-    <t xml:space="preserve">2.9045786857605</t>
+    <t xml:space="preserve">2.90457892417908</t>
   </si>
   <si>
     <t xml:space="preserve">2.97751522064209</t>
@@ -2549,7 +2549,7 @@
     <t xml:space="preserve">2.94319224357605</t>
   </si>
   <si>
-    <t xml:space="preserve">2.97322463989258</t>
+    <t xml:space="preserve">2.97322487831116</t>
   </si>
   <si>
     <t xml:space="preserve">2.93461155891418</t>
@@ -2558,10 +2558,10 @@
     <t xml:space="preserve">2.79731965065002</t>
   </si>
   <si>
-    <t xml:space="preserve">2.91315984725952</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.89170789718628</t>
+    <t xml:space="preserve">2.91315960884094</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.8917076587677</t>
   </si>
   <si>
     <t xml:space="preserve">2.82306170463562</t>
@@ -2570,10 +2570,10 @@
     <t xml:space="preserve">2.77157735824585</t>
   </si>
   <si>
-    <t xml:space="preserve">2.80160999298096</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.90028858184814</t>
+    <t xml:space="preserve">2.80161023139954</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.90028882026672</t>
   </si>
   <si>
     <t xml:space="preserve">2.87454628944397</t>
@@ -2582,10 +2582,10 @@
     <t xml:space="preserve">2.83164262771606</t>
   </si>
   <si>
-    <t xml:space="preserve">2.89599823951721</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.85738492012024</t>
+    <t xml:space="preserve">2.89599800109863</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.85738468170166</t>
   </si>
   <si>
     <t xml:space="preserve">2.87025594711304</t>
@@ -2600,7 +2600,7 @@
     <t xml:space="preserve">3.1108820438385</t>
   </si>
   <si>
-    <t xml:space="preserve">3.07936811447144</t>
+    <t xml:space="preserve">3.07936835289001</t>
   </si>
   <si>
     <t xml:space="preserve">3.02984619140625</t>
@@ -2609,22 +2609,22 @@
     <t xml:space="preserve">2.98932814598083</t>
   </si>
   <si>
-    <t xml:space="preserve">2.96681833267212</t>
+    <t xml:space="preserve">2.96681809425354</t>
   </si>
   <si>
     <t xml:space="preserve">3.03434801101685</t>
   </si>
   <si>
-    <t xml:space="preserve">2.98482632637024</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.96231627464294</t>
+    <t xml:space="preserve">2.98482608795166</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.96231603622437</t>
   </si>
   <si>
     <t xml:space="preserve">2.93980622291565</t>
   </si>
   <si>
-    <t xml:space="preserve">2.93080234527588</t>
+    <t xml:space="preserve">2.9308021068573</t>
   </si>
   <si>
     <t xml:space="preserve">2.95781421661377</t>
@@ -2639,7 +2639,7 @@
     <t xml:space="preserve">3.01634001731873</t>
   </si>
   <si>
-    <t xml:space="preserve">2.99833226203918</t>
+    <t xml:space="preserve">2.99833202362061</t>
   </si>
   <si>
     <t xml:space="preserve">3.04335236549377</t>
@@ -2654,13 +2654,13 @@
     <t xml:space="preserve">2.82725620269775</t>
   </si>
   <si>
-    <t xml:space="preserve">2.78673815727234</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.88128042221069</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.82275414466858</t>
+    <t xml:space="preserve">2.78673839569092</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.88128018379211</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.82275438308716</t>
   </si>
   <si>
     <t xml:space="preserve">2.77323222160339</t>
@@ -2672,22 +2672,22 @@
     <t xml:space="preserve">2.66968607902527</t>
   </si>
   <si>
-    <t xml:space="preserve">2.65618014335632</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.70120000839233</t>
+    <t xml:space="preserve">2.6561803817749</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.70120024681091</t>
   </si>
   <si>
     <t xml:space="preserve">2.71920824050903</t>
   </si>
   <si>
-    <t xml:space="preserve">2.59765434265137</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.62916803359985</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.63367033004761</t>
+    <t xml:space="preserve">2.59765410423279</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.62916827201843</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.63367009162903</t>
   </si>
   <si>
     <t xml:space="preserve">2.53912806510925</t>
@@ -2696,7 +2696,7 @@
     <t xml:space="preserve">2.56614017486572</t>
   </si>
   <si>
-    <t xml:space="preserve">2.54813194274902</t>
+    <t xml:space="preserve">2.5481321811676</t>
   </si>
   <si>
     <t xml:space="preserve">2.60665822029114</t>
@@ -2717,7 +2717,7 @@
     <t xml:space="preserve">2.42207622528076</t>
   </si>
   <si>
-    <t xml:space="preserve">2.41757392883301</t>
+    <t xml:space="preserve">2.41757416725159</t>
   </si>
   <si>
     <t xml:space="preserve">2.38606023788452</t>
@@ -2765,10 +2765,10 @@
     <t xml:space="preserve">2.44908809661865</t>
   </si>
   <si>
-    <t xml:space="preserve">2.3905622959137</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.32303214073181</t>
+    <t xml:space="preserve">2.39056205749512</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.32303190231323</t>
   </si>
   <si>
     <t xml:space="preserve">2.20598006248474</t>
@@ -2777,16 +2777,16 @@
     <t xml:space="preserve">2.23299217224121</t>
   </si>
   <si>
-    <t xml:space="preserve">2.16096019744873</t>
+    <t xml:space="preserve">2.16096043586731</t>
   </si>
   <si>
     <t xml:space="preserve">2.21948599815369</t>
   </si>
   <si>
-    <t xml:space="preserve">2.20147800445557</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.22398829460144</t>
+    <t xml:space="preserve">2.20147824287415</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.22398805618286</t>
   </si>
   <si>
     <t xml:space="preserve">2.24199604988098</t>
@@ -2798,7 +2798,7 @@
     <t xml:space="preserve">2.27351021766663</t>
   </si>
   <si>
-    <t xml:space="preserve">2.24649810791016</t>
+    <t xml:space="preserve">2.24649786949158</t>
   </si>
   <si>
     <t xml:space="preserve">2.21498417854309</t>
@@ -2810,16 +2810,16 @@
     <t xml:space="preserve">2.12044215202332</t>
   </si>
   <si>
-    <t xml:space="preserve">1.97187626361847</t>
+    <t xml:space="preserve">1.97187614440918</t>
   </si>
   <si>
     <t xml:space="preserve">2.03490424156189</t>
   </si>
   <si>
-    <t xml:space="preserve">1.98088014125824</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.944864153862</t>
+    <t xml:space="preserve">1.98088026046753</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.94486427307129</t>
   </si>
   <si>
     <t xml:space="preserve">1.89984405040741</t>
@@ -2837,28 +2837,28 @@
     <t xml:space="preserve">1.78279209136963</t>
   </si>
   <si>
-    <t xml:space="preserve">1.75758099555969</t>
+    <t xml:space="preserve">1.7575808763504</t>
   </si>
   <si>
     <t xml:space="preserve">1.72156488895416</t>
   </si>
   <si>
-    <t xml:space="preserve">1.7017560005188</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.73777198791504</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.8098042011261</t>
+    <t xml:space="preserve">1.70175611972809</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.73777210712433</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.80980408191681</t>
   </si>
   <si>
     <t xml:space="preserve">1.8773341178894</t>
   </si>
   <si>
-    <t xml:space="preserve">2.01689600944519</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.93135821819305</t>
+    <t xml:space="preserve">2.01689624786377</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.93135809898376</t>
   </si>
   <si>
     <t xml:space="preserve">2.06191611289978</t>
@@ -2879,25 +2879,25 @@
     <t xml:space="preserve">2.14745426177979</t>
   </si>
   <si>
-    <t xml:space="preserve">2.05291199684143</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.17896819114685</t>
+    <t xml:space="preserve">2.05291223526001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.17896842956543</t>
   </si>
   <si>
     <t xml:space="preserve">2.1879723072052</t>
   </si>
   <si>
-    <t xml:space="preserve">2.14295220375061</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.1699640750885</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.28251433372498</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.28701615333557</t>
+    <t xml:space="preserve">2.14295244216919</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.16996431350708</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.2825140953064</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.28701591491699</t>
   </si>
   <si>
     <t xml:space="preserve">2.26450610160828</t>
@@ -2912,25 +2912,25 @@
     <t xml:space="preserve">2.29151821136475</t>
   </si>
   <si>
-    <t xml:space="preserve">2.31853032112122</t>
+    <t xml:space="preserve">2.31853008270264</t>
   </si>
   <si>
     <t xml:space="preserve">2.30052208900452</t>
   </si>
   <si>
-    <t xml:space="preserve">2.30502414703369</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.2780122756958</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.25100016593933</t>
+    <t xml:space="preserve">2.30502390861511</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.27801203727722</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.25099992752075</t>
   </si>
   <si>
     <t xml:space="preserve">2.17446613311768</t>
   </si>
   <si>
-    <t xml:space="preserve">2.16546201705933</t>
+    <t xml:space="preserve">2.16546225547791</t>
   </si>
   <si>
     <t xml:space="preserve">2.19697618484497</t>
@@ -2948,10 +2948,10 @@
     <t xml:space="preserve">2.33653807640076</t>
   </si>
   <si>
-    <t xml:space="preserve">2.39506435394287</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.43108034133911</t>
+    <t xml:space="preserve">2.39506411552429</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.43108010292053</t>
   </si>
   <si>
     <t xml:space="preserve">2.40857005119324</t>
@@ -2996,28 +2996,28 @@
     <t xml:space="preserve">2.54363012313843</t>
   </si>
   <si>
-    <t xml:space="preserve">2.35904812812805</t>
+    <t xml:space="preserve">2.35904788970947</t>
   </si>
   <si>
     <t xml:space="preserve">2.32753419876099</t>
   </si>
   <si>
-    <t xml:space="preserve">2.38155794143677</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.35004425048828</t>
+    <t xml:space="preserve">2.38155817985535</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.3500440120697</t>
   </si>
   <si>
     <t xml:space="preserve">2.50761413574219</t>
   </si>
   <si>
-    <t xml:space="preserve">2.52562236785889</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.58864998817444</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.62016415596008</t>
+    <t xml:space="preserve">2.52562212944031</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.58865022659302</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.62016439437866</t>
   </si>
   <si>
     <t xml:space="preserve">2.54005122184753</t>
@@ -13378,7 +13378,7 @@
         <v>3.60199999809265</v>
       </c>
       <c r="G371" t="s">
-        <v>270</v>
+        <v>244</v>
       </c>
       <c r="H371" t="s">
         <v>9</v>
@@ -13456,7 +13456,7 @@
         <v>3.71799993515015</v>
       </c>
       <c r="G374" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="H374" t="s">
         <v>9</v>
@@ -13534,7 +13534,7 @@
         <v>3.59599995613098</v>
       </c>
       <c r="G377" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="H377" t="s">
         <v>9</v>
@@ -13560,7 +13560,7 @@
         <v>3.57399988174438</v>
       </c>
       <c r="G378" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="H378" t="s">
         <v>9</v>
@@ -13586,7 +13586,7 @@
         <v>3.54800009727478</v>
       </c>
       <c r="G379" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="H379" t="s">
         <v>9</v>
@@ -13612,7 +13612,7 @@
         <v>3.54999995231628</v>
       </c>
       <c r="G380" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="H380" t="s">
         <v>9</v>
@@ -13794,7 +13794,7 @@
         <v>3.48399996757507</v>
       </c>
       <c r="G387" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="H387" t="s">
         <v>9</v>
@@ -13820,7 +13820,7 @@
         <v>3.47000002861023</v>
       </c>
       <c r="G388" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="H388" t="s">
         <v>9</v>
@@ -13846,7 +13846,7 @@
         <v>3.47000002861023</v>
       </c>
       <c r="G389" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="H389" t="s">
         <v>9</v>
@@ -13872,7 +13872,7 @@
         <v>3.50799989700317</v>
       </c>
       <c r="G390" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="H390" t="s">
         <v>9</v>
@@ -13898,7 +13898,7 @@
         <v>3.49399995803833</v>
       </c>
       <c r="G391" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="H391" t="s">
         <v>9</v>
@@ -13924,7 +13924,7 @@
         <v>3.49000000953674</v>
       </c>
       <c r="G392" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="H392" t="s">
         <v>9</v>
@@ -13950,7 +13950,7 @@
         <v>3.49600005149841</v>
       </c>
       <c r="G393" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="H393" t="s">
         <v>9</v>
@@ -13976,7 +13976,7 @@
         <v>3.49399995803833</v>
       </c>
       <c r="G394" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="H394" t="s">
         <v>9</v>
@@ -14028,7 +14028,7 @@
         <v>3.50399994850159</v>
       </c>
       <c r="G396" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="H396" t="s">
         <v>9</v>
@@ -14080,7 +14080,7 @@
         <v>3.46799993515015</v>
       </c>
       <c r="G398" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="H398" t="s">
         <v>9</v>
@@ -14106,7 +14106,7 @@
         <v>3.41000008583069</v>
       </c>
       <c r="G399" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="H399" t="s">
         <v>9</v>
@@ -14132,7 +14132,7 @@
         <v>3.39599990844727</v>
       </c>
       <c r="G400" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="H400" t="s">
         <v>9</v>
@@ -14158,7 +14158,7 @@
         <v>3.47000002861023</v>
       </c>
       <c r="G401" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="H401" t="s">
         <v>9</v>
@@ -14184,7 +14184,7 @@
         <v>3.4300000667572</v>
       </c>
       <c r="G402" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="H402" t="s">
         <v>9</v>
@@ -14236,7 +14236,7 @@
         <v>3.45000004768372</v>
       </c>
       <c r="G404" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="H404" t="s">
         <v>9</v>
@@ -14262,7 +14262,7 @@
         <v>3.46399998664856</v>
       </c>
       <c r="G405" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="H405" t="s">
         <v>9</v>
@@ -14288,7 +14288,7 @@
         <v>3.4300000667572</v>
       </c>
       <c r="G406" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="H406" t="s">
         <v>9</v>
@@ -14314,7 +14314,7 @@
         <v>3.58999991416931</v>
       </c>
       <c r="G407" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="H407" t="s">
         <v>9</v>
@@ -14340,7 +14340,7 @@
         <v>3.54999995231628</v>
       </c>
       <c r="G408" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="H408" t="s">
         <v>9</v>
@@ -14366,7 +14366,7 @@
         <v>3.58200001716614</v>
       </c>
       <c r="G409" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="H409" t="s">
         <v>9</v>
@@ -14392,7 +14392,7 @@
         <v>3.59800004959106</v>
       </c>
       <c r="G410" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="H410" t="s">
         <v>9</v>
@@ -14418,7 +14418,7 @@
         <v>3.57599997520447</v>
       </c>
       <c r="G411" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="H411" t="s">
         <v>9</v>
@@ -14470,7 +14470,7 @@
         <v>3.58200001716614</v>
       </c>
       <c r="G413" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="H413" t="s">
         <v>9</v>
@@ -14496,7 +14496,7 @@
         <v>3.5460000038147</v>
       </c>
       <c r="G414" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="H414" t="s">
         <v>9</v>
@@ -14548,7 +14548,7 @@
         <v>3.51999998092651</v>
       </c>
       <c r="G416" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="H416" t="s">
         <v>9</v>
@@ -14574,7 +14574,7 @@
         <v>3.5220000743866</v>
       </c>
       <c r="G417" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="H417" t="s">
         <v>9</v>
@@ -14600,7 +14600,7 @@
         <v>3.5</v>
       </c>
       <c r="G418" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="H418" t="s">
         <v>9</v>
@@ -14626,7 +14626,7 @@
         <v>3.53800010681152</v>
       </c>
       <c r="G419" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="H419" t="s">
         <v>9</v>
@@ -14652,7 +14652,7 @@
         <v>3.4760000705719</v>
       </c>
       <c r="G420" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="H420" t="s">
         <v>9</v>
@@ -14678,7 +14678,7 @@
         <v>3.49000000953674</v>
       </c>
       <c r="G421" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="H421" t="s">
         <v>9</v>
@@ -14704,7 +14704,7 @@
         <v>3.49000000953674</v>
       </c>
       <c r="G422" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="H422" t="s">
         <v>9</v>
@@ -14730,7 +14730,7 @@
         <v>3.49000000953674</v>
       </c>
       <c r="G423" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="H423" t="s">
         <v>9</v>
@@ -14756,7 +14756,7 @@
         <v>3.47000002861023</v>
       </c>
       <c r="G424" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="H424" t="s">
         <v>9</v>
@@ -14782,7 +14782,7 @@
         <v>3.51999998092651</v>
       </c>
       <c r="G425" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="H425" t="s">
         <v>9</v>
@@ -14808,7 +14808,7 @@
         <v>3.49000000953674</v>
       </c>
       <c r="G426" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="H426" t="s">
         <v>9</v>
@@ -14834,7 +14834,7 @@
         <v>3.54399991035461</v>
       </c>
       <c r="G427" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="H427" t="s">
         <v>9</v>
@@ -14860,7 +14860,7 @@
         <v>3.60199999809265</v>
       </c>
       <c r="G428" t="s">
-        <v>270</v>
+        <v>244</v>
       </c>
       <c r="H428" t="s">
         <v>9</v>
@@ -14912,7 +14912,7 @@
         <v>3.66400003433228</v>
       </c>
       <c r="G430" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="H430" t="s">
         <v>9</v>
@@ -14938,7 +14938,7 @@
         <v>3.60999989509583</v>
       </c>
       <c r="G431" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="H431" t="s">
         <v>9</v>
@@ -15042,7 +15042,7 @@
         <v>3.64400005340576</v>
       </c>
       <c r="G435" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="H435" t="s">
         <v>9</v>
@@ -15068,7 +15068,7 @@
         <v>3.60999989509583</v>
       </c>
       <c r="G436" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="H436" t="s">
         <v>9</v>
@@ -15094,7 +15094,7 @@
         <v>3.59800004959106</v>
       </c>
       <c r="G437" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="H437" t="s">
         <v>9</v>
@@ -15146,7 +15146,7 @@
         <v>3.54999995231628</v>
       </c>
       <c r="G439" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="H439" t="s">
         <v>9</v>
@@ -15172,7 +15172,7 @@
         <v>3.53200006484985</v>
       </c>
       <c r="G440" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="H440" t="s">
         <v>9</v>
@@ -15224,7 +15224,7 @@
         <v>3.53399991989136</v>
       </c>
       <c r="G442" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="H442" t="s">
         <v>9</v>
@@ -15276,7 +15276,7 @@
         <v>3.5</v>
       </c>
       <c r="G444" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="H444" t="s">
         <v>9</v>
@@ -15328,7 +15328,7 @@
         <v>3.49000000953674</v>
       </c>
       <c r="G446" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="H446" t="s">
         <v>9</v>
@@ -15354,7 +15354,7 @@
         <v>3.51399993896484</v>
       </c>
       <c r="G447" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="H447" t="s">
         <v>9</v>
@@ -15380,7 +15380,7 @@
         <v>3.50600004196167</v>
       </c>
       <c r="G448" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="H448" t="s">
         <v>9</v>
@@ -15406,7 +15406,7 @@
         <v>3.51999998092651</v>
       </c>
       <c r="G449" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="H449" t="s">
         <v>9</v>
@@ -15432,7 +15432,7 @@
         <v>3.5</v>
       </c>
       <c r="G450" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="H450" t="s">
         <v>9</v>
@@ -15588,7 +15588,7 @@
         <v>3.57399988174438</v>
       </c>
       <c r="G456" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="H456" t="s">
         <v>9</v>
@@ -15614,7 +15614,7 @@
         <v>3.51999998092651</v>
       </c>
       <c r="G457" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="H457" t="s">
         <v>9</v>
@@ -15666,7 +15666,7 @@
         <v>3.60400009155273</v>
       </c>
       <c r="G459" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="H459" t="s">
         <v>9</v>
@@ -15744,7 +15744,7 @@
         <v>3.5699999332428</v>
       </c>
       <c r="G462" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="H462" t="s">
         <v>9</v>
@@ -15796,7 +15796,7 @@
         <v>3.60800004005432</v>
       </c>
       <c r="G464" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="H464" t="s">
         <v>9</v>
@@ -15822,7 +15822,7 @@
         <v>3.56399989128113</v>
       </c>
       <c r="G465" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="H465" t="s">
         <v>9</v>
@@ -15848,7 +15848,7 @@
         <v>3.57599997520447</v>
       </c>
       <c r="G466" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="H466" t="s">
         <v>9</v>
@@ -15926,7 +15926,7 @@
         <v>3.63800001144409</v>
       </c>
       <c r="G469" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="H469" t="s">
         <v>9</v>
@@ -15978,7 +15978,7 @@
         <v>3.66599988937378</v>
       </c>
       <c r="G471" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="H471" t="s">
         <v>9</v>
@@ -16004,7 +16004,7 @@
         <v>3.72000002861023</v>
       </c>
       <c r="G472" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="H472" t="s">
         <v>9</v>
@@ -16030,7 +16030,7 @@
         <v>3.73600006103516</v>
       </c>
       <c r="G473" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="H473" t="s">
         <v>9</v>
@@ -16056,7 +16056,7 @@
         <v>3.81399989128113</v>
       </c>
       <c r="G474" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="H474" t="s">
         <v>9</v>
@@ -16082,7 +16082,7 @@
         <v>3.78200006484985</v>
       </c>
       <c r="G475" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="H475" t="s">
         <v>9</v>
@@ -16108,7 +16108,7 @@
         <v>3.77999997138977</v>
       </c>
       <c r="G476" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="H476" t="s">
         <v>9</v>
@@ -16134,7 +16134,7 @@
         <v>3.82800006866455</v>
       </c>
       <c r="G477" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="H477" t="s">
         <v>9</v>
@@ -16160,7 +16160,7 @@
         <v>3.69000005722046</v>
       </c>
       <c r="G478" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="H478" t="s">
         <v>9</v>
@@ -16186,7 +16186,7 @@
         <v>3.69799995422363</v>
       </c>
       <c r="G479" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="H479" t="s">
         <v>9</v>
@@ -16238,7 +16238,7 @@
         <v>3.5699999332428</v>
       </c>
       <c r="G481" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="H481" t="s">
         <v>9</v>
@@ -16264,7 +16264,7 @@
         <v>3.60400009155273</v>
       </c>
       <c r="G482" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="H482" t="s">
         <v>9</v>
@@ -16290,7 +16290,7 @@
         <v>3.57599997520447</v>
       </c>
       <c r="G483" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="H483" t="s">
         <v>9</v>
@@ -16316,7 +16316,7 @@
         <v>3.59599995613098</v>
       </c>
       <c r="G484" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="H484" t="s">
         <v>9</v>
@@ -16342,7 +16342,7 @@
         <v>3.61999988555908</v>
       </c>
       <c r="G485" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="H485" t="s">
         <v>9</v>
@@ -16394,7 +16394,7 @@
         <v>3.65599989891052</v>
       </c>
       <c r="G487" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="H487" t="s">
         <v>9</v>
@@ -16446,7 +16446,7 @@
         <v>3.60400009155273</v>
       </c>
       <c r="G489" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="H489" t="s">
         <v>9</v>
@@ -16524,7 +16524,7 @@
         <v>3.72199988365173</v>
       </c>
       <c r="G492" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="H492" t="s">
         <v>9</v>
@@ -16550,7 +16550,7 @@
         <v>3.64400005340576</v>
       </c>
       <c r="G493" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="H493" t="s">
         <v>9</v>
@@ -16576,7 +16576,7 @@
         <v>3.70000004768372</v>
       </c>
       <c r="G494" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="H494" t="s">
         <v>9</v>
@@ -16602,7 +16602,7 @@
         <v>3.67400002479553</v>
       </c>
       <c r="G495" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="H495" t="s">
         <v>9</v>
@@ -16628,7 +16628,7 @@
         <v>3.65199995040894</v>
       </c>
       <c r="G496" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="H496" t="s">
         <v>9</v>
@@ -16654,7 +16654,7 @@
         <v>3.68600010871887</v>
       </c>
       <c r="G497" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="H497" t="s">
         <v>9</v>
@@ -16732,7 +16732,7 @@
         <v>3.57999992370605</v>
       </c>
       <c r="G500" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="H500" t="s">
         <v>9</v>
@@ -16758,7 +16758,7 @@
         <v>3.63800001144409</v>
       </c>
       <c r="G501" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="H501" t="s">
         <v>9</v>
@@ -16862,7 +16862,7 @@
         <v>3.58200001716614</v>
       </c>
       <c r="G505" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="H505" t="s">
         <v>9</v>
@@ -16914,7 +16914,7 @@
         <v>3.61999988555908</v>
       </c>
       <c r="G507" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="H507" t="s">
         <v>9</v>
@@ -16940,7 +16940,7 @@
         <v>3.58999991416931</v>
       </c>
       <c r="G508" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="H508" t="s">
         <v>9</v>
@@ -16966,7 +16966,7 @@
         <v>3.58200001716614</v>
       </c>
       <c r="G509" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="H509" t="s">
         <v>9</v>
@@ -16992,7 +16992,7 @@
         <v>3.60199999809265</v>
       </c>
       <c r="G510" t="s">
-        <v>270</v>
+        <v>244</v>
       </c>
       <c r="H510" t="s">
         <v>9</v>
@@ -17018,7 +17018,7 @@
         <v>3.5460000038147</v>
       </c>
       <c r="G511" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="H511" t="s">
         <v>9</v>
@@ -17044,7 +17044,7 @@
         <v>3.54800009727478</v>
       </c>
       <c r="G512" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="H512" t="s">
         <v>9</v>
@@ -17070,7 +17070,7 @@
         <v>3.58999991416931</v>
       </c>
       <c r="G513" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="H513" t="s">
         <v>9</v>
@@ -17122,7 +17122,7 @@
         <v>3.69000005722046</v>
       </c>
       <c r="G515" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="H515" t="s">
         <v>9</v>
@@ -17148,7 +17148,7 @@
         <v>3.65499997138977</v>
       </c>
       <c r="G516" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="H516" t="s">
         <v>9</v>
@@ -17174,7 +17174,7 @@
         <v>3.69000005722046</v>
       </c>
       <c r="G517" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="H517" t="s">
         <v>9</v>
@@ -17278,7 +17278,7 @@
         <v>3.6800000667572</v>
       </c>
       <c r="G521" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="H521" t="s">
         <v>9</v>
@@ -17330,7 +17330,7 @@
         <v>3.67000007629395</v>
       </c>
       <c r="G523" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="H523" t="s">
         <v>9</v>
@@ -17356,7 +17356,7 @@
         <v>3.67499995231628</v>
       </c>
       <c r="G524" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="H524" t="s">
         <v>9</v>
@@ -17408,7 +17408,7 @@
         <v>3.65499997138977</v>
       </c>
       <c r="G526" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="H526" t="s">
         <v>9</v>
@@ -17434,7 +17434,7 @@
         <v>3.67499995231628</v>
       </c>
       <c r="G527" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="H527" t="s">
         <v>9</v>
@@ -17486,7 +17486,7 @@
         <v>3.61999988555908</v>
       </c>
       <c r="G529" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="H529" t="s">
         <v>9</v>
@@ -17512,7 +17512,7 @@
         <v>3.61999988555908</v>
       </c>
       <c r="G530" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="H530" t="s">
         <v>9</v>
@@ -17538,7 +17538,7 @@
         <v>3.58999991416931</v>
       </c>
       <c r="G531" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="H531" t="s">
         <v>9</v>
@@ -17564,7 +17564,7 @@
         <v>3.58500003814697</v>
       </c>
       <c r="G532" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="H532" t="s">
         <v>9</v>
@@ -17590,7 +17590,7 @@
         <v>3.54999995231628</v>
       </c>
       <c r="G533" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="H533" t="s">
         <v>9</v>
@@ -17616,7 +17616,7 @@
         <v>3.54999995231628</v>
       </c>
       <c r="G534" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="H534" t="s">
         <v>9</v>
@@ -17642,7 +17642,7 @@
         <v>3.45000004768372</v>
       </c>
       <c r="G535" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="H535" t="s">
         <v>9</v>
@@ -17668,7 +17668,7 @@
         <v>3.29999995231628</v>
       </c>
       <c r="G536" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="H536" t="s">
         <v>9</v>
@@ -17694,7 +17694,7 @@
         <v>3.16000008583069</v>
       </c>
       <c r="G537" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="H537" t="s">
         <v>9</v>
@@ -17720,7 +17720,7 @@
         <v>3.25</v>
       </c>
       <c r="G538" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="H538" t="s">
         <v>9</v>
@@ -17746,7 +17746,7 @@
         <v>3.20499992370605</v>
       </c>
       <c r="G539" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="H539" t="s">
         <v>9</v>
@@ -17772,7 +17772,7 @@
         <v>3.15000009536743</v>
       </c>
       <c r="G540" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="H540" t="s">
         <v>9</v>
@@ -17798,7 +17798,7 @@
         <v>3.25</v>
       </c>
       <c r="G541" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="H541" t="s">
         <v>9</v>
@@ -17824,7 +17824,7 @@
         <v>3.23000001907349</v>
       </c>
       <c r="G542" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="H542" t="s">
         <v>9</v>
@@ -17850,7 +17850,7 @@
         <v>3.21499991416931</v>
       </c>
       <c r="G543" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="H543" t="s">
         <v>9</v>
@@ -17876,7 +17876,7 @@
         <v>3.21499991416931</v>
       </c>
       <c r="G544" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="H544" t="s">
         <v>9</v>
@@ -17902,7 +17902,7 @@
         <v>3.26999998092651</v>
       </c>
       <c r="G545" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="H545" t="s">
         <v>9</v>
@@ -17928,7 +17928,7 @@
         <v>3.23000001907349</v>
       </c>
       <c r="G546" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="H546" t="s">
         <v>9</v>
@@ -17954,7 +17954,7 @@
         <v>3.25</v>
       </c>
       <c r="G547" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="H547" t="s">
         <v>9</v>
@@ -17980,7 +17980,7 @@
         <v>3.27999997138977</v>
       </c>
       <c r="G548" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="H548" t="s">
         <v>9</v>
@@ -18006,7 +18006,7 @@
         <v>3.1949999332428</v>
       </c>
       <c r="G549" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="H549" t="s">
         <v>9</v>
@@ -18032,7 +18032,7 @@
         <v>3.17000007629395</v>
       </c>
       <c r="G550" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="H550" t="s">
         <v>9</v>
@@ -18058,7 +18058,7 @@
         <v>3.17000007629395</v>
       </c>
       <c r="G551" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="H551" t="s">
         <v>9</v>
@@ -18084,7 +18084,7 @@
         <v>3.13499999046326</v>
       </c>
       <c r="G552" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="H552" t="s">
         <v>9</v>
@@ -18110,7 +18110,7 @@
         <v>3.11999988555908</v>
       </c>
       <c r="G553" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="H553" t="s">
         <v>9</v>
@@ -18136,7 +18136,7 @@
         <v>3.11999988555908</v>
       </c>
       <c r="G554" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="H554" t="s">
         <v>9</v>
@@ -18162,7 +18162,7 @@
         <v>3.05999994277954</v>
       </c>
       <c r="G555" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="H555" t="s">
         <v>9</v>
@@ -18188,7 +18188,7 @@
         <v>3.05999994277954</v>
       </c>
       <c r="G556" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="H556" t="s">
         <v>9</v>
@@ -18214,7 +18214,7 @@
         <v>3.11500000953674</v>
       </c>
       <c r="G557" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="H557" t="s">
         <v>9</v>
@@ -18240,7 +18240,7 @@
         <v>3.13000011444092</v>
       </c>
       <c r="G558" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="H558" t="s">
         <v>9</v>
@@ -18266,7 +18266,7 @@
         <v>3.13000011444092</v>
       </c>
       <c r="G559" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="H559" t="s">
         <v>9</v>
@@ -18292,7 +18292,7 @@
         <v>3.16499996185303</v>
       </c>
       <c r="G560" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="H560" t="s">
         <v>9</v>
@@ -18318,7 +18318,7 @@
         <v>3.22499990463257</v>
       </c>
       <c r="G561" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="H561" t="s">
         <v>9</v>
@@ -18344,7 +18344,7 @@
         <v>3.15499997138977</v>
       </c>
       <c r="G562" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="H562" t="s">
         <v>9</v>
@@ -18370,7 +18370,7 @@
         <v>3.15499997138977</v>
       </c>
       <c r="G563" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="H563" t="s">
         <v>9</v>
@@ -18396,7 +18396,7 @@
         <v>3.20000004768372</v>
       </c>
       <c r="G564" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="H564" t="s">
         <v>9</v>
@@ -18422,7 +18422,7 @@
         <v>3.21000003814697</v>
       </c>
       <c r="G565" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="H565" t="s">
         <v>9</v>
@@ -18448,7 +18448,7 @@
         <v>3.28500008583069</v>
       </c>
       <c r="G566" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="H566" t="s">
         <v>9</v>
@@ -18474,7 +18474,7 @@
         <v>3.28500008583069</v>
       </c>
       <c r="G567" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="H567" t="s">
         <v>9</v>
@@ -18500,7 +18500,7 @@
         <v>3.25500011444092</v>
       </c>
       <c r="G568" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="H568" t="s">
         <v>9</v>
@@ -18526,7 +18526,7 @@
         <v>3.25</v>
       </c>
       <c r="G569" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="H569" t="s">
         <v>9</v>
@@ -18552,7 +18552,7 @@
         <v>3.20499992370605</v>
       </c>
       <c r="G570" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="H570" t="s">
         <v>9</v>
@@ -18578,7 +18578,7 @@
         <v>3.18499994277954</v>
       </c>
       <c r="G571" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="H571" t="s">
         <v>9</v>
@@ -18604,7 +18604,7 @@
         <v>3.19000005722046</v>
       </c>
       <c r="G572" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="H572" t="s">
         <v>9</v>
@@ -18630,7 +18630,7 @@
         <v>3.24499988555908</v>
       </c>
       <c r="G573" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="H573" t="s">
         <v>9</v>
@@ -18656,7 +18656,7 @@
         <v>3.25999999046326</v>
       </c>
       <c r="G574" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="H574" t="s">
         <v>9</v>
@@ -18682,7 +18682,7 @@
         <v>3.25</v>
       </c>
       <c r="G575" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="H575" t="s">
         <v>9</v>
@@ -18708,7 +18708,7 @@
         <v>3.21000003814697</v>
       </c>
       <c r="G576" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="H576" t="s">
         <v>9</v>
@@ -18734,7 +18734,7 @@
         <v>3.25999999046326</v>
       </c>
       <c r="G577" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="H577" t="s">
         <v>9</v>
@@ -18760,7 +18760,7 @@
         <v>3.28500008583069</v>
       </c>
       <c r="G578" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="H578" t="s">
         <v>9</v>
@@ -18786,7 +18786,7 @@
         <v>3.30999994277954</v>
       </c>
       <c r="G579" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="H579" t="s">
         <v>9</v>
@@ -18812,7 +18812,7 @@
         <v>3.27999997138977</v>
       </c>
       <c r="G580" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="H580" t="s">
         <v>9</v>
@@ -18838,7 +18838,7 @@
         <v>3.25999999046326</v>
       </c>
       <c r="G581" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="H581" t="s">
         <v>9</v>
@@ -18864,7 +18864,7 @@
         <v>3.26999998092651</v>
       </c>
       <c r="G582" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="H582" t="s">
         <v>9</v>
@@ -18890,7 +18890,7 @@
         <v>3.27500009536743</v>
       </c>
       <c r="G583" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="H583" t="s">
         <v>9</v>
@@ -18916,7 +18916,7 @@
         <v>3.28999996185303</v>
       </c>
       <c r="G584" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="H584" t="s">
         <v>9</v>
@@ -18942,7 +18942,7 @@
         <v>3.28999996185303</v>
       </c>
       <c r="G585" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="H585" t="s">
         <v>9</v>
@@ -18968,7 +18968,7 @@
         <v>3.28999996185303</v>
       </c>
       <c r="G586" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="H586" t="s">
         <v>9</v>
@@ -18994,7 +18994,7 @@
         <v>3.29999995231628</v>
       </c>
       <c r="G587" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="H587" t="s">
         <v>9</v>
@@ -19020,7 +19020,7 @@
         <v>3.29999995231628</v>
       </c>
       <c r="G588" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="H588" t="s">
         <v>9</v>
@@ -19046,7 +19046,7 @@
         <v>3.29999995231628</v>
       </c>
       <c r="G589" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="H589" t="s">
         <v>9</v>
@@ -19072,7 +19072,7 @@
         <v>3.32500004768372</v>
       </c>
       <c r="G590" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="H590" t="s">
         <v>9</v>
@@ -19098,7 +19098,7 @@
         <v>3.29999995231628</v>
       </c>
       <c r="G591" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="H591" t="s">
         <v>9</v>
@@ -19124,7 +19124,7 @@
         <v>3.30999994277954</v>
       </c>
       <c r="G592" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="H592" t="s">
         <v>9</v>
@@ -19150,7 +19150,7 @@
         <v>3.32999992370605</v>
       </c>
       <c r="G593" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="H593" t="s">
         <v>9</v>
@@ -19176,7 +19176,7 @@
         <v>3.40000009536743</v>
       </c>
       <c r="G594" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="H594" t="s">
         <v>9</v>
@@ -19202,7 +19202,7 @@
         <v>3.52999997138977</v>
       </c>
       <c r="G595" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="H595" t="s">
         <v>9</v>
@@ -19228,7 +19228,7 @@
         <v>3.5</v>
       </c>
       <c r="G596" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="H596" t="s">
         <v>9</v>
@@ -19254,7 +19254,7 @@
         <v>3.50500011444092</v>
       </c>
       <c r="G597" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="H597" t="s">
         <v>9</v>
@@ -19280,7 +19280,7 @@
         <v>3.34999990463257</v>
       </c>
       <c r="G598" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="H598" t="s">
         <v>9</v>
@@ -19306,7 +19306,7 @@
         <v>3.29999995231628</v>
       </c>
       <c r="G599" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="H599" t="s">
         <v>9</v>
@@ -19332,7 +19332,7 @@
         <v>3.29999995231628</v>
       </c>
       <c r="G600" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="H600" t="s">
         <v>9</v>
@@ -19358,7 +19358,7 @@
         <v>3.24000000953674</v>
       </c>
       <c r="G601" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="H601" t="s">
         <v>9</v>
@@ -19384,7 +19384,7 @@
         <v>3.20000004768372</v>
       </c>
       <c r="G602" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="H602" t="s">
         <v>9</v>
@@ -19410,7 +19410,7 @@
         <v>3.25999999046326</v>
       </c>
       <c r="G603" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="H603" t="s">
         <v>9</v>
@@ -19436,7 +19436,7 @@
         <v>3.1800000667572</v>
       </c>
       <c r="G604" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="H604" t="s">
         <v>9</v>
@@ -19462,7 +19462,7 @@
         <v>3.13000011444092</v>
       </c>
       <c r="G605" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="H605" t="s">
         <v>9</v>
@@ -19488,7 +19488,7 @@
         <v>3.13000011444092</v>
       </c>
       <c r="G606" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="H606" t="s">
         <v>9</v>
@@ -19514,7 +19514,7 @@
         <v>3.11500000953674</v>
       </c>
       <c r="G607" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="H607" t="s">
         <v>9</v>
@@ -19540,7 +19540,7 @@
         <v>3.10500001907349</v>
       </c>
       <c r="G608" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="H608" t="s">
         <v>9</v>
@@ -19566,7 +19566,7 @@
         <v>3.09500002861023</v>
       </c>
       <c r="G609" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="H609" t="s">
         <v>9</v>
@@ -19592,7 +19592,7 @@
         <v>3.07999992370605</v>
       </c>
       <c r="G610" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="H610" t="s">
         <v>9</v>
@@ -19618,7 +19618,7 @@
         <v>3.07999992370605</v>
       </c>
       <c r="G611" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="H611" t="s">
         <v>9</v>
@@ -19644,7 +19644,7 @@
         <v>3.0550000667572</v>
       </c>
       <c r="G612" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="H612" t="s">
         <v>9</v>
@@ -19670,7 +19670,7 @@
         <v>3.00500011444092</v>
       </c>
       <c r="G613" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="H613" t="s">
         <v>9</v>
@@ -19696,7 +19696,7 @@
         <v>2.875</v>
       </c>
       <c r="G614" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="H614" t="s">
         <v>9</v>
@@ -19722,7 +19722,7 @@
         <v>2.95000004768372</v>
       </c>
       <c r="G615" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="H615" t="s">
         <v>9</v>
@@ -19748,7 +19748,7 @@
         <v>3.00500011444092</v>
       </c>
       <c r="G616" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="H616" t="s">
         <v>9</v>
@@ -19774,7 +19774,7 @@
         <v>3.01500010490417</v>
       </c>
       <c r="G617" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="H617" t="s">
         <v>9</v>
@@ -19800,7 +19800,7 @@
         <v>3</v>
       </c>
       <c r="G618" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="H618" t="s">
         <v>9</v>
@@ -19826,7 +19826,7 @@
         <v>3</v>
       </c>
       <c r="G619" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="H619" t="s">
         <v>9</v>
@@ -19852,7 +19852,7 @@
         <v>2.98000001907349</v>
       </c>
       <c r="G620" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="H620" t="s">
         <v>9</v>
@@ -19878,7 +19878,7 @@
         <v>3.00500011444092</v>
       </c>
       <c r="G621" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="H621" t="s">
         <v>9</v>
@@ -19904,7 +19904,7 @@
         <v>2.9449999332428</v>
       </c>
       <c r="G622" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="H622" t="s">
         <v>9</v>
@@ -19930,7 +19930,7 @@
         <v>3.04999995231628</v>
       </c>
       <c r="G623" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="H623" t="s">
         <v>9</v>
@@ -19956,7 +19956,7 @@
         <v>3.05999994277954</v>
       </c>
       <c r="G624" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="H624" t="s">
         <v>9</v>
@@ -19982,7 +19982,7 @@
         <v>3.01500010490417</v>
       </c>
       <c r="G625" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="H625" t="s">
         <v>9</v>
@@ -20008,7 +20008,7 @@
         <v>3.05999994277954</v>
       </c>
       <c r="G626" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="H626" t="s">
         <v>9</v>
@@ -20034,7 +20034,7 @@
         <v>2.97499990463257</v>
       </c>
       <c r="G627" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="H627" t="s">
         <v>9</v>
@@ -20060,7 +20060,7 @@
         <v>2.99000000953674</v>
       </c>
       <c r="G628" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="H628" t="s">
         <v>9</v>
@@ -20086,7 +20086,7 @@
         <v>2.97499990463257</v>
       </c>
       <c r="G629" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="H629" t="s">
         <v>9</v>
@@ -20112,7 +20112,7 @@
         <v>2.99499988555908</v>
       </c>
       <c r="G630" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="H630" t="s">
         <v>9</v>
@@ -20138,7 +20138,7 @@
         <v>2.92000007629395</v>
       </c>
       <c r="G631" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H631" t="s">
         <v>9</v>
@@ -20164,7 +20164,7 @@
         <v>3.06500005722046</v>
       </c>
       <c r="G632" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="H632" t="s">
         <v>9</v>
@@ -20190,7 +20190,7 @@
         <v>2.95000004768372</v>
       </c>
       <c r="G633" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="H633" t="s">
         <v>9</v>
@@ -20216,7 +20216,7 @@
         <v>3.03500008583069</v>
       </c>
       <c r="G634" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="H634" t="s">
         <v>9</v>
@@ -20242,7 +20242,7 @@
         <v>3</v>
       </c>
       <c r="G635" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="H635" t="s">
         <v>9</v>
@@ -20268,7 +20268,7 @@
         <v>3</v>
       </c>
       <c r="G636" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="H636" t="s">
         <v>9</v>
@@ -20294,7 +20294,7 @@
         <v>2.99000000953674</v>
       </c>
       <c r="G637" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="H637" t="s">
         <v>9</v>
@@ -20320,7 +20320,7 @@
         <v>2.9449999332428</v>
       </c>
       <c r="G638" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="H638" t="s">
         <v>9</v>
@@ -20346,7 +20346,7 @@
         <v>2.95499992370605</v>
       </c>
       <c r="G639" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="H639" t="s">
         <v>9</v>
@@ -20372,7 +20372,7 @@
         <v>2.9300000667572</v>
       </c>
       <c r="G640" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="H640" t="s">
         <v>9</v>
@@ -20398,7 +20398,7 @@
         <v>2.97499990463257</v>
       </c>
       <c r="G641" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="H641" t="s">
         <v>9</v>
@@ -20424,7 +20424,7 @@
         <v>2.99499988555908</v>
       </c>
       <c r="G642" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="H642" t="s">
         <v>9</v>
@@ -20450,7 +20450,7 @@
         <v>2.95499992370605</v>
       </c>
       <c r="G643" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="H643" t="s">
         <v>9</v>
@@ -20476,7 +20476,7 @@
         <v>2.9300000667572</v>
       </c>
       <c r="G644" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="H644" t="s">
         <v>9</v>
@@ -20502,7 +20502,7 @@
         <v>2.91499996185303</v>
       </c>
       <c r="G645" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="H645" t="s">
         <v>9</v>
@@ -20528,7 +20528,7 @@
         <v>2.89000010490417</v>
       </c>
       <c r="G646" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="H646" t="s">
         <v>9</v>
@@ -20554,7 +20554,7 @@
         <v>2.88499999046326</v>
       </c>
       <c r="G647" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="H647" t="s">
         <v>9</v>
@@ -20580,7 +20580,7 @@
         <v>2.86500000953674</v>
       </c>
       <c r="G648" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="H648" t="s">
         <v>9</v>
@@ -20606,7 +20606,7 @@
         <v>2.86999988555908</v>
       </c>
       <c r="G649" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="H649" t="s">
         <v>9</v>
@@ -20632,7 +20632,7 @@
         <v>2.89000010490417</v>
       </c>
       <c r="G650" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="H650" t="s">
         <v>9</v>
@@ -20658,7 +20658,7 @@
         <v>2.90000009536743</v>
       </c>
       <c r="G651" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="H651" t="s">
         <v>9</v>
@@ -20684,7 +20684,7 @@
         <v>2.89000010490417</v>
       </c>
       <c r="G652" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="H652" t="s">
         <v>9</v>
@@ -20710,7 +20710,7 @@
         <v>2.85999989509583</v>
       </c>
       <c r="G653" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="H653" t="s">
         <v>9</v>
@@ -20736,7 +20736,7 @@
         <v>2.84999990463257</v>
       </c>
       <c r="G654" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="H654" t="s">
         <v>9</v>
@@ -20762,7 +20762,7 @@
         <v>2.90000009536743</v>
       </c>
       <c r="G655" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="H655" t="s">
         <v>9</v>
@@ -20788,7 +20788,7 @@
         <v>3.14000010490417</v>
       </c>
       <c r="G656" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="H656" t="s">
         <v>9</v>
@@ -20814,7 +20814,7 @@
         <v>3.15000009536743</v>
       </c>
       <c r="G657" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="H657" t="s">
         <v>9</v>
@@ -20840,7 +20840,7 @@
         <v>3.20499992370605</v>
       </c>
       <c r="G658" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="H658" t="s">
         <v>9</v>
@@ -20866,7 +20866,7 @@
         <v>3.1800000667572</v>
       </c>
       <c r="G659" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="H659" t="s">
         <v>9</v>
@@ -20892,7 +20892,7 @@
         <v>3.53999996185303</v>
       </c>
       <c r="G660" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="H660" t="s">
         <v>9</v>
@@ -20918,7 +20918,7 @@
         <v>3.35500001907349</v>
       </c>
       <c r="G661" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="H661" t="s">
         <v>9</v>
@@ -20944,7 +20944,7 @@
         <v>3.34999990463257</v>
       </c>
       <c r="G662" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="H662" t="s">
         <v>9</v>
@@ -20970,7 +20970,7 @@
         <v>3.26500010490417</v>
       </c>
       <c r="G663" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="H663" t="s">
         <v>9</v>
@@ -20996,7 +20996,7 @@
         <v>3.26999998092651</v>
       </c>
       <c r="G664" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="H664" t="s">
         <v>9</v>
@@ -21022,7 +21022,7 @@
         <v>3.25</v>
       </c>
       <c r="G665" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="H665" t="s">
         <v>9</v>
@@ -21048,7 +21048,7 @@
         <v>3.1949999332428</v>
       </c>
       <c r="G666" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="H666" t="s">
         <v>9</v>
@@ -21074,7 +21074,7 @@
         <v>3.13499999046326</v>
       </c>
       <c r="G667" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="H667" t="s">
         <v>9</v>
@@ -21100,7 +21100,7 @@
         <v>3.09999990463257</v>
       </c>
       <c r="G668" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="H668" t="s">
         <v>9</v>
@@ -21126,7 +21126,7 @@
         <v>3.13000011444092</v>
       </c>
       <c r="G669" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="H669" t="s">
         <v>9</v>
@@ -21152,7 +21152,7 @@
         <v>3.02500009536743</v>
       </c>
       <c r="G670" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="H670" t="s">
         <v>9</v>
@@ -21178,7 +21178,7 @@
         <v>3.05999994277954</v>
       </c>
       <c r="G671" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="H671" t="s">
         <v>9</v>
@@ -21204,7 +21204,7 @@
         <v>3.03500008583069</v>
       </c>
       <c r="G672" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="H672" t="s">
         <v>9</v>
@@ -21230,7 +21230,7 @@
         <v>3.07999992370605</v>
       </c>
       <c r="G673" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="H673" t="s">
         <v>9</v>
@@ -21256,7 +21256,7 @@
         <v>3.11999988555908</v>
       </c>
       <c r="G674" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="H674" t="s">
         <v>9</v>
@@ -21282,7 +21282,7 @@
         <v>3.07500004768372</v>
       </c>
       <c r="G675" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="H675" t="s">
         <v>9</v>
@@ -21308,7 +21308,7 @@
         <v>3.09500002861023</v>
       </c>
       <c r="G676" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="H676" t="s">
         <v>9</v>
@@ -21334,7 +21334,7 @@
         <v>3.08500003814697</v>
       </c>
       <c r="G677" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="H677" t="s">
         <v>9</v>
@@ -21360,7 +21360,7 @@
         <v>3.05999994277954</v>
       </c>
       <c r="G678" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="H678" t="s">
         <v>9</v>
@@ -21386,7 +21386,7 @@
         <v>3.10999989509583</v>
       </c>
       <c r="G679" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="H679" t="s">
         <v>9</v>
@@ -21412,7 +21412,7 @@
         <v>3.10999989509583</v>
       </c>
       <c r="G680" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="H680" t="s">
         <v>9</v>
@@ -21438,7 +21438,7 @@
         <v>3.10999989509583</v>
       </c>
       <c r="G681" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="H681" t="s">
         <v>9</v>
@@ -21464,7 +21464,7 @@
         <v>3.125</v>
       </c>
       <c r="G682" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="H682" t="s">
         <v>9</v>
@@ -21490,7 +21490,7 @@
         <v>3.10999989509583</v>
       </c>
       <c r="G683" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="H683" t="s">
         <v>9</v>
@@ -21516,7 +21516,7 @@
         <v>3.10500001907349</v>
       </c>
       <c r="G684" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="H684" t="s">
         <v>9</v>
@@ -21542,7 +21542,7 @@
         <v>3.11500000953674</v>
       </c>
       <c r="G685" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="H685" t="s">
         <v>9</v>
@@ -21568,7 +21568,7 @@
         <v>3.11500000953674</v>
       </c>
       <c r="G686" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="H686" t="s">
         <v>9</v>
@@ -21594,7 +21594,7 @@
         <v>3.13000011444092</v>
       </c>
       <c r="G687" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="H687" t="s">
         <v>9</v>
@@ -21620,7 +21620,7 @@
         <v>3.13000011444092</v>
       </c>
       <c r="G688" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="H688" t="s">
         <v>9</v>
@@ -21646,7 +21646,7 @@
         <v>3.16499996185303</v>
       </c>
       <c r="G689" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="H689" t="s">
         <v>9</v>
@@ -21672,7 +21672,7 @@
         <v>3.16000008583069</v>
       </c>
       <c r="G690" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="H690" t="s">
         <v>9</v>
@@ -21698,7 +21698,7 @@
         <v>3.15499997138977</v>
       </c>
       <c r="G691" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="H691" t="s">
         <v>9</v>
@@ -21724,7 +21724,7 @@
         <v>3.15499997138977</v>
       </c>
       <c r="G692" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="H692" t="s">
         <v>9</v>
@@ -21750,7 +21750,7 @@
         <v>3.17000007629395</v>
       </c>
       <c r="G693" t="s">
-        <v>369</v>
+        <v>426</v>
       </c>
       <c r="H693" t="s">
         <v>9</v>
@@ -21776,7 +21776,7 @@
         <v>3.17000007629395</v>
       </c>
       <c r="G694" t="s">
-        <v>369</v>
+        <v>426</v>
       </c>
       <c r="H694" t="s">
         <v>9</v>
@@ -21802,7 +21802,7 @@
         <v>3.16000008583069</v>
       </c>
       <c r="G695" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="H695" t="s">
         <v>9</v>
@@ -21828,7 +21828,7 @@
         <v>3.17000007629395</v>
       </c>
       <c r="G696" t="s">
-        <v>369</v>
+        <v>426</v>
       </c>
       <c r="H696" t="s">
         <v>9</v>
@@ -21854,7 +21854,7 @@
         <v>3.16000008583069</v>
       </c>
       <c r="G697" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="H697" t="s">
         <v>9</v>
@@ -21880,7 +21880,7 @@
         <v>3.16000008583069</v>
       </c>
       <c r="G698" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="H698" t="s">
         <v>9</v>
@@ -21906,7 +21906,7 @@
         <v>3.16000008583069</v>
       </c>
       <c r="G699" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="H699" t="s">
         <v>9</v>
@@ -21932,7 +21932,7 @@
         <v>3.10999989509583</v>
       </c>
       <c r="G700" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="H700" t="s">
         <v>9</v>
@@ -21984,7 +21984,7 @@
         <v>2.98000001907349</v>
       </c>
       <c r="G702" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="H702" t="s">
         <v>9</v>
@@ -22010,7 +22010,7 @@
         <v>2.97499990463257</v>
       </c>
       <c r="G703" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="H703" t="s">
         <v>9</v>
@@ -22036,7 +22036,7 @@
         <v>2.97499990463257</v>
       </c>
       <c r="G704" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="H704" t="s">
         <v>9</v>
@@ -22062,7 +22062,7 @@
         <v>3.01500010490417</v>
       </c>
       <c r="G705" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="H705" t="s">
         <v>9</v>
@@ -22140,7 +22140,7 @@
         <v>2.9449999332428</v>
       </c>
       <c r="G708" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="H708" t="s">
         <v>9</v>
@@ -22166,7 +22166,7 @@
         <v>3.01500010490417</v>
       </c>
       <c r="G709" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="H709" t="s">
         <v>9</v>
@@ -22244,7 +22244,7 @@
         <v>2.9449999332428</v>
       </c>
       <c r="G712" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="H712" t="s">
         <v>9</v>
@@ -22296,7 +22296,7 @@
         <v>3.08500003814697</v>
       </c>
       <c r="G714" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="H714" t="s">
         <v>9</v>
@@ -22322,7 +22322,7 @@
         <v>3.05999994277954</v>
       </c>
       <c r="G715" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="H715" t="s">
         <v>9</v>
@@ -22348,7 +22348,7 @@
         <v>2.99000000953674</v>
       </c>
       <c r="G716" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="H716" t="s">
         <v>9</v>
@@ -22374,7 +22374,7 @@
         <v>2.97499990463257</v>
       </c>
       <c r="G717" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="H717" t="s">
         <v>9</v>
@@ -22400,7 +22400,7 @@
         <v>2.875</v>
       </c>
       <c r="G718" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="H718" t="s">
         <v>9</v>
@@ -22426,7 +22426,7 @@
         <v>2.86999988555908</v>
       </c>
       <c r="G719" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="H719" t="s">
         <v>9</v>
@@ -22452,7 +22452,7 @@
         <v>2.84999990463257</v>
       </c>
       <c r="G720" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="H720" t="s">
         <v>9</v>
@@ -22530,7 +22530,7 @@
         <v>2.89000010490417</v>
       </c>
       <c r="G723" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="H723" t="s">
         <v>9</v>
@@ -22556,7 +22556,7 @@
         <v>2.90000009536743</v>
       </c>
       <c r="G724" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="H724" t="s">
         <v>9</v>
@@ -22608,7 +22608,7 @@
         <v>2.97499990463257</v>
       </c>
       <c r="G726" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="H726" t="s">
         <v>9</v>
@@ -22634,7 +22634,7 @@
         <v>3.04999995231628</v>
       </c>
       <c r="G727" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="H727" t="s">
         <v>9</v>
@@ -22712,7 +22712,7 @@
         <v>3.08500003814697</v>
       </c>
       <c r="G730" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="H730" t="s">
         <v>9</v>
@@ -22738,7 +22738,7 @@
         <v>3.04999995231628</v>
       </c>
       <c r="G731" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="H731" t="s">
         <v>9</v>
@@ -22764,7 +22764,7 @@
         <v>3.04999995231628</v>
       </c>
       <c r="G732" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="H732" t="s">
         <v>9</v>
@@ -22790,7 +22790,7 @@
         <v>3.03500008583069</v>
       </c>
       <c r="G733" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="H733" t="s">
         <v>9</v>
@@ -22842,7 +22842,7 @@
         <v>2.99000000953674</v>
       </c>
       <c r="G735" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="H735" t="s">
         <v>9</v>
@@ -22894,7 +22894,7 @@
         <v>3</v>
       </c>
       <c r="G737" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="H737" t="s">
         <v>9</v>
@@ -22920,7 +22920,7 @@
         <v>3.04999995231628</v>
       </c>
       <c r="G738" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="H738" t="s">
         <v>9</v>
@@ -22972,7 +22972,7 @@
         <v>3</v>
       </c>
       <c r="G740" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="H740" t="s">
         <v>9</v>
@@ -22998,7 +22998,7 @@
         <v>3.04999995231628</v>
       </c>
       <c r="G741" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="H741" t="s">
         <v>9</v>
@@ -23024,7 +23024,7 @@
         <v>3.07999992370605</v>
       </c>
       <c r="G742" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="H742" t="s">
         <v>9</v>
@@ -23050,7 +23050,7 @@
         <v>3.05999994277954</v>
       </c>
       <c r="G743" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="H743" t="s">
         <v>9</v>
@@ -23128,7 +23128,7 @@
         <v>3.09500002861023</v>
       </c>
       <c r="G746" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="H746" t="s">
         <v>9</v>
@@ -23154,7 +23154,7 @@
         <v>3.08500003814697</v>
       </c>
       <c r="G747" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="H747" t="s">
         <v>9</v>
@@ -23206,7 +23206,7 @@
         <v>3.20000004768372</v>
       </c>
       <c r="G749" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="H749" t="s">
         <v>9</v>
@@ -23232,7 +23232,7 @@
         <v>3.08500003814697</v>
       </c>
       <c r="G750" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="H750" t="s">
         <v>9</v>
@@ -23258,7 +23258,7 @@
         <v>3.07500004768372</v>
       </c>
       <c r="G751" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="H751" t="s">
         <v>9</v>
@@ -23284,7 +23284,7 @@
         <v>3.08500003814697</v>
       </c>
       <c r="G752" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="H752" t="s">
         <v>9</v>
@@ -23310,7 +23310,7 @@
         <v>3.07999992370605</v>
       </c>
       <c r="G753" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="H753" t="s">
         <v>9</v>
@@ -23336,7 +23336,7 @@
         <v>3.11999988555908</v>
       </c>
       <c r="G754" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="H754" t="s">
         <v>9</v>
@@ -23362,7 +23362,7 @@
         <v>3.10999989509583</v>
       </c>
       <c r="G755" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="H755" t="s">
         <v>9</v>
@@ -23388,7 +23388,7 @@
         <v>3.125</v>
       </c>
       <c r="G756" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="H756" t="s">
         <v>9</v>
@@ -23440,7 +23440,7 @@
         <v>3.07500004768372</v>
       </c>
       <c r="G758" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="H758" t="s">
         <v>9</v>
@@ -23466,7 +23466,7 @@
         <v>3.07999992370605</v>
       </c>
       <c r="G759" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="H759" t="s">
         <v>9</v>
@@ -23518,7 +23518,7 @@
         <v>3.07500004768372</v>
       </c>
       <c r="G761" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="H761" t="s">
         <v>9</v>
@@ -23570,7 +23570,7 @@
         <v>3.10999989509583</v>
       </c>
       <c r="G763" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="H763" t="s">
         <v>9</v>
@@ -23596,7 +23596,7 @@
         <v>3.09500002861023</v>
       </c>
       <c r="G764" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="H764" t="s">
         <v>9</v>
@@ -23674,7 +23674,7 @@
         <v>3.24000000953674</v>
       </c>
       <c r="G767" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="H767" t="s">
         <v>9</v>
@@ -23726,7 +23726,7 @@
         <v>3.1949999332428</v>
       </c>
       <c r="G769" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="H769" t="s">
         <v>9</v>
@@ -23778,7 +23778,7 @@
         <v>3.1949999332428</v>
       </c>
       <c r="G771" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="H771" t="s">
         <v>9</v>
@@ -23804,7 +23804,7 @@
         <v>3.1800000667572</v>
       </c>
       <c r="G772" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="H772" t="s">
         <v>9</v>
@@ -23830,7 +23830,7 @@
         <v>3.1800000667572</v>
       </c>
       <c r="G773" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="H773" t="s">
         <v>9</v>
@@ -23856,7 +23856,7 @@
         <v>3.16499996185303</v>
       </c>
       <c r="G774" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="H774" t="s">
         <v>9</v>
@@ -23882,7 +23882,7 @@
         <v>3.1800000667572</v>
       </c>
       <c r="G775" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="H775" t="s">
         <v>9</v>
@@ -23934,7 +23934,7 @@
         <v>3.20000004768372</v>
       </c>
       <c r="G777" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="H777" t="s">
         <v>9</v>
@@ -23986,7 +23986,7 @@
         <v>3.20499992370605</v>
       </c>
       <c r="G779" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="H779" t="s">
         <v>9</v>
@@ -24064,7 +24064,7 @@
         <v>3.20000004768372</v>
       </c>
       <c r="G782" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="H782" t="s">
         <v>9</v>
@@ -24090,7 +24090,7 @@
         <v>3.20000004768372</v>
       </c>
       <c r="G783" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="H783" t="s">
         <v>9</v>
@@ -24194,7 +24194,7 @@
         <v>3.24000000953674</v>
       </c>
       <c r="G787" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="H787" t="s">
         <v>9</v>
@@ -24220,7 +24220,7 @@
         <v>3.25</v>
       </c>
       <c r="G788" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="H788" t="s">
         <v>9</v>
@@ -24272,7 +24272,7 @@
         <v>3.25999999046326</v>
       </c>
       <c r="G790" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="H790" t="s">
         <v>9</v>
@@ -24298,7 +24298,7 @@
         <v>3.25</v>
       </c>
       <c r="G791" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="H791" t="s">
         <v>9</v>
@@ -24324,7 +24324,7 @@
         <v>3.24000000953674</v>
       </c>
       <c r="G792" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="H792" t="s">
         <v>9</v>
@@ -24350,7 +24350,7 @@
         <v>3.26999998092651</v>
       </c>
       <c r="G793" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="H793" t="s">
         <v>9</v>
@@ -24376,7 +24376,7 @@
         <v>3.25999999046326</v>
       </c>
       <c r="G794" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="H794" t="s">
         <v>9</v>
@@ -24428,7 +24428,7 @@
         <v>3.29999995231628</v>
       </c>
       <c r="G796" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="H796" t="s">
         <v>9</v>
@@ -24688,7 +24688,7 @@
         <v>3.34999990463257</v>
       </c>
       <c r="G806" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="H806" t="s">
         <v>9</v>
@@ -25182,7 +25182,7 @@
         <v>3.53999996185303</v>
       </c>
       <c r="G825" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="H825" t="s">
         <v>9</v>
@@ -59978,7 +59978,7 @@
     </row>
     <row r="2164">
       <c r="A2164" s="1" t="n">
-        <v>45475.6496412037</v>
+        <v>45475.2916666667</v>
       </c>
       <c r="B2164" t="n">
         <v>226510</v>
@@ -59999,6 +59999,32 @@
         <v>1128</v>
       </c>
       <c r="H2164" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2165">
+      <c r="A2165" s="1" t="n">
+        <v>45476.6495717593</v>
+      </c>
+      <c r="B2165" t="n">
+        <v>133928</v>
+      </c>
+      <c r="C2165" t="n">
+        <v>2.375</v>
+      </c>
+      <c r="D2165" t="n">
+        <v>2.3199999332428</v>
+      </c>
+      <c r="E2165" t="n">
+        <v>2.36500000953674</v>
+      </c>
+      <c r="F2165" t="n">
+        <v>2.35500001907349</v>
+      </c>
+      <c r="G2165" t="s">
+        <v>1128</v>
+      </c>
+      <c r="H2165" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/ASC.MI.xlsx
+++ b/data/ASC.MI.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1129" uniqueCount="1129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1130" uniqueCount="1130">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -38,16 +38,16 @@
     <t xml:space="preserve">ticker</t>
   </si>
   <si>
-    <t xml:space="preserve">1.31329572200775</t>
+    <t xml:space="preserve">1.31329584121704</t>
   </si>
   <si>
     <t xml:space="preserve">ASC.MI</t>
   </si>
   <si>
-    <t xml:space="preserve">1.31448090076447</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.30262815952301</t>
+    <t xml:space="preserve">1.31448078155518</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.3026282787323</t>
   </si>
   <si>
     <t xml:space="preserve">1.30381345748901</t>
@@ -56,58 +56,58 @@
     <t xml:space="preserve">1.28959000110626</t>
   </si>
   <si>
-    <t xml:space="preserve">1.28247833251953</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.30973994731903</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.28366339206696</t>
+    <t xml:space="preserve">1.28247821331024</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.30974006652832</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.28366363048553</t>
   </si>
   <si>
     <t xml:space="preserve">1.26588416099548</t>
   </si>
   <si>
-    <t xml:space="preserve">1.22676992416382</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.23032581806183</t>
+    <t xml:space="preserve">1.22676980495453</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.23032569885254</t>
   </si>
   <si>
     <t xml:space="preserve">1.19121134281158</t>
   </si>
   <si>
-    <t xml:space="preserve">1.21491730213165</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.29196059703827</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.28840482234955</t>
+    <t xml:space="preserve">1.21491694450378</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.29196071624756</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.28840470314026</t>
   </si>
   <si>
     <t xml:space="preserve">1.28129303455353</t>
   </si>
   <si>
-    <t xml:space="preserve">1.30736935138702</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.31211042404175</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.29788720607758</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.23862290382385</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.244549036026</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.24336397647858</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.2243994474411</t>
+    <t xml:space="preserve">1.30736923217773</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.31211030483246</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.29788708686829</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.23862278461456</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.24454915523529</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.24336409568787</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.22439920902252</t>
   </si>
   <si>
     <t xml:space="preserve">1.24099338054657</t>
@@ -116,28 +116,28 @@
     <t xml:space="preserve">1.26469910144806</t>
   </si>
   <si>
-    <t xml:space="preserve">1.26232838630676</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.26825499534607</t>
+    <t xml:space="preserve">1.26232862472534</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.26825511455536</t>
   </si>
   <si>
     <t xml:space="preserve">1.27062547206879</t>
   </si>
   <si>
-    <t xml:space="preserve">1.32514846324921</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.32159268856049</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.32396340370178</t>
+    <t xml:space="preserve">1.3251485824585</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.32159280776978</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.3239631652832</t>
   </si>
   <si>
     <t xml:space="preserve">1.31685149669647</t>
   </si>
   <si>
-    <t xml:space="preserve">1.31922233104706</t>
+    <t xml:space="preserve">1.31922209262848</t>
   </si>
   <si>
     <t xml:space="preserve">1.30618405342102</t>
@@ -146,16 +146,16 @@
     <t xml:space="preserve">1.31803691387177</t>
   </si>
   <si>
-    <t xml:space="preserve">1.33581614494324</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.34411311149597</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.34648370742798</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.36070692539215</t>
+    <t xml:space="preserve">1.33581602573395</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.34411299228668</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.34648394584656</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.36070704460144</t>
   </si>
   <si>
     <t xml:space="preserve">1.35833656787872</t>
@@ -164,79 +164,79 @@
     <t xml:space="preserve">1.34766900539398</t>
   </si>
   <si>
-    <t xml:space="preserve">1.34292793273926</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.36189234256744</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.34055733680725</t>
+    <t xml:space="preserve">1.34292781352997</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.36189246177673</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.34055745601654</t>
   </si>
   <si>
     <t xml:space="preserve">1.35596585273743</t>
   </si>
   <si>
-    <t xml:space="preserve">1.35952186584473</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.36307764053345</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.34885406494141</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.36426293849945</t>
+    <t xml:space="preserve">1.35952162742615</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.36307787895203</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.34885430335999</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.36426305770874</t>
   </si>
   <si>
     <t xml:space="preserve">1.38796865940094</t>
   </si>
   <si>
-    <t xml:space="preserve">1.38085687160492</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.38322770595551</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.38678359985352</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.39152455329895</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.39863622188568</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.37848651409149</t>
+    <t xml:space="preserve">1.38085699081421</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.38322782516479</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.38678348064423</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.39152467250824</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.39863634109497</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.3784863948822</t>
   </si>
   <si>
     <t xml:space="preserve">1.3796718120575</t>
   </si>
   <si>
-    <t xml:space="preserve">1.3820424079895</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.40219223499298</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.410489320755</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.41760087013245</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.41523015499115</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.40456247329712</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.39982128143311</t>
+    <t xml:space="preserve">1.38204228878021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.40219211578369</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.41048920154572</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.41760075092316</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.41523027420044</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.40456259250641</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.39982151985168</t>
   </si>
   <si>
     <t xml:space="preserve">1.4328111410141</t>
   </si>
   <si>
-    <t xml:space="preserve">1.43027973175049</t>
+    <t xml:space="preserve">1.4302796125412</t>
   </si>
   <si>
     <t xml:space="preserve">1.43407678604126</t>
@@ -251,16 +251,16 @@
     <t xml:space="preserve">1.46192300319672</t>
   </si>
   <si>
-    <t xml:space="preserve">1.47584629058838</t>
+    <t xml:space="preserve">1.47584617137909</t>
   </si>
   <si>
     <t xml:space="preserve">1.48344051837921</t>
   </si>
   <si>
-    <t xml:space="preserve">1.48470604419708</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.48976910114288</t>
+    <t xml:space="preserve">1.48470616340637</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.48976922035217</t>
   </si>
   <si>
     <t xml:space="preserve">1.49483203887939</t>
@@ -269,22 +269,22 @@
     <t xml:space="preserve">1.50242650508881</t>
   </si>
   <si>
-    <t xml:space="preserve">1.53153848648071</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.52900695800781</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.54419589042664</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.55938470363617</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.58343362808228</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.54546117782593</t>
+    <t xml:space="preserve">1.53153836727142</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.52900683879852</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.54419600963593</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.55938458442688</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.58343374729156</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.54546165466309</t>
   </si>
   <si>
     <t xml:space="preserve">1.55685305595398</t>
@@ -293,16 +293,16 @@
     <t xml:space="preserve">1.53913271427155</t>
   </si>
   <si>
-    <t xml:space="preserve">1.58216750621796</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.65178298950195</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.6581118106842</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.64039158821106</t>
+    <t xml:space="preserve">1.58216798305511</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.65178310871124</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.65811192989349</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.64039146900177</t>
   </si>
   <si>
     <t xml:space="preserve">1.56571316719055</t>
@@ -311,55 +311,55 @@
     <t xml:space="preserve">1.55052447319031</t>
   </si>
   <si>
-    <t xml:space="preserve">1.59862244129181</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.64418888092041</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.58849632740021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.56318163871765</t>
+    <t xml:space="preserve">1.59862232208252</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.64418864250183</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.5884964466095</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.56318187713623</t>
   </si>
   <si>
     <t xml:space="preserve">1.60495102405548</t>
   </si>
   <si>
-    <t xml:space="preserve">1.63912546634674</t>
+    <t xml:space="preserve">1.63912570476532</t>
   </si>
   <si>
     <t xml:space="preserve">1.70874130725861</t>
   </si>
   <si>
-    <t xml:space="preserve">1.69481801986694</t>
+    <t xml:space="preserve">1.69481813907623</t>
   </si>
   <si>
     <t xml:space="preserve">1.63786005973816</t>
   </si>
   <si>
-    <t xml:space="preserve">1.69355237483978</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.70494377613068</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.70620977878571</t>
+    <t xml:space="preserve">1.69355249404907</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.70494389533997</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.706209897995</t>
   </si>
   <si>
     <t xml:space="preserve">1.76316773891449</t>
   </si>
   <si>
-    <t xml:space="preserve">1.768230676651</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.7707622051239</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.73532164096832</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.73405563831329</t>
+    <t xml:space="preserve">1.76823055744171</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.77076196670532</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.73532152175903</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.73405575752258</t>
   </si>
   <si>
     <t xml:space="preserve">1.77202785015106</t>
@@ -368,43 +368,43 @@
     <t xml:space="preserve">1.7846851348877</t>
   </si>
   <si>
-    <t xml:space="preserve">1.75051021575928</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.7467132806778</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.75304222106934</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.76443374156952</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.80620276927948</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.84164345264435</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.80367124080658</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.8327831029892</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.82012581825256</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.79734241962433</t>
+    <t xml:space="preserve">1.75051045417786</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.74671304225922</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.75304162502289</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.76443350315094</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.80620288848877</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.84164333343506</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.80367112159729</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.83278322219849</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.82012569904327</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.79734253883362</t>
   </si>
   <si>
     <t xml:space="preserve">1.79607689380646</t>
   </si>
   <si>
-    <t xml:space="preserve">1.79354536533356</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.81632876396179</t>
+    <t xml:space="preserve">1.79354560375214</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.81632828712463</t>
   </si>
   <si>
     <t xml:space="preserve">1.82265734672546</t>
@@ -413,19 +413,19 @@
     <t xml:space="preserve">1.80999970436096</t>
   </si>
   <si>
-    <t xml:space="preserve">1.8251885175705</t>
+    <t xml:space="preserve">1.82518899440765</t>
   </si>
   <si>
     <t xml:space="preserve">1.81126570701599</t>
   </si>
   <si>
-    <t xml:space="preserve">1.70241272449493</t>
+    <t xml:space="preserve">1.70241260528564</t>
   </si>
   <si>
     <t xml:space="preserve">1.71380400657654</t>
   </si>
   <si>
-    <t xml:space="preserve">1.78974843025208</t>
+    <t xml:space="preserve">1.7897481918335</t>
   </si>
   <si>
     <t xml:space="preserve">1.74038469791412</t>
@@ -434,67 +434,67 @@
     <t xml:space="preserve">1.6555802822113</t>
   </si>
   <si>
-    <t xml:space="preserve">1.67583203315735</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.64798605442047</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.67456638813019</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.66064345836639</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.68722367286682</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.69861555099487</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.66444063186646</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.67709767818451</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.65684592723846</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.65937757492065</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.66190886497498</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.6846923828125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.69228672981262</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.69608402252197</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.70114684104919</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.66317486763</t>
+    <t xml:space="preserve">1.67583215236664</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.64798617362976</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.6745662689209</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.66064310073853</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.6872239112854</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.69861507415771</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.66444051265717</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.67709791660309</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.65684616565704</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.65937721729279</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.66190910339355</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.68469214439392</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.69228661060333</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.69608378410339</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.70114707946777</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.66317474842072</t>
   </si>
   <si>
     <t xml:space="preserve">1.68975520133972</t>
   </si>
   <si>
-    <t xml:space="preserve">1.68595790863037</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.67836356163025</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.63406276702881</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.57710480690002</t>
+    <t xml:space="preserve">1.68595814704895</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.67836332321167</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.6340628862381</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.57710456848145</t>
   </si>
   <si>
     <t xml:space="preserve">1.53406965732574</t>
@@ -503,157 +503,157 @@
     <t xml:space="preserve">1.53533565998077</t>
   </si>
   <si>
-    <t xml:space="preserve">1.54039824008942</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.52267825603485</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.60115361213684</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.6315313577652</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.6074823141098</t>
+    <t xml:space="preserve">1.54039835929871</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.52267813682556</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.60115373134613</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.63153147697449</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.60748243331909</t>
   </si>
   <si>
     <t xml:space="preserve">1.57583916187286</t>
   </si>
   <si>
-    <t xml:space="preserve">1.53786718845367</t>
+    <t xml:space="preserve">1.53786706924438</t>
   </si>
   <si>
     <t xml:space="preserve">1.55558729171753</t>
   </si>
   <si>
-    <t xml:space="preserve">1.58723044395447</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.61381125450134</t>
+    <t xml:space="preserve">1.58723080158234</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.61381101608276</t>
   </si>
   <si>
     <t xml:space="preserve">1.62899959087372</t>
   </si>
   <si>
-    <t xml:space="preserve">1.62393712997437</t>
+    <t xml:space="preserve">1.62393689155579</t>
   </si>
   <si>
     <t xml:space="preserve">1.6454541683197</t>
   </si>
   <si>
-    <t xml:space="preserve">1.63659417629242</t>
+    <t xml:space="preserve">1.636594414711</t>
   </si>
   <si>
     <t xml:space="preserve">1.63026559352875</t>
   </si>
   <si>
-    <t xml:space="preserve">1.68089497089386</t>
+    <t xml:space="preserve">1.68089485168457</t>
   </si>
   <si>
     <t xml:space="preserve">1.71000683307648</t>
   </si>
   <si>
-    <t xml:space="preserve">1.69988083839417</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.72139859199524</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.71760129928589</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.72393012046814</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.73658716678619</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.71507012844086</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.72266411781311</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.73279011249542</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.75177621841431</t>
+    <t xml:space="preserve">1.69988107681274</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.72139871120453</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.71760106086731</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.72392988204956</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.73658740520477</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.71507000923157</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.7226642370224</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.73279023170471</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.75177597999573</t>
   </si>
   <si>
     <t xml:space="preserve">1.76190233230591</t>
   </si>
   <si>
-    <t xml:space="preserve">1.75937056541443</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.73025870323181</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.81253147125244</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.80493700504303</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.78848230838776</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.77709078788757</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.82139182090759</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.8277200460434</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.79481101036072</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.82898604869843</t>
+    <t xml:space="preserve">1.75937068462372</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.73025858402252</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.81253159046173</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.80493676662445</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.78848242759705</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.77709102630615</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.82139158248901</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.82772028446198</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.79481112957001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.82898592948914</t>
   </si>
   <si>
     <t xml:space="preserve">1.84037744998932</t>
   </si>
   <si>
-    <t xml:space="preserve">1.81379699707031</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.86695837974548</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.86062920093536</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.88594400882721</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.91758739948273</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.93404161930084</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.95049679279327</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.95935666561127</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.95555949211121</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.9973281621933</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.98213970661163</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.03656625747681</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.0631468296051</t>
+    <t xml:space="preserve">1.8137971162796</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.86695778369904</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.86062932014465</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.88594388961792</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.91758728027344</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.93404173851013</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.95049631595612</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.9593563079834</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.95555913448334</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.99732840061188</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.98213982582092</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.03656601905823</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.06314659118652</t>
   </si>
   <si>
     <t xml:space="preserve">2.08339834213257</t>
@@ -662,46 +662,46 @@
     <t xml:space="preserve">2.10238456726074</t>
   </si>
   <si>
-    <t xml:space="preserve">2.06947541236877</t>
+    <t xml:space="preserve">2.0694751739502</t>
   </si>
   <si>
     <t xml:space="preserve">2.0720067024231</t>
   </si>
   <si>
-    <t xml:space="preserve">2.11377596855164</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.10871338844299</t>
+    <t xml:space="preserve">2.11377620697021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.10871315002441</t>
   </si>
   <si>
     <t xml:space="preserve">2.12516784667969</t>
   </si>
   <si>
-    <t xml:space="preserve">2.16440558433533</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.1517481803894</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.15681123733521</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.19604897499084</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.20490908622742</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.21883201599121</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.2276918888092</t>
+    <t xml:space="preserve">2.16440582275391</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.15174841880798</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.15681099891663</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.19604921340942</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.20490884780884</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.21883177757263</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.22769236564636</t>
   </si>
   <si>
     <t xml:space="preserve">2.23148965835571</t>
   </si>
   <si>
-    <t xml:space="preserve">2.21503472328186</t>
+    <t xml:space="preserve">2.21503496170044</t>
   </si>
   <si>
     <t xml:space="preserve">2.24034905433655</t>
@@ -710,7 +710,7 @@
     <t xml:space="preserve">2.23275518417358</t>
   </si>
   <si>
-    <t xml:space="preserve">2.22895789146423</t>
+    <t xml:space="preserve">2.22895812988281</t>
   </si>
   <si>
     <t xml:space="preserve">2.21376919746399</t>
@@ -722,127 +722,130 @@
     <t xml:space="preserve">2.27452445030212</t>
   </si>
   <si>
-    <t xml:space="preserve">2.24288129806519</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.23908400535583</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.27832126617432</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.26946139335632</t>
+    <t xml:space="preserve">2.24288082122803</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.23908424377441</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.2783215045929</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.26946115493774</t>
   </si>
   <si>
     <t xml:space="preserve">2.27325868606567</t>
   </si>
   <si>
-    <t xml:space="preserve">2.29224491119385</t>
+    <t xml:space="preserve">2.29224467277527</t>
   </si>
   <si>
     <t xml:space="preserve">2.34160828590393</t>
   </si>
   <si>
-    <t xml:space="preserve">2.34920263290405</t>
+    <t xml:space="preserve">2.34920287132263</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.39350366592407</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.4227409362793</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.4094512462616</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.3961615562439</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.37755560874939</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.31642246246338</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.31243538856506</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.35230469703674</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.31376433372498</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.30047464370728</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.3655948638916</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.38154292106628</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.40014815330505</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.41476702690125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.43204402923584</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.41875433921814</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.3629367351532</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.40147757530212</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.40812230110168</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.4253990650177</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.43071484565735</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.40413546562195</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.392174243927</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.41210961341858</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.41343832015991</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.40679335594177</t>
   </si>
   <si>
     <t xml:space="preserve">2.39350342750549</t>
   </si>
   <si>
-    <t xml:space="preserve">2.42274117469788</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.40945100784302</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.39616179466248</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.37755584716797</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.3164222240448</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.31243538856506</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.35230445861816</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.31376457214355</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.30047416687012</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.36559462547302</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.38154268264771</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.40014839172363</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.41476726531982</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.43204379081726</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.41875433921814</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.3629367351532</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.40147757530212</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.40812253952026</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.4253990650177</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.43071484565735</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.40413522720337</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.392174243927</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.41210961341858</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.41343855857849</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.40679359436035</t>
-  </si>
-  <si>
     <t xml:space="preserve">2.47058486938477</t>
   </si>
   <si>
     <t xml:space="preserve">2.38951635360718</t>
   </si>
   <si>
-    <t xml:space="preserve">2.37489771842957</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.35762095451355</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.3589494228363</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.31509351730347</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.30579042434692</t>
+    <t xml:space="preserve">2.37489748001099</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.35762071609497</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.35894989967346</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.31509304046631</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.3057906627655</t>
   </si>
   <si>
     <t xml:space="preserve">2.33104109764099</t>
@@ -851,7 +854,7 @@
     <t xml:space="preserve">2.32173800468445</t>
   </si>
   <si>
-    <t xml:space="preserve">2.31908059120178</t>
+    <t xml:space="preserve">2.3190803527832</t>
   </si>
   <si>
     <t xml:space="preserve">2.32306694984436</t>
@@ -860,7 +863,7 @@
     <t xml:space="preserve">2.32838296890259</t>
   </si>
   <si>
-    <t xml:space="preserve">2.30446124076843</t>
+    <t xml:space="preserve">2.30446171760559</t>
   </si>
   <si>
     <t xml:space="preserve">2.26592063903809</t>
@@ -875,25 +878,25 @@
     <t xml:space="preserve">2.29250073432922</t>
   </si>
   <si>
-    <t xml:space="preserve">2.30180358886719</t>
+    <t xml:space="preserve">2.30180335044861</t>
   </si>
   <si>
     <t xml:space="preserve">2.38552951812744</t>
   </si>
   <si>
-    <t xml:space="preserve">2.38021349906921</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.39084577560425</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.37622666358948</t>
+    <t xml:space="preserve">2.38021373748779</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.39084553718567</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.3762264251709</t>
   </si>
   <si>
     <t xml:space="preserve">2.35629177093506</t>
   </si>
   <si>
-    <t xml:space="preserve">2.33901476860046</t>
+    <t xml:space="preserve">2.33901524543762</t>
   </si>
   <si>
     <t xml:space="preserve">2.34034395217896</t>
@@ -908,28 +911,28 @@
     <t xml:space="preserve">2.30977749824524</t>
   </si>
   <si>
-    <t xml:space="preserve">2.35496306419373</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.43470215797424</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.39881920814514</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.42141175270081</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.34698891639709</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.34831786155701</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.33502793312073</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.32971215248108</t>
+    <t xml:space="preserve">2.35496282577515</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.43470191955566</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.39881944656372</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.42141246795654</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.34698915481567</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.34831762313843</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.33502817153931</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.3297119140625</t>
   </si>
   <si>
     <t xml:space="preserve">2.39483237266541</t>
@@ -938,7 +941,7 @@
     <t xml:space="preserve">2.37223958969116</t>
   </si>
   <si>
-    <t xml:space="preserve">2.39749050140381</t>
+    <t xml:space="preserve">2.39749026298523</t>
   </si>
   <si>
     <t xml:space="preserve">2.36825275421143</t>
@@ -947,16 +950,16 @@
     <t xml:space="preserve">2.41742539405823</t>
   </si>
   <si>
-    <t xml:space="preserve">2.43603086471558</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.47191381454468</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.48254537582397</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.53437566757202</t>
+    <t xml:space="preserve">2.43603110313416</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.4719135761261</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.48254561424255</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.5343759059906</t>
   </si>
   <si>
     <t xml:space="preserve">2.51311230659485</t>
@@ -965,19 +968,19 @@
     <t xml:space="preserve">2.51178312301636</t>
   </si>
   <si>
-    <t xml:space="preserve">2.54367876052856</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.45197868347168</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.45729494094849</t>
+    <t xml:space="preserve">2.54367899894714</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.45197892189026</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.45729470252991</t>
   </si>
   <si>
     <t xml:space="preserve">2.40546417236328</t>
   </si>
   <si>
-    <t xml:space="preserve">2.42938613891602</t>
+    <t xml:space="preserve">2.42938590049744</t>
   </si>
   <si>
     <t xml:space="preserve">2.47324252128601</t>
@@ -992,40 +995,40 @@
     <t xml:space="preserve">2.42672801017761</t>
   </si>
   <si>
-    <t xml:space="preserve">2.44932079315186</t>
+    <t xml:space="preserve">2.44932055473328</t>
   </si>
   <si>
     <t xml:space="preserve">2.3788845539093</t>
   </si>
   <si>
-    <t xml:space="preserve">2.42872142791748</t>
+    <t xml:space="preserve">2.42872166633606</t>
   </si>
   <si>
     <t xml:space="preserve">2.44533395767212</t>
   </si>
   <si>
-    <t xml:space="preserve">2.43868899345398</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.44201135635376</t>
+    <t xml:space="preserve">2.4386887550354</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.44201111793518</t>
   </si>
   <si>
     <t xml:space="preserve">2.38220715522766</t>
   </si>
   <si>
-    <t xml:space="preserve">2.19282650947571</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.09979772567749</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.15960216522217</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.12969970703125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.09315276145935</t>
+    <t xml:space="preserve">2.19282674789429</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.09979724884033</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.15960168838501</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.12969946861267</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.09315252304077</t>
   </si>
   <si>
     <t xml:space="preserve">2.14631223678589</t>
@@ -1037,25 +1040,25 @@
     <t xml:space="preserve">2.17289161682129</t>
   </si>
   <si>
-    <t xml:space="preserve">2.17953658103943</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.12305498123169</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.10644245147705</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.08318543434143</t>
+    <t xml:space="preserve">2.17953634262085</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.12305474281311</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.10644268989563</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.08318519592285</t>
   </si>
   <si>
     <t xml:space="preserve">2.07321763038635</t>
   </si>
   <si>
-    <t xml:space="preserve">2.03334832191467</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.06989550590515</t>
+    <t xml:space="preserve">2.03334808349609</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.06989526748657</t>
   </si>
   <si>
     <t xml:space="preserve">2.07986259460449</t>
@@ -1064,25 +1067,25 @@
     <t xml:space="preserve">2.10311985015869</t>
   </si>
   <si>
-    <t xml:space="preserve">2.14298939704895</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.09647488594055</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.12637758255005</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.13302206993103</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.18285942077637</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.16292428970337</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.11640977859497</t>
+    <t xml:space="preserve">2.14298987388611</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.09647536277771</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.12637710571289</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.13302230834961</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.18285918235779</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.16292452812195</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.11641001701355</t>
   </si>
   <si>
     <t xml:space="preserve">2.11973237991333</t>
@@ -1094,40 +1097,40 @@
     <t xml:space="preserve">2.16624689102173</t>
   </si>
   <si>
-    <t xml:space="preserve">2.19947147369385</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.17621421813965</t>
+    <t xml:space="preserve">2.19947123527527</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.17621397972107</t>
   </si>
   <si>
     <t xml:space="preserve">2.18618154525757</t>
   </si>
   <si>
-    <t xml:space="preserve">2.20943903923035</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.21276140213013</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.25927591323853</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.34565997123718</t>
+    <t xml:space="preserve">2.20943880081177</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.21276164054871</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.2592761516571</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.3456597328186</t>
   </si>
   <si>
     <t xml:space="preserve">2.3290479183197</t>
   </si>
   <si>
-    <t xml:space="preserve">2.34655904769897</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.44279026985168</t>
+    <t xml:space="preserve">2.34655928611755</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.44278979301453</t>
   </si>
   <si>
     <t xml:space="preserve">2.39837622642517</t>
   </si>
   <si>
-    <t xml:space="preserve">2.36876654624939</t>
+    <t xml:space="preserve">2.36876630783081</t>
   </si>
   <si>
     <t xml:space="preserve">2.4131805896759</t>
@@ -1136,7 +1139,7 @@
     <t xml:space="preserve">2.3539617061615</t>
   </si>
   <si>
-    <t xml:space="preserve">2.31694960594177</t>
+    <t xml:space="preserve">2.31694936752319</t>
   </si>
   <si>
     <t xml:space="preserve">2.30584597587585</t>
@@ -1145,67 +1148,67 @@
     <t xml:space="preserve">2.29844379425049</t>
   </si>
   <si>
-    <t xml:space="preserve">2.29104137420654</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.27993750572205</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.26143193244934</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.22441959381104</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.12818837165833</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.18370699882507</t>
+    <t xml:space="preserve">2.29104113578796</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.27993774414062</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.26143145561218</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.22441983222961</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.1281886100769</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.18370652198792</t>
   </si>
   <si>
     <t xml:space="preserve">2.23182225227356</t>
   </si>
   <si>
-    <t xml:space="preserve">2.22071838378906</t>
+    <t xml:space="preserve">2.22071862220764</t>
   </si>
   <si>
     <t xml:space="preserve">2.20591378211975</t>
   </si>
   <si>
-    <t xml:space="preserve">2.18000531196594</t>
+    <t xml:space="preserve">2.18000507354736</t>
   </si>
   <si>
     <t xml:space="preserve">2.25773048400879</t>
   </si>
   <si>
-    <t xml:space="preserve">2.26513290405273</t>
+    <t xml:space="preserve">2.26513266563416</t>
   </si>
   <si>
     <t xml:space="preserve">2.2022123336792</t>
   </si>
   <si>
-    <t xml:space="preserve">2.2133162021637</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.21701693534851</t>
+    <t xml:space="preserve">2.21331596374512</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.21701741218567</t>
   </si>
   <si>
     <t xml:space="preserve">2.16149926185608</t>
   </si>
   <si>
-    <t xml:space="preserve">2.26883387565613</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.24662709236145</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.18740773200989</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.16890168190002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.15779829025269</t>
+    <t xml:space="preserve">2.26883411407471</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.24662685394287</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.18740725517273</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.1689019203186</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.15779781341553</t>
   </si>
   <si>
     <t xml:space="preserve">2.13929224014282</t>
@@ -1217,16 +1220,16 @@
     <t xml:space="preserve">2.12078595161438</t>
   </si>
   <si>
-    <t xml:space="preserve">2.12448740005493</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.14669442176819</t>
+    <t xml:space="preserve">2.12448716163635</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.14669466018677</t>
   </si>
   <si>
     <t xml:space="preserve">2.11708474159241</t>
   </si>
   <si>
-    <t xml:space="preserve">2.10968255996704</t>
+    <t xml:space="preserve">2.10968232154846</t>
   </si>
   <si>
     <t xml:space="preserve">2.32435202598572</t>
@@ -1244,10 +1247,10 @@
     <t xml:space="preserve">2.48350358009338</t>
   </si>
   <si>
-    <t xml:space="preserve">2.47980213165283</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.41688179969788</t>
+    <t xml:space="preserve">2.47980237007141</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.41688203811646</t>
   </si>
   <si>
     <t xml:space="preserve">2.42058300971985</t>
@@ -1256,13 +1259,13 @@
     <t xml:space="preserve">2.40577840805054</t>
   </si>
   <si>
-    <t xml:space="preserve">2.36506533622742</t>
+    <t xml:space="preserve">2.36506509780884</t>
   </si>
   <si>
     <t xml:space="preserve">2.32065081596375</t>
   </si>
   <si>
-    <t xml:space="preserve">2.29474258422852</t>
+    <t xml:space="preserve">2.29474234580994</t>
   </si>
   <si>
     <t xml:space="preserve">2.23922443389893</t>
@@ -1271,10 +1274,10 @@
     <t xml:space="preserve">2.30954694747925</t>
   </si>
   <si>
-    <t xml:space="preserve">2.27623629570007</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.28363871574402</t>
+    <t xml:space="preserve">2.27623653411865</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.2836389541626</t>
   </si>
   <si>
     <t xml:space="preserve">2.30214476585388</t>
@@ -1283,31 +1286,28 @@
     <t xml:space="preserve">2.3132483959198</t>
   </si>
   <si>
-    <t xml:space="preserve">2.342857837677</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.33915710449219</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.33545565605164</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.34655928611755</t>
+    <t xml:space="preserve">2.34285807609558</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.33915686607361</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.33545541763306</t>
   </si>
   <si>
     <t xml:space="preserve">2.2429256439209</t>
   </si>
   <si>
-    <t xml:space="preserve">2.17630386352539</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.19110894203186</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.23552346229553</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.08747529983521</t>
+    <t xml:space="preserve">2.17630410194397</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.19110918045044</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.23552322387695</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.08747577667236</t>
   </si>
   <si>
     <t xml:space="preserve">2.15039587020874</t>
@@ -1319,7 +1319,7 @@
     <t xml:space="preserve">2.25402927398682</t>
   </si>
   <si>
-    <t xml:space="preserve">2.27253484725952</t>
+    <t xml:space="preserve">2.27253532409668</t>
   </si>
   <si>
     <t xml:space="preserve">2.25032782554626</t>
@@ -1331,22 +1331,22 @@
     <t xml:space="preserve">2.40207695960999</t>
   </si>
   <si>
-    <t xml:space="preserve">2.43168711662292</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.3835711479187</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.35766267776489</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.37616848945618</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.37986993789673</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.42428421974182</t>
+    <t xml:space="preserve">2.43168687820435</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.38357090950012</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.35766243934631</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.37616872787476</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.37986969947815</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.4242844581604</t>
   </si>
   <si>
     <t xml:space="preserve">2.42798542976379</t>
@@ -1358,40 +1358,40 @@
     <t xml:space="preserve">2.45019268989563</t>
   </si>
   <si>
-    <t xml:space="preserve">2.50200986862183</t>
+    <t xml:space="preserve">2.50200939178467</t>
   </si>
   <si>
     <t xml:space="preserve">2.49460697174072</t>
   </si>
   <si>
-    <t xml:space="preserve">2.49090600013733</t>
+    <t xml:space="preserve">2.49090552330017</t>
   </si>
   <si>
     <t xml:space="preserve">2.51311302185059</t>
   </si>
   <si>
-    <t xml:space="preserve">2.49830842018127</t>
+    <t xml:space="preserve">2.4983081817627</t>
   </si>
   <si>
     <t xml:space="preserve">2.50571060180664</t>
   </si>
   <si>
-    <t xml:space="preserve">2.56122875213623</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.53161931037903</t>
+    <t xml:space="preserve">2.56122851371765</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.53161907196045</t>
   </si>
   <si>
     <t xml:space="preserve">2.5686309337616</t>
   </si>
   <si>
-    <t xml:space="preserve">2.5279176235199</t>
+    <t xml:space="preserve">2.52791810035706</t>
   </si>
   <si>
     <t xml:space="preserve">2.53902149200439</t>
   </si>
   <si>
-    <t xml:space="preserve">2.52051520347595</t>
+    <t xml:space="preserve">2.52051544189453</t>
   </si>
   <si>
     <t xml:space="preserve">2.5242166519165</t>
@@ -1403,25 +1403,25 @@
     <t xml:space="preserve">2.55382633209229</t>
   </si>
   <si>
-    <t xml:space="preserve">2.57603359222412</t>
+    <t xml:space="preserve">2.57603335380554</t>
   </si>
   <si>
     <t xml:space="preserve">2.60194182395935</t>
   </si>
   <si>
-    <t xml:space="preserve">2.59083819389343</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.57973456382751</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.62785005569458</t>
+    <t xml:space="preserve">2.59083843231201</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.57973480224609</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.627849817276</t>
   </si>
   <si>
     <t xml:space="preserve">2.64635634422302</t>
   </si>
   <si>
-    <t xml:space="preserve">2.64265489578247</t>
+    <t xml:space="preserve">2.64265513420105</t>
   </si>
   <si>
     <t xml:space="preserve">2.63895392417908</t>
@@ -1430,7 +1430,7 @@
     <t xml:space="preserve">2.65745973587036</t>
   </si>
   <si>
-    <t xml:space="preserve">2.67226433753967</t>
+    <t xml:space="preserve">2.67226457595825</t>
   </si>
   <si>
     <t xml:space="preserve">2.71297788619995</t>
@@ -1439,7 +1439,7 @@
     <t xml:space="preserve">2.72778224945068</t>
   </si>
   <si>
-    <t xml:space="preserve">2.70187401771545</t>
+    <t xml:space="preserve">2.70187425613403</t>
   </si>
   <si>
     <t xml:space="preserve">2.69077038764954</t>
@@ -1448,28 +1448,28 @@
     <t xml:space="preserve">2.74258732795715</t>
   </si>
   <si>
-    <t xml:space="preserve">2.75739216804504</t>
+    <t xml:space="preserve">2.75739192962646</t>
   </si>
   <si>
     <t xml:space="preserve">2.82401371002197</t>
   </si>
   <si>
-    <t xml:space="preserve">2.8203125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.84992218017578</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.83881855010986</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.02654099464417</t>
+    <t xml:space="preserve">2.82031226158142</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.8499219417572</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.83881878852844</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.02654075622559</t>
   </si>
   <si>
     <t xml:space="preserve">2.74035239219666</t>
   </si>
   <si>
-    <t xml:space="preserve">2.73643231391907</t>
+    <t xml:space="preserve">2.73643207550049</t>
   </si>
   <si>
     <t xml:space="preserve">2.68938755989075</t>
@@ -1478,37 +1478,37 @@
     <t xml:space="preserve">2.70898938179016</t>
   </si>
   <si>
-    <t xml:space="preserve">2.68154692649841</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.75603413581848</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.84228277206421</t>
+    <t xml:space="preserve">2.68154668807983</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.75603437423706</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.84228253364563</t>
   </si>
   <si>
     <t xml:space="preserve">2.79915833473206</t>
   </si>
   <si>
-    <t xml:space="preserve">2.82268047332764</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.78347659111023</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.77563571929932</t>
+    <t xml:space="preserve">2.82268071174622</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.78347682952881</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.7756359577179</t>
   </si>
   <si>
     <t xml:space="preserve">2.76779532432556</t>
   </si>
   <si>
-    <t xml:space="preserve">2.79131770133972</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.78739738464355</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.84620332717896</t>
+    <t xml:space="preserve">2.79131746292114</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.78739714622498</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.84620308876038</t>
   </si>
   <si>
     <t xml:space="preserve">2.85796427726746</t>
@@ -1520,34 +1520,34 @@
     <t xml:space="preserve">2.83444166183472</t>
   </si>
   <si>
-    <t xml:space="preserve">2.85012340545654</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.86188459396362</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.87364602088928</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.99517774581909</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.92461061477661</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.95597410202026</t>
+    <t xml:space="preserve">2.85012316703796</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.8618848323822</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.8736457824707</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.99517750740051</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.92461085319519</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.95597386360168</t>
   </si>
   <si>
     <t xml:space="preserve">2.97165560722351</t>
   </si>
   <si>
-    <t xml:space="preserve">2.94813323020935</t>
+    <t xml:space="preserve">2.94813299179077</t>
   </si>
   <si>
     <t xml:space="preserve">2.94029235839844</t>
   </si>
   <si>
-    <t xml:space="preserve">2.9638147354126</t>
+    <t xml:space="preserve">2.96381449699402</t>
   </si>
   <si>
     <t xml:space="preserve">2.95989441871643</t>
@@ -1559,13 +1559,13 @@
     <t xml:space="preserve">3.10494899749756</t>
   </si>
   <si>
-    <t xml:space="preserve">3.06966543197632</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.03830194473267</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.07750582695007</t>
+    <t xml:space="preserve">3.06966519355774</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.03830242156982</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.07750606536865</t>
   </si>
   <si>
     <t xml:space="preserve">3.13631200790405</t>
@@ -1577,22 +1577,22 @@
     <t xml:space="preserve">3.18335652351379</t>
   </si>
   <si>
-    <t xml:space="preserve">3.23824191093445</t>
+    <t xml:space="preserve">3.23824214935303</t>
   </si>
   <si>
     <t xml:space="preserve">3.25000309944153</t>
   </si>
   <si>
-    <t xml:space="preserve">3.25392365455627</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.2696053981781</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.30096817016602</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.33233141899109</t>
+    <t xml:space="preserve">3.2539234161377</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.26960515975952</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.30096840858459</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.33233118057251</t>
   </si>
   <si>
     <t xml:space="preserve">3.31272912025452</t>
@@ -1601,7 +1601,7 @@
     <t xml:space="preserve">3.27744603157043</t>
   </si>
   <si>
-    <t xml:space="preserve">3.20687890052795</t>
+    <t xml:space="preserve">3.20687913894653</t>
   </si>
   <si>
     <t xml:space="preserve">3.22648072242737</t>
@@ -1610,7 +1610,7 @@
     <t xml:space="preserve">3.25784397125244</t>
   </si>
   <si>
-    <t xml:space="preserve">3.24216294288635</t>
+    <t xml:space="preserve">3.24216270446777</t>
   </si>
   <si>
     <t xml:space="preserve">3.19119739532471</t>
@@ -1619,7 +1619,7 @@
     <t xml:space="preserve">3.14023232460022</t>
   </si>
   <si>
-    <t xml:space="preserve">3.12847137451172</t>
+    <t xml:space="preserve">3.12847113609314</t>
   </si>
   <si>
     <t xml:space="preserve">3.11670994758606</t>
@@ -1628,22 +1628,22 @@
     <t xml:space="preserve">3.05006337165833</t>
   </si>
   <si>
-    <t xml:space="preserve">3.05398392677307</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.21864032745361</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.21472001075745</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.16375470161438</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.14807271957397</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.04222249984741</t>
+    <t xml:space="preserve">3.05398368835449</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.21864008903503</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.21471953392029</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.1637544631958</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.14807319641113</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.04222273826599</t>
   </si>
   <si>
     <t xml:space="preserve">3.12063026428223</t>
@@ -1655,7 +1655,7 @@
     <t xml:space="preserve">3.08534669876099</t>
   </si>
   <si>
-    <t xml:space="preserve">3.08926725387573</t>
+    <t xml:space="preserve">3.08926749229431</t>
   </si>
   <si>
     <t xml:space="preserve">3.11278963088989</t>
@@ -1664,25 +1664,25 @@
     <t xml:space="preserve">3.10102844238281</t>
   </si>
   <si>
-    <t xml:space="preserve">2.98341655731201</t>
+    <t xml:space="preserve">2.98341703414917</t>
   </si>
   <si>
     <t xml:space="preserve">2.88148665428162</t>
   </si>
   <si>
-    <t xml:space="preserve">2.93637204170227</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.97557592391968</t>
+    <t xml:space="preserve">2.93637180328369</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.97557616233826</t>
   </si>
   <si>
     <t xml:space="preserve">2.98733711242676</t>
   </si>
   <si>
-    <t xml:space="preserve">2.97949600219727</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.99909830093384</t>
+    <t xml:space="preserve">2.97949647903442</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.99909806251526</t>
   </si>
   <si>
     <t xml:space="preserve">3.00301861763</t>
@@ -1691,16 +1691,16 @@
     <t xml:space="preserve">3.05790424346924</t>
   </si>
   <si>
-    <t xml:space="preserve">3.0343816280365</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.06574511528015</t>
+    <t xml:space="preserve">3.03438186645508</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.06574487686157</t>
   </si>
   <si>
     <t xml:space="preserve">3.04614281654358</t>
   </si>
   <si>
-    <t xml:space="preserve">3.03046131134033</t>
+    <t xml:space="preserve">3.03046154975891</t>
   </si>
   <si>
     <t xml:space="preserve">2.93245148658752</t>
@@ -1709,7 +1709,7 @@
     <t xml:space="preserve">2.91284966468811</t>
   </si>
   <si>
-    <t xml:space="preserve">2.90108871459961</t>
+    <t xml:space="preserve">2.90108823776245</t>
   </si>
   <si>
     <t xml:space="preserve">2.94421291351318</t>
@@ -1718,13 +1718,13 @@
     <t xml:space="preserve">2.89324760437012</t>
   </si>
   <si>
-    <t xml:space="preserve">3.01870036125183</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.15199327468872</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.17551589012146</t>
+    <t xml:space="preserve">3.01870012283325</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.1519935131073</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.17551612854004</t>
   </si>
   <si>
     <t xml:space="preserve">3.09710788726807</t>
@@ -1733,7 +1733,7 @@
     <t xml:space="preserve">3.10886907577515</t>
   </si>
   <si>
-    <t xml:space="preserve">3.022620677948</t>
+    <t xml:space="preserve">3.02262043952942</t>
   </si>
   <si>
     <t xml:space="preserve">3.01085925102234</t>
@@ -1742,10 +1742,10 @@
     <t xml:space="preserve">2.91677021980286</t>
   </si>
   <si>
-    <t xml:space="preserve">2.95205354690552</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.9912576675415</t>
+    <t xml:space="preserve">2.9520537853241</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.99125742912292</t>
   </si>
   <si>
     <t xml:space="preserve">3.13239145278931</t>
@@ -1766,37 +1766,37 @@
     <t xml:space="preserve">3.52443027496338</t>
   </si>
   <si>
-    <t xml:space="preserve">3.58715653419495</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.61459946632385</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.51658987998962</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.42250037193298</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.39505767822266</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.37937617301941</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.43818211555481</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.48130631446838</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.45386362075806</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.28920745849609</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.26176404953003</t>
+    <t xml:space="preserve">3.5871570110321</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.61459970474243</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.51658964157104</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.42249989509583</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.39505791664124</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.37937593460083</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.43818235397339</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.48130583763123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.45386385917664</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.28920722007751</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.26176428794861</t>
   </si>
   <si>
     <t xml:space="preserve">3.21079921722412</t>
@@ -1805,16 +1805,16 @@
     <t xml:space="preserve">3.0814266204834</t>
   </si>
   <si>
-    <t xml:space="preserve">3.26568460464478</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.23432159423828</t>
+    <t xml:space="preserve">3.26568484306335</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.23432183265686</t>
   </si>
   <si>
     <t xml:space="preserve">3.19511747360229</t>
   </si>
   <si>
-    <t xml:space="preserve">2.69722843170166</t>
+    <t xml:space="preserve">2.69722819328308</t>
   </si>
   <si>
     <t xml:space="preserve">2.13269209861755</t>
@@ -1823,22 +1823,22 @@
     <t xml:space="preserve">2.36399531364441</t>
   </si>
   <si>
-    <t xml:space="preserve">2.45024371147156</t>
+    <t xml:space="preserve">2.45024347305298</t>
   </si>
   <si>
     <t xml:space="preserve">2.49336814880371</t>
   </si>
   <si>
-    <t xml:space="preserve">2.50512933731079</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.55217361450195</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.61882042884827</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.60313892364502</t>
+    <t xml:space="preserve">2.50512886047363</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.55217385292053</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.61882019042969</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.60313868522644</t>
   </si>
   <si>
     <t xml:space="preserve">2.63450193405151</t>
@@ -1850,7 +1850,7 @@
     <t xml:space="preserve">2.54433298110962</t>
   </si>
   <si>
-    <t xml:space="preserve">2.51689004898071</t>
+    <t xml:space="preserve">2.51689028739929</t>
   </si>
   <si>
     <t xml:space="preserve">2.63842248916626</t>
@@ -1865,19 +1865,19 @@
     <t xml:space="preserve">2.46984577178955</t>
   </si>
   <si>
-    <t xml:space="preserve">2.51296997070312</t>
+    <t xml:space="preserve">2.51296973228455</t>
   </si>
   <si>
     <t xml:space="preserve">2.53257203102112</t>
   </si>
   <si>
-    <t xml:space="preserve">2.54041290283203</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.52865123748779</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.54825353622437</t>
+    <t xml:space="preserve">2.54041266441345</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.52865147590637</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.54825329780579</t>
   </si>
   <si>
     <t xml:space="preserve">2.52473115921021</t>
@@ -1886,7 +1886,7 @@
     <t xml:space="preserve">2.57177567481995</t>
   </si>
   <si>
-    <t xml:space="preserve">2.58745718002319</t>
+    <t xml:space="preserve">2.58745741844177</t>
   </si>
   <si>
     <t xml:space="preserve">2.64234256744385</t>
@@ -1895,16 +1895,16 @@
     <t xml:space="preserve">2.61097955703735</t>
   </si>
   <si>
-    <t xml:space="preserve">2.65018391609192</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.62274098396301</t>
+    <t xml:space="preserve">2.65018367767334</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.62274074554443</t>
   </si>
   <si>
     <t xml:space="preserve">2.6266610622406</t>
   </si>
   <si>
-    <t xml:space="preserve">2.72075057029724</t>
+    <t xml:space="preserve">2.72075080871582</t>
   </si>
   <si>
     <t xml:space="preserve">2.92069053649902</t>
@@ -1916,31 +1916,31 @@
     <t xml:space="preserve">3.44994330406189</t>
   </si>
   <si>
-    <t xml:space="preserve">3.43426156044006</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.50703978538513</t>
+    <t xml:space="preserve">3.43426179885864</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.50704002380371</t>
   </si>
   <si>
     <t xml:space="preserve">3.32983326911926</t>
   </si>
   <si>
-    <t xml:space="preserve">3.25565409660339</t>
+    <t xml:space="preserve">3.25565361976624</t>
   </si>
   <si>
     <t xml:space="preserve">3.14438462257385</t>
   </si>
   <si>
-    <t xml:space="preserve">3.14026355743408</t>
+    <t xml:space="preserve">3.1402633190155</t>
   </si>
   <si>
     <t xml:space="preserve">3.21444320678711</t>
   </si>
   <si>
-    <t xml:space="preserve">3.24741172790527</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.1938374042511</t>
+    <t xml:space="preserve">3.24741196632385</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.19383764266968</t>
   </si>
   <si>
     <t xml:space="preserve">3.22680616378784</t>
@@ -1949,37 +1949,37 @@
     <t xml:space="preserve">3.2721381187439</t>
   </si>
   <si>
-    <t xml:space="preserve">3.21856379508972</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.11141633987427</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.06196284294128</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.08256840705872</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.09081077575684</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.11965799331665</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.08668947219849</t>
+    <t xml:space="preserve">3.2185640335083</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.11141610145569</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.06196308135986</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.08256816864014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.09081053733826</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.11965823173523</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.08668923377991</t>
   </si>
   <si>
     <t xml:space="preserve">3.05784201622009</t>
   </si>
   <si>
-    <t xml:space="preserve">3.04135775566101</t>
+    <t xml:space="preserve">3.04135751724243</t>
   </si>
   <si>
     <t xml:space="preserve">3.00014686584473</t>
   </si>
   <si>
-    <t xml:space="preserve">2.94245171546936</t>
+    <t xml:space="preserve">2.94245147705078</t>
   </si>
   <si>
     <t xml:space="preserve">2.91360425949097</t>
@@ -1997,37 +1997,37 @@
     <t xml:space="preserve">2.90536212921143</t>
   </si>
   <si>
-    <t xml:space="preserve">2.86827230453491</t>
+    <t xml:space="preserve">2.86827206611633</t>
   </si>
   <si>
     <t xml:space="preserve">2.78997159004211</t>
   </si>
   <si>
-    <t xml:space="preserve">2.92184615135193</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.87651419639587</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.89299893379211</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.80233526229858</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.76112413406372</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.74463963508606</t>
+    <t xml:space="preserve">2.92184638977051</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.87651443481445</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.89299869537354</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.80233502388</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.76112389564514</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.74463987350464</t>
   </si>
   <si>
     <t xml:space="preserve">2.7528817653656</t>
   </si>
   <si>
-    <t xml:space="preserve">2.7116711139679</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.73227643966675</t>
+    <t xml:space="preserve">2.71167087554932</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.73227667808533</t>
   </si>
   <si>
     <t xml:space="preserve">2.82706141471863</t>
@@ -2039,10 +2039,10 @@
     <t xml:space="preserve">2.86003017425537</t>
   </si>
   <si>
-    <t xml:space="preserve">2.81469821929932</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.81057715415955</t>
+    <t xml:space="preserve">2.81469798088074</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.81057691574097</t>
   </si>
   <si>
     <t xml:space="preserve">2.76524519920349</t>
@@ -2066,10 +2066,10 @@
     <t xml:space="preserve">2.75700306892395</t>
   </si>
   <si>
-    <t xml:space="preserve">2.77348732948303</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.74876070022583</t>
+    <t xml:space="preserve">2.77348756790161</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.74876093864441</t>
   </si>
   <si>
     <t xml:space="preserve">2.71991324424744</t>
@@ -2084,28 +2084,28 @@
     <t xml:space="preserve">2.88475656509399</t>
   </si>
   <si>
-    <t xml:space="preserve">2.64573359489441</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.64985489845276</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.66221809387207</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.60864400863647</t>
+    <t xml:space="preserve">2.64573383331299</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.64985466003418</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.66221833229065</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.6086437702179</t>
   </si>
   <si>
     <t xml:space="preserve">2.63337063789368</t>
   </si>
   <si>
-    <t xml:space="preserve">2.62100720405579</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.62512850761414</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.59215998649597</t>
+    <t xml:space="preserve">2.62100744247437</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.62512826919556</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.59215974807739</t>
   </si>
   <si>
     <t xml:space="preserve">2.60452318191528</t>
@@ -2114,13 +2114,13 @@
     <t xml:space="preserve">2.62924957275391</t>
   </si>
   <si>
-    <t xml:space="preserve">2.64161276817322</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.61276507377625</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.58391785621643</t>
+    <t xml:space="preserve">2.64161252975464</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.61276531219482</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.58391761779785</t>
   </si>
   <si>
     <t xml:space="preserve">2.59628081321716</t>
@@ -2132,16 +2132,16 @@
     <t xml:space="preserve">2.49737477302551</t>
   </si>
   <si>
-    <t xml:space="preserve">2.57155418395996</t>
+    <t xml:space="preserve">2.57155442237854</t>
   </si>
   <si>
     <t xml:space="preserve">2.51385927200317</t>
   </si>
   <si>
-    <t xml:space="preserve">2.48913264274597</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.50561714172363</t>
+    <t xml:space="preserve">2.48913288116455</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.50561738014221</t>
   </si>
   <si>
     <t xml:space="preserve">2.46852731704712</t>
@@ -2165,31 +2165,31 @@
     <t xml:space="preserve">2.47676944732666</t>
   </si>
   <si>
-    <t xml:space="preserve">2.69518685340881</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.74051880836487</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.86415100097656</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.88887786865234</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.89711976051331</t>
+    <t xml:space="preserve">2.69518661499023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.74051904678345</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.86415076255798</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.88887763023376</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.89711999893188</t>
   </si>
   <si>
     <t xml:space="preserve">2.84766674041748</t>
   </si>
   <si>
-    <t xml:space="preserve">2.84354567527771</t>
+    <t xml:space="preserve">2.84354591369629</t>
   </si>
   <si>
     <t xml:space="preserve">2.81881928443909</t>
   </si>
   <si>
-    <t xml:space="preserve">2.83530378341675</t>
+    <t xml:space="preserve">2.83530354499817</t>
   </si>
   <si>
     <t xml:space="preserve">2.83118224143982</t>
@@ -2204,13 +2204,13 @@
     <t xml:space="preserve">2.99602556228638</t>
   </si>
   <si>
-    <t xml:space="preserve">3.02487349510193</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.00838899612427</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.05372071266174</t>
+    <t xml:space="preserve">3.02487373352051</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.00838923454285</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.05372095108032</t>
   </si>
   <si>
     <t xml:space="preserve">3.06608414649963</t>
@@ -2219,10 +2219,10 @@
     <t xml:space="preserve">3.16498994827271</t>
   </si>
   <si>
-    <t xml:space="preserve">3.10317373275757</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.10729479789734</t>
+    <t xml:space="preserve">3.10317397117615</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.10729503631592</t>
   </si>
   <si>
     <t xml:space="preserve">2.97542023658752</t>
@@ -2234,16 +2234,16 @@
     <t xml:space="preserve">2.98366236686707</t>
   </si>
   <si>
-    <t xml:space="preserve">2.95481491088867</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.98778367042542</t>
+    <t xml:space="preserve">2.95481514930725</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.98778343200684</t>
   </si>
   <si>
     <t xml:space="preserve">3.02075219154358</t>
   </si>
   <si>
-    <t xml:space="preserve">3.07844734191895</t>
+    <t xml:space="preserve">3.07844758033752</t>
   </si>
   <si>
     <t xml:space="preserve">3.0454785823822</t>
@@ -2252,16 +2252,16 @@
     <t xml:space="preserve">3.04959964752197</t>
   </si>
   <si>
-    <t xml:space="preserve">3.03723669052124</t>
+    <t xml:space="preserve">3.03723645210266</t>
   </si>
   <si>
     <t xml:space="preserve">3.09905242919922</t>
   </si>
   <si>
-    <t xml:space="preserve">3.09493160247803</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.01251006126404</t>
+    <t xml:space="preserve">3.09493184089661</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.01250982284546</t>
   </si>
   <si>
     <t xml:space="preserve">2.96305704116821</t>
@@ -2270,7 +2270,7 @@
     <t xml:space="preserve">3.0042679309845</t>
   </si>
   <si>
-    <t xml:space="preserve">3.0702052116394</t>
+    <t xml:space="preserve">3.07020497322083</t>
   </si>
   <si>
     <t xml:space="preserve">3.14850544929504</t>
@@ -2282,22 +2282,22 @@
     <t xml:space="preserve">3.16911101341248</t>
   </si>
   <si>
-    <t xml:space="preserve">3.18559527397156</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.15262675285339</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.11553716659546</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.13202118873596</t>
+    <t xml:space="preserve">3.18559551239014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.15262651443481</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.11553692817688</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.13202142715454</t>
   </si>
   <si>
     <t xml:space="preserve">3.12790036201477</t>
   </si>
   <si>
-    <t xml:space="preserve">3.22268533706665</t>
+    <t xml:space="preserve">3.22268509864807</t>
   </si>
   <si>
     <t xml:space="preserve">3.19795870780945</t>
@@ -2306,7 +2306,7 @@
     <t xml:space="preserve">3.17323207855225</t>
   </si>
   <si>
-    <t xml:space="preserve">3.20620107650757</t>
+    <t xml:space="preserve">3.20620083808899</t>
   </si>
   <si>
     <t xml:space="preserve">3.2432906627655</t>
@@ -2330,73 +2330,73 @@
     <t xml:space="preserve">3.35868072509766</t>
   </si>
   <si>
-    <t xml:space="preserve">3.34631752967834</t>
+    <t xml:space="preserve">3.34631776809692</t>
   </si>
   <si>
     <t xml:space="preserve">3.30510687828064</t>
   </si>
   <si>
-    <t xml:space="preserve">3.34219622612</t>
+    <t xml:space="preserve">3.34219646453857</t>
   </si>
   <si>
     <t xml:space="preserve">3.36364817619324</t>
   </si>
   <si>
-    <t xml:space="preserve">3.25209879875183</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.20919513702393</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.22635650634766</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.27784085273743</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.2349374294281</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.21348547935486</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.19632411003113</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.21777582168579</t>
+    <t xml:space="preserve">3.25209856033325</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.20919489860535</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.22635626792908</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.27784061431885</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.23493719100952</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.21348524093628</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.19632387161255</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.21777558326721</t>
   </si>
   <si>
     <t xml:space="preserve">3.15771055221558</t>
   </si>
   <si>
-    <t xml:space="preserve">3.17487215995789</t>
+    <t xml:space="preserve">3.17487192153931</t>
   </si>
   <si>
     <t xml:space="preserve">3.17916250228882</t>
   </si>
   <si>
-    <t xml:space="preserve">3.16200113296509</t>
+    <t xml:space="preserve">3.16200089454651</t>
   </si>
   <si>
     <t xml:space="preserve">3.14913010597229</t>
   </si>
   <si>
-    <t xml:space="preserve">3.18345308303833</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.17058181762695</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.20061445236206</t>
+    <t xml:space="preserve">3.18345284461975</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.17058157920837</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.20061421394348</t>
   </si>
   <si>
     <t xml:space="preserve">3.19203352928162</t>
   </si>
   <si>
-    <t xml:space="preserve">3.23064684867859</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.2220664024353</t>
+    <t xml:space="preserve">3.23064708709717</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.22206616401672</t>
   </si>
   <si>
     <t xml:space="preserve">3.12767815589905</t>
@@ -2447,7 +2447,7 @@
     <t xml:space="preserve">2.99038624763489</t>
   </si>
   <si>
-    <t xml:space="preserve">2.90886926651001</t>
+    <t xml:space="preserve">2.90886950492859</t>
   </si>
   <si>
     <t xml:space="preserve">2.92174029350281</t>
@@ -2456,19 +2456,19 @@
     <t xml:space="preserve">2.93890190124512</t>
   </si>
   <si>
-    <t xml:space="preserve">3.00325751304626</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.03328990936279</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.02041864395142</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.01612854003906</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.01183819770813</t>
+    <t xml:space="preserve">3.00325727462769</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.03329014778137</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.02041888237</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.01612877845764</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.01183795928955</t>
   </si>
   <si>
     <t xml:space="preserve">3.06761288642883</t>
@@ -2480,19 +2480,19 @@
     <t xml:space="preserve">3.13196849822998</t>
   </si>
   <si>
-    <t xml:space="preserve">3.16629147529602</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.11480712890625</t>
+    <t xml:space="preserve">3.16629123687744</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.11480689048767</t>
   </si>
   <si>
     <t xml:space="preserve">3.09335517883301</t>
   </si>
   <si>
-    <t xml:space="preserve">3.0633225440979</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.11051678657532</t>
+    <t xml:space="preserve">3.06332230567932</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.11051654815674</t>
   </si>
   <si>
     <t xml:space="preserve">3.08477449417114</t>
@@ -2504,13 +2504,13 @@
     <t xml:space="preserve">3.02470946311951</t>
   </si>
   <si>
-    <t xml:space="preserve">2.96464395523071</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.9474823474884</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.95177316665649</t>
+    <t xml:space="preserve">2.96464419364929</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.94748258590698</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.95177292823792</t>
   </si>
   <si>
     <t xml:space="preserve">2.95606327056885</t>
@@ -2519,7 +2519,7 @@
     <t xml:space="preserve">2.99467658996582</t>
   </si>
   <si>
-    <t xml:space="preserve">2.98609614372253</t>
+    <t xml:space="preserve">2.98609566688538</t>
   </si>
   <si>
     <t xml:space="preserve">3.10193586349487</t>
@@ -2543,7 +2543,7 @@
     <t xml:space="preserve">2.97751522064209</t>
   </si>
   <si>
-    <t xml:space="preserve">2.92603087425232</t>
+    <t xml:space="preserve">2.92603063583374</t>
   </si>
   <si>
     <t xml:space="preserve">2.94319224357605</t>
@@ -2555,10 +2555,10 @@
     <t xml:space="preserve">2.93461155891418</t>
   </si>
   <si>
-    <t xml:space="preserve">2.79731965065002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.91315960884094</t>
+    <t xml:space="preserve">2.7973198890686</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.91315984725952</t>
   </si>
   <si>
     <t xml:space="preserve">2.8917076587677</t>
@@ -2567,25 +2567,25 @@
     <t xml:space="preserve">2.82306170463562</t>
   </si>
   <si>
-    <t xml:space="preserve">2.77157735824585</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.80161023139954</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.90028882026672</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.87454628944397</t>
+    <t xml:space="preserve">2.77157759666443</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.80161046981812</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.90028858184814</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.87454605102539</t>
   </si>
   <si>
     <t xml:space="preserve">2.83164262771606</t>
   </si>
   <si>
-    <t xml:space="preserve">2.89599800109863</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.85738468170166</t>
+    <t xml:space="preserve">2.89599823951721</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.85738492012024</t>
   </si>
   <si>
     <t xml:space="preserve">2.87025594711304</t>
@@ -3399,6 +3399,9 @@
   </si>
   <si>
     <t xml:space="preserve">2.35500001907349</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.33999991416931</t>
   </si>
 </sst>
 </file>
@@ -13378,7 +13381,7 @@
         <v>3.60199999809265</v>
       </c>
       <c r="G371" t="s">
-        <v>244</v>
+        <v>270</v>
       </c>
       <c r="H371" t="s">
         <v>9</v>
@@ -13456,7 +13459,7 @@
         <v>3.71799993515015</v>
       </c>
       <c r="G374" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="H374" t="s">
         <v>9</v>
@@ -13534,7 +13537,7 @@
         <v>3.59599995613098</v>
       </c>
       <c r="G377" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="H377" t="s">
         <v>9</v>
@@ -13560,7 +13563,7 @@
         <v>3.57399988174438</v>
       </c>
       <c r="G378" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="H378" t="s">
         <v>9</v>
@@ -13586,7 +13589,7 @@
         <v>3.54800009727478</v>
       </c>
       <c r="G379" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="H379" t="s">
         <v>9</v>
@@ -13612,7 +13615,7 @@
         <v>3.54999995231628</v>
       </c>
       <c r="G380" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="H380" t="s">
         <v>9</v>
@@ -13794,7 +13797,7 @@
         <v>3.48399996757507</v>
       </c>
       <c r="G387" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="H387" t="s">
         <v>9</v>
@@ -13820,7 +13823,7 @@
         <v>3.47000002861023</v>
       </c>
       <c r="G388" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="H388" t="s">
         <v>9</v>
@@ -13846,7 +13849,7 @@
         <v>3.47000002861023</v>
       </c>
       <c r="G389" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="H389" t="s">
         <v>9</v>
@@ -13872,7 +13875,7 @@
         <v>3.50799989700317</v>
       </c>
       <c r="G390" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="H390" t="s">
         <v>9</v>
@@ -13898,7 +13901,7 @@
         <v>3.49399995803833</v>
       </c>
       <c r="G391" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="H391" t="s">
         <v>9</v>
@@ -13924,7 +13927,7 @@
         <v>3.49000000953674</v>
       </c>
       <c r="G392" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="H392" t="s">
         <v>9</v>
@@ -13950,7 +13953,7 @@
         <v>3.49600005149841</v>
       </c>
       <c r="G393" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="H393" t="s">
         <v>9</v>
@@ -13976,7 +13979,7 @@
         <v>3.49399995803833</v>
       </c>
       <c r="G394" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="H394" t="s">
         <v>9</v>
@@ -14028,7 +14031,7 @@
         <v>3.50399994850159</v>
       </c>
       <c r="G396" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="H396" t="s">
         <v>9</v>
@@ -14080,7 +14083,7 @@
         <v>3.46799993515015</v>
       </c>
       <c r="G398" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="H398" t="s">
         <v>9</v>
@@ -14106,7 +14109,7 @@
         <v>3.41000008583069</v>
       </c>
       <c r="G399" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="H399" t="s">
         <v>9</v>
@@ -14132,7 +14135,7 @@
         <v>3.39599990844727</v>
       </c>
       <c r="G400" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="H400" t="s">
         <v>9</v>
@@ -14158,7 +14161,7 @@
         <v>3.47000002861023</v>
       </c>
       <c r="G401" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="H401" t="s">
         <v>9</v>
@@ -14184,7 +14187,7 @@
         <v>3.4300000667572</v>
       </c>
       <c r="G402" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="H402" t="s">
         <v>9</v>
@@ -14236,7 +14239,7 @@
         <v>3.45000004768372</v>
       </c>
       <c r="G404" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="H404" t="s">
         <v>9</v>
@@ -14262,7 +14265,7 @@
         <v>3.46399998664856</v>
       </c>
       <c r="G405" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="H405" t="s">
         <v>9</v>
@@ -14288,7 +14291,7 @@
         <v>3.4300000667572</v>
       </c>
       <c r="G406" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="H406" t="s">
         <v>9</v>
@@ -14314,7 +14317,7 @@
         <v>3.58999991416931</v>
       </c>
       <c r="G407" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="H407" t="s">
         <v>9</v>
@@ -14340,7 +14343,7 @@
         <v>3.54999995231628</v>
       </c>
       <c r="G408" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="H408" t="s">
         <v>9</v>
@@ -14366,7 +14369,7 @@
         <v>3.58200001716614</v>
       </c>
       <c r="G409" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="H409" t="s">
         <v>9</v>
@@ -14392,7 +14395,7 @@
         <v>3.59800004959106</v>
       </c>
       <c r="G410" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="H410" t="s">
         <v>9</v>
@@ -14418,7 +14421,7 @@
         <v>3.57599997520447</v>
       </c>
       <c r="G411" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="H411" t="s">
         <v>9</v>
@@ -14470,7 +14473,7 @@
         <v>3.58200001716614</v>
       </c>
       <c r="G413" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="H413" t="s">
         <v>9</v>
@@ -14496,7 +14499,7 @@
         <v>3.5460000038147</v>
       </c>
       <c r="G414" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="H414" t="s">
         <v>9</v>
@@ -14548,7 +14551,7 @@
         <v>3.51999998092651</v>
       </c>
       <c r="G416" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="H416" t="s">
         <v>9</v>
@@ -14574,7 +14577,7 @@
         <v>3.5220000743866</v>
       </c>
       <c r="G417" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="H417" t="s">
         <v>9</v>
@@ -14600,7 +14603,7 @@
         <v>3.5</v>
       </c>
       <c r="G418" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="H418" t="s">
         <v>9</v>
@@ -14626,7 +14629,7 @@
         <v>3.53800010681152</v>
       </c>
       <c r="G419" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="H419" t="s">
         <v>9</v>
@@ -14652,7 +14655,7 @@
         <v>3.4760000705719</v>
       </c>
       <c r="G420" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="H420" t="s">
         <v>9</v>
@@ -14678,7 +14681,7 @@
         <v>3.49000000953674</v>
       </c>
       <c r="G421" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="H421" t="s">
         <v>9</v>
@@ -14704,7 +14707,7 @@
         <v>3.49000000953674</v>
       </c>
       <c r="G422" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="H422" t="s">
         <v>9</v>
@@ -14730,7 +14733,7 @@
         <v>3.49000000953674</v>
       </c>
       <c r="G423" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="H423" t="s">
         <v>9</v>
@@ -14756,7 +14759,7 @@
         <v>3.47000002861023</v>
       </c>
       <c r="G424" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="H424" t="s">
         <v>9</v>
@@ -14782,7 +14785,7 @@
         <v>3.51999998092651</v>
       </c>
       <c r="G425" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="H425" t="s">
         <v>9</v>
@@ -14808,7 +14811,7 @@
         <v>3.49000000953674</v>
       </c>
       <c r="G426" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="H426" t="s">
         <v>9</v>
@@ -14834,7 +14837,7 @@
         <v>3.54399991035461</v>
       </c>
       <c r="G427" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="H427" t="s">
         <v>9</v>
@@ -14860,7 +14863,7 @@
         <v>3.60199999809265</v>
       </c>
       <c r="G428" t="s">
-        <v>244</v>
+        <v>270</v>
       </c>
       <c r="H428" t="s">
         <v>9</v>
@@ -14912,7 +14915,7 @@
         <v>3.66400003433228</v>
       </c>
       <c r="G430" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="H430" t="s">
         <v>9</v>
@@ -14938,7 +14941,7 @@
         <v>3.60999989509583</v>
       </c>
       <c r="G431" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="H431" t="s">
         <v>9</v>
@@ -15042,7 +15045,7 @@
         <v>3.64400005340576</v>
       </c>
       <c r="G435" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="H435" t="s">
         <v>9</v>
@@ -15068,7 +15071,7 @@
         <v>3.60999989509583</v>
       </c>
       <c r="G436" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="H436" t="s">
         <v>9</v>
@@ -15094,7 +15097,7 @@
         <v>3.59800004959106</v>
       </c>
       <c r="G437" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="H437" t="s">
         <v>9</v>
@@ -15146,7 +15149,7 @@
         <v>3.54999995231628</v>
       </c>
       <c r="G439" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="H439" t="s">
         <v>9</v>
@@ -15172,7 +15175,7 @@
         <v>3.53200006484985</v>
       </c>
       <c r="G440" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="H440" t="s">
         <v>9</v>
@@ -15224,7 +15227,7 @@
         <v>3.53399991989136</v>
       </c>
       <c r="G442" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="H442" t="s">
         <v>9</v>
@@ -15276,7 +15279,7 @@
         <v>3.5</v>
       </c>
       <c r="G444" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="H444" t="s">
         <v>9</v>
@@ -15328,7 +15331,7 @@
         <v>3.49000000953674</v>
       </c>
       <c r="G446" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="H446" t="s">
         <v>9</v>
@@ -15354,7 +15357,7 @@
         <v>3.51399993896484</v>
       </c>
       <c r="G447" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="H447" t="s">
         <v>9</v>
@@ -15380,7 +15383,7 @@
         <v>3.50600004196167</v>
       </c>
       <c r="G448" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="H448" t="s">
         <v>9</v>
@@ -15406,7 +15409,7 @@
         <v>3.51999998092651</v>
       </c>
       <c r="G449" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="H449" t="s">
         <v>9</v>
@@ -15432,7 +15435,7 @@
         <v>3.5</v>
       </c>
       <c r="G450" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="H450" t="s">
         <v>9</v>
@@ -15588,7 +15591,7 @@
         <v>3.57399988174438</v>
       </c>
       <c r="G456" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="H456" t="s">
         <v>9</v>
@@ -15614,7 +15617,7 @@
         <v>3.51999998092651</v>
       </c>
       <c r="G457" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="H457" t="s">
         <v>9</v>
@@ -15666,7 +15669,7 @@
         <v>3.60400009155273</v>
       </c>
       <c r="G459" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="H459" t="s">
         <v>9</v>
@@ -15744,7 +15747,7 @@
         <v>3.5699999332428</v>
       </c>
       <c r="G462" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="H462" t="s">
         <v>9</v>
@@ -15796,7 +15799,7 @@
         <v>3.60800004005432</v>
       </c>
       <c r="G464" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="H464" t="s">
         <v>9</v>
@@ -15822,7 +15825,7 @@
         <v>3.56399989128113</v>
       </c>
       <c r="G465" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="H465" t="s">
         <v>9</v>
@@ -15848,7 +15851,7 @@
         <v>3.57599997520447</v>
       </c>
       <c r="G466" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="H466" t="s">
         <v>9</v>
@@ -15926,7 +15929,7 @@
         <v>3.63800001144409</v>
       </c>
       <c r="G469" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="H469" t="s">
         <v>9</v>
@@ -15978,7 +15981,7 @@
         <v>3.66599988937378</v>
       </c>
       <c r="G471" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="H471" t="s">
         <v>9</v>
@@ -16004,7 +16007,7 @@
         <v>3.72000002861023</v>
       </c>
       <c r="G472" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="H472" t="s">
         <v>9</v>
@@ -16030,7 +16033,7 @@
         <v>3.73600006103516</v>
       </c>
       <c r="G473" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="H473" t="s">
         <v>9</v>
@@ -16056,7 +16059,7 @@
         <v>3.81399989128113</v>
       </c>
       <c r="G474" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="H474" t="s">
         <v>9</v>
@@ -16082,7 +16085,7 @@
         <v>3.78200006484985</v>
       </c>
       <c r="G475" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="H475" t="s">
         <v>9</v>
@@ -16108,7 +16111,7 @@
         <v>3.77999997138977</v>
       </c>
       <c r="G476" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="H476" t="s">
         <v>9</v>
@@ -16134,7 +16137,7 @@
         <v>3.82800006866455</v>
       </c>
       <c r="G477" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="H477" t="s">
         <v>9</v>
@@ -16160,7 +16163,7 @@
         <v>3.69000005722046</v>
       </c>
       <c r="G478" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="H478" t="s">
         <v>9</v>
@@ -16186,7 +16189,7 @@
         <v>3.69799995422363</v>
       </c>
       <c r="G479" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="H479" t="s">
         <v>9</v>
@@ -16238,7 +16241,7 @@
         <v>3.5699999332428</v>
       </c>
       <c r="G481" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="H481" t="s">
         <v>9</v>
@@ -16264,7 +16267,7 @@
         <v>3.60400009155273</v>
       </c>
       <c r="G482" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="H482" t="s">
         <v>9</v>
@@ -16290,7 +16293,7 @@
         <v>3.57599997520447</v>
       </c>
       <c r="G483" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="H483" t="s">
         <v>9</v>
@@ -16316,7 +16319,7 @@
         <v>3.59599995613098</v>
       </c>
       <c r="G484" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="H484" t="s">
         <v>9</v>
@@ -16342,7 +16345,7 @@
         <v>3.61999988555908</v>
       </c>
       <c r="G485" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="H485" t="s">
         <v>9</v>
@@ -16394,7 +16397,7 @@
         <v>3.65599989891052</v>
       </c>
       <c r="G487" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="H487" t="s">
         <v>9</v>
@@ -16446,7 +16449,7 @@
         <v>3.60400009155273</v>
       </c>
       <c r="G489" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="H489" t="s">
         <v>9</v>
@@ -16524,7 +16527,7 @@
         <v>3.72199988365173</v>
       </c>
       <c r="G492" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="H492" t="s">
         <v>9</v>
@@ -16550,7 +16553,7 @@
         <v>3.64400005340576</v>
       </c>
       <c r="G493" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="H493" t="s">
         <v>9</v>
@@ -16576,7 +16579,7 @@
         <v>3.70000004768372</v>
       </c>
       <c r="G494" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="H494" t="s">
         <v>9</v>
@@ -16602,7 +16605,7 @@
         <v>3.67400002479553</v>
       </c>
       <c r="G495" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="H495" t="s">
         <v>9</v>
@@ -16628,7 +16631,7 @@
         <v>3.65199995040894</v>
       </c>
       <c r="G496" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="H496" t="s">
         <v>9</v>
@@ -16654,7 +16657,7 @@
         <v>3.68600010871887</v>
       </c>
       <c r="G497" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="H497" t="s">
         <v>9</v>
@@ -16732,7 +16735,7 @@
         <v>3.57999992370605</v>
       </c>
       <c r="G500" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="H500" t="s">
         <v>9</v>
@@ -16758,7 +16761,7 @@
         <v>3.63800001144409</v>
       </c>
       <c r="G501" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="H501" t="s">
         <v>9</v>
@@ -16862,7 +16865,7 @@
         <v>3.58200001716614</v>
       </c>
       <c r="G505" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="H505" t="s">
         <v>9</v>
@@ -16914,7 +16917,7 @@
         <v>3.61999988555908</v>
       </c>
       <c r="G507" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="H507" t="s">
         <v>9</v>
@@ -16940,7 +16943,7 @@
         <v>3.58999991416931</v>
       </c>
       <c r="G508" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="H508" t="s">
         <v>9</v>
@@ -16966,7 +16969,7 @@
         <v>3.58200001716614</v>
       </c>
       <c r="G509" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="H509" t="s">
         <v>9</v>
@@ -16992,7 +16995,7 @@
         <v>3.60199999809265</v>
       </c>
       <c r="G510" t="s">
-        <v>244</v>
+        <v>270</v>
       </c>
       <c r="H510" t="s">
         <v>9</v>
@@ -17018,7 +17021,7 @@
         <v>3.5460000038147</v>
       </c>
       <c r="G511" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="H511" t="s">
         <v>9</v>
@@ -17044,7 +17047,7 @@
         <v>3.54800009727478</v>
       </c>
       <c r="G512" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="H512" t="s">
         <v>9</v>
@@ -17070,7 +17073,7 @@
         <v>3.58999991416931</v>
       </c>
       <c r="G513" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="H513" t="s">
         <v>9</v>
@@ -17122,7 +17125,7 @@
         <v>3.69000005722046</v>
       </c>
       <c r="G515" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="H515" t="s">
         <v>9</v>
@@ -17148,7 +17151,7 @@
         <v>3.65499997138977</v>
       </c>
       <c r="G516" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="H516" t="s">
         <v>9</v>
@@ -17174,7 +17177,7 @@
         <v>3.69000005722046</v>
       </c>
       <c r="G517" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="H517" t="s">
         <v>9</v>
@@ -17278,7 +17281,7 @@
         <v>3.6800000667572</v>
       </c>
       <c r="G521" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="H521" t="s">
         <v>9</v>
@@ -17330,7 +17333,7 @@
         <v>3.67000007629395</v>
       </c>
       <c r="G523" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="H523" t="s">
         <v>9</v>
@@ -17356,7 +17359,7 @@
         <v>3.67499995231628</v>
       </c>
       <c r="G524" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="H524" t="s">
         <v>9</v>
@@ -17408,7 +17411,7 @@
         <v>3.65499997138977</v>
       </c>
       <c r="G526" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="H526" t="s">
         <v>9</v>
@@ -17434,7 +17437,7 @@
         <v>3.67499995231628</v>
       </c>
       <c r="G527" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="H527" t="s">
         <v>9</v>
@@ -17486,7 +17489,7 @@
         <v>3.61999988555908</v>
       </c>
       <c r="G529" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="H529" t="s">
         <v>9</v>
@@ -17512,7 +17515,7 @@
         <v>3.61999988555908</v>
       </c>
       <c r="G530" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="H530" t="s">
         <v>9</v>
@@ -17538,7 +17541,7 @@
         <v>3.58999991416931</v>
       </c>
       <c r="G531" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="H531" t="s">
         <v>9</v>
@@ -17564,7 +17567,7 @@
         <v>3.58500003814697</v>
       </c>
       <c r="G532" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="H532" t="s">
         <v>9</v>
@@ -17590,7 +17593,7 @@
         <v>3.54999995231628</v>
       </c>
       <c r="G533" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="H533" t="s">
         <v>9</v>
@@ -17616,7 +17619,7 @@
         <v>3.54999995231628</v>
       </c>
       <c r="G534" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="H534" t="s">
         <v>9</v>
@@ -17642,7 +17645,7 @@
         <v>3.45000004768372</v>
       </c>
       <c r="G535" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="H535" t="s">
         <v>9</v>
@@ -17668,7 +17671,7 @@
         <v>3.29999995231628</v>
       </c>
       <c r="G536" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="H536" t="s">
         <v>9</v>
@@ -17694,7 +17697,7 @@
         <v>3.16000008583069</v>
       </c>
       <c r="G537" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="H537" t="s">
         <v>9</v>
@@ -17720,7 +17723,7 @@
         <v>3.25</v>
       </c>
       <c r="G538" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="H538" t="s">
         <v>9</v>
@@ -17746,7 +17749,7 @@
         <v>3.20499992370605</v>
       </c>
       <c r="G539" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="H539" t="s">
         <v>9</v>
@@ -17772,7 +17775,7 @@
         <v>3.15000009536743</v>
       </c>
       <c r="G540" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="H540" t="s">
         <v>9</v>
@@ -17798,7 +17801,7 @@
         <v>3.25</v>
       </c>
       <c r="G541" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="H541" t="s">
         <v>9</v>
@@ -17824,7 +17827,7 @@
         <v>3.23000001907349</v>
       </c>
       <c r="G542" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="H542" t="s">
         <v>9</v>
@@ -17850,7 +17853,7 @@
         <v>3.21499991416931</v>
       </c>
       <c r="G543" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="H543" t="s">
         <v>9</v>
@@ -17876,7 +17879,7 @@
         <v>3.21499991416931</v>
       </c>
       <c r="G544" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="H544" t="s">
         <v>9</v>
@@ -17902,7 +17905,7 @@
         <v>3.26999998092651</v>
       </c>
       <c r="G545" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="H545" t="s">
         <v>9</v>
@@ -17928,7 +17931,7 @@
         <v>3.23000001907349</v>
       </c>
       <c r="G546" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="H546" t="s">
         <v>9</v>
@@ -17954,7 +17957,7 @@
         <v>3.25</v>
       </c>
       <c r="G547" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="H547" t="s">
         <v>9</v>
@@ -17980,7 +17983,7 @@
         <v>3.27999997138977</v>
       </c>
       <c r="G548" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="H548" t="s">
         <v>9</v>
@@ -18006,7 +18009,7 @@
         <v>3.1949999332428</v>
       </c>
       <c r="G549" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="H549" t="s">
         <v>9</v>
@@ -18032,7 +18035,7 @@
         <v>3.17000007629395</v>
       </c>
       <c r="G550" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="H550" t="s">
         <v>9</v>
@@ -18058,7 +18061,7 @@
         <v>3.17000007629395</v>
       </c>
       <c r="G551" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="H551" t="s">
         <v>9</v>
@@ -18084,7 +18087,7 @@
         <v>3.13499999046326</v>
       </c>
       <c r="G552" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="H552" t="s">
         <v>9</v>
@@ -18110,7 +18113,7 @@
         <v>3.11999988555908</v>
       </c>
       <c r="G553" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="H553" t="s">
         <v>9</v>
@@ -18136,7 +18139,7 @@
         <v>3.11999988555908</v>
       </c>
       <c r="G554" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="H554" t="s">
         <v>9</v>
@@ -18162,7 +18165,7 @@
         <v>3.05999994277954</v>
       </c>
       <c r="G555" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="H555" t="s">
         <v>9</v>
@@ -18188,7 +18191,7 @@
         <v>3.05999994277954</v>
       </c>
       <c r="G556" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="H556" t="s">
         <v>9</v>
@@ -18214,7 +18217,7 @@
         <v>3.11500000953674</v>
       </c>
       <c r="G557" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="H557" t="s">
         <v>9</v>
@@ -18240,7 +18243,7 @@
         <v>3.13000011444092</v>
       </c>
       <c r="G558" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="H558" t="s">
         <v>9</v>
@@ -18266,7 +18269,7 @@
         <v>3.13000011444092</v>
       </c>
       <c r="G559" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="H559" t="s">
         <v>9</v>
@@ -18292,7 +18295,7 @@
         <v>3.16499996185303</v>
       </c>
       <c r="G560" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="H560" t="s">
         <v>9</v>
@@ -18318,7 +18321,7 @@
         <v>3.22499990463257</v>
       </c>
       <c r="G561" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="H561" t="s">
         <v>9</v>
@@ -18344,7 +18347,7 @@
         <v>3.15499997138977</v>
       </c>
       <c r="G562" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="H562" t="s">
         <v>9</v>
@@ -18370,7 +18373,7 @@
         <v>3.15499997138977</v>
       </c>
       <c r="G563" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="H563" t="s">
         <v>9</v>
@@ -18396,7 +18399,7 @@
         <v>3.20000004768372</v>
       </c>
       <c r="G564" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="H564" t="s">
         <v>9</v>
@@ -18422,7 +18425,7 @@
         <v>3.21000003814697</v>
       </c>
       <c r="G565" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="H565" t="s">
         <v>9</v>
@@ -18448,7 +18451,7 @@
         <v>3.28500008583069</v>
       </c>
       <c r="G566" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="H566" t="s">
         <v>9</v>
@@ -18474,7 +18477,7 @@
         <v>3.28500008583069</v>
       </c>
       <c r="G567" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="H567" t="s">
         <v>9</v>
@@ -18500,7 +18503,7 @@
         <v>3.25500011444092</v>
       </c>
       <c r="G568" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="H568" t="s">
         <v>9</v>
@@ -18526,7 +18529,7 @@
         <v>3.25</v>
       </c>
       <c r="G569" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="H569" t="s">
         <v>9</v>
@@ -18552,7 +18555,7 @@
         <v>3.20499992370605</v>
       </c>
       <c r="G570" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="H570" t="s">
         <v>9</v>
@@ -18578,7 +18581,7 @@
         <v>3.18499994277954</v>
       </c>
       <c r="G571" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="H571" t="s">
         <v>9</v>
@@ -18604,7 +18607,7 @@
         <v>3.19000005722046</v>
       </c>
       <c r="G572" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="H572" t="s">
         <v>9</v>
@@ -18630,7 +18633,7 @@
         <v>3.24499988555908</v>
       </c>
       <c r="G573" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="H573" t="s">
         <v>9</v>
@@ -18656,7 +18659,7 @@
         <v>3.25999999046326</v>
       </c>
       <c r="G574" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="H574" t="s">
         <v>9</v>
@@ -18682,7 +18685,7 @@
         <v>3.25</v>
       </c>
       <c r="G575" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="H575" t="s">
         <v>9</v>
@@ -18708,7 +18711,7 @@
         <v>3.21000003814697</v>
       </c>
       <c r="G576" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="H576" t="s">
         <v>9</v>
@@ -18734,7 +18737,7 @@
         <v>3.25999999046326</v>
       </c>
       <c r="G577" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="H577" t="s">
         <v>9</v>
@@ -18760,7 +18763,7 @@
         <v>3.28500008583069</v>
       </c>
       <c r="G578" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="H578" t="s">
         <v>9</v>
@@ -18786,7 +18789,7 @@
         <v>3.30999994277954</v>
       </c>
       <c r="G579" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="H579" t="s">
         <v>9</v>
@@ -18812,7 +18815,7 @@
         <v>3.27999997138977</v>
       </c>
       <c r="G580" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="H580" t="s">
         <v>9</v>
@@ -18838,7 +18841,7 @@
         <v>3.25999999046326</v>
       </c>
       <c r="G581" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="H581" t="s">
         <v>9</v>
@@ -18864,7 +18867,7 @@
         <v>3.26999998092651</v>
       </c>
       <c r="G582" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="H582" t="s">
         <v>9</v>
@@ -18890,7 +18893,7 @@
         <v>3.27500009536743</v>
       </c>
       <c r="G583" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="H583" t="s">
         <v>9</v>
@@ -18916,7 +18919,7 @@
         <v>3.28999996185303</v>
       </c>
       <c r="G584" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="H584" t="s">
         <v>9</v>
@@ -18942,7 +18945,7 @@
         <v>3.28999996185303</v>
       </c>
       <c r="G585" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="H585" t="s">
         <v>9</v>
@@ -18968,7 +18971,7 @@
         <v>3.28999996185303</v>
       </c>
       <c r="G586" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="H586" t="s">
         <v>9</v>
@@ -18994,7 +18997,7 @@
         <v>3.29999995231628</v>
       </c>
       <c r="G587" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="H587" t="s">
         <v>9</v>
@@ -19020,7 +19023,7 @@
         <v>3.29999995231628</v>
       </c>
       <c r="G588" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="H588" t="s">
         <v>9</v>
@@ -19046,7 +19049,7 @@
         <v>3.29999995231628</v>
       </c>
       <c r="G589" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="H589" t="s">
         <v>9</v>
@@ -19072,7 +19075,7 @@
         <v>3.32500004768372</v>
       </c>
       <c r="G590" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="H590" t="s">
         <v>9</v>
@@ -19098,7 +19101,7 @@
         <v>3.29999995231628</v>
       </c>
       <c r="G591" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="H591" t="s">
         <v>9</v>
@@ -19124,7 +19127,7 @@
         <v>3.30999994277954</v>
       </c>
       <c r="G592" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="H592" t="s">
         <v>9</v>
@@ -19150,7 +19153,7 @@
         <v>3.32999992370605</v>
       </c>
       <c r="G593" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="H593" t="s">
         <v>9</v>
@@ -19176,7 +19179,7 @@
         <v>3.40000009536743</v>
       </c>
       <c r="G594" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="H594" t="s">
         <v>9</v>
@@ -19202,7 +19205,7 @@
         <v>3.52999997138977</v>
       </c>
       <c r="G595" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="H595" t="s">
         <v>9</v>
@@ -19228,7 +19231,7 @@
         <v>3.5</v>
       </c>
       <c r="G596" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="H596" t="s">
         <v>9</v>
@@ -19254,7 +19257,7 @@
         <v>3.50500011444092</v>
       </c>
       <c r="G597" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="H597" t="s">
         <v>9</v>
@@ -19280,7 +19283,7 @@
         <v>3.34999990463257</v>
       </c>
       <c r="G598" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="H598" t="s">
         <v>9</v>
@@ -19306,7 +19309,7 @@
         <v>3.29999995231628</v>
       </c>
       <c r="G599" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="H599" t="s">
         <v>9</v>
@@ -19332,7 +19335,7 @@
         <v>3.29999995231628</v>
       </c>
       <c r="G600" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="H600" t="s">
         <v>9</v>
@@ -19358,7 +19361,7 @@
         <v>3.24000000953674</v>
       </c>
       <c r="G601" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="H601" t="s">
         <v>9</v>
@@ -19384,7 +19387,7 @@
         <v>3.20000004768372</v>
       </c>
       <c r="G602" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="H602" t="s">
         <v>9</v>
@@ -19410,7 +19413,7 @@
         <v>3.25999999046326</v>
       </c>
       <c r="G603" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="H603" t="s">
         <v>9</v>
@@ -19436,7 +19439,7 @@
         <v>3.1800000667572</v>
       </c>
       <c r="G604" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="H604" t="s">
         <v>9</v>
@@ -19462,7 +19465,7 @@
         <v>3.13000011444092</v>
       </c>
       <c r="G605" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="H605" t="s">
         <v>9</v>
@@ -19488,7 +19491,7 @@
         <v>3.13000011444092</v>
       </c>
       <c r="G606" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="H606" t="s">
         <v>9</v>
@@ -19514,7 +19517,7 @@
         <v>3.11500000953674</v>
       </c>
       <c r="G607" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="H607" t="s">
         <v>9</v>
@@ -19540,7 +19543,7 @@
         <v>3.10500001907349</v>
       </c>
       <c r="G608" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="H608" t="s">
         <v>9</v>
@@ -19566,7 +19569,7 @@
         <v>3.09500002861023</v>
       </c>
       <c r="G609" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="H609" t="s">
         <v>9</v>
@@ -19592,7 +19595,7 @@
         <v>3.07999992370605</v>
       </c>
       <c r="G610" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="H610" t="s">
         <v>9</v>
@@ -19618,7 +19621,7 @@
         <v>3.07999992370605</v>
       </c>
       <c r="G611" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="H611" t="s">
         <v>9</v>
@@ -19644,7 +19647,7 @@
         <v>3.0550000667572</v>
       </c>
       <c r="G612" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="H612" t="s">
         <v>9</v>
@@ -19670,7 +19673,7 @@
         <v>3.00500011444092</v>
       </c>
       <c r="G613" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="H613" t="s">
         <v>9</v>
@@ -19696,7 +19699,7 @@
         <v>2.875</v>
       </c>
       <c r="G614" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="H614" t="s">
         <v>9</v>
@@ -19722,7 +19725,7 @@
         <v>2.95000004768372</v>
       </c>
       <c r="G615" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="H615" t="s">
         <v>9</v>
@@ -19748,7 +19751,7 @@
         <v>3.00500011444092</v>
       </c>
       <c r="G616" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="H616" t="s">
         <v>9</v>
@@ -19774,7 +19777,7 @@
         <v>3.01500010490417</v>
       </c>
       <c r="G617" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="H617" t="s">
         <v>9</v>
@@ -19800,7 +19803,7 @@
         <v>3</v>
       </c>
       <c r="G618" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="H618" t="s">
         <v>9</v>
@@ -19826,7 +19829,7 @@
         <v>3</v>
       </c>
       <c r="G619" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="H619" t="s">
         <v>9</v>
@@ -19852,7 +19855,7 @@
         <v>2.98000001907349</v>
       </c>
       <c r="G620" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="H620" t="s">
         <v>9</v>
@@ -19878,7 +19881,7 @@
         <v>3.00500011444092</v>
       </c>
       <c r="G621" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="H621" t="s">
         <v>9</v>
@@ -19904,7 +19907,7 @@
         <v>2.9449999332428</v>
       </c>
       <c r="G622" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="H622" t="s">
         <v>9</v>
@@ -19930,7 +19933,7 @@
         <v>3.04999995231628</v>
       </c>
       <c r="G623" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="H623" t="s">
         <v>9</v>
@@ -19956,7 +19959,7 @@
         <v>3.05999994277954</v>
       </c>
       <c r="G624" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="H624" t="s">
         <v>9</v>
@@ -19982,7 +19985,7 @@
         <v>3.01500010490417</v>
       </c>
       <c r="G625" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="H625" t="s">
         <v>9</v>
@@ -20008,7 +20011,7 @@
         <v>3.05999994277954</v>
       </c>
       <c r="G626" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="H626" t="s">
         <v>9</v>
@@ -20034,7 +20037,7 @@
         <v>2.97499990463257</v>
       </c>
       <c r="G627" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="H627" t="s">
         <v>9</v>
@@ -20060,7 +20063,7 @@
         <v>2.99000000953674</v>
       </c>
       <c r="G628" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="H628" t="s">
         <v>9</v>
@@ -20086,7 +20089,7 @@
         <v>2.97499990463257</v>
       </c>
       <c r="G629" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="H629" t="s">
         <v>9</v>
@@ -20112,7 +20115,7 @@
         <v>2.99499988555908</v>
       </c>
       <c r="G630" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="H630" t="s">
         <v>9</v>
@@ -20138,7 +20141,7 @@
         <v>2.92000007629395</v>
       </c>
       <c r="G631" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="H631" t="s">
         <v>9</v>
@@ -20164,7 +20167,7 @@
         <v>3.06500005722046</v>
       </c>
       <c r="G632" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="H632" t="s">
         <v>9</v>
@@ -20190,7 +20193,7 @@
         <v>2.95000004768372</v>
       </c>
       <c r="G633" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="H633" t="s">
         <v>9</v>
@@ -20216,7 +20219,7 @@
         <v>3.03500008583069</v>
       </c>
       <c r="G634" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="H634" t="s">
         <v>9</v>
@@ -20242,7 +20245,7 @@
         <v>3</v>
       </c>
       <c r="G635" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="H635" t="s">
         <v>9</v>
@@ -20268,7 +20271,7 @@
         <v>3</v>
       </c>
       <c r="G636" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="H636" t="s">
         <v>9</v>
@@ -20294,7 +20297,7 @@
         <v>2.99000000953674</v>
       </c>
       <c r="G637" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="H637" t="s">
         <v>9</v>
@@ -20320,7 +20323,7 @@
         <v>2.9449999332428</v>
       </c>
       <c r="G638" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="H638" t="s">
         <v>9</v>
@@ -20346,7 +20349,7 @@
         <v>2.95499992370605</v>
       </c>
       <c r="G639" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="H639" t="s">
         <v>9</v>
@@ -20372,7 +20375,7 @@
         <v>2.9300000667572</v>
       </c>
       <c r="G640" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="H640" t="s">
         <v>9</v>
@@ -20398,7 +20401,7 @@
         <v>2.97499990463257</v>
       </c>
       <c r="G641" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="H641" t="s">
         <v>9</v>
@@ -20424,7 +20427,7 @@
         <v>2.99499988555908</v>
       </c>
       <c r="G642" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="H642" t="s">
         <v>9</v>
@@ -20450,7 +20453,7 @@
         <v>2.95499992370605</v>
       </c>
       <c r="G643" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="H643" t="s">
         <v>9</v>
@@ -20476,7 +20479,7 @@
         <v>2.9300000667572</v>
       </c>
       <c r="G644" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="H644" t="s">
         <v>9</v>
@@ -20502,7 +20505,7 @@
         <v>2.91499996185303</v>
       </c>
       <c r="G645" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="H645" t="s">
         <v>9</v>
@@ -20528,7 +20531,7 @@
         <v>2.89000010490417</v>
       </c>
       <c r="G646" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="H646" t="s">
         <v>9</v>
@@ -20554,7 +20557,7 @@
         <v>2.88499999046326</v>
       </c>
       <c r="G647" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="H647" t="s">
         <v>9</v>
@@ -20580,7 +20583,7 @@
         <v>2.86500000953674</v>
       </c>
       <c r="G648" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="H648" t="s">
         <v>9</v>
@@ -20606,7 +20609,7 @@
         <v>2.86999988555908</v>
       </c>
       <c r="G649" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="H649" t="s">
         <v>9</v>
@@ -20632,7 +20635,7 @@
         <v>2.89000010490417</v>
       </c>
       <c r="G650" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="H650" t="s">
         <v>9</v>
@@ -20658,7 +20661,7 @@
         <v>2.90000009536743</v>
       </c>
       <c r="G651" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="H651" t="s">
         <v>9</v>
@@ -20684,7 +20687,7 @@
         <v>2.89000010490417</v>
       </c>
       <c r="G652" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="H652" t="s">
         <v>9</v>
@@ -20710,7 +20713,7 @@
         <v>2.85999989509583</v>
       </c>
       <c r="G653" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="H653" t="s">
         <v>9</v>
@@ -20736,7 +20739,7 @@
         <v>2.84999990463257</v>
       </c>
       <c r="G654" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="H654" t="s">
         <v>9</v>
@@ -20762,7 +20765,7 @@
         <v>2.90000009536743</v>
       </c>
       <c r="G655" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="H655" t="s">
         <v>9</v>
@@ -20788,7 +20791,7 @@
         <v>3.14000010490417</v>
       </c>
       <c r="G656" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="H656" t="s">
         <v>9</v>
@@ -20814,7 +20817,7 @@
         <v>3.15000009536743</v>
       </c>
       <c r="G657" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="H657" t="s">
         <v>9</v>
@@ -20840,7 +20843,7 @@
         <v>3.20499992370605</v>
       </c>
       <c r="G658" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="H658" t="s">
         <v>9</v>
@@ -20866,7 +20869,7 @@
         <v>3.1800000667572</v>
       </c>
       <c r="G659" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="H659" t="s">
         <v>9</v>
@@ -20892,7 +20895,7 @@
         <v>3.53999996185303</v>
       </c>
       <c r="G660" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="H660" t="s">
         <v>9</v>
@@ -20918,7 +20921,7 @@
         <v>3.35500001907349</v>
       </c>
       <c r="G661" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="H661" t="s">
         <v>9</v>
@@ -20944,7 +20947,7 @@
         <v>3.34999990463257</v>
       </c>
       <c r="G662" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="H662" t="s">
         <v>9</v>
@@ -20970,7 +20973,7 @@
         <v>3.26500010490417</v>
       </c>
       <c r="G663" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="H663" t="s">
         <v>9</v>
@@ -20996,7 +20999,7 @@
         <v>3.26999998092651</v>
       </c>
       <c r="G664" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="H664" t="s">
         <v>9</v>
@@ -21022,7 +21025,7 @@
         <v>3.25</v>
       </c>
       <c r="G665" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="H665" t="s">
         <v>9</v>
@@ -21048,7 +21051,7 @@
         <v>3.1949999332428</v>
       </c>
       <c r="G666" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="H666" t="s">
         <v>9</v>
@@ -21074,7 +21077,7 @@
         <v>3.13499999046326</v>
       </c>
       <c r="G667" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="H667" t="s">
         <v>9</v>
@@ -21100,7 +21103,7 @@
         <v>3.09999990463257</v>
       </c>
       <c r="G668" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="H668" t="s">
         <v>9</v>
@@ -21126,7 +21129,7 @@
         <v>3.13000011444092</v>
       </c>
       <c r="G669" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="H669" t="s">
         <v>9</v>
@@ -21152,7 +21155,7 @@
         <v>3.02500009536743</v>
       </c>
       <c r="G670" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="H670" t="s">
         <v>9</v>
@@ -21178,7 +21181,7 @@
         <v>3.05999994277954</v>
       </c>
       <c r="G671" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="H671" t="s">
         <v>9</v>
@@ -21204,7 +21207,7 @@
         <v>3.03500008583069</v>
       </c>
       <c r="G672" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="H672" t="s">
         <v>9</v>
@@ -21230,7 +21233,7 @@
         <v>3.07999992370605</v>
       </c>
       <c r="G673" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="H673" t="s">
         <v>9</v>
@@ -21256,7 +21259,7 @@
         <v>3.11999988555908</v>
       </c>
       <c r="G674" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="H674" t="s">
         <v>9</v>
@@ -21282,7 +21285,7 @@
         <v>3.07500004768372</v>
       </c>
       <c r="G675" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="H675" t="s">
         <v>9</v>
@@ -21308,7 +21311,7 @@
         <v>3.09500002861023</v>
       </c>
       <c r="G676" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="H676" t="s">
         <v>9</v>
@@ -21334,7 +21337,7 @@
         <v>3.08500003814697</v>
       </c>
       <c r="G677" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="H677" t="s">
         <v>9</v>
@@ -21360,7 +21363,7 @@
         <v>3.05999994277954</v>
       </c>
       <c r="G678" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="H678" t="s">
         <v>9</v>
@@ -21386,7 +21389,7 @@
         <v>3.10999989509583</v>
       </c>
       <c r="G679" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="H679" t="s">
         <v>9</v>
@@ -21412,7 +21415,7 @@
         <v>3.10999989509583</v>
       </c>
       <c r="G680" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="H680" t="s">
         <v>9</v>
@@ -21438,7 +21441,7 @@
         <v>3.10999989509583</v>
       </c>
       <c r="G681" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="H681" t="s">
         <v>9</v>
@@ -21464,7 +21467,7 @@
         <v>3.125</v>
       </c>
       <c r="G682" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="H682" t="s">
         <v>9</v>
@@ -21490,7 +21493,7 @@
         <v>3.10999989509583</v>
       </c>
       <c r="G683" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="H683" t="s">
         <v>9</v>
@@ -21516,7 +21519,7 @@
         <v>3.10500001907349</v>
       </c>
       <c r="G684" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="H684" t="s">
         <v>9</v>
@@ -21542,7 +21545,7 @@
         <v>3.11500000953674</v>
       </c>
       <c r="G685" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="H685" t="s">
         <v>9</v>
@@ -21568,7 +21571,7 @@
         <v>3.11500000953674</v>
       </c>
       <c r="G686" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="H686" t="s">
         <v>9</v>
@@ -21594,7 +21597,7 @@
         <v>3.13000011444092</v>
       </c>
       <c r="G687" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="H687" t="s">
         <v>9</v>
@@ -21620,7 +21623,7 @@
         <v>3.13000011444092</v>
       </c>
       <c r="G688" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="H688" t="s">
         <v>9</v>
@@ -21646,7 +21649,7 @@
         <v>3.16499996185303</v>
       </c>
       <c r="G689" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="H689" t="s">
         <v>9</v>
@@ -21672,7 +21675,7 @@
         <v>3.16000008583069</v>
       </c>
       <c r="G690" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="H690" t="s">
         <v>9</v>
@@ -21698,7 +21701,7 @@
         <v>3.15499997138977</v>
       </c>
       <c r="G691" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="H691" t="s">
         <v>9</v>
@@ -21724,7 +21727,7 @@
         <v>3.15499997138977</v>
       </c>
       <c r="G692" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="H692" t="s">
         <v>9</v>
@@ -21750,7 +21753,7 @@
         <v>3.17000007629395</v>
       </c>
       <c r="G693" t="s">
-        <v>426</v>
+        <v>369</v>
       </c>
       <c r="H693" t="s">
         <v>9</v>
@@ -21776,7 +21779,7 @@
         <v>3.17000007629395</v>
       </c>
       <c r="G694" t="s">
-        <v>426</v>
+        <v>369</v>
       </c>
       <c r="H694" t="s">
         <v>9</v>
@@ -21802,7 +21805,7 @@
         <v>3.16000008583069</v>
       </c>
       <c r="G695" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="H695" t="s">
         <v>9</v>
@@ -21828,7 +21831,7 @@
         <v>3.17000007629395</v>
       </c>
       <c r="G696" t="s">
-        <v>426</v>
+        <v>369</v>
       </c>
       <c r="H696" t="s">
         <v>9</v>
@@ -21854,7 +21857,7 @@
         <v>3.16000008583069</v>
       </c>
       <c r="G697" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="H697" t="s">
         <v>9</v>
@@ -21880,7 +21883,7 @@
         <v>3.16000008583069</v>
       </c>
       <c r="G698" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="H698" t="s">
         <v>9</v>
@@ -21906,7 +21909,7 @@
         <v>3.16000008583069</v>
       </c>
       <c r="G699" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="H699" t="s">
         <v>9</v>
@@ -21932,7 +21935,7 @@
         <v>3.10999989509583</v>
       </c>
       <c r="G700" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="H700" t="s">
         <v>9</v>
@@ -21984,7 +21987,7 @@
         <v>2.98000001907349</v>
       </c>
       <c r="G702" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="H702" t="s">
         <v>9</v>
@@ -22010,7 +22013,7 @@
         <v>2.97499990463257</v>
       </c>
       <c r="G703" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="H703" t="s">
         <v>9</v>
@@ -22036,7 +22039,7 @@
         <v>2.97499990463257</v>
       </c>
       <c r="G704" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="H704" t="s">
         <v>9</v>
@@ -22062,7 +22065,7 @@
         <v>3.01500010490417</v>
       </c>
       <c r="G705" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="H705" t="s">
         <v>9</v>
@@ -22140,7 +22143,7 @@
         <v>2.9449999332428</v>
       </c>
       <c r="G708" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="H708" t="s">
         <v>9</v>
@@ -22166,7 +22169,7 @@
         <v>3.01500010490417</v>
       </c>
       <c r="G709" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="H709" t="s">
         <v>9</v>
@@ -22244,7 +22247,7 @@
         <v>2.9449999332428</v>
       </c>
       <c r="G712" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="H712" t="s">
         <v>9</v>
@@ -22296,7 +22299,7 @@
         <v>3.08500003814697</v>
       </c>
       <c r="G714" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="H714" t="s">
         <v>9</v>
@@ -22322,7 +22325,7 @@
         <v>3.05999994277954</v>
       </c>
       <c r="G715" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="H715" t="s">
         <v>9</v>
@@ -22348,7 +22351,7 @@
         <v>2.99000000953674</v>
       </c>
       <c r="G716" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="H716" t="s">
         <v>9</v>
@@ -22374,7 +22377,7 @@
         <v>2.97499990463257</v>
       </c>
       <c r="G717" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="H717" t="s">
         <v>9</v>
@@ -22400,7 +22403,7 @@
         <v>2.875</v>
       </c>
       <c r="G718" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="H718" t="s">
         <v>9</v>
@@ -22426,7 +22429,7 @@
         <v>2.86999988555908</v>
       </c>
       <c r="G719" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="H719" t="s">
         <v>9</v>
@@ -22452,7 +22455,7 @@
         <v>2.84999990463257</v>
       </c>
       <c r="G720" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="H720" t="s">
         <v>9</v>
@@ -22530,7 +22533,7 @@
         <v>2.89000010490417</v>
       </c>
       <c r="G723" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="H723" t="s">
         <v>9</v>
@@ -22556,7 +22559,7 @@
         <v>2.90000009536743</v>
       </c>
       <c r="G724" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="H724" t="s">
         <v>9</v>
@@ -22608,7 +22611,7 @@
         <v>2.97499990463257</v>
       </c>
       <c r="G726" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="H726" t="s">
         <v>9</v>
@@ -22634,7 +22637,7 @@
         <v>3.04999995231628</v>
       </c>
       <c r="G727" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="H727" t="s">
         <v>9</v>
@@ -22712,7 +22715,7 @@
         <v>3.08500003814697</v>
       </c>
       <c r="G730" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="H730" t="s">
         <v>9</v>
@@ -22738,7 +22741,7 @@
         <v>3.04999995231628</v>
       </c>
       <c r="G731" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="H731" t="s">
         <v>9</v>
@@ -22764,7 +22767,7 @@
         <v>3.04999995231628</v>
       </c>
       <c r="G732" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="H732" t="s">
         <v>9</v>
@@ -22790,7 +22793,7 @@
         <v>3.03500008583069</v>
       </c>
       <c r="G733" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="H733" t="s">
         <v>9</v>
@@ -22842,7 +22845,7 @@
         <v>2.99000000953674</v>
       </c>
       <c r="G735" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="H735" t="s">
         <v>9</v>
@@ -22894,7 +22897,7 @@
         <v>3</v>
       </c>
       <c r="G737" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="H737" t="s">
         <v>9</v>
@@ -22920,7 +22923,7 @@
         <v>3.04999995231628</v>
       </c>
       <c r="G738" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="H738" t="s">
         <v>9</v>
@@ -22972,7 +22975,7 @@
         <v>3</v>
       </c>
       <c r="G740" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="H740" t="s">
         <v>9</v>
@@ -22998,7 +23001,7 @@
         <v>3.04999995231628</v>
       </c>
       <c r="G741" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="H741" t="s">
         <v>9</v>
@@ -23024,7 +23027,7 @@
         <v>3.07999992370605</v>
       </c>
       <c r="G742" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="H742" t="s">
         <v>9</v>
@@ -23050,7 +23053,7 @@
         <v>3.05999994277954</v>
       </c>
       <c r="G743" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="H743" t="s">
         <v>9</v>
@@ -23128,7 +23131,7 @@
         <v>3.09500002861023</v>
       </c>
       <c r="G746" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="H746" t="s">
         <v>9</v>
@@ -23154,7 +23157,7 @@
         <v>3.08500003814697</v>
       </c>
       <c r="G747" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="H747" t="s">
         <v>9</v>
@@ -23206,7 +23209,7 @@
         <v>3.20000004768372</v>
       </c>
       <c r="G749" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="H749" t="s">
         <v>9</v>
@@ -23232,7 +23235,7 @@
         <v>3.08500003814697</v>
       </c>
       <c r="G750" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="H750" t="s">
         <v>9</v>
@@ -23258,7 +23261,7 @@
         <v>3.07500004768372</v>
       </c>
       <c r="G751" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="H751" t="s">
         <v>9</v>
@@ -23284,7 +23287,7 @@
         <v>3.08500003814697</v>
       </c>
       <c r="G752" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="H752" t="s">
         <v>9</v>
@@ -23310,7 +23313,7 @@
         <v>3.07999992370605</v>
       </c>
       <c r="G753" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="H753" t="s">
         <v>9</v>
@@ -23336,7 +23339,7 @@
         <v>3.11999988555908</v>
       </c>
       <c r="G754" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="H754" t="s">
         <v>9</v>
@@ -23362,7 +23365,7 @@
         <v>3.10999989509583</v>
       </c>
       <c r="G755" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="H755" t="s">
         <v>9</v>
@@ -23388,7 +23391,7 @@
         <v>3.125</v>
       </c>
       <c r="G756" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="H756" t="s">
         <v>9</v>
@@ -23440,7 +23443,7 @@
         <v>3.07500004768372</v>
       </c>
       <c r="G758" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="H758" t="s">
         <v>9</v>
@@ -23466,7 +23469,7 @@
         <v>3.07999992370605</v>
       </c>
       <c r="G759" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="H759" t="s">
         <v>9</v>
@@ -23518,7 +23521,7 @@
         <v>3.07500004768372</v>
       </c>
       <c r="G761" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="H761" t="s">
         <v>9</v>
@@ -23570,7 +23573,7 @@
         <v>3.10999989509583</v>
       </c>
       <c r="G763" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="H763" t="s">
         <v>9</v>
@@ -23596,7 +23599,7 @@
         <v>3.09500002861023</v>
       </c>
       <c r="G764" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="H764" t="s">
         <v>9</v>
@@ -23674,7 +23677,7 @@
         <v>3.24000000953674</v>
       </c>
       <c r="G767" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="H767" t="s">
         <v>9</v>
@@ -23726,7 +23729,7 @@
         <v>3.1949999332428</v>
       </c>
       <c r="G769" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="H769" t="s">
         <v>9</v>
@@ -23778,7 +23781,7 @@
         <v>3.1949999332428</v>
       </c>
       <c r="G771" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="H771" t="s">
         <v>9</v>
@@ -23804,7 +23807,7 @@
         <v>3.1800000667572</v>
       </c>
       <c r="G772" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="H772" t="s">
         <v>9</v>
@@ -23830,7 +23833,7 @@
         <v>3.1800000667572</v>
       </c>
       <c r="G773" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="H773" t="s">
         <v>9</v>
@@ -23856,7 +23859,7 @@
         <v>3.16499996185303</v>
       </c>
       <c r="G774" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="H774" t="s">
         <v>9</v>
@@ -23882,7 +23885,7 @@
         <v>3.1800000667572</v>
       </c>
       <c r="G775" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="H775" t="s">
         <v>9</v>
@@ -23934,7 +23937,7 @@
         <v>3.20000004768372</v>
       </c>
       <c r="G777" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="H777" t="s">
         <v>9</v>
@@ -23986,7 +23989,7 @@
         <v>3.20499992370605</v>
       </c>
       <c r="G779" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="H779" t="s">
         <v>9</v>
@@ -24064,7 +24067,7 @@
         <v>3.20000004768372</v>
       </c>
       <c r="G782" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="H782" t="s">
         <v>9</v>
@@ -24090,7 +24093,7 @@
         <v>3.20000004768372</v>
       </c>
       <c r="G783" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="H783" t="s">
         <v>9</v>
@@ -24194,7 +24197,7 @@
         <v>3.24000000953674</v>
       </c>
       <c r="G787" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="H787" t="s">
         <v>9</v>
@@ -24220,7 +24223,7 @@
         <v>3.25</v>
       </c>
       <c r="G788" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="H788" t="s">
         <v>9</v>
@@ -24272,7 +24275,7 @@
         <v>3.25999999046326</v>
       </c>
       <c r="G790" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="H790" t="s">
         <v>9</v>
@@ -24298,7 +24301,7 @@
         <v>3.25</v>
       </c>
       <c r="G791" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="H791" t="s">
         <v>9</v>
@@ -24324,7 +24327,7 @@
         <v>3.24000000953674</v>
       </c>
       <c r="G792" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="H792" t="s">
         <v>9</v>
@@ -24350,7 +24353,7 @@
         <v>3.26999998092651</v>
       </c>
       <c r="G793" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="H793" t="s">
         <v>9</v>
@@ -24376,7 +24379,7 @@
         <v>3.25999999046326</v>
       </c>
       <c r="G794" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="H794" t="s">
         <v>9</v>
@@ -24428,7 +24431,7 @@
         <v>3.29999995231628</v>
       </c>
       <c r="G796" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="H796" t="s">
         <v>9</v>
@@ -24688,7 +24691,7 @@
         <v>3.34999990463257</v>
       </c>
       <c r="G806" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="H806" t="s">
         <v>9</v>
@@ -25182,7 +25185,7 @@
         <v>3.53999996185303</v>
       </c>
       <c r="G825" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="H825" t="s">
         <v>9</v>
@@ -60004,7 +60007,7 @@
     </row>
     <row r="2165">
       <c r="A2165" s="1" t="n">
-        <v>45476.6495717593</v>
+        <v>45476.2916666667</v>
       </c>
       <c r="B2165" t="n">
         <v>133928</v>
@@ -60025,6 +60028,32 @@
         <v>1128</v>
       </c>
       <c r="H2165" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2166">
+      <c r="A2166" s="1" t="n">
+        <v>45477.649375</v>
+      </c>
+      <c r="B2166" t="n">
+        <v>117237</v>
+      </c>
+      <c r="C2166" t="n">
+        <v>2.35500001907349</v>
+      </c>
+      <c r="D2166" t="n">
+        <v>2.32500004768372</v>
+      </c>
+      <c r="E2166" t="n">
+        <v>2.32500004768372</v>
+      </c>
+      <c r="F2166" t="n">
+        <v>2.33999991416931</v>
+      </c>
+      <c r="G2166" t="s">
+        <v>1129</v>
+      </c>
+      <c r="H2166" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/ASC.MI.xlsx
+++ b/data/ASC.MI.xlsx
@@ -38,7 +38,7 @@
     <t xml:space="preserve">ticker</t>
   </si>
   <si>
-    <t xml:space="preserve">1.31329584121704</t>
+    <t xml:space="preserve">1.31329572200775</t>
   </si>
   <si>
     <t xml:space="preserve">ASC.MI</t>
@@ -50,13 +50,13 @@
     <t xml:space="preserve">1.30262815952301</t>
   </si>
   <si>
-    <t xml:space="preserve">1.30381345748901</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.28959035873413</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.28247833251953</t>
+    <t xml:space="preserve">1.30381333827972</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.28959000110626</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.28247821331024</t>
   </si>
   <si>
     <t xml:space="preserve">1.30973994731903</t>
@@ -71,7 +71,7 @@
     <t xml:space="preserve">1.22676980495453</t>
   </si>
   <si>
-    <t xml:space="preserve">1.23032569885254</t>
+    <t xml:space="preserve">1.23032581806183</t>
   </si>
   <si>
     <t xml:space="preserve">1.19121134281158</t>
@@ -80,13 +80,13 @@
     <t xml:space="preserve">1.21491706371307</t>
   </si>
   <si>
-    <t xml:space="preserve">1.29196047782898</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.28840470314026</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.28129303455353</t>
+    <t xml:space="preserve">1.29196059703827</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.28840494155884</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.28129291534424</t>
   </si>
   <si>
     <t xml:space="preserve">1.30736935138702</t>
@@ -95,40 +95,40 @@
     <t xml:space="preserve">1.31211042404175</t>
   </si>
   <si>
-    <t xml:space="preserve">1.29788720607758</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.23862266540527</t>
+    <t xml:space="preserve">1.29788708686829</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.23862278461456</t>
   </si>
   <si>
     <t xml:space="preserve">1.24454915523529</t>
   </si>
   <si>
-    <t xml:space="preserve">1.24336385726929</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.22439932823181</t>
+    <t xml:space="preserve">1.24336397647858</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.22439956665039</t>
   </si>
   <si>
     <t xml:space="preserve">1.24099349975586</t>
   </si>
   <si>
-    <t xml:space="preserve">1.26469910144806</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.26232838630676</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.26825499534607</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.27062547206879</t>
+    <t xml:space="preserve">1.26469922065735</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.26232850551605</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.26825487613678</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.27062559127808</t>
   </si>
   <si>
     <t xml:space="preserve">1.3251485824585</t>
   </si>
   <si>
-    <t xml:space="preserve">1.32159280776978</t>
+    <t xml:space="preserve">1.32159268856049</t>
   </si>
   <si>
     <t xml:space="preserve">1.3239631652832</t>
@@ -137,34 +137,34 @@
     <t xml:space="preserve">1.31685161590576</t>
   </si>
   <si>
-    <t xml:space="preserve">1.31922209262848</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.30618393421173</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.31803703308105</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.33581590652466</t>
+    <t xml:space="preserve">1.31922221183777</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.30618405342102</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.31803691387177</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.33581626415253</t>
   </si>
   <si>
     <t xml:space="preserve">1.34411311149597</t>
   </si>
   <si>
-    <t xml:space="preserve">1.34648394584656</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.36070716381073</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.35833656787872</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.34766900539398</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.34292793273926</t>
+    <t xml:space="preserve">1.34648382663727</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.36070740222931</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.35833668708801</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.34766888618469</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.34292781352997</t>
   </si>
   <si>
     <t xml:space="preserve">1.36189246177673</t>
@@ -176,40 +176,40 @@
     <t xml:space="preserve">1.35596597194672</t>
   </si>
   <si>
-    <t xml:space="preserve">1.35952186584473</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.36307764053345</t>
+    <t xml:space="preserve">1.35952162742615</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.36307775974274</t>
   </si>
   <si>
     <t xml:space="preserve">1.34885430335999</t>
   </si>
   <si>
-    <t xml:space="preserve">1.36426293849945</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.38796865940094</t>
+    <t xml:space="preserve">1.36426305770874</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.38796877861023</t>
   </si>
   <si>
     <t xml:space="preserve">1.38085699081421</t>
   </si>
   <si>
-    <t xml:space="preserve">1.38322758674622</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.38678348064423</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.39152455329895</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.39863610267639</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.37848651409149</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.37967157363892</t>
+    <t xml:space="preserve">1.38322770595551</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.38678324222565</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.39152467250824</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.39863622188568</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.3784863948822</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.37967169284821</t>
   </si>
   <si>
     <t xml:space="preserve">1.38204228878021</t>
@@ -218,142 +218,142 @@
     <t xml:space="preserve">1.40219223499298</t>
   </si>
   <si>
-    <t xml:space="preserve">1.41048908233643</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.41760087013245</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.41523027420044</t>
+    <t xml:space="preserve">1.410489320755</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.41760098934174</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.41523039340973</t>
   </si>
   <si>
     <t xml:space="preserve">1.40456259250641</t>
   </si>
   <si>
-    <t xml:space="preserve">1.39982151985168</t>
+    <t xml:space="preserve">1.39982163906097</t>
   </si>
   <si>
     <t xml:space="preserve">1.4328111410141</t>
   </si>
   <si>
-    <t xml:space="preserve">1.43027973175049</t>
+    <t xml:space="preserve">1.4302796125412</t>
   </si>
   <si>
     <t xml:space="preserve">1.43407690525055</t>
   </si>
   <si>
-    <t xml:space="preserve">1.44926571846008</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.46572029590607</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.46192312240601</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.47584629058838</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.48344039916992</t>
+    <t xml:space="preserve">1.44926559925079</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.46572005748749</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.46192300319672</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.4758460521698</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.4834406375885</t>
   </si>
   <si>
     <t xml:space="preserve">1.48470628261566</t>
   </si>
   <si>
-    <t xml:space="preserve">1.48976910114288</t>
+    <t xml:space="preserve">1.48976922035217</t>
   </si>
   <si>
     <t xml:space="preserve">1.49483215808868</t>
   </si>
   <si>
-    <t xml:space="preserve">1.50242650508881</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.53153836727142</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.52900695800781</t>
+    <t xml:space="preserve">1.50242626667023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.53153848648071</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.52900671958923</t>
   </si>
   <si>
     <t xml:space="preserve">1.54419577121735</t>
   </si>
   <si>
-    <t xml:space="preserve">1.55938470363617</t>
+    <t xml:space="preserve">1.55938458442688</t>
   </si>
   <si>
     <t xml:space="preserve">1.58343350887299</t>
   </si>
   <si>
-    <t xml:space="preserve">1.54546129703522</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.55685329437256</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.53913271427155</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.58216750621796</t>
+    <t xml:space="preserve">1.5454615354538</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.55685305595398</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.53913283348083</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.58216762542725</t>
   </si>
   <si>
     <t xml:space="preserve">1.65178310871124</t>
   </si>
   <si>
-    <t xml:space="preserve">1.6581118106842</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.64039182662964</t>
+    <t xml:space="preserve">1.65811157226562</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.64039158821106</t>
   </si>
   <si>
     <t xml:space="preserve">1.56571328639984</t>
   </si>
   <si>
-    <t xml:space="preserve">1.55052447319031</t>
+    <t xml:space="preserve">1.55052435398102</t>
   </si>
   <si>
     <t xml:space="preserve">1.59862232208252</t>
   </si>
   <si>
-    <t xml:space="preserve">1.64418876171112</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.5884964466095</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.56318175792694</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.60495090484619</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.63912558555603</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.70874130725861</t>
+    <t xml:space="preserve">1.6441890001297</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.58849656581879</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.56318163871765</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.60495102405548</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.63912570476532</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.70874118804932</t>
   </si>
   <si>
     <t xml:space="preserve">1.69481801986694</t>
   </si>
   <si>
-    <t xml:space="preserve">1.63786005973816</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.69355225563049</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.70494389533997</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.706209897995</t>
+    <t xml:space="preserve">1.63786017894745</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.69355237483978</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.70494401454926</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.70621001720428</t>
   </si>
   <si>
     <t xml:space="preserve">1.76316773891449</t>
   </si>
   <si>
-    <t xml:space="preserve">1.76823055744171</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.77076208591461</t>
+    <t xml:space="preserve">1.76823079586029</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.7707622051239</t>
   </si>
   <si>
     <t xml:space="preserve">1.73532176017761</t>
@@ -362,34 +362,34 @@
     <t xml:space="preserve">1.73405587673187</t>
   </si>
   <si>
-    <t xml:space="preserve">1.77202785015106</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.78468489646912</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.75051057338715</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.74671316146851</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.75304210186005</t>
+    <t xml:space="preserve">1.77202761173248</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.78468525409698</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.75051045417786</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.74671339988708</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.75304198265076</t>
   </si>
   <si>
     <t xml:space="preserve">1.76443338394165</t>
   </si>
   <si>
-    <t xml:space="preserve">1.80620265007019</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.84164333343506</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.80367124080658</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.83278322219849</t>
+    <t xml:space="preserve">1.80620276927948</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.84164321422577</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.80367112159729</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.83278298377991</t>
   </si>
   <si>
     <t xml:space="preserve">1.82012581825256</t>
@@ -398,34 +398,34 @@
     <t xml:space="preserve">1.79734241962433</t>
   </si>
   <si>
-    <t xml:space="preserve">1.79607713222504</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.79354548454285</t>
+    <t xml:space="preserve">1.79607689380646</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.79354536533356</t>
   </si>
   <si>
     <t xml:space="preserve">1.81632852554321</t>
   </si>
   <si>
-    <t xml:space="preserve">1.82265734672546</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.80999982357025</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.82518887519836</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.81126546859741</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.70241236686707</t>
+    <t xml:space="preserve">1.82265758514404</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.80999994277954</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.82518911361694</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.8112655878067</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.70241212844849</t>
   </si>
   <si>
     <t xml:space="preserve">1.71380400657654</t>
   </si>
   <si>
-    <t xml:space="preserve">1.78974831104279</t>
+    <t xml:space="preserve">1.7897481918335</t>
   </si>
   <si>
     <t xml:space="preserve">1.74038457870483</t>
@@ -437,40 +437,40 @@
     <t xml:space="preserve">1.67583203315735</t>
   </si>
   <si>
-    <t xml:space="preserve">1.64798593521118</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.67456614971161</t>
+    <t xml:space="preserve">1.6479856967926</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.6745662689209</t>
   </si>
   <si>
     <t xml:space="preserve">1.6606433391571</t>
   </si>
   <si>
-    <t xml:space="preserve">1.68722379207611</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.69861531257629</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.66444063186646</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.6770977973938</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.65684604644775</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.65937757492065</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.66190886497498</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.68469202518463</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.69228672981262</t>
+    <t xml:space="preserve">1.68722355365753</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.69861555099487</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.66444051265717</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.67709815502167</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.65684616565704</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.65937745571136</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.66190898418427</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.6846923828125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.69228661060333</t>
   </si>
   <si>
     <t xml:space="preserve">1.69608390331268</t>
@@ -479,43 +479,43 @@
     <t xml:space="preserve">1.70114696025848</t>
   </si>
   <si>
-    <t xml:space="preserve">1.66317474842072</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.68975520133972</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.68595802783966</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.67836380004883</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.63406276702881</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.57710480690002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.53407001495361</t>
+    <t xml:space="preserve">1.66317462921143</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.68975508213043</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.68595790863037</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.67836344242096</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.6340628862381</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.57710492610931</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.53406989574432</t>
   </si>
   <si>
     <t xml:space="preserve">1.53533554077148</t>
   </si>
   <si>
-    <t xml:space="preserve">1.54039871692657</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.52267825603485</t>
+    <t xml:space="preserve">1.54039859771729</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.52267801761627</t>
   </si>
   <si>
     <t xml:space="preserve">1.60115361213684</t>
   </si>
   <si>
-    <t xml:space="preserve">1.63153171539307</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.6074823141098</t>
+    <t xml:space="preserve">1.63153147697449</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.60748267173767</t>
   </si>
   <si>
     <t xml:space="preserve">1.57583928108215</t>
@@ -524,19 +524,19 @@
     <t xml:space="preserve">1.53786706924438</t>
   </si>
   <si>
-    <t xml:space="preserve">1.55558717250824</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.58723032474518</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.61381089687347</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.62899971008301</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.62393701076508</t>
+    <t xml:space="preserve">1.55558729171753</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.58723080158234</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.61381113529205</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.6289998292923</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.62393712997437</t>
   </si>
   <si>
     <t xml:space="preserve">1.64545452594757</t>
@@ -545,25 +545,25 @@
     <t xml:space="preserve">1.63659429550171</t>
   </si>
   <si>
-    <t xml:space="preserve">1.63026535511017</t>
+    <t xml:space="preserve">1.63026571273804</t>
   </si>
   <si>
     <t xml:space="preserve">1.68089485168457</t>
   </si>
   <si>
-    <t xml:space="preserve">1.71000683307648</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.69988095760345</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.72139871120453</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.7176011800766</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.72393012046814</t>
+    <t xml:space="preserve">1.71000671386719</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.69988107681274</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.72139859199524</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.71760106086731</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.72392988204956</t>
   </si>
   <si>
     <t xml:space="preserve">1.73658728599548</t>
@@ -572,7 +572,7 @@
     <t xml:space="preserve">1.71506989002228</t>
   </si>
   <si>
-    <t xml:space="preserve">1.7226642370224</t>
+    <t xml:space="preserve">1.72266411781311</t>
   </si>
   <si>
     <t xml:space="preserve">1.73279011249542</t>
@@ -581,34 +581,34 @@
     <t xml:space="preserve">1.75177586078644</t>
   </si>
   <si>
-    <t xml:space="preserve">1.76190173625946</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.75937080383301</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.73025870323181</t>
+    <t xml:space="preserve">1.76190197467804</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.75937032699585</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.73025858402252</t>
   </si>
   <si>
     <t xml:space="preserve">1.81253135204315</t>
   </si>
   <si>
-    <t xml:space="preserve">1.80493724346161</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.78848230838776</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.77709102630615</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.82139146327972</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.8277200460434</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.79481101036072</t>
+    <t xml:space="preserve">1.80493700504303</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.78848242759705</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.77709090709686</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.82139158248901</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.82772040367126</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.7948112487793</t>
   </si>
   <si>
     <t xml:space="preserve">1.82898592948914</t>
@@ -617,25 +617,25 @@
     <t xml:space="preserve">1.84037744998932</t>
   </si>
   <si>
-    <t xml:space="preserve">1.81379699707031</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.86695790290833</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.86062932014465</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.88594424724579</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.91758739948273</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.93404173851013</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.95049667358398</t>
+    <t xml:space="preserve">1.81379687786102</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.86695802211761</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.86062955856323</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.8859441280365</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.91758716106415</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.93404185771942</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.95049643516541</t>
   </si>
   <si>
     <t xml:space="preserve">1.95935654640198</t>
@@ -644,31 +644,31 @@
     <t xml:space="preserve">1.95555937290192</t>
   </si>
   <si>
-    <t xml:space="preserve">1.99732875823975</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.9821400642395</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.03656625747681</t>
+    <t xml:space="preserve">1.99732863903046</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.98213982582092</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.03656649589539</t>
   </si>
   <si>
     <t xml:space="preserve">2.06314659118652</t>
   </si>
   <si>
-    <t xml:space="preserve">2.08339881896973</t>
+    <t xml:space="preserve">2.08339834213257</t>
   </si>
   <si>
     <t xml:space="preserve">2.10238456726074</t>
   </si>
   <si>
-    <t xml:space="preserve">2.06947565078735</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.0720067024231</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.11377620697021</t>
+    <t xml:space="preserve">2.06947541236877</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.07200694084167</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.11377596855164</t>
   </si>
   <si>
     <t xml:space="preserve">2.10871315002441</t>
@@ -677,79 +677,79 @@
     <t xml:space="preserve">2.12516760826111</t>
   </si>
   <si>
-    <t xml:space="preserve">2.16440558433533</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.15174841880798</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.15681099891663</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.19604921340942</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.20490908622742</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.21883201599121</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.2276918888092</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.23148965835571</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.21503496170044</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.24034976959229</t>
+    <t xml:space="preserve">2.16440534591675</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.1517481803894</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.15681147575378</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.19604849815369</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.20490884780884</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.21883225440979</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.22769236564636</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.23148941993713</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.21503472328186</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.24034953117371</t>
   </si>
   <si>
     <t xml:space="preserve">2.23275518417358</t>
   </si>
   <si>
-    <t xml:space="preserve">2.22895789146423</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.21376895904541</t>
+    <t xml:space="preserve">2.22895836830139</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.21376919746399</t>
   </si>
   <si>
     <t xml:space="preserve">2.22516083717346</t>
   </si>
   <si>
-    <t xml:space="preserve">2.27452445030212</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.24288105964661</t>
+    <t xml:space="preserve">2.27452421188354</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.24288082122803</t>
   </si>
   <si>
     <t xml:space="preserve">2.23908376693726</t>
   </si>
   <si>
-    <t xml:space="preserve">2.27832174301147</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.26946139335632</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.27325868606567</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.29224443435669</t>
+    <t xml:space="preserve">2.2783215045929</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.2694616317749</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.27325844764709</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.29224467277527</t>
   </si>
   <si>
     <t xml:space="preserve">2.34160828590393</t>
   </si>
   <si>
-    <t xml:space="preserve">2.34920263290405</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.39350318908691</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.4227409362793</t>
+    <t xml:space="preserve">2.34920239448547</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.39350342750549</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.42274117469788</t>
   </si>
   <si>
     <t xml:space="preserve">2.4094512462616</t>
@@ -767,43 +767,43 @@
     <t xml:space="preserve">2.31243538856506</t>
   </si>
   <si>
-    <t xml:space="preserve">2.3523051738739</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.31376457214355</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.3004744052887</t>
+    <t xml:space="preserve">2.35230493545532</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.31376433372498</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.30047464370728</t>
   </si>
   <si>
     <t xml:space="preserve">2.3655948638916</t>
   </si>
   <si>
-    <t xml:space="preserve">2.38154268264771</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.40014863014221</t>
+    <t xml:space="preserve">2.38154292106628</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.40014839172363</t>
   </si>
   <si>
     <t xml:space="preserve">2.4147675037384</t>
   </si>
   <si>
-    <t xml:space="preserve">2.43204426765442</t>
+    <t xml:space="preserve">2.43204402923584</t>
   </si>
   <si>
     <t xml:space="preserve">2.41875410079956</t>
   </si>
   <si>
-    <t xml:space="preserve">2.36293697357178</t>
+    <t xml:space="preserve">2.3629367351532</t>
   </si>
   <si>
     <t xml:space="preserve">2.40147733688354</t>
   </si>
   <si>
-    <t xml:space="preserve">2.40812206268311</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.42539882659912</t>
+    <t xml:space="preserve">2.40812253952026</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.4253990650177</t>
   </si>
   <si>
     <t xml:space="preserve">2.43071508407593</t>
@@ -824,52 +824,49 @@
     <t xml:space="preserve">2.40679311752319</t>
   </si>
   <si>
-    <t xml:space="preserve">2.39350342750549</t>
-  </si>
-  <si>
     <t xml:space="preserve">2.47058463096619</t>
   </si>
   <si>
     <t xml:space="preserve">2.38951635360718</t>
   </si>
   <si>
-    <t xml:space="preserve">2.37489771842957</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.35762095451355</t>
+    <t xml:space="preserve">2.37489748001099</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.35762071609497</t>
   </si>
   <si>
     <t xml:space="preserve">2.35894966125488</t>
   </si>
   <si>
-    <t xml:space="preserve">2.31509351730347</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.30579090118408</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.33104085922241</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.32173800468445</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.31908011436462</t>
+    <t xml:space="preserve">2.31509304046631</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.30579042434692</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.33104109764099</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.32173824310303</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.3190803527832</t>
   </si>
   <si>
     <t xml:space="preserve">2.32306718826294</t>
   </si>
   <si>
-    <t xml:space="preserve">2.32838320732117</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.30446147918701</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.26592087745667</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.25661826133728</t>
+    <t xml:space="preserve">2.32838296890259</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.30446171760559</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.26592063903809</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.25661778450012</t>
   </si>
   <si>
     <t xml:space="preserve">2.27921080589294</t>
@@ -878,25 +875,25 @@
     <t xml:space="preserve">2.29250025749207</t>
   </si>
   <si>
-    <t xml:space="preserve">2.30180335044861</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.38552951812744</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.38021349906921</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.39084577560425</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.37622666358948</t>
+    <t xml:space="preserve">2.30180382728577</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.38552927970886</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.38021326065063</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.39084529876709</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.3762264251709</t>
   </si>
   <si>
     <t xml:space="preserve">2.35629177093506</t>
   </si>
   <si>
-    <t xml:space="preserve">2.33901476860046</t>
+    <t xml:space="preserve">2.33901500701904</t>
   </si>
   <si>
     <t xml:space="preserve">2.34034419059753</t>
@@ -905,25 +902,25 @@
     <t xml:space="preserve">2.32572531700134</t>
   </si>
   <si>
-    <t xml:space="preserve">2.35097599029541</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.30977725982666</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.35496282577515</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.43470239639282</t>
+    <t xml:space="preserve">2.35097622871399</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.30977749824524</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.35496258735657</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.43470215797424</t>
   </si>
   <si>
     <t xml:space="preserve">2.39881944656372</t>
   </si>
   <si>
-    <t xml:space="preserve">2.42141222953796</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.34698891639709</t>
+    <t xml:space="preserve">2.42141199111938</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.34698915481567</t>
   </si>
   <si>
     <t xml:space="preserve">2.34831786155701</t>
@@ -932,43 +929,43 @@
     <t xml:space="preserve">2.33502817153931</t>
   </si>
   <si>
-    <t xml:space="preserve">2.32971215248108</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.39483261108398</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.37223958969116</t>
+    <t xml:space="preserve">2.3297119140625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.39483237266541</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.37223982810974</t>
   </si>
   <si>
     <t xml:space="preserve">2.39749050140381</t>
   </si>
   <si>
-    <t xml:space="preserve">2.36825251579285</t>
+    <t xml:space="preserve">2.36825299263</t>
   </si>
   <si>
     <t xml:space="preserve">2.41742515563965</t>
   </si>
   <si>
-    <t xml:space="preserve">2.43603086471558</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.4719135761261</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.48254537582397</t>
+    <t xml:space="preserve">2.43603110313416</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.47191381454468</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.48254561424255</t>
   </si>
   <si>
     <t xml:space="preserve">2.5343759059906</t>
   </si>
   <si>
-    <t xml:space="preserve">2.51311206817627</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.51178288459778</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.54367899894714</t>
+    <t xml:space="preserve">2.51311230659485</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.51178312301636</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.54367876052856</t>
   </si>
   <si>
     <t xml:space="preserve">2.45197892189026</t>
@@ -977,28 +974,28 @@
     <t xml:space="preserve">2.45729470252991</t>
   </si>
   <si>
-    <t xml:space="preserve">2.40546417236328</t>
+    <t xml:space="preserve">2.40546441078186</t>
   </si>
   <si>
     <t xml:space="preserve">2.42938613891602</t>
   </si>
   <si>
-    <t xml:space="preserve">2.47324252128601</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.4586238861084</t>
+    <t xml:space="preserve">2.47324228286743</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.45862364768982</t>
   </si>
   <si>
     <t xml:space="preserve">2.4413468837738</t>
   </si>
   <si>
-    <t xml:space="preserve">2.42672801017761</t>
+    <t xml:space="preserve">2.42672777175903</t>
   </si>
   <si>
     <t xml:space="preserve">2.44932103157043</t>
   </si>
   <si>
-    <t xml:space="preserve">2.37888431549072</t>
+    <t xml:space="preserve">2.3788845539093</t>
   </si>
   <si>
     <t xml:space="preserve">2.42872166633606</t>
@@ -1013,7 +1010,7 @@
     <t xml:space="preserve">2.44201135635376</t>
   </si>
   <si>
-    <t xml:space="preserve">2.38220739364624</t>
+    <t xml:space="preserve">2.38220715522766</t>
   </si>
   <si>
     <t xml:space="preserve">2.19282650947571</t>
@@ -1022,7 +1019,7 @@
     <t xml:space="preserve">2.09979748725891</t>
   </si>
   <si>
-    <t xml:space="preserve">2.15960168838501</t>
+    <t xml:space="preserve">2.15960192680359</t>
   </si>
   <si>
     <t xml:space="preserve">2.12969970703125</t>
@@ -1034,19 +1031,19 @@
     <t xml:space="preserve">2.14631199836731</t>
   </si>
   <si>
-    <t xml:space="preserve">2.13634443283081</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.17289209365845</t>
+    <t xml:space="preserve">2.13634467124939</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.17289185523987</t>
   </si>
   <si>
     <t xml:space="preserve">2.17953658103943</t>
   </si>
   <si>
-    <t xml:space="preserve">2.12305474281311</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.10644245147705</t>
+    <t xml:space="preserve">2.12305498123169</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.10644268989563</t>
   </si>
   <si>
     <t xml:space="preserve">2.08318519592285</t>
@@ -1055,34 +1052,34 @@
     <t xml:space="preserve">2.07321786880493</t>
   </si>
   <si>
-    <t xml:space="preserve">2.03334832191467</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.06989526748657</t>
+    <t xml:space="preserve">2.03334808349609</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.06989550590515</t>
   </si>
   <si>
     <t xml:space="preserve">2.07986283302307</t>
   </si>
   <si>
-    <t xml:space="preserve">2.10312008857727</t>
+    <t xml:space="preserve">2.10311985015869</t>
   </si>
   <si>
     <t xml:space="preserve">2.14298963546753</t>
   </si>
   <si>
-    <t xml:space="preserve">2.09647536277771</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.12637734413147</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.13302254676819</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.18285918235779</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.16292476654053</t>
+    <t xml:space="preserve">2.09647512435913</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.12637710571289</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.13302230834961</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.18285894393921</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.16292428970337</t>
   </si>
   <si>
     <t xml:space="preserve">2.11640977859497</t>
@@ -1091,13 +1088,13 @@
     <t xml:space="preserve">2.11973237991333</t>
   </si>
   <si>
-    <t xml:space="preserve">2.15627932548523</t>
+    <t xml:space="preserve">2.15627956390381</t>
   </si>
   <si>
     <t xml:space="preserve">2.16624689102173</t>
   </si>
   <si>
-    <t xml:space="preserve">2.19947147369385</t>
+    <t xml:space="preserve">2.19947123527527</t>
   </si>
   <si>
     <t xml:space="preserve">2.17621421813965</t>
@@ -1106,13 +1103,13 @@
     <t xml:space="preserve">2.18618154525757</t>
   </si>
   <si>
-    <t xml:space="preserve">2.20943903923035</t>
+    <t xml:space="preserve">2.20943880081177</t>
   </si>
   <si>
     <t xml:space="preserve">2.21276164054871</t>
   </si>
   <si>
-    <t xml:space="preserve">2.2592761516571</t>
+    <t xml:space="preserve">2.25927591323853</t>
   </si>
   <si>
     <t xml:space="preserve">2.34566020965576</t>
@@ -1121,22 +1118,22 @@
     <t xml:space="preserve">2.3290479183197</t>
   </si>
   <si>
-    <t xml:space="preserve">2.34655952453613</t>
+    <t xml:space="preserve">2.34655904769897</t>
   </si>
   <si>
     <t xml:space="preserve">2.44279026985168</t>
   </si>
   <si>
-    <t xml:space="preserve">2.39837598800659</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.36876654624939</t>
+    <t xml:space="preserve">2.39837574958801</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.36876630783081</t>
   </si>
   <si>
     <t xml:space="preserve">2.4131805896759</t>
   </si>
   <si>
-    <t xml:space="preserve">2.35396146774292</t>
+    <t xml:space="preserve">2.3539617061615</t>
   </si>
   <si>
     <t xml:space="preserve">2.31694960594177</t>
@@ -1145,31 +1142,31 @@
     <t xml:space="preserve">2.30584597587585</t>
   </si>
   <si>
-    <t xml:space="preserve">2.29844379425049</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.29104113578796</t>
+    <t xml:space="preserve">2.29844355583191</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.29104089736938</t>
   </si>
   <si>
     <t xml:space="preserve">2.27993750572205</t>
   </si>
   <si>
-    <t xml:space="preserve">2.26143145561218</t>
+    <t xml:space="preserve">2.26143169403076</t>
   </si>
   <si>
     <t xml:space="preserve">2.22441983222961</t>
   </si>
   <si>
-    <t xml:space="preserve">2.1281886100769</t>
+    <t xml:space="preserve">2.12818837165833</t>
   </si>
   <si>
     <t xml:space="preserve">2.18370652198792</t>
   </si>
   <si>
-    <t xml:space="preserve">2.23182225227356</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.22071838378906</t>
+    <t xml:space="preserve">2.23182201385498</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.22071862220764</t>
   </si>
   <si>
     <t xml:space="preserve">2.20591378211975</t>
@@ -1178,43 +1175,43 @@
     <t xml:space="preserve">2.18000531196594</t>
   </si>
   <si>
-    <t xml:space="preserve">2.25773048400879</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.26513266563416</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.20221257209778</t>
+    <t xml:space="preserve">2.25773024559021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.26513290405273</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.2022123336792</t>
   </si>
   <si>
     <t xml:space="preserve">2.21331596374512</t>
   </si>
   <si>
-    <t xml:space="preserve">2.21701717376709</t>
+    <t xml:space="preserve">2.21701693534851</t>
   </si>
   <si>
     <t xml:space="preserve">2.16149950027466</t>
   </si>
   <si>
-    <t xml:space="preserve">2.26883387565613</t>
+    <t xml:space="preserve">2.26883411407471</t>
   </si>
   <si>
     <t xml:space="preserve">2.24662685394287</t>
   </si>
   <si>
-    <t xml:space="preserve">2.18740725517273</t>
+    <t xml:space="preserve">2.18740773200989</t>
   </si>
   <si>
     <t xml:space="preserve">2.16890168190002</t>
   </si>
   <si>
-    <t xml:space="preserve">2.15779805183411</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.13929200172424</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.13559079170227</t>
+    <t xml:space="preserve">2.15779781341553</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.13929224014282</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.13559103012085</t>
   </si>
   <si>
     <t xml:space="preserve">2.12078595161438</t>
@@ -1226,40 +1223,40 @@
     <t xml:space="preserve">2.14669466018677</t>
   </si>
   <si>
-    <t xml:space="preserve">2.11708450317383</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.10968255996704</t>
+    <t xml:space="preserve">2.11708474159241</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.10968232154846</t>
   </si>
   <si>
     <t xml:space="preserve">2.32435202598572</t>
   </si>
   <si>
-    <t xml:space="preserve">2.33175420761108</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.3724672794342</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.62044739723206</t>
+    <t xml:space="preserve">2.33175444602966</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.37246751785278</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.62044787406921</t>
   </si>
   <si>
     <t xml:space="preserve">2.48350358009338</t>
   </si>
   <si>
-    <t xml:space="preserve">2.47980213165283</t>
+    <t xml:space="preserve">2.47980237007141</t>
   </si>
   <si>
     <t xml:space="preserve">2.41688203811646</t>
   </si>
   <si>
-    <t xml:space="preserve">2.42058300971985</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.40577816963196</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.36506509780884</t>
+    <t xml:space="preserve">2.42058324813843</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.40577864646912</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.36506533622742</t>
   </si>
   <si>
     <t xml:space="preserve">2.32065081596375</t>
@@ -1268,22 +1265,22 @@
     <t xml:space="preserve">2.29474234580994</t>
   </si>
   <si>
-    <t xml:space="preserve">2.23922443389893</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.30954718589783</t>
+    <t xml:space="preserve">2.2392246723175</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.30954694747925</t>
   </si>
   <si>
     <t xml:space="preserve">2.27623629570007</t>
   </si>
   <si>
-    <t xml:space="preserve">2.28363871574402</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.3021445274353</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.3132483959198</t>
+    <t xml:space="preserve">2.2836389541626</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.30214500427246</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.31324863433838</t>
   </si>
   <si>
     <t xml:space="preserve">2.342857837677</t>
@@ -1295,16 +1292,19 @@
     <t xml:space="preserve">2.33545541763306</t>
   </si>
   <si>
-    <t xml:space="preserve">2.2429256439209</t>
+    <t xml:space="preserve">2.34655928611755</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.24292540550232</t>
   </si>
   <si>
     <t xml:space="preserve">2.17630410194397</t>
   </si>
   <si>
-    <t xml:space="preserve">2.19110870361328</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.23552322387695</t>
+    <t xml:space="preserve">2.19110894203186</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.23552346229553</t>
   </si>
   <si>
     <t xml:space="preserve">2.08747553825378</t>
@@ -1313,28 +1313,28 @@
     <t xml:space="preserve">2.15039563179016</t>
   </si>
   <si>
-    <t xml:space="preserve">2.15409708023071</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.2540295124054</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.27253532409668</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.25032806396484</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.22812056541443</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.40207719802856</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.43168687820435</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.3835711479187</t>
+    <t xml:space="preserve">2.15409684181213</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.25402927398682</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.2725350856781</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.25032782554626</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.22812080383301</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.40207743644714</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.43168663978577</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.38357090950012</t>
   </si>
   <si>
     <t xml:space="preserve">2.35766267776489</t>
@@ -1343,7 +1343,7 @@
     <t xml:space="preserve">2.37616896629333</t>
   </si>
   <si>
-    <t xml:space="preserve">2.37986969947815</t>
+    <t xml:space="preserve">2.37986993789673</t>
   </si>
   <si>
     <t xml:space="preserve">2.42428421974182</t>
@@ -1355,25 +1355,25 @@
     <t xml:space="preserve">2.44649147987366</t>
   </si>
   <si>
-    <t xml:space="preserve">2.45019268989563</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.50200963020325</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.49460697174072</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.49090600013733</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.51311326026917</t>
+    <t xml:space="preserve">2.45019245147705</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.50200939178467</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.4946072101593</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.49090576171875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.51311302185059</t>
   </si>
   <si>
     <t xml:space="preserve">2.4983081817627</t>
   </si>
   <si>
-    <t xml:space="preserve">2.50571060180664</t>
+    <t xml:space="preserve">2.50571084022522</t>
   </si>
   <si>
     <t xml:space="preserve">2.56122875213623</t>
@@ -1388,10 +1388,10 @@
     <t xml:space="preserve">2.5279176235199</t>
   </si>
   <si>
-    <t xml:space="preserve">2.53902125358582</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.52051568031311</t>
+    <t xml:space="preserve">2.53902149200439</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.52051544189453</t>
   </si>
   <si>
     <t xml:space="preserve">2.5242166519165</t>
@@ -1403,7 +1403,7 @@
     <t xml:space="preserve">2.55382633209229</t>
   </si>
   <si>
-    <t xml:space="preserve">2.57603359222412</t>
+    <t xml:space="preserve">2.57603335380554</t>
   </si>
   <si>
     <t xml:space="preserve">2.60194182395935</t>
@@ -1412,34 +1412,34 @@
     <t xml:space="preserve">2.59083795547485</t>
   </si>
   <si>
-    <t xml:space="preserve">2.57973432540894</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.62785029411316</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.64635634422302</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.64265489578247</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.6389536857605</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.65745973587036</t>
+    <t xml:space="preserve">2.57973456382751</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.62785005569458</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.6463565826416</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.64265465736389</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.63895392417908</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.65745949745178</t>
   </si>
   <si>
     <t xml:space="preserve">2.67226433753967</t>
   </si>
   <si>
-    <t xml:space="preserve">2.71297740936279</t>
+    <t xml:space="preserve">2.71297764778137</t>
   </si>
   <si>
     <t xml:space="preserve">2.72778248786926</t>
   </si>
   <si>
-    <t xml:space="preserve">2.70187425613403</t>
+    <t xml:space="preserve">2.70187401771545</t>
   </si>
   <si>
     <t xml:space="preserve">2.69077062606812</t>
@@ -1448,13 +1448,13 @@
     <t xml:space="preserve">2.74258708953857</t>
   </si>
   <si>
-    <t xml:space="preserve">2.75739216804504</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.82401347160339</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.82031226158142</t>
+    <t xml:space="preserve">2.75739192962646</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.82401371002197</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.8203125</t>
   </si>
   <si>
     <t xml:space="preserve">2.8499219417572</t>
@@ -1463,16 +1463,16 @@
     <t xml:space="preserve">2.83881831169128</t>
   </si>
   <si>
-    <t xml:space="preserve">3.02654075622559</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.74035239219666</t>
+    <t xml:space="preserve">3.02654099464417</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.74035263061523</t>
   </si>
   <si>
     <t xml:space="preserve">2.73643207550049</t>
   </si>
   <si>
-    <t xml:space="preserve">2.68938732147217</t>
+    <t xml:space="preserve">2.68938755989075</t>
   </si>
   <si>
     <t xml:space="preserve">2.70898938179016</t>
@@ -1484,19 +1484,19 @@
     <t xml:space="preserve">2.75603413581848</t>
   </si>
   <si>
-    <t xml:space="preserve">2.84228253364563</t>
+    <t xml:space="preserve">2.84228277206421</t>
   </si>
   <si>
     <t xml:space="preserve">2.79915833473206</t>
   </si>
   <si>
-    <t xml:space="preserve">2.82268095016479</t>
+    <t xml:space="preserve">2.82268071174622</t>
   </si>
   <si>
     <t xml:space="preserve">2.78347682952881</t>
   </si>
   <si>
-    <t xml:space="preserve">2.77563571929932</t>
+    <t xml:space="preserve">2.7756359577179</t>
   </si>
   <si>
     <t xml:space="preserve">2.76779532432556</t>
@@ -1505,64 +1505,64 @@
     <t xml:space="preserve">2.79131746292114</t>
   </si>
   <si>
-    <t xml:space="preserve">2.78739738464355</t>
+    <t xml:space="preserve">2.78739714622498</t>
   </si>
   <si>
     <t xml:space="preserve">2.84620332717896</t>
   </si>
   <si>
-    <t xml:space="preserve">2.85796427726746</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.82660102844238</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.83444166183472</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.85012364387512</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.8618848323822</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.87364554405212</t>
+    <t xml:space="preserve">2.85796403884888</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.8266007900238</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.8344419002533</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.85012340545654</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.86188459396362</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.8736457824707</t>
   </si>
   <si>
     <t xml:space="preserve">2.99517774581909</t>
   </si>
   <si>
-    <t xml:space="preserve">2.92461085319519</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.95597410202026</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.97165536880493</t>
+    <t xml:space="preserve">2.92461061477661</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.95597386360168</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.97165560722351</t>
   </si>
   <si>
     <t xml:space="preserve">2.94813323020935</t>
   </si>
   <si>
-    <t xml:space="preserve">2.94029259681702</t>
+    <t xml:space="preserve">2.94029235839844</t>
   </si>
   <si>
     <t xml:space="preserve">2.96381449699402</t>
   </si>
   <si>
-    <t xml:space="preserve">2.95989465713501</t>
+    <t xml:space="preserve">2.95989418029785</t>
   </si>
   <si>
     <t xml:space="preserve">3.00693893432617</t>
   </si>
   <si>
-    <t xml:space="preserve">3.1049485206604</t>
+    <t xml:space="preserve">3.10494875907898</t>
   </si>
   <si>
     <t xml:space="preserve">3.06966543197632</t>
   </si>
   <si>
-    <t xml:space="preserve">3.03830218315125</t>
+    <t xml:space="preserve">3.03830194473267</t>
   </si>
   <si>
     <t xml:space="preserve">3.07750606536865</t>
@@ -1574,13 +1574,13 @@
     <t xml:space="preserve">3.15983438491821</t>
   </si>
   <si>
-    <t xml:space="preserve">3.18335652351379</t>
+    <t xml:space="preserve">3.18335676193237</t>
   </si>
   <si>
     <t xml:space="preserve">3.23824214935303</t>
   </si>
   <si>
-    <t xml:space="preserve">3.25000333786011</t>
+    <t xml:space="preserve">3.25000309944153</t>
   </si>
   <si>
     <t xml:space="preserve">3.25392365455627</t>
@@ -1595,7 +1595,7 @@
     <t xml:space="preserve">3.33233141899109</t>
   </si>
   <si>
-    <t xml:space="preserve">3.31272912025452</t>
+    <t xml:space="preserve">3.3127293586731</t>
   </si>
   <si>
     <t xml:space="preserve">3.27744579315186</t>
@@ -1604,7 +1604,7 @@
     <t xml:space="preserve">3.20687890052795</t>
   </si>
   <si>
-    <t xml:space="preserve">3.22648072242737</t>
+    <t xml:space="preserve">3.22648096084595</t>
   </si>
   <si>
     <t xml:space="preserve">3.25784397125244</t>
@@ -1613,10 +1613,10 @@
     <t xml:space="preserve">3.24216246604919</t>
   </si>
   <si>
-    <t xml:space="preserve">3.19119763374329</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.14023232460022</t>
+    <t xml:space="preserve">3.19119739532471</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.1402325630188</t>
   </si>
   <si>
     <t xml:space="preserve">3.12847137451172</t>
@@ -1625,19 +1625,19 @@
     <t xml:space="preserve">3.11670970916748</t>
   </si>
   <si>
-    <t xml:space="preserve">3.05006313323975</t>
+    <t xml:space="preserve">3.05006337165833</t>
   </si>
   <si>
     <t xml:space="preserve">3.05398368835449</t>
   </si>
   <si>
-    <t xml:space="preserve">3.21864008903503</t>
+    <t xml:space="preserve">3.21864032745361</t>
   </si>
   <si>
     <t xml:space="preserve">3.21471953392029</t>
   </si>
   <si>
-    <t xml:space="preserve">3.1637544631958</t>
+    <t xml:space="preserve">3.16375470161438</t>
   </si>
   <si>
     <t xml:space="preserve">3.14807271957397</t>
@@ -1646,22 +1646,22 @@
     <t xml:space="preserve">3.04222273826599</t>
   </si>
   <si>
-    <t xml:space="preserve">3.12063026428223</t>
+    <t xml:space="preserve">3.12063050270081</t>
   </si>
   <si>
     <t xml:space="preserve">3.12455058097839</t>
   </si>
   <si>
-    <t xml:space="preserve">3.08534669876099</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.08926701545715</t>
+    <t xml:space="preserve">3.08534693717957</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.08926725387573</t>
   </si>
   <si>
     <t xml:space="preserve">3.11278963088989</t>
   </si>
   <si>
-    <t xml:space="preserve">3.10102844238281</t>
+    <t xml:space="preserve">3.10102820396423</t>
   </si>
   <si>
     <t xml:space="preserve">2.98341679573059</t>
@@ -1670,28 +1670,28 @@
     <t xml:space="preserve">2.88148665428162</t>
   </si>
   <si>
-    <t xml:space="preserve">2.93637204170227</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.97557640075684</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.98733687400818</t>
+    <t xml:space="preserve">2.93637180328369</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.97557592391968</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.98733735084534</t>
   </si>
   <si>
     <t xml:space="preserve">2.97949624061584</t>
   </si>
   <si>
-    <t xml:space="preserve">2.99909853935242</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.00301861763</t>
+    <t xml:space="preserve">2.99909806251526</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.00301837921143</t>
   </si>
   <si>
     <t xml:space="preserve">3.05790424346924</t>
   </si>
   <si>
-    <t xml:space="preserve">3.03438186645508</t>
+    <t xml:space="preserve">3.0343816280365</t>
   </si>
   <si>
     <t xml:space="preserve">3.06574487686157</t>
@@ -1700,7 +1700,7 @@
     <t xml:space="preserve">3.04614281654358</t>
   </si>
   <si>
-    <t xml:space="preserve">3.03046131134033</t>
+    <t xml:space="preserve">3.03046154975891</t>
   </si>
   <si>
     <t xml:space="preserve">2.93245148658752</t>
@@ -1712,19 +1712,19 @@
     <t xml:space="preserve">2.90108847618103</t>
   </si>
   <si>
-    <t xml:space="preserve">2.94421291351318</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.89324760437012</t>
+    <t xml:space="preserve">2.94421315193176</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.8932478427887</t>
   </si>
   <si>
     <t xml:space="preserve">3.01870012283325</t>
   </si>
   <si>
-    <t xml:space="preserve">3.15199375152588</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.17551589012146</t>
+    <t xml:space="preserve">3.15199327468872</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.17551612854004</t>
   </si>
   <si>
     <t xml:space="preserve">3.09710812568665</t>
@@ -1733,7 +1733,7 @@
     <t xml:space="preserve">3.10886907577515</t>
   </si>
   <si>
-    <t xml:space="preserve">3.02262043952942</t>
+    <t xml:space="preserve">3.022620677948</t>
   </si>
   <si>
     <t xml:space="preserve">3.01085925102234</t>
@@ -1745,25 +1745,25 @@
     <t xml:space="preserve">2.95205354690552</t>
   </si>
   <si>
-    <t xml:space="preserve">2.99125742912292</t>
+    <t xml:space="preserve">2.9912576675415</t>
   </si>
   <si>
     <t xml:space="preserve">3.13239145278931</t>
   </si>
   <si>
-    <t xml:space="preserve">3.46562433242798</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.54795265197754</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.48522686958313</t>
+    <t xml:space="preserve">3.46562504768372</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.5479531288147</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.48522639274597</t>
   </si>
   <si>
     <t xml:space="preserve">3.58323621749878</t>
   </si>
   <si>
-    <t xml:space="preserve">3.52443051338196</t>
+    <t xml:space="preserve">3.52443027496338</t>
   </si>
   <si>
     <t xml:space="preserve">3.58715677261353</t>
@@ -1772,25 +1772,25 @@
     <t xml:space="preserve">3.61459946632385</t>
   </si>
   <si>
-    <t xml:space="preserve">3.5165901184082</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.42249989509583</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.39505743980408</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.37937593460083</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.43818187713623</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.48130655288696</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.45386385917664</t>
+    <t xml:space="preserve">3.51658964157104</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.42250037193298</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.39505767822266</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.37937617301941</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.43818211555481</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.4813060760498</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.45386338233948</t>
   </si>
   <si>
     <t xml:space="preserve">3.28920745849609</t>
@@ -1805,34 +1805,34 @@
     <t xml:space="preserve">3.08142638206482</t>
   </si>
   <si>
-    <t xml:space="preserve">3.26568460464478</t>
+    <t xml:space="preserve">3.26568484306335</t>
   </si>
   <si>
     <t xml:space="preserve">3.23432159423828</t>
   </si>
   <si>
-    <t xml:space="preserve">3.19511771202087</t>
+    <t xml:space="preserve">3.19511747360229</t>
   </si>
   <si>
     <t xml:space="preserve">2.69722843170166</t>
   </si>
   <si>
-    <t xml:space="preserve">2.13269209861755</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.36399531364441</t>
+    <t xml:space="preserve">2.13269233703613</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.36399507522583</t>
   </si>
   <si>
     <t xml:space="preserve">2.45024371147156</t>
   </si>
   <si>
-    <t xml:space="preserve">2.49336791038513</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.50512909889221</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.55217385292053</t>
+    <t xml:space="preserve">2.49336814880371</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.50512933731079</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.55217361450195</t>
   </si>
   <si>
     <t xml:space="preserve">2.61882019042969</t>
@@ -1850,10 +1850,10 @@
     <t xml:space="preserve">2.5443332195282</t>
   </si>
   <si>
-    <t xml:space="preserve">2.51689052581787</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.63842248916626</t>
+    <t xml:space="preserve">2.51689028739929</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.63842225074768</t>
   </si>
   <si>
     <t xml:space="preserve">2.4972882270813</t>
@@ -1862,10 +1862,10 @@
     <t xml:space="preserve">2.50904965400696</t>
   </si>
   <si>
-    <t xml:space="preserve">2.46984553337097</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.51296973228455</t>
+    <t xml:space="preserve">2.46984577178955</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.51296997070312</t>
   </si>
   <si>
     <t xml:space="preserve">2.53257179260254</t>
@@ -1874,19 +1874,19 @@
     <t xml:space="preserve">2.54041266441345</t>
   </si>
   <si>
-    <t xml:space="preserve">2.52865123748779</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.54825329780579</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.52473115921021</t>
+    <t xml:space="preserve">2.52865147590637</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.54825353622437</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.52473092079163</t>
   </si>
   <si>
     <t xml:space="preserve">2.57177567481995</t>
   </si>
   <si>
-    <t xml:space="preserve">2.58745741844177</t>
+    <t xml:space="preserve">2.58745718002319</t>
   </si>
   <si>
     <t xml:space="preserve">2.64234280586243</t>
@@ -1904,40 +1904,40 @@
     <t xml:space="preserve">2.6266610622406</t>
   </si>
   <si>
-    <t xml:space="preserve">2.72075057029724</t>
+    <t xml:space="preserve">2.72075033187866</t>
   </si>
   <si>
     <t xml:space="preserve">2.92069053649902</t>
   </si>
   <si>
-    <t xml:space="preserve">3.30880904197693</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.44994306564331</t>
+    <t xml:space="preserve">3.30880880355835</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.44994282722473</t>
   </si>
   <si>
     <t xml:space="preserve">3.43426179885864</t>
   </si>
   <si>
-    <t xml:space="preserve">3.50703978538513</t>
+    <t xml:space="preserve">3.50703954696655</t>
   </si>
   <si>
     <t xml:space="preserve">3.32983303070068</t>
   </si>
   <si>
-    <t xml:space="preserve">3.25565409660339</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.14438462257385</t>
+    <t xml:space="preserve">3.25565385818481</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.14438486099243</t>
   </si>
   <si>
     <t xml:space="preserve">3.1402633190155</t>
   </si>
   <si>
-    <t xml:space="preserve">3.21444296836853</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.24741148948669</t>
+    <t xml:space="preserve">3.21444320678711</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.24741172790527</t>
   </si>
   <si>
     <t xml:space="preserve">3.19383764266968</t>
@@ -1946,28 +1946,28 @@
     <t xml:space="preserve">3.22680616378784</t>
   </si>
   <si>
-    <t xml:space="preserve">3.27213835716248</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.2185640335083</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.11141610145569</t>
+    <t xml:space="preserve">3.2721381187439</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.21856379508972</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.11141633987427</t>
   </si>
   <si>
     <t xml:space="preserve">3.06196308135986</t>
   </si>
   <si>
-    <t xml:space="preserve">3.08256816864014</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.09081053733826</t>
+    <t xml:space="preserve">3.08256840705872</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.09081077575684</t>
   </si>
   <si>
     <t xml:space="preserve">3.11965823173523</t>
   </si>
   <si>
-    <t xml:space="preserve">3.08668947219849</t>
+    <t xml:space="preserve">3.08668923377991</t>
   </si>
   <si>
     <t xml:space="preserve">3.05784201622009</t>
@@ -1982,25 +1982,25 @@
     <t xml:space="preserve">2.94245171546936</t>
   </si>
   <si>
-    <t xml:space="preserve">2.91360402107239</t>
+    <t xml:space="preserve">2.91360449790955</t>
   </si>
   <si>
     <t xml:space="preserve">2.93008852005005</t>
   </si>
   <si>
-    <t xml:space="preserve">2.91772484779358</t>
+    <t xml:space="preserve">2.91772508621216</t>
   </si>
   <si>
     <t xml:space="preserve">2.90124082565308</t>
   </si>
   <si>
-    <t xml:space="preserve">2.90536212921143</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.86827230453491</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.78997135162354</t>
+    <t xml:space="preserve">2.90536189079285</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.86827206611633</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.78997159004211</t>
   </si>
   <si>
     <t xml:space="preserve">2.92184638977051</t>
@@ -2021,22 +2021,22 @@
     <t xml:space="preserve">2.74463987350464</t>
   </si>
   <si>
-    <t xml:space="preserve">2.7528817653656</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.71167087554932</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.73227667808533</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.82706141471863</t>
+    <t xml:space="preserve">2.75288200378418</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.7116711139679</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.73227643966675</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.82706165313721</t>
   </si>
   <si>
     <t xml:space="preserve">2.87239336967468</t>
   </si>
   <si>
-    <t xml:space="preserve">2.86003017425537</t>
+    <t xml:space="preserve">2.86002993583679</t>
   </si>
   <si>
     <t xml:space="preserve">2.81469798088074</t>
@@ -2045,22 +2045,22 @@
     <t xml:space="preserve">2.81057715415955</t>
   </si>
   <si>
-    <t xml:space="preserve">2.76524543762207</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.79409265518188</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.78172945976257</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.78585052490234</t>
+    <t xml:space="preserve">2.76524496078491</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.79409289360046</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.78172969818115</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.78585076332092</t>
   </si>
   <si>
     <t xml:space="preserve">2.70342898368835</t>
   </si>
   <si>
-    <t xml:space="preserve">2.70755004882812</t>
+    <t xml:space="preserve">2.7075502872467</t>
   </si>
   <si>
     <t xml:space="preserve">2.75700306892395</t>
@@ -2075,43 +2075,43 @@
     <t xml:space="preserve">2.71991324424744</t>
   </si>
   <si>
-    <t xml:space="preserve">2.72403430938721</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.7776083946228</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.88475632667542</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.64573383331299</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.64985489845276</t>
+    <t xml:space="preserve">2.72403454780579</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.77760815620422</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.88475656509399</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.64573359489441</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.64985513687134</t>
   </si>
   <si>
     <t xml:space="preserve">2.66221809387207</t>
   </si>
   <si>
-    <t xml:space="preserve">2.60864400863647</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.63337063789368</t>
+    <t xml:space="preserve">2.60864424705505</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.6333703994751</t>
   </si>
   <si>
     <t xml:space="preserve">2.62100744247437</t>
   </si>
   <si>
-    <t xml:space="preserve">2.62512826919556</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.59215974807739</t>
+    <t xml:space="preserve">2.62512850761414</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.59215998649597</t>
   </si>
   <si>
     <t xml:space="preserve">2.60452318191528</t>
   </si>
   <si>
-    <t xml:space="preserve">2.62924933433533</t>
+    <t xml:space="preserve">2.62924957275391</t>
   </si>
   <si>
     <t xml:space="preserve">2.64161276817322</t>
@@ -2120,7 +2120,7 @@
     <t xml:space="preserve">2.61276531219482</t>
   </si>
   <si>
-    <t xml:space="preserve">2.58391737937927</t>
+    <t xml:space="preserve">2.58391761779785</t>
   </si>
   <si>
     <t xml:space="preserve">2.59628081321716</t>
@@ -2129,7 +2129,7 @@
     <t xml:space="preserve">2.51798033714294</t>
   </si>
   <si>
-    <t xml:space="preserve">2.49737477302551</t>
+    <t xml:space="preserve">2.49737501144409</t>
   </si>
   <si>
     <t xml:space="preserve">2.57155442237854</t>
@@ -2138,19 +2138,19 @@
     <t xml:space="preserve">2.51385927200317</t>
   </si>
   <si>
-    <t xml:space="preserve">2.48913264274597</t>
+    <t xml:space="preserve">2.48913288116455</t>
   </si>
   <si>
     <t xml:space="preserve">2.50561714172363</t>
   </si>
   <si>
-    <t xml:space="preserve">2.46852731704712</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.50973844528198</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.40671110153198</t>
+    <t xml:space="preserve">2.46852707862854</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.5097382068634</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.40671133995056</t>
   </si>
   <si>
     <t xml:space="preserve">2.42319536209106</t>
@@ -2159,19 +2159,19 @@
     <t xml:space="preserve">2.45204305648804</t>
   </si>
   <si>
-    <t xml:space="preserve">2.44792222976685</t>
+    <t xml:space="preserve">2.44792199134827</t>
   </si>
   <si>
     <t xml:space="preserve">2.47676968574524</t>
   </si>
   <si>
-    <t xml:space="preserve">2.69518661499023</t>
+    <t xml:space="preserve">2.69518685340881</t>
   </si>
   <si>
     <t xml:space="preserve">2.74051880836487</t>
   </si>
   <si>
-    <t xml:space="preserve">2.86415123939514</t>
+    <t xml:space="preserve">2.86415100097656</t>
   </si>
   <si>
     <t xml:space="preserve">2.88887763023376</t>
@@ -2180,25 +2180,25 @@
     <t xml:space="preserve">2.89711976051331</t>
   </si>
   <si>
-    <t xml:space="preserve">2.84766674041748</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.84354591369629</t>
+    <t xml:space="preserve">2.84766697883606</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.84354567527771</t>
   </si>
   <si>
     <t xml:space="preserve">2.81881928443909</t>
   </si>
   <si>
-    <t xml:space="preserve">2.83530354499817</t>
+    <t xml:space="preserve">2.83530378341675</t>
   </si>
   <si>
     <t xml:space="preserve">2.8311824798584</t>
   </si>
   <si>
-    <t xml:space="preserve">3.03311562538147</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.01663112640381</t>
+    <t xml:space="preserve">3.03311538696289</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.01663136482239</t>
   </si>
   <si>
     <t xml:space="preserve">2.99602556228638</t>
@@ -2213,13 +2213,13 @@
     <t xml:space="preserve">3.05372071266174</t>
   </si>
   <si>
-    <t xml:space="preserve">3.06608438491821</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.16498994827271</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.10317373275757</t>
+    <t xml:space="preserve">3.06608390808105</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.16498970985413</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.10317397117615</t>
   </si>
   <si>
     <t xml:space="preserve">3.10729479789734</t>
@@ -2228,13 +2228,13 @@
     <t xml:space="preserve">2.97542023658752</t>
   </si>
   <si>
-    <t xml:space="preserve">2.96717834472656</t>
+    <t xml:space="preserve">2.96717810630798</t>
   </si>
   <si>
     <t xml:space="preserve">2.98366236686707</t>
   </si>
   <si>
-    <t xml:space="preserve">2.95481491088867</t>
+    <t xml:space="preserve">2.95481467247009</t>
   </si>
   <si>
     <t xml:space="preserve">2.98778343200684</t>
@@ -2246,7 +2246,7 @@
     <t xml:space="preserve">3.07844734191895</t>
   </si>
   <si>
-    <t xml:space="preserve">3.0454785823822</t>
+    <t xml:space="preserve">3.04547882080078</t>
   </si>
   <si>
     <t xml:space="preserve">3.04959988594055</t>
@@ -2261,10 +2261,10 @@
     <t xml:space="preserve">3.09493184089661</t>
   </si>
   <si>
-    <t xml:space="preserve">3.01250982284546</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.96305727958679</t>
+    <t xml:space="preserve">3.01251006126404</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.96305704116821</t>
   </si>
   <si>
     <t xml:space="preserve">3.0042679309845</t>
@@ -2276,40 +2276,40 @@
     <t xml:space="preserve">3.14850568771362</t>
   </si>
   <si>
-    <t xml:space="preserve">3.16086912155151</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.16911125183105</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.18559527397156</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.15262699127197</t>
+    <t xml:space="preserve">3.16086888313293</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.16911101341248</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.18559551239014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.15262675285339</t>
   </si>
   <si>
     <t xml:space="preserve">3.11553692817688</t>
   </si>
   <si>
-    <t xml:space="preserve">3.13202142715454</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.12790060043335</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.22268533706665</t>
+    <t xml:space="preserve">3.13202118873596</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.12790036201477</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.22268557548523</t>
   </si>
   <si>
     <t xml:space="preserve">3.19795870780945</t>
   </si>
   <si>
-    <t xml:space="preserve">3.17323207855225</t>
+    <t xml:space="preserve">3.17323184013367</t>
   </si>
   <si>
     <t xml:space="preserve">3.20620083808899</t>
   </si>
   <si>
-    <t xml:space="preserve">3.24329042434692</t>
+    <t xml:space="preserve">3.2432906627655</t>
   </si>
   <si>
     <t xml:space="preserve">3.18971657752991</t>
@@ -2321,7 +2321,7 @@
     <t xml:space="preserve">3.27625918388367</t>
   </si>
   <si>
-    <t xml:space="preserve">3.25153279304504</t>
+    <t xml:space="preserve">3.25153255462646</t>
   </si>
   <si>
     <t xml:space="preserve">3.36280179023743</t>
@@ -2342,16 +2342,16 @@
     <t xml:space="preserve">3.36364841461182</t>
   </si>
   <si>
-    <t xml:space="preserve">3.25209856033325</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.20919489860535</t>
+    <t xml:space="preserve">3.25209879875183</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.20919513702393</t>
   </si>
   <si>
     <t xml:space="preserve">3.22635650634766</t>
   </si>
   <si>
-    <t xml:space="preserve">3.27784085273743</t>
+    <t xml:space="preserve">3.27784061431885</t>
   </si>
   <si>
     <t xml:space="preserve">3.23493719100952</t>
@@ -2366,7 +2366,7 @@
     <t xml:space="preserve">3.21777582168579</t>
   </si>
   <si>
-    <t xml:space="preserve">3.15771079063416</t>
+    <t xml:space="preserve">3.15771055221558</t>
   </si>
   <si>
     <t xml:space="preserve">3.17487215995789</t>
@@ -2381,16 +2381,16 @@
     <t xml:space="preserve">3.14913010597229</t>
   </si>
   <si>
-    <t xml:space="preserve">3.18345284461975</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.17058157920837</t>
+    <t xml:space="preserve">3.18345308303833</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.17058181762695</t>
   </si>
   <si>
     <t xml:space="preserve">3.20061421394348</t>
   </si>
   <si>
-    <t xml:space="preserve">3.1920337677002</t>
+    <t xml:space="preserve">3.19203352928162</t>
   </si>
   <si>
     <t xml:space="preserve">3.23064684867859</t>
@@ -2399,31 +2399,31 @@
     <t xml:space="preserve">3.2220664024353</t>
   </si>
   <si>
-    <t xml:space="preserve">3.12767815589905</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.13625860214233</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.10622620582581</t>
+    <t xml:space="preserve">3.12767791748047</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.13625884056091</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.10622596740723</t>
   </si>
   <si>
     <t xml:space="preserve">3.0761935710907</t>
   </si>
   <si>
-    <t xml:space="preserve">3.08906483650208</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.04187083244324</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.03758001327515</t>
+    <t xml:space="preserve">3.0890645980835</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.04187059402466</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.03758025169373</t>
   </si>
   <si>
     <t xml:space="preserve">3.0504515171051</t>
   </si>
   <si>
-    <t xml:space="preserve">3.04616117477417</t>
+    <t xml:space="preserve">3.04616093635559</t>
   </si>
   <si>
     <t xml:space="preserve">3.02899956703186</t>
@@ -2432,7 +2432,7 @@
     <t xml:space="preserve">2.98180556297302</t>
   </si>
   <si>
-    <t xml:space="preserve">3.0075478553772</t>
+    <t xml:space="preserve">3.00754761695862</t>
   </si>
   <si>
     <t xml:space="preserve">3.05903220176697</t>
@@ -2453,7 +2453,7 @@
     <t xml:space="preserve">2.92174029350281</t>
   </si>
   <si>
-    <t xml:space="preserve">2.93890166282654</t>
+    <t xml:space="preserve">2.93890190124512</t>
   </si>
   <si>
     <t xml:space="preserve">3.00325727462769</t>
@@ -2465,7 +2465,7 @@
     <t xml:space="preserve">3.02041888237</t>
   </si>
   <si>
-    <t xml:space="preserve">3.01612854003906</t>
+    <t xml:space="preserve">3.01612877845764</t>
   </si>
   <si>
     <t xml:space="preserve">3.01183819770813</t>
@@ -2510,7 +2510,7 @@
     <t xml:space="preserve">2.94748258590698</t>
   </si>
   <si>
-    <t xml:space="preserve">2.95177292823792</t>
+    <t xml:space="preserve">2.95177316665649</t>
   </si>
   <si>
     <t xml:space="preserve">2.95606327056885</t>
@@ -2519,13 +2519,13 @@
     <t xml:space="preserve">2.99467658996582</t>
   </si>
   <si>
-    <t xml:space="preserve">2.98609590530396</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.10193562507629</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.05474162101746</t>
+    <t xml:space="preserve">2.98609614372253</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.10193586349487</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.05474185943604</t>
   </si>
   <si>
     <t xml:space="preserve">2.96893429756165</t>
@@ -2537,7 +2537,7 @@
     <t xml:space="preserve">2.93032097816467</t>
   </si>
   <si>
-    <t xml:space="preserve">2.9045786857605</t>
+    <t xml:space="preserve">2.90457892417908</t>
   </si>
   <si>
     <t xml:space="preserve">2.97751522064209</t>
@@ -2549,10 +2549,10 @@
     <t xml:space="preserve">2.94319224357605</t>
   </si>
   <si>
-    <t xml:space="preserve">2.97322463989258</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.93461155891418</t>
+    <t xml:space="preserve">2.97322487831116</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.93461132049561</t>
   </si>
   <si>
     <t xml:space="preserve">2.79731965065002</t>
@@ -2561,19 +2561,19 @@
     <t xml:space="preserve">2.91315984725952</t>
   </si>
   <si>
-    <t xml:space="preserve">2.89170789718628</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.82306170463562</t>
+    <t xml:space="preserve">2.8917076587677</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.8230619430542</t>
   </si>
   <si>
     <t xml:space="preserve">2.77157735824585</t>
   </si>
   <si>
-    <t xml:space="preserve">2.80160999298096</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.90028858184814</t>
+    <t xml:space="preserve">2.80161023139954</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.90028882026672</t>
   </si>
   <si>
     <t xml:space="preserve">2.87454628944397</t>
@@ -13399,7 +13399,7 @@
         <v>3.60199999809265</v>
       </c>
       <c r="G371" t="s">
-        <v>270</v>
+        <v>244</v>
       </c>
       <c r="H371" t="s">
         <v>9</v>
@@ -13477,7 +13477,7 @@
         <v>3.71799993515015</v>
       </c>
       <c r="G374" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="H374" t="s">
         <v>9</v>
@@ -13555,7 +13555,7 @@
         <v>3.59599995613098</v>
       </c>
       <c r="G377" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="H377" t="s">
         <v>9</v>
@@ -13581,7 +13581,7 @@
         <v>3.57399988174438</v>
       </c>
       <c r="G378" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="H378" t="s">
         <v>9</v>
@@ -13607,7 +13607,7 @@
         <v>3.54800009727478</v>
       </c>
       <c r="G379" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="H379" t="s">
         <v>9</v>
@@ -13633,7 +13633,7 @@
         <v>3.54999995231628</v>
       </c>
       <c r="G380" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="H380" t="s">
         <v>9</v>
@@ -13815,7 +13815,7 @@
         <v>3.48399996757507</v>
       </c>
       <c r="G387" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="H387" t="s">
         <v>9</v>
@@ -13841,7 +13841,7 @@
         <v>3.47000002861023</v>
       </c>
       <c r="G388" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="H388" t="s">
         <v>9</v>
@@ -13867,7 +13867,7 @@
         <v>3.47000002861023</v>
       </c>
       <c r="G389" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="H389" t="s">
         <v>9</v>
@@ -13893,7 +13893,7 @@
         <v>3.50799989700317</v>
       </c>
       <c r="G390" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="H390" t="s">
         <v>9</v>
@@ -13919,7 +13919,7 @@
         <v>3.49399995803833</v>
       </c>
       <c r="G391" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="H391" t="s">
         <v>9</v>
@@ -13945,7 +13945,7 @@
         <v>3.49000000953674</v>
       </c>
       <c r="G392" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="H392" t="s">
         <v>9</v>
@@ -13971,7 +13971,7 @@
         <v>3.49600005149841</v>
       </c>
       <c r="G393" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="H393" t="s">
         <v>9</v>
@@ -13997,7 +13997,7 @@
         <v>3.49399995803833</v>
       </c>
       <c r="G394" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="H394" t="s">
         <v>9</v>
@@ -14049,7 +14049,7 @@
         <v>3.50399994850159</v>
       </c>
       <c r="G396" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="H396" t="s">
         <v>9</v>
@@ -14101,7 +14101,7 @@
         <v>3.46799993515015</v>
       </c>
       <c r="G398" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="H398" t="s">
         <v>9</v>
@@ -14127,7 +14127,7 @@
         <v>3.41000008583069</v>
       </c>
       <c r="G399" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="H399" t="s">
         <v>9</v>
@@ -14153,7 +14153,7 @@
         <v>3.39599990844727</v>
       </c>
       <c r="G400" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="H400" t="s">
         <v>9</v>
@@ -14179,7 +14179,7 @@
         <v>3.47000002861023</v>
       </c>
       <c r="G401" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="H401" t="s">
         <v>9</v>
@@ -14205,7 +14205,7 @@
         <v>3.4300000667572</v>
       </c>
       <c r="G402" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="H402" t="s">
         <v>9</v>
@@ -14257,7 +14257,7 @@
         <v>3.45000004768372</v>
       </c>
       <c r="G404" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="H404" t="s">
         <v>9</v>
@@ -14283,7 +14283,7 @@
         <v>3.46399998664856</v>
       </c>
       <c r="G405" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="H405" t="s">
         <v>9</v>
@@ -14309,7 +14309,7 @@
         <v>3.4300000667572</v>
       </c>
       <c r="G406" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="H406" t="s">
         <v>9</v>
@@ -14335,7 +14335,7 @@
         <v>3.58999991416931</v>
       </c>
       <c r="G407" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="H407" t="s">
         <v>9</v>
@@ -14361,7 +14361,7 @@
         <v>3.54999995231628</v>
       </c>
       <c r="G408" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="H408" t="s">
         <v>9</v>
@@ -14387,7 +14387,7 @@
         <v>3.58200001716614</v>
       </c>
       <c r="G409" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="H409" t="s">
         <v>9</v>
@@ -14413,7 +14413,7 @@
         <v>3.59800004959106</v>
       </c>
       <c r="G410" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="H410" t="s">
         <v>9</v>
@@ -14439,7 +14439,7 @@
         <v>3.57599997520447</v>
       </c>
       <c r="G411" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="H411" t="s">
         <v>9</v>
@@ -14491,7 +14491,7 @@
         <v>3.58200001716614</v>
       </c>
       <c r="G413" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="H413" t="s">
         <v>9</v>
@@ -14517,7 +14517,7 @@
         <v>3.5460000038147</v>
       </c>
       <c r="G414" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="H414" t="s">
         <v>9</v>
@@ -14569,7 +14569,7 @@
         <v>3.51999998092651</v>
       </c>
       <c r="G416" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="H416" t="s">
         <v>9</v>
@@ -14595,7 +14595,7 @@
         <v>3.5220000743866</v>
       </c>
       <c r="G417" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="H417" t="s">
         <v>9</v>
@@ -14621,7 +14621,7 @@
         <v>3.5</v>
       </c>
       <c r="G418" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="H418" t="s">
         <v>9</v>
@@ -14647,7 +14647,7 @@
         <v>3.53800010681152</v>
       </c>
       <c r="G419" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="H419" t="s">
         <v>9</v>
@@ -14673,7 +14673,7 @@
         <v>3.4760000705719</v>
       </c>
       <c r="G420" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="H420" t="s">
         <v>9</v>
@@ -14699,7 +14699,7 @@
         <v>3.49000000953674</v>
       </c>
       <c r="G421" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="H421" t="s">
         <v>9</v>
@@ -14725,7 +14725,7 @@
         <v>3.49000000953674</v>
       </c>
       <c r="G422" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="H422" t="s">
         <v>9</v>
@@ -14751,7 +14751,7 @@
         <v>3.49000000953674</v>
       </c>
       <c r="G423" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="H423" t="s">
         <v>9</v>
@@ -14777,7 +14777,7 @@
         <v>3.47000002861023</v>
       </c>
       <c r="G424" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="H424" t="s">
         <v>9</v>
@@ -14803,7 +14803,7 @@
         <v>3.51999998092651</v>
       </c>
       <c r="G425" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="H425" t="s">
         <v>9</v>
@@ -14829,7 +14829,7 @@
         <v>3.49000000953674</v>
       </c>
       <c r="G426" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="H426" t="s">
         <v>9</v>
@@ -14855,7 +14855,7 @@
         <v>3.54399991035461</v>
       </c>
       <c r="G427" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="H427" t="s">
         <v>9</v>
@@ -14881,7 +14881,7 @@
         <v>3.60199999809265</v>
       </c>
       <c r="G428" t="s">
-        <v>270</v>
+        <v>244</v>
       </c>
       <c r="H428" t="s">
         <v>9</v>
@@ -14933,7 +14933,7 @@
         <v>3.66400003433228</v>
       </c>
       <c r="G430" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="H430" t="s">
         <v>9</v>
@@ -14959,7 +14959,7 @@
         <v>3.60999989509583</v>
       </c>
       <c r="G431" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="H431" t="s">
         <v>9</v>
@@ -15063,7 +15063,7 @@
         <v>3.64400005340576</v>
       </c>
       <c r="G435" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="H435" t="s">
         <v>9</v>
@@ -15089,7 +15089,7 @@
         <v>3.60999989509583</v>
       </c>
       <c r="G436" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="H436" t="s">
         <v>9</v>
@@ -15115,7 +15115,7 @@
         <v>3.59800004959106</v>
       </c>
       <c r="G437" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="H437" t="s">
         <v>9</v>
@@ -15167,7 +15167,7 @@
         <v>3.54999995231628</v>
       </c>
       <c r="G439" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="H439" t="s">
         <v>9</v>
@@ -15193,7 +15193,7 @@
         <v>3.53200006484985</v>
       </c>
       <c r="G440" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="H440" t="s">
         <v>9</v>
@@ -15245,7 +15245,7 @@
         <v>3.53399991989136</v>
       </c>
       <c r="G442" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="H442" t="s">
         <v>9</v>
@@ -15297,7 +15297,7 @@
         <v>3.5</v>
       </c>
       <c r="G444" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="H444" t="s">
         <v>9</v>
@@ -15349,7 +15349,7 @@
         <v>3.49000000953674</v>
       </c>
       <c r="G446" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="H446" t="s">
         <v>9</v>
@@ -15375,7 +15375,7 @@
         <v>3.51399993896484</v>
       </c>
       <c r="G447" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="H447" t="s">
         <v>9</v>
@@ -15401,7 +15401,7 @@
         <v>3.50600004196167</v>
       </c>
       <c r="G448" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="H448" t="s">
         <v>9</v>
@@ -15427,7 +15427,7 @@
         <v>3.51999998092651</v>
       </c>
       <c r="G449" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="H449" t="s">
         <v>9</v>
@@ -15453,7 +15453,7 @@
         <v>3.5</v>
       </c>
       <c r="G450" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="H450" t="s">
         <v>9</v>
@@ -15609,7 +15609,7 @@
         <v>3.57399988174438</v>
       </c>
       <c r="G456" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="H456" t="s">
         <v>9</v>
@@ -15635,7 +15635,7 @@
         <v>3.51999998092651</v>
       </c>
       <c r="G457" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="H457" t="s">
         <v>9</v>
@@ -15687,7 +15687,7 @@
         <v>3.60400009155273</v>
       </c>
       <c r="G459" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="H459" t="s">
         <v>9</v>
@@ -15765,7 +15765,7 @@
         <v>3.5699999332428</v>
       </c>
       <c r="G462" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="H462" t="s">
         <v>9</v>
@@ -15817,7 +15817,7 @@
         <v>3.60800004005432</v>
       </c>
       <c r="G464" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="H464" t="s">
         <v>9</v>
@@ -15843,7 +15843,7 @@
         <v>3.56399989128113</v>
       </c>
       <c r="G465" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="H465" t="s">
         <v>9</v>
@@ -15869,7 +15869,7 @@
         <v>3.57599997520447</v>
       </c>
       <c r="G466" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="H466" t="s">
         <v>9</v>
@@ -15947,7 +15947,7 @@
         <v>3.63800001144409</v>
       </c>
       <c r="G469" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="H469" t="s">
         <v>9</v>
@@ -15999,7 +15999,7 @@
         <v>3.66599988937378</v>
       </c>
       <c r="G471" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="H471" t="s">
         <v>9</v>
@@ -16025,7 +16025,7 @@
         <v>3.72000002861023</v>
       </c>
       <c r="G472" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="H472" t="s">
         <v>9</v>
@@ -16051,7 +16051,7 @@
         <v>3.73600006103516</v>
       </c>
       <c r="G473" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="H473" t="s">
         <v>9</v>
@@ -16077,7 +16077,7 @@
         <v>3.81399989128113</v>
       </c>
       <c r="G474" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="H474" t="s">
         <v>9</v>
@@ -16103,7 +16103,7 @@
         <v>3.78200006484985</v>
       </c>
       <c r="G475" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="H475" t="s">
         <v>9</v>
@@ -16129,7 +16129,7 @@
         <v>3.77999997138977</v>
       </c>
       <c r="G476" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="H476" t="s">
         <v>9</v>
@@ -16155,7 +16155,7 @@
         <v>3.82800006866455</v>
       </c>
       <c r="G477" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="H477" t="s">
         <v>9</v>
@@ -16181,7 +16181,7 @@
         <v>3.69000005722046</v>
       </c>
       <c r="G478" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="H478" t="s">
         <v>9</v>
@@ -16207,7 +16207,7 @@
         <v>3.69799995422363</v>
       </c>
       <c r="G479" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="H479" t="s">
         <v>9</v>
@@ -16259,7 +16259,7 @@
         <v>3.5699999332428</v>
       </c>
       <c r="G481" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="H481" t="s">
         <v>9</v>
@@ -16285,7 +16285,7 @@
         <v>3.60400009155273</v>
       </c>
       <c r="G482" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="H482" t="s">
         <v>9</v>
@@ -16311,7 +16311,7 @@
         <v>3.57599997520447</v>
       </c>
       <c r="G483" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="H483" t="s">
         <v>9</v>
@@ -16337,7 +16337,7 @@
         <v>3.59599995613098</v>
       </c>
       <c r="G484" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="H484" t="s">
         <v>9</v>
@@ -16363,7 +16363,7 @@
         <v>3.61999988555908</v>
       </c>
       <c r="G485" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="H485" t="s">
         <v>9</v>
@@ -16415,7 +16415,7 @@
         <v>3.65599989891052</v>
       </c>
       <c r="G487" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="H487" t="s">
         <v>9</v>
@@ -16467,7 +16467,7 @@
         <v>3.60400009155273</v>
       </c>
       <c r="G489" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="H489" t="s">
         <v>9</v>
@@ -16545,7 +16545,7 @@
         <v>3.72199988365173</v>
       </c>
       <c r="G492" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="H492" t="s">
         <v>9</v>
@@ -16571,7 +16571,7 @@
         <v>3.64400005340576</v>
       </c>
       <c r="G493" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="H493" t="s">
         <v>9</v>
@@ -16597,7 +16597,7 @@
         <v>3.70000004768372</v>
       </c>
       <c r="G494" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="H494" t="s">
         <v>9</v>
@@ -16623,7 +16623,7 @@
         <v>3.67400002479553</v>
       </c>
       <c r="G495" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="H495" t="s">
         <v>9</v>
@@ -16649,7 +16649,7 @@
         <v>3.65199995040894</v>
       </c>
       <c r="G496" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="H496" t="s">
         <v>9</v>
@@ -16675,7 +16675,7 @@
         <v>3.68600010871887</v>
       </c>
       <c r="G497" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="H497" t="s">
         <v>9</v>
@@ -16753,7 +16753,7 @@
         <v>3.57999992370605</v>
       </c>
       <c r="G500" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="H500" t="s">
         <v>9</v>
@@ -16779,7 +16779,7 @@
         <v>3.63800001144409</v>
       </c>
       <c r="G501" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="H501" t="s">
         <v>9</v>
@@ -16883,7 +16883,7 @@
         <v>3.58200001716614</v>
       </c>
       <c r="G505" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="H505" t="s">
         <v>9</v>
@@ -16935,7 +16935,7 @@
         <v>3.61999988555908</v>
       </c>
       <c r="G507" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="H507" t="s">
         <v>9</v>
@@ -16961,7 +16961,7 @@
         <v>3.58999991416931</v>
       </c>
       <c r="G508" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="H508" t="s">
         <v>9</v>
@@ -16987,7 +16987,7 @@
         <v>3.58200001716614</v>
       </c>
       <c r="G509" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="H509" t="s">
         <v>9</v>
@@ -17013,7 +17013,7 @@
         <v>3.60199999809265</v>
       </c>
       <c r="G510" t="s">
-        <v>270</v>
+        <v>244</v>
       </c>
       <c r="H510" t="s">
         <v>9</v>
@@ -17039,7 +17039,7 @@
         <v>3.5460000038147</v>
       </c>
       <c r="G511" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="H511" t="s">
         <v>9</v>
@@ -17065,7 +17065,7 @@
         <v>3.54800009727478</v>
       </c>
       <c r="G512" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="H512" t="s">
         <v>9</v>
@@ -17091,7 +17091,7 @@
         <v>3.58999991416931</v>
       </c>
       <c r="G513" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="H513" t="s">
         <v>9</v>
@@ -17143,7 +17143,7 @@
         <v>3.69000005722046</v>
       </c>
       <c r="G515" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="H515" t="s">
         <v>9</v>
@@ -17169,7 +17169,7 @@
         <v>3.65499997138977</v>
       </c>
       <c r="G516" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="H516" t="s">
         <v>9</v>
@@ -17195,7 +17195,7 @@
         <v>3.69000005722046</v>
       </c>
       <c r="G517" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="H517" t="s">
         <v>9</v>
@@ -17299,7 +17299,7 @@
         <v>3.6800000667572</v>
       </c>
       <c r="G521" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="H521" t="s">
         <v>9</v>
@@ -17351,7 +17351,7 @@
         <v>3.67000007629395</v>
       </c>
       <c r="G523" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="H523" t="s">
         <v>9</v>
@@ -17377,7 +17377,7 @@
         <v>3.67499995231628</v>
       </c>
       <c r="G524" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="H524" t="s">
         <v>9</v>
@@ -17429,7 +17429,7 @@
         <v>3.65499997138977</v>
       </c>
       <c r="G526" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="H526" t="s">
         <v>9</v>
@@ -17455,7 +17455,7 @@
         <v>3.67499995231628</v>
       </c>
       <c r="G527" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="H527" t="s">
         <v>9</v>
@@ -17507,7 +17507,7 @@
         <v>3.61999988555908</v>
       </c>
       <c r="G529" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="H529" t="s">
         <v>9</v>
@@ -17533,7 +17533,7 @@
         <v>3.61999988555908</v>
       </c>
       <c r="G530" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="H530" t="s">
         <v>9</v>
@@ -17559,7 +17559,7 @@
         <v>3.58999991416931</v>
       </c>
       <c r="G531" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="H531" t="s">
         <v>9</v>
@@ -17585,7 +17585,7 @@
         <v>3.58500003814697</v>
       </c>
       <c r="G532" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="H532" t="s">
         <v>9</v>
@@ -17611,7 +17611,7 @@
         <v>3.54999995231628</v>
       </c>
       <c r="G533" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="H533" t="s">
         <v>9</v>
@@ -17637,7 +17637,7 @@
         <v>3.54999995231628</v>
       </c>
       <c r="G534" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="H534" t="s">
         <v>9</v>
@@ -17663,7 +17663,7 @@
         <v>3.45000004768372</v>
       </c>
       <c r="G535" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="H535" t="s">
         <v>9</v>
@@ -17689,7 +17689,7 @@
         <v>3.29999995231628</v>
       </c>
       <c r="G536" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="H536" t="s">
         <v>9</v>
@@ -17715,7 +17715,7 @@
         <v>3.16000008583069</v>
       </c>
       <c r="G537" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="H537" t="s">
         <v>9</v>
@@ -17741,7 +17741,7 @@
         <v>3.25</v>
       </c>
       <c r="G538" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="H538" t="s">
         <v>9</v>
@@ -17767,7 +17767,7 @@
         <v>3.20499992370605</v>
       </c>
       <c r="G539" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="H539" t="s">
         <v>9</v>
@@ -17793,7 +17793,7 @@
         <v>3.15000009536743</v>
       </c>
       <c r="G540" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="H540" t="s">
         <v>9</v>
@@ -17819,7 +17819,7 @@
         <v>3.25</v>
       </c>
       <c r="G541" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="H541" t="s">
         <v>9</v>
@@ -17845,7 +17845,7 @@
         <v>3.23000001907349</v>
       </c>
       <c r="G542" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="H542" t="s">
         <v>9</v>
@@ -17871,7 +17871,7 @@
         <v>3.21499991416931</v>
       </c>
       <c r="G543" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="H543" t="s">
         <v>9</v>
@@ -17897,7 +17897,7 @@
         <v>3.21499991416931</v>
       </c>
       <c r="G544" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="H544" t="s">
         <v>9</v>
@@ -17923,7 +17923,7 @@
         <v>3.26999998092651</v>
       </c>
       <c r="G545" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="H545" t="s">
         <v>9</v>
@@ -17949,7 +17949,7 @@
         <v>3.23000001907349</v>
       </c>
       <c r="G546" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="H546" t="s">
         <v>9</v>
@@ -17975,7 +17975,7 @@
         <v>3.25</v>
       </c>
       <c r="G547" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="H547" t="s">
         <v>9</v>
@@ -18001,7 +18001,7 @@
         <v>3.27999997138977</v>
       </c>
       <c r="G548" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="H548" t="s">
         <v>9</v>
@@ -18027,7 +18027,7 @@
         <v>3.1949999332428</v>
       </c>
       <c r="G549" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="H549" t="s">
         <v>9</v>
@@ -18053,7 +18053,7 @@
         <v>3.17000007629395</v>
       </c>
       <c r="G550" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="H550" t="s">
         <v>9</v>
@@ -18079,7 +18079,7 @@
         <v>3.17000007629395</v>
       </c>
       <c r="G551" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="H551" t="s">
         <v>9</v>
@@ -18105,7 +18105,7 @@
         <v>3.13499999046326</v>
       </c>
       <c r="G552" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="H552" t="s">
         <v>9</v>
@@ -18131,7 +18131,7 @@
         <v>3.11999988555908</v>
       </c>
       <c r="G553" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="H553" t="s">
         <v>9</v>
@@ -18157,7 +18157,7 @@
         <v>3.11999988555908</v>
       </c>
       <c r="G554" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="H554" t="s">
         <v>9</v>
@@ -18183,7 +18183,7 @@
         <v>3.05999994277954</v>
       </c>
       <c r="G555" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="H555" t="s">
         <v>9</v>
@@ -18209,7 +18209,7 @@
         <v>3.05999994277954</v>
       </c>
       <c r="G556" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="H556" t="s">
         <v>9</v>
@@ -18235,7 +18235,7 @@
         <v>3.11500000953674</v>
       </c>
       <c r="G557" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="H557" t="s">
         <v>9</v>
@@ -18261,7 +18261,7 @@
         <v>3.13000011444092</v>
       </c>
       <c r="G558" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="H558" t="s">
         <v>9</v>
@@ -18287,7 +18287,7 @@
         <v>3.13000011444092</v>
       </c>
       <c r="G559" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="H559" t="s">
         <v>9</v>
@@ -18313,7 +18313,7 @@
         <v>3.16499996185303</v>
       </c>
       <c r="G560" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="H560" t="s">
         <v>9</v>
@@ -18339,7 +18339,7 @@
         <v>3.22499990463257</v>
       </c>
       <c r="G561" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="H561" t="s">
         <v>9</v>
@@ -18365,7 +18365,7 @@
         <v>3.15499997138977</v>
       </c>
       <c r="G562" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="H562" t="s">
         <v>9</v>
@@ -18391,7 +18391,7 @@
         <v>3.15499997138977</v>
       </c>
       <c r="G563" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="H563" t="s">
         <v>9</v>
@@ -18417,7 +18417,7 @@
         <v>3.20000004768372</v>
       </c>
       <c r="G564" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="H564" t="s">
         <v>9</v>
@@ -18443,7 +18443,7 @@
         <v>3.21000003814697</v>
       </c>
       <c r="G565" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="H565" t="s">
         <v>9</v>
@@ -18469,7 +18469,7 @@
         <v>3.28500008583069</v>
       </c>
       <c r="G566" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="H566" t="s">
         <v>9</v>
@@ -18495,7 +18495,7 @@
         <v>3.28500008583069</v>
       </c>
       <c r="G567" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="H567" t="s">
         <v>9</v>
@@ -18521,7 +18521,7 @@
         <v>3.25500011444092</v>
       </c>
       <c r="G568" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="H568" t="s">
         <v>9</v>
@@ -18547,7 +18547,7 @@
         <v>3.25</v>
       </c>
       <c r="G569" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="H569" t="s">
         <v>9</v>
@@ -18573,7 +18573,7 @@
         <v>3.20499992370605</v>
       </c>
       <c r="G570" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="H570" t="s">
         <v>9</v>
@@ -18599,7 +18599,7 @@
         <v>3.18499994277954</v>
       </c>
       <c r="G571" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="H571" t="s">
         <v>9</v>
@@ -18625,7 +18625,7 @@
         <v>3.19000005722046</v>
       </c>
       <c r="G572" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="H572" t="s">
         <v>9</v>
@@ -18651,7 +18651,7 @@
         <v>3.24499988555908</v>
       </c>
       <c r="G573" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="H573" t="s">
         <v>9</v>
@@ -18677,7 +18677,7 @@
         <v>3.25999999046326</v>
       </c>
       <c r="G574" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="H574" t="s">
         <v>9</v>
@@ -18703,7 +18703,7 @@
         <v>3.25</v>
       </c>
       <c r="G575" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="H575" t="s">
         <v>9</v>
@@ -18729,7 +18729,7 @@
         <v>3.21000003814697</v>
       </c>
       <c r="G576" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="H576" t="s">
         <v>9</v>
@@ -18755,7 +18755,7 @@
         <v>3.25999999046326</v>
       </c>
       <c r="G577" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="H577" t="s">
         <v>9</v>
@@ -18781,7 +18781,7 @@
         <v>3.28500008583069</v>
       </c>
       <c r="G578" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="H578" t="s">
         <v>9</v>
@@ -18807,7 +18807,7 @@
         <v>3.30999994277954</v>
       </c>
       <c r="G579" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="H579" t="s">
         <v>9</v>
@@ -18833,7 +18833,7 @@
         <v>3.27999997138977</v>
       </c>
       <c r="G580" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="H580" t="s">
         <v>9</v>
@@ -18859,7 +18859,7 @@
         <v>3.25999999046326</v>
       </c>
       <c r="G581" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="H581" t="s">
         <v>9</v>
@@ -18885,7 +18885,7 @@
         <v>3.26999998092651</v>
       </c>
       <c r="G582" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="H582" t="s">
         <v>9</v>
@@ -18911,7 +18911,7 @@
         <v>3.27500009536743</v>
       </c>
       <c r="G583" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="H583" t="s">
         <v>9</v>
@@ -18937,7 +18937,7 @@
         <v>3.28999996185303</v>
       </c>
       <c r="G584" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="H584" t="s">
         <v>9</v>
@@ -18963,7 +18963,7 @@
         <v>3.28999996185303</v>
       </c>
       <c r="G585" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="H585" t="s">
         <v>9</v>
@@ -18989,7 +18989,7 @@
         <v>3.28999996185303</v>
       </c>
       <c r="G586" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="H586" t="s">
         <v>9</v>
@@ -19015,7 +19015,7 @@
         <v>3.29999995231628</v>
       </c>
       <c r="G587" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="H587" t="s">
         <v>9</v>
@@ -19041,7 +19041,7 @@
         <v>3.29999995231628</v>
       </c>
       <c r="G588" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="H588" t="s">
         <v>9</v>
@@ -19067,7 +19067,7 @@
         <v>3.29999995231628</v>
       </c>
       <c r="G589" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="H589" t="s">
         <v>9</v>
@@ -19093,7 +19093,7 @@
         <v>3.32500004768372</v>
       </c>
       <c r="G590" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="H590" t="s">
         <v>9</v>
@@ -19119,7 +19119,7 @@
         <v>3.29999995231628</v>
       </c>
       <c r="G591" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="H591" t="s">
         <v>9</v>
@@ -19145,7 +19145,7 @@
         <v>3.30999994277954</v>
       </c>
       <c r="G592" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="H592" t="s">
         <v>9</v>
@@ -19171,7 +19171,7 @@
         <v>3.32999992370605</v>
       </c>
       <c r="G593" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="H593" t="s">
         <v>9</v>
@@ -19197,7 +19197,7 @@
         <v>3.40000009536743</v>
       </c>
       <c r="G594" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="H594" t="s">
         <v>9</v>
@@ -19223,7 +19223,7 @@
         <v>3.52999997138977</v>
       </c>
       <c r="G595" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="H595" t="s">
         <v>9</v>
@@ -19249,7 +19249,7 @@
         <v>3.5</v>
       </c>
       <c r="G596" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="H596" t="s">
         <v>9</v>
@@ -19275,7 +19275,7 @@
         <v>3.50500011444092</v>
       </c>
       <c r="G597" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="H597" t="s">
         <v>9</v>
@@ -19301,7 +19301,7 @@
         <v>3.34999990463257</v>
       </c>
       <c r="G598" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="H598" t="s">
         <v>9</v>
@@ -19327,7 +19327,7 @@
         <v>3.29999995231628</v>
       </c>
       <c r="G599" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="H599" t="s">
         <v>9</v>
@@ -19353,7 +19353,7 @@
         <v>3.29999995231628</v>
       </c>
       <c r="G600" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="H600" t="s">
         <v>9</v>
@@ -19379,7 +19379,7 @@
         <v>3.24000000953674</v>
       </c>
       <c r="G601" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="H601" t="s">
         <v>9</v>
@@ -19405,7 +19405,7 @@
         <v>3.20000004768372</v>
       </c>
       <c r="G602" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="H602" t="s">
         <v>9</v>
@@ -19431,7 +19431,7 @@
         <v>3.25999999046326</v>
       </c>
       <c r="G603" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="H603" t="s">
         <v>9</v>
@@ -19457,7 +19457,7 @@
         <v>3.1800000667572</v>
       </c>
       <c r="G604" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="H604" t="s">
         <v>9</v>
@@ -19483,7 +19483,7 @@
         <v>3.13000011444092</v>
       </c>
       <c r="G605" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="H605" t="s">
         <v>9</v>
@@ -19509,7 +19509,7 @@
         <v>3.13000011444092</v>
       </c>
       <c r="G606" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="H606" t="s">
         <v>9</v>
@@ -19535,7 +19535,7 @@
         <v>3.11500000953674</v>
       </c>
       <c r="G607" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="H607" t="s">
         <v>9</v>
@@ -19561,7 +19561,7 @@
         <v>3.10500001907349</v>
       </c>
       <c r="G608" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="H608" t="s">
         <v>9</v>
@@ -19587,7 +19587,7 @@
         <v>3.09500002861023</v>
       </c>
       <c r="G609" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="H609" t="s">
         <v>9</v>
@@ -19613,7 +19613,7 @@
         <v>3.07999992370605</v>
       </c>
       <c r="G610" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="H610" t="s">
         <v>9</v>
@@ -19639,7 +19639,7 @@
         <v>3.07999992370605</v>
       </c>
       <c r="G611" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="H611" t="s">
         <v>9</v>
@@ -19665,7 +19665,7 @@
         <v>3.0550000667572</v>
       </c>
       <c r="G612" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="H612" t="s">
         <v>9</v>
@@ -19691,7 +19691,7 @@
         <v>3.00500011444092</v>
       </c>
       <c r="G613" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="H613" t="s">
         <v>9</v>
@@ -19717,7 +19717,7 @@
         <v>2.875</v>
       </c>
       <c r="G614" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="H614" t="s">
         <v>9</v>
@@ -19743,7 +19743,7 @@
         <v>2.95000004768372</v>
       </c>
       <c r="G615" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="H615" t="s">
         <v>9</v>
@@ -19769,7 +19769,7 @@
         <v>3.00500011444092</v>
       </c>
       <c r="G616" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="H616" t="s">
         <v>9</v>
@@ -19795,7 +19795,7 @@
         <v>3.01500010490417</v>
       </c>
       <c r="G617" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="H617" t="s">
         <v>9</v>
@@ -19821,7 +19821,7 @@
         <v>3</v>
       </c>
       <c r="G618" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="H618" t="s">
         <v>9</v>
@@ -19847,7 +19847,7 @@
         <v>3</v>
       </c>
       <c r="G619" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="H619" t="s">
         <v>9</v>
@@ -19873,7 +19873,7 @@
         <v>2.98000001907349</v>
       </c>
       <c r="G620" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="H620" t="s">
         <v>9</v>
@@ -19899,7 +19899,7 @@
         <v>3.00500011444092</v>
       </c>
       <c r="G621" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="H621" t="s">
         <v>9</v>
@@ -19925,7 +19925,7 @@
         <v>2.9449999332428</v>
       </c>
       <c r="G622" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="H622" t="s">
         <v>9</v>
@@ -19951,7 +19951,7 @@
         <v>3.04999995231628</v>
       </c>
       <c r="G623" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="H623" t="s">
         <v>9</v>
@@ -19977,7 +19977,7 @@
         <v>3.05999994277954</v>
       </c>
       <c r="G624" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="H624" t="s">
         <v>9</v>
@@ -20003,7 +20003,7 @@
         <v>3.01500010490417</v>
       </c>
       <c r="G625" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="H625" t="s">
         <v>9</v>
@@ -20029,7 +20029,7 @@
         <v>3.05999994277954</v>
       </c>
       <c r="G626" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="H626" t="s">
         <v>9</v>
@@ -20055,7 +20055,7 @@
         <v>2.97499990463257</v>
       </c>
       <c r="G627" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="H627" t="s">
         <v>9</v>
@@ -20081,7 +20081,7 @@
         <v>2.99000000953674</v>
       </c>
       <c r="G628" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="H628" t="s">
         <v>9</v>
@@ -20107,7 +20107,7 @@
         <v>2.97499990463257</v>
       </c>
       <c r="G629" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="H629" t="s">
         <v>9</v>
@@ -20133,7 +20133,7 @@
         <v>2.99499988555908</v>
       </c>
       <c r="G630" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="H630" t="s">
         <v>9</v>
@@ -20159,7 +20159,7 @@
         <v>2.92000007629395</v>
       </c>
       <c r="G631" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H631" t="s">
         <v>9</v>
@@ -20185,7 +20185,7 @@
         <v>3.06500005722046</v>
       </c>
       <c r="G632" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="H632" t="s">
         <v>9</v>
@@ -20211,7 +20211,7 @@
         <v>2.95000004768372</v>
       </c>
       <c r="G633" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="H633" t="s">
         <v>9</v>
@@ -20237,7 +20237,7 @@
         <v>3.03500008583069</v>
       </c>
       <c r="G634" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="H634" t="s">
         <v>9</v>
@@ -20263,7 +20263,7 @@
         <v>3</v>
       </c>
       <c r="G635" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="H635" t="s">
         <v>9</v>
@@ -20289,7 +20289,7 @@
         <v>3</v>
       </c>
       <c r="G636" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="H636" t="s">
         <v>9</v>
@@ -20315,7 +20315,7 @@
         <v>2.99000000953674</v>
       </c>
       <c r="G637" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="H637" t="s">
         <v>9</v>
@@ -20341,7 +20341,7 @@
         <v>2.9449999332428</v>
       </c>
       <c r="G638" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="H638" t="s">
         <v>9</v>
@@ -20367,7 +20367,7 @@
         <v>2.95499992370605</v>
       </c>
       <c r="G639" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="H639" t="s">
         <v>9</v>
@@ -20393,7 +20393,7 @@
         <v>2.9300000667572</v>
       </c>
       <c r="G640" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="H640" t="s">
         <v>9</v>
@@ -20419,7 +20419,7 @@
         <v>2.97499990463257</v>
       </c>
       <c r="G641" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="H641" t="s">
         <v>9</v>
@@ -20445,7 +20445,7 @@
         <v>2.99499988555908</v>
       </c>
       <c r="G642" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="H642" t="s">
         <v>9</v>
@@ -20471,7 +20471,7 @@
         <v>2.95499992370605</v>
       </c>
       <c r="G643" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="H643" t="s">
         <v>9</v>
@@ -20497,7 +20497,7 @@
         <v>2.9300000667572</v>
       </c>
       <c r="G644" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="H644" t="s">
         <v>9</v>
@@ -20523,7 +20523,7 @@
         <v>2.91499996185303</v>
       </c>
       <c r="G645" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="H645" t="s">
         <v>9</v>
@@ -20549,7 +20549,7 @@
         <v>2.89000010490417</v>
       </c>
       <c r="G646" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="H646" t="s">
         <v>9</v>
@@ -20575,7 +20575,7 @@
         <v>2.88499999046326</v>
       </c>
       <c r="G647" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="H647" t="s">
         <v>9</v>
@@ -20601,7 +20601,7 @@
         <v>2.86500000953674</v>
       </c>
       <c r="G648" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="H648" t="s">
         <v>9</v>
@@ -20627,7 +20627,7 @@
         <v>2.86999988555908</v>
       </c>
       <c r="G649" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="H649" t="s">
         <v>9</v>
@@ -20653,7 +20653,7 @@
         <v>2.89000010490417</v>
       </c>
       <c r="G650" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="H650" t="s">
         <v>9</v>
@@ -20679,7 +20679,7 @@
         <v>2.90000009536743</v>
       </c>
       <c r="G651" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="H651" t="s">
         <v>9</v>
@@ -20705,7 +20705,7 @@
         <v>2.89000010490417</v>
       </c>
       <c r="G652" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="H652" t="s">
         <v>9</v>
@@ -20731,7 +20731,7 @@
         <v>2.85999989509583</v>
       </c>
       <c r="G653" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="H653" t="s">
         <v>9</v>
@@ -20757,7 +20757,7 @@
         <v>2.84999990463257</v>
       </c>
       <c r="G654" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="H654" t="s">
         <v>9</v>
@@ -20783,7 +20783,7 @@
         <v>2.90000009536743</v>
       </c>
       <c r="G655" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="H655" t="s">
         <v>9</v>
@@ -20809,7 +20809,7 @@
         <v>3.14000010490417</v>
       </c>
       <c r="G656" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="H656" t="s">
         <v>9</v>
@@ -20835,7 +20835,7 @@
         <v>3.15000009536743</v>
       </c>
       <c r="G657" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="H657" t="s">
         <v>9</v>
@@ -20861,7 +20861,7 @@
         <v>3.20499992370605</v>
       </c>
       <c r="G658" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="H658" t="s">
         <v>9</v>
@@ -20887,7 +20887,7 @@
         <v>3.1800000667572</v>
       </c>
       <c r="G659" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="H659" t="s">
         <v>9</v>
@@ -20913,7 +20913,7 @@
         <v>3.53999996185303</v>
       </c>
       <c r="G660" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="H660" t="s">
         <v>9</v>
@@ -20939,7 +20939,7 @@
         <v>3.35500001907349</v>
       </c>
       <c r="G661" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="H661" t="s">
         <v>9</v>
@@ -20965,7 +20965,7 @@
         <v>3.34999990463257</v>
       </c>
       <c r="G662" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="H662" t="s">
         <v>9</v>
@@ -20991,7 +20991,7 @@
         <v>3.26500010490417</v>
       </c>
       <c r="G663" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="H663" t="s">
         <v>9</v>
@@ -21017,7 +21017,7 @@
         <v>3.26999998092651</v>
       </c>
       <c r="G664" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="H664" t="s">
         <v>9</v>
@@ -21043,7 +21043,7 @@
         <v>3.25</v>
       </c>
       <c r="G665" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="H665" t="s">
         <v>9</v>
@@ -21069,7 +21069,7 @@
         <v>3.1949999332428</v>
       </c>
       <c r="G666" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="H666" t="s">
         <v>9</v>
@@ -21095,7 +21095,7 @@
         <v>3.13499999046326</v>
       </c>
       <c r="G667" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="H667" t="s">
         <v>9</v>
@@ -21121,7 +21121,7 @@
         <v>3.09999990463257</v>
       </c>
       <c r="G668" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="H668" t="s">
         <v>9</v>
@@ -21147,7 +21147,7 @@
         <v>3.13000011444092</v>
       </c>
       <c r="G669" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="H669" t="s">
         <v>9</v>
@@ -21173,7 +21173,7 @@
         <v>3.02500009536743</v>
       </c>
       <c r="G670" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="H670" t="s">
         <v>9</v>
@@ -21199,7 +21199,7 @@
         <v>3.05999994277954</v>
       </c>
       <c r="G671" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="H671" t="s">
         <v>9</v>
@@ -21225,7 +21225,7 @@
         <v>3.03500008583069</v>
       </c>
       <c r="G672" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="H672" t="s">
         <v>9</v>
@@ -21251,7 +21251,7 @@
         <v>3.07999992370605</v>
       </c>
       <c r="G673" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="H673" t="s">
         <v>9</v>
@@ -21277,7 +21277,7 @@
         <v>3.11999988555908</v>
       </c>
       <c r="G674" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="H674" t="s">
         <v>9</v>
@@ -21303,7 +21303,7 @@
         <v>3.07500004768372</v>
       </c>
       <c r="G675" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="H675" t="s">
         <v>9</v>
@@ -21329,7 +21329,7 @@
         <v>3.09500002861023</v>
       </c>
       <c r="G676" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="H676" t="s">
         <v>9</v>
@@ -21355,7 +21355,7 @@
         <v>3.08500003814697</v>
       </c>
       <c r="G677" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="H677" t="s">
         <v>9</v>
@@ -21381,7 +21381,7 @@
         <v>3.05999994277954</v>
       </c>
       <c r="G678" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="H678" t="s">
         <v>9</v>
@@ -21407,7 +21407,7 @@
         <v>3.10999989509583</v>
       </c>
       <c r="G679" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="H679" t="s">
         <v>9</v>
@@ -21433,7 +21433,7 @@
         <v>3.10999989509583</v>
       </c>
       <c r="G680" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="H680" t="s">
         <v>9</v>
@@ -21459,7 +21459,7 @@
         <v>3.10999989509583</v>
       </c>
       <c r="G681" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="H681" t="s">
         <v>9</v>
@@ -21485,7 +21485,7 @@
         <v>3.125</v>
       </c>
       <c r="G682" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="H682" t="s">
         <v>9</v>
@@ -21511,7 +21511,7 @@
         <v>3.10999989509583</v>
       </c>
       <c r="G683" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="H683" t="s">
         <v>9</v>
@@ -21537,7 +21537,7 @@
         <v>3.10500001907349</v>
       </c>
       <c r="G684" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="H684" t="s">
         <v>9</v>
@@ -21563,7 +21563,7 @@
         <v>3.11500000953674</v>
       </c>
       <c r="G685" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="H685" t="s">
         <v>9</v>
@@ -21589,7 +21589,7 @@
         <v>3.11500000953674</v>
       </c>
       <c r="G686" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="H686" t="s">
         <v>9</v>
@@ -21615,7 +21615,7 @@
         <v>3.13000011444092</v>
       </c>
       <c r="G687" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="H687" t="s">
         <v>9</v>
@@ -21641,7 +21641,7 @@
         <v>3.13000011444092</v>
       </c>
       <c r="G688" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="H688" t="s">
         <v>9</v>
@@ -21667,7 +21667,7 @@
         <v>3.16499996185303</v>
       </c>
       <c r="G689" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="H689" t="s">
         <v>9</v>
@@ -21693,7 +21693,7 @@
         <v>3.16000008583069</v>
       </c>
       <c r="G690" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="H690" t="s">
         <v>9</v>
@@ -21719,7 +21719,7 @@
         <v>3.15499997138977</v>
       </c>
       <c r="G691" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="H691" t="s">
         <v>9</v>
@@ -21745,7 +21745,7 @@
         <v>3.15499997138977</v>
       </c>
       <c r="G692" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="H692" t="s">
         <v>9</v>
@@ -21771,7 +21771,7 @@
         <v>3.17000007629395</v>
       </c>
       <c r="G693" t="s">
-        <v>369</v>
+        <v>426</v>
       </c>
       <c r="H693" t="s">
         <v>9</v>
@@ -21797,7 +21797,7 @@
         <v>3.17000007629395</v>
       </c>
       <c r="G694" t="s">
-        <v>369</v>
+        <v>426</v>
       </c>
       <c r="H694" t="s">
         <v>9</v>
@@ -21823,7 +21823,7 @@
         <v>3.16000008583069</v>
       </c>
       <c r="G695" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="H695" t="s">
         <v>9</v>
@@ -21849,7 +21849,7 @@
         <v>3.17000007629395</v>
       </c>
       <c r="G696" t="s">
-        <v>369</v>
+        <v>426</v>
       </c>
       <c r="H696" t="s">
         <v>9</v>
@@ -21875,7 +21875,7 @@
         <v>3.16000008583069</v>
       </c>
       <c r="G697" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="H697" t="s">
         <v>9</v>
@@ -21901,7 +21901,7 @@
         <v>3.16000008583069</v>
       </c>
       <c r="G698" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="H698" t="s">
         <v>9</v>
@@ -21927,7 +21927,7 @@
         <v>3.16000008583069</v>
       </c>
       <c r="G699" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="H699" t="s">
         <v>9</v>
@@ -21953,7 +21953,7 @@
         <v>3.10999989509583</v>
       </c>
       <c r="G700" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="H700" t="s">
         <v>9</v>
@@ -22005,7 +22005,7 @@
         <v>2.98000001907349</v>
       </c>
       <c r="G702" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="H702" t="s">
         <v>9</v>
@@ -22031,7 +22031,7 @@
         <v>2.97499990463257</v>
       </c>
       <c r="G703" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="H703" t="s">
         <v>9</v>
@@ -22057,7 +22057,7 @@
         <v>2.97499990463257</v>
       </c>
       <c r="G704" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="H704" t="s">
         <v>9</v>
@@ -22083,7 +22083,7 @@
         <v>3.01500010490417</v>
       </c>
       <c r="G705" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="H705" t="s">
         <v>9</v>
@@ -22161,7 +22161,7 @@
         <v>2.9449999332428</v>
       </c>
       <c r="G708" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="H708" t="s">
         <v>9</v>
@@ -22187,7 +22187,7 @@
         <v>3.01500010490417</v>
       </c>
       <c r="G709" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="H709" t="s">
         <v>9</v>
@@ -22265,7 +22265,7 @@
         <v>2.9449999332428</v>
       </c>
       <c r="G712" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="H712" t="s">
         <v>9</v>
@@ -22317,7 +22317,7 @@
         <v>3.08500003814697</v>
       </c>
       <c r="G714" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="H714" t="s">
         <v>9</v>
@@ -22343,7 +22343,7 @@
         <v>3.05999994277954</v>
       </c>
       <c r="G715" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="H715" t="s">
         <v>9</v>
@@ -22369,7 +22369,7 @@
         <v>2.99000000953674</v>
       </c>
       <c r="G716" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="H716" t="s">
         <v>9</v>
@@ -22395,7 +22395,7 @@
         <v>2.97499990463257</v>
       </c>
       <c r="G717" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="H717" t="s">
         <v>9</v>
@@ -22421,7 +22421,7 @@
         <v>2.875</v>
       </c>
       <c r="G718" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="H718" t="s">
         <v>9</v>
@@ -22447,7 +22447,7 @@
         <v>2.86999988555908</v>
       </c>
       <c r="G719" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="H719" t="s">
         <v>9</v>
@@ -22473,7 +22473,7 @@
         <v>2.84999990463257</v>
       </c>
       <c r="G720" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="H720" t="s">
         <v>9</v>
@@ -22551,7 +22551,7 @@
         <v>2.89000010490417</v>
       </c>
       <c r="G723" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="H723" t="s">
         <v>9</v>
@@ -22577,7 +22577,7 @@
         <v>2.90000009536743</v>
       </c>
       <c r="G724" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="H724" t="s">
         <v>9</v>
@@ -22629,7 +22629,7 @@
         <v>2.97499990463257</v>
       </c>
       <c r="G726" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="H726" t="s">
         <v>9</v>
@@ -22655,7 +22655,7 @@
         <v>3.04999995231628</v>
       </c>
       <c r="G727" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="H727" t="s">
         <v>9</v>
@@ -22733,7 +22733,7 @@
         <v>3.08500003814697</v>
       </c>
       <c r="G730" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="H730" t="s">
         <v>9</v>
@@ -22759,7 +22759,7 @@
         <v>3.04999995231628</v>
       </c>
       <c r="G731" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="H731" t="s">
         <v>9</v>
@@ -22785,7 +22785,7 @@
         <v>3.04999995231628</v>
       </c>
       <c r="G732" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="H732" t="s">
         <v>9</v>
@@ -22811,7 +22811,7 @@
         <v>3.03500008583069</v>
       </c>
       <c r="G733" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="H733" t="s">
         <v>9</v>
@@ -22863,7 +22863,7 @@
         <v>2.99000000953674</v>
       </c>
       <c r="G735" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="H735" t="s">
         <v>9</v>
@@ -22915,7 +22915,7 @@
         <v>3</v>
       </c>
       <c r="G737" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="H737" t="s">
         <v>9</v>
@@ -22941,7 +22941,7 @@
         <v>3.04999995231628</v>
       </c>
       <c r="G738" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="H738" t="s">
         <v>9</v>
@@ -22993,7 +22993,7 @@
         <v>3</v>
       </c>
       <c r="G740" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="H740" t="s">
         <v>9</v>
@@ -23019,7 +23019,7 @@
         <v>3.04999995231628</v>
       </c>
       <c r="G741" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="H741" t="s">
         <v>9</v>
@@ -23045,7 +23045,7 @@
         <v>3.07999992370605</v>
       </c>
       <c r="G742" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="H742" t="s">
         <v>9</v>
@@ -23071,7 +23071,7 @@
         <v>3.05999994277954</v>
       </c>
       <c r="G743" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="H743" t="s">
         <v>9</v>
@@ -23149,7 +23149,7 @@
         <v>3.09500002861023</v>
       </c>
       <c r="G746" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="H746" t="s">
         <v>9</v>
@@ -23175,7 +23175,7 @@
         <v>3.08500003814697</v>
       </c>
       <c r="G747" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="H747" t="s">
         <v>9</v>
@@ -23227,7 +23227,7 @@
         <v>3.20000004768372</v>
       </c>
       <c r="G749" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="H749" t="s">
         <v>9</v>
@@ -23253,7 +23253,7 @@
         <v>3.08500003814697</v>
       </c>
       <c r="G750" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="H750" t="s">
         <v>9</v>
@@ -23279,7 +23279,7 @@
         <v>3.07500004768372</v>
       </c>
       <c r="G751" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="H751" t="s">
         <v>9</v>
@@ -23305,7 +23305,7 @@
         <v>3.08500003814697</v>
       </c>
       <c r="G752" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="H752" t="s">
         <v>9</v>
@@ -23331,7 +23331,7 @@
         <v>3.07999992370605</v>
       </c>
       <c r="G753" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="H753" t="s">
         <v>9</v>
@@ -23357,7 +23357,7 @@
         <v>3.11999988555908</v>
       </c>
       <c r="G754" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="H754" t="s">
         <v>9</v>
@@ -23383,7 +23383,7 @@
         <v>3.10999989509583</v>
       </c>
       <c r="G755" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="H755" t="s">
         <v>9</v>
@@ -23409,7 +23409,7 @@
         <v>3.125</v>
       </c>
       <c r="G756" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="H756" t="s">
         <v>9</v>
@@ -23461,7 +23461,7 @@
         <v>3.07500004768372</v>
       </c>
       <c r="G758" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="H758" t="s">
         <v>9</v>
@@ -23487,7 +23487,7 @@
         <v>3.07999992370605</v>
       </c>
       <c r="G759" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="H759" t="s">
         <v>9</v>
@@ -23539,7 +23539,7 @@
         <v>3.07500004768372</v>
       </c>
       <c r="G761" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="H761" t="s">
         <v>9</v>
@@ -23591,7 +23591,7 @@
         <v>3.10999989509583</v>
       </c>
       <c r="G763" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="H763" t="s">
         <v>9</v>
@@ -23617,7 +23617,7 @@
         <v>3.09500002861023</v>
       </c>
       <c r="G764" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="H764" t="s">
         <v>9</v>
@@ -23695,7 +23695,7 @@
         <v>3.24000000953674</v>
       </c>
       <c r="G767" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="H767" t="s">
         <v>9</v>
@@ -23747,7 +23747,7 @@
         <v>3.1949999332428</v>
       </c>
       <c r="G769" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="H769" t="s">
         <v>9</v>
@@ -23799,7 +23799,7 @@
         <v>3.1949999332428</v>
       </c>
       <c r="G771" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="H771" t="s">
         <v>9</v>
@@ -23825,7 +23825,7 @@
         <v>3.1800000667572</v>
       </c>
       <c r="G772" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="H772" t="s">
         <v>9</v>
@@ -23851,7 +23851,7 @@
         <v>3.1800000667572</v>
       </c>
       <c r="G773" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="H773" t="s">
         <v>9</v>
@@ -23877,7 +23877,7 @@
         <v>3.16499996185303</v>
       </c>
       <c r="G774" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="H774" t="s">
         <v>9</v>
@@ -23903,7 +23903,7 @@
         <v>3.1800000667572</v>
       </c>
       <c r="G775" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="H775" t="s">
         <v>9</v>
@@ -23955,7 +23955,7 @@
         <v>3.20000004768372</v>
       </c>
       <c r="G777" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="H777" t="s">
         <v>9</v>
@@ -24007,7 +24007,7 @@
         <v>3.20499992370605</v>
       </c>
       <c r="G779" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="H779" t="s">
         <v>9</v>
@@ -24085,7 +24085,7 @@
         <v>3.20000004768372</v>
       </c>
       <c r="G782" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="H782" t="s">
         <v>9</v>
@@ -24111,7 +24111,7 @@
         <v>3.20000004768372</v>
       </c>
       <c r="G783" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="H783" t="s">
         <v>9</v>
@@ -24215,7 +24215,7 @@
         <v>3.24000000953674</v>
       </c>
       <c r="G787" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="H787" t="s">
         <v>9</v>
@@ -24241,7 +24241,7 @@
         <v>3.25</v>
       </c>
       <c r="G788" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="H788" t="s">
         <v>9</v>
@@ -24293,7 +24293,7 @@
         <v>3.25999999046326</v>
       </c>
       <c r="G790" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="H790" t="s">
         <v>9</v>
@@ -24319,7 +24319,7 @@
         <v>3.25</v>
       </c>
       <c r="G791" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="H791" t="s">
         <v>9</v>
@@ -24345,7 +24345,7 @@
         <v>3.24000000953674</v>
       </c>
       <c r="G792" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="H792" t="s">
         <v>9</v>
@@ -24371,7 +24371,7 @@
         <v>3.26999998092651</v>
       </c>
       <c r="G793" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="H793" t="s">
         <v>9</v>
@@ -24397,7 +24397,7 @@
         <v>3.25999999046326</v>
       </c>
       <c r="G794" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="H794" t="s">
         <v>9</v>
@@ -24449,7 +24449,7 @@
         <v>3.29999995231628</v>
       </c>
       <c r="G796" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="H796" t="s">
         <v>9</v>
@@ -24709,7 +24709,7 @@
         <v>3.34999990463257</v>
       </c>
       <c r="G806" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="H806" t="s">
         <v>9</v>
@@ -25203,7 +25203,7 @@
         <v>3.53999996185303</v>
       </c>
       <c r="G825" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="H825" t="s">
         <v>9</v>
@@ -60233,7 +60233,7 @@
     </row>
     <row r="2173">
       <c r="A2173" s="1" t="n">
-        <v>45488.6495023148</v>
+        <v>45488.2916666667</v>
       </c>
       <c r="B2173" t="n">
         <v>46092</v>
@@ -60242,7 +60242,7 @@
         <v>2.40499997138977</v>
       </c>
       <c r="D2173" t="n">
-        <v>2.375</v>
+        <v>2.36999988555908</v>
       </c>
       <c r="E2173" t="n">
         <v>2.40000009536743</v>
@@ -60254,6 +60254,32 @@
         <v>1135</v>
       </c>
       <c r="H2173" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2174">
+      <c r="A2174" s="1" t="n">
+        <v>45489.6494328704</v>
+      </c>
+      <c r="B2174" t="n">
+        <v>39698</v>
+      </c>
+      <c r="C2174" t="n">
+        <v>2.375</v>
+      </c>
+      <c r="D2174" t="n">
+        <v>2.35500001907349</v>
+      </c>
+      <c r="E2174" t="n">
+        <v>2.36999988555908</v>
+      </c>
+      <c r="F2174" t="n">
+        <v>2.375</v>
+      </c>
+      <c r="G2174" t="s">
+        <v>1132</v>
+      </c>
+      <c r="H2174" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/ASC.MI.xlsx
+++ b/data/ASC.MI.xlsx
@@ -44,34 +44,34 @@
     <t xml:space="preserve">ASC.MI</t>
   </si>
   <si>
-    <t xml:space="preserve">1.31448090076447</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.30262815952301</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.30381333827972</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.28959000110626</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.28247821331024</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.30973994731903</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.28366351127625</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.26588428020477</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.22676980495453</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.23032581806183</t>
+    <t xml:space="preserve">1.31448101997375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.30262804031372</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.3038135766983</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.28959023952484</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.28247833251953</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.30973970890045</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.28366339206696</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.26588439941406</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.22676992416382</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.23032569885254</t>
   </si>
   <si>
     <t xml:space="preserve">1.19121134281158</t>
@@ -83,13 +83,13 @@
     <t xml:space="preserve">1.29196059703827</t>
   </si>
   <si>
-    <t xml:space="preserve">1.28840494155884</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.28129291534424</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.30736935138702</t>
+    <t xml:space="preserve">1.28840458393097</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.28129315376282</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.30736947059631</t>
   </si>
   <si>
     <t xml:space="preserve">1.31211042404175</t>
@@ -98,46 +98,46 @@
     <t xml:space="preserve">1.29788708686829</t>
   </si>
   <si>
-    <t xml:space="preserve">1.23862278461456</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.24454915523529</t>
+    <t xml:space="preserve">1.23862266540527</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.24454927444458</t>
   </si>
   <si>
     <t xml:space="preserve">1.24336397647858</t>
   </si>
   <si>
-    <t xml:space="preserve">1.22439956665039</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.24099349975586</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.26469922065735</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.26232850551605</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.26825487613678</t>
+    <t xml:space="preserve">1.2243994474411</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.24099338054657</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.26469910144806</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.26232862472534</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.26825499534607</t>
   </si>
   <si>
     <t xml:space="preserve">1.27062559127808</t>
   </si>
   <si>
-    <t xml:space="preserve">1.3251485824585</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.32159268856049</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.3239631652832</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.31685161590576</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.31922221183777</t>
+    <t xml:space="preserve">1.32514870166779</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.32159292697906</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.32396340370178</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.31685173511505</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.31922209262848</t>
   </si>
   <si>
     <t xml:space="preserve">1.30618405342102</t>
@@ -155,10 +155,10 @@
     <t xml:space="preserve">1.34648382663727</t>
   </si>
   <si>
-    <t xml:space="preserve">1.36070740222931</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.35833668708801</t>
+    <t xml:space="preserve">1.36070728302002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.35833656787872</t>
   </si>
   <si>
     <t xml:space="preserve">1.34766888618469</t>
@@ -173,10 +173,10 @@
     <t xml:space="preserve">1.34055721759796</t>
   </si>
   <si>
-    <t xml:space="preserve">1.35596597194672</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.35952162742615</t>
+    <t xml:space="preserve">1.35596609115601</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.35952174663544</t>
   </si>
   <si>
     <t xml:space="preserve">1.36307775974274</t>
@@ -185,7 +185,7 @@
     <t xml:space="preserve">1.34885430335999</t>
   </si>
   <si>
-    <t xml:space="preserve">1.36426305770874</t>
+    <t xml:space="preserve">1.36426293849945</t>
   </si>
   <si>
     <t xml:space="preserve">1.38796877861023</t>
@@ -194,19 +194,19 @@
     <t xml:space="preserve">1.38085699081421</t>
   </si>
   <si>
-    <t xml:space="preserve">1.38322770595551</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.38678324222565</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.39152467250824</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.39863622188568</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.3784863948822</t>
+    <t xml:space="preserve">1.38322758674622</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.38678336143494</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.39152455329895</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.39863634109497</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.37848651409149</t>
   </si>
   <si>
     <t xml:space="preserve">1.37967169284821</t>
@@ -215,16 +215,16 @@
     <t xml:space="preserve">1.38204228878021</t>
   </si>
   <si>
-    <t xml:space="preserve">1.40219223499298</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.410489320755</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.41760098934174</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.41523039340973</t>
+    <t xml:space="preserve">1.40219211578369</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.41048920154572</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.41760087013245</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.41523015499115</t>
   </si>
   <si>
     <t xml:space="preserve">1.40456259250641</t>
@@ -236,28 +236,28 @@
     <t xml:space="preserve">1.4328111410141</t>
   </si>
   <si>
-    <t xml:space="preserve">1.4302796125412</t>
+    <t xml:space="preserve">1.43027973175049</t>
   </si>
   <si>
     <t xml:space="preserve">1.43407690525055</t>
   </si>
   <si>
-    <t xml:space="preserve">1.44926559925079</t>
+    <t xml:space="preserve">1.44926571846008</t>
   </si>
   <si>
     <t xml:space="preserve">1.46572005748749</t>
   </si>
   <si>
-    <t xml:space="preserve">1.46192300319672</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.4758460521698</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.4834406375885</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.48470628261566</t>
+    <t xml:space="preserve">1.46192288398743</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.47584617137909</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.48344051837921</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.48470616340637</t>
   </si>
   <si>
     <t xml:space="preserve">1.48976922035217</t>
@@ -266,25 +266,25 @@
     <t xml:space="preserve">1.49483215808868</t>
   </si>
   <si>
-    <t xml:space="preserve">1.50242626667023</t>
+    <t xml:space="preserve">1.50242674350739</t>
   </si>
   <si>
     <t xml:space="preserve">1.53153848648071</t>
   </si>
   <si>
-    <t xml:space="preserve">1.52900671958923</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.54419577121735</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.55938458442688</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.58343350887299</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.5454615354538</t>
+    <t xml:space="preserve">1.52900683879852</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.54419589042664</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.55938446521759</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.58343327045441</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.54546117782593</t>
   </si>
   <si>
     <t xml:space="preserve">1.55685305595398</t>
@@ -293,100 +293,100 @@
     <t xml:space="preserve">1.53913283348083</t>
   </si>
   <si>
-    <t xml:space="preserve">1.58216762542725</t>
+    <t xml:space="preserve">1.58216798305511</t>
   </si>
   <si>
     <t xml:space="preserve">1.65178310871124</t>
   </si>
   <si>
-    <t xml:space="preserve">1.65811157226562</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.64039158821106</t>
+    <t xml:space="preserve">1.65811192989349</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.64039146900177</t>
   </si>
   <si>
     <t xml:space="preserve">1.56571328639984</t>
   </si>
   <si>
-    <t xml:space="preserve">1.55052435398102</t>
+    <t xml:space="preserve">1.55052447319031</t>
   </si>
   <si>
     <t xml:space="preserve">1.59862232208252</t>
   </si>
   <si>
-    <t xml:space="preserve">1.6441890001297</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.58849656581879</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.56318163871765</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.60495102405548</t>
+    <t xml:space="preserve">1.64418888092041</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.5884964466095</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.56318175792694</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.6049507856369</t>
   </si>
   <si>
     <t xml:space="preserve">1.63912570476532</t>
   </si>
   <si>
-    <t xml:space="preserve">1.70874118804932</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.69481801986694</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.63786017894745</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.69355237483978</t>
+    <t xml:space="preserve">1.70874130725861</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.69481813907623</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.63786029815674</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.69355249404907</t>
   </si>
   <si>
     <t xml:space="preserve">1.70494401454926</t>
   </si>
   <si>
-    <t xml:space="preserve">1.70621001720428</t>
+    <t xml:space="preserve">1.70620965957642</t>
   </si>
   <si>
     <t xml:space="preserve">1.76316773891449</t>
   </si>
   <si>
-    <t xml:space="preserve">1.76823079586029</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.7707622051239</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.73532176017761</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.73405587673187</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.77202761173248</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.78468525409698</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.75051045417786</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.74671339988708</t>
+    <t xml:space="preserve">1.76823055744171</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.77076208591461</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.7353218793869</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.73405563831329</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.77202796936035</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.78468537330627</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.75051057338715</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.7467132806778</t>
   </si>
   <si>
     <t xml:space="preserve">1.75304198265076</t>
   </si>
   <si>
-    <t xml:space="preserve">1.76443338394165</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.80620276927948</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.84164321422577</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.80367112159729</t>
+    <t xml:space="preserve">1.76443362236023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.80620300769806</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.84164309501648</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.80367147922516</t>
   </si>
   <si>
     <t xml:space="preserve">1.83278298377991</t>
@@ -395,103 +395,103 @@
     <t xml:space="preserve">1.82012581825256</t>
   </si>
   <si>
-    <t xml:space="preserve">1.79734241962433</t>
+    <t xml:space="preserve">1.79734253883362</t>
   </si>
   <si>
     <t xml:space="preserve">1.79607689380646</t>
   </si>
   <si>
-    <t xml:space="preserve">1.79354536533356</t>
+    <t xml:space="preserve">1.79354560375214</t>
   </si>
   <si>
     <t xml:space="preserve">1.81632852554321</t>
   </si>
   <si>
-    <t xml:space="preserve">1.82265758514404</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.80999994277954</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.82518911361694</t>
+    <t xml:space="preserve">1.8226569890976</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.80999982357025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.82518875598907</t>
   </si>
   <si>
     <t xml:space="preserve">1.8112655878067</t>
   </si>
   <si>
-    <t xml:space="preserve">1.70241212844849</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.71380400657654</t>
+    <t xml:space="preserve">1.70241260528564</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.71380388736725</t>
   </si>
   <si>
     <t xml:space="preserve">1.7897481918335</t>
   </si>
   <si>
-    <t xml:space="preserve">1.74038457870483</t>
+    <t xml:space="preserve">1.74038481712341</t>
   </si>
   <si>
     <t xml:space="preserve">1.6555802822113</t>
   </si>
   <si>
-    <t xml:space="preserve">1.67583203315735</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.6479856967926</t>
+    <t xml:space="preserve">1.67583191394806</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.64798605442047</t>
   </si>
   <si>
     <t xml:space="preserve">1.6745662689209</t>
   </si>
   <si>
-    <t xml:space="preserve">1.6606433391571</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.68722355365753</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.69861555099487</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.66444051265717</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.67709815502167</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.65684616565704</t>
+    <t xml:space="preserve">1.66064321994781</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.68722367286682</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.69861507415771</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.66444039344788</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.6770977973938</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.65684604644775</t>
   </si>
   <si>
     <t xml:space="preserve">1.65937745571136</t>
   </si>
   <si>
-    <t xml:space="preserve">1.66190898418427</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.6846923828125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.69228661060333</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.69608390331268</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.70114696025848</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.66317462921143</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.68975508213043</t>
+    <t xml:space="preserve">1.66190874576569</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.68469226360321</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.69228672981262</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.69608378410339</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.7011467218399</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.66317486763</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.68975520133972</t>
   </si>
   <si>
     <t xml:space="preserve">1.68595790863037</t>
   </si>
   <si>
-    <t xml:space="preserve">1.67836344242096</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.6340628862381</t>
+    <t xml:space="preserve">1.67836332321167</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.63406276702881</t>
   </si>
   <si>
     <t xml:space="preserve">1.57710492610931</t>
@@ -500,61 +500,61 @@
     <t xml:space="preserve">1.53406989574432</t>
   </si>
   <si>
-    <t xml:space="preserve">1.53533554077148</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.54039859771729</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.52267801761627</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.60115361213684</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.63153147697449</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.60748267173767</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.57583928108215</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.53786706924438</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.55558729171753</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.58723080158234</t>
+    <t xml:space="preserve">1.53533589839935</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.54039824008942</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.52267813682556</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.60115373134613</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.6315313577652</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.60748243331909</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.57583904266357</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.53786718845367</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.55558717250824</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.58723056316376</t>
   </si>
   <si>
     <t xml:space="preserve">1.61381113529205</t>
   </si>
   <si>
-    <t xml:space="preserve">1.6289998292923</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.62393712997437</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.64545452594757</t>
+    <t xml:space="preserve">1.62899959087372</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.62393689155579</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.64545440673828</t>
   </si>
   <si>
     <t xml:space="preserve">1.63659429550171</t>
   </si>
   <si>
-    <t xml:space="preserve">1.63026571273804</t>
+    <t xml:space="preserve">1.63026559352875</t>
   </si>
   <si>
     <t xml:space="preserve">1.68089485168457</t>
   </si>
   <si>
-    <t xml:space="preserve">1.71000671386719</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.69988107681274</t>
+    <t xml:space="preserve">1.71000683307648</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.69988119602203</t>
   </si>
   <si>
     <t xml:space="preserve">1.72139859199524</t>
@@ -566,28 +566,28 @@
     <t xml:space="preserve">1.72392988204956</t>
   </si>
   <si>
-    <t xml:space="preserve">1.73658728599548</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.71506989002228</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.72266411781311</t>
+    <t xml:space="preserve">1.73658692836761</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.71507000923157</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.72266399860382</t>
   </si>
   <si>
     <t xml:space="preserve">1.73279011249542</t>
   </si>
   <si>
-    <t xml:space="preserve">1.75177586078644</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.76190197467804</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.75937032699585</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.73025858402252</t>
+    <t xml:space="preserve">1.75177621841431</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.76190209388733</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.75937068462372</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.7302588224411</t>
   </si>
   <si>
     <t xml:space="preserve">1.81253135204315</t>
@@ -602,37 +602,37 @@
     <t xml:space="preserve">1.77709090709686</t>
   </si>
   <si>
-    <t xml:space="preserve">1.82139158248901</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.82772040367126</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.7948112487793</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.82898592948914</t>
+    <t xml:space="preserve">1.82139134407043</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.82772016525269</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.79481089115143</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.82898616790771</t>
   </si>
   <si>
     <t xml:space="preserve">1.84037744998932</t>
   </si>
   <si>
-    <t xml:space="preserve">1.81379687786102</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.86695802211761</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.86062955856323</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.8859441280365</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.91758716106415</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.93404185771942</t>
+    <t xml:space="preserve">1.81379723548889</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.86695778369904</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.86062932014465</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.88594388961792</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.91758751869202</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.93404197692871</t>
   </si>
   <si>
     <t xml:space="preserve">1.95049643516541</t>
@@ -641,28 +641,28 @@
     <t xml:space="preserve">1.95935654640198</t>
   </si>
   <si>
-    <t xml:space="preserve">1.95555937290192</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.99732863903046</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.98213982582092</t>
+    <t xml:space="preserve">1.95555901527405</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.99732851982117</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.98213970661163</t>
   </si>
   <si>
     <t xml:space="preserve">2.03656649589539</t>
   </si>
   <si>
-    <t xml:space="preserve">2.06314659118652</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.08339834213257</t>
+    <t xml:space="preserve">2.0631468296051</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.08339881896973</t>
   </si>
   <si>
     <t xml:space="preserve">2.10238456726074</t>
   </si>
   <si>
-    <t xml:space="preserve">2.06947541236877</t>
+    <t xml:space="preserve">2.06947565078735</t>
   </si>
   <si>
     <t xml:space="preserve">2.07200694084167</t>
@@ -683,58 +683,58 @@
     <t xml:space="preserve">2.1517481803894</t>
   </si>
   <si>
-    <t xml:space="preserve">2.15681147575378</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.19604849815369</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.20490884780884</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.21883225440979</t>
+    <t xml:space="preserve">2.15681099891663</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.19604897499084</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.20490908622742</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.21883201599121</t>
   </si>
   <si>
     <t xml:space="preserve">2.22769236564636</t>
   </si>
   <si>
-    <t xml:space="preserve">2.23148941993713</t>
+    <t xml:space="preserve">2.23148918151855</t>
   </si>
   <si>
     <t xml:space="preserve">2.21503472328186</t>
   </si>
   <si>
-    <t xml:space="preserve">2.24034953117371</t>
+    <t xml:space="preserve">2.24034929275513</t>
   </si>
   <si>
     <t xml:space="preserve">2.23275518417358</t>
   </si>
   <si>
-    <t xml:space="preserve">2.22895836830139</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.21376919746399</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.22516083717346</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.27452421188354</t>
+    <t xml:space="preserve">2.22895789146423</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.21376895904541</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.22516107559204</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.27452445030212</t>
   </si>
   <si>
     <t xml:space="preserve">2.24288082122803</t>
   </si>
   <si>
-    <t xml:space="preserve">2.23908376693726</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.2783215045929</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.2694616317749</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.27325844764709</t>
+    <t xml:space="preserve">2.23908400535583</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.27832126617432</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.26946139335632</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.27325868606567</t>
   </si>
   <si>
     <t xml:space="preserve">2.29224467277527</t>
@@ -743,19 +743,19 @@
     <t xml:space="preserve">2.34160828590393</t>
   </si>
   <si>
-    <t xml:space="preserve">2.34920239448547</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.39350342750549</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.42274117469788</t>
+    <t xml:space="preserve">2.34920263290405</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.39350366592407</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.42274141311646</t>
   </si>
   <si>
     <t xml:space="preserve">2.4094512462616</t>
   </si>
   <si>
-    <t xml:space="preserve">2.39616131782532</t>
+    <t xml:space="preserve">2.39616107940674</t>
   </si>
   <si>
     <t xml:space="preserve">2.37755560874939</t>
@@ -767,19 +767,19 @@
     <t xml:space="preserve">2.31243538856506</t>
   </si>
   <si>
-    <t xml:space="preserve">2.35230493545532</t>
+    <t xml:space="preserve">2.35230469703674</t>
   </si>
   <si>
     <t xml:space="preserve">2.31376433372498</t>
   </si>
   <si>
-    <t xml:space="preserve">2.30047464370728</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.3655948638916</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.38154292106628</t>
+    <t xml:space="preserve">2.30047416687012</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.36559462547302</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.38154244422913</t>
   </si>
   <si>
     <t xml:space="preserve">2.40014839172363</t>
@@ -794,13 +794,13 @@
     <t xml:space="preserve">2.41875410079956</t>
   </si>
   <si>
-    <t xml:space="preserve">2.3629367351532</t>
+    <t xml:space="preserve">2.36293697357178</t>
   </si>
   <si>
     <t xml:space="preserve">2.40147733688354</t>
   </si>
   <si>
-    <t xml:space="preserve">2.40812253952026</t>
+    <t xml:space="preserve">2.40812206268311</t>
   </si>
   <si>
     <t xml:space="preserve">2.4253990650177</t>
@@ -812,7 +812,7 @@
     <t xml:space="preserve">2.40413546562195</t>
   </si>
   <si>
-    <t xml:space="preserve">2.39217448234558</t>
+    <t xml:space="preserve">2.392174243927</t>
   </si>
   <si>
     <t xml:space="preserve">2.412109375</t>
@@ -821,25 +821,28 @@
     <t xml:space="preserve">2.41343808174133</t>
   </si>
   <si>
-    <t xml:space="preserve">2.40679311752319</t>
+    <t xml:space="preserve">2.40679335594177</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.39350318908691</t>
   </si>
   <si>
     <t xml:space="preserve">2.47058463096619</t>
   </si>
   <si>
-    <t xml:space="preserve">2.38951635360718</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.37489748001099</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.35762071609497</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.35894966125488</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.31509304046631</t>
+    <t xml:space="preserve">2.38951659202576</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.37489771842957</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.35762095451355</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.35895013809204</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.31509327888489</t>
   </si>
   <si>
     <t xml:space="preserve">2.30579042434692</t>
@@ -848,61 +851,61 @@
     <t xml:space="preserve">2.33104109764099</t>
   </si>
   <si>
-    <t xml:space="preserve">2.32173824310303</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.3190803527832</t>
+    <t xml:space="preserve">2.32173800468445</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.31908011436462</t>
   </si>
   <si>
     <t xml:space="preserve">2.32306718826294</t>
   </si>
   <si>
-    <t xml:space="preserve">2.32838296890259</t>
+    <t xml:space="preserve">2.32838320732117</t>
   </si>
   <si>
     <t xml:space="preserve">2.30446171760559</t>
   </si>
   <si>
-    <t xml:space="preserve">2.26592063903809</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.25661778450012</t>
+    <t xml:space="preserve">2.26592087745667</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.2566180229187</t>
   </si>
   <si>
     <t xml:space="preserve">2.27921080589294</t>
   </si>
   <si>
-    <t xml:space="preserve">2.29250025749207</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.30180382728577</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.38552927970886</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.38021326065063</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.39084529876709</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.3762264251709</t>
+    <t xml:space="preserve">2.29250073432922</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.30180358886719</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.38552951812744</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.38021349906921</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.39084553718567</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.37622666358948</t>
   </si>
   <si>
     <t xml:space="preserve">2.35629177093506</t>
   </si>
   <si>
-    <t xml:space="preserve">2.33901500701904</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.34034419059753</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.32572531700134</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.35097622871399</t>
+    <t xml:space="preserve">2.33901524543762</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.34034395217896</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.32572507858276</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.35097599029541</t>
   </si>
   <si>
     <t xml:space="preserve">2.30977749824524</t>
@@ -911,10 +914,10 @@
     <t xml:space="preserve">2.35496258735657</t>
   </si>
   <si>
-    <t xml:space="preserve">2.43470215797424</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.39881944656372</t>
+    <t xml:space="preserve">2.43470239639282</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.39881920814514</t>
   </si>
   <si>
     <t xml:space="preserve">2.42141199111938</t>
@@ -929,37 +932,37 @@
     <t xml:space="preserve">2.33502817153931</t>
   </si>
   <si>
-    <t xml:space="preserve">2.3297119140625</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.39483237266541</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.37223982810974</t>
+    <t xml:space="preserve">2.32971215248108</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.39483261108398</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.37223958969116</t>
   </si>
   <si>
     <t xml:space="preserve">2.39749050140381</t>
   </si>
   <si>
-    <t xml:space="preserve">2.36825299263</t>
+    <t xml:space="preserve">2.36825251579285</t>
   </si>
   <si>
     <t xml:space="preserve">2.41742515563965</t>
   </si>
   <si>
-    <t xml:space="preserve">2.43603110313416</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.47191381454468</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.48254561424255</t>
+    <t xml:space="preserve">2.43603086471558</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.47191333770752</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.48254537582397</t>
   </si>
   <si>
     <t xml:space="preserve">2.5343759059906</t>
   </si>
   <si>
-    <t xml:space="preserve">2.51311230659485</t>
+    <t xml:space="preserve">2.51311254501343</t>
   </si>
   <si>
     <t xml:space="preserve">2.51178312301636</t>
@@ -971,16 +974,16 @@
     <t xml:space="preserve">2.45197892189026</t>
   </si>
   <si>
-    <t xml:space="preserve">2.45729470252991</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.40546441078186</t>
+    <t xml:space="preserve">2.45729494094849</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.40546417236328</t>
   </si>
   <si>
     <t xml:space="preserve">2.42938613891602</t>
   </si>
   <si>
-    <t xml:space="preserve">2.47324228286743</t>
+    <t xml:space="preserve">2.47324252128601</t>
   </si>
   <si>
     <t xml:space="preserve">2.45862364768982</t>
@@ -989,7 +992,7 @@
     <t xml:space="preserve">2.4413468837738</t>
   </si>
   <si>
-    <t xml:space="preserve">2.42672777175903</t>
+    <t xml:space="preserve">2.42672801017761</t>
   </si>
   <si>
     <t xml:space="preserve">2.44932103157043</t>
@@ -1001,13 +1004,13 @@
     <t xml:space="preserve">2.42872166633606</t>
   </si>
   <si>
-    <t xml:space="preserve">2.4453341960907</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.43868923187256</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.44201135635376</t>
+    <t xml:space="preserve">2.44533395767212</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.43868899345398</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.44201159477234</t>
   </si>
   <si>
     <t xml:space="preserve">2.38220715522766</t>
@@ -1016,13 +1019,13 @@
     <t xml:space="preserve">2.19282650947571</t>
   </si>
   <si>
-    <t xml:space="preserve">2.09979748725891</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.15960192680359</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.12969970703125</t>
+    <t xml:space="preserve">2.09979724884033</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.15960216522217</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.12969994544983</t>
   </si>
   <si>
     <t xml:space="preserve">2.09315276145935</t>
@@ -1031,22 +1034,22 @@
     <t xml:space="preserve">2.14631199836731</t>
   </si>
   <si>
-    <t xml:space="preserve">2.13634467124939</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.17289185523987</t>
+    <t xml:space="preserve">2.13634490966797</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.17289209365845</t>
   </si>
   <si>
     <t xml:space="preserve">2.17953658103943</t>
   </si>
   <si>
-    <t xml:space="preserve">2.12305498123169</t>
+    <t xml:space="preserve">2.12305450439453</t>
   </si>
   <si>
     <t xml:space="preserve">2.10644268989563</t>
   </si>
   <si>
-    <t xml:space="preserve">2.08318519592285</t>
+    <t xml:space="preserve">2.08318567276001</t>
   </si>
   <si>
     <t xml:space="preserve">2.07321786880493</t>
@@ -1055,55 +1058,55 @@
     <t xml:space="preserve">2.03334808349609</t>
   </si>
   <si>
-    <t xml:space="preserve">2.06989550590515</t>
+    <t xml:space="preserve">2.06989574432373</t>
   </si>
   <si>
     <t xml:space="preserve">2.07986283302307</t>
   </si>
   <si>
-    <t xml:space="preserve">2.10311985015869</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.14298963546753</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.09647512435913</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.12637710571289</t>
+    <t xml:space="preserve">2.10312008857727</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.14298939704895</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.09647536277771</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.12637734413147</t>
   </si>
   <si>
     <t xml:space="preserve">2.13302230834961</t>
   </si>
   <si>
-    <t xml:space="preserve">2.18285894393921</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.16292428970337</t>
+    <t xml:space="preserve">2.18285918235779</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.16292452812195</t>
   </si>
   <si>
     <t xml:space="preserve">2.11640977859497</t>
   </si>
   <si>
-    <t xml:space="preserve">2.11973237991333</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.15627956390381</t>
+    <t xml:space="preserve">2.11973261833191</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.15627908706665</t>
   </si>
   <si>
     <t xml:space="preserve">2.16624689102173</t>
   </si>
   <si>
-    <t xml:space="preserve">2.19947123527527</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.17621421813965</t>
+    <t xml:space="preserve">2.19947147369385</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.17621445655823</t>
   </si>
   <si>
     <t xml:space="preserve">2.18618154525757</t>
   </si>
   <si>
-    <t xml:space="preserve">2.20943880081177</t>
+    <t xml:space="preserve">2.20943903923035</t>
   </si>
   <si>
     <t xml:space="preserve">2.21276164054871</t>
@@ -1112,28 +1115,28 @@
     <t xml:space="preserve">2.25927591323853</t>
   </si>
   <si>
-    <t xml:space="preserve">2.34566020965576</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.3290479183197</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.34655904769897</t>
+    <t xml:space="preserve">2.34565997123718</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.32904767990112</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.34655928611755</t>
   </si>
   <si>
     <t xml:space="preserve">2.44279026985168</t>
   </si>
   <si>
-    <t xml:space="preserve">2.39837574958801</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.36876630783081</t>
+    <t xml:space="preserve">2.39837598800659</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.36876654624939</t>
   </si>
   <si>
     <t xml:space="preserve">2.4131805896759</t>
   </si>
   <si>
-    <t xml:space="preserve">2.3539617061615</t>
+    <t xml:space="preserve">2.35396146774292</t>
   </si>
   <si>
     <t xml:space="preserve">2.31694960594177</t>
@@ -1145,28 +1148,28 @@
     <t xml:space="preserve">2.29844355583191</t>
   </si>
   <si>
-    <t xml:space="preserve">2.29104089736938</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.27993750572205</t>
+    <t xml:space="preserve">2.29104113578796</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.27993774414062</t>
   </si>
   <si>
     <t xml:space="preserve">2.26143169403076</t>
   </si>
   <si>
-    <t xml:space="preserve">2.22441983222961</t>
+    <t xml:space="preserve">2.22441959381104</t>
   </si>
   <si>
     <t xml:space="preserve">2.12818837165833</t>
   </si>
   <si>
-    <t xml:space="preserve">2.18370652198792</t>
+    <t xml:space="preserve">2.18370676040649</t>
   </si>
   <si>
     <t xml:space="preserve">2.23182201385498</t>
   </si>
   <si>
-    <t xml:space="preserve">2.22071862220764</t>
+    <t xml:space="preserve">2.22071838378906</t>
   </si>
   <si>
     <t xml:space="preserve">2.20591378211975</t>
@@ -1184,10 +1187,10 @@
     <t xml:space="preserve">2.2022123336792</t>
   </si>
   <si>
-    <t xml:space="preserve">2.21331596374512</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.21701693534851</t>
+    <t xml:space="preserve">2.21331644058228</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.21701717376709</t>
   </si>
   <si>
     <t xml:space="preserve">2.16149950027466</t>
@@ -1205,7 +1208,7 @@
     <t xml:space="preserve">2.16890168190002</t>
   </si>
   <si>
-    <t xml:space="preserve">2.15779781341553</t>
+    <t xml:space="preserve">2.15779805183411</t>
   </si>
   <si>
     <t xml:space="preserve">2.13929224014282</t>
@@ -1214,19 +1217,19 @@
     <t xml:space="preserve">2.13559103012085</t>
   </si>
   <si>
-    <t xml:space="preserve">2.12078595161438</t>
+    <t xml:space="preserve">2.12078642845154</t>
   </si>
   <si>
     <t xml:space="preserve">2.12448716163635</t>
   </si>
   <si>
-    <t xml:space="preserve">2.14669466018677</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.11708474159241</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.10968232154846</t>
+    <t xml:space="preserve">2.14669442176819</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.11708498001099</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.10968255996704</t>
   </si>
   <si>
     <t xml:space="preserve">2.32435202598572</t>
@@ -1238,49 +1241,49 @@
     <t xml:space="preserve">2.37246751785278</t>
   </si>
   <si>
-    <t xml:space="preserve">2.62044787406921</t>
+    <t xml:space="preserve">2.62044763565063</t>
   </si>
   <si>
     <t xml:space="preserve">2.48350358009338</t>
   </si>
   <si>
-    <t xml:space="preserve">2.47980237007141</t>
+    <t xml:space="preserve">2.47980213165283</t>
   </si>
   <si>
     <t xml:space="preserve">2.41688203811646</t>
   </si>
   <si>
-    <t xml:space="preserve">2.42058324813843</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.40577864646912</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.36506533622742</t>
+    <t xml:space="preserve">2.42058300971985</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.40577816963196</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.36506509780884</t>
   </si>
   <si>
     <t xml:space="preserve">2.32065081596375</t>
   </si>
   <si>
-    <t xml:space="preserve">2.29474234580994</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.2392246723175</t>
+    <t xml:space="preserve">2.29474210739136</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.23922443389893</t>
   </si>
   <si>
     <t xml:space="preserve">2.30954694747925</t>
   </si>
   <si>
-    <t xml:space="preserve">2.27623629570007</t>
+    <t xml:space="preserve">2.27623677253723</t>
   </si>
   <si>
     <t xml:space="preserve">2.2836389541626</t>
   </si>
   <si>
-    <t xml:space="preserve">2.30214500427246</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.31324863433838</t>
+    <t xml:space="preserve">2.3021445274353</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.31324815750122</t>
   </si>
   <si>
     <t xml:space="preserve">2.342857837677</t>
@@ -1289,31 +1292,28 @@
     <t xml:space="preserve">2.33915686607361</t>
   </si>
   <si>
-    <t xml:space="preserve">2.33545541763306</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.34655928611755</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.24292540550232</t>
+    <t xml:space="preserve">2.33545565605164</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.2429256439209</t>
   </si>
   <si>
     <t xml:space="preserve">2.17630410194397</t>
   </si>
   <si>
-    <t xml:space="preserve">2.19110894203186</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.23552346229553</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.08747553825378</t>
+    <t xml:space="preserve">2.19110870361328</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.23552322387695</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.08747529983521</t>
   </si>
   <si>
     <t xml:space="preserve">2.15039563179016</t>
   </si>
   <si>
-    <t xml:space="preserve">2.15409684181213</t>
+    <t xml:space="preserve">2.15409708023071</t>
   </si>
   <si>
     <t xml:space="preserve">2.25402927398682</t>
@@ -1322,16 +1322,16 @@
     <t xml:space="preserve">2.2725350856781</t>
   </si>
   <si>
-    <t xml:space="preserve">2.25032782554626</t>
+    <t xml:space="preserve">2.25032806396484</t>
   </si>
   <si>
     <t xml:space="preserve">2.22812080383301</t>
   </si>
   <si>
-    <t xml:space="preserve">2.40207743644714</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.43168663978577</t>
+    <t xml:space="preserve">2.40207695960999</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.43168711662292</t>
   </si>
   <si>
     <t xml:space="preserve">2.38357090950012</t>
@@ -1346,34 +1346,34 @@
     <t xml:space="preserve">2.37986993789673</t>
   </si>
   <si>
-    <t xml:space="preserve">2.42428421974182</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.42798542976379</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.44649147987366</t>
+    <t xml:space="preserve">2.4242844581604</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.42798566818237</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.44649124145508</t>
   </si>
   <si>
     <t xml:space="preserve">2.45019245147705</t>
   </si>
   <si>
-    <t xml:space="preserve">2.50200939178467</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.4946072101593</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.49090576171875</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.51311302185059</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.4983081817627</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.50571084022522</t>
+    <t xml:space="preserve">2.50200963020325</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.49460697174072</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.49090600013733</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.51311326026917</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.49830842018127</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.50571060180664</t>
   </si>
   <si>
     <t xml:space="preserve">2.56122875213623</t>
@@ -1385,19 +1385,19 @@
     <t xml:space="preserve">2.5686309337616</t>
   </si>
   <si>
-    <t xml:space="preserve">2.5279176235199</t>
+    <t xml:space="preserve">2.52791738510132</t>
   </si>
   <si>
     <t xml:space="preserve">2.53902149200439</t>
   </si>
   <si>
-    <t xml:space="preserve">2.52051544189453</t>
+    <t xml:space="preserve">2.52051520347595</t>
   </si>
   <si>
     <t xml:space="preserve">2.5242166519165</t>
   </si>
   <si>
-    <t xml:space="preserve">2.54272270202637</t>
+    <t xml:space="preserve">2.54272246360779</t>
   </si>
   <si>
     <t xml:space="preserve">2.55382633209229</t>
@@ -1409,25 +1409,25 @@
     <t xml:space="preserve">2.60194182395935</t>
   </si>
   <si>
-    <t xml:space="preserve">2.59083795547485</t>
+    <t xml:space="preserve">2.59083843231201</t>
   </si>
   <si>
     <t xml:space="preserve">2.57973456382751</t>
   </si>
   <si>
-    <t xml:space="preserve">2.62785005569458</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.6463565826416</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.64265465736389</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.63895392417908</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.65745949745178</t>
+    <t xml:space="preserve">2.62785029411316</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.64635634422302</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.64265489578247</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.63895344734192</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.65745997428894</t>
   </si>
   <si>
     <t xml:space="preserve">2.67226433753967</t>
@@ -1436,13 +1436,13 @@
     <t xml:space="preserve">2.71297764778137</t>
   </si>
   <si>
-    <t xml:space="preserve">2.72778248786926</t>
+    <t xml:space="preserve">2.72778272628784</t>
   </si>
   <si>
     <t xml:space="preserve">2.70187401771545</t>
   </si>
   <si>
-    <t xml:space="preserve">2.69077062606812</t>
+    <t xml:space="preserve">2.69077014923096</t>
   </si>
   <si>
     <t xml:space="preserve">2.74258708953857</t>
@@ -1451,7 +1451,7 @@
     <t xml:space="preserve">2.75739192962646</t>
   </si>
   <si>
-    <t xml:space="preserve">2.82401371002197</t>
+    <t xml:space="preserve">2.82401347160339</t>
   </si>
   <si>
     <t xml:space="preserve">2.8203125</t>
@@ -1484,7 +1484,7 @@
     <t xml:space="preserve">2.75603413581848</t>
   </si>
   <si>
-    <t xml:space="preserve">2.84228277206421</t>
+    <t xml:space="preserve">2.84228253364563</t>
   </si>
   <si>
     <t xml:space="preserve">2.79915833473206</t>
@@ -1499,28 +1499,28 @@
     <t xml:space="preserve">2.7756359577179</t>
   </si>
   <si>
-    <t xml:space="preserve">2.76779532432556</t>
+    <t xml:space="preserve">2.76779508590698</t>
   </si>
   <si>
     <t xml:space="preserve">2.79131746292114</t>
   </si>
   <si>
-    <t xml:space="preserve">2.78739714622498</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.84620332717896</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.85796403884888</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.8266007900238</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.8344419002533</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.85012340545654</t>
+    <t xml:space="preserve">2.78739738464355</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.84620308876038</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.85796451568604</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.82660102844238</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.83444166183472</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.85012316703796</t>
   </si>
   <si>
     <t xml:space="preserve">2.86188459396362</t>
@@ -1532,16 +1532,16 @@
     <t xml:space="preserve">2.99517774581909</t>
   </si>
   <si>
-    <t xml:space="preserve">2.92461061477661</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.95597386360168</t>
+    <t xml:space="preserve">2.92461085319519</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.95597410202026</t>
   </si>
   <si>
     <t xml:space="preserve">2.97165560722351</t>
   </si>
   <si>
-    <t xml:space="preserve">2.94813323020935</t>
+    <t xml:space="preserve">2.94813299179077</t>
   </si>
   <si>
     <t xml:space="preserve">2.94029235839844</t>
@@ -1550,7 +1550,7 @@
     <t xml:space="preserve">2.96381449699402</t>
   </si>
   <si>
-    <t xml:space="preserve">2.95989418029785</t>
+    <t xml:space="preserve">2.95989441871643</t>
   </si>
   <si>
     <t xml:space="preserve">3.00693893432617</t>
@@ -1559,25 +1559,25 @@
     <t xml:space="preserve">3.10494875907898</t>
   </si>
   <si>
-    <t xml:space="preserve">3.06966543197632</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.03830194473267</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.07750606536865</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.13631200790405</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.15983438491821</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.18335676193237</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.23824214935303</t>
+    <t xml:space="preserve">3.06966495513916</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.03830218315125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.07750582695007</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.13631176948547</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.15983462333679</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.18335652351379</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.23824191093445</t>
   </si>
   <si>
     <t xml:space="preserve">3.25000309944153</t>
@@ -1595,19 +1595,19 @@
     <t xml:space="preserve">3.33233141899109</t>
   </si>
   <si>
-    <t xml:space="preserve">3.3127293586731</t>
+    <t xml:space="preserve">3.31272912025452</t>
   </si>
   <si>
     <t xml:space="preserve">3.27744579315186</t>
   </si>
   <si>
-    <t xml:space="preserve">3.20687890052795</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.22648096084595</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.25784397125244</t>
+    <t xml:space="preserve">3.20687913894653</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.22648072242737</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.25784420967102</t>
   </si>
   <si>
     <t xml:space="preserve">3.24216246604919</t>
@@ -1616,52 +1616,52 @@
     <t xml:space="preserve">3.19119739532471</t>
   </si>
   <si>
-    <t xml:space="preserve">3.1402325630188</t>
+    <t xml:space="preserve">3.14023232460022</t>
   </si>
   <si>
     <t xml:space="preserve">3.12847137451172</t>
   </si>
   <si>
-    <t xml:space="preserve">3.11670970916748</t>
+    <t xml:space="preserve">3.11670994758606</t>
   </si>
   <si>
     <t xml:space="preserve">3.05006337165833</t>
   </si>
   <si>
-    <t xml:space="preserve">3.05398368835449</t>
+    <t xml:space="preserve">3.05398392677307</t>
   </si>
   <si>
     <t xml:space="preserve">3.21864032745361</t>
   </si>
   <si>
-    <t xml:space="preserve">3.21471953392029</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.16375470161438</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.14807271957397</t>
+    <t xml:space="preserve">3.21471977233887</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.1637544631958</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.14807295799255</t>
   </si>
   <si>
     <t xml:space="preserve">3.04222273826599</t>
   </si>
   <si>
-    <t xml:space="preserve">3.12063050270081</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.12455058097839</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.08534693717957</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.08926725387573</t>
+    <t xml:space="preserve">3.12063026428223</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.12455081939697</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.08534669876099</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.08926749229431</t>
   </si>
   <si>
     <t xml:space="preserve">3.11278963088989</t>
   </si>
   <si>
-    <t xml:space="preserve">3.10102820396423</t>
+    <t xml:space="preserve">3.10102844238281</t>
   </si>
   <si>
     <t xml:space="preserve">2.98341679573059</t>
@@ -1673,22 +1673,22 @@
     <t xml:space="preserve">2.93637180328369</t>
   </si>
   <si>
-    <t xml:space="preserve">2.97557592391968</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.98733735084534</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.97949624061584</t>
+    <t xml:space="preserve">2.97557616233826</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.98733711242676</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.97949647903442</t>
   </si>
   <si>
     <t xml:space="preserve">2.99909806251526</t>
   </si>
   <si>
-    <t xml:space="preserve">3.00301837921143</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.05790424346924</t>
+    <t xml:space="preserve">3.00301861763</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.05790448188782</t>
   </si>
   <si>
     <t xml:space="preserve">3.0343816280365</t>
@@ -1697,22 +1697,22 @@
     <t xml:space="preserve">3.06574487686157</t>
   </si>
   <si>
-    <t xml:space="preserve">3.04614281654358</t>
+    <t xml:space="preserve">3.04614305496216</t>
   </si>
   <si>
     <t xml:space="preserve">3.03046154975891</t>
   </si>
   <si>
-    <t xml:space="preserve">2.93245148658752</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.91284942626953</t>
+    <t xml:space="preserve">2.9324517250061</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.91284966468811</t>
   </si>
   <si>
     <t xml:space="preserve">2.90108847618103</t>
   </si>
   <si>
-    <t xml:space="preserve">2.94421315193176</t>
+    <t xml:space="preserve">2.94421291351318</t>
   </si>
   <si>
     <t xml:space="preserve">2.8932478427887</t>
@@ -1721,19 +1721,19 @@
     <t xml:space="preserve">3.01870012283325</t>
   </si>
   <si>
-    <t xml:space="preserve">3.15199327468872</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.17551612854004</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.09710812568665</t>
+    <t xml:space="preserve">3.1519935131073</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.17551589012146</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.09710788726807</t>
   </si>
   <si>
     <t xml:space="preserve">3.10886907577515</t>
   </si>
   <si>
-    <t xml:space="preserve">3.022620677948</t>
+    <t xml:space="preserve">3.02262043952942</t>
   </si>
   <si>
     <t xml:space="preserve">3.01085925102234</t>
@@ -1742,25 +1742,25 @@
     <t xml:space="preserve">2.91677021980286</t>
   </si>
   <si>
-    <t xml:space="preserve">2.95205354690552</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.9912576675415</t>
+    <t xml:space="preserve">2.9520537853241</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.99125742912292</t>
   </si>
   <si>
     <t xml:space="preserve">3.13239145278931</t>
   </si>
   <si>
-    <t xml:space="preserve">3.46562504768372</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.5479531288147</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.48522639274597</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.58323621749878</t>
+    <t xml:space="preserve">3.46562480926514</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.54795289039612</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.48522663116455</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.58323645591736</t>
   </si>
   <si>
     <t xml:space="preserve">3.52443027496338</t>
@@ -1775,28 +1775,28 @@
     <t xml:space="preserve">3.51658964157104</t>
   </si>
   <si>
-    <t xml:space="preserve">3.42250037193298</t>
+    <t xml:space="preserve">3.42249989509583</t>
   </si>
   <si>
     <t xml:space="preserve">3.39505767822266</t>
   </si>
   <si>
-    <t xml:space="preserve">3.37937617301941</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.43818211555481</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.4813060760498</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.45386338233948</t>
+    <t xml:space="preserve">3.37937593460083</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.43818235397339</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.48130583763123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.45386385917664</t>
   </si>
   <si>
     <t xml:space="preserve">3.28920745849609</t>
   </si>
   <si>
-    <t xml:space="preserve">3.26176428794861</t>
+    <t xml:space="preserve">3.26176452636719</t>
   </si>
   <si>
     <t xml:space="preserve">3.21079921722412</t>
@@ -1808,52 +1808,52 @@
     <t xml:space="preserve">3.26568484306335</t>
   </si>
   <si>
-    <t xml:space="preserve">3.23432159423828</t>
+    <t xml:space="preserve">3.2343213558197</t>
   </si>
   <si>
     <t xml:space="preserve">3.19511747360229</t>
   </si>
   <si>
-    <t xml:space="preserve">2.69722843170166</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.13269233703613</t>
+    <t xml:space="preserve">2.69722819328308</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.13269209861755</t>
   </si>
   <si>
     <t xml:space="preserve">2.36399507522583</t>
   </si>
   <si>
-    <t xml:space="preserve">2.45024371147156</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.49336814880371</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.50512933731079</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.55217361450195</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.61882019042969</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.60313892364502</t>
+    <t xml:space="preserve">2.45024347305298</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.49336791038513</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.50512909889221</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.55217385292053</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.61882042884827</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.60313868522644</t>
   </si>
   <si>
     <t xml:space="preserve">2.63450193405151</t>
   </si>
   <si>
-    <t xml:space="preserve">2.58353710174561</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.5443332195282</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.51689028739929</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.63842225074768</t>
+    <t xml:space="preserve">2.58353734016418</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.54433298110962</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.51689052581787</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.63842248916626</t>
   </si>
   <si>
     <t xml:space="preserve">2.4972882270813</t>
@@ -1868,31 +1868,31 @@
     <t xml:space="preserve">2.51296997070312</t>
   </si>
   <si>
-    <t xml:space="preserve">2.53257179260254</t>
+    <t xml:space="preserve">2.53257203102112</t>
   </si>
   <si>
     <t xml:space="preserve">2.54041266441345</t>
   </si>
   <si>
-    <t xml:space="preserve">2.52865147590637</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.54825353622437</t>
+    <t xml:space="preserve">2.52865123748779</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.54825329780579</t>
   </si>
   <si>
     <t xml:space="preserve">2.52473092079163</t>
   </si>
   <si>
-    <t xml:space="preserve">2.57177567481995</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.58745718002319</t>
+    <t xml:space="preserve">2.57177591323853</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.58745741844177</t>
   </si>
   <si>
     <t xml:space="preserve">2.64234280586243</t>
   </si>
   <si>
-    <t xml:space="preserve">2.61097979545593</t>
+    <t xml:space="preserve">2.61097955703735</t>
   </si>
   <si>
     <t xml:space="preserve">2.65018367767334</t>
@@ -1904,31 +1904,31 @@
     <t xml:space="preserve">2.6266610622406</t>
   </si>
   <si>
-    <t xml:space="preserve">2.72075033187866</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.92069053649902</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.30880880355835</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.44994282722473</t>
+    <t xml:space="preserve">2.72075057029724</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.92069029808044</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.30880856513977</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.44994330406189</t>
   </si>
   <si>
     <t xml:space="preserve">3.43426179885864</t>
   </si>
   <si>
-    <t xml:space="preserve">3.50703954696655</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.32983303070068</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.25565385818481</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.14438486099243</t>
+    <t xml:space="preserve">3.50704002380371</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.32983326911926</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.25565361976624</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.14438462257385</t>
   </si>
   <si>
     <t xml:space="preserve">3.1402633190155</t>
@@ -1937,7 +1937,7 @@
     <t xml:space="preserve">3.21444320678711</t>
   </si>
   <si>
-    <t xml:space="preserve">3.24741172790527</t>
+    <t xml:space="preserve">3.24741196632385</t>
   </si>
   <si>
     <t xml:space="preserve">3.19383764266968</t>
@@ -1949,19 +1949,19 @@
     <t xml:space="preserve">3.2721381187439</t>
   </si>
   <si>
-    <t xml:space="preserve">3.21856379508972</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.11141633987427</t>
+    <t xml:space="preserve">3.2185640335083</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.11141610145569</t>
   </si>
   <si>
     <t xml:space="preserve">3.06196308135986</t>
   </si>
   <si>
-    <t xml:space="preserve">3.08256840705872</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.09081077575684</t>
+    <t xml:space="preserve">3.08256816864014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.09081053733826</t>
   </si>
   <si>
     <t xml:space="preserve">3.11965823173523</t>
@@ -1979,13 +1979,13 @@
     <t xml:space="preserve">3.00014686584473</t>
   </si>
   <si>
-    <t xml:space="preserve">2.94245171546936</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.91360449790955</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.93008852005005</t>
+    <t xml:space="preserve">2.94245147705078</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.91360425949097</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.93008828163147</t>
   </si>
   <si>
     <t xml:space="preserve">2.91772508621216</t>
@@ -1994,7 +1994,7 @@
     <t xml:space="preserve">2.90124082565308</t>
   </si>
   <si>
-    <t xml:space="preserve">2.90536189079285</t>
+    <t xml:space="preserve">2.90536212921143</t>
   </si>
   <si>
     <t xml:space="preserve">2.86827206611633</t>
@@ -2015,43 +2015,43 @@
     <t xml:space="preserve">2.80233502388</t>
   </si>
   <si>
-    <t xml:space="preserve">2.76112413406372</t>
+    <t xml:space="preserve">2.76112389564514</t>
   </si>
   <si>
     <t xml:space="preserve">2.74463987350464</t>
   </si>
   <si>
-    <t xml:space="preserve">2.75288200378418</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.7116711139679</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.73227643966675</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.82706165313721</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.87239336967468</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.86002993583679</t>
+    <t xml:space="preserve">2.7528817653656</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.71167087554932</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.73227667808533</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.82706141471863</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.8723931312561</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.86003017425537</t>
   </si>
   <si>
     <t xml:space="preserve">2.81469798088074</t>
   </si>
   <si>
-    <t xml:space="preserve">2.81057715415955</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.76524496078491</t>
+    <t xml:space="preserve">2.81057691574097</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.76524519920349</t>
   </si>
   <si>
     <t xml:space="preserve">2.79409289360046</t>
   </si>
   <si>
-    <t xml:space="preserve">2.78172969818115</t>
+    <t xml:space="preserve">2.78172945976257</t>
   </si>
   <si>
     <t xml:space="preserve">2.78585076332092</t>
@@ -2060,13 +2060,13 @@
     <t xml:space="preserve">2.70342898368835</t>
   </si>
   <si>
-    <t xml:space="preserve">2.7075502872467</t>
+    <t xml:space="preserve">2.70755004882812</t>
   </si>
   <si>
     <t xml:space="preserve">2.75700306892395</t>
   </si>
   <si>
-    <t xml:space="preserve">2.77348732948303</t>
+    <t xml:space="preserve">2.77348756790161</t>
   </si>
   <si>
     <t xml:space="preserve">2.74876093864441</t>
@@ -2084,28 +2084,28 @@
     <t xml:space="preserve">2.88475656509399</t>
   </si>
   <si>
-    <t xml:space="preserve">2.64573359489441</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.64985513687134</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.66221809387207</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.60864424705505</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.6333703994751</t>
+    <t xml:space="preserve">2.64573383331299</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.64985466003418</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.66221833229065</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.6086437702179</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.63337063789368</t>
   </si>
   <si>
     <t xml:space="preserve">2.62100744247437</t>
   </si>
   <si>
-    <t xml:space="preserve">2.62512850761414</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.59215998649597</t>
+    <t xml:space="preserve">2.62512826919556</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.59215974807739</t>
   </si>
   <si>
     <t xml:space="preserve">2.60452318191528</t>
@@ -2114,7 +2114,7 @@
     <t xml:space="preserve">2.62924957275391</t>
   </si>
   <si>
-    <t xml:space="preserve">2.64161276817322</t>
+    <t xml:space="preserve">2.64161252975464</t>
   </si>
   <si>
     <t xml:space="preserve">2.61276531219482</t>
@@ -2126,10 +2126,10 @@
     <t xml:space="preserve">2.59628081321716</t>
   </si>
   <si>
-    <t xml:space="preserve">2.51798033714294</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.49737501144409</t>
+    <t xml:space="preserve">2.51798057556152</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.49737477302551</t>
   </si>
   <si>
     <t xml:space="preserve">2.57155442237854</t>
@@ -2141,10 +2141,10 @@
     <t xml:space="preserve">2.48913288116455</t>
   </si>
   <si>
-    <t xml:space="preserve">2.50561714172363</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.46852707862854</t>
+    <t xml:space="preserve">2.50561738014221</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.46852731704712</t>
   </si>
   <si>
     <t xml:space="preserve">2.5097382068634</t>
@@ -2162,67 +2162,67 @@
     <t xml:space="preserve">2.44792199134827</t>
   </si>
   <si>
-    <t xml:space="preserve">2.47676968574524</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.69518685340881</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.74051880836487</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.86415100097656</t>
+    <t xml:space="preserve">2.47676944732666</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.69518661499023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.74051904678345</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.86415076255798</t>
   </si>
   <si>
     <t xml:space="preserve">2.88887763023376</t>
   </si>
   <si>
-    <t xml:space="preserve">2.89711976051331</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.84766697883606</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.84354567527771</t>
+    <t xml:space="preserve">2.89711999893188</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.84766674041748</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.84354591369629</t>
   </si>
   <si>
     <t xml:space="preserve">2.81881928443909</t>
   </si>
   <si>
-    <t xml:space="preserve">2.83530378341675</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.8311824798584</t>
+    <t xml:space="preserve">2.83530354499817</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.83118224143982</t>
   </si>
   <si>
     <t xml:space="preserve">3.03311538696289</t>
   </si>
   <si>
-    <t xml:space="preserve">3.01663136482239</t>
+    <t xml:space="preserve">3.01663112640381</t>
   </si>
   <si>
     <t xml:space="preserve">2.99602556228638</t>
   </si>
   <si>
-    <t xml:space="preserve">3.02487349510193</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.00838899612427</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.05372071266174</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.06608390808105</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.16498970985413</t>
+    <t xml:space="preserve">3.02487373352051</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.00838923454285</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.05372095108032</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.06608414649963</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.16498994827271</t>
   </si>
   <si>
     <t xml:space="preserve">3.10317397117615</t>
   </si>
   <si>
-    <t xml:space="preserve">3.10729479789734</t>
+    <t xml:space="preserve">3.10729503631592</t>
   </si>
   <si>
     <t xml:space="preserve">2.97542023658752</t>
@@ -2234,34 +2234,34 @@
     <t xml:space="preserve">2.98366236686707</t>
   </si>
   <si>
-    <t xml:space="preserve">2.95481467247009</t>
+    <t xml:space="preserve">2.95481514930725</t>
   </si>
   <si>
     <t xml:space="preserve">2.98778343200684</t>
   </si>
   <si>
-    <t xml:space="preserve">3.020751953125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.07844734191895</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.04547882080078</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.04959988594055</t>
+    <t xml:space="preserve">3.02075219154358</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.07844758033752</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.0454785823822</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.04959964752197</t>
   </si>
   <si>
     <t xml:space="preserve">3.03723645210266</t>
   </si>
   <si>
-    <t xml:space="preserve">3.0990526676178</t>
+    <t xml:space="preserve">3.09905242919922</t>
   </si>
   <si>
     <t xml:space="preserve">3.09493184089661</t>
   </si>
   <si>
-    <t xml:space="preserve">3.01251006126404</t>
+    <t xml:space="preserve">3.01250982284546</t>
   </si>
   <si>
     <t xml:space="preserve">2.96305704116821</t>
@@ -2270,13 +2270,13 @@
     <t xml:space="preserve">3.0042679309845</t>
   </si>
   <si>
-    <t xml:space="preserve">3.0702052116394</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.14850568771362</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.16086888313293</t>
+    <t xml:space="preserve">3.07020497322083</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.14850544929504</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.16086912155151</t>
   </si>
   <si>
     <t xml:space="preserve">3.16911101341248</t>
@@ -2285,25 +2285,25 @@
     <t xml:space="preserve">3.18559551239014</t>
   </si>
   <si>
-    <t xml:space="preserve">3.15262675285339</t>
+    <t xml:space="preserve">3.15262651443481</t>
   </si>
   <si>
     <t xml:space="preserve">3.11553692817688</t>
   </si>
   <si>
-    <t xml:space="preserve">3.13202118873596</t>
+    <t xml:space="preserve">3.13202142715454</t>
   </si>
   <si>
     <t xml:space="preserve">3.12790036201477</t>
   </si>
   <si>
-    <t xml:space="preserve">3.22268557548523</t>
+    <t xml:space="preserve">3.22268509864807</t>
   </si>
   <si>
     <t xml:space="preserve">3.19795870780945</t>
   </si>
   <si>
-    <t xml:space="preserve">3.17323184013367</t>
+    <t xml:space="preserve">3.17323207855225</t>
   </si>
   <si>
     <t xml:space="preserve">3.20620083808899</t>
@@ -2330,25 +2330,25 @@
     <t xml:space="preserve">3.35868072509766</t>
   </si>
   <si>
-    <t xml:space="preserve">3.34631752967834</t>
+    <t xml:space="preserve">3.34631776809692</t>
   </si>
   <si>
     <t xml:space="preserve">3.30510687828064</t>
   </si>
   <si>
-    <t xml:space="preserve">3.34219622612</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.36364841461182</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.25209879875183</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.20919513702393</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.22635650634766</t>
+    <t xml:space="preserve">3.34219646453857</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.36364817619324</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.25209856033325</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.20919489860535</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.22635626792908</t>
   </si>
   <si>
     <t xml:space="preserve">3.27784061431885</t>
@@ -2357,22 +2357,22 @@
     <t xml:space="preserve">3.23493719100952</t>
   </si>
   <si>
-    <t xml:space="preserve">3.21348547935486</t>
+    <t xml:space="preserve">3.21348524093628</t>
   </si>
   <si>
     <t xml:space="preserve">3.19632387161255</t>
   </si>
   <si>
-    <t xml:space="preserve">3.21777582168579</t>
+    <t xml:space="preserve">3.21777558326721</t>
   </si>
   <si>
     <t xml:space="preserve">3.15771055221558</t>
   </si>
   <si>
-    <t xml:space="preserve">3.17487215995789</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.17916226387024</t>
+    <t xml:space="preserve">3.17487192153931</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.17916250228882</t>
   </si>
   <si>
     <t xml:space="preserve">3.16200089454651</t>
@@ -2381,10 +2381,10 @@
     <t xml:space="preserve">3.14913010597229</t>
   </si>
   <si>
-    <t xml:space="preserve">3.18345308303833</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.17058181762695</t>
+    <t xml:space="preserve">3.18345284461975</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.17058157920837</t>
   </si>
   <si>
     <t xml:space="preserve">3.20061421394348</t>
@@ -2393,13 +2393,13 @@
     <t xml:space="preserve">3.19203352928162</t>
   </si>
   <si>
-    <t xml:space="preserve">3.23064684867859</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.2220664024353</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.12767791748047</t>
+    <t xml:space="preserve">3.23064708709717</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.22206616401672</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.12767815589905</t>
   </si>
   <si>
     <t xml:space="preserve">3.13625884056091</t>
@@ -2408,13 +2408,13 @@
     <t xml:space="preserve">3.10622596740723</t>
   </si>
   <si>
-    <t xml:space="preserve">3.0761935710907</t>
+    <t xml:space="preserve">3.07619380950928</t>
   </si>
   <si>
     <t xml:space="preserve">3.0890645980835</t>
   </si>
   <si>
-    <t xml:space="preserve">3.04187059402466</t>
+    <t xml:space="preserve">3.04187083244324</t>
   </si>
   <si>
     <t xml:space="preserve">3.03758025169373</t>
@@ -2429,10 +2429,10 @@
     <t xml:space="preserve">3.02899956703186</t>
   </si>
   <si>
-    <t xml:space="preserve">2.98180556297302</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.00754761695862</t>
+    <t xml:space="preserve">2.98180532455444</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.0075478553772</t>
   </si>
   <si>
     <t xml:space="preserve">3.05903220176697</t>
@@ -2447,7 +2447,7 @@
     <t xml:space="preserve">2.99038624763489</t>
   </si>
   <si>
-    <t xml:space="preserve">2.90886926651001</t>
+    <t xml:space="preserve">2.90886950492859</t>
   </si>
   <si>
     <t xml:space="preserve">2.92174029350281</t>
@@ -2459,7 +2459,7 @@
     <t xml:space="preserve">3.00325727462769</t>
   </si>
   <si>
-    <t xml:space="preserve">3.03328990936279</t>
+    <t xml:space="preserve">3.03329014778137</t>
   </si>
   <si>
     <t xml:space="preserve">3.02041888237</t>
@@ -2468,7 +2468,7 @@
     <t xml:space="preserve">3.01612877845764</t>
   </si>
   <si>
-    <t xml:space="preserve">3.01183819770813</t>
+    <t xml:space="preserve">3.01183795928955</t>
   </si>
   <si>
     <t xml:space="preserve">3.06761288642883</t>
@@ -2483,13 +2483,13 @@
     <t xml:space="preserve">3.16629123687744</t>
   </si>
   <si>
-    <t xml:space="preserve">3.11480712890625</t>
+    <t xml:space="preserve">3.11480689048767</t>
   </si>
   <si>
     <t xml:space="preserve">3.09335517883301</t>
   </si>
   <si>
-    <t xml:space="preserve">3.0633225440979</t>
+    <t xml:space="preserve">3.06332230567932</t>
   </si>
   <si>
     <t xml:space="preserve">3.11051654815674</t>
@@ -2504,13 +2504,13 @@
     <t xml:space="preserve">3.02470946311951</t>
   </si>
   <si>
-    <t xml:space="preserve">2.96464395523071</t>
+    <t xml:space="preserve">2.96464419364929</t>
   </si>
   <si>
     <t xml:space="preserve">2.94748258590698</t>
   </si>
   <si>
-    <t xml:space="preserve">2.95177316665649</t>
+    <t xml:space="preserve">2.95177292823792</t>
   </si>
   <si>
     <t xml:space="preserve">2.95606327056885</t>
@@ -2519,16 +2519,16 @@
     <t xml:space="preserve">2.99467658996582</t>
   </si>
   <si>
-    <t xml:space="preserve">2.98609614372253</t>
+    <t xml:space="preserve">2.98609566688538</t>
   </si>
   <si>
     <t xml:space="preserve">3.10193586349487</t>
   </si>
   <si>
-    <t xml:space="preserve">3.05474185943604</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.96893429756165</t>
+    <t xml:space="preserve">3.05474162101746</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.96893453598022</t>
   </si>
   <si>
     <t xml:space="preserve">2.91745018959045</t>
@@ -2543,7 +2543,7 @@
     <t xml:space="preserve">2.97751522064209</t>
   </si>
   <si>
-    <t xml:space="preserve">2.92603087425232</t>
+    <t xml:space="preserve">2.92603063583374</t>
   </si>
   <si>
     <t xml:space="preserve">2.94319224357605</t>
@@ -2552,10 +2552,10 @@
     <t xml:space="preserve">2.97322487831116</t>
   </si>
   <si>
-    <t xml:space="preserve">2.93461132049561</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.79731965065002</t>
+    <t xml:space="preserve">2.93461155891418</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.7973198890686</t>
   </si>
   <si>
     <t xml:space="preserve">2.91315984725952</t>
@@ -2564,19 +2564,19 @@
     <t xml:space="preserve">2.8917076587677</t>
   </si>
   <si>
-    <t xml:space="preserve">2.8230619430542</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.77157735824585</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.80161023139954</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.90028882026672</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.87454628944397</t>
+    <t xml:space="preserve">2.82306170463562</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.77157759666443</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.80161046981812</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.90028858184814</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.87454605102539</t>
   </si>
   <si>
     <t xml:space="preserve">2.83164262771606</t>
@@ -2600,7 +2600,7 @@
     <t xml:space="preserve">3.1108820438385</t>
   </si>
   <si>
-    <t xml:space="preserve">3.07936811447144</t>
+    <t xml:space="preserve">3.07936835289001</t>
   </si>
   <si>
     <t xml:space="preserve">3.02984619140625</t>
@@ -2609,22 +2609,22 @@
     <t xml:space="preserve">2.98932814598083</t>
   </si>
   <si>
-    <t xml:space="preserve">2.96681833267212</t>
+    <t xml:space="preserve">2.96681809425354</t>
   </si>
   <si>
     <t xml:space="preserve">3.03434801101685</t>
   </si>
   <si>
-    <t xml:space="preserve">2.98482632637024</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.96231627464294</t>
+    <t xml:space="preserve">2.98482608795166</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.96231603622437</t>
   </si>
   <si>
     <t xml:space="preserve">2.93980622291565</t>
   </si>
   <si>
-    <t xml:space="preserve">2.93080234527588</t>
+    <t xml:space="preserve">2.9308021068573</t>
   </si>
   <si>
     <t xml:space="preserve">2.95781421661377</t>
@@ -2639,7 +2639,7 @@
     <t xml:space="preserve">3.01634001731873</t>
   </si>
   <si>
-    <t xml:space="preserve">2.99833226203918</t>
+    <t xml:space="preserve">2.99833202362061</t>
   </si>
   <si>
     <t xml:space="preserve">3.04335236549377</t>
@@ -2654,13 +2654,13 @@
     <t xml:space="preserve">2.82725620269775</t>
   </si>
   <si>
-    <t xml:space="preserve">2.78673815727234</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.88128042221069</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.82275414466858</t>
+    <t xml:space="preserve">2.78673839569092</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.88128018379211</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.82275438308716</t>
   </si>
   <si>
     <t xml:space="preserve">2.77323222160339</t>
@@ -2672,22 +2672,22 @@
     <t xml:space="preserve">2.66968607902527</t>
   </si>
   <si>
-    <t xml:space="preserve">2.65618014335632</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.70120000839233</t>
+    <t xml:space="preserve">2.6561803817749</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.70120024681091</t>
   </si>
   <si>
     <t xml:space="preserve">2.71920824050903</t>
   </si>
   <si>
-    <t xml:space="preserve">2.59765434265137</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.62916803359985</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.63367033004761</t>
+    <t xml:space="preserve">2.59765410423279</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.62916827201843</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.63367009162903</t>
   </si>
   <si>
     <t xml:space="preserve">2.53912806510925</t>
@@ -2696,7 +2696,7 @@
     <t xml:space="preserve">2.56614017486572</t>
   </si>
   <si>
-    <t xml:space="preserve">2.54813194274902</t>
+    <t xml:space="preserve">2.5481321811676</t>
   </si>
   <si>
     <t xml:space="preserve">2.60665822029114</t>
@@ -2717,7 +2717,7 @@
     <t xml:space="preserve">2.42207622528076</t>
   </si>
   <si>
-    <t xml:space="preserve">2.41757392883301</t>
+    <t xml:space="preserve">2.41757416725159</t>
   </si>
   <si>
     <t xml:space="preserve">2.38606023788452</t>
@@ -2765,10 +2765,10 @@
     <t xml:space="preserve">2.44908809661865</t>
   </si>
   <si>
-    <t xml:space="preserve">2.3905622959137</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.32303214073181</t>
+    <t xml:space="preserve">2.39056205749512</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.32303190231323</t>
   </si>
   <si>
     <t xml:space="preserve">2.20598006248474</t>
@@ -2777,16 +2777,16 @@
     <t xml:space="preserve">2.23299217224121</t>
   </si>
   <si>
-    <t xml:space="preserve">2.16096019744873</t>
+    <t xml:space="preserve">2.16096043586731</t>
   </si>
   <si>
     <t xml:space="preserve">2.21948599815369</t>
   </si>
   <si>
-    <t xml:space="preserve">2.20147800445557</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.22398829460144</t>
+    <t xml:space="preserve">2.20147824287415</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.22398805618286</t>
   </si>
   <si>
     <t xml:space="preserve">2.24199604988098</t>
@@ -2798,7 +2798,7 @@
     <t xml:space="preserve">2.27351021766663</t>
   </si>
   <si>
-    <t xml:space="preserve">2.24649810791016</t>
+    <t xml:space="preserve">2.24649786949158</t>
   </si>
   <si>
     <t xml:space="preserve">2.21498417854309</t>
@@ -2810,16 +2810,16 @@
     <t xml:space="preserve">2.12044215202332</t>
   </si>
   <si>
-    <t xml:space="preserve">1.97187626361847</t>
+    <t xml:space="preserve">1.97187614440918</t>
   </si>
   <si>
     <t xml:space="preserve">2.03490424156189</t>
   </si>
   <si>
-    <t xml:space="preserve">1.98088014125824</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.944864153862</t>
+    <t xml:space="preserve">1.98088026046753</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.94486427307129</t>
   </si>
   <si>
     <t xml:space="preserve">1.89984405040741</t>
@@ -2837,28 +2837,28 @@
     <t xml:space="preserve">1.78279209136963</t>
   </si>
   <si>
-    <t xml:space="preserve">1.75758099555969</t>
+    <t xml:space="preserve">1.7575808763504</t>
   </si>
   <si>
     <t xml:space="preserve">1.72156488895416</t>
   </si>
   <si>
-    <t xml:space="preserve">1.7017560005188</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.73777198791504</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.8098042011261</t>
+    <t xml:space="preserve">1.70175611972809</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.73777210712433</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.80980408191681</t>
   </si>
   <si>
     <t xml:space="preserve">1.8773341178894</t>
   </si>
   <si>
-    <t xml:space="preserve">2.01689600944519</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.93135821819305</t>
+    <t xml:space="preserve">2.01689624786377</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.93135809898376</t>
   </si>
   <si>
     <t xml:space="preserve">2.06191611289978</t>
@@ -2879,25 +2879,25 @@
     <t xml:space="preserve">2.14745426177979</t>
   </si>
   <si>
-    <t xml:space="preserve">2.05291199684143</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.17896819114685</t>
+    <t xml:space="preserve">2.05291223526001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.17896842956543</t>
   </si>
   <si>
     <t xml:space="preserve">2.1879723072052</t>
   </si>
   <si>
-    <t xml:space="preserve">2.14295220375061</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.1699640750885</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.28251433372498</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.28701615333557</t>
+    <t xml:space="preserve">2.14295244216919</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.16996431350708</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.2825140953064</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.28701591491699</t>
   </si>
   <si>
     <t xml:space="preserve">2.26450610160828</t>
@@ -2912,25 +2912,25 @@
     <t xml:space="preserve">2.29151821136475</t>
   </si>
   <si>
-    <t xml:space="preserve">2.31853032112122</t>
+    <t xml:space="preserve">2.31853008270264</t>
   </si>
   <si>
     <t xml:space="preserve">2.30052208900452</t>
   </si>
   <si>
-    <t xml:space="preserve">2.30502414703369</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.2780122756958</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.25100016593933</t>
+    <t xml:space="preserve">2.30502390861511</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.27801203727722</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.25099992752075</t>
   </si>
   <si>
     <t xml:space="preserve">2.17446613311768</t>
   </si>
   <si>
-    <t xml:space="preserve">2.16546201705933</t>
+    <t xml:space="preserve">2.16546225547791</t>
   </si>
   <si>
     <t xml:space="preserve">2.19697618484497</t>
@@ -2948,10 +2948,10 @@
     <t xml:space="preserve">2.33653807640076</t>
   </si>
   <si>
-    <t xml:space="preserve">2.39506435394287</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.43108034133911</t>
+    <t xml:space="preserve">2.39506411552429</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.43108010292053</t>
   </si>
   <si>
     <t xml:space="preserve">2.40857005119324</t>
@@ -2996,28 +2996,28 @@
     <t xml:space="preserve">2.54363012313843</t>
   </si>
   <si>
-    <t xml:space="preserve">2.35904812812805</t>
+    <t xml:space="preserve">2.35904788970947</t>
   </si>
   <si>
     <t xml:space="preserve">2.32753419876099</t>
   </si>
   <si>
-    <t xml:space="preserve">2.38155794143677</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.35004425048828</t>
+    <t xml:space="preserve">2.38155817985535</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.3500440120697</t>
   </si>
   <si>
     <t xml:space="preserve">2.50761413574219</t>
   </si>
   <si>
-    <t xml:space="preserve">2.52562236785889</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.58864998817444</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.62016415596008</t>
+    <t xml:space="preserve">2.52562212944031</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.58865022659302</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.62016439437866</t>
   </si>
   <si>
     <t xml:space="preserve">2.54005122184753</t>
@@ -13399,7 +13399,7 @@
         <v>3.60199999809265</v>
       </c>
       <c r="G371" t="s">
-        <v>244</v>
+        <v>270</v>
       </c>
       <c r="H371" t="s">
         <v>9</v>
@@ -13477,7 +13477,7 @@
         <v>3.71799993515015</v>
       </c>
       <c r="G374" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="H374" t="s">
         <v>9</v>
@@ -13555,7 +13555,7 @@
         <v>3.59599995613098</v>
       </c>
       <c r="G377" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="H377" t="s">
         <v>9</v>
@@ -13581,7 +13581,7 @@
         <v>3.57399988174438</v>
       </c>
       <c r="G378" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="H378" t="s">
         <v>9</v>
@@ -13607,7 +13607,7 @@
         <v>3.54800009727478</v>
       </c>
       <c r="G379" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="H379" t="s">
         <v>9</v>
@@ -13633,7 +13633,7 @@
         <v>3.54999995231628</v>
       </c>
       <c r="G380" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="H380" t="s">
         <v>9</v>
@@ -13815,7 +13815,7 @@
         <v>3.48399996757507</v>
       </c>
       <c r="G387" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="H387" t="s">
         <v>9</v>
@@ -13841,7 +13841,7 @@
         <v>3.47000002861023</v>
       </c>
       <c r="G388" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="H388" t="s">
         <v>9</v>
@@ -13867,7 +13867,7 @@
         <v>3.47000002861023</v>
       </c>
       <c r="G389" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="H389" t="s">
         <v>9</v>
@@ -13893,7 +13893,7 @@
         <v>3.50799989700317</v>
       </c>
       <c r="G390" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="H390" t="s">
         <v>9</v>
@@ -13919,7 +13919,7 @@
         <v>3.49399995803833</v>
       </c>
       <c r="G391" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="H391" t="s">
         <v>9</v>
@@ -13945,7 +13945,7 @@
         <v>3.49000000953674</v>
       </c>
       <c r="G392" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="H392" t="s">
         <v>9</v>
@@ -13971,7 +13971,7 @@
         <v>3.49600005149841</v>
       </c>
       <c r="G393" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="H393" t="s">
         <v>9</v>
@@ -13997,7 +13997,7 @@
         <v>3.49399995803833</v>
       </c>
       <c r="G394" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="H394" t="s">
         <v>9</v>
@@ -14049,7 +14049,7 @@
         <v>3.50399994850159</v>
       </c>
       <c r="G396" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="H396" t="s">
         <v>9</v>
@@ -14101,7 +14101,7 @@
         <v>3.46799993515015</v>
       </c>
       <c r="G398" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="H398" t="s">
         <v>9</v>
@@ -14127,7 +14127,7 @@
         <v>3.41000008583069</v>
       </c>
       <c r="G399" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="H399" t="s">
         <v>9</v>
@@ -14153,7 +14153,7 @@
         <v>3.39599990844727</v>
       </c>
       <c r="G400" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="H400" t="s">
         <v>9</v>
@@ -14179,7 +14179,7 @@
         <v>3.47000002861023</v>
       </c>
       <c r="G401" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="H401" t="s">
         <v>9</v>
@@ -14205,7 +14205,7 @@
         <v>3.4300000667572</v>
       </c>
       <c r="G402" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="H402" t="s">
         <v>9</v>
@@ -14257,7 +14257,7 @@
         <v>3.45000004768372</v>
       </c>
       <c r="G404" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="H404" t="s">
         <v>9</v>
@@ -14283,7 +14283,7 @@
         <v>3.46399998664856</v>
       </c>
       <c r="G405" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="H405" t="s">
         <v>9</v>
@@ -14309,7 +14309,7 @@
         <v>3.4300000667572</v>
       </c>
       <c r="G406" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="H406" t="s">
         <v>9</v>
@@ -14335,7 +14335,7 @@
         <v>3.58999991416931</v>
       </c>
       <c r="G407" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="H407" t="s">
         <v>9</v>
@@ -14361,7 +14361,7 @@
         <v>3.54999995231628</v>
       </c>
       <c r="G408" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="H408" t="s">
         <v>9</v>
@@ -14387,7 +14387,7 @@
         <v>3.58200001716614</v>
       </c>
       <c r="G409" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="H409" t="s">
         <v>9</v>
@@ -14413,7 +14413,7 @@
         <v>3.59800004959106</v>
       </c>
       <c r="G410" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="H410" t="s">
         <v>9</v>
@@ -14439,7 +14439,7 @@
         <v>3.57599997520447</v>
       </c>
       <c r="G411" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="H411" t="s">
         <v>9</v>
@@ -14491,7 +14491,7 @@
         <v>3.58200001716614</v>
       </c>
       <c r="G413" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="H413" t="s">
         <v>9</v>
@@ -14517,7 +14517,7 @@
         <v>3.5460000038147</v>
       </c>
       <c r="G414" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="H414" t="s">
         <v>9</v>
@@ -14569,7 +14569,7 @@
         <v>3.51999998092651</v>
       </c>
       <c r="G416" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="H416" t="s">
         <v>9</v>
@@ -14595,7 +14595,7 @@
         <v>3.5220000743866</v>
       </c>
       <c r="G417" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="H417" t="s">
         <v>9</v>
@@ -14621,7 +14621,7 @@
         <v>3.5</v>
       </c>
       <c r="G418" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="H418" t="s">
         <v>9</v>
@@ -14647,7 +14647,7 @@
         <v>3.53800010681152</v>
       </c>
       <c r="G419" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="H419" t="s">
         <v>9</v>
@@ -14673,7 +14673,7 @@
         <v>3.4760000705719</v>
       </c>
       <c r="G420" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="H420" t="s">
         <v>9</v>
@@ -14699,7 +14699,7 @@
         <v>3.49000000953674</v>
       </c>
       <c r="G421" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="H421" t="s">
         <v>9</v>
@@ -14725,7 +14725,7 @@
         <v>3.49000000953674</v>
       </c>
       <c r="G422" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="H422" t="s">
         <v>9</v>
@@ -14751,7 +14751,7 @@
         <v>3.49000000953674</v>
       </c>
       <c r="G423" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="H423" t="s">
         <v>9</v>
@@ -14777,7 +14777,7 @@
         <v>3.47000002861023</v>
       </c>
       <c r="G424" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="H424" t="s">
         <v>9</v>
@@ -14803,7 +14803,7 @@
         <v>3.51999998092651</v>
       </c>
       <c r="G425" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="H425" t="s">
         <v>9</v>
@@ -14829,7 +14829,7 @@
         <v>3.49000000953674</v>
       </c>
       <c r="G426" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="H426" t="s">
         <v>9</v>
@@ -14855,7 +14855,7 @@
         <v>3.54399991035461</v>
       </c>
       <c r="G427" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="H427" t="s">
         <v>9</v>
@@ -14881,7 +14881,7 @@
         <v>3.60199999809265</v>
       </c>
       <c r="G428" t="s">
-        <v>244</v>
+        <v>270</v>
       </c>
       <c r="H428" t="s">
         <v>9</v>
@@ -14933,7 +14933,7 @@
         <v>3.66400003433228</v>
       </c>
       <c r="G430" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="H430" t="s">
         <v>9</v>
@@ -14959,7 +14959,7 @@
         <v>3.60999989509583</v>
       </c>
       <c r="G431" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="H431" t="s">
         <v>9</v>
@@ -15063,7 +15063,7 @@
         <v>3.64400005340576</v>
       </c>
       <c r="G435" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="H435" t="s">
         <v>9</v>
@@ -15089,7 +15089,7 @@
         <v>3.60999989509583</v>
       </c>
       <c r="G436" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="H436" t="s">
         <v>9</v>
@@ -15115,7 +15115,7 @@
         <v>3.59800004959106</v>
       </c>
       <c r="G437" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="H437" t="s">
         <v>9</v>
@@ -15167,7 +15167,7 @@
         <v>3.54999995231628</v>
       </c>
       <c r="G439" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="H439" t="s">
         <v>9</v>
@@ -15193,7 +15193,7 @@
         <v>3.53200006484985</v>
       </c>
       <c r="G440" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="H440" t="s">
         <v>9</v>
@@ -15245,7 +15245,7 @@
         <v>3.53399991989136</v>
       </c>
       <c r="G442" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="H442" t="s">
         <v>9</v>
@@ -15297,7 +15297,7 @@
         <v>3.5</v>
       </c>
       <c r="G444" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="H444" t="s">
         <v>9</v>
@@ -15349,7 +15349,7 @@
         <v>3.49000000953674</v>
       </c>
       <c r="G446" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="H446" t="s">
         <v>9</v>
@@ -15375,7 +15375,7 @@
         <v>3.51399993896484</v>
       </c>
       <c r="G447" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="H447" t="s">
         <v>9</v>
@@ -15401,7 +15401,7 @@
         <v>3.50600004196167</v>
       </c>
       <c r="G448" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="H448" t="s">
         <v>9</v>
@@ -15427,7 +15427,7 @@
         <v>3.51999998092651</v>
       </c>
       <c r="G449" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="H449" t="s">
         <v>9</v>
@@ -15453,7 +15453,7 @@
         <v>3.5</v>
       </c>
       <c r="G450" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="H450" t="s">
         <v>9</v>
@@ -15609,7 +15609,7 @@
         <v>3.57399988174438</v>
       </c>
       <c r="G456" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="H456" t="s">
         <v>9</v>
@@ -15635,7 +15635,7 @@
         <v>3.51999998092651</v>
       </c>
       <c r="G457" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="H457" t="s">
         <v>9</v>
@@ -15687,7 +15687,7 @@
         <v>3.60400009155273</v>
       </c>
       <c r="G459" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="H459" t="s">
         <v>9</v>
@@ -15765,7 +15765,7 @@
         <v>3.5699999332428</v>
       </c>
       <c r="G462" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="H462" t="s">
         <v>9</v>
@@ -15817,7 +15817,7 @@
         <v>3.60800004005432</v>
       </c>
       <c r="G464" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="H464" t="s">
         <v>9</v>
@@ -15843,7 +15843,7 @@
         <v>3.56399989128113</v>
       </c>
       <c r="G465" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="H465" t="s">
         <v>9</v>
@@ -15869,7 +15869,7 @@
         <v>3.57599997520447</v>
       </c>
       <c r="G466" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="H466" t="s">
         <v>9</v>
@@ -15947,7 +15947,7 @@
         <v>3.63800001144409</v>
       </c>
       <c r="G469" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="H469" t="s">
         <v>9</v>
@@ -15999,7 +15999,7 @@
         <v>3.66599988937378</v>
       </c>
       <c r="G471" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="H471" t="s">
         <v>9</v>
@@ -16025,7 +16025,7 @@
         <v>3.72000002861023</v>
       </c>
       <c r="G472" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="H472" t="s">
         <v>9</v>
@@ -16051,7 +16051,7 @@
         <v>3.73600006103516</v>
       </c>
       <c r="G473" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="H473" t="s">
         <v>9</v>
@@ -16077,7 +16077,7 @@
         <v>3.81399989128113</v>
       </c>
       <c r="G474" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="H474" t="s">
         <v>9</v>
@@ -16103,7 +16103,7 @@
         <v>3.78200006484985</v>
       </c>
       <c r="G475" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="H475" t="s">
         <v>9</v>
@@ -16129,7 +16129,7 @@
         <v>3.77999997138977</v>
       </c>
       <c r="G476" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="H476" t="s">
         <v>9</v>
@@ -16155,7 +16155,7 @@
         <v>3.82800006866455</v>
       </c>
       <c r="G477" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="H477" t="s">
         <v>9</v>
@@ -16181,7 +16181,7 @@
         <v>3.69000005722046</v>
       </c>
       <c r="G478" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="H478" t="s">
         <v>9</v>
@@ -16207,7 +16207,7 @@
         <v>3.69799995422363</v>
       </c>
       <c r="G479" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="H479" t="s">
         <v>9</v>
@@ -16259,7 +16259,7 @@
         <v>3.5699999332428</v>
       </c>
       <c r="G481" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="H481" t="s">
         <v>9</v>
@@ -16285,7 +16285,7 @@
         <v>3.60400009155273</v>
       </c>
       <c r="G482" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="H482" t="s">
         <v>9</v>
@@ -16311,7 +16311,7 @@
         <v>3.57599997520447</v>
       </c>
       <c r="G483" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="H483" t="s">
         <v>9</v>
@@ -16337,7 +16337,7 @@
         <v>3.59599995613098</v>
       </c>
       <c r="G484" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="H484" t="s">
         <v>9</v>
@@ -16363,7 +16363,7 @@
         <v>3.61999988555908</v>
       </c>
       <c r="G485" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="H485" t="s">
         <v>9</v>
@@ -16415,7 +16415,7 @@
         <v>3.65599989891052</v>
       </c>
       <c r="G487" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="H487" t="s">
         <v>9</v>
@@ -16467,7 +16467,7 @@
         <v>3.60400009155273</v>
       </c>
       <c r="G489" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="H489" t="s">
         <v>9</v>
@@ -16545,7 +16545,7 @@
         <v>3.72199988365173</v>
       </c>
       <c r="G492" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="H492" t="s">
         <v>9</v>
@@ -16571,7 +16571,7 @@
         <v>3.64400005340576</v>
       </c>
       <c r="G493" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="H493" t="s">
         <v>9</v>
@@ -16597,7 +16597,7 @@
         <v>3.70000004768372</v>
       </c>
       <c r="G494" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="H494" t="s">
         <v>9</v>
@@ -16623,7 +16623,7 @@
         <v>3.67400002479553</v>
       </c>
       <c r="G495" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="H495" t="s">
         <v>9</v>
@@ -16649,7 +16649,7 @@
         <v>3.65199995040894</v>
       </c>
       <c r="G496" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="H496" t="s">
         <v>9</v>
@@ -16675,7 +16675,7 @@
         <v>3.68600010871887</v>
       </c>
       <c r="G497" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="H497" t="s">
         <v>9</v>
@@ -16753,7 +16753,7 @@
         <v>3.57999992370605</v>
       </c>
       <c r="G500" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="H500" t="s">
         <v>9</v>
@@ -16779,7 +16779,7 @@
         <v>3.63800001144409</v>
       </c>
       <c r="G501" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="H501" t="s">
         <v>9</v>
@@ -16883,7 +16883,7 @@
         <v>3.58200001716614</v>
       </c>
       <c r="G505" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="H505" t="s">
         <v>9</v>
@@ -16935,7 +16935,7 @@
         <v>3.61999988555908</v>
       </c>
       <c r="G507" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="H507" t="s">
         <v>9</v>
@@ -16961,7 +16961,7 @@
         <v>3.58999991416931</v>
       </c>
       <c r="G508" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="H508" t="s">
         <v>9</v>
@@ -16987,7 +16987,7 @@
         <v>3.58200001716614</v>
       </c>
       <c r="G509" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="H509" t="s">
         <v>9</v>
@@ -17013,7 +17013,7 @@
         <v>3.60199999809265</v>
       </c>
       <c r="G510" t="s">
-        <v>244</v>
+        <v>270</v>
       </c>
       <c r="H510" t="s">
         <v>9</v>
@@ -17039,7 +17039,7 @@
         <v>3.5460000038147</v>
       </c>
       <c r="G511" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="H511" t="s">
         <v>9</v>
@@ -17065,7 +17065,7 @@
         <v>3.54800009727478</v>
       </c>
       <c r="G512" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="H512" t="s">
         <v>9</v>
@@ -17091,7 +17091,7 @@
         <v>3.58999991416931</v>
       </c>
       <c r="G513" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="H513" t="s">
         <v>9</v>
@@ -17143,7 +17143,7 @@
         <v>3.69000005722046</v>
       </c>
       <c r="G515" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="H515" t="s">
         <v>9</v>
@@ -17169,7 +17169,7 @@
         <v>3.65499997138977</v>
       </c>
       <c r="G516" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="H516" t="s">
         <v>9</v>
@@ -17195,7 +17195,7 @@
         <v>3.69000005722046</v>
       </c>
       <c r="G517" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="H517" t="s">
         <v>9</v>
@@ -17299,7 +17299,7 @@
         <v>3.6800000667572</v>
       </c>
       <c r="G521" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="H521" t="s">
         <v>9</v>
@@ -17351,7 +17351,7 @@
         <v>3.67000007629395</v>
       </c>
       <c r="G523" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="H523" t="s">
         <v>9</v>
@@ -17377,7 +17377,7 @@
         <v>3.67499995231628</v>
       </c>
       <c r="G524" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="H524" t="s">
         <v>9</v>
@@ -17429,7 +17429,7 @@
         <v>3.65499997138977</v>
       </c>
       <c r="G526" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="H526" t="s">
         <v>9</v>
@@ -17455,7 +17455,7 @@
         <v>3.67499995231628</v>
       </c>
       <c r="G527" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="H527" t="s">
         <v>9</v>
@@ -17507,7 +17507,7 @@
         <v>3.61999988555908</v>
       </c>
       <c r="G529" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="H529" t="s">
         <v>9</v>
@@ -17533,7 +17533,7 @@
         <v>3.61999988555908</v>
       </c>
       <c r="G530" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="H530" t="s">
         <v>9</v>
@@ -17559,7 +17559,7 @@
         <v>3.58999991416931</v>
       </c>
       <c r="G531" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="H531" t="s">
         <v>9</v>
@@ -17585,7 +17585,7 @@
         <v>3.58500003814697</v>
       </c>
       <c r="G532" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="H532" t="s">
         <v>9</v>
@@ -17611,7 +17611,7 @@
         <v>3.54999995231628</v>
       </c>
       <c r="G533" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="H533" t="s">
         <v>9</v>
@@ -17637,7 +17637,7 @@
         <v>3.54999995231628</v>
       </c>
       <c r="G534" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="H534" t="s">
         <v>9</v>
@@ -17663,7 +17663,7 @@
         <v>3.45000004768372</v>
       </c>
       <c r="G535" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="H535" t="s">
         <v>9</v>
@@ -17689,7 +17689,7 @@
         <v>3.29999995231628</v>
       </c>
       <c r="G536" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="H536" t="s">
         <v>9</v>
@@ -17715,7 +17715,7 @@
         <v>3.16000008583069</v>
       </c>
       <c r="G537" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="H537" t="s">
         <v>9</v>
@@ -17741,7 +17741,7 @@
         <v>3.25</v>
       </c>
       <c r="G538" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="H538" t="s">
         <v>9</v>
@@ -17767,7 +17767,7 @@
         <v>3.20499992370605</v>
       </c>
       <c r="G539" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="H539" t="s">
         <v>9</v>
@@ -17793,7 +17793,7 @@
         <v>3.15000009536743</v>
       </c>
       <c r="G540" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="H540" t="s">
         <v>9</v>
@@ -17819,7 +17819,7 @@
         <v>3.25</v>
       </c>
       <c r="G541" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="H541" t="s">
         <v>9</v>
@@ -17845,7 +17845,7 @@
         <v>3.23000001907349</v>
       </c>
       <c r="G542" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="H542" t="s">
         <v>9</v>
@@ -17871,7 +17871,7 @@
         <v>3.21499991416931</v>
       </c>
       <c r="G543" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="H543" t="s">
         <v>9</v>
@@ -17897,7 +17897,7 @@
         <v>3.21499991416931</v>
       </c>
       <c r="G544" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="H544" t="s">
         <v>9</v>
@@ -17923,7 +17923,7 @@
         <v>3.26999998092651</v>
       </c>
       <c r="G545" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="H545" t="s">
         <v>9</v>
@@ -17949,7 +17949,7 @@
         <v>3.23000001907349</v>
       </c>
       <c r="G546" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="H546" t="s">
         <v>9</v>
@@ -17975,7 +17975,7 @@
         <v>3.25</v>
       </c>
       <c r="G547" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="H547" t="s">
         <v>9</v>
@@ -18001,7 +18001,7 @@
         <v>3.27999997138977</v>
       </c>
       <c r="G548" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="H548" t="s">
         <v>9</v>
@@ -18027,7 +18027,7 @@
         <v>3.1949999332428</v>
       </c>
       <c r="G549" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="H549" t="s">
         <v>9</v>
@@ -18053,7 +18053,7 @@
         <v>3.17000007629395</v>
       </c>
       <c r="G550" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="H550" t="s">
         <v>9</v>
@@ -18079,7 +18079,7 @@
         <v>3.17000007629395</v>
       </c>
       <c r="G551" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="H551" t="s">
         <v>9</v>
@@ -18105,7 +18105,7 @@
         <v>3.13499999046326</v>
       </c>
       <c r="G552" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="H552" t="s">
         <v>9</v>
@@ -18131,7 +18131,7 @@
         <v>3.11999988555908</v>
       </c>
       <c r="G553" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="H553" t="s">
         <v>9</v>
@@ -18157,7 +18157,7 @@
         <v>3.11999988555908</v>
       </c>
       <c r="G554" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="H554" t="s">
         <v>9</v>
@@ -18183,7 +18183,7 @@
         <v>3.05999994277954</v>
       </c>
       <c r="G555" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="H555" t="s">
         <v>9</v>
@@ -18209,7 +18209,7 @@
         <v>3.05999994277954</v>
       </c>
       <c r="G556" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="H556" t="s">
         <v>9</v>
@@ -18235,7 +18235,7 @@
         <v>3.11500000953674</v>
       </c>
       <c r="G557" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="H557" t="s">
         <v>9</v>
@@ -18261,7 +18261,7 @@
         <v>3.13000011444092</v>
       </c>
       <c r="G558" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="H558" t="s">
         <v>9</v>
@@ -18287,7 +18287,7 @@
         <v>3.13000011444092</v>
       </c>
       <c r="G559" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="H559" t="s">
         <v>9</v>
@@ -18313,7 +18313,7 @@
         <v>3.16499996185303</v>
       </c>
       <c r="G560" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="H560" t="s">
         <v>9</v>
@@ -18339,7 +18339,7 @@
         <v>3.22499990463257</v>
       </c>
       <c r="G561" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="H561" t="s">
         <v>9</v>
@@ -18365,7 +18365,7 @@
         <v>3.15499997138977</v>
       </c>
       <c r="G562" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="H562" t="s">
         <v>9</v>
@@ -18391,7 +18391,7 @@
         <v>3.15499997138977</v>
       </c>
       <c r="G563" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="H563" t="s">
         <v>9</v>
@@ -18417,7 +18417,7 @@
         <v>3.20000004768372</v>
       </c>
       <c r="G564" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="H564" t="s">
         <v>9</v>
@@ -18443,7 +18443,7 @@
         <v>3.21000003814697</v>
       </c>
       <c r="G565" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="H565" t="s">
         <v>9</v>
@@ -18469,7 +18469,7 @@
         <v>3.28500008583069</v>
       </c>
       <c r="G566" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="H566" t="s">
         <v>9</v>
@@ -18495,7 +18495,7 @@
         <v>3.28500008583069</v>
       </c>
       <c r="G567" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="H567" t="s">
         <v>9</v>
@@ -18521,7 +18521,7 @@
         <v>3.25500011444092</v>
       </c>
       <c r="G568" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="H568" t="s">
         <v>9</v>
@@ -18547,7 +18547,7 @@
         <v>3.25</v>
       </c>
       <c r="G569" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="H569" t="s">
         <v>9</v>
@@ -18573,7 +18573,7 @@
         <v>3.20499992370605</v>
       </c>
       <c r="G570" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="H570" t="s">
         <v>9</v>
@@ -18599,7 +18599,7 @@
         <v>3.18499994277954</v>
       </c>
       <c r="G571" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="H571" t="s">
         <v>9</v>
@@ -18625,7 +18625,7 @@
         <v>3.19000005722046</v>
       </c>
       <c r="G572" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="H572" t="s">
         <v>9</v>
@@ -18651,7 +18651,7 @@
         <v>3.24499988555908</v>
       </c>
       <c r="G573" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="H573" t="s">
         <v>9</v>
@@ -18677,7 +18677,7 @@
         <v>3.25999999046326</v>
       </c>
       <c r="G574" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="H574" t="s">
         <v>9</v>
@@ -18703,7 +18703,7 @@
         <v>3.25</v>
       </c>
       <c r="G575" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="H575" t="s">
         <v>9</v>
@@ -18729,7 +18729,7 @@
         <v>3.21000003814697</v>
       </c>
       <c r="G576" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="H576" t="s">
         <v>9</v>
@@ -18755,7 +18755,7 @@
         <v>3.25999999046326</v>
       </c>
       <c r="G577" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="H577" t="s">
         <v>9</v>
@@ -18781,7 +18781,7 @@
         <v>3.28500008583069</v>
       </c>
       <c r="G578" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="H578" t="s">
         <v>9</v>
@@ -18807,7 +18807,7 @@
         <v>3.30999994277954</v>
       </c>
       <c r="G579" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="H579" t="s">
         <v>9</v>
@@ -18833,7 +18833,7 @@
         <v>3.27999997138977</v>
       </c>
       <c r="G580" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="H580" t="s">
         <v>9</v>
@@ -18859,7 +18859,7 @@
         <v>3.25999999046326</v>
       </c>
       <c r="G581" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="H581" t="s">
         <v>9</v>
@@ -18885,7 +18885,7 @@
         <v>3.26999998092651</v>
       </c>
       <c r="G582" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="H582" t="s">
         <v>9</v>
@@ -18911,7 +18911,7 @@
         <v>3.27500009536743</v>
       </c>
       <c r="G583" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="H583" t="s">
         <v>9</v>
@@ -18937,7 +18937,7 @@
         <v>3.28999996185303</v>
       </c>
       <c r="G584" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="H584" t="s">
         <v>9</v>
@@ -18963,7 +18963,7 @@
         <v>3.28999996185303</v>
       </c>
       <c r="G585" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="H585" t="s">
         <v>9</v>
@@ -18989,7 +18989,7 @@
         <v>3.28999996185303</v>
       </c>
       <c r="G586" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="H586" t="s">
         <v>9</v>
@@ -19015,7 +19015,7 @@
         <v>3.29999995231628</v>
       </c>
       <c r="G587" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="H587" t="s">
         <v>9</v>
@@ -19041,7 +19041,7 @@
         <v>3.29999995231628</v>
       </c>
       <c r="G588" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="H588" t="s">
         <v>9</v>
@@ -19067,7 +19067,7 @@
         <v>3.29999995231628</v>
       </c>
       <c r="G589" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="H589" t="s">
         <v>9</v>
@@ -19093,7 +19093,7 @@
         <v>3.32500004768372</v>
       </c>
       <c r="G590" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="H590" t="s">
         <v>9</v>
@@ -19119,7 +19119,7 @@
         <v>3.29999995231628</v>
       </c>
       <c r="G591" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="H591" t="s">
         <v>9</v>
@@ -19145,7 +19145,7 @@
         <v>3.30999994277954</v>
       </c>
       <c r="G592" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="H592" t="s">
         <v>9</v>
@@ -19171,7 +19171,7 @@
         <v>3.32999992370605</v>
       </c>
       <c r="G593" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="H593" t="s">
         <v>9</v>
@@ -19197,7 +19197,7 @@
         <v>3.40000009536743</v>
       </c>
       <c r="G594" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="H594" t="s">
         <v>9</v>
@@ -19223,7 +19223,7 @@
         <v>3.52999997138977</v>
       </c>
       <c r="G595" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="H595" t="s">
         <v>9</v>
@@ -19249,7 +19249,7 @@
         <v>3.5</v>
       </c>
       <c r="G596" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="H596" t="s">
         <v>9</v>
@@ -19275,7 +19275,7 @@
         <v>3.50500011444092</v>
       </c>
       <c r="G597" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="H597" t="s">
         <v>9</v>
@@ -19301,7 +19301,7 @@
         <v>3.34999990463257</v>
       </c>
       <c r="G598" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="H598" t="s">
         <v>9</v>
@@ -19327,7 +19327,7 @@
         <v>3.29999995231628</v>
       </c>
       <c r="G599" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="H599" t="s">
         <v>9</v>
@@ -19353,7 +19353,7 @@
         <v>3.29999995231628</v>
       </c>
       <c r="G600" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="H600" t="s">
         <v>9</v>
@@ -19379,7 +19379,7 @@
         <v>3.24000000953674</v>
       </c>
       <c r="G601" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="H601" t="s">
         <v>9</v>
@@ -19405,7 +19405,7 @@
         <v>3.20000004768372</v>
       </c>
       <c r="G602" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="H602" t="s">
         <v>9</v>
@@ -19431,7 +19431,7 @@
         <v>3.25999999046326</v>
       </c>
       <c r="G603" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="H603" t="s">
         <v>9</v>
@@ -19457,7 +19457,7 @@
         <v>3.1800000667572</v>
       </c>
       <c r="G604" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="H604" t="s">
         <v>9</v>
@@ -19483,7 +19483,7 @@
         <v>3.13000011444092</v>
       </c>
       <c r="G605" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="H605" t="s">
         <v>9</v>
@@ -19509,7 +19509,7 @@
         <v>3.13000011444092</v>
       </c>
       <c r="G606" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="H606" t="s">
         <v>9</v>
@@ -19535,7 +19535,7 @@
         <v>3.11500000953674</v>
       </c>
       <c r="G607" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="H607" t="s">
         <v>9</v>
@@ -19561,7 +19561,7 @@
         <v>3.10500001907349</v>
       </c>
       <c r="G608" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="H608" t="s">
         <v>9</v>
@@ -19587,7 +19587,7 @@
         <v>3.09500002861023</v>
       </c>
       <c r="G609" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="H609" t="s">
         <v>9</v>
@@ -19613,7 +19613,7 @@
         <v>3.07999992370605</v>
       </c>
       <c r="G610" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="H610" t="s">
         <v>9</v>
@@ -19639,7 +19639,7 @@
         <v>3.07999992370605</v>
       </c>
       <c r="G611" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="H611" t="s">
         <v>9</v>
@@ -19665,7 +19665,7 @@
         <v>3.0550000667572</v>
       </c>
       <c r="G612" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="H612" t="s">
         <v>9</v>
@@ -19691,7 +19691,7 @@
         <v>3.00500011444092</v>
       </c>
       <c r="G613" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="H613" t="s">
         <v>9</v>
@@ -19717,7 +19717,7 @@
         <v>2.875</v>
       </c>
       <c r="G614" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="H614" t="s">
         <v>9</v>
@@ -19743,7 +19743,7 @@
         <v>2.95000004768372</v>
       </c>
       <c r="G615" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="H615" t="s">
         <v>9</v>
@@ -19769,7 +19769,7 @@
         <v>3.00500011444092</v>
       </c>
       <c r="G616" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="H616" t="s">
         <v>9</v>
@@ -19795,7 +19795,7 @@
         <v>3.01500010490417</v>
       </c>
       <c r="G617" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="H617" t="s">
         <v>9</v>
@@ -19821,7 +19821,7 @@
         <v>3</v>
       </c>
       <c r="G618" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="H618" t="s">
         <v>9</v>
@@ -19847,7 +19847,7 @@
         <v>3</v>
       </c>
       <c r="G619" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="H619" t="s">
         <v>9</v>
@@ -19873,7 +19873,7 @@
         <v>2.98000001907349</v>
       </c>
       <c r="G620" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="H620" t="s">
         <v>9</v>
@@ -19899,7 +19899,7 @@
         <v>3.00500011444092</v>
       </c>
       <c r="G621" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="H621" t="s">
         <v>9</v>
@@ -19925,7 +19925,7 @@
         <v>2.9449999332428</v>
       </c>
       <c r="G622" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="H622" t="s">
         <v>9</v>
@@ -19951,7 +19951,7 @@
         <v>3.04999995231628</v>
       </c>
       <c r="G623" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="H623" t="s">
         <v>9</v>
@@ -19977,7 +19977,7 @@
         <v>3.05999994277954</v>
       </c>
       <c r="G624" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="H624" t="s">
         <v>9</v>
@@ -20003,7 +20003,7 @@
         <v>3.01500010490417</v>
       </c>
       <c r="G625" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="H625" t="s">
         <v>9</v>
@@ -20029,7 +20029,7 @@
         <v>3.05999994277954</v>
       </c>
       <c r="G626" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="H626" t="s">
         <v>9</v>
@@ -20055,7 +20055,7 @@
         <v>2.97499990463257</v>
       </c>
       <c r="G627" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="H627" t="s">
         <v>9</v>
@@ -20081,7 +20081,7 @@
         <v>2.99000000953674</v>
       </c>
       <c r="G628" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="H628" t="s">
         <v>9</v>
@@ -20107,7 +20107,7 @@
         <v>2.97499990463257</v>
       </c>
       <c r="G629" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="H629" t="s">
         <v>9</v>
@@ -20133,7 +20133,7 @@
         <v>2.99499988555908</v>
       </c>
       <c r="G630" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="H630" t="s">
         <v>9</v>
@@ -20159,7 +20159,7 @@
         <v>2.92000007629395</v>
       </c>
       <c r="G631" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="H631" t="s">
         <v>9</v>
@@ -20185,7 +20185,7 @@
         <v>3.06500005722046</v>
       </c>
       <c r="G632" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="H632" t="s">
         <v>9</v>
@@ -20211,7 +20211,7 @@
         <v>2.95000004768372</v>
       </c>
       <c r="G633" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="H633" t="s">
         <v>9</v>
@@ -20237,7 +20237,7 @@
         <v>3.03500008583069</v>
       </c>
       <c r="G634" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="H634" t="s">
         <v>9</v>
@@ -20263,7 +20263,7 @@
         <v>3</v>
       </c>
       <c r="G635" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="H635" t="s">
         <v>9</v>
@@ -20289,7 +20289,7 @@
         <v>3</v>
       </c>
       <c r="G636" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="H636" t="s">
         <v>9</v>
@@ -20315,7 +20315,7 @@
         <v>2.99000000953674</v>
       </c>
       <c r="G637" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="H637" t="s">
         <v>9</v>
@@ -20341,7 +20341,7 @@
         <v>2.9449999332428</v>
       </c>
       <c r="G638" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="H638" t="s">
         <v>9</v>
@@ -20367,7 +20367,7 @@
         <v>2.95499992370605</v>
       </c>
       <c r="G639" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="H639" t="s">
         <v>9</v>
@@ -20393,7 +20393,7 @@
         <v>2.9300000667572</v>
       </c>
       <c r="G640" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="H640" t="s">
         <v>9</v>
@@ -20419,7 +20419,7 @@
         <v>2.97499990463257</v>
       </c>
       <c r="G641" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="H641" t="s">
         <v>9</v>
@@ -20445,7 +20445,7 @@
         <v>2.99499988555908</v>
       </c>
       <c r="G642" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="H642" t="s">
         <v>9</v>
@@ -20471,7 +20471,7 @@
         <v>2.95499992370605</v>
       </c>
       <c r="G643" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="H643" t="s">
         <v>9</v>
@@ -20497,7 +20497,7 @@
         <v>2.9300000667572</v>
       </c>
       <c r="G644" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="H644" t="s">
         <v>9</v>
@@ -20523,7 +20523,7 @@
         <v>2.91499996185303</v>
       </c>
       <c r="G645" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="H645" t="s">
         <v>9</v>
@@ -20549,7 +20549,7 @@
         <v>2.89000010490417</v>
       </c>
       <c r="G646" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="H646" t="s">
         <v>9</v>
@@ -20575,7 +20575,7 @@
         <v>2.88499999046326</v>
       </c>
       <c r="G647" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="H647" t="s">
         <v>9</v>
@@ -20601,7 +20601,7 @@
         <v>2.86500000953674</v>
       </c>
       <c r="G648" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="H648" t="s">
         <v>9</v>
@@ -20627,7 +20627,7 @@
         <v>2.86999988555908</v>
       </c>
       <c r="G649" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="H649" t="s">
         <v>9</v>
@@ -20653,7 +20653,7 @@
         <v>2.89000010490417</v>
       </c>
       <c r="G650" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="H650" t="s">
         <v>9</v>
@@ -20679,7 +20679,7 @@
         <v>2.90000009536743</v>
       </c>
       <c r="G651" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="H651" t="s">
         <v>9</v>
@@ -20705,7 +20705,7 @@
         <v>2.89000010490417</v>
       </c>
       <c r="G652" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="H652" t="s">
         <v>9</v>
@@ -20731,7 +20731,7 @@
         <v>2.85999989509583</v>
       </c>
       <c r="G653" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="H653" t="s">
         <v>9</v>
@@ -20757,7 +20757,7 @@
         <v>2.84999990463257</v>
       </c>
       <c r="G654" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="H654" t="s">
         <v>9</v>
@@ -20783,7 +20783,7 @@
         <v>2.90000009536743</v>
       </c>
       <c r="G655" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="H655" t="s">
         <v>9</v>
@@ -20809,7 +20809,7 @@
         <v>3.14000010490417</v>
       </c>
       <c r="G656" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="H656" t="s">
         <v>9</v>
@@ -20835,7 +20835,7 @@
         <v>3.15000009536743</v>
       </c>
       <c r="G657" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="H657" t="s">
         <v>9</v>
@@ -20861,7 +20861,7 @@
         <v>3.20499992370605</v>
       </c>
       <c r="G658" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="H658" t="s">
         <v>9</v>
@@ -20887,7 +20887,7 @@
         <v>3.1800000667572</v>
       </c>
       <c r="G659" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="H659" t="s">
         <v>9</v>
@@ -20913,7 +20913,7 @@
         <v>3.53999996185303</v>
       </c>
       <c r="G660" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="H660" t="s">
         <v>9</v>
@@ -20939,7 +20939,7 @@
         <v>3.35500001907349</v>
       </c>
       <c r="G661" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="H661" t="s">
         <v>9</v>
@@ -20965,7 +20965,7 @@
         <v>3.34999990463257</v>
       </c>
       <c r="G662" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="H662" t="s">
         <v>9</v>
@@ -20991,7 +20991,7 @@
         <v>3.26500010490417</v>
       </c>
       <c r="G663" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="H663" t="s">
         <v>9</v>
@@ -21017,7 +21017,7 @@
         <v>3.26999998092651</v>
       </c>
       <c r="G664" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="H664" t="s">
         <v>9</v>
@@ -21043,7 +21043,7 @@
         <v>3.25</v>
       </c>
       <c r="G665" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="H665" t="s">
         <v>9</v>
@@ -21069,7 +21069,7 @@
         <v>3.1949999332428</v>
       </c>
       <c r="G666" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="H666" t="s">
         <v>9</v>
@@ -21095,7 +21095,7 @@
         <v>3.13499999046326</v>
       </c>
       <c r="G667" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="H667" t="s">
         <v>9</v>
@@ -21121,7 +21121,7 @@
         <v>3.09999990463257</v>
       </c>
       <c r="G668" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="H668" t="s">
         <v>9</v>
@@ -21147,7 +21147,7 @@
         <v>3.13000011444092</v>
       </c>
       <c r="G669" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="H669" t="s">
         <v>9</v>
@@ -21173,7 +21173,7 @@
         <v>3.02500009536743</v>
       </c>
       <c r="G670" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="H670" t="s">
         <v>9</v>
@@ -21199,7 +21199,7 @@
         <v>3.05999994277954</v>
       </c>
       <c r="G671" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="H671" t="s">
         <v>9</v>
@@ -21225,7 +21225,7 @@
         <v>3.03500008583069</v>
       </c>
       <c r="G672" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="H672" t="s">
         <v>9</v>
@@ -21251,7 +21251,7 @@
         <v>3.07999992370605</v>
       </c>
       <c r="G673" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="H673" t="s">
         <v>9</v>
@@ -21277,7 +21277,7 @@
         <v>3.11999988555908</v>
       </c>
       <c r="G674" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="H674" t="s">
         <v>9</v>
@@ -21303,7 +21303,7 @@
         <v>3.07500004768372</v>
       </c>
       <c r="G675" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="H675" t="s">
         <v>9</v>
@@ -21329,7 +21329,7 @@
         <v>3.09500002861023</v>
       </c>
       <c r="G676" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="H676" t="s">
         <v>9</v>
@@ -21355,7 +21355,7 @@
         <v>3.08500003814697</v>
       </c>
       <c r="G677" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="H677" t="s">
         <v>9</v>
@@ -21381,7 +21381,7 @@
         <v>3.05999994277954</v>
       </c>
       <c r="G678" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="H678" t="s">
         <v>9</v>
@@ -21407,7 +21407,7 @@
         <v>3.10999989509583</v>
       </c>
       <c r="G679" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="H679" t="s">
         <v>9</v>
@@ -21433,7 +21433,7 @@
         <v>3.10999989509583</v>
       </c>
       <c r="G680" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="H680" t="s">
         <v>9</v>
@@ -21459,7 +21459,7 @@
         <v>3.10999989509583</v>
       </c>
       <c r="G681" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="H681" t="s">
         <v>9</v>
@@ -21485,7 +21485,7 @@
         <v>3.125</v>
       </c>
       <c r="G682" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="H682" t="s">
         <v>9</v>
@@ -21511,7 +21511,7 @@
         <v>3.10999989509583</v>
       </c>
       <c r="G683" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="H683" t="s">
         <v>9</v>
@@ -21537,7 +21537,7 @@
         <v>3.10500001907349</v>
       </c>
       <c r="G684" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="H684" t="s">
         <v>9</v>
@@ -21563,7 +21563,7 @@
         <v>3.11500000953674</v>
       </c>
       <c r="G685" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="H685" t="s">
         <v>9</v>
@@ -21589,7 +21589,7 @@
         <v>3.11500000953674</v>
       </c>
       <c r="G686" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="H686" t="s">
         <v>9</v>
@@ -21615,7 +21615,7 @@
         <v>3.13000011444092</v>
       </c>
       <c r="G687" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="H687" t="s">
         <v>9</v>
@@ -21641,7 +21641,7 @@
         <v>3.13000011444092</v>
       </c>
       <c r="G688" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="H688" t="s">
         <v>9</v>
@@ -21667,7 +21667,7 @@
         <v>3.16499996185303</v>
       </c>
       <c r="G689" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="H689" t="s">
         <v>9</v>
@@ -21693,7 +21693,7 @@
         <v>3.16000008583069</v>
       </c>
       <c r="G690" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="H690" t="s">
         <v>9</v>
@@ -21719,7 +21719,7 @@
         <v>3.15499997138977</v>
       </c>
       <c r="G691" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="H691" t="s">
         <v>9</v>
@@ -21745,7 +21745,7 @@
         <v>3.15499997138977</v>
       </c>
       <c r="G692" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="H692" t="s">
         <v>9</v>
@@ -21771,7 +21771,7 @@
         <v>3.17000007629395</v>
       </c>
       <c r="G693" t="s">
-        <v>426</v>
+        <v>369</v>
       </c>
       <c r="H693" t="s">
         <v>9</v>
@@ -21797,7 +21797,7 @@
         <v>3.17000007629395</v>
       </c>
       <c r="G694" t="s">
-        <v>426</v>
+        <v>369</v>
       </c>
       <c r="H694" t="s">
         <v>9</v>
@@ -21823,7 +21823,7 @@
         <v>3.16000008583069</v>
       </c>
       <c r="G695" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="H695" t="s">
         <v>9</v>
@@ -21849,7 +21849,7 @@
         <v>3.17000007629395</v>
       </c>
       <c r="G696" t="s">
-        <v>426</v>
+        <v>369</v>
       </c>
       <c r="H696" t="s">
         <v>9</v>
@@ -21875,7 +21875,7 @@
         <v>3.16000008583069</v>
       </c>
       <c r="G697" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="H697" t="s">
         <v>9</v>
@@ -21901,7 +21901,7 @@
         <v>3.16000008583069</v>
       </c>
       <c r="G698" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="H698" t="s">
         <v>9</v>
@@ -21927,7 +21927,7 @@
         <v>3.16000008583069</v>
       </c>
       <c r="G699" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="H699" t="s">
         <v>9</v>
@@ -21953,7 +21953,7 @@
         <v>3.10999989509583</v>
       </c>
       <c r="G700" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="H700" t="s">
         <v>9</v>
@@ -22005,7 +22005,7 @@
         <v>2.98000001907349</v>
       </c>
       <c r="G702" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="H702" t="s">
         <v>9</v>
@@ -22031,7 +22031,7 @@
         <v>2.97499990463257</v>
       </c>
       <c r="G703" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="H703" t="s">
         <v>9</v>
@@ -22057,7 +22057,7 @@
         <v>2.97499990463257</v>
       </c>
       <c r="G704" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="H704" t="s">
         <v>9</v>
@@ -22083,7 +22083,7 @@
         <v>3.01500010490417</v>
       </c>
       <c r="G705" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="H705" t="s">
         <v>9</v>
@@ -22161,7 +22161,7 @@
         <v>2.9449999332428</v>
       </c>
       <c r="G708" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="H708" t="s">
         <v>9</v>
@@ -22187,7 +22187,7 @@
         <v>3.01500010490417</v>
       </c>
       <c r="G709" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="H709" t="s">
         <v>9</v>
@@ -22265,7 +22265,7 @@
         <v>2.9449999332428</v>
       </c>
       <c r="G712" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="H712" t="s">
         <v>9</v>
@@ -22317,7 +22317,7 @@
         <v>3.08500003814697</v>
       </c>
       <c r="G714" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="H714" t="s">
         <v>9</v>
@@ -22343,7 +22343,7 @@
         <v>3.05999994277954</v>
       </c>
       <c r="G715" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="H715" t="s">
         <v>9</v>
@@ -22369,7 +22369,7 @@
         <v>2.99000000953674</v>
       </c>
       <c r="G716" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="H716" t="s">
         <v>9</v>
@@ -22395,7 +22395,7 @@
         <v>2.97499990463257</v>
       </c>
       <c r="G717" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="H717" t="s">
         <v>9</v>
@@ -22421,7 +22421,7 @@
         <v>2.875</v>
       </c>
       <c r="G718" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="H718" t="s">
         <v>9</v>
@@ -22447,7 +22447,7 @@
         <v>2.86999988555908</v>
       </c>
       <c r="G719" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="H719" t="s">
         <v>9</v>
@@ -22473,7 +22473,7 @@
         <v>2.84999990463257</v>
       </c>
       <c r="G720" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="H720" t="s">
         <v>9</v>
@@ -22551,7 +22551,7 @@
         <v>2.89000010490417</v>
       </c>
       <c r="G723" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="H723" t="s">
         <v>9</v>
@@ -22577,7 +22577,7 @@
         <v>2.90000009536743</v>
       </c>
       <c r="G724" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="H724" t="s">
         <v>9</v>
@@ -22629,7 +22629,7 @@
         <v>2.97499990463257</v>
       </c>
       <c r="G726" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="H726" t="s">
         <v>9</v>
@@ -22655,7 +22655,7 @@
         <v>3.04999995231628</v>
       </c>
       <c r="G727" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="H727" t="s">
         <v>9</v>
@@ -22733,7 +22733,7 @@
         <v>3.08500003814697</v>
       </c>
       <c r="G730" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="H730" t="s">
         <v>9</v>
@@ -22759,7 +22759,7 @@
         <v>3.04999995231628</v>
       </c>
       <c r="G731" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="H731" t="s">
         <v>9</v>
@@ -22785,7 +22785,7 @@
         <v>3.04999995231628</v>
       </c>
       <c r="G732" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="H732" t="s">
         <v>9</v>
@@ -22811,7 +22811,7 @@
         <v>3.03500008583069</v>
       </c>
       <c r="G733" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="H733" t="s">
         <v>9</v>
@@ -22863,7 +22863,7 @@
         <v>2.99000000953674</v>
       </c>
       <c r="G735" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="H735" t="s">
         <v>9</v>
@@ -22915,7 +22915,7 @@
         <v>3</v>
       </c>
       <c r="G737" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="H737" t="s">
         <v>9</v>
@@ -22941,7 +22941,7 @@
         <v>3.04999995231628</v>
       </c>
       <c r="G738" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="H738" t="s">
         <v>9</v>
@@ -22993,7 +22993,7 @@
         <v>3</v>
       </c>
       <c r="G740" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="H740" t="s">
         <v>9</v>
@@ -23019,7 +23019,7 @@
         <v>3.04999995231628</v>
       </c>
       <c r="G741" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="H741" t="s">
         <v>9</v>
@@ -23045,7 +23045,7 @@
         <v>3.07999992370605</v>
       </c>
       <c r="G742" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="H742" t="s">
         <v>9</v>
@@ -23071,7 +23071,7 @@
         <v>3.05999994277954</v>
       </c>
       <c r="G743" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="H743" t="s">
         <v>9</v>
@@ -23149,7 +23149,7 @@
         <v>3.09500002861023</v>
       </c>
       <c r="G746" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="H746" t="s">
         <v>9</v>
@@ -23175,7 +23175,7 @@
         <v>3.08500003814697</v>
       </c>
       <c r="G747" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="H747" t="s">
         <v>9</v>
@@ -23227,7 +23227,7 @@
         <v>3.20000004768372</v>
       </c>
       <c r="G749" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="H749" t="s">
         <v>9</v>
@@ -23253,7 +23253,7 @@
         <v>3.08500003814697</v>
       </c>
       <c r="G750" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="H750" t="s">
         <v>9</v>
@@ -23279,7 +23279,7 @@
         <v>3.07500004768372</v>
       </c>
       <c r="G751" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="H751" t="s">
         <v>9</v>
@@ -23305,7 +23305,7 @@
         <v>3.08500003814697</v>
       </c>
       <c r="G752" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="H752" t="s">
         <v>9</v>
@@ -23331,7 +23331,7 @@
         <v>3.07999992370605</v>
       </c>
       <c r="G753" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="H753" t="s">
         <v>9</v>
@@ -23357,7 +23357,7 @@
         <v>3.11999988555908</v>
       </c>
       <c r="G754" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="H754" t="s">
         <v>9</v>
@@ -23383,7 +23383,7 @@
         <v>3.10999989509583</v>
       </c>
       <c r="G755" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="H755" t="s">
         <v>9</v>
@@ -23409,7 +23409,7 @@
         <v>3.125</v>
       </c>
       <c r="G756" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="H756" t="s">
         <v>9</v>
@@ -23461,7 +23461,7 @@
         <v>3.07500004768372</v>
       </c>
       <c r="G758" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="H758" t="s">
         <v>9</v>
@@ -23487,7 +23487,7 @@
         <v>3.07999992370605</v>
       </c>
       <c r="G759" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="H759" t="s">
         <v>9</v>
@@ -23539,7 +23539,7 @@
         <v>3.07500004768372</v>
       </c>
       <c r="G761" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="H761" t="s">
         <v>9</v>
@@ -23591,7 +23591,7 @@
         <v>3.10999989509583</v>
       </c>
       <c r="G763" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="H763" t="s">
         <v>9</v>
@@ -23617,7 +23617,7 @@
         <v>3.09500002861023</v>
       </c>
       <c r="G764" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="H764" t="s">
         <v>9</v>
@@ -23695,7 +23695,7 @@
         <v>3.24000000953674</v>
       </c>
       <c r="G767" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="H767" t="s">
         <v>9</v>
@@ -23747,7 +23747,7 @@
         <v>3.1949999332428</v>
       </c>
       <c r="G769" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="H769" t="s">
         <v>9</v>
@@ -23799,7 +23799,7 @@
         <v>3.1949999332428</v>
       </c>
       <c r="G771" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="H771" t="s">
         <v>9</v>
@@ -23825,7 +23825,7 @@
         <v>3.1800000667572</v>
       </c>
       <c r="G772" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="H772" t="s">
         <v>9</v>
@@ -23851,7 +23851,7 @@
         <v>3.1800000667572</v>
       </c>
       <c r="G773" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="H773" t="s">
         <v>9</v>
@@ -23877,7 +23877,7 @@
         <v>3.16499996185303</v>
       </c>
       <c r="G774" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="H774" t="s">
         <v>9</v>
@@ -23903,7 +23903,7 @@
         <v>3.1800000667572</v>
       </c>
       <c r="G775" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="H775" t="s">
         <v>9</v>
@@ -23955,7 +23955,7 @@
         <v>3.20000004768372</v>
       </c>
       <c r="G777" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="H777" t="s">
         <v>9</v>
@@ -24007,7 +24007,7 @@
         <v>3.20499992370605</v>
       </c>
       <c r="G779" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="H779" t="s">
         <v>9</v>
@@ -24085,7 +24085,7 @@
         <v>3.20000004768372</v>
       </c>
       <c r="G782" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="H782" t="s">
         <v>9</v>
@@ -24111,7 +24111,7 @@
         <v>3.20000004768372</v>
       </c>
       <c r="G783" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="H783" t="s">
         <v>9</v>
@@ -24215,7 +24215,7 @@
         <v>3.24000000953674</v>
       </c>
       <c r="G787" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="H787" t="s">
         <v>9</v>
@@ -24241,7 +24241,7 @@
         <v>3.25</v>
       </c>
       <c r="G788" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="H788" t="s">
         <v>9</v>
@@ -24293,7 +24293,7 @@
         <v>3.25999999046326</v>
       </c>
       <c r="G790" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="H790" t="s">
         <v>9</v>
@@ -24319,7 +24319,7 @@
         <v>3.25</v>
       </c>
       <c r="G791" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="H791" t="s">
         <v>9</v>
@@ -24345,7 +24345,7 @@
         <v>3.24000000953674</v>
       </c>
       <c r="G792" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="H792" t="s">
         <v>9</v>
@@ -24371,7 +24371,7 @@
         <v>3.26999998092651</v>
       </c>
       <c r="G793" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="H793" t="s">
         <v>9</v>
@@ -24397,7 +24397,7 @@
         <v>3.25999999046326</v>
       </c>
       <c r="G794" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="H794" t="s">
         <v>9</v>
@@ -24449,7 +24449,7 @@
         <v>3.29999995231628</v>
       </c>
       <c r="G796" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="H796" t="s">
         <v>9</v>
@@ -24709,7 +24709,7 @@
         <v>3.34999990463257</v>
       </c>
       <c r="G806" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="H806" t="s">
         <v>9</v>
@@ -25203,7 +25203,7 @@
         <v>3.53999996185303</v>
       </c>
       <c r="G825" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="H825" t="s">
         <v>9</v>
@@ -60259,7 +60259,7 @@
     </row>
     <row r="2174">
       <c r="A2174" s="1" t="n">
-        <v>45489.6494328704</v>
+        <v>45489.2916666667</v>
       </c>
       <c r="B2174" t="n">
         <v>39698</v>
@@ -60280,6 +60280,32 @@
         <v>1132</v>
       </c>
       <c r="H2174" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2175">
+      <c r="A2175" s="1" t="n">
+        <v>45490.6494560185</v>
+      </c>
+      <c r="B2175" t="n">
+        <v>25548</v>
+      </c>
+      <c r="C2175" t="n">
+        <v>2.375</v>
+      </c>
+      <c r="D2175" t="n">
+        <v>2.35500001907349</v>
+      </c>
+      <c r="E2175" t="n">
+        <v>2.35500001907349</v>
+      </c>
+      <c r="F2175" t="n">
+        <v>2.375</v>
+      </c>
+      <c r="G2175" t="s">
+        <v>1132</v>
+      </c>
+      <c r="H2175" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/ASC.MI.xlsx
+++ b/data/ASC.MI.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1136" uniqueCount="1136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1137" uniqueCount="1137">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -38,13 +38,13 @@
     <t xml:space="preserve">ticker</t>
   </si>
   <si>
-    <t xml:space="preserve">1.31329572200775</t>
+    <t xml:space="preserve">1.31329584121704</t>
   </si>
   <si>
     <t xml:space="preserve">ASC.MI</t>
   </si>
   <si>
-    <t xml:space="preserve">1.31448101997375</t>
+    <t xml:space="preserve">1.31448113918304</t>
   </si>
   <si>
     <t xml:space="preserve">1.30262804031372</t>
@@ -53,19 +53,19 @@
     <t xml:space="preserve">1.3038135766983</t>
   </si>
   <si>
-    <t xml:space="preserve">1.28959023952484</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.28247833251953</t>
+    <t xml:space="preserve">1.28959012031555</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.28247845172882</t>
   </si>
   <si>
     <t xml:space="preserve">1.30973970890045</t>
   </si>
   <si>
-    <t xml:space="preserve">1.28366339206696</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.26588439941406</t>
+    <t xml:space="preserve">1.28366363048553</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.26588416099548</t>
   </si>
   <si>
     <t xml:space="preserve">1.22676992416382</t>
@@ -74,7 +74,7 @@
     <t xml:space="preserve">1.23032569885254</t>
   </si>
   <si>
-    <t xml:space="preserve">1.19121134281158</t>
+    <t xml:space="preserve">1.19121146202087</t>
   </si>
   <si>
     <t xml:space="preserve">1.21491706371307</t>
@@ -83,16 +83,16 @@
     <t xml:space="preserve">1.29196059703827</t>
   </si>
   <si>
-    <t xml:space="preserve">1.28840458393097</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.28129315376282</t>
+    <t xml:space="preserve">1.28840470314026</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.28129303455353</t>
   </si>
   <si>
     <t xml:space="preserve">1.30736947059631</t>
   </si>
   <si>
-    <t xml:space="preserve">1.31211042404175</t>
+    <t xml:space="preserve">1.31211054325104</t>
   </si>
   <si>
     <t xml:space="preserve">1.29788708686829</t>
@@ -101,10 +101,10 @@
     <t xml:space="preserve">1.23862266540527</t>
   </si>
   <si>
-    <t xml:space="preserve">1.24454927444458</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.24336397647858</t>
+    <t xml:space="preserve">1.24454915523529</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.24336385726929</t>
   </si>
   <si>
     <t xml:space="preserve">1.2243994474411</t>
@@ -113,97 +113,97 @@
     <t xml:space="preserve">1.24099338054657</t>
   </si>
   <si>
-    <t xml:space="preserve">1.26469910144806</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.26232862472534</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.26825499534607</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.27062559127808</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.32514870166779</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.32159292697906</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.32396340370178</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.31685173511505</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.31922209262848</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.30618405342102</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.31803691387177</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.33581626415253</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.34411311149597</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.34648382663727</t>
+    <t xml:space="preserve">1.26469922065735</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.26232850551605</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.26825487613678</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.2706253528595</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.3251485824585</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.32159280776978</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.32396304607391</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.31685161590576</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.31922221183777</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.30618393421173</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.31803679466248</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.33581614494324</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.34411334991455</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.34648394584656</t>
   </si>
   <si>
     <t xml:space="preserve">1.36070728302002</t>
   </si>
   <si>
-    <t xml:space="preserve">1.35833656787872</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.34766888618469</t>
+    <t xml:space="preserve">1.35833644866943</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.34766900539398</t>
   </si>
   <si>
     <t xml:space="preserve">1.34292781352997</t>
   </si>
   <si>
-    <t xml:space="preserve">1.36189246177673</t>
+    <t xml:space="preserve">1.36189258098602</t>
   </si>
   <si>
     <t xml:space="preserve">1.34055721759796</t>
   </si>
   <si>
-    <t xml:space="preserve">1.35596609115601</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.35952174663544</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.36307775974274</t>
+    <t xml:space="preserve">1.35596585273743</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.35952186584473</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.36307764053345</t>
   </si>
   <si>
     <t xml:space="preserve">1.34885430335999</t>
   </si>
   <si>
-    <t xml:space="preserve">1.36426293849945</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.38796877861023</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.38085699081421</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.38322758674622</t>
+    <t xml:space="preserve">1.36426317691803</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.38796854019165</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.38085663318634</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.38322746753693</t>
   </si>
   <si>
     <t xml:space="preserve">1.38678336143494</t>
   </si>
   <si>
-    <t xml:space="preserve">1.39152455329895</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.39863634109497</t>
+    <t xml:space="preserve">1.39152443408966</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.3986359834671</t>
   </si>
   <si>
     <t xml:space="preserve">1.37848651409149</t>
@@ -227,31 +227,31 @@
     <t xml:space="preserve">1.41523015499115</t>
   </si>
   <si>
-    <t xml:space="preserve">1.40456259250641</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.39982163906097</t>
+    <t xml:space="preserve">1.4045627117157</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.39982151985168</t>
   </si>
   <si>
     <t xml:space="preserve">1.4328111410141</t>
   </si>
   <si>
-    <t xml:space="preserve">1.43027973175049</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.43407690525055</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.44926571846008</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.46572005748749</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.46192288398743</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.47584617137909</t>
+    <t xml:space="preserve">1.43027937412262</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.43407678604126</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.44926559925079</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.46572017669678</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.46192312240601</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.4758460521698</t>
   </si>
   <si>
     <t xml:space="preserve">1.48344051837921</t>
@@ -260,13 +260,13 @@
     <t xml:space="preserve">1.48470616340637</t>
   </si>
   <si>
-    <t xml:space="preserve">1.48976922035217</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.49483215808868</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.50242674350739</t>
+    <t xml:space="preserve">1.48976933956146</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.49483203887939</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.5024266242981</t>
   </si>
   <si>
     <t xml:space="preserve">1.53153848648071</t>
@@ -275,55 +275,55 @@
     <t xml:space="preserve">1.52900683879852</t>
   </si>
   <si>
-    <t xml:space="preserve">1.54419589042664</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.55938446521759</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.58343327045441</t>
+    <t xml:space="preserve">1.54419565200806</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.5593843460083</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.58343350887299</t>
   </si>
   <si>
     <t xml:space="preserve">1.54546117782593</t>
   </si>
   <si>
-    <t xml:space="preserve">1.55685305595398</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.53913283348083</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.58216798305511</t>
+    <t xml:space="preserve">1.55685317516327</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.53913295269012</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.58216786384583</t>
   </si>
   <si>
     <t xml:space="preserve">1.65178310871124</t>
   </si>
   <si>
-    <t xml:space="preserve">1.65811192989349</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.64039146900177</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.56571328639984</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.55052447319031</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.59862232208252</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.64418888092041</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.5884964466095</t>
+    <t xml:space="preserve">1.65811157226562</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.64039170742035</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.56571340560913</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.55052423477173</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.59862244129181</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.64418864250183</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.58849632740021</t>
   </si>
   <si>
     <t xml:space="preserve">1.56318175792694</t>
   </si>
   <si>
-    <t xml:space="preserve">1.6049507856369</t>
+    <t xml:space="preserve">1.60495102405548</t>
   </si>
   <si>
     <t xml:space="preserve">1.63912570476532</t>
@@ -332,88 +332,88 @@
     <t xml:space="preserve">1.70874130725861</t>
   </si>
   <si>
-    <t xml:space="preserve">1.69481813907623</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.63786029815674</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.69355249404907</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.70494401454926</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.70620965957642</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.76316773891449</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.76823055744171</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.77076208591461</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.7353218793869</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.73405563831329</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.77202796936035</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.78468537330627</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.75051057338715</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.7467132806778</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.75304198265076</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.76443362236023</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.80620300769806</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.84164309501648</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.80367147922516</t>
+    <t xml:space="preserve">1.69481790065765</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.63786005973816</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.69355237483978</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.70494377613068</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.70620977878571</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.7631676197052</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.76823079586029</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.7707622051239</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.73532164096832</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.73405587673187</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.77202785015106</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.7846851348877</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.75051045417786</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.74671304225922</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.75304210186005</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.76443326473236</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.80620276927948</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.84164297580719</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.80367124080658</t>
   </si>
   <si>
     <t xml:space="preserve">1.83278298377991</t>
   </si>
   <si>
-    <t xml:space="preserve">1.82012581825256</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.79734253883362</t>
+    <t xml:space="preserve">1.82012605667114</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.79734241962433</t>
   </si>
   <si>
     <t xml:space="preserve">1.79607689380646</t>
   </si>
   <si>
-    <t xml:space="preserve">1.79354560375214</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.81632852554321</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.8226569890976</t>
+    <t xml:space="preserve">1.79354548454285</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.81632840633392</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.82265722751617</t>
   </si>
   <si>
     <t xml:space="preserve">1.80999982357025</t>
   </si>
   <si>
-    <t xml:space="preserve">1.82518875598907</t>
+    <t xml:space="preserve">1.82518863677979</t>
   </si>
   <si>
     <t xml:space="preserve">1.8112655878067</t>
@@ -425,16 +425,16 @@
     <t xml:space="preserve">1.71380388736725</t>
   </si>
   <si>
-    <t xml:space="preserve">1.7897481918335</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.74038481712341</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.6555802822113</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.67583191394806</t>
+    <t xml:space="preserve">1.78974831104279</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.74038457870483</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.65558016300201</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.67583203315735</t>
   </si>
   <si>
     <t xml:space="preserve">1.64798605442047</t>
@@ -443,79 +443,79 @@
     <t xml:space="preserve">1.6745662689209</t>
   </si>
   <si>
-    <t xml:space="preserve">1.66064321994781</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.68722367286682</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.69861507415771</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.66444039344788</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.6770977973938</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.65684604644775</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.65937745571136</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.66190874576569</t>
+    <t xml:space="preserve">1.66064310073853</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.68722355365753</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.69861555099487</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.66444063186646</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.67709803581238</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.65684592723846</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.65937769412994</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.66190886497498</t>
   </si>
   <si>
     <t xml:space="preserve">1.68469226360321</t>
   </si>
   <si>
-    <t xml:space="preserve">1.69228672981262</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.69608378410339</t>
+    <t xml:space="preserve">1.69228649139404</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.6960836648941</t>
   </si>
   <si>
     <t xml:space="preserve">1.7011467218399</t>
   </si>
   <si>
-    <t xml:space="preserve">1.66317486763</t>
+    <t xml:space="preserve">1.66317474842072</t>
   </si>
   <si>
     <t xml:space="preserve">1.68975520133972</t>
   </si>
   <si>
-    <t xml:space="preserve">1.68595790863037</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.67836332321167</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.63406276702881</t>
+    <t xml:space="preserve">1.68595826625824</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.67836344242096</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.63406300544739</t>
   </si>
   <si>
     <t xml:space="preserve">1.57710492610931</t>
   </si>
   <si>
-    <t xml:space="preserve">1.53406989574432</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.53533589839935</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.54039824008942</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.52267813682556</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.60115373134613</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.6315313577652</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.60748243331909</t>
+    <t xml:space="preserve">1.53406977653503</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.53533565998077</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.54039871692657</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.52267837524414</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.60115349292755</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.63153171539307</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.60748255252838</t>
   </si>
   <si>
     <t xml:space="preserve">1.57583904266357</t>
@@ -524,16 +524,16 @@
     <t xml:space="preserve">1.53786718845367</t>
   </si>
   <si>
-    <t xml:space="preserve">1.55558717250824</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.58723056316376</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.61381113529205</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.62899959087372</t>
+    <t xml:space="preserve">1.55558729171753</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.58723044395447</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.61381125450134</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.6289998292923</t>
   </si>
   <si>
     <t xml:space="preserve">1.62393689155579</t>
@@ -548,10 +548,10 @@
     <t xml:space="preserve">1.63026559352875</t>
   </si>
   <si>
-    <t xml:space="preserve">1.68089485168457</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.71000683307648</t>
+    <t xml:space="preserve">1.68089509010315</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.71000671386719</t>
   </si>
   <si>
     <t xml:space="preserve">1.69988119602203</t>
@@ -560,88 +560,88 @@
     <t xml:space="preserve">1.72139859199524</t>
   </si>
   <si>
-    <t xml:space="preserve">1.71760106086731</t>
+    <t xml:space="preserve">1.71760153770447</t>
   </si>
   <si>
     <t xml:space="preserve">1.72392988204956</t>
   </si>
   <si>
-    <t xml:space="preserve">1.73658692836761</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.71507000923157</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.72266399860382</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.73279011249542</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.75177621841431</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.76190209388733</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.75937068462372</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.7302588224411</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.81253135204315</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.80493700504303</t>
+    <t xml:space="preserve">1.73658752441406</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.71506977081299</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.7226642370224</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.73278999328613</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.75177609920502</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.76190173625946</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.75937056541443</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.73025846481323</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.81253147125244</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.80493688583374</t>
   </si>
   <si>
     <t xml:space="preserve">1.78848242759705</t>
   </si>
   <si>
-    <t xml:space="preserve">1.77709090709686</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.82139134407043</t>
+    <t xml:space="preserve">1.77709114551544</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.8213917016983</t>
   </si>
   <si>
     <t xml:space="preserve">1.82772016525269</t>
   </si>
   <si>
-    <t xml:space="preserve">1.79481089115143</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.82898616790771</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.84037744998932</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.81379723548889</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.86695778369904</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.86062932014465</t>
+    <t xml:space="preserve">1.79481101036072</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.828986287117</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.84037756919861</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.81379699707031</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.86695826053619</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.86062920093536</t>
   </si>
   <si>
     <t xml:space="preserve">1.88594388961792</t>
   </si>
   <si>
-    <t xml:space="preserve">1.91758751869202</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.93404197692871</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.95049643516541</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.95935654640198</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.95555901527405</t>
+    <t xml:space="preserve">1.91758739948273</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.93404161930084</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.95049631595612</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.95935618877411</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.95555925369263</t>
   </si>
   <si>
     <t xml:space="preserve">1.99732851982117</t>
@@ -650,31 +650,31 @@
     <t xml:space="preserve">1.98213970661163</t>
   </si>
   <si>
-    <t xml:space="preserve">2.03656649589539</t>
+    <t xml:space="preserve">2.03656601905823</t>
   </si>
   <si>
     <t xml:space="preserve">2.0631468296051</t>
   </si>
   <si>
-    <t xml:space="preserve">2.08339881896973</t>
+    <t xml:space="preserve">2.08339858055115</t>
   </si>
   <si>
     <t xml:space="preserve">2.10238456726074</t>
   </si>
   <si>
-    <t xml:space="preserve">2.06947565078735</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.07200694084167</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.11377596855164</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.10871315002441</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.12516760826111</t>
+    <t xml:space="preserve">2.06947541236877</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.0720067024231</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.11377620697021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.10871338844299</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.12516784667969</t>
   </si>
   <si>
     <t xml:space="preserve">2.16440534591675</t>
@@ -686,28 +686,28 @@
     <t xml:space="preserve">2.15681099891663</t>
   </si>
   <si>
-    <t xml:space="preserve">2.19604897499084</t>
+    <t xml:space="preserve">2.19604849815369</t>
   </si>
   <si>
     <t xml:space="preserve">2.20490908622742</t>
   </si>
   <si>
-    <t xml:space="preserve">2.21883201599121</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.22769236564636</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.23148918151855</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.21503472328186</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.24034929275513</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.23275518417358</t>
+    <t xml:space="preserve">2.21883225440979</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.2276918888092</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.23148941993713</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.21503496170044</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.24034976959229</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.232754945755</t>
   </si>
   <si>
     <t xml:space="preserve">2.22895789146423</t>
@@ -716,16 +716,16 @@
     <t xml:space="preserve">2.21376895904541</t>
   </si>
   <si>
-    <t xml:space="preserve">2.22516107559204</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.27452445030212</t>
+    <t xml:space="preserve">2.22516083717346</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.27452421188354</t>
   </si>
   <si>
     <t xml:space="preserve">2.24288082122803</t>
   </si>
   <si>
-    <t xml:space="preserve">2.23908400535583</t>
+    <t xml:space="preserve">2.23908376693726</t>
   </si>
   <si>
     <t xml:space="preserve">2.27832126617432</t>
@@ -737,7 +737,7 @@
     <t xml:space="preserve">2.27325868606567</t>
   </si>
   <si>
-    <t xml:space="preserve">2.29224467277527</t>
+    <t xml:space="preserve">2.29224443435669</t>
   </si>
   <si>
     <t xml:space="preserve">2.34160828590393</t>
@@ -749,34 +749,34 @@
     <t xml:space="preserve">2.39350366592407</t>
   </si>
   <si>
-    <t xml:space="preserve">2.42274141311646</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.4094512462616</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.39616107940674</t>
+    <t xml:space="preserve">2.4227409362793</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.40945148468018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.39616131782532</t>
   </si>
   <si>
     <t xml:space="preserve">2.37755560874939</t>
   </si>
   <si>
-    <t xml:space="preserve">2.3164222240448</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.31243538856506</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.35230469703674</t>
+    <t xml:space="preserve">2.31642246246338</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.31243515014648</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.35230493545532</t>
   </si>
   <si>
     <t xml:space="preserve">2.31376433372498</t>
   </si>
   <si>
-    <t xml:space="preserve">2.30047416687012</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.36559462547302</t>
+    <t xml:space="preserve">2.3004744052887</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.3655948638916</t>
   </si>
   <si>
     <t xml:space="preserve">2.38154244422913</t>
@@ -785,85 +785,85 @@
     <t xml:space="preserve">2.40014839172363</t>
   </si>
   <si>
-    <t xml:space="preserve">2.4147675037384</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.43204402923584</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.41875410079956</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.36293697357178</t>
+    <t xml:space="preserve">2.41476726531982</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.43204426765442</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.41875433921814</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.36293649673462</t>
   </si>
   <si>
     <t xml:space="preserve">2.40147733688354</t>
   </si>
   <si>
-    <t xml:space="preserve">2.40812206268311</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.4253990650177</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.43071508407593</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.40413546562195</t>
+    <t xml:space="preserve">2.40812230110168</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.42539930343628</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.43071532249451</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.40413570404053</t>
   </si>
   <si>
     <t xml:space="preserve">2.392174243927</t>
   </si>
   <si>
-    <t xml:space="preserve">2.412109375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.41343808174133</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.40679335594177</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.39350318908691</t>
+    <t xml:space="preserve">2.41210913658142</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.41343832015991</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.40679311752319</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.39350342750549</t>
   </si>
   <si>
     <t xml:space="preserve">2.47058463096619</t>
   </si>
   <si>
-    <t xml:space="preserve">2.38951659202576</t>
+    <t xml:space="preserve">2.38951635360718</t>
   </si>
   <si>
     <t xml:space="preserve">2.37489771842957</t>
   </si>
   <si>
-    <t xml:space="preserve">2.35762095451355</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.35895013809204</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.31509327888489</t>
+    <t xml:space="preserve">2.35762071609497</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.35894966125488</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.31509304046631</t>
   </si>
   <si>
     <t xml:space="preserve">2.30579042434692</t>
   </si>
   <si>
-    <t xml:space="preserve">2.33104109764099</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.32173800468445</t>
+    <t xml:space="preserve">2.33104085922241</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.32173824310303</t>
   </si>
   <si>
     <t xml:space="preserve">2.31908011436462</t>
   </si>
   <si>
-    <t xml:space="preserve">2.32306718826294</t>
+    <t xml:space="preserve">2.32306742668152</t>
   </si>
   <si>
     <t xml:space="preserve">2.32838320732117</t>
   </si>
   <si>
-    <t xml:space="preserve">2.30446171760559</t>
+    <t xml:space="preserve">2.30446147918701</t>
   </si>
   <si>
     <t xml:space="preserve">2.26592087745667</t>
@@ -872,7 +872,7 @@
     <t xml:space="preserve">2.2566180229187</t>
   </si>
   <si>
-    <t xml:space="preserve">2.27921080589294</t>
+    <t xml:space="preserve">2.27921056747437</t>
   </si>
   <si>
     <t xml:space="preserve">2.29250073432922</t>
@@ -887,7 +887,7 @@
     <t xml:space="preserve">2.38021349906921</t>
   </si>
   <si>
-    <t xml:space="preserve">2.39084553718567</t>
+    <t xml:space="preserve">2.39084529876709</t>
   </si>
   <si>
     <t xml:space="preserve">2.37622666358948</t>
@@ -902,34 +902,34 @@
     <t xml:space="preserve">2.34034395217896</t>
   </si>
   <si>
-    <t xml:space="preserve">2.32572507858276</t>
+    <t xml:space="preserve">2.32572531700134</t>
   </si>
   <si>
     <t xml:space="preserve">2.35097599029541</t>
   </si>
   <si>
-    <t xml:space="preserve">2.30977749824524</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.35496258735657</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.43470239639282</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.39881920814514</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.42141199111938</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.34698915481567</t>
+    <t xml:space="preserve">2.30977702140808</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.35496282577515</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.43470215797424</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.39881944656372</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.42141222953796</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.34698891639709</t>
   </si>
   <si>
     <t xml:space="preserve">2.34831786155701</t>
   </si>
   <si>
-    <t xml:space="preserve">2.33502817153931</t>
+    <t xml:space="preserve">2.33502793312073</t>
   </si>
   <si>
     <t xml:space="preserve">2.32971215248108</t>
@@ -941,13 +941,13 @@
     <t xml:space="preserve">2.37223958969116</t>
   </si>
   <si>
-    <t xml:space="preserve">2.39749050140381</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.36825251579285</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.41742515563965</t>
+    <t xml:space="preserve">2.39749026298523</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.36825275421143</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.41742491722107</t>
   </si>
   <si>
     <t xml:space="preserve">2.43603086471558</t>
@@ -959,40 +959,40 @@
     <t xml:space="preserve">2.48254537582397</t>
   </si>
   <si>
-    <t xml:space="preserve">2.5343759059906</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.51311254501343</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.51178312301636</t>
+    <t xml:space="preserve">2.53437566757202</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.51311230659485</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.51178336143494</t>
   </si>
   <si>
     <t xml:space="preserve">2.54367876052856</t>
   </si>
   <si>
-    <t xml:space="preserve">2.45197892189026</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.45729494094849</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.40546417236328</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.42938613891602</t>
+    <t xml:space="preserve">2.45197868347168</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.45729470252991</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.40546441078186</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.42938590049744</t>
   </si>
   <si>
     <t xml:space="preserve">2.47324252128601</t>
   </si>
   <si>
-    <t xml:space="preserve">2.45862364768982</t>
+    <t xml:space="preserve">2.4586238861084</t>
   </si>
   <si>
     <t xml:space="preserve">2.4413468837738</t>
   </si>
   <si>
-    <t xml:space="preserve">2.42672801017761</t>
+    <t xml:space="preserve">2.42672777175903</t>
   </si>
   <si>
     <t xml:space="preserve">2.44932103157043</t>
@@ -1004,13 +1004,13 @@
     <t xml:space="preserve">2.42872166633606</t>
   </si>
   <si>
-    <t xml:space="preserve">2.44533395767212</t>
+    <t xml:space="preserve">2.4453341960907</t>
   </si>
   <si>
     <t xml:space="preserve">2.43868899345398</t>
   </si>
   <si>
-    <t xml:space="preserve">2.44201159477234</t>
+    <t xml:space="preserve">2.44201135635376</t>
   </si>
   <si>
     <t xml:space="preserve">2.38220715522766</t>
@@ -1019,79 +1019,79 @@
     <t xml:space="preserve">2.19282650947571</t>
   </si>
   <si>
-    <t xml:space="preserve">2.09979724884033</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.15960216522217</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.12969994544983</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.09315276145935</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.14631199836731</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.13634490966797</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.17289209365845</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.17953658103943</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.12305450439453</t>
+    <t xml:space="preserve">2.09979748725891</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.15960192680359</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.12969970703125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.09315252304077</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.14631223678589</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.13634467124939</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.17289161682129</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.17953681945801</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.12305474281311</t>
   </si>
   <si>
     <t xml:space="preserve">2.10644268989563</t>
   </si>
   <si>
-    <t xml:space="preserve">2.08318567276001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.07321786880493</t>
+    <t xml:space="preserve">2.08318519592285</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.07321810722351</t>
   </si>
   <si>
     <t xml:space="preserve">2.03334808349609</t>
   </si>
   <si>
-    <t xml:space="preserve">2.06989574432373</t>
+    <t xml:space="preserve">2.06989550590515</t>
   </si>
   <si>
     <t xml:space="preserve">2.07986283302307</t>
   </si>
   <si>
-    <t xml:space="preserve">2.10312008857727</t>
+    <t xml:space="preserve">2.10311985015869</t>
   </si>
   <si>
     <t xml:space="preserve">2.14298939704895</t>
   </si>
   <si>
-    <t xml:space="preserve">2.09647536277771</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.12637734413147</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.13302230834961</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.18285918235779</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.16292452812195</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.11640977859497</t>
+    <t xml:space="preserve">2.09647512435913</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.12637710571289</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.13302206993103</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.18285942077637</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.16292428970337</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.11641001701355</t>
   </si>
   <si>
     <t xml:space="preserve">2.11973261833191</t>
   </si>
   <si>
-    <t xml:space="preserve">2.15627908706665</t>
+    <t xml:space="preserve">2.15627956390381</t>
   </si>
   <si>
     <t xml:space="preserve">2.16624689102173</t>
@@ -1103,19 +1103,19 @@
     <t xml:space="preserve">2.17621445655823</t>
   </si>
   <si>
-    <t xml:space="preserve">2.18618154525757</t>
+    <t xml:space="preserve">2.18618178367615</t>
   </si>
   <si>
     <t xml:space="preserve">2.20943903923035</t>
   </si>
   <si>
-    <t xml:space="preserve">2.21276164054871</t>
+    <t xml:space="preserve">2.21276140213013</t>
   </si>
   <si>
     <t xml:space="preserve">2.25927591323853</t>
   </si>
   <si>
-    <t xml:space="preserve">2.34565997123718</t>
+    <t xml:space="preserve">2.34565949440002</t>
   </si>
   <si>
     <t xml:space="preserve">2.32904767990112</t>
@@ -1130,7 +1130,7 @@
     <t xml:space="preserve">2.39837598800659</t>
   </si>
   <si>
-    <t xml:space="preserve">2.36876654624939</t>
+    <t xml:space="preserve">2.36876630783081</t>
   </si>
   <si>
     <t xml:space="preserve">2.4131805896759</t>
@@ -1139,34 +1139,34 @@
     <t xml:space="preserve">2.35396146774292</t>
   </si>
   <si>
-    <t xml:space="preserve">2.31694960594177</t>
+    <t xml:space="preserve">2.31694984436035</t>
   </si>
   <si>
     <t xml:space="preserve">2.30584597587585</t>
   </si>
   <si>
-    <t xml:space="preserve">2.29844355583191</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.29104113578796</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.27993774414062</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.26143169403076</t>
+    <t xml:space="preserve">2.29844331741333</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.29104137420654</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.27993750572205</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.26143145561218</t>
   </si>
   <si>
     <t xml:space="preserve">2.22441959381104</t>
   </si>
   <si>
-    <t xml:space="preserve">2.12818837165833</t>
+    <t xml:space="preserve">2.12818813323975</t>
   </si>
   <si>
     <t xml:space="preserve">2.18370676040649</t>
   </si>
   <si>
-    <t xml:space="preserve">2.23182201385498</t>
+    <t xml:space="preserve">2.23182225227356</t>
   </si>
   <si>
     <t xml:space="preserve">2.22071838378906</t>
@@ -1181,19 +1181,19 @@
     <t xml:space="preserve">2.25773024559021</t>
   </si>
   <si>
-    <t xml:space="preserve">2.26513290405273</t>
+    <t xml:space="preserve">2.26513266563416</t>
   </si>
   <si>
     <t xml:space="preserve">2.2022123336792</t>
   </si>
   <si>
-    <t xml:space="preserve">2.21331644058228</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.21701717376709</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.16149950027466</t>
+    <t xml:space="preserve">2.21331596374512</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.21701693534851</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.16149926185608</t>
   </si>
   <si>
     <t xml:space="preserve">2.26883411407471</t>
@@ -1208,7 +1208,7 @@
     <t xml:space="preserve">2.16890168190002</t>
   </si>
   <si>
-    <t xml:space="preserve">2.15779805183411</t>
+    <t xml:space="preserve">2.15779829025269</t>
   </si>
   <si>
     <t xml:space="preserve">2.13929224014282</t>
@@ -1220,13 +1220,13 @@
     <t xml:space="preserve">2.12078642845154</t>
   </si>
   <si>
-    <t xml:space="preserve">2.12448716163635</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.14669442176819</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.11708498001099</t>
+    <t xml:space="preserve">2.12448740005493</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.14669466018677</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.11708474159241</t>
   </si>
   <si>
     <t xml:space="preserve">2.10968255996704</t>
@@ -1235,7 +1235,7 @@
     <t xml:space="preserve">2.32435202598572</t>
   </si>
   <si>
-    <t xml:space="preserve">2.33175444602966</t>
+    <t xml:space="preserve">2.33175420761108</t>
   </si>
   <si>
     <t xml:space="preserve">2.37246751785278</t>
@@ -1259,13 +1259,13 @@
     <t xml:space="preserve">2.40577816963196</t>
   </si>
   <si>
-    <t xml:space="preserve">2.36506509780884</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.32065081596375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.29474210739136</t>
+    <t xml:space="preserve">2.36506485939026</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.32065057754517</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.29474234580994</t>
   </si>
   <si>
     <t xml:space="preserve">2.23922443389893</t>
@@ -1274,19 +1274,19 @@
     <t xml:space="preserve">2.30954694747925</t>
   </si>
   <si>
-    <t xml:space="preserve">2.27623677253723</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.2836389541626</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.3021445274353</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.31324815750122</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.342857837677</t>
+    <t xml:space="preserve">2.27623629570007</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.28363871574402</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.30214476585388</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.3132483959198</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.34285759925842</t>
   </si>
   <si>
     <t xml:space="preserve">2.33915686607361</t>
@@ -1295,7 +1295,7 @@
     <t xml:space="preserve">2.33545565605164</t>
   </si>
   <si>
-    <t xml:space="preserve">2.2429256439209</t>
+    <t xml:space="preserve">2.24292540550232</t>
   </si>
   <si>
     <t xml:space="preserve">2.17630410194397</t>
@@ -1304,16 +1304,16 @@
     <t xml:space="preserve">2.19110870361328</t>
   </si>
   <si>
-    <t xml:space="preserve">2.23552322387695</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.08747529983521</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.15039563179016</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.15409708023071</t>
+    <t xml:space="preserve">2.23552298545837</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.08747553825378</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.15039539337158</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.15409684181213</t>
   </si>
   <si>
     <t xml:space="preserve">2.25402927398682</t>
@@ -1325,13 +1325,13 @@
     <t xml:space="preserve">2.25032806396484</t>
   </si>
   <si>
-    <t xml:space="preserve">2.22812080383301</t>
+    <t xml:space="preserve">2.22812104225159</t>
   </si>
   <si>
     <t xml:space="preserve">2.40207695960999</t>
   </si>
   <si>
-    <t xml:space="preserve">2.43168711662292</t>
+    <t xml:space="preserve">2.43168640136719</t>
   </si>
   <si>
     <t xml:space="preserve">2.38357090950012</t>
@@ -1340,7 +1340,7 @@
     <t xml:space="preserve">2.35766267776489</t>
   </si>
   <si>
-    <t xml:space="preserve">2.37616896629333</t>
+    <t xml:space="preserve">2.37616872787476</t>
   </si>
   <si>
     <t xml:space="preserve">2.37986993789673</t>
@@ -1349,28 +1349,28 @@
     <t xml:space="preserve">2.4242844581604</t>
   </si>
   <si>
-    <t xml:space="preserve">2.42798566818237</t>
+    <t xml:space="preserve">2.42798519134521</t>
   </si>
   <si>
     <t xml:space="preserve">2.44649124145508</t>
   </si>
   <si>
-    <t xml:space="preserve">2.45019245147705</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.50200963020325</t>
+    <t xml:space="preserve">2.45019268989563</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.50200939178467</t>
   </si>
   <si>
     <t xml:space="preserve">2.49460697174072</t>
   </si>
   <si>
-    <t xml:space="preserve">2.49090600013733</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.51311326026917</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.49830842018127</t>
+    <t xml:space="preserve">2.49090576171875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.51311302185059</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.4983081817627</t>
   </si>
   <si>
     <t xml:space="preserve">2.50571060180664</t>
@@ -1379,25 +1379,25 @@
     <t xml:space="preserve">2.56122875213623</t>
   </si>
   <si>
-    <t xml:space="preserve">2.53161907196045</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.5686309337616</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.52791738510132</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.53902149200439</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.52051520347595</t>
+    <t xml:space="preserve">2.53161931037903</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.56863117218018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.52791786193848</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.53902173042297</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.52051544189453</t>
   </si>
   <si>
     <t xml:space="preserve">2.5242166519165</t>
   </si>
   <si>
-    <t xml:space="preserve">2.54272246360779</t>
+    <t xml:space="preserve">2.54272270202637</t>
   </si>
   <si>
     <t xml:space="preserve">2.55382633209229</t>
@@ -1406,10 +1406,10 @@
     <t xml:space="preserve">2.57603335380554</t>
   </si>
   <si>
-    <t xml:space="preserve">2.60194182395935</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.59083843231201</t>
+    <t xml:space="preserve">2.60194206237793</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.59083819389343</t>
   </si>
   <si>
     <t xml:space="preserve">2.57973456382751</t>
@@ -1418,49 +1418,49 @@
     <t xml:space="preserve">2.62785029411316</t>
   </si>
   <si>
-    <t xml:space="preserve">2.64635634422302</t>
+    <t xml:space="preserve">2.64635610580444</t>
   </si>
   <si>
     <t xml:space="preserve">2.64265489578247</t>
   </si>
   <si>
-    <t xml:space="preserve">2.63895344734192</t>
+    <t xml:space="preserve">2.6389536857605</t>
   </si>
   <si>
     <t xml:space="preserve">2.65745997428894</t>
   </si>
   <si>
-    <t xml:space="preserve">2.67226433753967</t>
+    <t xml:space="preserve">2.67226457595825</t>
   </si>
   <si>
     <t xml:space="preserve">2.71297764778137</t>
   </si>
   <si>
-    <t xml:space="preserve">2.72778272628784</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.70187401771545</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.69077014923096</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.74258708953857</t>
+    <t xml:space="preserve">2.72778248786926</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.70187425613403</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.69077062606812</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.74258732795715</t>
   </si>
   <si>
     <t xml:space="preserve">2.75739192962646</t>
   </si>
   <si>
-    <t xml:space="preserve">2.82401347160339</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.8203125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.8499219417572</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.83881831169128</t>
+    <t xml:space="preserve">2.82401394844055</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.82031226158142</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.84992218017578</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.83881855010986</t>
   </si>
   <si>
     <t xml:space="preserve">3.02654099464417</t>
@@ -1469,37 +1469,37 @@
     <t xml:space="preserve">2.74035263061523</t>
   </si>
   <si>
-    <t xml:space="preserve">2.73643207550049</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.68938755989075</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.70898938179016</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.68154668807983</t>
+    <t xml:space="preserve">2.73643231391907</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.68938779830933</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.70898962020874</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.68154692649841</t>
   </si>
   <si>
     <t xml:space="preserve">2.75603413581848</t>
   </si>
   <si>
-    <t xml:space="preserve">2.84228253364563</t>
+    <t xml:space="preserve">2.84228277206421</t>
   </si>
   <si>
     <t xml:space="preserve">2.79915833473206</t>
   </si>
   <si>
-    <t xml:space="preserve">2.82268071174622</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.78347682952881</t>
+    <t xml:space="preserve">2.82268047332764</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.78347706794739</t>
   </si>
   <si>
     <t xml:space="preserve">2.7756359577179</t>
   </si>
   <si>
-    <t xml:space="preserve">2.76779508590698</t>
+    <t xml:space="preserve">2.76779532432556</t>
   </si>
   <si>
     <t xml:space="preserve">2.79131746292114</t>
@@ -1511,25 +1511,25 @@
     <t xml:space="preserve">2.84620308876038</t>
   </si>
   <si>
-    <t xml:space="preserve">2.85796451568604</t>
+    <t xml:space="preserve">2.85796403884888</t>
   </si>
   <si>
     <t xml:space="preserve">2.82660102844238</t>
   </si>
   <si>
-    <t xml:space="preserve">2.83444166183472</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.85012316703796</t>
+    <t xml:space="preserve">2.8344419002533</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.85012340545654</t>
   </si>
   <si>
     <t xml:space="preserve">2.86188459396362</t>
   </si>
   <si>
-    <t xml:space="preserve">2.8736457824707</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.99517774581909</t>
+    <t xml:space="preserve">2.87364554405212</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.99517798423767</t>
   </si>
   <si>
     <t xml:space="preserve">2.92461085319519</t>
@@ -1538,16 +1538,16 @@
     <t xml:space="preserve">2.95597410202026</t>
   </si>
   <si>
-    <t xml:space="preserve">2.97165560722351</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.94813299179077</t>
+    <t xml:space="preserve">2.97165536880493</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.94813323020935</t>
   </si>
   <si>
     <t xml:space="preserve">2.94029235839844</t>
   </si>
   <si>
-    <t xml:space="preserve">2.96381449699402</t>
+    <t xml:space="preserve">2.9638147354126</t>
   </si>
   <si>
     <t xml:space="preserve">2.95989441871643</t>
@@ -1556,61 +1556,61 @@
     <t xml:space="preserve">3.00693893432617</t>
   </si>
   <si>
-    <t xml:space="preserve">3.10494875907898</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.06966495513916</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.03830218315125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.07750582695007</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.13631176948547</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.15983462333679</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.18335652351379</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.23824191093445</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.25000309944153</t>
+    <t xml:space="preserve">3.10494899749756</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.06966519355774</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.03830242156982</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.07750606536865</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.13631200790405</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.15983414649963</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.18335676193237</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.23824214935303</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.25000333786011</t>
   </si>
   <si>
     <t xml:space="preserve">3.25392365455627</t>
   </si>
   <si>
-    <t xml:space="preserve">3.26960515975952</t>
+    <t xml:space="preserve">3.26960492134094</t>
   </si>
   <si>
     <t xml:space="preserve">3.30096840858459</t>
   </si>
   <si>
-    <t xml:space="preserve">3.33233141899109</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.31272912025452</t>
+    <t xml:space="preserve">3.33233118057251</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.3127293586731</t>
   </si>
   <si>
     <t xml:space="preserve">3.27744579315186</t>
   </si>
   <si>
-    <t xml:space="preserve">3.20687913894653</t>
+    <t xml:space="preserve">3.20687890052795</t>
   </si>
   <si>
     <t xml:space="preserve">3.22648072242737</t>
   </si>
   <si>
-    <t xml:space="preserve">3.25784420967102</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.24216246604919</t>
+    <t xml:space="preserve">3.25784397125244</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.24216270446777</t>
   </si>
   <si>
     <t xml:space="preserve">3.19119739532471</t>
@@ -1619,49 +1619,49 @@
     <t xml:space="preserve">3.14023232460022</t>
   </si>
   <si>
-    <t xml:space="preserve">3.12847137451172</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.11670994758606</t>
+    <t xml:space="preserve">3.12847113609314</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.11670970916748</t>
   </si>
   <si>
     <t xml:space="preserve">3.05006337165833</t>
   </si>
   <si>
-    <t xml:space="preserve">3.05398392677307</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.21864032745361</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.21471977233887</t>
+    <t xml:space="preserve">3.05398368835449</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.21864008903503</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.21471953392029</t>
   </si>
   <si>
     <t xml:space="preserve">3.1637544631958</t>
   </si>
   <si>
-    <t xml:space="preserve">3.14807295799255</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.04222273826599</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.12063026428223</t>
+    <t xml:space="preserve">3.14807319641113</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.04222249984741</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.12063002586365</t>
   </si>
   <si>
     <t xml:space="preserve">3.12455081939697</t>
   </si>
   <si>
-    <t xml:space="preserve">3.08534669876099</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.08926749229431</t>
+    <t xml:space="preserve">3.08534693717957</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.08926725387573</t>
   </si>
   <si>
     <t xml:space="preserve">3.11278963088989</t>
   </si>
   <si>
-    <t xml:space="preserve">3.10102844238281</t>
+    <t xml:space="preserve">3.10102820396423</t>
   </si>
   <si>
     <t xml:space="preserve">2.98341679573059</t>
@@ -1670,46 +1670,46 @@
     <t xml:space="preserve">2.88148665428162</t>
   </si>
   <si>
-    <t xml:space="preserve">2.93637180328369</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.97557616233826</t>
+    <t xml:space="preserve">2.93637204170227</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.97557592391968</t>
   </si>
   <si>
     <t xml:space="preserve">2.98733711242676</t>
   </si>
   <si>
-    <t xml:space="preserve">2.97949647903442</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.99909806251526</t>
+    <t xml:space="preserve">2.97949624061584</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.99909830093384</t>
   </si>
   <si>
     <t xml:space="preserve">3.00301861763</t>
   </si>
   <si>
-    <t xml:space="preserve">3.05790448188782</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.0343816280365</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.06574487686157</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.04614305496216</t>
+    <t xml:space="preserve">3.05790424346924</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.03438186645508</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.06574511528015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.04614281654358</t>
   </si>
   <si>
     <t xml:space="preserve">3.03046154975891</t>
   </si>
   <si>
-    <t xml:space="preserve">2.9324517250061</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.91284966468811</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.90108847618103</t>
+    <t xml:space="preserve">2.93245148658752</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.91284942626953</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.90108823776245</t>
   </si>
   <si>
     <t xml:space="preserve">2.94421291351318</t>
@@ -1721,13 +1721,13 @@
     <t xml:space="preserve">3.01870012283325</t>
   </si>
   <si>
-    <t xml:space="preserve">3.1519935131073</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.17551589012146</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.09710788726807</t>
+    <t xml:space="preserve">3.15199327468872</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.17551612854004</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.09710812568665</t>
   </si>
   <si>
     <t xml:space="preserve">3.10886907577515</t>
@@ -1742,25 +1742,25 @@
     <t xml:space="preserve">2.91677021980286</t>
   </si>
   <si>
-    <t xml:space="preserve">2.9520537853241</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.99125742912292</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.13239145278931</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.46562480926514</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.54795289039612</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.48522663116455</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.58323645591736</t>
+    <t xml:space="preserve">2.95205354690552</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.9912576675415</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.13239169120789</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.46562457084656</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.5479531288147</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.48522710800171</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.58323669433594</t>
   </si>
   <si>
     <t xml:space="preserve">3.52443027496338</t>
@@ -1772,7 +1772,7 @@
     <t xml:space="preserve">3.61459946632385</t>
   </si>
   <si>
-    <t xml:space="preserve">3.51658964157104</t>
+    <t xml:space="preserve">3.51658940315247</t>
   </si>
   <si>
     <t xml:space="preserve">3.42249989509583</t>
@@ -1787,28 +1787,28 @@
     <t xml:space="preserve">3.43818235397339</t>
   </si>
   <si>
-    <t xml:space="preserve">3.48130583763123</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.45386385917664</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.28920745849609</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.26176452636719</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.21079921722412</t>
+    <t xml:space="preserve">3.4813060760498</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.45386362075806</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.28920722007751</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.26176404953003</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.21079897880554</t>
   </si>
   <si>
     <t xml:space="preserve">3.08142638206482</t>
   </si>
   <si>
-    <t xml:space="preserve">3.26568484306335</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.2343213558197</t>
+    <t xml:space="preserve">3.26568460464478</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.23432159423828</t>
   </si>
   <si>
     <t xml:space="preserve">3.19511747360229</t>
@@ -1817,40 +1817,40 @@
     <t xml:space="preserve">2.69722819328308</t>
   </si>
   <si>
-    <t xml:space="preserve">2.13269209861755</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.36399507522583</t>
+    <t xml:space="preserve">2.13269186019897</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.36399531364441</t>
   </si>
   <si>
     <t xml:space="preserve">2.45024347305298</t>
   </si>
   <si>
-    <t xml:space="preserve">2.49336791038513</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.50512909889221</t>
+    <t xml:space="preserve">2.49336814880371</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.50512886047363</t>
   </si>
   <si>
     <t xml:space="preserve">2.55217385292053</t>
   </si>
   <si>
-    <t xml:space="preserve">2.61882042884827</t>
+    <t xml:space="preserve">2.61882019042969</t>
   </si>
   <si>
     <t xml:space="preserve">2.60313868522644</t>
   </si>
   <si>
-    <t xml:space="preserve">2.63450193405151</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.58353734016418</t>
+    <t xml:space="preserve">2.63450217247009</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.58353710174561</t>
   </si>
   <si>
     <t xml:space="preserve">2.54433298110962</t>
   </si>
   <si>
-    <t xml:space="preserve">2.51689052581787</t>
+    <t xml:space="preserve">2.51689028739929</t>
   </si>
   <si>
     <t xml:space="preserve">2.63842248916626</t>
@@ -1859,10 +1859,10 @@
     <t xml:space="preserve">2.4972882270813</t>
   </si>
   <si>
-    <t xml:space="preserve">2.50904965400696</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.46984577178955</t>
+    <t xml:space="preserve">2.50904941558838</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.46984553337097</t>
   </si>
   <si>
     <t xml:space="preserve">2.51296997070312</t>
@@ -1874,16 +1874,16 @@
     <t xml:space="preserve">2.54041266441345</t>
   </si>
   <si>
-    <t xml:space="preserve">2.52865123748779</t>
+    <t xml:space="preserve">2.52865147590637</t>
   </si>
   <si>
     <t xml:space="preserve">2.54825329780579</t>
   </si>
   <si>
-    <t xml:space="preserve">2.52473092079163</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.57177591323853</t>
+    <t xml:space="preserve">2.52473115921021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.57177567481995</t>
   </si>
   <si>
     <t xml:space="preserve">2.58745741844177</t>
@@ -1895,7 +1895,7 @@
     <t xml:space="preserve">2.61097955703735</t>
   </si>
   <si>
-    <t xml:space="preserve">2.65018367767334</t>
+    <t xml:space="preserve">2.65018343925476</t>
   </si>
   <si>
     <t xml:space="preserve">2.62274074554443</t>
@@ -1922,22 +1922,22 @@
     <t xml:space="preserve">3.50704002380371</t>
   </si>
   <si>
-    <t xml:space="preserve">3.32983326911926</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.25565361976624</t>
+    <t xml:space="preserve">3.32983303070068</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.25565385818481</t>
   </si>
   <si>
     <t xml:space="preserve">3.14438462257385</t>
   </si>
   <si>
-    <t xml:space="preserve">3.1402633190155</t>
+    <t xml:space="preserve">3.14026355743408</t>
   </si>
   <si>
     <t xml:space="preserve">3.21444320678711</t>
   </si>
   <si>
-    <t xml:space="preserve">3.24741196632385</t>
+    <t xml:space="preserve">3.24741172790527</t>
   </si>
   <si>
     <t xml:space="preserve">3.19383764266968</t>
@@ -1955,10 +1955,10 @@
     <t xml:space="preserve">3.11141610145569</t>
   </si>
   <si>
-    <t xml:space="preserve">3.06196308135986</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.08256816864014</t>
+    <t xml:space="preserve">3.06196284294128</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.08256840705872</t>
   </si>
   <si>
     <t xml:space="preserve">3.09081053733826</t>
@@ -1967,7 +1967,7 @@
     <t xml:space="preserve">3.11965823173523</t>
   </si>
   <si>
-    <t xml:space="preserve">3.08668923377991</t>
+    <t xml:space="preserve">3.08668947219849</t>
   </si>
   <si>
     <t xml:space="preserve">3.05784201622009</t>
@@ -1982,10 +1982,10 @@
     <t xml:space="preserve">2.94245147705078</t>
   </si>
   <si>
-    <t xml:space="preserve">2.91360425949097</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.93008828163147</t>
+    <t xml:space="preserve">2.91360402107239</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.93008852005005</t>
   </si>
   <si>
     <t xml:space="preserve">2.91772508621216</t>
@@ -1994,10 +1994,10 @@
     <t xml:space="preserve">2.90124082565308</t>
   </si>
   <si>
-    <t xml:space="preserve">2.90536212921143</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.86827206611633</t>
+    <t xml:space="preserve">2.90536189079285</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.86827230453491</t>
   </si>
   <si>
     <t xml:space="preserve">2.78997159004211</t>
@@ -2009,7 +2009,7 @@
     <t xml:space="preserve">2.87651443481445</t>
   </si>
   <si>
-    <t xml:space="preserve">2.89299869537354</t>
+    <t xml:space="preserve">2.89299845695496</t>
   </si>
   <si>
     <t xml:space="preserve">2.80233502388</t>
@@ -2024,13 +2024,13 @@
     <t xml:space="preserve">2.7528817653656</t>
   </si>
   <si>
-    <t xml:space="preserve">2.71167087554932</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.73227667808533</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.82706141471863</t>
+    <t xml:space="preserve">2.7116711139679</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.73227643966675</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.82706165313721</t>
   </si>
   <si>
     <t xml:space="preserve">2.8723931312561</t>
@@ -2042,10 +2042,10 @@
     <t xml:space="preserve">2.81469798088074</t>
   </si>
   <si>
-    <t xml:space="preserve">2.81057691574097</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.76524519920349</t>
+    <t xml:space="preserve">2.81057715415955</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.76524543762207</t>
   </si>
   <si>
     <t xml:space="preserve">2.79409289360046</t>
@@ -2054,7 +2054,7 @@
     <t xml:space="preserve">2.78172945976257</t>
   </si>
   <si>
-    <t xml:space="preserve">2.78585076332092</t>
+    <t xml:space="preserve">2.78585052490234</t>
   </si>
   <si>
     <t xml:space="preserve">2.70342898368835</t>
@@ -2063,10 +2063,10 @@
     <t xml:space="preserve">2.70755004882812</t>
   </si>
   <si>
-    <t xml:space="preserve">2.75700306892395</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.77348756790161</t>
+    <t xml:space="preserve">2.75700283050537</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.77348732948303</t>
   </si>
   <si>
     <t xml:space="preserve">2.74876093864441</t>
@@ -2078,25 +2078,25 @@
     <t xml:space="preserve">2.72403454780579</t>
   </si>
   <si>
-    <t xml:space="preserve">2.77760815620422</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.88475656509399</t>
+    <t xml:space="preserve">2.7776083946228</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.88475632667542</t>
   </si>
   <si>
     <t xml:space="preserve">2.64573383331299</t>
   </si>
   <si>
-    <t xml:space="preserve">2.64985466003418</t>
+    <t xml:space="preserve">2.64985489845276</t>
   </si>
   <si>
     <t xml:space="preserve">2.66221833229065</t>
   </si>
   <si>
-    <t xml:space="preserve">2.6086437702179</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.63337063789368</t>
+    <t xml:space="preserve">2.60864424705505</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.6333703994751</t>
   </si>
   <si>
     <t xml:space="preserve">2.62100744247437</t>
@@ -2108,13 +2108,13 @@
     <t xml:space="preserve">2.59215974807739</t>
   </si>
   <si>
-    <t xml:space="preserve">2.60452318191528</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.62924957275391</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.64161252975464</t>
+    <t xml:space="preserve">2.6045229434967</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.62924981117249</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.64161276817322</t>
   </si>
   <si>
     <t xml:space="preserve">2.61276531219482</t>
@@ -2126,7 +2126,7 @@
     <t xml:space="preserve">2.59628081321716</t>
   </si>
   <si>
-    <t xml:space="preserve">2.51798057556152</t>
+    <t xml:space="preserve">2.51798033714294</t>
   </si>
   <si>
     <t xml:space="preserve">2.49737477302551</t>
@@ -2138,13 +2138,13 @@
     <t xml:space="preserve">2.51385927200317</t>
   </si>
   <si>
-    <t xml:space="preserve">2.48913288116455</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.50561738014221</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.46852731704712</t>
+    <t xml:space="preserve">2.48913264274597</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.50561714172363</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.46852707862854</t>
   </si>
   <si>
     <t xml:space="preserve">2.5097382068634</t>
@@ -2153,46 +2153,46 @@
     <t xml:space="preserve">2.40671133995056</t>
   </si>
   <si>
-    <t xml:space="preserve">2.42319536209106</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.45204305648804</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.44792199134827</t>
+    <t xml:space="preserve">2.42319560050964</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.45204281806946</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.44792175292969</t>
   </si>
   <si>
     <t xml:space="preserve">2.47676944732666</t>
   </si>
   <si>
-    <t xml:space="preserve">2.69518661499023</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.74051904678345</t>
+    <t xml:space="preserve">2.69518685340881</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.74051880836487</t>
   </si>
   <si>
     <t xml:space="preserve">2.86415076255798</t>
   </si>
   <si>
-    <t xml:space="preserve">2.88887763023376</t>
+    <t xml:space="preserve">2.88887786865234</t>
   </si>
   <si>
     <t xml:space="preserve">2.89711999893188</t>
   </si>
   <si>
-    <t xml:space="preserve">2.84766674041748</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.84354591369629</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.81881928443909</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.83530354499817</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.83118224143982</t>
+    <t xml:space="preserve">2.84766697883606</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.84354567527771</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.81881952285767</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.83530330657959</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.8311824798584</t>
   </si>
   <si>
     <t xml:space="preserve">3.03311538696289</t>
@@ -2201,16 +2201,16 @@
     <t xml:space="preserve">3.01663112640381</t>
   </si>
   <si>
-    <t xml:space="preserve">2.99602556228638</t>
+    <t xml:space="preserve">2.99602580070496</t>
   </si>
   <si>
     <t xml:space="preserve">3.02487373352051</t>
   </si>
   <si>
-    <t xml:space="preserve">3.00838923454285</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.05372095108032</t>
+    <t xml:space="preserve">3.00838899612427</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.05372071266174</t>
   </si>
   <si>
     <t xml:space="preserve">3.06608414649963</t>
@@ -2225,7 +2225,7 @@
     <t xml:space="preserve">3.10729503631592</t>
   </si>
   <si>
-    <t xml:space="preserve">2.97542023658752</t>
+    <t xml:space="preserve">2.9754204750061</t>
   </si>
   <si>
     <t xml:space="preserve">2.96717810630798</t>
@@ -2234,19 +2234,19 @@
     <t xml:space="preserve">2.98366236686707</t>
   </si>
   <si>
-    <t xml:space="preserve">2.95481514930725</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.98778343200684</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.02075219154358</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.07844758033752</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.0454785823822</t>
+    <t xml:space="preserve">2.95481491088867</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.98778367042542</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.020751953125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.07844734191895</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.04547882080078</t>
   </si>
   <si>
     <t xml:space="preserve">3.04959964752197</t>
@@ -2255,13 +2255,13 @@
     <t xml:space="preserve">3.03723645210266</t>
   </si>
   <si>
-    <t xml:space="preserve">3.09905242919922</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.09493184089661</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.01250982284546</t>
+    <t xml:space="preserve">3.0990526676178</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.09493160247803</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.01251006126404</t>
   </si>
   <si>
     <t xml:space="preserve">2.96305704116821</t>
@@ -2273,13 +2273,13 @@
     <t xml:space="preserve">3.07020497322083</t>
   </si>
   <si>
-    <t xml:space="preserve">3.14850544929504</t>
+    <t xml:space="preserve">3.14850568771362</t>
   </si>
   <si>
     <t xml:space="preserve">3.16086912155151</t>
   </si>
   <si>
-    <t xml:space="preserve">3.16911101341248</t>
+    <t xml:space="preserve">3.16911125183105</t>
   </si>
   <si>
     <t xml:space="preserve">3.18559551239014</t>
@@ -2297,7 +2297,7 @@
     <t xml:space="preserve">3.12790036201477</t>
   </si>
   <si>
-    <t xml:space="preserve">3.22268509864807</t>
+    <t xml:space="preserve">3.22268533706665</t>
   </si>
   <si>
     <t xml:space="preserve">3.19795870780945</t>
@@ -2315,7 +2315,7 @@
     <t xml:space="preserve">3.18971657752991</t>
   </si>
   <si>
-    <t xml:space="preserve">3.23916959762573</t>
+    <t xml:space="preserve">3.23916935920715</t>
   </si>
   <si>
     <t xml:space="preserve">3.27625918388367</t>
@@ -2324,16 +2324,16 @@
     <t xml:space="preserve">3.25153255462646</t>
   </si>
   <si>
-    <t xml:space="preserve">3.36280179023743</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.35868072509766</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.34631776809692</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.30510687828064</t>
+    <t xml:space="preserve">3.36280202865601</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.35868048667908</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.34631752967834</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.30510711669922</t>
   </si>
   <si>
     <t xml:space="preserve">3.34219646453857</t>
@@ -2345,13 +2345,13 @@
     <t xml:space="preserve">3.25209856033325</t>
   </si>
   <si>
-    <t xml:space="preserve">3.20919489860535</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.22635626792908</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.27784061431885</t>
+    <t xml:space="preserve">3.20919513702393</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.22635650634766</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.27784085273743</t>
   </si>
   <si>
     <t xml:space="preserve">3.23493719100952</t>
@@ -2366,10 +2366,10 @@
     <t xml:space="preserve">3.21777558326721</t>
   </si>
   <si>
-    <t xml:space="preserve">3.15771055221558</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.17487192153931</t>
+    <t xml:space="preserve">3.15771079063416</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.17487215995789</t>
   </si>
   <si>
     <t xml:space="preserve">3.17916250228882</t>
@@ -2396,16 +2396,16 @@
     <t xml:space="preserve">3.23064708709717</t>
   </si>
   <si>
-    <t xml:space="preserve">3.22206616401672</t>
+    <t xml:space="preserve">3.2220664024353</t>
   </si>
   <si>
     <t xml:space="preserve">3.12767815589905</t>
   </si>
   <si>
-    <t xml:space="preserve">3.13625884056091</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.10622596740723</t>
+    <t xml:space="preserve">3.13625860214233</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.10622620582581</t>
   </si>
   <si>
     <t xml:space="preserve">3.07619380950928</t>
@@ -2417,13 +2417,13 @@
     <t xml:space="preserve">3.04187083244324</t>
   </si>
   <si>
-    <t xml:space="preserve">3.03758025169373</t>
+    <t xml:space="preserve">3.03758001327515</t>
   </si>
   <si>
     <t xml:space="preserve">3.0504515171051</t>
   </si>
   <si>
-    <t xml:space="preserve">3.04616093635559</t>
+    <t xml:space="preserve">3.04616117477417</t>
   </si>
   <si>
     <t xml:space="preserve">3.02899956703186</t>
@@ -2453,19 +2453,19 @@
     <t xml:space="preserve">2.92174029350281</t>
   </si>
   <si>
-    <t xml:space="preserve">2.93890190124512</t>
+    <t xml:space="preserve">2.93890166282654</t>
   </si>
   <si>
     <t xml:space="preserve">3.00325727462769</t>
   </si>
   <si>
-    <t xml:space="preserve">3.03329014778137</t>
+    <t xml:space="preserve">3.03328990936279</t>
   </si>
   <si>
     <t xml:space="preserve">3.02041888237</t>
   </si>
   <si>
-    <t xml:space="preserve">3.01612877845764</t>
+    <t xml:space="preserve">3.01612854003906</t>
   </si>
   <si>
     <t xml:space="preserve">3.01183795928955</t>
@@ -2495,7 +2495,7 @@
     <t xml:space="preserve">3.11051654815674</t>
   </si>
   <si>
-    <t xml:space="preserve">3.08477449417114</t>
+    <t xml:space="preserve">3.08477425575256</t>
   </si>
   <si>
     <t xml:space="preserve">3.07190322875977</t>
@@ -2504,7 +2504,7 @@
     <t xml:space="preserve">3.02470946311951</t>
   </si>
   <si>
-    <t xml:space="preserve">2.96464419364929</t>
+    <t xml:space="preserve">2.96464395523071</t>
   </si>
   <si>
     <t xml:space="preserve">2.94748258590698</t>
@@ -2516,7 +2516,7 @@
     <t xml:space="preserve">2.95606327056885</t>
   </si>
   <si>
-    <t xml:space="preserve">2.99467658996582</t>
+    <t xml:space="preserve">2.9946768283844</t>
   </si>
   <si>
     <t xml:space="preserve">2.98609566688538</t>
@@ -2537,16 +2537,16 @@
     <t xml:space="preserve">2.93032097816467</t>
   </si>
   <si>
-    <t xml:space="preserve">2.90457892417908</t>
+    <t xml:space="preserve">2.9045786857605</t>
   </si>
   <si>
     <t xml:space="preserve">2.97751522064209</t>
   </si>
   <si>
-    <t xml:space="preserve">2.92603063583374</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.94319224357605</t>
+    <t xml:space="preserve">2.92603087425232</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.94319248199463</t>
   </si>
   <si>
     <t xml:space="preserve">2.97322487831116</t>
@@ -2558,10 +2558,10 @@
     <t xml:space="preserve">2.7973198890686</t>
   </si>
   <si>
-    <t xml:space="preserve">2.91315984725952</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.8917076587677</t>
+    <t xml:space="preserve">2.91315960884094</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.89170789718628</t>
   </si>
   <si>
     <t xml:space="preserve">2.82306170463562</t>
@@ -2570,13 +2570,13 @@
     <t xml:space="preserve">2.77157759666443</t>
   </si>
   <si>
-    <t xml:space="preserve">2.80161046981812</t>
+    <t xml:space="preserve">2.80161023139954</t>
   </si>
   <si>
     <t xml:space="preserve">2.90028858184814</t>
   </si>
   <si>
-    <t xml:space="preserve">2.87454605102539</t>
+    <t xml:space="preserve">2.87454628944397</t>
   </si>
   <si>
     <t xml:space="preserve">2.83164262771606</t>
@@ -2600,7 +2600,7 @@
     <t xml:space="preserve">3.1108820438385</t>
   </si>
   <si>
-    <t xml:space="preserve">3.07936835289001</t>
+    <t xml:space="preserve">3.07936811447144</t>
   </si>
   <si>
     <t xml:space="preserve">3.02984619140625</t>
@@ -2609,22 +2609,22 @@
     <t xml:space="preserve">2.98932814598083</t>
   </si>
   <si>
-    <t xml:space="preserve">2.96681809425354</t>
+    <t xml:space="preserve">2.96681833267212</t>
   </si>
   <si>
     <t xml:space="preserve">3.03434801101685</t>
   </si>
   <si>
-    <t xml:space="preserve">2.98482608795166</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.96231603622437</t>
+    <t xml:space="preserve">2.98482632637024</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.96231627464294</t>
   </si>
   <si>
     <t xml:space="preserve">2.93980622291565</t>
   </si>
   <si>
-    <t xml:space="preserve">2.9308021068573</t>
+    <t xml:space="preserve">2.93080234527588</t>
   </si>
   <si>
     <t xml:space="preserve">2.95781421661377</t>
@@ -2639,7 +2639,7 @@
     <t xml:space="preserve">3.01634001731873</t>
   </si>
   <si>
-    <t xml:space="preserve">2.99833202362061</t>
+    <t xml:space="preserve">2.99833226203918</t>
   </si>
   <si>
     <t xml:space="preserve">3.04335236549377</t>
@@ -2654,13 +2654,13 @@
     <t xml:space="preserve">2.82725620269775</t>
   </si>
   <si>
-    <t xml:space="preserve">2.78673839569092</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.88128018379211</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.82275438308716</t>
+    <t xml:space="preserve">2.78673815727234</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.88128042221069</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.82275414466858</t>
   </si>
   <si>
     <t xml:space="preserve">2.77323222160339</t>
@@ -2672,22 +2672,22 @@
     <t xml:space="preserve">2.66968607902527</t>
   </si>
   <si>
-    <t xml:space="preserve">2.6561803817749</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.70120024681091</t>
+    <t xml:space="preserve">2.65618014335632</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.70120000839233</t>
   </si>
   <si>
     <t xml:space="preserve">2.71920824050903</t>
   </si>
   <si>
-    <t xml:space="preserve">2.59765410423279</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.62916827201843</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.63367009162903</t>
+    <t xml:space="preserve">2.59765434265137</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.62916803359985</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.63367033004761</t>
   </si>
   <si>
     <t xml:space="preserve">2.53912806510925</t>
@@ -2696,7 +2696,7 @@
     <t xml:space="preserve">2.56614017486572</t>
   </si>
   <si>
-    <t xml:space="preserve">2.5481321811676</t>
+    <t xml:space="preserve">2.54813194274902</t>
   </si>
   <si>
     <t xml:space="preserve">2.60665822029114</t>
@@ -2717,7 +2717,7 @@
     <t xml:space="preserve">2.42207622528076</t>
   </si>
   <si>
-    <t xml:space="preserve">2.41757416725159</t>
+    <t xml:space="preserve">2.41757392883301</t>
   </si>
   <si>
     <t xml:space="preserve">2.38606023788452</t>
@@ -2765,10 +2765,10 @@
     <t xml:space="preserve">2.44908809661865</t>
   </si>
   <si>
-    <t xml:space="preserve">2.39056205749512</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.32303190231323</t>
+    <t xml:space="preserve">2.3905622959137</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.32303214073181</t>
   </si>
   <si>
     <t xml:space="preserve">2.20598006248474</t>
@@ -2777,16 +2777,16 @@
     <t xml:space="preserve">2.23299217224121</t>
   </si>
   <si>
-    <t xml:space="preserve">2.16096043586731</t>
+    <t xml:space="preserve">2.16096019744873</t>
   </si>
   <si>
     <t xml:space="preserve">2.21948599815369</t>
   </si>
   <si>
-    <t xml:space="preserve">2.20147824287415</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.22398805618286</t>
+    <t xml:space="preserve">2.20147800445557</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.22398829460144</t>
   </si>
   <si>
     <t xml:space="preserve">2.24199604988098</t>
@@ -2798,7 +2798,7 @@
     <t xml:space="preserve">2.27351021766663</t>
   </si>
   <si>
-    <t xml:space="preserve">2.24649786949158</t>
+    <t xml:space="preserve">2.24649810791016</t>
   </si>
   <si>
     <t xml:space="preserve">2.21498417854309</t>
@@ -2810,16 +2810,16 @@
     <t xml:space="preserve">2.12044215202332</t>
   </si>
   <si>
-    <t xml:space="preserve">1.97187614440918</t>
+    <t xml:space="preserve">1.97187626361847</t>
   </si>
   <si>
     <t xml:space="preserve">2.03490424156189</t>
   </si>
   <si>
-    <t xml:space="preserve">1.98088026046753</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.94486427307129</t>
+    <t xml:space="preserve">1.98088014125824</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.944864153862</t>
   </si>
   <si>
     <t xml:space="preserve">1.89984405040741</t>
@@ -2837,28 +2837,28 @@
     <t xml:space="preserve">1.78279209136963</t>
   </si>
   <si>
-    <t xml:space="preserve">1.7575808763504</t>
+    <t xml:space="preserve">1.75758099555969</t>
   </si>
   <si>
     <t xml:space="preserve">1.72156488895416</t>
   </si>
   <si>
-    <t xml:space="preserve">1.70175611972809</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.73777210712433</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.80980408191681</t>
+    <t xml:space="preserve">1.7017560005188</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.73777198791504</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.8098042011261</t>
   </si>
   <si>
     <t xml:space="preserve">1.8773341178894</t>
   </si>
   <si>
-    <t xml:space="preserve">2.01689624786377</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.93135809898376</t>
+    <t xml:space="preserve">2.01689600944519</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.93135821819305</t>
   </si>
   <si>
     <t xml:space="preserve">2.06191611289978</t>
@@ -2879,25 +2879,25 @@
     <t xml:space="preserve">2.14745426177979</t>
   </si>
   <si>
-    <t xml:space="preserve">2.05291223526001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.17896842956543</t>
+    <t xml:space="preserve">2.05291199684143</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.17896819114685</t>
   </si>
   <si>
     <t xml:space="preserve">2.1879723072052</t>
   </si>
   <si>
-    <t xml:space="preserve">2.14295244216919</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.16996431350708</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.2825140953064</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.28701591491699</t>
+    <t xml:space="preserve">2.14295220375061</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.1699640750885</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.28251433372498</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.28701615333557</t>
   </si>
   <si>
     <t xml:space="preserve">2.26450610160828</t>
@@ -2912,25 +2912,25 @@
     <t xml:space="preserve">2.29151821136475</t>
   </si>
   <si>
-    <t xml:space="preserve">2.31853008270264</t>
+    <t xml:space="preserve">2.31853032112122</t>
   </si>
   <si>
     <t xml:space="preserve">2.30052208900452</t>
   </si>
   <si>
-    <t xml:space="preserve">2.30502390861511</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.27801203727722</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.25099992752075</t>
+    <t xml:space="preserve">2.30502414703369</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.2780122756958</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.25100016593933</t>
   </si>
   <si>
     <t xml:space="preserve">2.17446613311768</t>
   </si>
   <si>
-    <t xml:space="preserve">2.16546225547791</t>
+    <t xml:space="preserve">2.16546201705933</t>
   </si>
   <si>
     <t xml:space="preserve">2.19697618484497</t>
@@ -2948,10 +2948,10 @@
     <t xml:space="preserve">2.33653807640076</t>
   </si>
   <si>
-    <t xml:space="preserve">2.39506411552429</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.43108010292053</t>
+    <t xml:space="preserve">2.39506435394287</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.43108034133911</t>
   </si>
   <si>
     <t xml:space="preserve">2.40857005119324</t>
@@ -2996,28 +2996,28 @@
     <t xml:space="preserve">2.54363012313843</t>
   </si>
   <si>
-    <t xml:space="preserve">2.35904788970947</t>
+    <t xml:space="preserve">2.35904812812805</t>
   </si>
   <si>
     <t xml:space="preserve">2.32753419876099</t>
   </si>
   <si>
-    <t xml:space="preserve">2.38155817985535</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.3500440120697</t>
+    <t xml:space="preserve">2.38155794143677</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.35004425048828</t>
   </si>
   <si>
     <t xml:space="preserve">2.50761413574219</t>
   </si>
   <si>
-    <t xml:space="preserve">2.52562212944031</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.58865022659302</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.62016439437866</t>
+    <t xml:space="preserve">2.52562236785889</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.58864998817444</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.62016415596008</t>
   </si>
   <si>
     <t xml:space="preserve">2.54005122184753</t>
@@ -3420,6 +3420,9 @@
   </si>
   <si>
     <t xml:space="preserve">2.36999988555908</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.40000009536743</t>
   </si>
 </sst>
 </file>
@@ -60285,7 +60288,7 @@
     </row>
     <row r="2175">
       <c r="A2175" s="1" t="n">
-        <v>45490.6494560185</v>
+        <v>45490.2916666667</v>
       </c>
       <c r="B2175" t="n">
         <v>25548</v>
@@ -60306,6 +60309,32 @@
         <v>1132</v>
       </c>
       <c r="H2175" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2176">
+      <c r="A2176" s="1" t="n">
+        <v>45491.6493981481</v>
+      </c>
+      <c r="B2176" t="n">
+        <v>53346</v>
+      </c>
+      <c r="C2176" t="n">
+        <v>2.40499997138977</v>
+      </c>
+      <c r="D2176" t="n">
+        <v>2.36500000953674</v>
+      </c>
+      <c r="E2176" t="n">
+        <v>2.375</v>
+      </c>
+      <c r="F2176" t="n">
+        <v>2.40000009536743</v>
+      </c>
+      <c r="G2176" t="s">
+        <v>1136</v>
+      </c>
+      <c r="H2176" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/ASC.MI.xlsx
+++ b/data/ASC.MI.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1137" uniqueCount="1137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1138" uniqueCount="1138">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -38,7 +38,7 @@
     <t xml:space="preserve">ticker</t>
   </si>
   <si>
-    <t xml:space="preserve">1.31329596042633</t>
+    <t xml:space="preserve">1.31329572200775</t>
   </si>
   <si>
     <t xml:space="preserve">ASC.MI</t>
@@ -47,31 +47,31 @@
     <t xml:space="preserve">1.31448101997375</t>
   </si>
   <si>
-    <t xml:space="preserve">1.3026282787323</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.3038135766983</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.28959000110626</t>
+    <t xml:space="preserve">1.30262804031372</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.30381369590759</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.28959012031555</t>
   </si>
   <si>
     <t xml:space="preserve">1.28247833251953</t>
   </si>
   <si>
-    <t xml:space="preserve">1.30973982810974</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.28366351127625</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.26588428020477</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.22676980495453</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.23032557964325</t>
+    <t xml:space="preserve">1.30973994731903</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.28366363048553</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.26588451862335</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.22676992416382</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.23032581806183</t>
   </si>
   <si>
     <t xml:space="preserve">1.19121146202087</t>
@@ -80,31 +80,31 @@
     <t xml:space="preserve">1.21491706371307</t>
   </si>
   <si>
-    <t xml:space="preserve">1.29196059703827</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.28840470314026</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.28129291534424</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.30736947059631</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.31211054325104</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.29788708686829</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.23862278461456</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.244549036026</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.24336385726929</t>
+    <t xml:space="preserve">1.29196047782898</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.28840458393097</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.28129303455353</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.30736935138702</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.31211042404175</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.29788732528687</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.23862254619598</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.24454915523529</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.24336409568787</t>
   </si>
   <si>
     <t xml:space="preserve">1.22439932823181</t>
@@ -113,34 +113,34 @@
     <t xml:space="preserve">1.24099349975586</t>
   </si>
   <si>
-    <t xml:space="preserve">1.26469898223877</t>
+    <t xml:space="preserve">1.26469910144806</t>
   </si>
   <si>
     <t xml:space="preserve">1.26232850551605</t>
   </si>
   <si>
-    <t xml:space="preserve">1.26825511455536</t>
+    <t xml:space="preserve">1.26825499534607</t>
   </si>
   <si>
     <t xml:space="preserve">1.27062547206879</t>
   </si>
   <si>
-    <t xml:space="preserve">1.3251485824585</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.32159268856049</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.32396340370178</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.31685149669647</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.31922209262848</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.30618381500244</t>
+    <t xml:space="preserve">1.32514846324921</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.32159280776978</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.3239631652832</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.31685137748718</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.31922221183777</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.30618393421173</t>
   </si>
   <si>
     <t xml:space="preserve">1.31803691387177</t>
@@ -155,16 +155,16 @@
     <t xml:space="preserve">1.34648382663727</t>
   </si>
   <si>
-    <t xml:space="preserve">1.36070704460144</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.3583368062973</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.34766900539398</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.34292769432068</t>
+    <t xml:space="preserve">1.36070728302002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.35833644866943</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.34766888618469</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.34292793273926</t>
   </si>
   <si>
     <t xml:space="preserve">1.36189246177673</t>
@@ -173,16 +173,16 @@
     <t xml:space="preserve">1.34055721759796</t>
   </si>
   <si>
-    <t xml:space="preserve">1.35596597194672</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.35952186584473</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.36307740211487</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.34885442256927</t>
+    <t xml:space="preserve">1.35596609115601</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.35952174663544</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.36307764053345</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.34885430335999</t>
   </si>
   <si>
     <t xml:space="preserve">1.36426305770874</t>
@@ -194,55 +194,55 @@
     <t xml:space="preserve">1.38085699081421</t>
   </si>
   <si>
-    <t xml:space="preserve">1.38322758674622</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.38678336143494</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.39152455329895</t>
+    <t xml:space="preserve">1.38322770595551</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.38678348064423</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.39152467250824</t>
   </si>
   <si>
     <t xml:space="preserve">1.39863610267639</t>
   </si>
   <si>
-    <t xml:space="preserve">1.3784863948822</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.3796718120575</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.38204216957092</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.4021919965744</t>
+    <t xml:space="preserve">1.37848663330078</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.37967169284821</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.3820424079895</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.40219187736511</t>
   </si>
   <si>
     <t xml:space="preserve">1.410489320755</t>
   </si>
   <si>
-    <t xml:space="preserve">1.41760075092316</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.41523015499115</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.40456283092499</t>
+    <t xml:space="preserve">1.41760087013245</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.41523027420044</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.40456247329712</t>
   </si>
   <si>
     <t xml:space="preserve">1.39982151985168</t>
   </si>
   <si>
-    <t xml:space="preserve">1.43281137943268</t>
+    <t xml:space="preserve">1.4328111410141</t>
   </si>
   <si>
     <t xml:space="preserve">1.43027973175049</t>
   </si>
   <si>
-    <t xml:space="preserve">1.43407678604126</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.44926571846008</t>
+    <t xml:space="preserve">1.43407690525055</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.44926559925079</t>
   </si>
   <si>
     <t xml:space="preserve">1.46572005748749</t>
@@ -251,10 +251,10 @@
     <t xml:space="preserve">1.46192300319672</t>
   </si>
   <si>
-    <t xml:space="preserve">1.4758460521698</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.48344051837921</t>
+    <t xml:space="preserve">1.47584617137909</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.4834406375885</t>
   </si>
   <si>
     <t xml:space="preserve">1.48470616340637</t>
@@ -263,25 +263,25 @@
     <t xml:space="preserve">1.48976933956146</t>
   </si>
   <si>
-    <t xml:space="preserve">1.49483227729797</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.50242638587952</t>
+    <t xml:space="preserve">1.49483203887939</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.50242650508881</t>
   </si>
   <si>
     <t xml:space="preserve">1.53153836727142</t>
   </si>
   <si>
-    <t xml:space="preserve">1.5290070772171</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.54419600963593</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.55938446521759</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.58343350887299</t>
+    <t xml:space="preserve">1.52900695800781</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.54419589042664</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.55938470363617</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.58343362808228</t>
   </si>
   <si>
     <t xml:space="preserve">1.5454615354538</t>
@@ -290,25 +290,25 @@
     <t xml:space="preserve">1.55685293674469</t>
   </si>
   <si>
-    <t xml:space="preserve">1.53913271427155</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.58216798305511</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.65178322792053</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.65811157226562</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.64039158821106</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.56571352481842</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.55052423477173</t>
+    <t xml:space="preserve">1.53913247585297</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.58216786384583</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.65178310871124</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.65811169147491</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.64039146900177</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.56571328639984</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.5505245923996</t>
   </si>
   <si>
     <t xml:space="preserve">1.59862220287323</t>
@@ -317,13 +317,13 @@
     <t xml:space="preserve">1.64418864250183</t>
   </si>
   <si>
-    <t xml:space="preserve">1.58849632740021</t>
+    <t xml:space="preserve">1.5884964466095</t>
   </si>
   <si>
     <t xml:space="preserve">1.56318187713623</t>
   </si>
   <si>
-    <t xml:space="preserve">1.60495114326477</t>
+    <t xml:space="preserve">1.60495102405548</t>
   </si>
   <si>
     <t xml:space="preserve">1.63912582397461</t>
@@ -332,109 +332,109 @@
     <t xml:space="preserve">1.70874130725861</t>
   </si>
   <si>
-    <t xml:space="preserve">1.69481801986694</t>
+    <t xml:space="preserve">1.69481778144836</t>
   </si>
   <si>
     <t xml:space="preserve">1.63786017894745</t>
   </si>
   <si>
-    <t xml:space="preserve">1.69355225563049</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.70494413375854</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.70620977878571</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.76316797733307</t>
+    <t xml:space="preserve">1.69355237483978</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.70494401454926</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.70620954036713</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.7631676197052</t>
   </si>
   <si>
     <t xml:space="preserve">1.76823043823242</t>
   </si>
   <si>
-    <t xml:space="preserve">1.77076232433319</t>
+    <t xml:space="preserve">1.77076196670532</t>
   </si>
   <si>
     <t xml:space="preserve">1.73532176017761</t>
   </si>
   <si>
-    <t xml:space="preserve">1.73405599594116</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.77202785015106</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.7846851348877</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.75051057338715</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.74671316146851</t>
+    <t xml:space="preserve">1.73405575752258</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.77202773094177</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.78468537330627</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.75051069259644</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.74671339988708</t>
   </si>
   <si>
     <t xml:space="preserve">1.75304186344147</t>
   </si>
   <si>
-    <t xml:space="preserve">1.76443338394165</t>
+    <t xml:space="preserve">1.76443374156952</t>
   </si>
   <si>
     <t xml:space="preserve">1.80620276927948</t>
   </si>
   <si>
-    <t xml:space="preserve">1.84164357185364</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.80367147922516</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.83278322219849</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.82012593746185</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.79734241962433</t>
+    <t xml:space="preserve">1.84164321422577</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.80367124080658</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.83278298377991</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.82012581825256</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.79734253883362</t>
   </si>
   <si>
     <t xml:space="preserve">1.79607665538788</t>
   </si>
   <si>
-    <t xml:space="preserve">1.79354572296143</t>
+    <t xml:space="preserve">1.79354524612427</t>
   </si>
   <si>
     <t xml:space="preserve">1.81632840633392</t>
   </si>
   <si>
-    <t xml:space="preserve">1.82265758514404</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.81000006198883</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.82518887519836</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.8112655878067</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.70241248607635</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.71380400657654</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.78974831104279</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.74038469791412</t>
+    <t xml:space="preserve">1.8226569890976</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.80999958515167</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.82518875598907</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.81126546859741</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.70241236686707</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.71380412578583</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.7897481918335</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.74038434028625</t>
   </si>
   <si>
     <t xml:space="preserve">1.6555802822113</t>
   </si>
   <si>
-    <t xml:space="preserve">1.67583191394806</t>
+    <t xml:space="preserve">1.67583215236664</t>
   </si>
   <si>
     <t xml:space="preserve">1.64798605442047</t>
@@ -443,46 +443,46 @@
     <t xml:space="preserve">1.67456614971161</t>
   </si>
   <si>
-    <t xml:space="preserve">1.6606433391571</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.68722379207611</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.69861531257629</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.66444075107574</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.67709815502167</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.65684604644775</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.65937745571136</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.66190922260284</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.6846923828125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.69228649139404</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.69608390331268</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.7011467218399</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.66317462921143</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.68975508213043</t>
+    <t xml:space="preserve">1.66064321994781</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.68722355365753</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.69861543178558</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.66444063186646</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.6770977973938</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.65684616565704</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.65937757492065</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.66190898418427</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.68469214439392</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.69228637218475</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.69608378410339</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.70114696025848</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.66317474842072</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.68975532054901</t>
   </si>
   <si>
     <t xml:space="preserve">1.68595790863037</t>
@@ -491,13 +491,13 @@
     <t xml:space="preserve">1.67836356163025</t>
   </si>
   <si>
-    <t xml:space="preserve">1.63406276702881</t>
+    <t xml:space="preserve">1.63406312465668</t>
   </si>
   <si>
     <t xml:space="preserve">1.57710480690002</t>
   </si>
   <si>
-    <t xml:space="preserve">1.53406977653503</t>
+    <t xml:space="preserve">1.53406965732574</t>
   </si>
   <si>
     <t xml:space="preserve">1.53533565998077</t>
@@ -506,91 +506,91 @@
     <t xml:space="preserve">1.540398478508</t>
   </si>
   <si>
-    <t xml:space="preserve">1.52267813682556</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.60115385055542</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.63153159618378</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.6074823141098</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.57583916187286</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.53786718845367</t>
+    <t xml:space="preserve">1.52267825603485</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.60115361213684</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.63153123855591</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.60748243331909</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.57583892345428</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.5378669500351</t>
   </si>
   <si>
     <t xml:space="preserve">1.55558729171753</t>
   </si>
   <si>
-    <t xml:space="preserve">1.58723032474518</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.61381101608276</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.62899994850159</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.62393701076508</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.64545428752899</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.63659417629242</t>
+    <t xml:space="preserve">1.58723068237305</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.61381113529205</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.6289998292923</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.62393689155579</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.64545440673828</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.636594414711</t>
   </si>
   <si>
     <t xml:space="preserve">1.63026571273804</t>
   </si>
   <si>
-    <t xml:space="preserve">1.68089509010315</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.71000671386719</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.69988107681274</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.72139859199524</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.71760141849518</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.72393012046814</t>
+    <t xml:space="preserve">1.68089485168457</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.71000683307648</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.69988131523132</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.72139835357666</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.71760106086731</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.72392988204956</t>
   </si>
   <si>
     <t xml:space="preserve">1.73658728599548</t>
   </si>
   <si>
-    <t xml:space="preserve">1.7150696516037</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.72266435623169</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.73279011249542</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.75177597999573</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.76190173625946</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.75937056541443</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.73025858402252</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.81253159046173</t>
+    <t xml:space="preserve">1.71507000923157</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.72266399860382</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.73278999328613</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.75177621841431</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.76190185546875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.75937020778656</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.7302588224411</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.81253135204315</t>
   </si>
   <si>
     <t xml:space="preserve">1.80493700504303</t>
@@ -599,43 +599,43 @@
     <t xml:space="preserve">1.78848242759705</t>
   </si>
   <si>
-    <t xml:space="preserve">1.77709066867828</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.82139134407043</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.82772052288055</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.79481089115143</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.82898592948914</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.84037733078003</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.81379687786102</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.86695790290833</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.86062943935394</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.88594388961792</t>
+    <t xml:space="preserve">1.77709090709686</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.82139182090759</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.8277200460434</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.79481101036072</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.82898604869843</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.84037744998932</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.8137971162796</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.86695802211761</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.86062932014465</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.88594400882721</t>
   </si>
   <si>
     <t xml:space="preserve">1.91758728027344</t>
   </si>
   <si>
-    <t xml:space="preserve">1.93404185771942</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.95049655437469</t>
+    <t xml:space="preserve">1.934042096138</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.95049643516541</t>
   </si>
   <si>
     <t xml:space="preserve">1.95935642719269</t>
@@ -644,16 +644,16 @@
     <t xml:space="preserve">1.95555925369263</t>
   </si>
   <si>
-    <t xml:space="preserve">1.99732875823975</t>
+    <t xml:space="preserve">1.99732840061188</t>
   </si>
   <si>
     <t xml:space="preserve">1.98213982582092</t>
   </si>
   <si>
-    <t xml:space="preserve">2.03656649589539</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.06314659118652</t>
+    <t xml:space="preserve">2.03656625747681</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.0631468296051</t>
   </si>
   <si>
     <t xml:space="preserve">2.08339858055115</t>
@@ -662,34 +662,34 @@
     <t xml:space="preserve">2.10238456726074</t>
   </si>
   <si>
-    <t xml:space="preserve">2.06947565078735</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.07200717926025</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.11377596855164</t>
+    <t xml:space="preserve">2.06947541236877</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.07200694084167</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.11377573013306</t>
   </si>
   <si>
     <t xml:space="preserve">2.10871315002441</t>
   </si>
   <si>
-    <t xml:space="preserve">2.12516808509827</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.16440534591675</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.15174841880798</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.15681123733521</t>
+    <t xml:space="preserve">2.12516760826111</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.16440558433533</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.1517481803894</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.15681099891663</t>
   </si>
   <si>
     <t xml:space="preserve">2.19604873657227</t>
   </si>
   <si>
-    <t xml:space="preserve">2.20490884780884</t>
+    <t xml:space="preserve">2.20490908622742</t>
   </si>
   <si>
     <t xml:space="preserve">2.21883201599121</t>
@@ -701,19 +701,19 @@
     <t xml:space="preserve">2.23148941993713</t>
   </si>
   <si>
-    <t xml:space="preserve">2.21503472328186</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.24034953117371</t>
+    <t xml:space="preserve">2.21503496170044</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.24034929275513</t>
   </si>
   <si>
     <t xml:space="preserve">2.23275518417358</t>
   </si>
   <si>
-    <t xml:space="preserve">2.22895812988281</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.21376919746399</t>
+    <t xml:space="preserve">2.22895765304565</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.21376895904541</t>
   </si>
   <si>
     <t xml:space="preserve">2.22516059875488</t>
@@ -722,7 +722,7 @@
     <t xml:space="preserve">2.27452421188354</t>
   </si>
   <si>
-    <t xml:space="preserve">2.24288129806519</t>
+    <t xml:space="preserve">2.24288105964661</t>
   </si>
   <si>
     <t xml:space="preserve">2.23908400535583</t>
@@ -734,16 +734,16 @@
     <t xml:space="preserve">2.26946139335632</t>
   </si>
   <si>
-    <t xml:space="preserve">2.27325868606567</t>
+    <t xml:space="preserve">2.27325892448425</t>
   </si>
   <si>
     <t xml:space="preserve">2.29224467277527</t>
   </si>
   <si>
-    <t xml:space="preserve">2.34160804748535</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.34920239448547</t>
+    <t xml:space="preserve">2.34160828590393</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.34920263290405</t>
   </si>
   <si>
     <t xml:space="preserve">2.39350342750549</t>
@@ -752,16 +752,16 @@
     <t xml:space="preserve">2.42274117469788</t>
   </si>
   <si>
-    <t xml:space="preserve">2.4094512462616</t>
+    <t xml:space="preserve">2.40945100784302</t>
   </si>
   <si>
     <t xml:space="preserve">2.39616131782532</t>
   </si>
   <si>
-    <t xml:space="preserve">2.37755560874939</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.3164222240448</t>
+    <t xml:space="preserve">2.37755584716797</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.31642246246338</t>
   </si>
   <si>
     <t xml:space="preserve">2.31243515014648</t>
@@ -770,64 +770,61 @@
     <t xml:space="preserve">2.35230469703674</t>
   </si>
   <si>
-    <t xml:space="preserve">2.31376433372498</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.30047464370728</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.3655948638916</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.38154244422913</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.40014839172363</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.41476726531982</t>
+    <t xml:space="preserve">2.3137640953064</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.3004744052887</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.36559462547302</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.38154268264771</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.40014815330505</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.4147675037384</t>
   </si>
   <si>
     <t xml:space="preserve">2.43204426765442</t>
   </si>
   <si>
-    <t xml:space="preserve">2.41875386238098</t>
+    <t xml:space="preserve">2.41875433921814</t>
   </si>
   <si>
     <t xml:space="preserve">2.36293697357178</t>
   </si>
   <si>
-    <t xml:space="preserve">2.40147733688354</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.40812253952026</t>
+    <t xml:space="preserve">2.40147757530212</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.40812230110168</t>
   </si>
   <si>
     <t xml:space="preserve">2.4253990650177</t>
   </si>
   <si>
-    <t xml:space="preserve">2.43071508407593</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.40413546562195</t>
+    <t xml:space="preserve">2.43071532249451</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.40413522720337</t>
   </si>
   <si>
     <t xml:space="preserve">2.39217448234558</t>
   </si>
   <si>
-    <t xml:space="preserve">2.412109375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.41343832015991</t>
+    <t xml:space="preserve">2.41210913658142</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.41343808174133</t>
   </si>
   <si>
     <t xml:space="preserve">2.40679335594177</t>
   </si>
   <si>
-    <t xml:space="preserve">2.39350366592407</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.47058439254761</t>
+    <t xml:space="preserve">2.47058463096619</t>
   </si>
   <si>
     <t xml:space="preserve">2.38951635360718</t>
@@ -836,28 +833,28 @@
     <t xml:space="preserve">2.37489771842957</t>
   </si>
   <si>
-    <t xml:space="preserve">2.35762071609497</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.35894989967346</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.31509304046631</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.30579018592834</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.33104109764099</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.32173824310303</t>
+    <t xml:space="preserve">2.35762095451355</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.35895013809204</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.31509351730347</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.30579042434692</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.33104085922241</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.32173800468445</t>
   </si>
   <si>
     <t xml:space="preserve">2.3190803527832</t>
   </si>
   <si>
-    <t xml:space="preserve">2.32306742668152</t>
+    <t xml:space="preserve">2.32306718826294</t>
   </si>
   <si>
     <t xml:space="preserve">2.32838296890259</t>
@@ -866,16 +863,16 @@
     <t xml:space="preserve">2.30446147918701</t>
   </si>
   <si>
-    <t xml:space="preserve">2.26592087745667</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.25661754608154</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.27921080589294</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.29250025749207</t>
+    <t xml:space="preserve">2.26592111587524</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.25661826133728</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.27921056747437</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.29250049591064</t>
   </si>
   <si>
     <t xml:space="preserve">2.30180358886719</t>
@@ -896,7 +893,7 @@
     <t xml:space="preserve">2.35629200935364</t>
   </si>
   <si>
-    <t xml:space="preserve">2.33901524543762</t>
+    <t xml:space="preserve">2.33901500701904</t>
   </si>
   <si>
     <t xml:space="preserve">2.34034395217896</t>
@@ -908,55 +905,55 @@
     <t xml:space="preserve">2.35097599029541</t>
   </si>
   <si>
-    <t xml:space="preserve">2.30977749824524</t>
+    <t xml:space="preserve">2.30977725982666</t>
   </si>
   <si>
     <t xml:space="preserve">2.35496306419373</t>
   </si>
   <si>
-    <t xml:space="preserve">2.43470191955566</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.39881920814514</t>
+    <t xml:space="preserve">2.43470215797424</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.3988196849823</t>
   </si>
   <si>
     <t xml:space="preserve">2.42141222953796</t>
   </si>
   <si>
-    <t xml:space="preserve">2.34698891639709</t>
+    <t xml:space="preserve">2.34698915481567</t>
   </si>
   <si>
     <t xml:space="preserve">2.34831786155701</t>
   </si>
   <si>
-    <t xml:space="preserve">2.33502840995789</t>
+    <t xml:space="preserve">2.33502793312073</t>
   </si>
   <si>
     <t xml:space="preserve">2.3297119140625</t>
   </si>
   <si>
-    <t xml:space="preserve">2.39483261108398</t>
+    <t xml:space="preserve">2.39483284950256</t>
   </si>
   <si>
     <t xml:space="preserve">2.37223958969116</t>
   </si>
   <si>
-    <t xml:space="preserve">2.39749050140381</t>
+    <t xml:space="preserve">2.39749073982239</t>
   </si>
   <si>
     <t xml:space="preserve">2.36825251579285</t>
   </si>
   <si>
-    <t xml:space="preserve">2.41742491722107</t>
+    <t xml:space="preserve">2.41742515563965</t>
   </si>
   <si>
     <t xml:space="preserve">2.43603086471558</t>
   </si>
   <si>
-    <t xml:space="preserve">2.4719135761261</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.48254561424255</t>
+    <t xml:space="preserve">2.47191381454468</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.48254537582397</t>
   </si>
   <si>
     <t xml:space="preserve">2.5343759059906</t>
@@ -965,19 +962,19 @@
     <t xml:space="preserve">2.51311230659485</t>
   </si>
   <si>
-    <t xml:space="preserve">2.51178312301636</t>
+    <t xml:space="preserve">2.51178336143494</t>
   </si>
   <si>
     <t xml:space="preserve">2.54367899894714</t>
   </si>
   <si>
-    <t xml:space="preserve">2.45197916030884</t>
+    <t xml:space="preserve">2.45197892189026</t>
   </si>
   <si>
     <t xml:space="preserve">2.45729470252991</t>
   </si>
   <si>
-    <t xml:space="preserve">2.40546441078186</t>
+    <t xml:space="preserve">2.4054639339447</t>
   </si>
   <si>
     <t xml:space="preserve">2.42938590049744</t>
@@ -989,55 +986,55 @@
     <t xml:space="preserve">2.45862364768982</t>
   </si>
   <si>
-    <t xml:space="preserve">2.44134712219238</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.42672777175903</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.44932103157043</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.3788845539093</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.42872190475464</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.4453341960907</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.43868899345398</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.44201135635376</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.38220691680908</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.19282698631287</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.09979796409607</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.15960192680359</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.12969946861267</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.09315276145935</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.14631199836731</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.13634490966797</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.17289185523987</t>
+    <t xml:space="preserve">2.4413468837738</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.42672801017761</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.44932079315186</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.37888479232788</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.42872142791748</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.44533371925354</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.43868923187256</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.44201159477234</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.38220715522766</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.19282650947571</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.09979772567749</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.15960216522217</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.12969970703125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.09315252304077</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.14631223678589</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.13634467124939</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.17289161682129</t>
   </si>
   <si>
     <t xml:space="preserve">2.17953658103943</t>
@@ -1049,10 +1046,10 @@
     <t xml:space="preserve">2.10644245147705</t>
   </si>
   <si>
-    <t xml:space="preserve">2.08318519592285</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.07321786880493</t>
+    <t xml:space="preserve">2.08318543434143</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.07321763038635</t>
   </si>
   <si>
     <t xml:space="preserve">2.03334832191467</t>
@@ -1061,31 +1058,31 @@
     <t xml:space="preserve">2.06989550590515</t>
   </si>
   <si>
-    <t xml:space="preserve">2.07986307144165</t>
+    <t xml:space="preserve">2.07986283302307</t>
   </si>
   <si>
     <t xml:space="preserve">2.10311985015869</t>
   </si>
   <si>
-    <t xml:space="preserve">2.14298939704895</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.09647512435913</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.12637686729431</t>
+    <t xml:space="preserve">2.14298963546753</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.09647488594055</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.12637734413147</t>
   </si>
   <si>
     <t xml:space="preserve">2.13302230834961</t>
   </si>
   <si>
-    <t xml:space="preserve">2.18285942077637</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.16292428970337</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.11641001701355</t>
+    <t xml:space="preserve">2.18285918235779</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.16292452812195</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.11640977859497</t>
   </si>
   <si>
     <t xml:space="preserve">2.11973237991333</t>
@@ -1094,25 +1091,25 @@
     <t xml:space="preserve">2.15627956390381</t>
   </si>
   <si>
-    <t xml:space="preserve">2.16624689102173</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.19947123527527</t>
+    <t xml:space="preserve">2.16624712944031</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.19947147369385</t>
   </si>
   <si>
     <t xml:space="preserve">2.17621445655823</t>
   </si>
   <si>
-    <t xml:space="preserve">2.18618154525757</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.20943880081177</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.21276164054871</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.2592761516571</t>
+    <t xml:space="preserve">2.18618178367615</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.20943903923035</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.21276140213013</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.25927591323853</t>
   </si>
   <si>
     <t xml:space="preserve">2.34565997123718</t>
@@ -1121,37 +1118,37 @@
     <t xml:space="preserve">2.32904767990112</t>
   </si>
   <si>
-    <t xml:space="preserve">2.3465588092804</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.44279050827026</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.39837598800659</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.36876606941223</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.41318035125732</t>
+    <t xml:space="preserve">2.34655928611755</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.44279003143311</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.39837622642517</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.36876654624939</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.41318082809448</t>
   </si>
   <si>
     <t xml:space="preserve">2.3539617061615</t>
   </si>
   <si>
-    <t xml:space="preserve">2.31694960594177</t>
+    <t xml:space="preserve">2.31694936752319</t>
   </si>
   <si>
     <t xml:space="preserve">2.30584597587585</t>
   </si>
   <si>
-    <t xml:space="preserve">2.29844355583191</t>
+    <t xml:space="preserve">2.29844379425049</t>
   </si>
   <si>
     <t xml:space="preserve">2.29104113578796</t>
   </si>
   <si>
-    <t xml:space="preserve">2.27993726730347</t>
+    <t xml:space="preserve">2.27993774414062</t>
   </si>
   <si>
     <t xml:space="preserve">2.26143169403076</t>
@@ -1160,40 +1157,40 @@
     <t xml:space="preserve">2.22441959381104</t>
   </si>
   <si>
-    <t xml:space="preserve">2.1281886100769</t>
+    <t xml:space="preserve">2.12818837165833</t>
   </si>
   <si>
     <t xml:space="preserve">2.18370652198792</t>
   </si>
   <si>
-    <t xml:space="preserve">2.23182201385498</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.22071838378906</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.20591354370117</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.18000531196594</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.25773024559021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.26513266563416</t>
+    <t xml:space="preserve">2.23182225227356</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.22071862220764</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.20591378211975</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.18000507354736</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.25773048400879</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.26513290405273</t>
   </si>
   <si>
     <t xml:space="preserve">2.2022123336792</t>
   </si>
   <si>
-    <t xml:space="preserve">2.21331596374512</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.21701741218567</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.1614990234375</t>
+    <t xml:space="preserve">2.21331644058228</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.21701717376709</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.16149926185608</t>
   </si>
   <si>
     <t xml:space="preserve">2.26883411407471</t>
@@ -1202,16 +1199,16 @@
     <t xml:space="preserve">2.24662685394287</t>
   </si>
   <si>
-    <t xml:space="preserve">2.18740725517273</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.16890168190002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.15779829025269</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.13929200172424</t>
+    <t xml:space="preserve">2.18740749359131</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.1689019203186</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.15779805183411</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.13929224014282</t>
   </si>
   <si>
     <t xml:space="preserve">2.13559079170227</t>
@@ -1223,25 +1220,25 @@
     <t xml:space="preserve">2.12448716163635</t>
   </si>
   <si>
-    <t xml:space="preserve">2.14669442176819</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.11708498001099</t>
+    <t xml:space="preserve">2.14669489860535</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.11708474159241</t>
   </si>
   <si>
     <t xml:space="preserve">2.10968255996704</t>
   </si>
   <si>
-    <t xml:space="preserve">2.32435178756714</t>
+    <t xml:space="preserve">2.32435202598572</t>
   </si>
   <si>
     <t xml:space="preserve">2.33175444602966</t>
   </si>
   <si>
-    <t xml:space="preserve">2.3724672794342</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.62044787406921</t>
+    <t xml:space="preserve">2.37246751785278</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.62044763565063</t>
   </si>
   <si>
     <t xml:space="preserve">2.48350358009338</t>
@@ -1256,13 +1253,13 @@
     <t xml:space="preserve">2.42058300971985</t>
   </si>
   <si>
-    <t xml:space="preserve">2.40577816963196</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.36506485939026</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.32065057754517</t>
+    <t xml:space="preserve">2.40577864646912</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.36506509780884</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.32065081596375</t>
   </si>
   <si>
     <t xml:space="preserve">2.29474210739136</t>
@@ -1271,10 +1268,10 @@
     <t xml:space="preserve">2.2392246723175</t>
   </si>
   <si>
-    <t xml:space="preserve">2.30954718589783</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.27623629570007</t>
+    <t xml:space="preserve">2.30954694747925</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.27623677253723</t>
   </si>
   <si>
     <t xml:space="preserve">2.2836389541626</t>
@@ -1283,40 +1280,43 @@
     <t xml:space="preserve">2.30214476585388</t>
   </si>
   <si>
-    <t xml:space="preserve">2.3132483959198</t>
+    <t xml:space="preserve">2.31324815750122</t>
   </si>
   <si>
     <t xml:space="preserve">2.342857837677</t>
   </si>
   <si>
-    <t xml:space="preserve">2.33915686607361</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.33545565605164</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.2429256439209</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.17630434036255</t>
+    <t xml:space="preserve">2.33915662765503</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.33545541763306</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.34655952453613</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.24292540550232</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.17630410194397</t>
   </si>
   <si>
     <t xml:space="preserve">2.19110894203186</t>
   </si>
   <si>
-    <t xml:space="preserve">2.23552346229553</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.08747529983521</t>
+    <t xml:space="preserve">2.23552322387695</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.08747553825378</t>
   </si>
   <si>
     <t xml:space="preserve">2.15039587020874</t>
   </si>
   <si>
-    <t xml:space="preserve">2.15409708023071</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.25402903556824</t>
+    <t xml:space="preserve">2.15409684181213</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.25402927398682</t>
   </si>
   <si>
     <t xml:space="preserve">2.2725350856781</t>
@@ -1325,10 +1325,10 @@
     <t xml:space="preserve">2.25032782554626</t>
   </si>
   <si>
-    <t xml:space="preserve">2.22812056541443</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.40207719802856</t>
+    <t xml:space="preserve">2.22812080383301</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.40207695960999</t>
   </si>
   <si>
     <t xml:space="preserve">2.43168663978577</t>
@@ -1337,16 +1337,16 @@
     <t xml:space="preserve">2.3835711479187</t>
   </si>
   <si>
-    <t xml:space="preserve">2.35766267776489</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.37616896629333</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.37986993789673</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.4242844581604</t>
+    <t xml:space="preserve">2.35766243934631</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.37616872787476</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.37986969947815</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.42428421974182</t>
   </si>
   <si>
     <t xml:space="preserve">2.42798542976379</t>
@@ -1355,7 +1355,7 @@
     <t xml:space="preserve">2.44649124145508</t>
   </si>
   <si>
-    <t xml:space="preserve">2.45019245147705</t>
+    <t xml:space="preserve">2.45019268989563</t>
   </si>
   <si>
     <t xml:space="preserve">2.50200939178467</t>
@@ -1370,40 +1370,40 @@
     <t xml:space="preserve">2.51311302185059</t>
   </si>
   <si>
-    <t xml:space="preserve">2.4983081817627</t>
+    <t xml:space="preserve">2.49830842018127</t>
   </si>
   <si>
     <t xml:space="preserve">2.50571060180664</t>
   </si>
   <si>
-    <t xml:space="preserve">2.56122899055481</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.53161907196045</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.56863117218018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.52791810035706</t>
+    <t xml:space="preserve">2.56122851371765</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.53161931037903</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.5686309337616</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.52791786193848</t>
   </si>
   <si>
     <t xml:space="preserve">2.53902149200439</t>
   </si>
   <si>
-    <t xml:space="preserve">2.52051544189453</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.5242166519165</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.54272270202637</t>
+    <t xml:space="preserve">2.52051568031311</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.52421689033508</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.54272246360779</t>
   </si>
   <si>
     <t xml:space="preserve">2.55382609367371</t>
   </si>
   <si>
-    <t xml:space="preserve">2.57603359222412</t>
+    <t xml:space="preserve">2.57603335380554</t>
   </si>
   <si>
     <t xml:space="preserve">2.60194206237793</t>
@@ -1415,13 +1415,13 @@
     <t xml:space="preserve">2.57973456382751</t>
   </si>
   <si>
-    <t xml:space="preserve">2.62785053253174</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.64635610580444</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.64265489578247</t>
+    <t xml:space="preserve">2.62785029411316</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.64635634422302</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.64265513420105</t>
   </si>
   <si>
     <t xml:space="preserve">2.63895392417908</t>
@@ -1430,37 +1430,37 @@
     <t xml:space="preserve">2.65745973587036</t>
   </si>
   <si>
-    <t xml:space="preserve">2.67226433753967</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.71297740936279</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.72778272628784</t>
+    <t xml:space="preserve">2.67226457595825</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.71297764778137</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.72778248786926</t>
   </si>
   <si>
     <t xml:space="preserve">2.70187425613403</t>
   </si>
   <si>
-    <t xml:space="preserve">2.69077062606812</t>
+    <t xml:space="preserve">2.69077038764954</t>
   </si>
   <si>
     <t xml:space="preserve">2.74258732795715</t>
   </si>
   <si>
-    <t xml:space="preserve">2.75739192962646</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.82401347160339</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.8203125</t>
+    <t xml:space="preserve">2.75739169120789</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.82401371002197</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.82031226158142</t>
   </si>
   <si>
     <t xml:space="preserve">2.8499219417572</t>
   </si>
   <si>
-    <t xml:space="preserve">2.83881831169128</t>
+    <t xml:space="preserve">2.83881855010986</t>
   </si>
   <si>
     <t xml:space="preserve">3.02654099464417</t>
@@ -1469,7 +1469,7 @@
     <t xml:space="preserve">2.74035263061523</t>
   </si>
   <si>
-    <t xml:space="preserve">2.73643231391907</t>
+    <t xml:space="preserve">2.73643207550049</t>
   </si>
   <si>
     <t xml:space="preserve">2.68938755989075</t>
@@ -1481,10 +1481,10 @@
     <t xml:space="preserve">2.68154668807983</t>
   </si>
   <si>
-    <t xml:space="preserve">2.75603413581848</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.84228277206421</t>
+    <t xml:space="preserve">2.75603437423706</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.84228253364563</t>
   </si>
   <si>
     <t xml:space="preserve">2.79915833473206</t>
@@ -1493,61 +1493,61 @@
     <t xml:space="preserve">2.82268071174622</t>
   </si>
   <si>
-    <t xml:space="preserve">2.78347706794739</t>
+    <t xml:space="preserve">2.78347659111023</t>
   </si>
   <si>
     <t xml:space="preserve">2.7756359577179</t>
   </si>
   <si>
-    <t xml:space="preserve">2.76779508590698</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.79131770133972</t>
+    <t xml:space="preserve">2.76779532432556</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.79131746292114</t>
   </si>
   <si>
     <t xml:space="preserve">2.78739714622498</t>
   </si>
   <si>
-    <t xml:space="preserve">2.84620308876038</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.85796403884888</t>
+    <t xml:space="preserve">2.8462028503418</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.85796427726746</t>
   </si>
   <si>
     <t xml:space="preserve">2.82660102844238</t>
   </si>
   <si>
-    <t xml:space="preserve">2.8344419002533</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.85012340545654</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.86188459396362</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.87364554405212</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.99517774581909</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.92461061477661</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.95597410202026</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.97165536880493</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.94813323020935</t>
+    <t xml:space="preserve">2.83444166183472</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.85012316703796</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.8618848323822</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.8736457824707</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.99517750740051</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.92461085319519</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.95597386360168</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.97165560722351</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.94813299179077</t>
   </si>
   <si>
     <t xml:space="preserve">2.94029235839844</t>
   </si>
   <si>
-    <t xml:space="preserve">2.96381449699402</t>
+    <t xml:space="preserve">2.9638147354126</t>
   </si>
   <si>
     <t xml:space="preserve">2.95989441871643</t>
@@ -1562,25 +1562,25 @@
     <t xml:space="preserve">3.06966495513916</t>
   </si>
   <si>
-    <t xml:space="preserve">3.03830218315125</t>
+    <t xml:space="preserve">3.03830242156982</t>
   </si>
   <si>
     <t xml:space="preserve">3.07750606536865</t>
   </si>
   <si>
-    <t xml:space="preserve">3.13631176948547</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.15983414649963</t>
+    <t xml:space="preserve">3.13631200790405</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.15983438491821</t>
   </si>
   <si>
     <t xml:space="preserve">3.18335652351379</t>
   </si>
   <si>
-    <t xml:space="preserve">3.23824238777161</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.25000333786011</t>
+    <t xml:space="preserve">3.23824214935303</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.25000309944153</t>
   </si>
   <si>
     <t xml:space="preserve">3.2539234161377</t>
@@ -1595,13 +1595,13 @@
     <t xml:space="preserve">3.33233118057251</t>
   </si>
   <si>
-    <t xml:space="preserve">3.3127293586731</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.27744579315186</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.20687890052795</t>
+    <t xml:space="preserve">3.31272912025452</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.27744603157043</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.20687913894653</t>
   </si>
   <si>
     <t xml:space="preserve">3.22648072242737</t>
@@ -1613,34 +1613,34 @@
     <t xml:space="preserve">3.24216246604919</t>
   </si>
   <si>
-    <t xml:space="preserve">3.19119763374329</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.14023232460022</t>
+    <t xml:space="preserve">3.19119739532471</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.1402325630188</t>
   </si>
   <si>
     <t xml:space="preserve">3.12847137451172</t>
   </si>
   <si>
-    <t xml:space="preserve">3.1167094707489</t>
+    <t xml:space="preserve">3.11670994758606</t>
   </si>
   <si>
     <t xml:space="preserve">3.05006337165833</t>
   </si>
   <si>
-    <t xml:space="preserve">3.05398368835449</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.21864032745361</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.21471953392029</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.16375422477722</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.14807319641113</t>
+    <t xml:space="preserve">3.05398392677307</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.21864008903503</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.21471977233887</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.1637544631958</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.14807295799255</t>
   </si>
   <si>
     <t xml:space="preserve">3.04222273826599</t>
@@ -1652,13 +1652,13 @@
     <t xml:space="preserve">3.12455081939697</t>
   </si>
   <si>
-    <t xml:space="preserve">3.08534693717957</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.08926725387573</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.11278939247131</t>
+    <t xml:space="preserve">3.08534669876099</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.08926749229431</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.11278963088989</t>
   </si>
   <si>
     <t xml:space="preserve">3.10102844238281</t>
@@ -1667,22 +1667,22 @@
     <t xml:space="preserve">2.98341679573059</t>
   </si>
   <si>
-    <t xml:space="preserve">2.88148641586304</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.93637204170227</t>
+    <t xml:space="preserve">2.88148665428162</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.93637180328369</t>
   </si>
   <si>
     <t xml:space="preserve">2.97557616233826</t>
   </si>
   <si>
-    <t xml:space="preserve">2.98733711242676</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.97949647903442</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.99909830093384</t>
+    <t xml:space="preserve">2.98733687400818</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.979496717453</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.99909806251526</t>
   </si>
   <si>
     <t xml:space="preserve">3.00301861763</t>
@@ -1691,34 +1691,34 @@
     <t xml:space="preserve">3.05790424346924</t>
   </si>
   <si>
-    <t xml:space="preserve">3.0343816280365</t>
+    <t xml:space="preserve">3.03438186645508</t>
   </si>
   <si>
     <t xml:space="preserve">3.06574487686157</t>
   </si>
   <si>
-    <t xml:space="preserve">3.04614305496216</t>
+    <t xml:space="preserve">3.04614281654358</t>
   </si>
   <si>
     <t xml:space="preserve">3.03046154975891</t>
   </si>
   <si>
-    <t xml:space="preserve">2.93245196342468</t>
+    <t xml:space="preserve">2.93245148658752</t>
   </si>
   <si>
     <t xml:space="preserve">2.91284966468811</t>
   </si>
   <si>
-    <t xml:space="preserve">2.90108823776245</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.94421291351318</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.89324808120728</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.01870012283325</t>
+    <t xml:space="preserve">2.90108847618103</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.9442126750946</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.8932478427887</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.01869988441467</t>
   </si>
   <si>
     <t xml:space="preserve">3.1519935131073</t>
@@ -1727,7 +1727,7 @@
     <t xml:space="preserve">3.17551612854004</t>
   </si>
   <si>
-    <t xml:space="preserve">3.09710812568665</t>
+    <t xml:space="preserve">3.09710788726807</t>
   </si>
   <si>
     <t xml:space="preserve">3.10886907577515</t>
@@ -1739,10 +1739,10 @@
     <t xml:space="preserve">3.01085925102234</t>
   </si>
   <si>
-    <t xml:space="preserve">2.91676998138428</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.95205354690552</t>
+    <t xml:space="preserve">2.91677021980286</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.9520537853241</t>
   </si>
   <si>
     <t xml:space="preserve">2.99125742912292</t>
@@ -1751,13 +1751,13 @@
     <t xml:space="preserve">3.13239145278931</t>
   </si>
   <si>
-    <t xml:space="preserve">3.46562480926514</t>
+    <t xml:space="preserve">3.46562433242798</t>
   </si>
   <si>
     <t xml:space="preserve">3.54795289039612</t>
   </si>
   <si>
-    <t xml:space="preserve">3.48522663116455</t>
+    <t xml:space="preserve">3.48522686958313</t>
   </si>
   <si>
     <t xml:space="preserve">3.58323669433594</t>
@@ -1769,70 +1769,70 @@
     <t xml:space="preserve">3.5871570110321</t>
   </si>
   <si>
-    <t xml:space="preserve">3.61459946632385</t>
+    <t xml:space="preserve">3.61459970474243</t>
   </si>
   <si>
     <t xml:space="preserve">3.51658964157104</t>
   </si>
   <si>
-    <t xml:space="preserve">3.42250037193298</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.39505743980408</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.37937617301941</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.43818211555481</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.48130631446838</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.45386338233948</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.28920722007751</t>
+    <t xml:space="preserve">3.42249989509583</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.39505767822266</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.37937593460083</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.43818235397339</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.48130583763123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.45386385917664</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.28920745849609</t>
   </si>
   <si>
     <t xml:space="preserve">3.26176428794861</t>
   </si>
   <si>
-    <t xml:space="preserve">3.21079897880554</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.0814266204834</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.26568460464478</t>
+    <t xml:space="preserve">3.21079921722412</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.08142638206482</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.26568484306335</t>
   </si>
   <si>
     <t xml:space="preserve">3.23432159423828</t>
   </si>
   <si>
-    <t xml:space="preserve">3.19511795043945</t>
+    <t xml:space="preserve">3.19511747360229</t>
   </si>
   <si>
     <t xml:space="preserve">2.69722819328308</t>
   </si>
   <si>
-    <t xml:space="preserve">2.13269233703613</t>
+    <t xml:space="preserve">2.13269209861755</t>
   </si>
   <si>
     <t xml:space="preserve">2.36399507522583</t>
   </si>
   <si>
-    <t xml:space="preserve">2.45024371147156</t>
+    <t xml:space="preserve">2.45024347305298</t>
   </si>
   <si>
     <t xml:space="preserve">2.49336814880371</t>
   </si>
   <si>
-    <t xml:space="preserve">2.50512886047363</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.55217361450195</t>
+    <t xml:space="preserve">2.50512909889221</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.55217385292053</t>
   </si>
   <si>
     <t xml:space="preserve">2.61882019042969</t>
@@ -1847,10 +1847,10 @@
     <t xml:space="preserve">2.58353710174561</t>
   </si>
   <si>
-    <t xml:space="preserve">2.5443332195282</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.51689052581787</t>
+    <t xml:space="preserve">2.54433298110962</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.51689028739929</t>
   </si>
   <si>
     <t xml:space="preserve">2.63842248916626</t>
@@ -1859,7 +1859,7 @@
     <t xml:space="preserve">2.4972882270813</t>
   </si>
   <si>
-    <t xml:space="preserve">2.5090491771698</t>
+    <t xml:space="preserve">2.50904965400696</t>
   </si>
   <si>
     <t xml:space="preserve">2.46984577178955</t>
@@ -1868,10 +1868,10 @@
     <t xml:space="preserve">2.51296973228455</t>
   </si>
   <si>
-    <t xml:space="preserve">2.53257179260254</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.54041290283203</t>
+    <t xml:space="preserve">2.53257203102112</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.54041266441345</t>
   </si>
   <si>
     <t xml:space="preserve">2.52865123748779</t>
@@ -1880,22 +1880,22 @@
     <t xml:space="preserve">2.54825329780579</t>
   </si>
   <si>
-    <t xml:space="preserve">2.52473115921021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.57177567481995</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.58745765686035</t>
+    <t xml:space="preserve">2.52473092079163</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.57177591323853</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.58745741844177</t>
   </si>
   <si>
     <t xml:space="preserve">2.64234280586243</t>
   </si>
   <si>
-    <t xml:space="preserve">2.61097979545593</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.65018343925476</t>
+    <t xml:space="preserve">2.61097955703735</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.65018367767334</t>
   </si>
   <si>
     <t xml:space="preserve">2.62274074554443</t>
@@ -1913,7 +1913,7 @@
     <t xml:space="preserve">3.30880856513977</t>
   </si>
   <si>
-    <t xml:space="preserve">3.44994330406189</t>
+    <t xml:space="preserve">3.44994354248047</t>
   </si>
   <si>
     <t xml:space="preserve">3.43426179885864</t>
@@ -1922,22 +1922,22 @@
     <t xml:space="preserve">3.50704002380371</t>
   </si>
   <si>
-    <t xml:space="preserve">3.32983303070068</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.25565385818481</t>
+    <t xml:space="preserve">3.32983326911926</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.25565361976624</t>
   </si>
   <si>
     <t xml:space="preserve">3.14438462257385</t>
   </si>
   <si>
-    <t xml:space="preserve">3.14026355743408</t>
+    <t xml:space="preserve">3.1402633190155</t>
   </si>
   <si>
     <t xml:space="preserve">3.21444320678711</t>
   </si>
   <si>
-    <t xml:space="preserve">3.24741172790527</t>
+    <t xml:space="preserve">3.24741196632385</t>
   </si>
   <si>
     <t xml:space="preserve">3.19383764266968</t>
@@ -1955,10 +1955,10 @@
     <t xml:space="preserve">3.11141610145569</t>
   </si>
   <si>
-    <t xml:space="preserve">3.06196284294128</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.08256840705872</t>
+    <t xml:space="preserve">3.06196308135986</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.08256816864014</t>
   </si>
   <si>
     <t xml:space="preserve">3.09081053733826</t>
@@ -1967,7 +1967,7 @@
     <t xml:space="preserve">3.11965823173523</t>
   </si>
   <si>
-    <t xml:space="preserve">3.08668947219849</t>
+    <t xml:space="preserve">3.08668923377991</t>
   </si>
   <si>
     <t xml:space="preserve">3.05784201622009</t>
@@ -1982,10 +1982,10 @@
     <t xml:space="preserve">2.94245147705078</t>
   </si>
   <si>
-    <t xml:space="preserve">2.91360402107239</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.93008852005005</t>
+    <t xml:space="preserve">2.91360425949097</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.93008828163147</t>
   </si>
   <si>
     <t xml:space="preserve">2.91772508621216</t>
@@ -1994,10 +1994,10 @@
     <t xml:space="preserve">2.90124082565308</t>
   </si>
   <si>
-    <t xml:space="preserve">2.90536189079285</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.86827230453491</t>
+    <t xml:space="preserve">2.90536212921143</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.86827206611633</t>
   </si>
   <si>
     <t xml:space="preserve">2.78997159004211</t>
@@ -2009,7 +2009,7 @@
     <t xml:space="preserve">2.87651443481445</t>
   </si>
   <si>
-    <t xml:space="preserve">2.89299845695496</t>
+    <t xml:space="preserve">2.89299869537354</t>
   </si>
   <si>
     <t xml:space="preserve">2.80233502388</t>
@@ -2024,13 +2024,13 @@
     <t xml:space="preserve">2.7528817653656</t>
   </si>
   <si>
-    <t xml:space="preserve">2.7116711139679</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.73227643966675</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.82706165313721</t>
+    <t xml:space="preserve">2.71167087554932</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.73227667808533</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.82706141471863</t>
   </si>
   <si>
     <t xml:space="preserve">2.8723931312561</t>
@@ -2042,10 +2042,10 @@
     <t xml:space="preserve">2.81469798088074</t>
   </si>
   <si>
-    <t xml:space="preserve">2.81057715415955</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.76524543762207</t>
+    <t xml:space="preserve">2.81057691574097</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.76524519920349</t>
   </si>
   <si>
     <t xml:space="preserve">2.79409289360046</t>
@@ -2054,7 +2054,7 @@
     <t xml:space="preserve">2.78172945976257</t>
   </si>
   <si>
-    <t xml:space="preserve">2.78585052490234</t>
+    <t xml:space="preserve">2.78585076332092</t>
   </si>
   <si>
     <t xml:space="preserve">2.70342898368835</t>
@@ -2063,10 +2063,10 @@
     <t xml:space="preserve">2.70755004882812</t>
   </si>
   <si>
-    <t xml:space="preserve">2.75700283050537</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.77348732948303</t>
+    <t xml:space="preserve">2.75700306892395</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.77348756790161</t>
   </si>
   <si>
     <t xml:space="preserve">2.74876093864441</t>
@@ -2078,25 +2078,25 @@
     <t xml:space="preserve">2.72403454780579</t>
   </si>
   <si>
-    <t xml:space="preserve">2.7776083946228</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.88475632667542</t>
+    <t xml:space="preserve">2.77760815620422</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.88475656509399</t>
   </si>
   <si>
     <t xml:space="preserve">2.64573383331299</t>
   </si>
   <si>
-    <t xml:space="preserve">2.64985489845276</t>
+    <t xml:space="preserve">2.64985466003418</t>
   </si>
   <si>
     <t xml:space="preserve">2.66221833229065</t>
   </si>
   <si>
-    <t xml:space="preserve">2.60864424705505</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.6333703994751</t>
+    <t xml:space="preserve">2.6086437702179</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.63337063789368</t>
   </si>
   <si>
     <t xml:space="preserve">2.62100744247437</t>
@@ -2108,13 +2108,13 @@
     <t xml:space="preserve">2.59215974807739</t>
   </si>
   <si>
-    <t xml:space="preserve">2.6045229434967</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.62924981117249</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.64161276817322</t>
+    <t xml:space="preserve">2.60452318191528</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.62924957275391</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.64161252975464</t>
   </si>
   <si>
     <t xml:space="preserve">2.61276531219482</t>
@@ -2126,7 +2126,7 @@
     <t xml:space="preserve">2.59628081321716</t>
   </si>
   <si>
-    <t xml:space="preserve">2.51798033714294</t>
+    <t xml:space="preserve">2.51798057556152</t>
   </si>
   <si>
     <t xml:space="preserve">2.49737477302551</t>
@@ -2138,13 +2138,13 @@
     <t xml:space="preserve">2.51385927200317</t>
   </si>
   <si>
-    <t xml:space="preserve">2.48913264274597</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.50561714172363</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.46852707862854</t>
+    <t xml:space="preserve">2.48913288116455</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.50561738014221</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.46852731704712</t>
   </si>
   <si>
     <t xml:space="preserve">2.5097382068634</t>
@@ -2153,46 +2153,46 @@
     <t xml:space="preserve">2.40671133995056</t>
   </si>
   <si>
-    <t xml:space="preserve">2.42319560050964</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.45204281806946</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.44792175292969</t>
+    <t xml:space="preserve">2.42319536209106</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.45204305648804</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.44792199134827</t>
   </si>
   <si>
     <t xml:space="preserve">2.47676944732666</t>
   </si>
   <si>
-    <t xml:space="preserve">2.69518685340881</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.74051880836487</t>
+    <t xml:space="preserve">2.69518661499023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.74051904678345</t>
   </si>
   <si>
     <t xml:space="preserve">2.86415076255798</t>
   </si>
   <si>
-    <t xml:space="preserve">2.88887786865234</t>
+    <t xml:space="preserve">2.88887763023376</t>
   </si>
   <si>
     <t xml:space="preserve">2.89711999893188</t>
   </si>
   <si>
-    <t xml:space="preserve">2.84766697883606</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.84354567527771</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.81881952285767</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.83530330657959</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.8311824798584</t>
+    <t xml:space="preserve">2.84766674041748</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.84354591369629</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.81881928443909</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.83530354499817</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.83118224143982</t>
   </si>
   <si>
     <t xml:space="preserve">3.03311538696289</t>
@@ -2201,16 +2201,16 @@
     <t xml:space="preserve">3.01663112640381</t>
   </si>
   <si>
-    <t xml:space="preserve">2.99602580070496</t>
+    <t xml:space="preserve">2.99602556228638</t>
   </si>
   <si>
     <t xml:space="preserve">3.02487373352051</t>
   </si>
   <si>
-    <t xml:space="preserve">3.00838899612427</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.05372071266174</t>
+    <t xml:space="preserve">3.00838923454285</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.05372095108032</t>
   </si>
   <si>
     <t xml:space="preserve">3.06608414649963</t>
@@ -2225,7 +2225,7 @@
     <t xml:space="preserve">3.10729503631592</t>
   </si>
   <si>
-    <t xml:space="preserve">2.9754204750061</t>
+    <t xml:space="preserve">2.97542023658752</t>
   </si>
   <si>
     <t xml:space="preserve">2.96717810630798</t>
@@ -2234,19 +2234,19 @@
     <t xml:space="preserve">2.98366236686707</t>
   </si>
   <si>
-    <t xml:space="preserve">2.95481491088867</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.98778367042542</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.020751953125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.07844734191895</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.04547882080078</t>
+    <t xml:space="preserve">2.95481514930725</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.98778343200684</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.02075219154358</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.07844758033752</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.0454785823822</t>
   </si>
   <si>
     <t xml:space="preserve">3.04959964752197</t>
@@ -2255,13 +2255,13 @@
     <t xml:space="preserve">3.03723645210266</t>
   </si>
   <si>
-    <t xml:space="preserve">3.0990526676178</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.09493160247803</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.01251006126404</t>
+    <t xml:space="preserve">3.09905242919922</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.09493184089661</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.01250982284546</t>
   </si>
   <si>
     <t xml:space="preserve">2.96305704116821</t>
@@ -2273,13 +2273,13 @@
     <t xml:space="preserve">3.07020497322083</t>
   </si>
   <si>
-    <t xml:space="preserve">3.14850568771362</t>
+    <t xml:space="preserve">3.14850544929504</t>
   </si>
   <si>
     <t xml:space="preserve">3.16086912155151</t>
   </si>
   <si>
-    <t xml:space="preserve">3.16911125183105</t>
+    <t xml:space="preserve">3.16911101341248</t>
   </si>
   <si>
     <t xml:space="preserve">3.18559551239014</t>
@@ -2297,7 +2297,7 @@
     <t xml:space="preserve">3.12790036201477</t>
   </si>
   <si>
-    <t xml:space="preserve">3.22268533706665</t>
+    <t xml:space="preserve">3.22268509864807</t>
   </si>
   <si>
     <t xml:space="preserve">3.19795870780945</t>
@@ -2315,7 +2315,7 @@
     <t xml:space="preserve">3.18971657752991</t>
   </si>
   <si>
-    <t xml:space="preserve">3.23916935920715</t>
+    <t xml:space="preserve">3.23916959762573</t>
   </si>
   <si>
     <t xml:space="preserve">3.27625918388367</t>
@@ -2324,16 +2324,16 @@
     <t xml:space="preserve">3.25153255462646</t>
   </si>
   <si>
-    <t xml:space="preserve">3.36280202865601</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.35868048667908</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.34631752967834</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.30510711669922</t>
+    <t xml:space="preserve">3.36280179023743</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.35868072509766</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.34631776809692</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.30510687828064</t>
   </si>
   <si>
     <t xml:space="preserve">3.34219646453857</t>
@@ -2345,13 +2345,13 @@
     <t xml:space="preserve">3.25209856033325</t>
   </si>
   <si>
-    <t xml:space="preserve">3.20919513702393</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.22635650634766</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.27784085273743</t>
+    <t xml:space="preserve">3.20919489860535</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.22635626792908</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.27784061431885</t>
   </si>
   <si>
     <t xml:space="preserve">3.23493719100952</t>
@@ -2366,10 +2366,10 @@
     <t xml:space="preserve">3.21777558326721</t>
   </si>
   <si>
-    <t xml:space="preserve">3.15771079063416</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.17487215995789</t>
+    <t xml:space="preserve">3.15771055221558</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.17487192153931</t>
   </si>
   <si>
     <t xml:space="preserve">3.17916250228882</t>
@@ -2396,16 +2396,16 @@
     <t xml:space="preserve">3.23064708709717</t>
   </si>
   <si>
-    <t xml:space="preserve">3.2220664024353</t>
+    <t xml:space="preserve">3.22206616401672</t>
   </si>
   <si>
     <t xml:space="preserve">3.12767815589905</t>
   </si>
   <si>
-    <t xml:space="preserve">3.13625860214233</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.10622620582581</t>
+    <t xml:space="preserve">3.13625884056091</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.10622596740723</t>
   </si>
   <si>
     <t xml:space="preserve">3.07619380950928</t>
@@ -2417,13 +2417,13 @@
     <t xml:space="preserve">3.04187083244324</t>
   </si>
   <si>
-    <t xml:space="preserve">3.03758001327515</t>
+    <t xml:space="preserve">3.03758025169373</t>
   </si>
   <si>
     <t xml:space="preserve">3.0504515171051</t>
   </si>
   <si>
-    <t xml:space="preserve">3.04616117477417</t>
+    <t xml:space="preserve">3.04616093635559</t>
   </si>
   <si>
     <t xml:space="preserve">3.02899956703186</t>
@@ -2453,19 +2453,19 @@
     <t xml:space="preserve">2.92174029350281</t>
   </si>
   <si>
-    <t xml:space="preserve">2.93890166282654</t>
+    <t xml:space="preserve">2.93890190124512</t>
   </si>
   <si>
     <t xml:space="preserve">3.00325727462769</t>
   </si>
   <si>
-    <t xml:space="preserve">3.03328990936279</t>
+    <t xml:space="preserve">3.03329014778137</t>
   </si>
   <si>
     <t xml:space="preserve">3.02041888237</t>
   </si>
   <si>
-    <t xml:space="preserve">3.01612854003906</t>
+    <t xml:space="preserve">3.01612877845764</t>
   </si>
   <si>
     <t xml:space="preserve">3.01183795928955</t>
@@ -2495,7 +2495,7 @@
     <t xml:space="preserve">3.11051654815674</t>
   </si>
   <si>
-    <t xml:space="preserve">3.08477425575256</t>
+    <t xml:space="preserve">3.08477449417114</t>
   </si>
   <si>
     <t xml:space="preserve">3.07190322875977</t>
@@ -2504,7 +2504,7 @@
     <t xml:space="preserve">3.02470946311951</t>
   </si>
   <si>
-    <t xml:space="preserve">2.96464395523071</t>
+    <t xml:space="preserve">2.96464419364929</t>
   </si>
   <si>
     <t xml:space="preserve">2.94748258590698</t>
@@ -2516,7 +2516,7 @@
     <t xml:space="preserve">2.95606327056885</t>
   </si>
   <si>
-    <t xml:space="preserve">2.9946768283844</t>
+    <t xml:space="preserve">2.99467658996582</t>
   </si>
   <si>
     <t xml:space="preserve">2.98609566688538</t>
@@ -2537,16 +2537,16 @@
     <t xml:space="preserve">2.93032097816467</t>
   </si>
   <si>
-    <t xml:space="preserve">2.9045786857605</t>
+    <t xml:space="preserve">2.90457892417908</t>
   </si>
   <si>
     <t xml:space="preserve">2.97751522064209</t>
   </si>
   <si>
-    <t xml:space="preserve">2.92603087425232</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.94319248199463</t>
+    <t xml:space="preserve">2.92603063583374</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.94319224357605</t>
   </si>
   <si>
     <t xml:space="preserve">2.97322487831116</t>
@@ -2558,10 +2558,10 @@
     <t xml:space="preserve">2.7973198890686</t>
   </si>
   <si>
-    <t xml:space="preserve">2.91315960884094</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.89170789718628</t>
+    <t xml:space="preserve">2.91315984725952</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.8917076587677</t>
   </si>
   <si>
     <t xml:space="preserve">2.82306170463562</t>
@@ -2570,13 +2570,13 @@
     <t xml:space="preserve">2.77157759666443</t>
   </si>
   <si>
-    <t xml:space="preserve">2.80161023139954</t>
+    <t xml:space="preserve">2.80161046981812</t>
   </si>
   <si>
     <t xml:space="preserve">2.90028858184814</t>
   </si>
   <si>
-    <t xml:space="preserve">2.87454628944397</t>
+    <t xml:space="preserve">2.87454605102539</t>
   </si>
   <si>
     <t xml:space="preserve">2.83164262771606</t>
@@ -2600,7 +2600,7 @@
     <t xml:space="preserve">3.1108820438385</t>
   </si>
   <si>
-    <t xml:space="preserve">3.07936811447144</t>
+    <t xml:space="preserve">3.07936835289001</t>
   </si>
   <si>
     <t xml:space="preserve">3.02984619140625</t>
@@ -2609,22 +2609,22 @@
     <t xml:space="preserve">2.98932814598083</t>
   </si>
   <si>
-    <t xml:space="preserve">2.96681833267212</t>
+    <t xml:space="preserve">2.96681809425354</t>
   </si>
   <si>
     <t xml:space="preserve">3.03434801101685</t>
   </si>
   <si>
-    <t xml:space="preserve">2.98482632637024</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.96231627464294</t>
+    <t xml:space="preserve">2.98482608795166</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.96231603622437</t>
   </si>
   <si>
     <t xml:space="preserve">2.93980622291565</t>
   </si>
   <si>
-    <t xml:space="preserve">2.93080234527588</t>
+    <t xml:space="preserve">2.9308021068573</t>
   </si>
   <si>
     <t xml:space="preserve">2.95781421661377</t>
@@ -2639,7 +2639,7 @@
     <t xml:space="preserve">3.01634001731873</t>
   </si>
   <si>
-    <t xml:space="preserve">2.99833226203918</t>
+    <t xml:space="preserve">2.99833202362061</t>
   </si>
   <si>
     <t xml:space="preserve">3.04335236549377</t>
@@ -2654,13 +2654,13 @@
     <t xml:space="preserve">2.82725620269775</t>
   </si>
   <si>
-    <t xml:space="preserve">2.78673815727234</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.88128042221069</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.82275414466858</t>
+    <t xml:space="preserve">2.78673839569092</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.88128018379211</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.82275438308716</t>
   </si>
   <si>
     <t xml:space="preserve">2.77323222160339</t>
@@ -2672,22 +2672,22 @@
     <t xml:space="preserve">2.66968607902527</t>
   </si>
   <si>
-    <t xml:space="preserve">2.65618014335632</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.70120000839233</t>
+    <t xml:space="preserve">2.6561803817749</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.70120024681091</t>
   </si>
   <si>
     <t xml:space="preserve">2.71920824050903</t>
   </si>
   <si>
-    <t xml:space="preserve">2.59765434265137</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.62916803359985</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.63367033004761</t>
+    <t xml:space="preserve">2.59765410423279</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.62916827201843</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.63367009162903</t>
   </si>
   <si>
     <t xml:space="preserve">2.53912806510925</t>
@@ -2696,7 +2696,7 @@
     <t xml:space="preserve">2.56614017486572</t>
   </si>
   <si>
-    <t xml:space="preserve">2.54813194274902</t>
+    <t xml:space="preserve">2.5481321811676</t>
   </si>
   <si>
     <t xml:space="preserve">2.60665822029114</t>
@@ -2717,7 +2717,7 @@
     <t xml:space="preserve">2.42207622528076</t>
   </si>
   <si>
-    <t xml:space="preserve">2.41757392883301</t>
+    <t xml:space="preserve">2.41757416725159</t>
   </si>
   <si>
     <t xml:space="preserve">2.38606023788452</t>
@@ -2765,10 +2765,10 @@
     <t xml:space="preserve">2.44908809661865</t>
   </si>
   <si>
-    <t xml:space="preserve">2.3905622959137</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.32303214073181</t>
+    <t xml:space="preserve">2.39056205749512</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.32303190231323</t>
   </si>
   <si>
     <t xml:space="preserve">2.20598006248474</t>
@@ -2777,16 +2777,16 @@
     <t xml:space="preserve">2.23299217224121</t>
   </si>
   <si>
-    <t xml:space="preserve">2.16096019744873</t>
+    <t xml:space="preserve">2.16096043586731</t>
   </si>
   <si>
     <t xml:space="preserve">2.21948599815369</t>
   </si>
   <si>
-    <t xml:space="preserve">2.20147800445557</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.22398829460144</t>
+    <t xml:space="preserve">2.20147824287415</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.22398805618286</t>
   </si>
   <si>
     <t xml:space="preserve">2.24199604988098</t>
@@ -2798,7 +2798,7 @@
     <t xml:space="preserve">2.27351021766663</t>
   </si>
   <si>
-    <t xml:space="preserve">2.24649810791016</t>
+    <t xml:space="preserve">2.24649786949158</t>
   </si>
   <si>
     <t xml:space="preserve">2.21498417854309</t>
@@ -2810,16 +2810,16 @@
     <t xml:space="preserve">2.12044215202332</t>
   </si>
   <si>
-    <t xml:space="preserve">1.97187626361847</t>
+    <t xml:space="preserve">1.97187614440918</t>
   </si>
   <si>
     <t xml:space="preserve">2.03490424156189</t>
   </si>
   <si>
-    <t xml:space="preserve">1.98088014125824</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.944864153862</t>
+    <t xml:space="preserve">1.98088026046753</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.94486427307129</t>
   </si>
   <si>
     <t xml:space="preserve">1.89984405040741</t>
@@ -2837,28 +2837,28 @@
     <t xml:space="preserve">1.78279209136963</t>
   </si>
   <si>
-    <t xml:space="preserve">1.75758099555969</t>
+    <t xml:space="preserve">1.7575808763504</t>
   </si>
   <si>
     <t xml:space="preserve">1.72156488895416</t>
   </si>
   <si>
-    <t xml:space="preserve">1.7017560005188</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.73777198791504</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.8098042011261</t>
+    <t xml:space="preserve">1.70175611972809</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.73777210712433</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.80980408191681</t>
   </si>
   <si>
     <t xml:space="preserve">1.8773341178894</t>
   </si>
   <si>
-    <t xml:space="preserve">2.01689600944519</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.93135821819305</t>
+    <t xml:space="preserve">2.01689624786377</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.93135809898376</t>
   </si>
   <si>
     <t xml:space="preserve">2.06191611289978</t>
@@ -2879,25 +2879,25 @@
     <t xml:space="preserve">2.14745426177979</t>
   </si>
   <si>
-    <t xml:space="preserve">2.05291199684143</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.17896819114685</t>
+    <t xml:space="preserve">2.05291223526001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.17896842956543</t>
   </si>
   <si>
     <t xml:space="preserve">2.1879723072052</t>
   </si>
   <si>
-    <t xml:space="preserve">2.14295220375061</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.1699640750885</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.28251433372498</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.28701615333557</t>
+    <t xml:space="preserve">2.14295244216919</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.16996431350708</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.2825140953064</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.28701591491699</t>
   </si>
   <si>
     <t xml:space="preserve">2.26450610160828</t>
@@ -2912,25 +2912,25 @@
     <t xml:space="preserve">2.29151821136475</t>
   </si>
   <si>
-    <t xml:space="preserve">2.31853032112122</t>
+    <t xml:space="preserve">2.31853008270264</t>
   </si>
   <si>
     <t xml:space="preserve">2.30052208900452</t>
   </si>
   <si>
-    <t xml:space="preserve">2.30502414703369</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.2780122756958</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.25100016593933</t>
+    <t xml:space="preserve">2.30502390861511</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.27801203727722</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.25099992752075</t>
   </si>
   <si>
     <t xml:space="preserve">2.17446613311768</t>
   </si>
   <si>
-    <t xml:space="preserve">2.16546201705933</t>
+    <t xml:space="preserve">2.16546225547791</t>
   </si>
   <si>
     <t xml:space="preserve">2.19697618484497</t>
@@ -2948,10 +2948,10 @@
     <t xml:space="preserve">2.33653807640076</t>
   </si>
   <si>
-    <t xml:space="preserve">2.39506435394287</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.43108034133911</t>
+    <t xml:space="preserve">2.39506411552429</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.43108010292053</t>
   </si>
   <si>
     <t xml:space="preserve">2.40857005119324</t>
@@ -2996,28 +2996,28 @@
     <t xml:space="preserve">2.54363012313843</t>
   </si>
   <si>
-    <t xml:space="preserve">2.35904812812805</t>
+    <t xml:space="preserve">2.35904788970947</t>
   </si>
   <si>
     <t xml:space="preserve">2.32753419876099</t>
   </si>
   <si>
-    <t xml:space="preserve">2.38155794143677</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.35004425048828</t>
+    <t xml:space="preserve">2.38155817985535</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.3500440120697</t>
   </si>
   <si>
     <t xml:space="preserve">2.50761413574219</t>
   </si>
   <si>
-    <t xml:space="preserve">2.52562236785889</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.58864998817444</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.62016415596008</t>
+    <t xml:space="preserve">2.52562212944031</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.58865022659302</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.62016439437866</t>
   </si>
   <si>
     <t xml:space="preserve">2.54005122184753</t>
@@ -3423,6 +3423,9 @@
   </si>
   <si>
     <t xml:space="preserve">2.40000009536743</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.41000008583069</t>
   </si>
 </sst>
 </file>
@@ -13402,7 +13405,7 @@
         <v>3.60199999809265</v>
       </c>
       <c r="G371" t="s">
-        <v>270</v>
+        <v>244</v>
       </c>
       <c r="H371" t="s">
         <v>9</v>
@@ -13480,7 +13483,7 @@
         <v>3.71799993515015</v>
       </c>
       <c r="G374" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="H374" t="s">
         <v>9</v>
@@ -13558,7 +13561,7 @@
         <v>3.59599995613098</v>
       </c>
       <c r="G377" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="H377" t="s">
         <v>9</v>
@@ -13584,7 +13587,7 @@
         <v>3.57399988174438</v>
       </c>
       <c r="G378" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="H378" t="s">
         <v>9</v>
@@ -13610,7 +13613,7 @@
         <v>3.54800009727478</v>
       </c>
       <c r="G379" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="H379" t="s">
         <v>9</v>
@@ -13636,7 +13639,7 @@
         <v>3.54999995231628</v>
       </c>
       <c r="G380" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="H380" t="s">
         <v>9</v>
@@ -13818,7 +13821,7 @@
         <v>3.48399996757507</v>
       </c>
       <c r="G387" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="H387" t="s">
         <v>9</v>
@@ -13844,7 +13847,7 @@
         <v>3.47000002861023</v>
       </c>
       <c r="G388" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="H388" t="s">
         <v>9</v>
@@ -13870,7 +13873,7 @@
         <v>3.47000002861023</v>
       </c>
       <c r="G389" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="H389" t="s">
         <v>9</v>
@@ -13896,7 +13899,7 @@
         <v>3.50799989700317</v>
       </c>
       <c r="G390" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="H390" t="s">
         <v>9</v>
@@ -13922,7 +13925,7 @@
         <v>3.49399995803833</v>
       </c>
       <c r="G391" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="H391" t="s">
         <v>9</v>
@@ -13948,7 +13951,7 @@
         <v>3.49000000953674</v>
       </c>
       <c r="G392" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="H392" t="s">
         <v>9</v>
@@ -13974,7 +13977,7 @@
         <v>3.49600005149841</v>
       </c>
       <c r="G393" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="H393" t="s">
         <v>9</v>
@@ -14000,7 +14003,7 @@
         <v>3.49399995803833</v>
       </c>
       <c r="G394" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="H394" t="s">
         <v>9</v>
@@ -14052,7 +14055,7 @@
         <v>3.50399994850159</v>
       </c>
       <c r="G396" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="H396" t="s">
         <v>9</v>
@@ -14104,7 +14107,7 @@
         <v>3.46799993515015</v>
       </c>
       <c r="G398" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="H398" t="s">
         <v>9</v>
@@ -14130,7 +14133,7 @@
         <v>3.41000008583069</v>
       </c>
       <c r="G399" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="H399" t="s">
         <v>9</v>
@@ -14156,7 +14159,7 @@
         <v>3.39599990844727</v>
       </c>
       <c r="G400" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="H400" t="s">
         <v>9</v>
@@ -14182,7 +14185,7 @@
         <v>3.47000002861023</v>
       </c>
       <c r="G401" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="H401" t="s">
         <v>9</v>
@@ -14208,7 +14211,7 @@
         <v>3.4300000667572</v>
       </c>
       <c r="G402" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="H402" t="s">
         <v>9</v>
@@ -14260,7 +14263,7 @@
         <v>3.45000004768372</v>
       </c>
       <c r="G404" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="H404" t="s">
         <v>9</v>
@@ -14286,7 +14289,7 @@
         <v>3.46399998664856</v>
       </c>
       <c r="G405" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="H405" t="s">
         <v>9</v>
@@ -14312,7 +14315,7 @@
         <v>3.4300000667572</v>
       </c>
       <c r="G406" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="H406" t="s">
         <v>9</v>
@@ -14338,7 +14341,7 @@
         <v>3.58999991416931</v>
       </c>
       <c r="G407" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="H407" t="s">
         <v>9</v>
@@ -14364,7 +14367,7 @@
         <v>3.54999995231628</v>
       </c>
       <c r="G408" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="H408" t="s">
         <v>9</v>
@@ -14390,7 +14393,7 @@
         <v>3.58200001716614</v>
       </c>
       <c r="G409" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="H409" t="s">
         <v>9</v>
@@ -14416,7 +14419,7 @@
         <v>3.59800004959106</v>
       </c>
       <c r="G410" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="H410" t="s">
         <v>9</v>
@@ -14442,7 +14445,7 @@
         <v>3.57599997520447</v>
       </c>
       <c r="G411" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="H411" t="s">
         <v>9</v>
@@ -14494,7 +14497,7 @@
         <v>3.58200001716614</v>
       </c>
       <c r="G413" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="H413" t="s">
         <v>9</v>
@@ -14520,7 +14523,7 @@
         <v>3.5460000038147</v>
       </c>
       <c r="G414" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="H414" t="s">
         <v>9</v>
@@ -14572,7 +14575,7 @@
         <v>3.51999998092651</v>
       </c>
       <c r="G416" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="H416" t="s">
         <v>9</v>
@@ -14598,7 +14601,7 @@
         <v>3.5220000743866</v>
       </c>
       <c r="G417" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="H417" t="s">
         <v>9</v>
@@ -14624,7 +14627,7 @@
         <v>3.5</v>
       </c>
       <c r="G418" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="H418" t="s">
         <v>9</v>
@@ -14650,7 +14653,7 @@
         <v>3.53800010681152</v>
       </c>
       <c r="G419" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="H419" t="s">
         <v>9</v>
@@ -14676,7 +14679,7 @@
         <v>3.4760000705719</v>
       </c>
       <c r="G420" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="H420" t="s">
         <v>9</v>
@@ -14702,7 +14705,7 @@
         <v>3.49000000953674</v>
       </c>
       <c r="G421" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="H421" t="s">
         <v>9</v>
@@ -14728,7 +14731,7 @@
         <v>3.49000000953674</v>
       </c>
       <c r="G422" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="H422" t="s">
         <v>9</v>
@@ -14754,7 +14757,7 @@
         <v>3.49000000953674</v>
       </c>
       <c r="G423" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="H423" t="s">
         <v>9</v>
@@ -14780,7 +14783,7 @@
         <v>3.47000002861023</v>
       </c>
       <c r="G424" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="H424" t="s">
         <v>9</v>
@@ -14806,7 +14809,7 @@
         <v>3.51999998092651</v>
       </c>
       <c r="G425" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="H425" t="s">
         <v>9</v>
@@ -14832,7 +14835,7 @@
         <v>3.49000000953674</v>
       </c>
       <c r="G426" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="H426" t="s">
         <v>9</v>
@@ -14858,7 +14861,7 @@
         <v>3.54399991035461</v>
       </c>
       <c r="G427" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="H427" t="s">
         <v>9</v>
@@ -14884,7 +14887,7 @@
         <v>3.60199999809265</v>
       </c>
       <c r="G428" t="s">
-        <v>270</v>
+        <v>244</v>
       </c>
       <c r="H428" t="s">
         <v>9</v>
@@ -14936,7 +14939,7 @@
         <v>3.66400003433228</v>
       </c>
       <c r="G430" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="H430" t="s">
         <v>9</v>
@@ -14962,7 +14965,7 @@
         <v>3.60999989509583</v>
       </c>
       <c r="G431" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="H431" t="s">
         <v>9</v>
@@ -15066,7 +15069,7 @@
         <v>3.64400005340576</v>
       </c>
       <c r="G435" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="H435" t="s">
         <v>9</v>
@@ -15092,7 +15095,7 @@
         <v>3.60999989509583</v>
       </c>
       <c r="G436" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="H436" t="s">
         <v>9</v>
@@ -15118,7 +15121,7 @@
         <v>3.59800004959106</v>
       </c>
       <c r="G437" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="H437" t="s">
         <v>9</v>
@@ -15170,7 +15173,7 @@
         <v>3.54999995231628</v>
       </c>
       <c r="G439" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="H439" t="s">
         <v>9</v>
@@ -15196,7 +15199,7 @@
         <v>3.53200006484985</v>
       </c>
       <c r="G440" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="H440" t="s">
         <v>9</v>
@@ -15248,7 +15251,7 @@
         <v>3.53399991989136</v>
       </c>
       <c r="G442" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="H442" t="s">
         <v>9</v>
@@ -15300,7 +15303,7 @@
         <v>3.5</v>
       </c>
       <c r="G444" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="H444" t="s">
         <v>9</v>
@@ -15352,7 +15355,7 @@
         <v>3.49000000953674</v>
       </c>
       <c r="G446" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="H446" t="s">
         <v>9</v>
@@ -15378,7 +15381,7 @@
         <v>3.51399993896484</v>
       </c>
       <c r="G447" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="H447" t="s">
         <v>9</v>
@@ -15404,7 +15407,7 @@
         <v>3.50600004196167</v>
       </c>
       <c r="G448" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="H448" t="s">
         <v>9</v>
@@ -15430,7 +15433,7 @@
         <v>3.51999998092651</v>
       </c>
       <c r="G449" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="H449" t="s">
         <v>9</v>
@@ -15456,7 +15459,7 @@
         <v>3.5</v>
       </c>
       <c r="G450" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="H450" t="s">
         <v>9</v>
@@ -15612,7 +15615,7 @@
         <v>3.57399988174438</v>
       </c>
       <c r="G456" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="H456" t="s">
         <v>9</v>
@@ -15638,7 +15641,7 @@
         <v>3.51999998092651</v>
       </c>
       <c r="G457" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="H457" t="s">
         <v>9</v>
@@ -15690,7 +15693,7 @@
         <v>3.60400009155273</v>
       </c>
       <c r="G459" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="H459" t="s">
         <v>9</v>
@@ -15768,7 +15771,7 @@
         <v>3.5699999332428</v>
       </c>
       <c r="G462" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="H462" t="s">
         <v>9</v>
@@ -15820,7 +15823,7 @@
         <v>3.60800004005432</v>
       </c>
       <c r="G464" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="H464" t="s">
         <v>9</v>
@@ -15846,7 +15849,7 @@
         <v>3.56399989128113</v>
       </c>
       <c r="G465" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="H465" t="s">
         <v>9</v>
@@ -15872,7 +15875,7 @@
         <v>3.57599997520447</v>
       </c>
       <c r="G466" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="H466" t="s">
         <v>9</v>
@@ -15950,7 +15953,7 @@
         <v>3.63800001144409</v>
       </c>
       <c r="G469" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="H469" t="s">
         <v>9</v>
@@ -16002,7 +16005,7 @@
         <v>3.66599988937378</v>
       </c>
       <c r="G471" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="H471" t="s">
         <v>9</v>
@@ -16028,7 +16031,7 @@
         <v>3.72000002861023</v>
       </c>
       <c r="G472" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="H472" t="s">
         <v>9</v>
@@ -16054,7 +16057,7 @@
         <v>3.73600006103516</v>
       </c>
       <c r="G473" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="H473" t="s">
         <v>9</v>
@@ -16080,7 +16083,7 @@
         <v>3.81399989128113</v>
       </c>
       <c r="G474" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="H474" t="s">
         <v>9</v>
@@ -16106,7 +16109,7 @@
         <v>3.78200006484985</v>
       </c>
       <c r="G475" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="H475" t="s">
         <v>9</v>
@@ -16132,7 +16135,7 @@
         <v>3.77999997138977</v>
       </c>
       <c r="G476" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="H476" t="s">
         <v>9</v>
@@ -16158,7 +16161,7 @@
         <v>3.82800006866455</v>
       </c>
       <c r="G477" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="H477" t="s">
         <v>9</v>
@@ -16184,7 +16187,7 @@
         <v>3.69000005722046</v>
       </c>
       <c r="G478" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="H478" t="s">
         <v>9</v>
@@ -16210,7 +16213,7 @@
         <v>3.69799995422363</v>
       </c>
       <c r="G479" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="H479" t="s">
         <v>9</v>
@@ -16262,7 +16265,7 @@
         <v>3.5699999332428</v>
       </c>
       <c r="G481" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="H481" t="s">
         <v>9</v>
@@ -16288,7 +16291,7 @@
         <v>3.60400009155273</v>
       </c>
       <c r="G482" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="H482" t="s">
         <v>9</v>
@@ -16314,7 +16317,7 @@
         <v>3.57599997520447</v>
       </c>
       <c r="G483" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="H483" t="s">
         <v>9</v>
@@ -16340,7 +16343,7 @@
         <v>3.59599995613098</v>
       </c>
       <c r="G484" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="H484" t="s">
         <v>9</v>
@@ -16366,7 +16369,7 @@
         <v>3.61999988555908</v>
       </c>
       <c r="G485" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="H485" t="s">
         <v>9</v>
@@ -16418,7 +16421,7 @@
         <v>3.65599989891052</v>
       </c>
       <c r="G487" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="H487" t="s">
         <v>9</v>
@@ -16470,7 +16473,7 @@
         <v>3.60400009155273</v>
       </c>
       <c r="G489" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="H489" t="s">
         <v>9</v>
@@ -16548,7 +16551,7 @@
         <v>3.72199988365173</v>
       </c>
       <c r="G492" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="H492" t="s">
         <v>9</v>
@@ -16574,7 +16577,7 @@
         <v>3.64400005340576</v>
       </c>
       <c r="G493" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="H493" t="s">
         <v>9</v>
@@ -16600,7 +16603,7 @@
         <v>3.70000004768372</v>
       </c>
       <c r="G494" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="H494" t="s">
         <v>9</v>
@@ -16626,7 +16629,7 @@
         <v>3.67400002479553</v>
       </c>
       <c r="G495" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="H495" t="s">
         <v>9</v>
@@ -16652,7 +16655,7 @@
         <v>3.65199995040894</v>
       </c>
       <c r="G496" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="H496" t="s">
         <v>9</v>
@@ -16678,7 +16681,7 @@
         <v>3.68600010871887</v>
       </c>
       <c r="G497" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="H497" t="s">
         <v>9</v>
@@ -16756,7 +16759,7 @@
         <v>3.57999992370605</v>
       </c>
       <c r="G500" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="H500" t="s">
         <v>9</v>
@@ -16782,7 +16785,7 @@
         <v>3.63800001144409</v>
       </c>
       <c r="G501" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="H501" t="s">
         <v>9</v>
@@ -16886,7 +16889,7 @@
         <v>3.58200001716614</v>
       </c>
       <c r="G505" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="H505" t="s">
         <v>9</v>
@@ -16938,7 +16941,7 @@
         <v>3.61999988555908</v>
       </c>
       <c r="G507" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="H507" t="s">
         <v>9</v>
@@ -16964,7 +16967,7 @@
         <v>3.58999991416931</v>
       </c>
       <c r="G508" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="H508" t="s">
         <v>9</v>
@@ -16990,7 +16993,7 @@
         <v>3.58200001716614</v>
       </c>
       <c r="G509" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="H509" t="s">
         <v>9</v>
@@ -17016,7 +17019,7 @@
         <v>3.60199999809265</v>
       </c>
       <c r="G510" t="s">
-        <v>270</v>
+        <v>244</v>
       </c>
       <c r="H510" t="s">
         <v>9</v>
@@ -17042,7 +17045,7 @@
         <v>3.5460000038147</v>
       </c>
       <c r="G511" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="H511" t="s">
         <v>9</v>
@@ -17068,7 +17071,7 @@
         <v>3.54800009727478</v>
       </c>
       <c r="G512" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="H512" t="s">
         <v>9</v>
@@ -17094,7 +17097,7 @@
         <v>3.58999991416931</v>
       </c>
       <c r="G513" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="H513" t="s">
         <v>9</v>
@@ -17146,7 +17149,7 @@
         <v>3.69000005722046</v>
       </c>
       <c r="G515" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="H515" t="s">
         <v>9</v>
@@ -17172,7 +17175,7 @@
         <v>3.65499997138977</v>
       </c>
       <c r="G516" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="H516" t="s">
         <v>9</v>
@@ -17198,7 +17201,7 @@
         <v>3.69000005722046</v>
       </c>
       <c r="G517" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="H517" t="s">
         <v>9</v>
@@ -17302,7 +17305,7 @@
         <v>3.6800000667572</v>
       </c>
       <c r="G521" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="H521" t="s">
         <v>9</v>
@@ -17354,7 +17357,7 @@
         <v>3.67000007629395</v>
       </c>
       <c r="G523" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="H523" t="s">
         <v>9</v>
@@ -17380,7 +17383,7 @@
         <v>3.67499995231628</v>
       </c>
       <c r="G524" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="H524" t="s">
         <v>9</v>
@@ -17432,7 +17435,7 @@
         <v>3.65499997138977</v>
       </c>
       <c r="G526" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="H526" t="s">
         <v>9</v>
@@ -17458,7 +17461,7 @@
         <v>3.67499995231628</v>
       </c>
       <c r="G527" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="H527" t="s">
         <v>9</v>
@@ -17510,7 +17513,7 @@
         <v>3.61999988555908</v>
       </c>
       <c r="G529" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="H529" t="s">
         <v>9</v>
@@ -17536,7 +17539,7 @@
         <v>3.61999988555908</v>
       </c>
       <c r="G530" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="H530" t="s">
         <v>9</v>
@@ -17562,7 +17565,7 @@
         <v>3.58999991416931</v>
       </c>
       <c r="G531" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="H531" t="s">
         <v>9</v>
@@ -17588,7 +17591,7 @@
         <v>3.58500003814697</v>
       </c>
       <c r="G532" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="H532" t="s">
         <v>9</v>
@@ -17614,7 +17617,7 @@
         <v>3.54999995231628</v>
       </c>
       <c r="G533" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="H533" t="s">
         <v>9</v>
@@ -17640,7 +17643,7 @@
         <v>3.54999995231628</v>
       </c>
       <c r="G534" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="H534" t="s">
         <v>9</v>
@@ -17666,7 +17669,7 @@
         <v>3.45000004768372</v>
       </c>
       <c r="G535" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="H535" t="s">
         <v>9</v>
@@ -17692,7 +17695,7 @@
         <v>3.29999995231628</v>
       </c>
       <c r="G536" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="H536" t="s">
         <v>9</v>
@@ -17718,7 +17721,7 @@
         <v>3.16000008583069</v>
       </c>
       <c r="G537" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="H537" t="s">
         <v>9</v>
@@ -17744,7 +17747,7 @@
         <v>3.25</v>
       </c>
       <c r="G538" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="H538" t="s">
         <v>9</v>
@@ -17770,7 +17773,7 @@
         <v>3.20499992370605</v>
       </c>
       <c r="G539" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="H539" t="s">
         <v>9</v>
@@ -17796,7 +17799,7 @@
         <v>3.15000009536743</v>
       </c>
       <c r="G540" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="H540" t="s">
         <v>9</v>
@@ -17822,7 +17825,7 @@
         <v>3.25</v>
       </c>
       <c r="G541" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="H541" t="s">
         <v>9</v>
@@ -17848,7 +17851,7 @@
         <v>3.23000001907349</v>
       </c>
       <c r="G542" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="H542" t="s">
         <v>9</v>
@@ -17874,7 +17877,7 @@
         <v>3.21499991416931</v>
       </c>
       <c r="G543" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="H543" t="s">
         <v>9</v>
@@ -17900,7 +17903,7 @@
         <v>3.21499991416931</v>
       </c>
       <c r="G544" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="H544" t="s">
         <v>9</v>
@@ -17926,7 +17929,7 @@
         <v>3.26999998092651</v>
       </c>
       <c r="G545" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="H545" t="s">
         <v>9</v>
@@ -17952,7 +17955,7 @@
         <v>3.23000001907349</v>
       </c>
       <c r="G546" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="H546" t="s">
         <v>9</v>
@@ -17978,7 +17981,7 @@
         <v>3.25</v>
       </c>
       <c r="G547" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="H547" t="s">
         <v>9</v>
@@ -18004,7 +18007,7 @@
         <v>3.27999997138977</v>
       </c>
       <c r="G548" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="H548" t="s">
         <v>9</v>
@@ -18030,7 +18033,7 @@
         <v>3.1949999332428</v>
       </c>
       <c r="G549" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="H549" t="s">
         <v>9</v>
@@ -18056,7 +18059,7 @@
         <v>3.17000007629395</v>
       </c>
       <c r="G550" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="H550" t="s">
         <v>9</v>
@@ -18082,7 +18085,7 @@
         <v>3.17000007629395</v>
       </c>
       <c r="G551" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="H551" t="s">
         <v>9</v>
@@ -18108,7 +18111,7 @@
         <v>3.13499999046326</v>
       </c>
       <c r="G552" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="H552" t="s">
         <v>9</v>
@@ -18134,7 +18137,7 @@
         <v>3.11999988555908</v>
       </c>
       <c r="G553" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="H553" t="s">
         <v>9</v>
@@ -18160,7 +18163,7 @@
         <v>3.11999988555908</v>
       </c>
       <c r="G554" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="H554" t="s">
         <v>9</v>
@@ -18186,7 +18189,7 @@
         <v>3.05999994277954</v>
       </c>
       <c r="G555" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="H555" t="s">
         <v>9</v>
@@ -18212,7 +18215,7 @@
         <v>3.05999994277954</v>
       </c>
       <c r="G556" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="H556" t="s">
         <v>9</v>
@@ -18238,7 +18241,7 @@
         <v>3.11500000953674</v>
       </c>
       <c r="G557" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="H557" t="s">
         <v>9</v>
@@ -18264,7 +18267,7 @@
         <v>3.13000011444092</v>
       </c>
       <c r="G558" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="H558" t="s">
         <v>9</v>
@@ -18290,7 +18293,7 @@
         <v>3.13000011444092</v>
       </c>
       <c r="G559" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="H559" t="s">
         <v>9</v>
@@ -18316,7 +18319,7 @@
         <v>3.16499996185303</v>
       </c>
       <c r="G560" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="H560" t="s">
         <v>9</v>
@@ -18342,7 +18345,7 @@
         <v>3.22499990463257</v>
       </c>
       <c r="G561" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="H561" t="s">
         <v>9</v>
@@ -18368,7 +18371,7 @@
         <v>3.15499997138977</v>
       </c>
       <c r="G562" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="H562" t="s">
         <v>9</v>
@@ -18394,7 +18397,7 @@
         <v>3.15499997138977</v>
       </c>
       <c r="G563" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="H563" t="s">
         <v>9</v>
@@ -18420,7 +18423,7 @@
         <v>3.20000004768372</v>
       </c>
       <c r="G564" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="H564" t="s">
         <v>9</v>
@@ -18446,7 +18449,7 @@
         <v>3.21000003814697</v>
       </c>
       <c r="G565" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="H565" t="s">
         <v>9</v>
@@ -18472,7 +18475,7 @@
         <v>3.28500008583069</v>
       </c>
       <c r="G566" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="H566" t="s">
         <v>9</v>
@@ -18498,7 +18501,7 @@
         <v>3.28500008583069</v>
       </c>
       <c r="G567" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="H567" t="s">
         <v>9</v>
@@ -18524,7 +18527,7 @@
         <v>3.25500011444092</v>
       </c>
       <c r="G568" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="H568" t="s">
         <v>9</v>
@@ -18550,7 +18553,7 @@
         <v>3.25</v>
       </c>
       <c r="G569" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="H569" t="s">
         <v>9</v>
@@ -18576,7 +18579,7 @@
         <v>3.20499992370605</v>
       </c>
       <c r="G570" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="H570" t="s">
         <v>9</v>
@@ -18602,7 +18605,7 @@
         <v>3.18499994277954</v>
       </c>
       <c r="G571" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="H571" t="s">
         <v>9</v>
@@ -18628,7 +18631,7 @@
         <v>3.19000005722046</v>
       </c>
       <c r="G572" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="H572" t="s">
         <v>9</v>
@@ -18654,7 +18657,7 @@
         <v>3.24499988555908</v>
       </c>
       <c r="G573" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="H573" t="s">
         <v>9</v>
@@ -18680,7 +18683,7 @@
         <v>3.25999999046326</v>
       </c>
       <c r="G574" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="H574" t="s">
         <v>9</v>
@@ -18706,7 +18709,7 @@
         <v>3.25</v>
       </c>
       <c r="G575" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="H575" t="s">
         <v>9</v>
@@ -18732,7 +18735,7 @@
         <v>3.21000003814697</v>
       </c>
       <c r="G576" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="H576" t="s">
         <v>9</v>
@@ -18758,7 +18761,7 @@
         <v>3.25999999046326</v>
       </c>
       <c r="G577" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="H577" t="s">
         <v>9</v>
@@ -18784,7 +18787,7 @@
         <v>3.28500008583069</v>
       </c>
       <c r="G578" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="H578" t="s">
         <v>9</v>
@@ -18810,7 +18813,7 @@
         <v>3.30999994277954</v>
       </c>
       <c r="G579" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="H579" t="s">
         <v>9</v>
@@ -18836,7 +18839,7 @@
         <v>3.27999997138977</v>
       </c>
       <c r="G580" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="H580" t="s">
         <v>9</v>
@@ -18862,7 +18865,7 @@
         <v>3.25999999046326</v>
       </c>
       <c r="G581" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="H581" t="s">
         <v>9</v>
@@ -18888,7 +18891,7 @@
         <v>3.26999998092651</v>
       </c>
       <c r="G582" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="H582" t="s">
         <v>9</v>
@@ -18914,7 +18917,7 @@
         <v>3.27500009536743</v>
       </c>
       <c r="G583" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="H583" t="s">
         <v>9</v>
@@ -18940,7 +18943,7 @@
         <v>3.28999996185303</v>
       </c>
       <c r="G584" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="H584" t="s">
         <v>9</v>
@@ -18966,7 +18969,7 @@
         <v>3.28999996185303</v>
       </c>
       <c r="G585" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="H585" t="s">
         <v>9</v>
@@ -18992,7 +18995,7 @@
         <v>3.28999996185303</v>
       </c>
       <c r="G586" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="H586" t="s">
         <v>9</v>
@@ -19018,7 +19021,7 @@
         <v>3.29999995231628</v>
       </c>
       <c r="G587" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="H587" t="s">
         <v>9</v>
@@ -19044,7 +19047,7 @@
         <v>3.29999995231628</v>
       </c>
       <c r="G588" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="H588" t="s">
         <v>9</v>
@@ -19070,7 +19073,7 @@
         <v>3.29999995231628</v>
       </c>
       <c r="G589" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="H589" t="s">
         <v>9</v>
@@ -19096,7 +19099,7 @@
         <v>3.32500004768372</v>
       </c>
       <c r="G590" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="H590" t="s">
         <v>9</v>
@@ -19122,7 +19125,7 @@
         <v>3.29999995231628</v>
       </c>
       <c r="G591" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="H591" t="s">
         <v>9</v>
@@ -19148,7 +19151,7 @@
         <v>3.30999994277954</v>
       </c>
       <c r="G592" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="H592" t="s">
         <v>9</v>
@@ -19174,7 +19177,7 @@
         <v>3.32999992370605</v>
       </c>
       <c r="G593" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="H593" t="s">
         <v>9</v>
@@ -19200,7 +19203,7 @@
         <v>3.40000009536743</v>
       </c>
       <c r="G594" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="H594" t="s">
         <v>9</v>
@@ -19226,7 +19229,7 @@
         <v>3.52999997138977</v>
       </c>
       <c r="G595" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="H595" t="s">
         <v>9</v>
@@ -19252,7 +19255,7 @@
         <v>3.5</v>
       </c>
       <c r="G596" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="H596" t="s">
         <v>9</v>
@@ -19278,7 +19281,7 @@
         <v>3.50500011444092</v>
       </c>
       <c r="G597" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="H597" t="s">
         <v>9</v>
@@ -19304,7 +19307,7 @@
         <v>3.34999990463257</v>
       </c>
       <c r="G598" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="H598" t="s">
         <v>9</v>
@@ -19330,7 +19333,7 @@
         <v>3.29999995231628</v>
       </c>
       <c r="G599" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="H599" t="s">
         <v>9</v>
@@ -19356,7 +19359,7 @@
         <v>3.29999995231628</v>
       </c>
       <c r="G600" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="H600" t="s">
         <v>9</v>
@@ -19382,7 +19385,7 @@
         <v>3.24000000953674</v>
       </c>
       <c r="G601" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="H601" t="s">
         <v>9</v>
@@ -19408,7 +19411,7 @@
         <v>3.20000004768372</v>
       </c>
       <c r="G602" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="H602" t="s">
         <v>9</v>
@@ -19434,7 +19437,7 @@
         <v>3.25999999046326</v>
       </c>
       <c r="G603" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="H603" t="s">
         <v>9</v>
@@ -19460,7 +19463,7 @@
         <v>3.1800000667572</v>
       </c>
       <c r="G604" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="H604" t="s">
         <v>9</v>
@@ -19486,7 +19489,7 @@
         <v>3.13000011444092</v>
       </c>
       <c r="G605" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="H605" t="s">
         <v>9</v>
@@ -19512,7 +19515,7 @@
         <v>3.13000011444092</v>
       </c>
       <c r="G606" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="H606" t="s">
         <v>9</v>
@@ -19538,7 +19541,7 @@
         <v>3.11500000953674</v>
       </c>
       <c r="G607" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="H607" t="s">
         <v>9</v>
@@ -19564,7 +19567,7 @@
         <v>3.10500001907349</v>
       </c>
       <c r="G608" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="H608" t="s">
         <v>9</v>
@@ -19590,7 +19593,7 @@
         <v>3.09500002861023</v>
       </c>
       <c r="G609" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="H609" t="s">
         <v>9</v>
@@ -19616,7 +19619,7 @@
         <v>3.07999992370605</v>
       </c>
       <c r="G610" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="H610" t="s">
         <v>9</v>
@@ -19642,7 +19645,7 @@
         <v>3.07999992370605</v>
       </c>
       <c r="G611" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="H611" t="s">
         <v>9</v>
@@ -19668,7 +19671,7 @@
         <v>3.0550000667572</v>
       </c>
       <c r="G612" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="H612" t="s">
         <v>9</v>
@@ -19694,7 +19697,7 @@
         <v>3.00500011444092</v>
       </c>
       <c r="G613" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="H613" t="s">
         <v>9</v>
@@ -19720,7 +19723,7 @@
         <v>2.875</v>
       </c>
       <c r="G614" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="H614" t="s">
         <v>9</v>
@@ -19746,7 +19749,7 @@
         <v>2.95000004768372</v>
       </c>
       <c r="G615" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="H615" t="s">
         <v>9</v>
@@ -19772,7 +19775,7 @@
         <v>3.00500011444092</v>
       </c>
       <c r="G616" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="H616" t="s">
         <v>9</v>
@@ -19798,7 +19801,7 @@
         <v>3.01500010490417</v>
       </c>
       <c r="G617" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="H617" t="s">
         <v>9</v>
@@ -19824,7 +19827,7 @@
         <v>3</v>
       </c>
       <c r="G618" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="H618" t="s">
         <v>9</v>
@@ -19850,7 +19853,7 @@
         <v>3</v>
       </c>
       <c r="G619" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="H619" t="s">
         <v>9</v>
@@ -19876,7 +19879,7 @@
         <v>2.98000001907349</v>
       </c>
       <c r="G620" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="H620" t="s">
         <v>9</v>
@@ -19902,7 +19905,7 @@
         <v>3.00500011444092</v>
       </c>
       <c r="G621" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="H621" t="s">
         <v>9</v>
@@ -19928,7 +19931,7 @@
         <v>2.9449999332428</v>
       </c>
       <c r="G622" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="H622" t="s">
         <v>9</v>
@@ -19954,7 +19957,7 @@
         <v>3.04999995231628</v>
       </c>
       <c r="G623" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="H623" t="s">
         <v>9</v>
@@ -19980,7 +19983,7 @@
         <v>3.05999994277954</v>
       </c>
       <c r="G624" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="H624" t="s">
         <v>9</v>
@@ -20006,7 +20009,7 @@
         <v>3.01500010490417</v>
       </c>
       <c r="G625" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="H625" t="s">
         <v>9</v>
@@ -20032,7 +20035,7 @@
         <v>3.05999994277954</v>
       </c>
       <c r="G626" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="H626" t="s">
         <v>9</v>
@@ -20058,7 +20061,7 @@
         <v>2.97499990463257</v>
       </c>
       <c r="G627" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="H627" t="s">
         <v>9</v>
@@ -20084,7 +20087,7 @@
         <v>2.99000000953674</v>
       </c>
       <c r="G628" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="H628" t="s">
         <v>9</v>
@@ -20110,7 +20113,7 @@
         <v>2.97499990463257</v>
       </c>
       <c r="G629" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="H629" t="s">
         <v>9</v>
@@ -20136,7 +20139,7 @@
         <v>2.99499988555908</v>
       </c>
       <c r="G630" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="H630" t="s">
         <v>9</v>
@@ -20162,7 +20165,7 @@
         <v>2.92000007629395</v>
       </c>
       <c r="G631" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H631" t="s">
         <v>9</v>
@@ -20188,7 +20191,7 @@
         <v>3.06500005722046</v>
       </c>
       <c r="G632" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="H632" t="s">
         <v>9</v>
@@ -20214,7 +20217,7 @@
         <v>2.95000004768372</v>
       </c>
       <c r="G633" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="H633" t="s">
         <v>9</v>
@@ -20240,7 +20243,7 @@
         <v>3.03500008583069</v>
       </c>
       <c r="G634" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="H634" t="s">
         <v>9</v>
@@ -20266,7 +20269,7 @@
         <v>3</v>
       </c>
       <c r="G635" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="H635" t="s">
         <v>9</v>
@@ -20292,7 +20295,7 @@
         <v>3</v>
       </c>
       <c r="G636" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="H636" t="s">
         <v>9</v>
@@ -20318,7 +20321,7 @@
         <v>2.99000000953674</v>
       </c>
       <c r="G637" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="H637" t="s">
         <v>9</v>
@@ -20344,7 +20347,7 @@
         <v>2.9449999332428</v>
       </c>
       <c r="G638" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="H638" t="s">
         <v>9</v>
@@ -20370,7 +20373,7 @@
         <v>2.95499992370605</v>
       </c>
       <c r="G639" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="H639" t="s">
         <v>9</v>
@@ -20396,7 +20399,7 @@
         <v>2.9300000667572</v>
       </c>
       <c r="G640" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="H640" t="s">
         <v>9</v>
@@ -20422,7 +20425,7 @@
         <v>2.97499990463257</v>
       </c>
       <c r="G641" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="H641" t="s">
         <v>9</v>
@@ -20448,7 +20451,7 @@
         <v>2.99499988555908</v>
       </c>
       <c r="G642" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="H642" t="s">
         <v>9</v>
@@ -20474,7 +20477,7 @@
         <v>2.95499992370605</v>
       </c>
       <c r="G643" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="H643" t="s">
         <v>9</v>
@@ -20500,7 +20503,7 @@
         <v>2.9300000667572</v>
       </c>
       <c r="G644" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="H644" t="s">
         <v>9</v>
@@ -20526,7 +20529,7 @@
         <v>2.91499996185303</v>
       </c>
       <c r="G645" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="H645" t="s">
         <v>9</v>
@@ -20552,7 +20555,7 @@
         <v>2.89000010490417</v>
       </c>
       <c r="G646" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="H646" t="s">
         <v>9</v>
@@ -20578,7 +20581,7 @@
         <v>2.88499999046326</v>
       </c>
       <c r="G647" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="H647" t="s">
         <v>9</v>
@@ -20604,7 +20607,7 @@
         <v>2.86500000953674</v>
       </c>
       <c r="G648" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="H648" t="s">
         <v>9</v>
@@ -20630,7 +20633,7 @@
         <v>2.86999988555908</v>
       </c>
       <c r="G649" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="H649" t="s">
         <v>9</v>
@@ -20656,7 +20659,7 @@
         <v>2.89000010490417</v>
       </c>
       <c r="G650" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="H650" t="s">
         <v>9</v>
@@ -20682,7 +20685,7 @@
         <v>2.90000009536743</v>
       </c>
       <c r="G651" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="H651" t="s">
         <v>9</v>
@@ -20708,7 +20711,7 @@
         <v>2.89000010490417</v>
       </c>
       <c r="G652" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="H652" t="s">
         <v>9</v>
@@ -20734,7 +20737,7 @@
         <v>2.85999989509583</v>
       </c>
       <c r="G653" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="H653" t="s">
         <v>9</v>
@@ -20760,7 +20763,7 @@
         <v>2.84999990463257</v>
       </c>
       <c r="G654" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="H654" t="s">
         <v>9</v>
@@ -20786,7 +20789,7 @@
         <v>2.90000009536743</v>
       </c>
       <c r="G655" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="H655" t="s">
         <v>9</v>
@@ -20812,7 +20815,7 @@
         <v>3.14000010490417</v>
       </c>
       <c r="G656" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="H656" t="s">
         <v>9</v>
@@ -20838,7 +20841,7 @@
         <v>3.15000009536743</v>
       </c>
       <c r="G657" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="H657" t="s">
         <v>9</v>
@@ -20864,7 +20867,7 @@
         <v>3.20499992370605</v>
       </c>
       <c r="G658" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="H658" t="s">
         <v>9</v>
@@ -20890,7 +20893,7 @@
         <v>3.1800000667572</v>
       </c>
       <c r="G659" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="H659" t="s">
         <v>9</v>
@@ -20916,7 +20919,7 @@
         <v>3.53999996185303</v>
       </c>
       <c r="G660" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="H660" t="s">
         <v>9</v>
@@ -20942,7 +20945,7 @@
         <v>3.35500001907349</v>
       </c>
       <c r="G661" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="H661" t="s">
         <v>9</v>
@@ -20968,7 +20971,7 @@
         <v>3.34999990463257</v>
       </c>
       <c r="G662" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="H662" t="s">
         <v>9</v>
@@ -20994,7 +20997,7 @@
         <v>3.26500010490417</v>
       </c>
       <c r="G663" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="H663" t="s">
         <v>9</v>
@@ -21020,7 +21023,7 @@
         <v>3.26999998092651</v>
       </c>
       <c r="G664" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="H664" t="s">
         <v>9</v>
@@ -21046,7 +21049,7 @@
         <v>3.25</v>
       </c>
       <c r="G665" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="H665" t="s">
         <v>9</v>
@@ -21072,7 +21075,7 @@
         <v>3.1949999332428</v>
       </c>
       <c r="G666" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="H666" t="s">
         <v>9</v>
@@ -21098,7 +21101,7 @@
         <v>3.13499999046326</v>
       </c>
       <c r="G667" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="H667" t="s">
         <v>9</v>
@@ -21124,7 +21127,7 @@
         <v>3.09999990463257</v>
       </c>
       <c r="G668" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="H668" t="s">
         <v>9</v>
@@ -21150,7 +21153,7 @@
         <v>3.13000011444092</v>
       </c>
       <c r="G669" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="H669" t="s">
         <v>9</v>
@@ -21176,7 +21179,7 @@
         <v>3.02500009536743</v>
       </c>
       <c r="G670" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="H670" t="s">
         <v>9</v>
@@ -21202,7 +21205,7 @@
         <v>3.05999994277954</v>
       </c>
       <c r="G671" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="H671" t="s">
         <v>9</v>
@@ -21228,7 +21231,7 @@
         <v>3.03500008583069</v>
       </c>
       <c r="G672" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="H672" t="s">
         <v>9</v>
@@ -21254,7 +21257,7 @@
         <v>3.07999992370605</v>
       </c>
       <c r="G673" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="H673" t="s">
         <v>9</v>
@@ -21280,7 +21283,7 @@
         <v>3.11999988555908</v>
       </c>
       <c r="G674" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="H674" t="s">
         <v>9</v>
@@ -21306,7 +21309,7 @@
         <v>3.07500004768372</v>
       </c>
       <c r="G675" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="H675" t="s">
         <v>9</v>
@@ -21332,7 +21335,7 @@
         <v>3.09500002861023</v>
       </c>
       <c r="G676" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="H676" t="s">
         <v>9</v>
@@ -21358,7 +21361,7 @@
         <v>3.08500003814697</v>
       </c>
       <c r="G677" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="H677" t="s">
         <v>9</v>
@@ -21384,7 +21387,7 @@
         <v>3.05999994277954</v>
       </c>
       <c r="G678" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="H678" t="s">
         <v>9</v>
@@ -21410,7 +21413,7 @@
         <v>3.10999989509583</v>
       </c>
       <c r="G679" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="H679" t="s">
         <v>9</v>
@@ -21436,7 +21439,7 @@
         <v>3.10999989509583</v>
       </c>
       <c r="G680" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="H680" t="s">
         <v>9</v>
@@ -21462,7 +21465,7 @@
         <v>3.10999989509583</v>
       </c>
       <c r="G681" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="H681" t="s">
         <v>9</v>
@@ -21488,7 +21491,7 @@
         <v>3.125</v>
       </c>
       <c r="G682" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="H682" t="s">
         <v>9</v>
@@ -21514,7 +21517,7 @@
         <v>3.10999989509583</v>
       </c>
       <c r="G683" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="H683" t="s">
         <v>9</v>
@@ -21540,7 +21543,7 @@
         <v>3.10500001907349</v>
       </c>
       <c r="G684" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="H684" t="s">
         <v>9</v>
@@ -21566,7 +21569,7 @@
         <v>3.11500000953674</v>
       </c>
       <c r="G685" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="H685" t="s">
         <v>9</v>
@@ -21592,7 +21595,7 @@
         <v>3.11500000953674</v>
       </c>
       <c r="G686" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="H686" t="s">
         <v>9</v>
@@ -21618,7 +21621,7 @@
         <v>3.13000011444092</v>
       </c>
       <c r="G687" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="H687" t="s">
         <v>9</v>
@@ -21644,7 +21647,7 @@
         <v>3.13000011444092</v>
       </c>
       <c r="G688" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="H688" t="s">
         <v>9</v>
@@ -21670,7 +21673,7 @@
         <v>3.16499996185303</v>
       </c>
       <c r="G689" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="H689" t="s">
         <v>9</v>
@@ -21696,7 +21699,7 @@
         <v>3.16000008583069</v>
       </c>
       <c r="G690" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="H690" t="s">
         <v>9</v>
@@ -21722,7 +21725,7 @@
         <v>3.15499997138977</v>
       </c>
       <c r="G691" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="H691" t="s">
         <v>9</v>
@@ -21748,7 +21751,7 @@
         <v>3.15499997138977</v>
       </c>
       <c r="G692" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="H692" t="s">
         <v>9</v>
@@ -21774,7 +21777,7 @@
         <v>3.17000007629395</v>
       </c>
       <c r="G693" t="s">
-        <v>369</v>
+        <v>426</v>
       </c>
       <c r="H693" t="s">
         <v>9</v>
@@ -21800,7 +21803,7 @@
         <v>3.17000007629395</v>
       </c>
       <c r="G694" t="s">
-        <v>369</v>
+        <v>426</v>
       </c>
       <c r="H694" t="s">
         <v>9</v>
@@ -21826,7 +21829,7 @@
         <v>3.16000008583069</v>
       </c>
       <c r="G695" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="H695" t="s">
         <v>9</v>
@@ -21852,7 +21855,7 @@
         <v>3.17000007629395</v>
       </c>
       <c r="G696" t="s">
-        <v>369</v>
+        <v>426</v>
       </c>
       <c r="H696" t="s">
         <v>9</v>
@@ -21878,7 +21881,7 @@
         <v>3.16000008583069</v>
       </c>
       <c r="G697" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="H697" t="s">
         <v>9</v>
@@ -21904,7 +21907,7 @@
         <v>3.16000008583069</v>
       </c>
       <c r="G698" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="H698" t="s">
         <v>9</v>
@@ -21930,7 +21933,7 @@
         <v>3.16000008583069</v>
       </c>
       <c r="G699" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="H699" t="s">
         <v>9</v>
@@ -21956,7 +21959,7 @@
         <v>3.10999989509583</v>
       </c>
       <c r="G700" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="H700" t="s">
         <v>9</v>
@@ -22008,7 +22011,7 @@
         <v>2.98000001907349</v>
       </c>
       <c r="G702" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="H702" t="s">
         <v>9</v>
@@ -22034,7 +22037,7 @@
         <v>2.97499990463257</v>
       </c>
       <c r="G703" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="H703" t="s">
         <v>9</v>
@@ -22060,7 +22063,7 @@
         <v>2.97499990463257</v>
       </c>
       <c r="G704" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="H704" t="s">
         <v>9</v>
@@ -22086,7 +22089,7 @@
         <v>3.01500010490417</v>
       </c>
       <c r="G705" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="H705" t="s">
         <v>9</v>
@@ -22164,7 +22167,7 @@
         <v>2.9449999332428</v>
       </c>
       <c r="G708" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="H708" t="s">
         <v>9</v>
@@ -22190,7 +22193,7 @@
         <v>3.01500010490417</v>
       </c>
       <c r="G709" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="H709" t="s">
         <v>9</v>
@@ -22268,7 +22271,7 @@
         <v>2.9449999332428</v>
       </c>
       <c r="G712" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="H712" t="s">
         <v>9</v>
@@ -22320,7 +22323,7 @@
         <v>3.08500003814697</v>
       </c>
       <c r="G714" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="H714" t="s">
         <v>9</v>
@@ -22346,7 +22349,7 @@
         <v>3.05999994277954</v>
       </c>
       <c r="G715" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="H715" t="s">
         <v>9</v>
@@ -22372,7 +22375,7 @@
         <v>2.99000000953674</v>
       </c>
       <c r="G716" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="H716" t="s">
         <v>9</v>
@@ -22398,7 +22401,7 @@
         <v>2.97499990463257</v>
       </c>
       <c r="G717" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="H717" t="s">
         <v>9</v>
@@ -22424,7 +22427,7 @@
         <v>2.875</v>
       </c>
       <c r="G718" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="H718" t="s">
         <v>9</v>
@@ -22450,7 +22453,7 @@
         <v>2.86999988555908</v>
       </c>
       <c r="G719" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="H719" t="s">
         <v>9</v>
@@ -22476,7 +22479,7 @@
         <v>2.84999990463257</v>
       </c>
       <c r="G720" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="H720" t="s">
         <v>9</v>
@@ -22554,7 +22557,7 @@
         <v>2.89000010490417</v>
       </c>
       <c r="G723" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="H723" t="s">
         <v>9</v>
@@ -22580,7 +22583,7 @@
         <v>2.90000009536743</v>
       </c>
       <c r="G724" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="H724" t="s">
         <v>9</v>
@@ -22632,7 +22635,7 @@
         <v>2.97499990463257</v>
       </c>
       <c r="G726" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="H726" t="s">
         <v>9</v>
@@ -22658,7 +22661,7 @@
         <v>3.04999995231628</v>
       </c>
       <c r="G727" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="H727" t="s">
         <v>9</v>
@@ -22736,7 +22739,7 @@
         <v>3.08500003814697</v>
       </c>
       <c r="G730" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="H730" t="s">
         <v>9</v>
@@ -22762,7 +22765,7 @@
         <v>3.04999995231628</v>
       </c>
       <c r="G731" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="H731" t="s">
         <v>9</v>
@@ -22788,7 +22791,7 @@
         <v>3.04999995231628</v>
       </c>
       <c r="G732" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="H732" t="s">
         <v>9</v>
@@ -22814,7 +22817,7 @@
         <v>3.03500008583069</v>
       </c>
       <c r="G733" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="H733" t="s">
         <v>9</v>
@@ -22866,7 +22869,7 @@
         <v>2.99000000953674</v>
       </c>
       <c r="G735" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="H735" t="s">
         <v>9</v>
@@ -22918,7 +22921,7 @@
         <v>3</v>
       </c>
       <c r="G737" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="H737" t="s">
         <v>9</v>
@@ -22944,7 +22947,7 @@
         <v>3.04999995231628</v>
       </c>
       <c r="G738" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="H738" t="s">
         <v>9</v>
@@ -22996,7 +22999,7 @@
         <v>3</v>
       </c>
       <c r="G740" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="H740" t="s">
         <v>9</v>
@@ -23022,7 +23025,7 @@
         <v>3.04999995231628</v>
       </c>
       <c r="G741" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="H741" t="s">
         <v>9</v>
@@ -23048,7 +23051,7 @@
         <v>3.07999992370605</v>
       </c>
       <c r="G742" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="H742" t="s">
         <v>9</v>
@@ -23074,7 +23077,7 @@
         <v>3.05999994277954</v>
       </c>
       <c r="G743" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="H743" t="s">
         <v>9</v>
@@ -23152,7 +23155,7 @@
         <v>3.09500002861023</v>
       </c>
       <c r="G746" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="H746" t="s">
         <v>9</v>
@@ -23178,7 +23181,7 @@
         <v>3.08500003814697</v>
       </c>
       <c r="G747" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="H747" t="s">
         <v>9</v>
@@ -23230,7 +23233,7 @@
         <v>3.20000004768372</v>
       </c>
       <c r="G749" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="H749" t="s">
         <v>9</v>
@@ -23256,7 +23259,7 @@
         <v>3.08500003814697</v>
       </c>
       <c r="G750" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="H750" t="s">
         <v>9</v>
@@ -23282,7 +23285,7 @@
         <v>3.07500004768372</v>
       </c>
       <c r="G751" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="H751" t="s">
         <v>9</v>
@@ -23308,7 +23311,7 @@
         <v>3.08500003814697</v>
       </c>
       <c r="G752" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="H752" t="s">
         <v>9</v>
@@ -23334,7 +23337,7 @@
         <v>3.07999992370605</v>
       </c>
       <c r="G753" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="H753" t="s">
         <v>9</v>
@@ -23360,7 +23363,7 @@
         <v>3.11999988555908</v>
       </c>
       <c r="G754" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="H754" t="s">
         <v>9</v>
@@ -23386,7 +23389,7 @@
         <v>3.10999989509583</v>
       </c>
       <c r="G755" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="H755" t="s">
         <v>9</v>
@@ -23412,7 +23415,7 @@
         <v>3.125</v>
       </c>
       <c r="G756" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="H756" t="s">
         <v>9</v>
@@ -23464,7 +23467,7 @@
         <v>3.07500004768372</v>
       </c>
       <c r="G758" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="H758" t="s">
         <v>9</v>
@@ -23490,7 +23493,7 @@
         <v>3.07999992370605</v>
       </c>
       <c r="G759" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="H759" t="s">
         <v>9</v>
@@ -23542,7 +23545,7 @@
         <v>3.07500004768372</v>
       </c>
       <c r="G761" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="H761" t="s">
         <v>9</v>
@@ -23594,7 +23597,7 @@
         <v>3.10999989509583</v>
       </c>
       <c r="G763" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="H763" t="s">
         <v>9</v>
@@ -23620,7 +23623,7 @@
         <v>3.09500002861023</v>
       </c>
       <c r="G764" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="H764" t="s">
         <v>9</v>
@@ -23698,7 +23701,7 @@
         <v>3.24000000953674</v>
       </c>
       <c r="G767" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="H767" t="s">
         <v>9</v>
@@ -23750,7 +23753,7 @@
         <v>3.1949999332428</v>
       </c>
       <c r="G769" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="H769" t="s">
         <v>9</v>
@@ -23802,7 +23805,7 @@
         <v>3.1949999332428</v>
       </c>
       <c r="G771" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="H771" t="s">
         <v>9</v>
@@ -23828,7 +23831,7 @@
         <v>3.1800000667572</v>
       </c>
       <c r="G772" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="H772" t="s">
         <v>9</v>
@@ -23854,7 +23857,7 @@
         <v>3.1800000667572</v>
       </c>
       <c r="G773" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="H773" t="s">
         <v>9</v>
@@ -23880,7 +23883,7 @@
         <v>3.16499996185303</v>
       </c>
       <c r="G774" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="H774" t="s">
         <v>9</v>
@@ -23906,7 +23909,7 @@
         <v>3.1800000667572</v>
       </c>
       <c r="G775" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="H775" t="s">
         <v>9</v>
@@ -23958,7 +23961,7 @@
         <v>3.20000004768372</v>
       </c>
       <c r="G777" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="H777" t="s">
         <v>9</v>
@@ -24010,7 +24013,7 @@
         <v>3.20499992370605</v>
       </c>
       <c r="G779" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="H779" t="s">
         <v>9</v>
@@ -24088,7 +24091,7 @@
         <v>3.20000004768372</v>
       </c>
       <c r="G782" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="H782" t="s">
         <v>9</v>
@@ -24114,7 +24117,7 @@
         <v>3.20000004768372</v>
       </c>
       <c r="G783" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="H783" t="s">
         <v>9</v>
@@ -24218,7 +24221,7 @@
         <v>3.24000000953674</v>
       </c>
       <c r="G787" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="H787" t="s">
         <v>9</v>
@@ -24244,7 +24247,7 @@
         <v>3.25</v>
       </c>
       <c r="G788" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="H788" t="s">
         <v>9</v>
@@ -24296,7 +24299,7 @@
         <v>3.25999999046326</v>
       </c>
       <c r="G790" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="H790" t="s">
         <v>9</v>
@@ -24322,7 +24325,7 @@
         <v>3.25</v>
       </c>
       <c r="G791" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="H791" t="s">
         <v>9</v>
@@ -24348,7 +24351,7 @@
         <v>3.24000000953674</v>
       </c>
       <c r="G792" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="H792" t="s">
         <v>9</v>
@@ -24374,7 +24377,7 @@
         <v>3.26999998092651</v>
       </c>
       <c r="G793" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="H793" t="s">
         <v>9</v>
@@ -24400,7 +24403,7 @@
         <v>3.25999999046326</v>
       </c>
       <c r="G794" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="H794" t="s">
         <v>9</v>
@@ -24452,7 +24455,7 @@
         <v>3.29999995231628</v>
       </c>
       <c r="G796" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="H796" t="s">
         <v>9</v>
@@ -24712,7 +24715,7 @@
         <v>3.34999990463257</v>
       </c>
       <c r="G806" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="H806" t="s">
         <v>9</v>
@@ -25206,7 +25209,7 @@
         <v>3.53999996185303</v>
       </c>
       <c r="G825" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="H825" t="s">
         <v>9</v>
@@ -60366,7 +60369,7 @@
     </row>
     <row r="2178">
       <c r="A2178" s="1" t="n">
-        <v>45495.649525463</v>
+        <v>45495.2916666667</v>
       </c>
       <c r="B2178" t="n">
         <v>69197</v>
@@ -60387,6 +60390,32 @@
         <v>1134</v>
       </c>
       <c r="H2178" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2179">
+      <c r="A2179" s="1" t="n">
+        <v>45496.6493402778</v>
+      </c>
+      <c r="B2179" t="n">
+        <v>130073</v>
+      </c>
+      <c r="C2179" t="n">
+        <v>2.41000008583069</v>
+      </c>
+      <c r="D2179" t="n">
+        <v>2.375</v>
+      </c>
+      <c r="E2179" t="n">
+        <v>2.41000008583069</v>
+      </c>
+      <c r="F2179" t="n">
+        <v>2.41000008583069</v>
+      </c>
+      <c r="G2179" t="s">
+        <v>1137</v>
+      </c>
+      <c r="H2179" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/ASC.MI.xlsx
+++ b/data/ASC.MI.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1138" uniqueCount="1138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1139" uniqueCount="1139">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -38,31 +38,31 @@
     <t xml:space="preserve">ticker</t>
   </si>
   <si>
-    <t xml:space="preserve">1.31329560279846</t>
+    <t xml:space="preserve">1.31329584121704</t>
   </si>
   <si>
     <t xml:space="preserve">ASC.MI</t>
   </si>
   <si>
-    <t xml:space="preserve">1.31448101997375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.3026282787323</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.30381333827972</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.28959000110626</t>
+    <t xml:space="preserve">1.31448078155518</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.30262815952301</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.3038135766983</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.28959012031555</t>
   </si>
   <si>
     <t xml:space="preserve">1.28247821331024</t>
   </si>
   <si>
-    <t xml:space="preserve">1.30973994731903</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.28366374969482</t>
+    <t xml:space="preserve">1.30973982810974</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.28366339206696</t>
   </si>
   <si>
     <t xml:space="preserve">1.26588428020477</t>
@@ -71,13 +71,13 @@
     <t xml:space="preserve">1.22676992416382</t>
   </si>
   <si>
-    <t xml:space="preserve">1.23032581806183</t>
+    <t xml:space="preserve">1.23032569885254</t>
   </si>
   <si>
     <t xml:space="preserve">1.19121146202087</t>
   </si>
   <si>
-    <t xml:space="preserve">1.21491682529449</t>
+    <t xml:space="preserve">1.21491706371307</t>
   </si>
   <si>
     <t xml:space="preserve">1.29196059703827</t>
@@ -86,25 +86,25 @@
     <t xml:space="preserve">1.28840470314026</t>
   </si>
   <si>
-    <t xml:space="preserve">1.28129303455353</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.30736923217773</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.31211054325104</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.29788708686829</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.23862278461456</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.24454915523529</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.24336385726929</t>
+    <t xml:space="preserve">1.28129315376282</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.30736935138702</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.31211042404175</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.29788720607758</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.23862266540527</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.244549036026</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.24336397647858</t>
   </si>
   <si>
     <t xml:space="preserve">1.22439932823181</t>
@@ -113,7 +113,7 @@
     <t xml:space="preserve">1.24099338054657</t>
   </si>
   <si>
-    <t xml:space="preserve">1.26469910144806</t>
+    <t xml:space="preserve">1.26469898223877</t>
   </si>
   <si>
     <t xml:space="preserve">1.26232850551605</t>
@@ -122,10 +122,10 @@
     <t xml:space="preserve">1.26825499534607</t>
   </si>
   <si>
-    <t xml:space="preserve">1.27062559127808</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.32514870166779</t>
+    <t xml:space="preserve">1.27062523365021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.3251485824585</t>
   </si>
   <si>
     <t xml:space="preserve">1.32159268856049</t>
@@ -134,19 +134,19 @@
     <t xml:space="preserve">1.32396328449249</t>
   </si>
   <si>
-    <t xml:space="preserve">1.31685149669647</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.31922221183777</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.30618417263031</t>
+    <t xml:space="preserve">1.31685161590576</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.31922209262848</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.30618393421173</t>
   </si>
   <si>
     <t xml:space="preserve">1.31803679466248</t>
   </si>
   <si>
-    <t xml:space="preserve">1.33581626415253</t>
+    <t xml:space="preserve">1.33581614494324</t>
   </si>
   <si>
     <t xml:space="preserve">1.34411311149597</t>
@@ -155,34 +155,34 @@
     <t xml:space="preserve">1.34648394584656</t>
   </si>
   <si>
-    <t xml:space="preserve">1.36070704460144</t>
+    <t xml:space="preserve">1.36070716381073</t>
   </si>
   <si>
     <t xml:space="preserve">1.35833656787872</t>
   </si>
   <si>
-    <t xml:space="preserve">1.34766888618469</t>
+    <t xml:space="preserve">1.34766912460327</t>
   </si>
   <si>
     <t xml:space="preserve">1.34292781352997</t>
   </si>
   <si>
-    <t xml:space="preserve">1.36189258098602</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.34055721759796</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.35596609115601</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.35952174663544</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.36307775974274</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.34885430335999</t>
+    <t xml:space="preserve">1.36189246177673</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.34055733680725</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.35596597194672</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.35952210426331</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.36307764053345</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.3488541841507</t>
   </si>
   <si>
     <t xml:space="preserve">1.36426293849945</t>
@@ -191,19 +191,19 @@
     <t xml:space="preserve">1.38796865940094</t>
   </si>
   <si>
-    <t xml:space="preserve">1.38085699081421</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.38322758674622</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.38678324222565</t>
+    <t xml:space="preserve">1.38085687160492</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.38322770595551</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.38678348064423</t>
   </si>
   <si>
     <t xml:space="preserve">1.39152455329895</t>
   </si>
   <si>
-    <t xml:space="preserve">1.39863610267639</t>
+    <t xml:space="preserve">1.39863622188568</t>
   </si>
   <si>
     <t xml:space="preserve">1.3784863948822</t>
@@ -221,73 +221,73 @@
     <t xml:space="preserve">1.41048920154572</t>
   </si>
   <si>
-    <t xml:space="preserve">1.41760075092316</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.41523003578186</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.40456247329712</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.39982151985168</t>
+    <t xml:space="preserve">1.41760087013245</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.41523015499115</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.4045627117157</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.39982175827026</t>
   </si>
   <si>
     <t xml:space="preserve">1.4328111410141</t>
   </si>
   <si>
-    <t xml:space="preserve">1.4302796125412</t>
+    <t xml:space="preserve">1.43027949333191</t>
   </si>
   <si>
     <t xml:space="preserve">1.43407678604126</t>
   </si>
   <si>
-    <t xml:space="preserve">1.44926571846008</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.46572017669678</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.46192300319672</t>
+    <t xml:space="preserve">1.4492654800415</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.46572029590607</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.46192312240601</t>
   </si>
   <si>
     <t xml:space="preserve">1.4758460521698</t>
   </si>
   <si>
-    <t xml:space="preserve">1.48344075679779</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.48470628261566</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.48976933956146</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.49483215808868</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.50242650508881</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.53153860569</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.5290070772171</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.54419589042664</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.55938446521759</t>
+    <t xml:space="preserve">1.48344051837921</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.48470616340637</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.48976922035217</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.49483227729797</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.5024266242981</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.53153836727142</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.52900671958923</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.54419565200806</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.5593843460083</t>
   </si>
   <si>
     <t xml:space="preserve">1.58343350887299</t>
   </si>
   <si>
-    <t xml:space="preserve">1.54546129703522</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.55685305595398</t>
+    <t xml:space="preserve">1.54546141624451</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.55685329437256</t>
   </si>
   <si>
     <t xml:space="preserve">1.53913271427155</t>
@@ -296,16 +296,16 @@
     <t xml:space="preserve">1.58216774463654</t>
   </si>
   <si>
-    <t xml:space="preserve">1.65178310871124</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.65811157226562</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.64039170742035</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.56571316719055</t>
+    <t xml:space="preserve">1.65178322792053</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.65811169147491</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.64039134979248</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.56571304798126</t>
   </si>
   <si>
     <t xml:space="preserve">1.55052447319031</t>
@@ -317,64 +317,64 @@
     <t xml:space="preserve">1.64418852329254</t>
   </si>
   <si>
-    <t xml:space="preserve">1.58849668502808</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.56318175792694</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.60495114326477</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.63912582397461</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.70874118804932</t>
+    <t xml:space="preserve">1.5884964466095</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.56318163871765</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.60495090484619</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.63912558555603</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.70874106884003</t>
   </si>
   <si>
     <t xml:space="preserve">1.69481790065765</t>
   </si>
   <si>
-    <t xml:space="preserve">1.63786005973816</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.69355261325836</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.70494389533997</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.70621001720428</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.76316785812378</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.76823079586029</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.77076208591461</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.73532152175903</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.73405575752258</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.77202796936035</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.78468525409698</t>
+    <t xml:space="preserve">1.63786017894745</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.69355237483978</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.70494401454926</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.706209897995</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.76316773891449</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.76823031902313</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.7707622051239</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.73532164096832</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.73405587673187</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.77202785015106</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.7846851348877</t>
   </si>
   <si>
     <t xml:space="preserve">1.75051045417786</t>
   </si>
   <si>
-    <t xml:space="preserve">1.7467132806778</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.75304174423218</t>
+    <t xml:space="preserve">1.74671304225922</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.75304198265076</t>
   </si>
   <si>
     <t xml:space="preserve">1.76443362236023</t>
@@ -383,31 +383,31 @@
     <t xml:space="preserve">1.80620288848877</t>
   </si>
   <si>
-    <t xml:space="preserve">1.84164345264435</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.80367112159729</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.83278286457062</t>
+    <t xml:space="preserve">1.84164321422577</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.803671002388</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.83278334140778</t>
   </si>
   <si>
     <t xml:space="preserve">1.82012569904327</t>
   </si>
   <si>
-    <t xml:space="preserve">1.79734241962433</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.79607689380646</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.79354548454285</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.81632828712463</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.82265746593475</t>
+    <t xml:space="preserve">1.79734253883362</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.79607677459717</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.79354524612427</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.81632840633392</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.82265734672546</t>
   </si>
   <si>
     <t xml:space="preserve">1.80999982357025</t>
@@ -416,7 +416,7 @@
     <t xml:space="preserve">1.82518887519836</t>
   </si>
   <si>
-    <t xml:space="preserve">1.81126546859741</t>
+    <t xml:space="preserve">1.8112655878067</t>
   </si>
   <si>
     <t xml:space="preserve">1.70241248607635</t>
@@ -425,28 +425,28 @@
     <t xml:space="preserve">1.71380388736725</t>
   </si>
   <si>
-    <t xml:space="preserve">1.78974807262421</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.74038434028625</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.65558016300201</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.67583215236664</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.64798617362976</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.67456650733948</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.66064321994781</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.68722379207611</t>
+    <t xml:space="preserve">1.7897481918335</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.74038469791412</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.65558052062988</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.67583239078522</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.64798593521118</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.67456638813019</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.66064310073853</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.68722367286682</t>
   </si>
   <si>
     <t xml:space="preserve">1.698615193367</t>
@@ -464,109 +464,109 @@
     <t xml:space="preserve">1.65937769412994</t>
   </si>
   <si>
-    <t xml:space="preserve">1.66190922260284</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.68469226360321</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.69228661060333</t>
+    <t xml:space="preserve">1.66190886497498</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.68469214439392</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.69228672981262</t>
   </si>
   <si>
     <t xml:space="preserve">1.69608390331268</t>
   </si>
   <si>
-    <t xml:space="preserve">1.70114660263062</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.66317462921143</t>
+    <t xml:space="preserve">1.70114696025848</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.66317486763</t>
   </si>
   <si>
     <t xml:space="preserve">1.68975520133972</t>
   </si>
   <si>
-    <t xml:space="preserve">1.68595790863037</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.67836332321167</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.63406300544739</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.57710468769073</t>
+    <t xml:space="preserve">1.68595778942108</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.67836344242096</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.63406276702881</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.57710480690002</t>
   </si>
   <si>
     <t xml:space="preserve">1.53406977653503</t>
   </si>
   <si>
-    <t xml:space="preserve">1.53533577919006</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.540398478508</t>
+    <t xml:space="preserve">1.53533554077148</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.54039835929871</t>
   </si>
   <si>
     <t xml:space="preserve">1.52267825603485</t>
   </si>
   <si>
-    <t xml:space="preserve">1.60115373134613</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.63153123855591</t>
+    <t xml:space="preserve">1.60115385055542</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.6315313577652</t>
   </si>
   <si>
     <t xml:space="preserve">1.60748243331909</t>
   </si>
   <si>
-    <t xml:space="preserve">1.57583916187286</t>
+    <t xml:space="preserve">1.57583928108215</t>
   </si>
   <si>
     <t xml:space="preserve">1.53786706924438</t>
   </si>
   <si>
-    <t xml:space="preserve">1.55558705329895</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.58723056316376</t>
+    <t xml:space="preserve">1.55558729171753</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.58723068237305</t>
   </si>
   <si>
     <t xml:space="preserve">1.61381101608276</t>
   </si>
   <si>
-    <t xml:space="preserve">1.62899994850159</t>
+    <t xml:space="preserve">1.6289998292923</t>
   </si>
   <si>
     <t xml:space="preserve">1.62393689155579</t>
   </si>
   <si>
-    <t xml:space="preserve">1.64545428752899</t>
+    <t xml:space="preserve">1.64545440673828</t>
   </si>
   <si>
     <t xml:space="preserve">1.63659429550171</t>
   </si>
   <si>
-    <t xml:space="preserve">1.63026583194733</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.68089509010315</t>
+    <t xml:space="preserve">1.63026559352875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.68089497089386</t>
   </si>
   <si>
     <t xml:space="preserve">1.71000695228577</t>
   </si>
   <si>
-    <t xml:space="preserve">1.69988107681274</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.72139859199524</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.71760129928589</t>
+    <t xml:space="preserve">1.69988119602203</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.72139847278595</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.7176011800766</t>
   </si>
   <si>
     <t xml:space="preserve">1.72393012046814</t>
   </si>
   <si>
-    <t xml:space="preserve">1.7365870475769</t>
+    <t xml:space="preserve">1.73658740520477</t>
   </si>
   <si>
     <t xml:space="preserve">1.71506977081299</t>
@@ -575,13 +575,13 @@
     <t xml:space="preserve">1.7226642370224</t>
   </si>
   <si>
-    <t xml:space="preserve">1.73278999328613</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.75177586078644</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.76190185546875</t>
+    <t xml:space="preserve">1.73279011249542</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.75177609920502</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.76190173625946</t>
   </si>
   <si>
     <t xml:space="preserve">1.75937044620514</t>
@@ -590,70 +590,70 @@
     <t xml:space="preserve">1.7302588224411</t>
   </si>
   <si>
-    <t xml:space="preserve">1.81253147125244</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.80493688583374</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.78848242759705</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.77709066867828</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.82139146327972</t>
+    <t xml:space="preserve">1.81253135204315</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.80493712425232</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.78848230838776</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.77709090709686</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.82139134407043</t>
   </si>
   <si>
     <t xml:space="preserve">1.82772016525269</t>
   </si>
   <si>
-    <t xml:space="preserve">1.79481101036072</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.82898569107056</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.84037733078003</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.8137971162796</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.86695790290833</t>
+    <t xml:space="preserve">1.79481089115143</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.82898604869843</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.8403776884079</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.81379699707031</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.86695802211761</t>
   </si>
   <si>
     <t xml:space="preserve">1.86062932014465</t>
   </si>
   <si>
-    <t xml:space="preserve">1.88594400882721</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.91758716106415</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.93404161930084</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.95049655437469</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.9593563079834</t>
+    <t xml:space="preserve">1.8859441280365</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.91758739948273</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.93404197692871</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.95049643516541</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.95935654640198</t>
   </si>
   <si>
     <t xml:space="preserve">1.95555937290192</t>
   </si>
   <si>
-    <t xml:space="preserve">1.99732863903046</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.98213994503021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.03656625747681</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.0631468296051</t>
+    <t xml:space="preserve">1.99732840061188</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.98213982582092</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.03656649589539</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.06314659118652</t>
   </si>
   <si>
     <t xml:space="preserve">2.08339858055115</t>
@@ -662,19 +662,19 @@
     <t xml:space="preserve">2.10238456726074</t>
   </si>
   <si>
-    <t xml:space="preserve">2.06947541236877</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.07200694084167</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.11377596855164</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.10871338844299</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.12516808509827</t>
+    <t xml:space="preserve">2.06947588920593</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.07200646400452</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.11377573013306</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.10871315002441</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.12516784667969</t>
   </si>
   <si>
     <t xml:space="preserve">2.16440534591675</t>
@@ -686,46 +686,46 @@
     <t xml:space="preserve">2.15681099891663</t>
   </si>
   <si>
-    <t xml:space="preserve">2.19604897499084</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.204909324646</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.21883225440979</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.2276918888092</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.23148941993713</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.21503448486328</t>
+    <t xml:space="preserve">2.19604921340942</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.20490908622742</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.21883201599121</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.22769212722778</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.23148918151855</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.21503472328186</t>
   </si>
   <si>
     <t xml:space="preserve">2.24034953117371</t>
   </si>
   <si>
-    <t xml:space="preserve">2.23275518417358</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.22895812988281</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.21376872062683</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.22516059875488</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.27452445030212</t>
+    <t xml:space="preserve">2.232754945755</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.22895789146423</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.21376919746399</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.22516083717346</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.27452421188354</t>
   </si>
   <si>
     <t xml:space="preserve">2.24288082122803</t>
   </si>
   <si>
-    <t xml:space="preserve">2.23908376693726</t>
+    <t xml:space="preserve">2.23908400535583</t>
   </si>
   <si>
     <t xml:space="preserve">2.2783215045929</t>
@@ -734,7 +734,7 @@
     <t xml:space="preserve">2.26946139335632</t>
   </si>
   <si>
-    <t xml:space="preserve">2.27325868606567</t>
+    <t xml:space="preserve">2.27325844764709</t>
   </si>
   <si>
     <t xml:space="preserve">2.29224467277527</t>
@@ -743,16 +743,16 @@
     <t xml:space="preserve">2.34160852432251</t>
   </si>
   <si>
-    <t xml:space="preserve">2.34920263290405</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.39350342750549</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.4227409362793</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.4094512462616</t>
+    <t xml:space="preserve">2.34920287132263</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.39350318908691</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.42274117469788</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.40945148468018</t>
   </si>
   <si>
     <t xml:space="preserve">2.39616131782532</t>
@@ -761,7 +761,7 @@
     <t xml:space="preserve">2.37755560874939</t>
   </si>
   <si>
-    <t xml:space="preserve">2.3164222240448</t>
+    <t xml:space="preserve">2.31642246246338</t>
   </si>
   <si>
     <t xml:space="preserve">2.31243538856506</t>
@@ -770,7 +770,7 @@
     <t xml:space="preserve">2.35230493545532</t>
   </si>
   <si>
-    <t xml:space="preserve">2.31376457214355</t>
+    <t xml:space="preserve">2.3137640953064</t>
   </si>
   <si>
     <t xml:space="preserve">2.3004744052887</t>
@@ -782,64 +782,64 @@
     <t xml:space="preserve">2.38154268264771</t>
   </si>
   <si>
-    <t xml:space="preserve">2.40014839172363</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.41476726531982</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.43204402923584</t>
+    <t xml:space="preserve">2.40014863014221</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.4147675037384</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.43204426765442</t>
   </si>
   <si>
     <t xml:space="preserve">2.41875410079956</t>
   </si>
   <si>
-    <t xml:space="preserve">2.3629367351532</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.40147757530212</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.40812230110168</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.42539954185486</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.43071484565735</t>
+    <t xml:space="preserve">2.36293649673462</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.4014778137207</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.40812253952026</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.4253990650177</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.43071508407593</t>
   </si>
   <si>
     <t xml:space="preserve">2.40413522720337</t>
   </si>
   <si>
-    <t xml:space="preserve">2.39217448234558</t>
+    <t xml:space="preserve">2.392174243927</t>
   </si>
   <si>
     <t xml:space="preserve">2.41210913658142</t>
   </si>
   <si>
-    <t xml:space="preserve">2.41343808174133</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.40679359436035</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.47058439254761</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.38951635360718</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.37489748001099</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.35762071609497</t>
+    <t xml:space="preserve">2.41343832015991</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.40679335594177</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.47058463096619</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.38951659202576</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.37489771842957</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.35762095451355</t>
   </si>
   <si>
     <t xml:space="preserve">2.35894966125488</t>
   </si>
   <si>
-    <t xml:space="preserve">2.31509327888489</t>
+    <t xml:space="preserve">2.31509304046631</t>
   </si>
   <si>
     <t xml:space="preserve">2.30579042434692</t>
@@ -848,7 +848,7 @@
     <t xml:space="preserve">2.33104109764099</t>
   </si>
   <si>
-    <t xml:space="preserve">2.32173848152161</t>
+    <t xml:space="preserve">2.32173800468445</t>
   </si>
   <si>
     <t xml:space="preserve">2.3190803527832</t>
@@ -857,82 +857,82 @@
     <t xml:space="preserve">2.32306742668152</t>
   </si>
   <si>
-    <t xml:space="preserve">2.32838320732117</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.30446147918701</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.26592063903809</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.25661754608154</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.27921080589294</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.29250073432922</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.30180335044861</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.38552951812744</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.38021373748779</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.39084553718567</t>
+    <t xml:space="preserve">2.32838273048401</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.30446124076843</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.26592087745667</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.25661778450012</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.27921056747437</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.29250049591064</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.30180358886719</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.38552927970886</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.38021397590637</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.39084529876709</t>
   </si>
   <si>
     <t xml:space="preserve">2.37622666358948</t>
   </si>
   <si>
-    <t xml:space="preserve">2.35629200935364</t>
+    <t xml:space="preserve">2.35629177093506</t>
   </si>
   <si>
     <t xml:space="preserve">2.33901500701904</t>
   </si>
   <si>
-    <t xml:space="preserve">2.34034442901611</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.32572507858276</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.35097575187683</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.30977725982666</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.35496306419373</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.43470191955566</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.39881920814514</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.42141175270081</t>
+    <t xml:space="preserve">2.34034395217896</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.32572531700134</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.35097599029541</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.30977773666382</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.35496282577515</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.43470239639282</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.39881944656372</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.42141199111938</t>
   </si>
   <si>
     <t xml:space="preserve">2.34698915481567</t>
   </si>
   <si>
-    <t xml:space="preserve">2.34831786155701</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.33502793312073</t>
+    <t xml:space="preserve">2.34831762313843</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.33502817153931</t>
   </si>
   <si>
     <t xml:space="preserve">2.32971215248108</t>
   </si>
   <si>
-    <t xml:space="preserve">2.39483261108398</t>
+    <t xml:space="preserve">2.39483237266541</t>
   </si>
   <si>
     <t xml:space="preserve">2.37223958969116</t>
@@ -944,10 +944,10 @@
     <t xml:space="preserve">2.36825251579285</t>
   </si>
   <si>
-    <t xml:space="preserve">2.41742539405823</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.43603086471558</t>
+    <t xml:space="preserve">2.41742491722107</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.43603110313416</t>
   </si>
   <si>
     <t xml:space="preserve">2.4719135761261</t>
@@ -962,22 +962,22 @@
     <t xml:space="preserve">2.51311230659485</t>
   </si>
   <si>
-    <t xml:space="preserve">2.51178312301636</t>
+    <t xml:space="preserve">2.51178336143494</t>
   </si>
   <si>
     <t xml:space="preserve">2.54367876052856</t>
   </si>
   <si>
-    <t xml:space="preserve">2.45197892189026</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.45729494094849</t>
+    <t xml:space="preserve">2.45197868347168</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.45729446411133</t>
   </si>
   <si>
     <t xml:space="preserve">2.40546417236328</t>
   </si>
   <si>
-    <t xml:space="preserve">2.42938542366028</t>
+    <t xml:space="preserve">2.42938613891602</t>
   </si>
   <si>
     <t xml:space="preserve">2.47324252128601</t>
@@ -989,16 +989,16 @@
     <t xml:space="preserve">2.44134712219238</t>
   </si>
   <si>
-    <t xml:space="preserve">2.42672824859619</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.44932103157043</t>
+    <t xml:space="preserve">2.42672801017761</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.44932079315186</t>
   </si>
   <si>
     <t xml:space="preserve">2.37888479232788</t>
   </si>
   <si>
-    <t xml:space="preserve">2.42872166633606</t>
+    <t xml:space="preserve">2.42872142791748</t>
   </si>
   <si>
     <t xml:space="preserve">2.44533395767212</t>
@@ -1013,13 +1013,13 @@
     <t xml:space="preserve">2.38220715522766</t>
   </si>
   <si>
-    <t xml:space="preserve">2.19282627105713</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.09979772567749</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.15960216522217</t>
+    <t xml:space="preserve">2.19282650947571</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.09979748725891</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.15960192680359</t>
   </si>
   <si>
     <t xml:space="preserve">2.12969970703125</t>
@@ -1028,49 +1028,49 @@
     <t xml:space="preserve">2.09315276145935</t>
   </si>
   <si>
-    <t xml:space="preserve">2.14631223678589</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.13634467124939</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.17289161682129</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.17953658103943</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.12305498123169</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.10644245147705</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.08318567276001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.07321786880493</t>
+    <t xml:space="preserve">2.14631175994873</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.13634443283081</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.17289185523987</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.17953634262085</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.12305474281311</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.10644292831421</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.08318519592285</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.07321810722351</t>
   </si>
   <si>
     <t xml:space="preserve">2.03334832191467</t>
   </si>
   <si>
-    <t xml:space="preserve">2.06989550590515</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.07986283302307</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.10311985015869</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.14298963546753</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.09647512435913</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.12637734413147</t>
+    <t xml:space="preserve">2.06989526748657</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.07986307144165</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.10312008857727</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.14298939704895</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.09647536277771</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.12637710571289</t>
   </si>
   <si>
     <t xml:space="preserve">2.13302206993103</t>
@@ -1079,19 +1079,19 @@
     <t xml:space="preserve">2.18285918235779</t>
   </si>
   <si>
-    <t xml:space="preserve">2.16292428970337</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.11641001701355</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.11973237991333</t>
+    <t xml:space="preserve">2.16292452812195</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.11640977859497</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.11973214149475</t>
   </si>
   <si>
     <t xml:space="preserve">2.15627932548523</t>
   </si>
   <si>
-    <t xml:space="preserve">2.16624689102173</t>
+    <t xml:space="preserve">2.16624665260315</t>
   </si>
   <si>
     <t xml:space="preserve">2.19947123527527</t>
@@ -1100,31 +1100,31 @@
     <t xml:space="preserve">2.17621445655823</t>
   </si>
   <si>
-    <t xml:space="preserve">2.18618154525757</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.20943880081177</t>
+    <t xml:space="preserve">2.18618178367615</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.20943927764893</t>
   </si>
   <si>
     <t xml:space="preserve">2.21276140213013</t>
   </si>
   <si>
-    <t xml:space="preserve">2.25927591323853</t>
+    <t xml:space="preserve">2.25927567481995</t>
   </si>
   <si>
     <t xml:space="preserve">2.34565997123718</t>
   </si>
   <si>
-    <t xml:space="preserve">2.32904767990112</t>
+    <t xml:space="preserve">2.32904744148254</t>
   </si>
   <si>
     <t xml:space="preserve">2.34655904769897</t>
   </si>
   <si>
-    <t xml:space="preserve">2.44279050827026</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.39837598800659</t>
+    <t xml:space="preserve">2.44279003143311</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.39837574958801</t>
   </si>
   <si>
     <t xml:space="preserve">2.36876630783081</t>
@@ -1136,10 +1136,10 @@
     <t xml:space="preserve">2.3539617061615</t>
   </si>
   <si>
-    <t xml:space="preserve">2.31694936752319</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.30584621429443</t>
+    <t xml:space="preserve">2.31694984436035</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.30584597587585</t>
   </si>
   <si>
     <t xml:space="preserve">2.29844379425049</t>
@@ -1151,13 +1151,13 @@
     <t xml:space="preserve">2.27993750572205</t>
   </si>
   <si>
-    <t xml:space="preserve">2.26143169403076</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.22441959381104</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.1281886100769</t>
+    <t xml:space="preserve">2.26143145561218</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.22441983222961</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.12818837165833</t>
   </si>
   <si>
     <t xml:space="preserve">2.18370652198792</t>
@@ -1166,25 +1166,25 @@
     <t xml:space="preserve">2.23182225227356</t>
   </si>
   <si>
-    <t xml:space="preserve">2.22071886062622</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.20591378211975</t>
+    <t xml:space="preserve">2.22071838378906</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.20591354370117</t>
   </si>
   <si>
     <t xml:space="preserve">2.18000507354736</t>
   </si>
   <si>
-    <t xml:space="preserve">2.25773048400879</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.26513266563416</t>
+    <t xml:space="preserve">2.25773000717163</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.26513290405273</t>
   </si>
   <si>
     <t xml:space="preserve">2.2022123336792</t>
   </si>
   <si>
-    <t xml:space="preserve">2.21331596374512</t>
+    <t xml:space="preserve">2.2133162021637</t>
   </si>
   <si>
     <t xml:space="preserve">2.21701693534851</t>
@@ -1196,16 +1196,16 @@
     <t xml:space="preserve">2.26883411407471</t>
   </si>
   <si>
-    <t xml:space="preserve">2.24662709236145</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.18740773200989</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.16890168190002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.15779805183411</t>
+    <t xml:space="preserve">2.24662685394287</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.18740749359131</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.1689019203186</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.15779781341553</t>
   </si>
   <si>
     <t xml:space="preserve">2.13929200172424</t>
@@ -1220,22 +1220,22 @@
     <t xml:space="preserve">2.12448716163635</t>
   </si>
   <si>
-    <t xml:space="preserve">2.14669442176819</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.11708498001099</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.10968255996704</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.32435202598572</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.33175468444824</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.3724672794342</t>
+    <t xml:space="preserve">2.14669489860535</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.11708474159241</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.10968232154846</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.32435178756714</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.33175444602966</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.37246751785278</t>
   </si>
   <si>
     <t xml:space="preserve">2.62044763565063</t>
@@ -1247,19 +1247,19 @@
     <t xml:space="preserve">2.47980213165283</t>
   </si>
   <si>
-    <t xml:space="preserve">2.41688227653503</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.42058277130127</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.40577864646912</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.36506533622742</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.32065057754517</t>
+    <t xml:space="preserve">2.41688203811646</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.42058300971985</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.40577840805054</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.36506485939026</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.32065081596375</t>
   </si>
   <si>
     <t xml:space="preserve">2.29474234580994</t>
@@ -1271,16 +1271,16 @@
     <t xml:space="preserve">2.30954694747925</t>
   </si>
   <si>
-    <t xml:space="preserve">2.27623629570007</t>
+    <t xml:space="preserve">2.27623653411865</t>
   </si>
   <si>
     <t xml:space="preserve">2.28363871574402</t>
   </si>
   <si>
-    <t xml:space="preserve">2.30214476585388</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.3132483959198</t>
+    <t xml:space="preserve">2.3021445274353</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.31324863433838</t>
   </si>
   <si>
     <t xml:space="preserve">2.342857837677</t>
@@ -1289,19 +1289,19 @@
     <t xml:space="preserve">2.33915686607361</t>
   </si>
   <si>
-    <t xml:space="preserve">2.33545541763306</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.2429256439209</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.17630386352539</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.19110894203186</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.23552322387695</t>
+    <t xml:space="preserve">2.33545565605164</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.24292540550232</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.17630410194397</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.19110918045044</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.23552346229553</t>
   </si>
   <si>
     <t xml:space="preserve">2.08747529983521</t>
@@ -1310,22 +1310,22 @@
     <t xml:space="preserve">2.15039563179016</t>
   </si>
   <si>
-    <t xml:space="preserve">2.15409708023071</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.25402903556824</t>
+    <t xml:space="preserve">2.15409684181213</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.2540295124054</t>
   </si>
   <si>
     <t xml:space="preserve">2.27253532409668</t>
   </si>
   <si>
-    <t xml:space="preserve">2.25032782554626</t>
+    <t xml:space="preserve">2.25032830238342</t>
   </si>
   <si>
     <t xml:space="preserve">2.22812080383301</t>
   </si>
   <si>
-    <t xml:space="preserve">2.40207695960999</t>
+    <t xml:space="preserve">2.40207719802856</t>
   </si>
   <si>
     <t xml:space="preserve">2.43168663978577</t>
@@ -1337,16 +1337,16 @@
     <t xml:space="preserve">2.35766267776489</t>
   </si>
   <si>
-    <t xml:space="preserve">2.37616848945618</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.37987017631531</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.42428421974182</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.42798519134521</t>
+    <t xml:space="preserve">2.37616896629333</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.37986969947815</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.4242844581604</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.42798542976379</t>
   </si>
   <si>
     <t xml:space="preserve">2.44649147987366</t>
@@ -1355,7 +1355,7 @@
     <t xml:space="preserve">2.45019268989563</t>
   </si>
   <si>
-    <t xml:space="preserve">2.50200963020325</t>
+    <t xml:space="preserve">2.50200939178467</t>
   </si>
   <si>
     <t xml:space="preserve">2.49460697174072</t>
@@ -1364,31 +1364,31 @@
     <t xml:space="preserve">2.49090600013733</t>
   </si>
   <si>
-    <t xml:space="preserve">2.51311302185059</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.49830794334412</t>
+    <t xml:space="preserve">2.51311326026917</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.4983081817627</t>
   </si>
   <si>
     <t xml:space="preserve">2.50571060180664</t>
   </si>
   <si>
-    <t xml:space="preserve">2.56122875213623</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.53161883354187</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.5686309337616</t>
+    <t xml:space="preserve">2.56122851371765</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.53161907196045</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.56863117218018</t>
   </si>
   <si>
     <t xml:space="preserve">2.52791786193848</t>
   </si>
   <si>
-    <t xml:space="preserve">2.53902149200439</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.52051568031311</t>
+    <t xml:space="preserve">2.53902173042297</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.52051520347595</t>
   </si>
   <si>
     <t xml:space="preserve">2.5242166519165</t>
@@ -1397,22 +1397,22 @@
     <t xml:space="preserve">2.54272270202637</t>
   </si>
   <si>
-    <t xml:space="preserve">2.55382633209229</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.5760338306427</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.60194206237793</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.59083795547485</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.57973456382751</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.62785029411316</t>
+    <t xml:space="preserve">2.55382657051086</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.57603359222412</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.60194182395935</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.59083843231201</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.57973432540894</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.62785005569458</t>
   </si>
   <si>
     <t xml:space="preserve">2.64635634422302</t>
@@ -1424,7 +1424,7 @@
     <t xml:space="preserve">2.63895392417908</t>
   </si>
   <si>
-    <t xml:space="preserve">2.65745949745178</t>
+    <t xml:space="preserve">2.65745973587036</t>
   </si>
   <si>
     <t xml:space="preserve">2.67226433753967</t>
@@ -1433,22 +1433,22 @@
     <t xml:space="preserve">2.71297764778137</t>
   </si>
   <si>
-    <t xml:space="preserve">2.72778224945068</t>
+    <t xml:space="preserve">2.72778248786926</t>
   </si>
   <si>
     <t xml:space="preserve">2.70187401771545</t>
   </si>
   <si>
-    <t xml:space="preserve">2.69077038764954</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.74258708953857</t>
+    <t xml:space="preserve">2.69077062606812</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.74258732795715</t>
   </si>
   <si>
     <t xml:space="preserve">2.75739216804504</t>
   </si>
   <si>
-    <t xml:space="preserve">2.82401371002197</t>
+    <t xml:space="preserve">2.82401347160339</t>
   </si>
   <si>
     <t xml:space="preserve">2.82031226158142</t>
@@ -1457,19 +1457,19 @@
     <t xml:space="preserve">2.8499219417572</t>
   </si>
   <si>
-    <t xml:space="preserve">2.83881807327271</t>
+    <t xml:space="preserve">2.83881831169128</t>
   </si>
   <si>
     <t xml:space="preserve">3.02654099464417</t>
   </si>
   <si>
-    <t xml:space="preserve">2.74035239219666</t>
+    <t xml:space="preserve">2.74035263061523</t>
   </si>
   <si>
     <t xml:space="preserve">2.73643207550049</t>
   </si>
   <si>
-    <t xml:space="preserve">2.68938732147217</t>
+    <t xml:space="preserve">2.68938755989075</t>
   </si>
   <si>
     <t xml:space="preserve">2.70898938179016</t>
@@ -1478,19 +1478,19 @@
     <t xml:space="preserve">2.68154668807983</t>
   </si>
   <si>
-    <t xml:space="preserve">2.75603437423706</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.84228253364563</t>
+    <t xml:space="preserve">2.75603413581848</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.84228277206421</t>
   </si>
   <si>
     <t xml:space="preserve">2.79915833473206</t>
   </si>
   <si>
-    <t xml:space="preserve">2.82268095016479</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.78347659111023</t>
+    <t xml:space="preserve">2.82268071174622</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.78347682952881</t>
   </si>
   <si>
     <t xml:space="preserve">2.7756359577179</t>
@@ -1508,7 +1508,7 @@
     <t xml:space="preserve">2.84620332717896</t>
   </si>
   <si>
-    <t xml:space="preserve">2.85796427726746</t>
+    <t xml:space="preserve">2.85796403884888</t>
   </si>
   <si>
     <t xml:space="preserve">2.8266007900238</t>
@@ -1517,7 +1517,7 @@
     <t xml:space="preserve">2.8344419002533</t>
   </si>
   <si>
-    <t xml:space="preserve">2.85012364387512</t>
+    <t xml:space="preserve">2.85012340545654</t>
   </si>
   <si>
     <t xml:space="preserve">2.86188459396362</t>
@@ -1526,16 +1526,16 @@
     <t xml:space="preserve">2.8736457824707</t>
   </si>
   <si>
-    <t xml:space="preserve">2.99517750740051</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.92461085319519</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.95597410202026</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.97165536880493</t>
+    <t xml:space="preserve">2.99517774581909</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.92461061477661</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.95597386360168</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.97165560722351</t>
   </si>
   <si>
     <t xml:space="preserve">2.94813323020935</t>
@@ -1547,13 +1547,13 @@
     <t xml:space="preserve">2.96381449699402</t>
   </si>
   <si>
-    <t xml:space="preserve">2.95989465713501</t>
+    <t xml:space="preserve">2.95989418029785</t>
   </si>
   <si>
     <t xml:space="preserve">3.00693893432617</t>
   </si>
   <si>
-    <t xml:space="preserve">3.1049485206604</t>
+    <t xml:space="preserve">3.10494875907898</t>
   </si>
   <si>
     <t xml:space="preserve">3.06966543197632</t>
@@ -1568,13 +1568,13 @@
     <t xml:space="preserve">3.13631200790405</t>
   </si>
   <si>
-    <t xml:space="preserve">3.15983414649963</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.18335652351379</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.23824238777161</t>
+    <t xml:space="preserve">3.15983438491821</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.18335676193237</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.23824214935303</t>
   </si>
   <si>
     <t xml:space="preserve">3.25000309944153</t>
@@ -1592,7 +1592,7 @@
     <t xml:space="preserve">3.33233141899109</t>
   </si>
   <si>
-    <t xml:space="preserve">3.31272959709167</t>
+    <t xml:space="preserve">3.3127293586731</t>
   </si>
   <si>
     <t xml:space="preserve">3.27744579315186</t>
@@ -1601,7 +1601,7 @@
     <t xml:space="preserve">3.20687890052795</t>
   </si>
   <si>
-    <t xml:space="preserve">3.22648072242737</t>
+    <t xml:space="preserve">3.22648096084595</t>
   </si>
   <si>
     <t xml:space="preserve">3.25784397125244</t>
@@ -1610,10 +1610,10 @@
     <t xml:space="preserve">3.24216246604919</t>
   </si>
   <si>
-    <t xml:space="preserve">3.19119763374329</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.14023232460022</t>
+    <t xml:space="preserve">3.19119739532471</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.1402325630188</t>
   </si>
   <si>
     <t xml:space="preserve">3.12847137451172</t>
@@ -1628,16 +1628,16 @@
     <t xml:space="preserve">3.05398368835449</t>
   </si>
   <si>
-    <t xml:space="preserve">3.21864008903503</t>
+    <t xml:space="preserve">3.21864032745361</t>
   </si>
   <si>
     <t xml:space="preserve">3.21471953392029</t>
   </si>
   <si>
-    <t xml:space="preserve">3.1637544631958</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.14807295799255</t>
+    <t xml:space="preserve">3.16375470161438</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.14807271957397</t>
   </si>
   <si>
     <t xml:space="preserve">3.04222273826599</t>
@@ -1646,46 +1646,46 @@
     <t xml:space="preserve">3.12063050270081</t>
   </si>
   <si>
-    <t xml:space="preserve">3.12455081939697</t>
+    <t xml:space="preserve">3.12455058097839</t>
   </si>
   <si>
     <t xml:space="preserve">3.08534693717957</t>
   </si>
   <si>
-    <t xml:space="preserve">3.08926701545715</t>
+    <t xml:space="preserve">3.08926725387573</t>
   </si>
   <si>
     <t xml:space="preserve">3.11278963088989</t>
   </si>
   <si>
-    <t xml:space="preserve">3.10102868080139</t>
+    <t xml:space="preserve">3.10102820396423</t>
   </si>
   <si>
     <t xml:space="preserve">2.98341679573059</t>
   </si>
   <si>
-    <t xml:space="preserve">2.88148617744446</t>
+    <t xml:space="preserve">2.88148665428162</t>
   </si>
   <si>
     <t xml:space="preserve">2.93637180328369</t>
   </si>
   <si>
-    <t xml:space="preserve">2.97557616233826</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.98733711242676</t>
+    <t xml:space="preserve">2.97557592391968</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.98733735084534</t>
   </si>
   <si>
     <t xml:space="preserve">2.97949624061584</t>
   </si>
   <si>
-    <t xml:space="preserve">2.99909830093384</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.00301861763</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.05790448188782</t>
+    <t xml:space="preserve">2.99909806251526</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.00301837921143</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.05790424346924</t>
   </si>
   <si>
     <t xml:space="preserve">3.0343816280365</t>
@@ -1700,28 +1700,28 @@
     <t xml:space="preserve">3.03046154975891</t>
   </si>
   <si>
-    <t xml:space="preserve">2.93245196342468</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.91284966468811</t>
+    <t xml:space="preserve">2.93245148658752</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.91284942626953</t>
   </si>
   <si>
     <t xml:space="preserve">2.90108847618103</t>
   </si>
   <si>
-    <t xml:space="preserve">2.94421291351318</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.89324760437012</t>
+    <t xml:space="preserve">2.94421315193176</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.8932478427887</t>
   </si>
   <si>
     <t xml:space="preserve">3.01870012283325</t>
   </si>
   <si>
-    <t xml:space="preserve">3.1519935131073</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.17551589012146</t>
+    <t xml:space="preserve">3.15199327468872</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.17551612854004</t>
   </si>
   <si>
     <t xml:space="preserve">3.09710812568665</t>
@@ -1730,10 +1730,10 @@
     <t xml:space="preserve">3.10886907577515</t>
   </si>
   <si>
-    <t xml:space="preserve">3.02262043952942</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.01085948944092</t>
+    <t xml:space="preserve">3.022620677948</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.01085925102234</t>
   </si>
   <si>
     <t xml:space="preserve">2.91677021980286</t>
@@ -1742,22 +1742,22 @@
     <t xml:space="preserve">2.95205354690552</t>
   </si>
   <si>
-    <t xml:space="preserve">2.99125742912292</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.13239121437073</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.46562480926514</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.54795289039612</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.48522686958313</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.58323645591736</t>
+    <t xml:space="preserve">2.9912576675415</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.13239145278931</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.46562504768372</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.5479531288147</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.48522639274597</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.58323621749878</t>
   </si>
   <si>
     <t xml:space="preserve">3.52443027496338</t>
@@ -1775,16 +1775,16 @@
     <t xml:space="preserve">3.42250037193298</t>
   </si>
   <si>
-    <t xml:space="preserve">3.3950572013855</t>
+    <t xml:space="preserve">3.39505767822266</t>
   </si>
   <si>
     <t xml:space="preserve">3.37937617301941</t>
   </si>
   <si>
-    <t xml:space="preserve">3.43818187713623</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.48130655288696</t>
+    <t xml:space="preserve">3.43818211555481</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.4813060760498</t>
   </si>
   <si>
     <t xml:space="preserve">3.45386338233948</t>
@@ -1808,16 +1808,16 @@
     <t xml:space="preserve">3.23432159423828</t>
   </si>
   <si>
-    <t xml:space="preserve">3.19511771202087</t>
+    <t xml:space="preserve">3.19511747360229</t>
   </si>
   <si>
     <t xml:space="preserve">2.69722843170166</t>
   </si>
   <si>
-    <t xml:space="preserve">2.13269209861755</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.36399531364441</t>
+    <t xml:space="preserve">2.13269233703613</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.36399507522583</t>
   </si>
   <si>
     <t xml:space="preserve">2.45024371147156</t>
@@ -1826,16 +1826,16 @@
     <t xml:space="preserve">2.49336814880371</t>
   </si>
   <si>
-    <t xml:space="preserve">2.50512909889221</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.55217385292053</t>
+    <t xml:space="preserve">2.50512933731079</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.55217361450195</t>
   </si>
   <si>
     <t xml:space="preserve">2.61882019042969</t>
   </si>
   <si>
-    <t xml:space="preserve">2.60313868522644</t>
+    <t xml:space="preserve">2.60313892364502</t>
   </si>
   <si>
     <t xml:space="preserve">2.63450193405151</t>
@@ -1847,22 +1847,22 @@
     <t xml:space="preserve">2.5443332195282</t>
   </si>
   <si>
-    <t xml:space="preserve">2.51689052581787</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.63842248916626</t>
+    <t xml:space="preserve">2.51689028739929</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.63842225074768</t>
   </si>
   <si>
     <t xml:space="preserve">2.4972882270813</t>
   </si>
   <si>
-    <t xml:space="preserve">2.50904941558838</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.46984553337097</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.51296973228455</t>
+    <t xml:space="preserve">2.50904965400696</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.46984577178955</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.51296997070312</t>
   </si>
   <si>
     <t xml:space="preserve">2.53257179260254</t>
@@ -1871,10 +1871,10 @@
     <t xml:space="preserve">2.54041266441345</t>
   </si>
   <si>
-    <t xml:space="preserve">2.52865123748779</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.54825329780579</t>
+    <t xml:space="preserve">2.52865147590637</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.54825353622437</t>
   </si>
   <si>
     <t xml:space="preserve">2.52473092079163</t>
@@ -1883,7 +1883,7 @@
     <t xml:space="preserve">2.57177567481995</t>
   </si>
   <si>
-    <t xml:space="preserve">2.58745741844177</t>
+    <t xml:space="preserve">2.58745718002319</t>
   </si>
   <si>
     <t xml:space="preserve">2.64234280586243</t>
@@ -1892,7 +1892,7 @@
     <t xml:space="preserve">2.61097979545593</t>
   </si>
   <si>
-    <t xml:space="preserve">2.65018343925476</t>
+    <t xml:space="preserve">2.65018367767334</t>
   </si>
   <si>
     <t xml:space="preserve">2.62274074554443</t>
@@ -1901,7 +1901,7 @@
     <t xml:space="preserve">2.6266610622406</t>
   </si>
   <si>
-    <t xml:space="preserve">2.72075057029724</t>
+    <t xml:space="preserve">2.72075033187866</t>
   </si>
   <si>
     <t xml:space="preserve">2.92069053649902</t>
@@ -1910,13 +1910,13 @@
     <t xml:space="preserve">3.30880880355835</t>
   </si>
   <si>
-    <t xml:space="preserve">3.44994306564331</t>
+    <t xml:space="preserve">3.44994282722473</t>
   </si>
   <si>
     <t xml:space="preserve">3.43426179885864</t>
   </si>
   <si>
-    <t xml:space="preserve">3.50703978538513</t>
+    <t xml:space="preserve">3.50703954696655</t>
   </si>
   <si>
     <t xml:space="preserve">3.32983303070068</t>
@@ -1931,7 +1931,7 @@
     <t xml:space="preserve">3.1402633190155</t>
   </si>
   <si>
-    <t xml:space="preserve">3.21444296836853</t>
+    <t xml:space="preserve">3.21444320678711</t>
   </si>
   <si>
     <t xml:space="preserve">3.24741172790527</t>
@@ -1943,13 +1943,13 @@
     <t xml:space="preserve">3.22680616378784</t>
   </si>
   <si>
-    <t xml:space="preserve">3.27213835716248</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.2185640335083</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.11141610145569</t>
+    <t xml:space="preserve">3.2721381187439</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.21856379508972</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.11141633987427</t>
   </si>
   <si>
     <t xml:space="preserve">3.06196308135986</t>
@@ -1958,7 +1958,7 @@
     <t xml:space="preserve">3.08256840705872</t>
   </si>
   <si>
-    <t xml:space="preserve">3.09081029891968</t>
+    <t xml:space="preserve">3.09081077575684</t>
   </si>
   <si>
     <t xml:space="preserve">3.11965823173523</t>
@@ -1973,31 +1973,31 @@
     <t xml:space="preserve">3.04135751724243</t>
   </si>
   <si>
-    <t xml:space="preserve">3.00014710426331</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.94245147705078</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.91360402107239</t>
+    <t xml:space="preserve">3.00014686584473</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.94245171546936</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.91360449790955</t>
   </si>
   <si>
     <t xml:space="preserve">2.93008852005005</t>
   </si>
   <si>
-    <t xml:space="preserve">2.91772484779358</t>
+    <t xml:space="preserve">2.91772508621216</t>
   </si>
   <si>
     <t xml:space="preserve">2.90124082565308</t>
   </si>
   <si>
-    <t xml:space="preserve">2.90536212921143</t>
+    <t xml:space="preserve">2.90536189079285</t>
   </si>
   <si>
     <t xml:space="preserve">2.86827206611633</t>
   </si>
   <si>
-    <t xml:space="preserve">2.78997135162354</t>
+    <t xml:space="preserve">2.78997159004211</t>
   </si>
   <si>
     <t xml:space="preserve">2.92184638977051</t>
@@ -2006,7 +2006,7 @@
     <t xml:space="preserve">2.87651443481445</t>
   </si>
   <si>
-    <t xml:space="preserve">2.89299845695496</t>
+    <t xml:space="preserve">2.89299869537354</t>
   </si>
   <si>
     <t xml:space="preserve">2.80233502388</t>
@@ -2021,10 +2021,10 @@
     <t xml:space="preserve">2.75288200378418</t>
   </si>
   <si>
-    <t xml:space="preserve">2.71167087554932</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.73227667808533</t>
+    <t xml:space="preserve">2.7116711139679</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.73227643966675</t>
   </si>
   <si>
     <t xml:space="preserve">2.82706165313721</t>
@@ -2033,7 +2033,7 @@
     <t xml:space="preserve">2.87239336967468</t>
   </si>
   <si>
-    <t xml:space="preserve">2.86003017425537</t>
+    <t xml:space="preserve">2.86002993583679</t>
   </si>
   <si>
     <t xml:space="preserve">2.81469798088074</t>
@@ -2042,22 +2042,22 @@
     <t xml:space="preserve">2.81057715415955</t>
   </si>
   <si>
-    <t xml:space="preserve">2.76524543762207</t>
+    <t xml:space="preserve">2.76524496078491</t>
   </si>
   <si>
     <t xml:space="preserve">2.79409289360046</t>
   </si>
   <si>
-    <t xml:space="preserve">2.78172945976257</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.78585052490234</t>
+    <t xml:space="preserve">2.78172969818115</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.78585076332092</t>
   </si>
   <si>
     <t xml:space="preserve">2.70342898368835</t>
   </si>
   <si>
-    <t xml:space="preserve">2.70755004882812</t>
+    <t xml:space="preserve">2.7075502872467</t>
   </si>
   <si>
     <t xml:space="preserve">2.75700306892395</t>
@@ -2072,37 +2072,37 @@
     <t xml:space="preserve">2.71991324424744</t>
   </si>
   <si>
-    <t xml:space="preserve">2.72403430938721</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.7776083946228</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.88475632667542</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.64573383331299</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.64985489845276</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.66221833229065</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.60864400863647</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.63337063789368</t>
+    <t xml:space="preserve">2.72403454780579</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.77760815620422</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.88475656509399</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.64573359489441</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.64985513687134</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.66221809387207</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.60864424705505</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.6333703994751</t>
   </si>
   <si>
     <t xml:space="preserve">2.62100744247437</t>
   </si>
   <si>
-    <t xml:space="preserve">2.62512826919556</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.59215974807739</t>
+    <t xml:space="preserve">2.62512850761414</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.59215998649597</t>
   </si>
   <si>
     <t xml:space="preserve">2.60452318191528</t>
@@ -2126,7 +2126,7 @@
     <t xml:space="preserve">2.51798033714294</t>
   </si>
   <si>
-    <t xml:space="preserve">2.49737477302551</t>
+    <t xml:space="preserve">2.49737501144409</t>
   </si>
   <si>
     <t xml:space="preserve">2.57155442237854</t>
@@ -2135,34 +2135,34 @@
     <t xml:space="preserve">2.51385927200317</t>
   </si>
   <si>
-    <t xml:space="preserve">2.48913264274597</t>
+    <t xml:space="preserve">2.48913288116455</t>
   </si>
   <si>
     <t xml:space="preserve">2.50561714172363</t>
   </si>
   <si>
-    <t xml:space="preserve">2.46852731704712</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.50973844528198</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.40671110153198</t>
+    <t xml:space="preserve">2.46852707862854</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.5097382068634</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.40671133995056</t>
   </si>
   <si>
     <t xml:space="preserve">2.42319536209106</t>
   </si>
   <si>
-    <t xml:space="preserve">2.45204281806946</t>
+    <t xml:space="preserve">2.45204305648804</t>
   </si>
   <si>
     <t xml:space="preserve">2.44792199134827</t>
   </si>
   <si>
-    <t xml:space="preserve">2.47676944732666</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.69518661499023</t>
+    <t xml:space="preserve">2.47676968574524</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.69518685340881</t>
   </si>
   <si>
     <t xml:space="preserve">2.74051880836487</t>
@@ -2177,25 +2177,25 @@
     <t xml:space="preserve">2.89711976051331</t>
   </si>
   <si>
-    <t xml:space="preserve">2.84766674041748</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.84354591369629</t>
+    <t xml:space="preserve">2.84766697883606</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.84354567527771</t>
   </si>
   <si>
     <t xml:space="preserve">2.81881928443909</t>
   </si>
   <si>
-    <t xml:space="preserve">2.83530354499817</t>
+    <t xml:space="preserve">2.83530378341675</t>
   </si>
   <si>
     <t xml:space="preserve">2.8311824798584</t>
   </si>
   <si>
-    <t xml:space="preserve">3.03311562538147</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.01663112640381</t>
+    <t xml:space="preserve">3.03311538696289</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.01663136482239</t>
   </si>
   <si>
     <t xml:space="preserve">2.99602556228638</t>
@@ -2207,13 +2207,13 @@
     <t xml:space="preserve">3.00838899612427</t>
   </si>
   <si>
-    <t xml:space="preserve">3.05372095108032</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.06608414649963</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.16498994827271</t>
+    <t xml:space="preserve">3.05372071266174</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.06608390808105</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.16498970985413</t>
   </si>
   <si>
     <t xml:space="preserve">3.10317397117615</t>
@@ -2222,7 +2222,7 @@
     <t xml:space="preserve">3.10729479789734</t>
   </si>
   <si>
-    <t xml:space="preserve">2.9754204750061</t>
+    <t xml:space="preserve">2.97542023658752</t>
   </si>
   <si>
     <t xml:space="preserve">2.96717810630798</t>
@@ -2231,19 +2231,19 @@
     <t xml:space="preserve">2.98366236686707</t>
   </si>
   <si>
-    <t xml:space="preserve">2.95481514930725</t>
+    <t xml:space="preserve">2.95481467247009</t>
   </si>
   <si>
     <t xml:space="preserve">2.98778343200684</t>
   </si>
   <si>
-    <t xml:space="preserve">3.02075219154358</t>
+    <t xml:space="preserve">3.020751953125</t>
   </si>
   <si>
     <t xml:space="preserve">3.07844734191895</t>
   </si>
   <si>
-    <t xml:space="preserve">3.0454785823822</t>
+    <t xml:space="preserve">3.04547882080078</t>
   </si>
   <si>
     <t xml:space="preserve">3.04959988594055</t>
@@ -2258,7 +2258,7 @@
     <t xml:space="preserve">3.09493184089661</t>
   </si>
   <si>
-    <t xml:space="preserve">3.01250982284546</t>
+    <t xml:space="preserve">3.01251006126404</t>
   </si>
   <si>
     <t xml:space="preserve">2.96305704116821</t>
@@ -2273,13 +2273,13 @@
     <t xml:space="preserve">3.14850568771362</t>
   </si>
   <si>
-    <t xml:space="preserve">3.16086912155151</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.16911125183105</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.18559527397156</t>
+    <t xml:space="preserve">3.16086888313293</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.16911101341248</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.18559551239014</t>
   </si>
   <si>
     <t xml:space="preserve">3.15262675285339</t>
@@ -2288,19 +2288,19 @@
     <t xml:space="preserve">3.11553692817688</t>
   </si>
   <si>
-    <t xml:space="preserve">3.13202142715454</t>
+    <t xml:space="preserve">3.13202118873596</t>
   </si>
   <si>
     <t xml:space="preserve">3.12790036201477</t>
   </si>
   <si>
-    <t xml:space="preserve">3.22268533706665</t>
+    <t xml:space="preserve">3.22268557548523</t>
   </si>
   <si>
     <t xml:space="preserve">3.19795870780945</t>
   </si>
   <si>
-    <t xml:space="preserve">3.17323207855225</t>
+    <t xml:space="preserve">3.17323184013367</t>
   </si>
   <si>
     <t xml:space="preserve">3.20620083808899</t>
@@ -2309,7 +2309,7 @@
     <t xml:space="preserve">3.2432906627655</t>
   </si>
   <si>
-    <t xml:space="preserve">3.18971633911133</t>
+    <t xml:space="preserve">3.18971657752991</t>
   </si>
   <si>
     <t xml:space="preserve">3.23916959762573</t>
@@ -2321,10 +2321,10 @@
     <t xml:space="preserve">3.25153255462646</t>
   </si>
   <si>
-    <t xml:space="preserve">3.36280202865601</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.35868048667908</t>
+    <t xml:space="preserve">3.36280179023743</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.35868072509766</t>
   </si>
   <si>
     <t xml:space="preserve">3.34631752967834</t>
@@ -2333,13 +2333,13 @@
     <t xml:space="preserve">3.30510687828064</t>
   </si>
   <si>
-    <t xml:space="preserve">3.34219646453857</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.36364817619324</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.25209856033325</t>
+    <t xml:space="preserve">3.34219622612</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.36364841461182</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.25209879875183</t>
   </si>
   <si>
     <t xml:space="preserve">3.20919513702393</t>
@@ -2348,28 +2348,28 @@
     <t xml:space="preserve">3.22635650634766</t>
   </si>
   <si>
-    <t xml:space="preserve">3.27784085273743</t>
+    <t xml:space="preserve">3.27784061431885</t>
   </si>
   <si>
     <t xml:space="preserve">3.23493719100952</t>
   </si>
   <si>
-    <t xml:space="preserve">3.21348524093628</t>
+    <t xml:space="preserve">3.21348547935486</t>
   </si>
   <si>
     <t xml:space="preserve">3.19632387161255</t>
   </si>
   <si>
-    <t xml:space="preserve">3.21777558326721</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.15771079063416</t>
+    <t xml:space="preserve">3.21777582168579</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.15771055221558</t>
   </si>
   <si>
     <t xml:space="preserve">3.17487215995789</t>
   </si>
   <si>
-    <t xml:space="preserve">3.17916250228882</t>
+    <t xml:space="preserve">3.17916226387024</t>
   </si>
   <si>
     <t xml:space="preserve">3.16200089454651</t>
@@ -2378,10 +2378,10 @@
     <t xml:space="preserve">3.14913010597229</t>
   </si>
   <si>
-    <t xml:space="preserve">3.18345284461975</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.17058157920837</t>
+    <t xml:space="preserve">3.18345308303833</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.17058181762695</t>
   </si>
   <si>
     <t xml:space="preserve">3.20061421394348</t>
@@ -2390,46 +2390,46 @@
     <t xml:space="preserve">3.19203352928162</t>
   </si>
   <si>
-    <t xml:space="preserve">3.23064708709717</t>
+    <t xml:space="preserve">3.23064684867859</t>
   </si>
   <si>
     <t xml:space="preserve">3.2220664024353</t>
   </si>
   <si>
-    <t xml:space="preserve">3.12767815589905</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.13625860214233</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.10622620582581</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.07619380950928</t>
+    <t xml:space="preserve">3.12767791748047</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.13625884056091</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.10622596740723</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.0761935710907</t>
   </si>
   <si>
     <t xml:space="preserve">3.0890645980835</t>
   </si>
   <si>
-    <t xml:space="preserve">3.04187083244324</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.03758001327515</t>
+    <t xml:space="preserve">3.04187059402466</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.03758025169373</t>
   </si>
   <si>
     <t xml:space="preserve">3.0504515171051</t>
   </si>
   <si>
-    <t xml:space="preserve">3.04616117477417</t>
+    <t xml:space="preserve">3.04616093635559</t>
   </si>
   <si>
     <t xml:space="preserve">3.02899956703186</t>
   </si>
   <si>
-    <t xml:space="preserve">2.98180532455444</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.0075478553772</t>
+    <t xml:space="preserve">2.98180556297302</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.00754761695862</t>
   </si>
   <si>
     <t xml:space="preserve">3.05903220176697</t>
@@ -2444,13 +2444,13 @@
     <t xml:space="preserve">2.99038624763489</t>
   </si>
   <si>
-    <t xml:space="preserve">2.90886950492859</t>
+    <t xml:space="preserve">2.90886926651001</t>
   </si>
   <si>
     <t xml:space="preserve">2.92174029350281</t>
   </si>
   <si>
-    <t xml:space="preserve">2.93890166282654</t>
+    <t xml:space="preserve">2.93890190124512</t>
   </si>
   <si>
     <t xml:space="preserve">3.00325727462769</t>
@@ -2462,10 +2462,10 @@
     <t xml:space="preserve">3.02041888237</t>
   </si>
   <si>
-    <t xml:space="preserve">3.01612854003906</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.01183795928955</t>
+    <t xml:space="preserve">3.01612877845764</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.01183819770813</t>
   </si>
   <si>
     <t xml:space="preserve">3.06761288642883</t>
@@ -2480,19 +2480,19 @@
     <t xml:space="preserve">3.16629123687744</t>
   </si>
   <si>
-    <t xml:space="preserve">3.11480689048767</t>
+    <t xml:space="preserve">3.11480712890625</t>
   </si>
   <si>
     <t xml:space="preserve">3.09335517883301</t>
   </si>
   <si>
-    <t xml:space="preserve">3.06332230567932</t>
+    <t xml:space="preserve">3.0633225440979</t>
   </si>
   <si>
     <t xml:space="preserve">3.11051654815674</t>
   </si>
   <si>
-    <t xml:space="preserve">3.08477425575256</t>
+    <t xml:space="preserve">3.08477449417114</t>
   </si>
   <si>
     <t xml:space="preserve">3.07190322875977</t>
@@ -2507,25 +2507,25 @@
     <t xml:space="preserve">2.94748258590698</t>
   </si>
   <si>
-    <t xml:space="preserve">2.95177292823792</t>
+    <t xml:space="preserve">2.95177316665649</t>
   </si>
   <si>
     <t xml:space="preserve">2.95606327056885</t>
   </si>
   <si>
-    <t xml:space="preserve">2.9946768283844</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.98609566688538</t>
+    <t xml:space="preserve">2.99467658996582</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.98609614372253</t>
   </si>
   <si>
     <t xml:space="preserve">3.10193586349487</t>
   </si>
   <si>
-    <t xml:space="preserve">3.05474162101746</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.96893453598022</t>
+    <t xml:space="preserve">3.05474185943604</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.96893429756165</t>
   </si>
   <si>
     <t xml:space="preserve">2.91745018959045</t>
@@ -2534,7 +2534,7 @@
     <t xml:space="preserve">2.93032097816467</t>
   </si>
   <si>
-    <t xml:space="preserve">2.9045786857605</t>
+    <t xml:space="preserve">2.90457892417908</t>
   </si>
   <si>
     <t xml:space="preserve">2.97751522064209</t>
@@ -2543,34 +2543,34 @@
     <t xml:space="preserve">2.92603087425232</t>
   </si>
   <si>
-    <t xml:space="preserve">2.94319248199463</t>
+    <t xml:space="preserve">2.94319224357605</t>
   </si>
   <si>
     <t xml:space="preserve">2.97322487831116</t>
   </si>
   <si>
-    <t xml:space="preserve">2.93461155891418</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.7973198890686</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.91315960884094</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.89170789718628</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.82306170463562</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.77157759666443</t>
+    <t xml:space="preserve">2.93461132049561</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.79731965065002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.91315984725952</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.8917076587677</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.8230619430542</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.77157735824585</t>
   </si>
   <si>
     <t xml:space="preserve">2.80161023139954</t>
   </si>
   <si>
-    <t xml:space="preserve">2.90028858184814</t>
+    <t xml:space="preserve">2.90028882026672</t>
   </si>
   <si>
     <t xml:space="preserve">2.87454628944397</t>
@@ -3426,6 +3426,9 @@
   </si>
   <si>
     <t xml:space="preserve">2.42000007629395</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.45000004768372</t>
   </si>
 </sst>
 </file>
@@ -60421,7 +60424,7 @@
     </row>
     <row r="2180">
       <c r="A2180" s="1" t="n">
-        <v>45497.6493518519</v>
+        <v>45497.2916666667</v>
       </c>
       <c r="B2180" t="n">
         <v>196335</v>
@@ -60442,6 +60445,32 @@
         <v>1137</v>
       </c>
       <c r="H2180" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2181">
+      <c r="A2181" s="1" t="n">
+        <v>45498.649537037</v>
+      </c>
+      <c r="B2181" t="n">
+        <v>163547</v>
+      </c>
+      <c r="C2181" t="n">
+        <v>2.45000004768372</v>
+      </c>
+      <c r="D2181" t="n">
+        <v>2.40000009536743</v>
+      </c>
+      <c r="E2181" t="n">
+        <v>2.40000009536743</v>
+      </c>
+      <c r="F2181" t="n">
+        <v>2.45000004768372</v>
+      </c>
+      <c r="G2181" t="s">
+        <v>1138</v>
+      </c>
+      <c r="H2181" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/ASC.MI.xlsx
+++ b/data/ASC.MI.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1141" uniqueCount="1141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1142" uniqueCount="1142">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -47,34 +47,34 @@
     <t xml:space="preserve">1.31448101997375</t>
   </si>
   <si>
-    <t xml:space="preserve">1.3026282787323</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.30381333827972</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.28959000110626</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.28247809410095</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.30973982810974</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.28366363048553</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.26588439941406</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.22676980495453</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.23032569885254</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.19121134281158</t>
+    <t xml:space="preserve">1.30262815952301</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.30381345748901</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.28959012031555</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.28247833251953</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.30973994731903</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.28366351127625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.26588404178619</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.22676992416382</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.23032581806183</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.19121146202087</t>
   </si>
   <si>
     <t xml:space="preserve">1.21491706371307</t>
@@ -83,31 +83,31 @@
     <t xml:space="preserve">1.29196071624756</t>
   </si>
   <si>
-    <t xml:space="preserve">1.28840482234955</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.28129279613495</t>
+    <t xml:space="preserve">1.28840470314026</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.28129303455353</t>
   </si>
   <si>
     <t xml:space="preserve">1.30736947059631</t>
   </si>
   <si>
-    <t xml:space="preserve">1.31211054325104</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.29788732528687</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.23862278461456</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.24454915523529</t>
+    <t xml:space="preserve">1.31211042404175</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.29788708686829</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.23862266540527</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.244549036026</t>
   </si>
   <si>
     <t xml:space="preserve">1.24336397647858</t>
   </si>
   <si>
-    <t xml:space="preserve">1.22439932823181</t>
+    <t xml:space="preserve">1.2243994474411</t>
   </si>
   <si>
     <t xml:space="preserve">1.24099338054657</t>
@@ -116,19 +116,19 @@
     <t xml:space="preserve">1.26469922065735</t>
   </si>
   <si>
-    <t xml:space="preserve">1.26232850551605</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.26825487613678</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.27062559127808</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.32514882087708</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.32159268856049</t>
+    <t xml:space="preserve">1.26232838630676</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.26825499534607</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.27062547206879</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.32514846324921</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.3215925693512</t>
   </si>
   <si>
     <t xml:space="preserve">1.32396328449249</t>
@@ -137,7 +137,7 @@
     <t xml:space="preserve">1.31685149669647</t>
   </si>
   <si>
-    <t xml:space="preserve">1.31922221183777</t>
+    <t xml:space="preserve">1.31922233104706</t>
   </si>
   <si>
     <t xml:space="preserve">1.30618405342102</t>
@@ -146,25 +146,25 @@
     <t xml:space="preserve">1.31803679466248</t>
   </si>
   <si>
-    <t xml:space="preserve">1.33581602573395</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.34411311149597</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.34648394584656</t>
+    <t xml:space="preserve">1.33581626415253</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.34411334991455</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.34648370742798</t>
   </si>
   <si>
     <t xml:space="preserve">1.36070716381073</t>
   </si>
   <si>
-    <t xml:space="preserve">1.35833644866943</t>
+    <t xml:space="preserve">1.35833668708801</t>
   </si>
   <si>
     <t xml:space="preserve">1.34766888618469</t>
   </si>
   <si>
-    <t xml:space="preserve">1.34292781352997</t>
+    <t xml:space="preserve">1.34292793273926</t>
   </si>
   <si>
     <t xml:space="preserve">1.36189246177673</t>
@@ -173,7 +173,7 @@
     <t xml:space="preserve">1.34055733680725</t>
   </si>
   <si>
-    <t xml:space="preserve">1.35596597194672</t>
+    <t xml:space="preserve">1.35596585273743</t>
   </si>
   <si>
     <t xml:space="preserve">1.35952186584473</t>
@@ -182,25 +182,25 @@
     <t xml:space="preserve">1.36307764053345</t>
   </si>
   <si>
-    <t xml:space="preserve">1.34885442256927</t>
+    <t xml:space="preserve">1.3488541841507</t>
   </si>
   <si>
     <t xml:space="preserve">1.36426293849945</t>
   </si>
   <si>
-    <t xml:space="preserve">1.38796877861023</t>
+    <t xml:space="preserve">1.38796854019165</t>
   </si>
   <si>
     <t xml:space="preserve">1.38085687160492</t>
   </si>
   <si>
-    <t xml:space="preserve">1.38322758674622</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.38678324222565</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.39152443408966</t>
+    <t xml:space="preserve">1.38322770595551</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.38678336143494</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.39152467250824</t>
   </si>
   <si>
     <t xml:space="preserve">1.39863610267639</t>
@@ -209,31 +209,31 @@
     <t xml:space="preserve">1.3784863948822</t>
   </si>
   <si>
-    <t xml:space="preserve">1.37967193126678</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.38204216957092</t>
+    <t xml:space="preserve">1.37967157363892</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.3820424079895</t>
   </si>
   <si>
     <t xml:space="preserve">1.40219211578369</t>
   </si>
   <si>
-    <t xml:space="preserve">1.41048908233643</t>
+    <t xml:space="preserve">1.41048920154572</t>
   </si>
   <si>
     <t xml:space="preserve">1.41760087013245</t>
   </si>
   <si>
-    <t xml:space="preserve">1.41523027420044</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.40456247329712</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.3998214006424</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.4328111410141</t>
+    <t xml:space="preserve">1.41523003578186</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.4045627117157</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.39982151985168</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.43281102180481</t>
   </si>
   <si>
     <t xml:space="preserve">1.4302796125412</t>
@@ -251,64 +251,64 @@
     <t xml:space="preserve">1.46192300319672</t>
   </si>
   <si>
-    <t xml:space="preserve">1.47584629058838</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.48344051837921</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.48470628261566</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.48976910114288</t>
+    <t xml:space="preserve">1.47584617137909</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.4834406375885</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.48470616340637</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.48976922035217</t>
   </si>
   <si>
     <t xml:space="preserve">1.49483203887939</t>
   </si>
   <si>
-    <t xml:space="preserve">1.5024266242981</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.53153860569</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.52900683879852</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.54419589042664</t>
+    <t xml:space="preserve">1.50242650508881</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.53153836727142</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.52900695800781</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.54419577121735</t>
   </si>
   <si>
     <t xml:space="preserve">1.55938458442688</t>
   </si>
   <si>
-    <t xml:space="preserve">1.58343327045441</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.54546129703522</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.55685305595398</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.53913271427155</t>
+    <t xml:space="preserve">1.58343350887299</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.54546141624451</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.55685329437256</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.53913283348083</t>
   </si>
   <si>
     <t xml:space="preserve">1.58216762542725</t>
   </si>
   <si>
-    <t xml:space="preserve">1.65178310871124</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.65811169147491</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.64039158821106</t>
+    <t xml:space="preserve">1.65178334712982</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.65811192989349</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.64039170742035</t>
   </si>
   <si>
     <t xml:space="preserve">1.56571316719055</t>
   </si>
   <si>
-    <t xml:space="preserve">1.55052435398102</t>
+    <t xml:space="preserve">1.55052423477173</t>
   </si>
   <si>
     <t xml:space="preserve">1.59862232208252</t>
@@ -317,7 +317,7 @@
     <t xml:space="preserve">1.64418876171112</t>
   </si>
   <si>
-    <t xml:space="preserve">1.58849656581879</t>
+    <t xml:space="preserve">1.58849632740021</t>
   </si>
   <si>
     <t xml:space="preserve">1.56318187713623</t>
@@ -332,37 +332,37 @@
     <t xml:space="preserve">1.70874118804932</t>
   </si>
   <si>
-    <t xml:space="preserve">1.69481790065765</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.63785994052887</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.69355225563049</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.70494377613068</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.70620977878571</t>
+    <t xml:space="preserve">1.69481813907623</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.63786017894745</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.69355237483978</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.70494389533997</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.70621001720428</t>
   </si>
   <si>
     <t xml:space="preserve">1.7631676197052</t>
   </si>
   <si>
-    <t xml:space="preserve">1.76823079586029</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.7707622051239</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.73532176017761</t>
+    <t xml:space="preserve">1.76823055744171</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.77076208591461</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.73532164096832</t>
   </si>
   <si>
     <t xml:space="preserve">1.73405575752258</t>
   </si>
   <si>
-    <t xml:space="preserve">1.77202773094177</t>
+    <t xml:space="preserve">1.77202785015106</t>
   </si>
   <si>
     <t xml:space="preserve">1.7846851348877</t>
@@ -377,100 +377,100 @@
     <t xml:space="preserve">1.75304186344147</t>
   </si>
   <si>
-    <t xml:space="preserve">1.76443374156952</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.8062025308609</t>
+    <t xml:space="preserve">1.76443362236023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.80620276927948</t>
   </si>
   <si>
     <t xml:space="preserve">1.84164345264435</t>
   </si>
   <si>
-    <t xml:space="preserve">1.80367112159729</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.8327831029892</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.82012593746185</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.79734241962433</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.79607689380646</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.79354512691498</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.8163286447525</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.82265734672546</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.80999958515167</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.82518887519836</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.81126546859741</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.70241248607635</t>
+    <t xml:space="preserve">1.80367136001587</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.83278334140778</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.82012581825256</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.79734253883362</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.79607701301575</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.79354572296143</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.81632852554321</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.82265722751617</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.80999982357025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.82518899440765</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.81126594543457</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.70241260528564</t>
   </si>
   <si>
     <t xml:space="preserve">1.71380400657654</t>
   </si>
   <si>
-    <t xml:space="preserve">1.78974831104279</t>
+    <t xml:space="preserve">1.7897481918335</t>
   </si>
   <si>
     <t xml:space="preserve">1.74038469791412</t>
   </si>
   <si>
-    <t xml:space="preserve">1.65558004379272</t>
+    <t xml:space="preserve">1.65558016300201</t>
   </si>
   <si>
     <t xml:space="preserve">1.67583203315735</t>
   </si>
   <si>
-    <t xml:space="preserve">1.64798617362976</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.6745662689209</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.66064321994781</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.68722355365753</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.69861543178558</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.66444063186646</t>
+    <t xml:space="preserve">1.64798581600189</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.67456614971161</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.66064345836639</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.68722367286682</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.69861555099487</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.66444087028503</t>
   </si>
   <si>
     <t xml:space="preserve">1.6770977973938</t>
   </si>
   <si>
-    <t xml:space="preserve">1.65684604644775</t>
+    <t xml:space="preserve">1.65684616565704</t>
   </si>
   <si>
     <t xml:space="preserve">1.65937745571136</t>
   </si>
   <si>
-    <t xml:space="preserve">1.66190886497498</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.6846923828125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.69228672981262</t>
+    <t xml:space="preserve">1.66190874576569</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.68469226360321</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.69228661060333</t>
   </si>
   <si>
     <t xml:space="preserve">1.69608378410339</t>
@@ -479,115 +479,115 @@
     <t xml:space="preserve">1.7011467218399</t>
   </si>
   <si>
-    <t xml:space="preserve">1.66317474842072</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.68975508213043</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.68595814704895</t>
+    <t xml:space="preserve">1.66317462921143</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.68975520133972</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.68595790863037</t>
   </si>
   <si>
     <t xml:space="preserve">1.67836356163025</t>
   </si>
   <si>
-    <t xml:space="preserve">1.6340628862381</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.57710480690002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.53406977653503</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.53533565998077</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.54039835929871</t>
+    <t xml:space="preserve">1.63406300544739</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.57710468769073</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.53406989574432</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.53533554077148</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.540398478508</t>
   </si>
   <si>
     <t xml:space="preserve">1.52267825603485</t>
   </si>
   <si>
-    <t xml:space="preserve">1.60115361213684</t>
+    <t xml:space="preserve">1.60115373134613</t>
   </si>
   <si>
     <t xml:space="preserve">1.63153147697449</t>
   </si>
   <si>
-    <t xml:space="preserve">1.60748219490051</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.57583928108215</t>
+    <t xml:space="preserve">1.6074823141098</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.57583916187286</t>
   </si>
   <si>
     <t xml:space="preserve">1.53786706924438</t>
   </si>
   <si>
-    <t xml:space="preserve">1.55558717250824</t>
+    <t xml:space="preserve">1.55558741092682</t>
   </si>
   <si>
     <t xml:space="preserve">1.58723068237305</t>
   </si>
   <si>
-    <t xml:space="preserve">1.61381113529205</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.62899971008301</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.62393712997437</t>
+    <t xml:space="preserve">1.61381101608276</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.62899994850159</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.62393701076508</t>
   </si>
   <si>
     <t xml:space="preserve">1.64545440673828</t>
   </si>
   <si>
-    <t xml:space="preserve">1.63659453392029</t>
+    <t xml:space="preserve">1.63659429550171</t>
   </si>
   <si>
     <t xml:space="preserve">1.63026559352875</t>
   </si>
   <si>
-    <t xml:space="preserve">1.68089509010315</t>
+    <t xml:space="preserve">1.68089497089386</t>
   </si>
   <si>
     <t xml:space="preserve">1.71000683307648</t>
   </si>
   <si>
-    <t xml:space="preserve">1.69988095760345</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.72139871120453</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.71760129928589</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.72392988204956</t>
+    <t xml:space="preserve">1.69988119602203</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.72139847278595</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.71760141849518</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.72393000125885</t>
   </si>
   <si>
     <t xml:space="preserve">1.73658752441406</t>
   </si>
   <si>
-    <t xml:space="preserve">1.71507000923157</t>
+    <t xml:space="preserve">1.71506989002228</t>
   </si>
   <si>
     <t xml:space="preserve">1.72266411781311</t>
   </si>
   <si>
-    <t xml:space="preserve">1.73279011249542</t>
+    <t xml:space="preserve">1.73278999328613</t>
   </si>
   <si>
     <t xml:space="preserve">1.75177609920502</t>
   </si>
   <si>
-    <t xml:space="preserve">1.76190185546875</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.75937020778656</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.7302588224411</t>
+    <t xml:space="preserve">1.76190197467804</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.75937056541443</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.73025870323181</t>
   </si>
   <si>
     <t xml:space="preserve">1.81253147125244</t>
@@ -599,67 +599,67 @@
     <t xml:space="preserve">1.78848242759705</t>
   </si>
   <si>
-    <t xml:space="preserve">1.77709090709686</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.82139146327972</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.82772028446198</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.79481112957001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.82898604869843</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.84037756919861</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.8137971162796</t>
+    <t xml:space="preserve">1.77709078788757</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.82139134407043</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.8277200460434</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.79481089115143</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.82898592948914</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.84037744998932</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.81379687786102</t>
   </si>
   <si>
     <t xml:space="preserve">1.8669581413269</t>
   </si>
   <si>
-    <t xml:space="preserve">1.86062932014465</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.88594400882721</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.91758739948273</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.934042096138</t>
+    <t xml:space="preserve">1.86062955856323</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.88594388961792</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.91758692264557</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.93404185771942</t>
   </si>
   <si>
     <t xml:space="preserve">1.95049655437469</t>
   </si>
   <si>
-    <t xml:space="preserve">1.95935642719269</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.95555901527405</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.99732840061188</t>
+    <t xml:space="preserve">1.9593563079834</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.95555913448334</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.99732804298401</t>
   </si>
   <si>
     <t xml:space="preserve">1.98213994503021</t>
   </si>
   <si>
-    <t xml:space="preserve">2.03656625747681</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.06314659118652</t>
+    <t xml:space="preserve">2.03656601905823</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.0631468296051</t>
   </si>
   <si>
     <t xml:space="preserve">2.08339881896973</t>
   </si>
   <si>
-    <t xml:space="preserve">2.10238480567932</t>
+    <t xml:space="preserve">2.10238456726074</t>
   </si>
   <si>
     <t xml:space="preserve">2.06947541236877</t>
@@ -671,52 +671,52 @@
     <t xml:space="preserve">2.11377620697021</t>
   </si>
   <si>
-    <t xml:space="preserve">2.10871315002441</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.12516784667969</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.16440534591675</t>
+    <t xml:space="preserve">2.10871362686157</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.12516808509827</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.16440558433533</t>
   </si>
   <si>
     <t xml:space="preserve">2.1517481803894</t>
   </si>
   <si>
-    <t xml:space="preserve">2.15681099891663</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.19604897499084</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.20490884780884</t>
+    <t xml:space="preserve">2.15681123733521</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.19604921340942</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.20490908622742</t>
   </si>
   <si>
     <t xml:space="preserve">2.21883225440979</t>
   </si>
   <si>
-    <t xml:space="preserve">2.2276918888092</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.23148918151855</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.21503496170044</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.24034929275513</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.23275542259216</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.22895789146423</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.21376919746399</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.22516083717346</t>
+    <t xml:space="preserve">2.22769212722778</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.23148941993713</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.21503520011902</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.24034953117371</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.23275518417358</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.22895765304565</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.21376895904541</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.22516059875488</t>
   </si>
   <si>
     <t xml:space="preserve">2.27452445030212</t>
@@ -725,7 +725,7 @@
     <t xml:space="preserve">2.24288082122803</t>
   </si>
   <si>
-    <t xml:space="preserve">2.23908400535583</t>
+    <t xml:space="preserve">2.23908376693726</t>
   </si>
   <si>
     <t xml:space="preserve">2.2783215045929</t>
@@ -734,7 +734,7 @@
     <t xml:space="preserve">2.2694616317749</t>
   </si>
   <si>
-    <t xml:space="preserve">2.27325844764709</t>
+    <t xml:space="preserve">2.27325868606567</t>
   </si>
   <si>
     <t xml:space="preserve">2.29224467277527</t>
@@ -746,58 +746,58 @@
     <t xml:space="preserve">2.34920287132263</t>
   </si>
   <si>
-    <t xml:space="preserve">2.39350318908691</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.42274117469788</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.40945100784302</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.39616131782532</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.37755560874939</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.31642246246338</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.31243538856506</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.35230493545532</t>
+    <t xml:space="preserve">2.39350342750549</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.42274069786072</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.4094512462616</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.3961615562439</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.37755584716797</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.31642198562622</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.31243515014648</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.35230469703674</t>
   </si>
   <si>
     <t xml:space="preserve">2.31376457214355</t>
   </si>
   <si>
-    <t xml:space="preserve">2.30047392845154</t>
+    <t xml:space="preserve">2.30047416687012</t>
   </si>
   <si>
     <t xml:space="preserve">2.36559462547302</t>
   </si>
   <si>
-    <t xml:space="preserve">2.38154268264771</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.40014815330505</t>
+    <t xml:space="preserve">2.38154292106628</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.40014839172363</t>
   </si>
   <si>
     <t xml:space="preserve">2.41476726531982</t>
   </si>
   <si>
-    <t xml:space="preserve">2.43204402923584</t>
+    <t xml:space="preserve">2.43204426765442</t>
   </si>
   <si>
     <t xml:space="preserve">2.41875410079956</t>
   </si>
   <si>
-    <t xml:space="preserve">2.36293697357178</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.4014778137207</t>
+    <t xml:space="preserve">2.3629367351532</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.40147757530212</t>
   </si>
   <si>
     <t xml:space="preserve">2.40812230110168</t>
@@ -806,7 +806,7 @@
     <t xml:space="preserve">2.4253990650177</t>
   </si>
   <si>
-    <t xml:space="preserve">2.43071532249451</t>
+    <t xml:space="preserve">2.43071508407593</t>
   </si>
   <si>
     <t xml:space="preserve">2.40413522720337</t>
@@ -815,16 +815,16 @@
     <t xml:space="preserve">2.39217448234558</t>
   </si>
   <si>
-    <t xml:space="preserve">2.41210961341858</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.41343808174133</t>
+    <t xml:space="preserve">2.412109375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.41343832015991</t>
   </si>
   <si>
     <t xml:space="preserve">2.40679311752319</t>
   </si>
   <si>
-    <t xml:space="preserve">2.47058439254761</t>
+    <t xml:space="preserve">2.47058463096619</t>
   </si>
   <si>
     <t xml:space="preserve">2.38951635360718</t>
@@ -845,25 +845,25 @@
     <t xml:space="preserve">2.30579042434692</t>
   </si>
   <si>
-    <t xml:space="preserve">2.33104109764099</t>
+    <t xml:space="preserve">2.33104085922241</t>
   </si>
   <si>
     <t xml:space="preserve">2.32173800468445</t>
   </si>
   <si>
-    <t xml:space="preserve">2.31908011436462</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.32306718826294</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.32838296890259</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.30446100234985</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.26592111587524</t>
+    <t xml:space="preserve">2.3190803527832</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.32306742668152</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.32838320732117</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.30446124076843</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.26592087745667</t>
   </si>
   <si>
     <t xml:space="preserve">2.25661754608154</t>
@@ -875,7 +875,7 @@
     <t xml:space="preserve">2.29250049591064</t>
   </si>
   <si>
-    <t xml:space="preserve">2.30180382728577</t>
+    <t xml:space="preserve">2.30180358886719</t>
   </si>
   <si>
     <t xml:space="preserve">2.38552951812744</t>
@@ -884,10 +884,10 @@
     <t xml:space="preserve">2.38021349906921</t>
   </si>
   <si>
-    <t xml:space="preserve">2.39084577560425</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.37622666358948</t>
+    <t xml:space="preserve">2.39084553718567</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.3762264251709</t>
   </si>
   <si>
     <t xml:space="preserve">2.35629177093506</t>
@@ -899,16 +899,16 @@
     <t xml:space="preserve">2.34034395217896</t>
   </si>
   <si>
-    <t xml:space="preserve">2.32572531700134</t>
+    <t xml:space="preserve">2.32572555541992</t>
   </si>
   <si>
     <t xml:space="preserve">2.35097599029541</t>
   </si>
   <si>
-    <t xml:space="preserve">2.30977749824524</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.35496282577515</t>
+    <t xml:space="preserve">2.30977725982666</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.35496258735657</t>
   </si>
   <si>
     <t xml:space="preserve">2.43470191955566</t>
@@ -920,28 +920,28 @@
     <t xml:space="preserve">2.42141222953796</t>
   </si>
   <si>
-    <t xml:space="preserve">2.34698915481567</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.34831786155701</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.33502793312073</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.32971239089966</t>
+    <t xml:space="preserve">2.34698891639709</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.34831762313843</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.33502769470215</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.32971215248108</t>
   </si>
   <si>
     <t xml:space="preserve">2.39483261108398</t>
   </si>
   <si>
-    <t xml:space="preserve">2.37223958969116</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.39749073982239</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.36825275421143</t>
+    <t xml:space="preserve">2.37223935127258</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.39749050140381</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.36825251579285</t>
   </si>
   <si>
     <t xml:space="preserve">2.41742539405823</t>
@@ -950,19 +950,19 @@
     <t xml:space="preserve">2.43603086471558</t>
   </si>
   <si>
-    <t xml:space="preserve">2.4719135761261</t>
+    <t xml:space="preserve">2.47191405296326</t>
   </si>
   <si>
     <t xml:space="preserve">2.48254537582397</t>
   </si>
   <si>
-    <t xml:space="preserve">2.5343759059906</t>
+    <t xml:space="preserve">2.53437566757202</t>
   </si>
   <si>
     <t xml:space="preserve">2.51311206817627</t>
   </si>
   <si>
-    <t xml:space="preserve">2.51178359985352</t>
+    <t xml:space="preserve">2.51178336143494</t>
   </si>
   <si>
     <t xml:space="preserve">2.54367899894714</t>
@@ -971,31 +971,31 @@
     <t xml:space="preserve">2.45197916030884</t>
   </si>
   <si>
-    <t xml:space="preserve">2.45729494094849</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.4054639339447</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.42938590049744</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.47324252128601</t>
+    <t xml:space="preserve">2.45729470252991</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.40546417236328</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.42938566207886</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.47324228286743</t>
   </si>
   <si>
     <t xml:space="preserve">2.45862364768982</t>
   </si>
   <si>
-    <t xml:space="preserve">2.44134712219238</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.42672801017761</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.44932055473328</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.3788845539093</t>
+    <t xml:space="preserve">2.4413468837738</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.42672824859619</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.44932103157043</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.37888431549072</t>
   </si>
   <si>
     <t xml:space="preserve">2.42872166633606</t>
@@ -1004,7 +1004,7 @@
     <t xml:space="preserve">2.44533395767212</t>
   </si>
   <si>
-    <t xml:space="preserve">2.4386887550354</t>
+    <t xml:space="preserve">2.43868923187256</t>
   </si>
   <si>
     <t xml:space="preserve">2.44201135635376</t>
@@ -1016,34 +1016,34 @@
     <t xml:space="preserve">2.19282650947571</t>
   </si>
   <si>
-    <t xml:space="preserve">2.09979748725891</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.15960240364075</t>
+    <t xml:space="preserve">2.09979796409607</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.15960192680359</t>
   </si>
   <si>
     <t xml:space="preserve">2.12969970703125</t>
   </si>
   <si>
-    <t xml:space="preserve">2.09315252304077</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.14631199836731</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.13634490966797</t>
+    <t xml:space="preserve">2.09315276145935</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.14631175994873</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.13634467124939</t>
   </si>
   <si>
     <t xml:space="preserve">2.17289161682129</t>
   </si>
   <si>
-    <t xml:space="preserve">2.17953681945801</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.12305450439453</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.10644245147705</t>
+    <t xml:space="preserve">2.17953705787659</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.12305498123169</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.10644268989563</t>
   </si>
   <si>
     <t xml:space="preserve">2.08318519592285</t>
@@ -1058,40 +1058,40 @@
     <t xml:space="preserve">2.06989526748657</t>
   </si>
   <si>
-    <t xml:space="preserve">2.07986259460449</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.10311985015869</t>
+    <t xml:space="preserve">2.07986307144165</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.10311961174011</t>
   </si>
   <si>
     <t xml:space="preserve">2.14298963546753</t>
   </si>
   <si>
-    <t xml:space="preserve">2.09647512435913</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.12637734413147</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.13302230834961</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.18285942077637</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.16292452812195</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.11640977859497</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.11973261833191</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.15627956390381</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.16624689102173</t>
+    <t xml:space="preserve">2.09647536277771</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.12637710571289</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.13302206993103</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.18285918235779</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.16292476654053</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.11641001701355</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.11973237991333</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.15627932548523</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.16624665260315</t>
   </si>
   <si>
     <t xml:space="preserve">2.19947147369385</t>
@@ -1100,7 +1100,7 @@
     <t xml:space="preserve">2.17621445655823</t>
   </si>
   <si>
-    <t xml:space="preserve">2.18618154525757</t>
+    <t xml:space="preserve">2.18618130683899</t>
   </si>
   <si>
     <t xml:space="preserve">2.20943880081177</t>
@@ -1109,13 +1109,13 @@
     <t xml:space="preserve">2.21276140213013</t>
   </si>
   <si>
-    <t xml:space="preserve">2.25927639007568</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.34565997123718</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.3290479183197</t>
+    <t xml:space="preserve">2.25927591323853</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.34566020965576</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.32904767990112</t>
   </si>
   <si>
     <t xml:space="preserve">2.34655928611755</t>
@@ -1145,13 +1145,13 @@
     <t xml:space="preserve">2.29844355583191</t>
   </si>
   <si>
-    <t xml:space="preserve">2.29104113578796</t>
+    <t xml:space="preserve">2.29104137420654</t>
   </si>
   <si>
     <t xml:space="preserve">2.27993774414062</t>
   </si>
   <si>
-    <t xml:space="preserve">2.26143169403076</t>
+    <t xml:space="preserve">2.26143145561218</t>
   </si>
   <si>
     <t xml:space="preserve">2.22441983222961</t>
@@ -1166,10 +1166,10 @@
     <t xml:space="preserve">2.23182225227356</t>
   </si>
   <si>
-    <t xml:space="preserve">2.22071862220764</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.20591378211975</t>
+    <t xml:space="preserve">2.22071838378906</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.20591354370117</t>
   </si>
   <si>
     <t xml:space="preserve">2.18000507354736</t>
@@ -1181,7 +1181,7 @@
     <t xml:space="preserve">2.26513266563416</t>
   </si>
   <si>
-    <t xml:space="preserve">2.2022123336792</t>
+    <t xml:space="preserve">2.20221257209778</t>
   </si>
   <si>
     <t xml:space="preserve">2.2133162021637</t>
@@ -1190,7 +1190,7 @@
     <t xml:space="preserve">2.21701693534851</t>
   </si>
   <si>
-    <t xml:space="preserve">2.16149926185608</t>
+    <t xml:space="preserve">2.16149950027466</t>
   </si>
   <si>
     <t xml:space="preserve">2.26883435249329</t>
@@ -1202,7 +1202,7 @@
     <t xml:space="preserve">2.18740749359131</t>
   </si>
   <si>
-    <t xml:space="preserve">2.16890168190002</t>
+    <t xml:space="preserve">2.1689019203186</t>
   </si>
   <si>
     <t xml:space="preserve">2.15779805183411</t>
@@ -1220,7 +1220,7 @@
     <t xml:space="preserve">2.12448740005493</t>
   </si>
   <si>
-    <t xml:space="preserve">2.14669489860535</t>
+    <t xml:space="preserve">2.14669466018677</t>
   </si>
   <si>
     <t xml:space="preserve">2.11708474159241</t>
@@ -1229,7 +1229,7 @@
     <t xml:space="preserve">2.10968255996704</t>
   </si>
   <si>
-    <t xml:space="preserve">2.32435178756714</t>
+    <t xml:space="preserve">2.32435202598572</t>
   </si>
   <si>
     <t xml:space="preserve">2.33175444602966</t>
@@ -1247,7 +1247,7 @@
     <t xml:space="preserve">2.47980213165283</t>
   </si>
   <si>
-    <t xml:space="preserve">2.41688179969788</t>
+    <t xml:space="preserve">2.41688203811646</t>
   </si>
   <si>
     <t xml:space="preserve">2.42058300971985</t>
@@ -1265,25 +1265,25 @@
     <t xml:space="preserve">2.29474234580994</t>
   </si>
   <si>
-    <t xml:space="preserve">2.23922443389893</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.30954694747925</t>
+    <t xml:space="preserve">2.23922419548035</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.30954718589783</t>
   </si>
   <si>
     <t xml:space="preserve">2.27623653411865</t>
   </si>
   <si>
-    <t xml:space="preserve">2.2836389541626</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.3021445274353</t>
+    <t xml:space="preserve">2.28363871574402</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.30214476585388</t>
   </si>
   <si>
     <t xml:space="preserve">2.3132483959198</t>
   </si>
   <si>
-    <t xml:space="preserve">2.342857837677</t>
+    <t xml:space="preserve">2.34285807609558</t>
   </si>
   <si>
     <t xml:space="preserve">2.33915686607361</t>
@@ -1304,7 +1304,7 @@
     <t xml:space="preserve">2.19110894203186</t>
   </si>
   <si>
-    <t xml:space="preserve">2.23552322387695</t>
+    <t xml:space="preserve">2.23552346229553</t>
   </si>
   <si>
     <t xml:space="preserve">2.08747529983521</t>
@@ -1316,10 +1316,10 @@
     <t xml:space="preserve">2.15409684181213</t>
   </si>
   <si>
-    <t xml:space="preserve">2.25402927398682</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.27253532409668</t>
+    <t xml:space="preserve">2.25402903556824</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.2725350856781</t>
   </si>
   <si>
     <t xml:space="preserve">2.25032782554626</t>
@@ -1328,22 +1328,22 @@
     <t xml:space="preserve">2.22812056541443</t>
   </si>
   <si>
-    <t xml:space="preserve">2.40207719802856</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.43168663978577</t>
+    <t xml:space="preserve">2.40207695960999</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.43168687820435</t>
   </si>
   <si>
     <t xml:space="preserve">2.38357138633728</t>
   </si>
   <si>
-    <t xml:space="preserve">2.35766267776489</t>
+    <t xml:space="preserve">2.35766291618347</t>
   </si>
   <si>
     <t xml:space="preserve">2.37616872787476</t>
   </si>
   <si>
-    <t xml:space="preserve">2.37987017631531</t>
+    <t xml:space="preserve">2.37986993789673</t>
   </si>
   <si>
     <t xml:space="preserve">2.42428421974182</t>
@@ -1358,7 +1358,7 @@
     <t xml:space="preserve">2.45019268989563</t>
   </si>
   <si>
-    <t xml:space="preserve">2.50200986862183</t>
+    <t xml:space="preserve">2.50200963020325</t>
   </si>
   <si>
     <t xml:space="preserve">2.49460697174072</t>
@@ -1388,7 +1388,7 @@
     <t xml:space="preserve">2.5279176235199</t>
   </si>
   <si>
-    <t xml:space="preserve">2.53902149200439</t>
+    <t xml:space="preserve">2.53902173042297</t>
   </si>
   <si>
     <t xml:space="preserve">2.52051544189453</t>
@@ -1400,10 +1400,10 @@
     <t xml:space="preserve">2.54272246360779</t>
   </si>
   <si>
-    <t xml:space="preserve">2.55382609367371</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.57603359222412</t>
+    <t xml:space="preserve">2.55382633209229</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.57603335380554</t>
   </si>
   <si>
     <t xml:space="preserve">2.60194182395935</t>
@@ -1421,22 +1421,22 @@
     <t xml:space="preserve">2.64635634422302</t>
   </si>
   <si>
-    <t xml:space="preserve">2.64265489578247</t>
+    <t xml:space="preserve">2.64265465736389</t>
   </si>
   <si>
     <t xml:space="preserve">2.63895416259766</t>
   </si>
   <si>
-    <t xml:space="preserve">2.65745973587036</t>
+    <t xml:space="preserve">2.65745949745178</t>
   </si>
   <si>
     <t xml:space="preserve">2.67226457595825</t>
   </si>
   <si>
-    <t xml:space="preserve">2.71297740936279</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.72778248786926</t>
+    <t xml:space="preserve">2.71297764778137</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.72778272628784</t>
   </si>
   <si>
     <t xml:space="preserve">2.70187425613403</t>
@@ -1454,7 +1454,7 @@
     <t xml:space="preserve">2.82401371002197</t>
   </si>
   <si>
-    <t xml:space="preserve">2.82031226158142</t>
+    <t xml:space="preserve">2.8203125</t>
   </si>
   <si>
     <t xml:space="preserve">2.84992170333862</t>
@@ -1463,7 +1463,7 @@
     <t xml:space="preserve">2.83881831169128</t>
   </si>
   <si>
-    <t xml:space="preserve">3.02654099464417</t>
+    <t xml:space="preserve">3.02654075622559</t>
   </si>
   <si>
     <t xml:space="preserve">2.74035239219666</t>
@@ -1481,7 +1481,7 @@
     <t xml:space="preserve">2.68154668807983</t>
   </si>
   <si>
-    <t xml:space="preserve">2.75603437423706</t>
+    <t xml:space="preserve">2.75603413581848</t>
   </si>
   <si>
     <t xml:space="preserve">2.84228277206421</t>
@@ -1499,31 +1499,31 @@
     <t xml:space="preserve">2.77563571929932</t>
   </si>
   <si>
-    <t xml:space="preserve">2.76779532432556</t>
+    <t xml:space="preserve">2.76779508590698</t>
   </si>
   <si>
     <t xml:space="preserve">2.79131746292114</t>
   </si>
   <si>
-    <t xml:space="preserve">2.78739714622498</t>
+    <t xml:space="preserve">2.78739738464355</t>
   </si>
   <si>
     <t xml:space="preserve">2.84620332717896</t>
   </si>
   <si>
-    <t xml:space="preserve">2.85796427726746</t>
+    <t xml:space="preserve">2.85796451568604</t>
   </si>
   <si>
     <t xml:space="preserve">2.82660102844238</t>
   </si>
   <si>
-    <t xml:space="preserve">2.83444166183472</t>
+    <t xml:space="preserve">2.8344419002533</t>
   </si>
   <si>
     <t xml:space="preserve">2.85012340545654</t>
   </si>
   <si>
-    <t xml:space="preserve">2.8618848323822</t>
+    <t xml:space="preserve">2.86188459396362</t>
   </si>
   <si>
     <t xml:space="preserve">2.8736457824707</t>
@@ -1553,7 +1553,7 @@
     <t xml:space="preserve">2.95989465713501</t>
   </si>
   <si>
-    <t xml:space="preserve">3.00693893432617</t>
+    <t xml:space="preserve">3.00693917274475</t>
   </si>
   <si>
     <t xml:space="preserve">3.1049485206604</t>
@@ -1577,7 +1577,7 @@
     <t xml:space="preserve">3.18335652351379</t>
   </si>
   <si>
-    <t xml:space="preserve">3.23824214935303</t>
+    <t xml:space="preserve">3.23824191093445</t>
   </si>
   <si>
     <t xml:space="preserve">3.25000309944153</t>
@@ -1586,13 +1586,13 @@
     <t xml:space="preserve">3.25392365455627</t>
   </si>
   <si>
-    <t xml:space="preserve">3.26960515975952</t>
+    <t xml:space="preserve">3.26960492134094</t>
   </si>
   <si>
     <t xml:space="preserve">3.30096817016602</t>
   </si>
   <si>
-    <t xml:space="preserve">3.33233141899109</t>
+    <t xml:space="preserve">3.33233165740967</t>
   </si>
   <si>
     <t xml:space="preserve">3.3127293586731</t>
@@ -1610,40 +1610,40 @@
     <t xml:space="preserve">3.25784420967102</t>
   </si>
   <si>
-    <t xml:space="preserve">3.24216246604919</t>
+    <t xml:space="preserve">3.24216270446777</t>
   </si>
   <si>
     <t xml:space="preserve">3.19119715690613</t>
   </si>
   <si>
-    <t xml:space="preserve">3.14023232460022</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.12847137451172</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.11670994758606</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.0500636100769</t>
+    <t xml:space="preserve">3.14023208618164</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.12847113609314</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.11670970916748</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.05006337165833</t>
   </si>
   <si>
     <t xml:space="preserve">3.05398368835449</t>
   </si>
   <si>
-    <t xml:space="preserve">3.21863985061646</t>
+    <t xml:space="preserve">3.21864008903503</t>
   </si>
   <si>
     <t xml:space="preserve">3.21471953392029</t>
   </si>
   <si>
-    <t xml:space="preserve">3.16375470161438</t>
+    <t xml:space="preserve">3.1637544631958</t>
   </si>
   <si>
     <t xml:space="preserve">3.14807295799255</t>
   </si>
   <si>
-    <t xml:space="preserve">3.04222273826599</t>
+    <t xml:space="preserve">3.04222249984741</t>
   </si>
   <si>
     <t xml:space="preserve">3.12063026428223</t>
@@ -1664,7 +1664,7 @@
     <t xml:space="preserve">3.10102844238281</t>
   </si>
   <si>
-    <t xml:space="preserve">2.98341655731201</t>
+    <t xml:space="preserve">2.98341679573059</t>
   </si>
   <si>
     <t xml:space="preserve">2.88148665428162</t>
@@ -1673,34 +1673,34 @@
     <t xml:space="preserve">2.93637204170227</t>
   </si>
   <si>
-    <t xml:space="preserve">2.97557592391968</t>
+    <t xml:space="preserve">2.97557616233826</t>
   </si>
   <si>
     <t xml:space="preserve">2.98733711242676</t>
   </si>
   <si>
-    <t xml:space="preserve">2.97949624061584</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.99909806251526</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.00301861763</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.05790424346924</t>
+    <t xml:space="preserve">2.97949600219727</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.99909830093384</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.00301837921143</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.05790400505066</t>
   </si>
   <si>
     <t xml:space="preserve">3.03438186645508</t>
   </si>
   <si>
-    <t xml:space="preserve">3.06574535369873</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.046142578125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.03046107292175</t>
+    <t xml:space="preserve">3.06574511528015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.04614281654358</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.03046131134033</t>
   </si>
   <si>
     <t xml:space="preserve">2.93245148658752</t>
@@ -1715,16 +1715,16 @@
     <t xml:space="preserve">2.9442126750946</t>
   </si>
   <si>
-    <t xml:space="preserve">2.89324760437012</t>
+    <t xml:space="preserve">2.8932478427887</t>
   </si>
   <si>
     <t xml:space="preserve">3.01870012283325</t>
   </si>
   <si>
-    <t xml:space="preserve">3.1519935131073</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.17551589012146</t>
+    <t xml:space="preserve">3.15199327468872</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.17551565170288</t>
   </si>
   <si>
     <t xml:space="preserve">3.09710788726807</t>
@@ -1733,7 +1733,7 @@
     <t xml:space="preserve">3.10886907577515</t>
   </si>
   <si>
-    <t xml:space="preserve">3.02262043952942</t>
+    <t xml:space="preserve">3.022620677948</t>
   </si>
   <si>
     <t xml:space="preserve">3.01085948944092</t>
@@ -1754,7 +1754,7 @@
     <t xml:space="preserve">3.46562457084656</t>
   </si>
   <si>
-    <t xml:space="preserve">3.5479531288147</t>
+    <t xml:space="preserve">3.54795289039612</t>
   </si>
   <si>
     <t xml:space="preserve">3.48522686958313</t>
@@ -1766,10 +1766,10 @@
     <t xml:space="preserve">3.52443027496338</t>
   </si>
   <si>
-    <t xml:space="preserve">3.58715677261353</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.61459946632385</t>
+    <t xml:space="preserve">3.58715653419495</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.61459970474243</t>
   </si>
   <si>
     <t xml:space="preserve">3.5165901184082</t>
@@ -1778,7 +1778,7 @@
     <t xml:space="preserve">3.4225001335144</t>
   </si>
   <si>
-    <t xml:space="preserve">3.39505743980408</t>
+    <t xml:space="preserve">3.39505767822266</t>
   </si>
   <si>
     <t xml:space="preserve">3.37937617301941</t>
@@ -1796,7 +1796,7 @@
     <t xml:space="preserve">3.28920745849609</t>
   </si>
   <si>
-    <t xml:space="preserve">3.26176452636719</t>
+    <t xml:space="preserve">3.26176428794861</t>
   </si>
   <si>
     <t xml:space="preserve">3.21079921722412</t>
@@ -1820,10 +1820,10 @@
     <t xml:space="preserve">2.13269209861755</t>
   </si>
   <si>
-    <t xml:space="preserve">2.36399507522583</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.45024371147156</t>
+    <t xml:space="preserve">2.36399531364441</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.45024394989014</t>
   </si>
   <si>
     <t xml:space="preserve">2.49336814880371</t>
@@ -1832,10 +1832,10 @@
     <t xml:space="preserve">2.50512909889221</t>
   </si>
   <si>
-    <t xml:space="preserve">2.55217385292053</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.61882066726685</t>
+    <t xml:space="preserve">2.55217409133911</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.61882042884827</t>
   </si>
   <si>
     <t xml:space="preserve">2.60313892364502</t>
@@ -1856,7 +1856,7 @@
     <t xml:space="preserve">2.63842248916626</t>
   </si>
   <si>
-    <t xml:space="preserve">2.4972882270813</t>
+    <t xml:space="preserve">2.49728846549988</t>
   </si>
   <si>
     <t xml:space="preserve">2.50904965400696</t>
@@ -1889,7 +1889,7 @@
     <t xml:space="preserve">2.58745741844177</t>
   </si>
   <si>
-    <t xml:space="preserve">2.64234280586243</t>
+    <t xml:space="preserve">2.64234256744385</t>
   </si>
   <si>
     <t xml:space="preserve">2.61097955703735</t>
@@ -1898,7 +1898,7 @@
     <t xml:space="preserve">2.65018367767334</t>
   </si>
   <si>
-    <t xml:space="preserve">2.62274074554443</t>
+    <t xml:space="preserve">2.62274098396301</t>
   </si>
   <si>
     <t xml:space="preserve">2.62666130065918</t>
@@ -1910,7 +1910,7 @@
     <t xml:space="preserve">2.92069029808044</t>
   </si>
   <si>
-    <t xml:space="preserve">3.30880880355835</t>
+    <t xml:space="preserve">3.30880904197693</t>
   </si>
   <si>
     <t xml:space="preserve">3.44994354248047</t>
@@ -3435,6 +3435,9 @@
   </si>
   <si>
     <t xml:space="preserve">2.4449999332428</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.46499991416931</t>
   </si>
 </sst>
 </file>
@@ -60482,7 +60485,7 @@
     </row>
     <row r="2182">
       <c r="A2182" s="1" t="n">
-        <v>45499.6494212963</v>
+        <v>45499.2916666667</v>
       </c>
       <c r="B2182" t="n">
         <v>126583</v>
@@ -60503,6 +60506,32 @@
         <v>1140</v>
       </c>
       <c r="H2182" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2183">
+      <c r="A2183" s="1" t="n">
+        <v>45502.649537037</v>
+      </c>
+      <c r="B2183" t="n">
+        <v>72275</v>
+      </c>
+      <c r="C2183" t="n">
+        <v>2.48000001907349</v>
+      </c>
+      <c r="D2183" t="n">
+        <v>2.45499992370605</v>
+      </c>
+      <c r="E2183" t="n">
+        <v>2.46499991416931</v>
+      </c>
+      <c r="F2183" t="n">
+        <v>2.46499991416931</v>
+      </c>
+      <c r="G2183" t="s">
+        <v>1141</v>
+      </c>
+      <c r="H2183" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/ASC.MI.xlsx
+++ b/data/ASC.MI.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1142" uniqueCount="1142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1143" uniqueCount="1143">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -44,40 +44,40 @@
     <t xml:space="preserve">ASC.MI</t>
   </si>
   <si>
-    <t xml:space="preserve">1.31448101997375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.30262815952301</t>
+    <t xml:space="preserve">1.31448090076447</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.3026282787323</t>
   </si>
   <si>
     <t xml:space="preserve">1.30381345748901</t>
   </si>
   <si>
-    <t xml:space="preserve">1.28959012031555</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.28247833251953</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.30973994731903</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.28366351127625</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.26588404178619</t>
+    <t xml:space="preserve">1.28959023952484</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.28247845172882</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.30973982810974</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.28366363048553</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.26588428020477</t>
   </si>
   <si>
     <t xml:space="preserve">1.22676992416382</t>
   </si>
   <si>
-    <t xml:space="preserve">1.23032581806183</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.19121146202087</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.21491706371307</t>
+    <t xml:space="preserve">1.23032593727112</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.19121134281158</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.21491718292236</t>
   </si>
   <si>
     <t xml:space="preserve">1.29196071624756</t>
@@ -86,124 +86,124 @@
     <t xml:space="preserve">1.28840470314026</t>
   </si>
   <si>
-    <t xml:space="preserve">1.28129303455353</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.30736947059631</t>
+    <t xml:space="preserve">1.28129279613495</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.30736935138702</t>
   </si>
   <si>
     <t xml:space="preserve">1.31211042404175</t>
   </si>
   <si>
-    <t xml:space="preserve">1.29788708686829</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.23862266540527</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.244549036026</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.24336397647858</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.2243994474411</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.24099338054657</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.26469922065735</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.26232838630676</t>
+    <t xml:space="preserve">1.29788720607758</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.23862278461456</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.24454927444458</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.24336385726929</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.22439932823181</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.24099349975586</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.26469933986664</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.26232850551605</t>
   </si>
   <si>
     <t xml:space="preserve">1.26825499534607</t>
   </si>
   <si>
-    <t xml:space="preserve">1.27062547206879</t>
+    <t xml:space="preserve">1.27062559127808</t>
   </si>
   <si>
     <t xml:space="preserve">1.32514846324921</t>
   </si>
   <si>
-    <t xml:space="preserve">1.3215925693512</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.32396328449249</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.31685149669647</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.31922233104706</t>
+    <t xml:space="preserve">1.32159280776978</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.32396340370178</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.31685161590576</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.31922209262848</t>
   </si>
   <si>
     <t xml:space="preserve">1.30618405342102</t>
   </si>
   <si>
-    <t xml:space="preserve">1.31803679466248</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.33581626415253</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.34411334991455</t>
+    <t xml:space="preserve">1.31803691387177</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.33581614494324</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.34411311149597</t>
   </si>
   <si>
     <t xml:space="preserve">1.34648370742798</t>
   </si>
   <si>
-    <t xml:space="preserve">1.36070716381073</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.35833668708801</t>
+    <t xml:space="preserve">1.36070704460144</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.35833656787872</t>
   </si>
   <si>
     <t xml:space="preserve">1.34766888618469</t>
   </si>
   <si>
-    <t xml:space="preserve">1.34292793273926</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.36189246177673</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.34055733680725</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.35596585273743</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.35952186584473</t>
+    <t xml:space="preserve">1.34292769432068</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.36189234256744</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.34055721759796</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.35596597194672</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.35952174663544</t>
   </si>
   <si>
     <t xml:space="preserve">1.36307764053345</t>
   </si>
   <si>
-    <t xml:space="preserve">1.3488541841507</t>
+    <t xml:space="preserve">1.34885430335999</t>
   </si>
   <si>
     <t xml:space="preserve">1.36426293849945</t>
   </si>
   <si>
-    <t xml:space="preserve">1.38796854019165</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.38085687160492</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.38322770595551</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.38678336143494</t>
+    <t xml:space="preserve">1.38796865940094</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.38085699081421</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.38322758674622</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.38678348064423</t>
   </si>
   <si>
     <t xml:space="preserve">1.39152467250824</t>
   </si>
   <si>
-    <t xml:space="preserve">1.39863610267639</t>
+    <t xml:space="preserve">1.3986359834671</t>
   </si>
   <si>
     <t xml:space="preserve">1.3784863948822</t>
@@ -212,73 +212,73 @@
     <t xml:space="preserve">1.37967157363892</t>
   </si>
   <si>
-    <t xml:space="preserve">1.3820424079895</t>
+    <t xml:space="preserve">1.38204216957092</t>
   </si>
   <si>
     <t xml:space="preserve">1.40219211578369</t>
   </si>
   <si>
-    <t xml:space="preserve">1.41048920154572</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.41760087013245</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.41523003578186</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.4045627117157</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.39982151985168</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.43281102180481</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.4302796125412</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.43407690525055</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.44926571846008</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.46572005748749</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.46192300319672</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.47584617137909</t>
+    <t xml:space="preserve">1.41048908233643</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.41760063171387</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.41523027420044</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.40456259250641</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.39982163906097</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.4328111410141</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.43027973175049</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.43407678604126</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.44926559925079</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.46572029590607</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.46192312240601</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.4758460521698</t>
   </si>
   <si>
     <t xml:space="preserve">1.4834406375885</t>
   </si>
   <si>
-    <t xml:space="preserve">1.48470616340637</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.48976922035217</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.49483203887939</t>
+    <t xml:space="preserve">1.48470604419708</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.48976910114288</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.49483215808868</t>
   </si>
   <si>
     <t xml:space="preserve">1.50242650508881</t>
   </si>
   <si>
-    <t xml:space="preserve">1.53153836727142</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.52900695800781</t>
+    <t xml:space="preserve">1.53153848648071</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.52900671958923</t>
   </si>
   <si>
     <t xml:space="preserve">1.54419577121735</t>
   </si>
   <si>
-    <t xml:space="preserve">1.55938458442688</t>
+    <t xml:space="preserve">1.55938422679901</t>
   </si>
   <si>
     <t xml:space="preserve">1.58343350887299</t>
@@ -287,37 +287,37 @@
     <t xml:space="preserve">1.54546141624451</t>
   </si>
   <si>
-    <t xml:space="preserve">1.55685329437256</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.53913283348083</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.58216762542725</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.65178334712982</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.65811192989349</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.64039170742035</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.56571316719055</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.55052423477173</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.59862232208252</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.64418876171112</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.58849632740021</t>
+    <t xml:space="preserve">1.55685317516327</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.53913259506226</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.58216786384583</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.65178322792053</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.6581118106842</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.64039146900177</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.56571328639984</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.55052435398102</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.59862208366394</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.64418864250183</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.58849656581879</t>
   </si>
   <si>
     <t xml:space="preserve">1.56318187713623</t>
@@ -329,49 +329,49 @@
     <t xml:space="preserve">1.63912570476532</t>
   </si>
   <si>
-    <t xml:space="preserve">1.70874118804932</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.69481813907623</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.63786017894745</t>
+    <t xml:space="preserve">1.70874094963074</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.69481801986694</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.63785994052887</t>
   </si>
   <si>
     <t xml:space="preserve">1.69355237483978</t>
   </si>
   <si>
-    <t xml:space="preserve">1.70494389533997</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.70621001720428</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.7631676197052</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.76823055744171</t>
+    <t xml:space="preserve">1.70494413375854</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.70620965957642</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.76316773891449</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.76823043823242</t>
   </si>
   <si>
     <t xml:space="preserve">1.77076208591461</t>
   </si>
   <si>
-    <t xml:space="preserve">1.73532164096832</t>
+    <t xml:space="preserve">1.73532176017761</t>
   </si>
   <si>
     <t xml:space="preserve">1.73405575752258</t>
   </si>
   <si>
-    <t xml:space="preserve">1.77202785015106</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.7846851348877</t>
+    <t xml:space="preserve">1.77202796936035</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.78468501567841</t>
   </si>
   <si>
     <t xml:space="preserve">1.75051021575928</t>
   </si>
   <si>
-    <t xml:space="preserve">1.74671316146851</t>
+    <t xml:space="preserve">1.7467132806778</t>
   </si>
   <si>
     <t xml:space="preserve">1.75304186344147</t>
@@ -383,43 +383,43 @@
     <t xml:space="preserve">1.80620276927948</t>
   </si>
   <si>
-    <t xml:space="preserve">1.84164345264435</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.80367136001587</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.83278334140778</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.82012581825256</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.79734253883362</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.79607701301575</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.79354572296143</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.81632852554321</t>
+    <t xml:space="preserve">1.84164333343506</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.803671002388</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.8327831029892</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.82012605667114</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.79734241962433</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.79607689380646</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.79354548454285</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.81632804870605</t>
   </si>
   <si>
     <t xml:space="preserve">1.82265722751617</t>
   </si>
   <si>
-    <t xml:space="preserve">1.80999982357025</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.82518899440765</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.81126594543457</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.70241260528564</t>
+    <t xml:space="preserve">1.80999994277954</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.82518875598907</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.81126534938812</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.70241272449493</t>
   </si>
   <si>
     <t xml:space="preserve">1.71380400657654</t>
@@ -428,34 +428,34 @@
     <t xml:space="preserve">1.7897481918335</t>
   </si>
   <si>
-    <t xml:space="preserve">1.74038469791412</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.65558016300201</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.67583203315735</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.64798581600189</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.67456614971161</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.66064345836639</t>
+    <t xml:space="preserve">1.74038434028625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.6555802822113</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.67583227157593</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.64798605442047</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.67456603050232</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.6606433391571</t>
   </si>
   <si>
     <t xml:space="preserve">1.68722367286682</t>
   </si>
   <si>
-    <t xml:space="preserve">1.69861555099487</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.66444087028503</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.6770977973938</t>
+    <t xml:space="preserve">1.698615193367</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.66444063186646</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.67709791660309</t>
   </si>
   <si>
     <t xml:space="preserve">1.65684616565704</t>
@@ -464,10 +464,10 @@
     <t xml:space="preserve">1.65937745571136</t>
   </si>
   <si>
-    <t xml:space="preserve">1.66190874576569</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.68469226360321</t>
+    <t xml:space="preserve">1.66190910339355</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.68469202518463</t>
   </si>
   <si>
     <t xml:space="preserve">1.69228661060333</t>
@@ -476,10 +476,10 @@
     <t xml:space="preserve">1.69608378410339</t>
   </si>
   <si>
-    <t xml:space="preserve">1.7011467218399</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.66317462921143</t>
+    <t xml:space="preserve">1.70114684104919</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.66317498683929</t>
   </si>
   <si>
     <t xml:space="preserve">1.68975520133972</t>
@@ -488,13 +488,13 @@
     <t xml:space="preserve">1.68595790863037</t>
   </si>
   <si>
-    <t xml:space="preserve">1.67836356163025</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.63406300544739</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.57710468769073</t>
+    <t xml:space="preserve">1.67836368083954</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.63406276702881</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.57710492610931</t>
   </si>
   <si>
     <t xml:space="preserve">1.53406989574432</t>
@@ -503,61 +503,61 @@
     <t xml:space="preserve">1.53533554077148</t>
   </si>
   <si>
-    <t xml:space="preserve">1.540398478508</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.52267825603485</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.60115373134613</t>
+    <t xml:space="preserve">1.54039835929871</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.52267813682556</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.60115361213684</t>
   </si>
   <si>
     <t xml:space="preserve">1.63153147697449</t>
   </si>
   <si>
-    <t xml:space="preserve">1.6074823141098</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.57583916187286</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.53786706924438</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.55558741092682</t>
+    <t xml:space="preserve">1.60748243331909</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.57583904266357</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.53786718845367</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.55558729171753</t>
   </si>
   <si>
     <t xml:space="preserve">1.58723068237305</t>
   </si>
   <si>
-    <t xml:space="preserve">1.61381101608276</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.62899994850159</t>
+    <t xml:space="preserve">1.61381125450134</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.6289998292923</t>
   </si>
   <si>
     <t xml:space="preserve">1.62393701076508</t>
   </si>
   <si>
-    <t xml:space="preserve">1.64545440673828</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.63659429550171</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.63026559352875</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.68089497089386</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.71000683307648</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.69988119602203</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.72139847278595</t>
+    <t xml:space="preserve">1.64545452594757</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.636594414711</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.63026571273804</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.68089485168457</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.71000695228577</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.69988131523132</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.72139859199524</t>
   </si>
   <si>
     <t xml:space="preserve">1.71760141849518</t>
@@ -566,22 +566,22 @@
     <t xml:space="preserve">1.72393000125885</t>
   </si>
   <si>
-    <t xml:space="preserve">1.73658752441406</t>
+    <t xml:space="preserve">1.73658740520477</t>
   </si>
   <si>
     <t xml:space="preserve">1.71506989002228</t>
   </si>
   <si>
-    <t xml:space="preserve">1.72266411781311</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.73278999328613</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.75177609920502</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.76190197467804</t>
+    <t xml:space="preserve">1.7226642370224</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.73279011249542</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.75177586078644</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.76190161705017</t>
   </si>
   <si>
     <t xml:space="preserve">1.75937056541443</t>
@@ -593,7 +593,7 @@
     <t xml:space="preserve">1.81253147125244</t>
   </si>
   <si>
-    <t xml:space="preserve">1.80493688583374</t>
+    <t xml:space="preserve">1.80493700504303</t>
   </si>
   <si>
     <t xml:space="preserve">1.78848242759705</t>
@@ -602,94 +602,94 @@
     <t xml:space="preserve">1.77709078788757</t>
   </si>
   <si>
-    <t xml:space="preserve">1.82139134407043</t>
+    <t xml:space="preserve">1.82139110565186</t>
   </si>
   <si>
     <t xml:space="preserve">1.8277200460434</t>
   </si>
   <si>
-    <t xml:space="preserve">1.79481089115143</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.82898592948914</t>
+    <t xml:space="preserve">1.7948112487793</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.82898616790771</t>
   </si>
   <si>
     <t xml:space="preserve">1.84037744998932</t>
   </si>
   <si>
-    <t xml:space="preserve">1.81379687786102</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.8669581413269</t>
+    <t xml:space="preserve">1.8137971162796</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.86695790290833</t>
   </si>
   <si>
     <t xml:space="preserve">1.86062955856323</t>
   </si>
   <si>
-    <t xml:space="preserve">1.88594388961792</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.91758692264557</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.93404185771942</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.95049655437469</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.9593563079834</t>
+    <t xml:space="preserve">1.8859441280365</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.91758739948273</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.93404197692871</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.95049643516541</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.95935678482056</t>
   </si>
   <si>
     <t xml:space="preserve">1.95555913448334</t>
   </si>
   <si>
-    <t xml:space="preserve">1.99732804298401</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.98213994503021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.03656601905823</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.0631468296051</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.08339881896973</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.10238456726074</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.06947541236877</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.07200694084167</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.11377620697021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.10871362686157</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.12516808509827</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.16440558433533</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.1517481803894</t>
+    <t xml:space="preserve">1.99732840061188</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.98213958740234</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.03656649589539</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.06314659118652</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.08339834213257</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.10238432884216</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.06947565078735</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.0720067024231</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.11377596855164</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.10871315002441</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.12516760826111</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.16440534591675</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.15174841880798</t>
   </si>
   <si>
     <t xml:space="preserve">2.15681123733521</t>
   </si>
   <si>
-    <t xml:space="preserve">2.19604921340942</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.20490908622742</t>
+    <t xml:space="preserve">2.19604873657227</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.20490884780884</t>
   </si>
   <si>
     <t xml:space="preserve">2.21883225440979</t>
@@ -701,28 +701,28 @@
     <t xml:space="preserve">2.23148941993713</t>
   </si>
   <si>
-    <t xml:space="preserve">2.21503520011902</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.24034953117371</t>
+    <t xml:space="preserve">2.21503496170044</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.24034929275513</t>
   </si>
   <si>
     <t xml:space="preserve">2.23275518417358</t>
   </si>
   <si>
-    <t xml:space="preserve">2.22895765304565</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.21376895904541</t>
+    <t xml:space="preserve">2.22895812988281</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.21376872062683</t>
   </si>
   <si>
     <t xml:space="preserve">2.22516059875488</t>
   </si>
   <si>
-    <t xml:space="preserve">2.27452445030212</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.24288082122803</t>
+    <t xml:space="preserve">2.27452421188354</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.24288105964661</t>
   </si>
   <si>
     <t xml:space="preserve">2.23908376693726</t>
@@ -731,16 +731,16 @@
     <t xml:space="preserve">2.2783215045929</t>
   </si>
   <si>
-    <t xml:space="preserve">2.2694616317749</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.27325868606567</t>
+    <t xml:space="preserve">2.26946139335632</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.27325820922852</t>
   </si>
   <si>
     <t xml:space="preserve">2.29224467277527</t>
   </si>
   <si>
-    <t xml:space="preserve">2.34160804748535</t>
+    <t xml:space="preserve">2.34160828590393</t>
   </si>
   <si>
     <t xml:space="preserve">2.34920287132263</t>
@@ -749,19 +749,19 @@
     <t xml:space="preserve">2.39350342750549</t>
   </si>
   <si>
-    <t xml:space="preserve">2.42274069786072</t>
+    <t xml:space="preserve">2.42274117469788</t>
   </si>
   <si>
     <t xml:space="preserve">2.4094512462616</t>
   </si>
   <si>
-    <t xml:space="preserve">2.3961615562439</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.37755584716797</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.31642198562622</t>
+    <t xml:space="preserve">2.39616131782532</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.37755560874939</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.31642246246338</t>
   </si>
   <si>
     <t xml:space="preserve">2.31243515014648</t>
@@ -770,16 +770,16 @@
     <t xml:space="preserve">2.35230469703674</t>
   </si>
   <si>
-    <t xml:space="preserve">2.31376457214355</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.30047416687012</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.36559462547302</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.38154292106628</t>
+    <t xml:space="preserve">2.31376433372498</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.3004744052887</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.3655948638916</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.38154268264771</t>
   </si>
   <si>
     <t xml:space="preserve">2.40014839172363</t>
@@ -788,31 +788,31 @@
     <t xml:space="preserve">2.41476726531982</t>
   </si>
   <si>
-    <t xml:space="preserve">2.43204426765442</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.41875410079956</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.3629367351532</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.40147757530212</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.40812230110168</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.4253990650177</t>
+    <t xml:space="preserve">2.43204402923584</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.41875433921814</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.36293649673462</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.40147733688354</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.40812253952026</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.42539882659912</t>
   </si>
   <si>
     <t xml:space="preserve">2.43071508407593</t>
   </si>
   <si>
-    <t xml:space="preserve">2.40413522720337</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.39217448234558</t>
+    <t xml:space="preserve">2.40413570404053</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.392174243927</t>
   </si>
   <si>
     <t xml:space="preserve">2.412109375</t>
@@ -821,37 +821,37 @@
     <t xml:space="preserve">2.41343832015991</t>
   </si>
   <si>
-    <t xml:space="preserve">2.40679311752319</t>
+    <t xml:space="preserve">2.40679335594177</t>
   </si>
   <si>
     <t xml:space="preserve">2.47058463096619</t>
   </si>
   <si>
-    <t xml:space="preserve">2.38951635360718</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.37489748001099</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.35762095451355</t>
+    <t xml:space="preserve">2.38951659202576</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.37489771842957</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.35762071609497</t>
   </si>
   <si>
     <t xml:space="preserve">2.35894989967346</t>
   </si>
   <si>
-    <t xml:space="preserve">2.31509327888489</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.30579042434692</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.33104085922241</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.32173800468445</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.3190803527832</t>
+    <t xml:space="preserve">2.31509304046631</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.30579018592834</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.33104109764099</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.32173824310303</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.31908011436462</t>
   </si>
   <si>
     <t xml:space="preserve">2.32306742668152</t>
@@ -860,16 +860,16 @@
     <t xml:space="preserve">2.32838320732117</t>
   </si>
   <si>
-    <t xml:space="preserve">2.30446124076843</t>
+    <t xml:space="preserve">2.30446147918701</t>
   </si>
   <si>
     <t xml:space="preserve">2.26592087745667</t>
   </si>
   <si>
-    <t xml:space="preserve">2.25661754608154</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.27921080589294</t>
+    <t xml:space="preserve">2.25661778450012</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.27921056747437</t>
   </si>
   <si>
     <t xml:space="preserve">2.29250049591064</t>
@@ -887,55 +887,55 @@
     <t xml:space="preserve">2.39084553718567</t>
   </si>
   <si>
-    <t xml:space="preserve">2.3762264251709</t>
+    <t xml:space="preserve">2.37622666358948</t>
   </si>
   <si>
     <t xml:space="preserve">2.35629177093506</t>
   </si>
   <si>
-    <t xml:space="preserve">2.33901476860046</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.34034395217896</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.32572555541992</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.35097599029541</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.30977725982666</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.35496258735657</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.43470191955566</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.39881944656372</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.42141222953796</t>
+    <t xml:space="preserve">2.33901500701904</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.34034419059753</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.32572531700134</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.35097575187683</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.30977749824524</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.35496282577515</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.43470215797424</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.3988196849823</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.42141199111938</t>
   </si>
   <si>
     <t xml:space="preserve">2.34698891639709</t>
   </si>
   <si>
-    <t xml:space="preserve">2.34831762313843</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.33502769470215</t>
+    <t xml:space="preserve">2.34831786155701</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.33502817153931</t>
   </si>
   <si>
     <t xml:space="preserve">2.32971215248108</t>
   </si>
   <si>
-    <t xml:space="preserve">2.39483261108398</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.37223935127258</t>
+    <t xml:space="preserve">2.39483237266541</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.37223982810974</t>
   </si>
   <si>
     <t xml:space="preserve">2.39749050140381</t>
@@ -944,7 +944,7 @@
     <t xml:space="preserve">2.36825251579285</t>
   </si>
   <si>
-    <t xml:space="preserve">2.41742539405823</t>
+    <t xml:space="preserve">2.41742515563965</t>
   </si>
   <si>
     <t xml:space="preserve">2.43603086471558</t>
@@ -953,22 +953,22 @@
     <t xml:space="preserve">2.47191405296326</t>
   </si>
   <si>
-    <t xml:space="preserve">2.48254537582397</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.53437566757202</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.51311206817627</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.51178336143494</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.54367899894714</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.45197916030884</t>
+    <t xml:space="preserve">2.48254561424255</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.53437614440918</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.51311230659485</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.51178312301636</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.54367876052856</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.45197892189026</t>
   </si>
   <si>
     <t xml:space="preserve">2.45729470252991</t>
@@ -977,25 +977,25 @@
     <t xml:space="preserve">2.40546417236328</t>
   </si>
   <si>
-    <t xml:space="preserve">2.42938566207886</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.47324228286743</t>
+    <t xml:space="preserve">2.42938613891602</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.47324252128601</t>
   </si>
   <si>
     <t xml:space="preserve">2.45862364768982</t>
   </si>
   <si>
-    <t xml:space="preserve">2.4413468837738</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.42672824859619</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.44932103157043</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.37888431549072</t>
+    <t xml:space="preserve">2.44134712219238</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.42672777175903</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.44932079315186</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.3788845539093</t>
   </si>
   <si>
     <t xml:space="preserve">2.42872166633606</t>
@@ -1013,28 +1013,28 @@
     <t xml:space="preserve">2.38220715522766</t>
   </si>
   <si>
-    <t xml:space="preserve">2.19282650947571</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.09979796409607</t>
+    <t xml:space="preserve">2.19282627105713</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.09979748725891</t>
   </si>
   <si>
     <t xml:space="preserve">2.15960192680359</t>
   </si>
   <si>
-    <t xml:space="preserve">2.12969970703125</t>
+    <t xml:space="preserve">2.12969994544983</t>
   </si>
   <si>
     <t xml:space="preserve">2.09315276145935</t>
   </si>
   <si>
-    <t xml:space="preserve">2.14631175994873</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.13634467124939</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.17289161682129</t>
+    <t xml:space="preserve">2.14631199836731</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.13634443283081</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.17289209365845</t>
   </si>
   <si>
     <t xml:space="preserve">2.17953705787659</t>
@@ -1049,7 +1049,7 @@
     <t xml:space="preserve">2.08318519592285</t>
   </si>
   <si>
-    <t xml:space="preserve">2.07321763038635</t>
+    <t xml:space="preserve">2.07321786880493</t>
   </si>
   <si>
     <t xml:space="preserve">2.03334832191467</t>
@@ -1061,13 +1061,13 @@
     <t xml:space="preserve">2.07986307144165</t>
   </si>
   <si>
-    <t xml:space="preserve">2.10311961174011</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.14298963546753</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.09647536277771</t>
+    <t xml:space="preserve">2.10312008857727</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.14298939704895</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.09647512435913</t>
   </si>
   <si>
     <t xml:space="preserve">2.12637710571289</t>
@@ -1079,28 +1079,28 @@
     <t xml:space="preserve">2.18285918235779</t>
   </si>
   <si>
-    <t xml:space="preserve">2.16292476654053</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.11641001701355</t>
+    <t xml:space="preserve">2.16292452812195</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.11640977859497</t>
   </si>
   <si>
     <t xml:space="preserve">2.11973237991333</t>
   </si>
   <si>
-    <t xml:space="preserve">2.15627932548523</t>
+    <t xml:space="preserve">2.15627956390381</t>
   </si>
   <si>
     <t xml:space="preserve">2.16624665260315</t>
   </si>
   <si>
-    <t xml:space="preserve">2.19947147369385</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.17621445655823</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.18618130683899</t>
+    <t xml:space="preserve">2.19947123527527</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.17621421813965</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.18618178367615</t>
   </si>
   <si>
     <t xml:space="preserve">2.20943880081177</t>
@@ -1109,7 +1109,7 @@
     <t xml:space="preserve">2.21276140213013</t>
   </si>
   <si>
-    <t xml:space="preserve">2.25927591323853</t>
+    <t xml:space="preserve">2.2592761516571</t>
   </si>
   <si>
     <t xml:space="preserve">2.34566020965576</t>
@@ -1124,40 +1124,40 @@
     <t xml:space="preserve">2.44279026985168</t>
   </si>
   <si>
-    <t xml:space="preserve">2.39837598800659</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.36876630783081</t>
+    <t xml:space="preserve">2.39837622642517</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.36876654624939</t>
   </si>
   <si>
     <t xml:space="preserve">2.4131805896759</t>
   </si>
   <si>
-    <t xml:space="preserve">2.3539617061615</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.31694984436035</t>
+    <t xml:space="preserve">2.35396146774292</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.31694960594177</t>
   </si>
   <si>
     <t xml:space="preserve">2.30584597587585</t>
   </si>
   <si>
-    <t xml:space="preserve">2.29844355583191</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.29104137420654</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.27993774414062</t>
+    <t xml:space="preserve">2.29844379425049</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.29104113578796</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.27993750572205</t>
   </si>
   <si>
     <t xml:space="preserve">2.26143145561218</t>
   </si>
   <si>
-    <t xml:space="preserve">2.22441983222961</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.12818884849548</t>
+    <t xml:space="preserve">2.22442007064819</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.12818837165833</t>
   </si>
   <si>
     <t xml:space="preserve">2.18370652198792</t>
@@ -1169,7 +1169,7 @@
     <t xml:space="preserve">2.22071838378906</t>
   </si>
   <si>
-    <t xml:space="preserve">2.20591354370117</t>
+    <t xml:space="preserve">2.20591378211975</t>
   </si>
   <si>
     <t xml:space="preserve">2.18000507354736</t>
@@ -1184,7 +1184,7 @@
     <t xml:space="preserve">2.20221257209778</t>
   </si>
   <si>
-    <t xml:space="preserve">2.2133162021637</t>
+    <t xml:space="preserve">2.21331596374512</t>
   </si>
   <si>
     <t xml:space="preserve">2.21701693534851</t>
@@ -1193,31 +1193,31 @@
     <t xml:space="preserve">2.16149950027466</t>
   </si>
   <si>
-    <t xml:space="preserve">2.26883435249329</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.24662709236145</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.18740749359131</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.1689019203186</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.15779805183411</t>
+    <t xml:space="preserve">2.26883411407471</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.24662685394287</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.18740773200989</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.16890168190002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.15779781341553</t>
   </si>
   <si>
     <t xml:space="preserve">2.13929224014282</t>
   </si>
   <si>
-    <t xml:space="preserve">2.13559079170227</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.12078619003296</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.12448740005493</t>
+    <t xml:space="preserve">2.13559103012085</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.12078595161438</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.12448716163635</t>
   </si>
   <si>
     <t xml:space="preserve">2.14669466018677</t>
@@ -1235,13 +1235,13 @@
     <t xml:space="preserve">2.33175444602966</t>
   </si>
   <si>
-    <t xml:space="preserve">2.3724672794342</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.62044739723206</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.4835033416748</t>
+    <t xml:space="preserve">2.37246775627136</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.62044787406921</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.48350358009338</t>
   </si>
   <si>
     <t xml:space="preserve">2.47980213165283</t>
@@ -1250,13 +1250,13 @@
     <t xml:space="preserve">2.41688203811646</t>
   </si>
   <si>
-    <t xml:space="preserve">2.42058300971985</t>
+    <t xml:space="preserve">2.42058324813843</t>
   </si>
   <si>
     <t xml:space="preserve">2.40577840805054</t>
   </si>
   <si>
-    <t xml:space="preserve">2.36506533622742</t>
+    <t xml:space="preserve">2.36506485939026</t>
   </si>
   <si>
     <t xml:space="preserve">2.32065081596375</t>
@@ -1265,16 +1265,16 @@
     <t xml:space="preserve">2.29474234580994</t>
   </si>
   <si>
-    <t xml:space="preserve">2.23922419548035</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.30954718589783</t>
+    <t xml:space="preserve">2.23922443389893</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.30954694747925</t>
   </si>
   <si>
     <t xml:space="preserve">2.27623653411865</t>
   </si>
   <si>
-    <t xml:space="preserve">2.28363871574402</t>
+    <t xml:space="preserve">2.2836389541626</t>
   </si>
   <si>
     <t xml:space="preserve">2.30214476585388</t>
@@ -1289,67 +1289,67 @@
     <t xml:space="preserve">2.33915686607361</t>
   </si>
   <si>
-    <t xml:space="preserve">2.33545565605164</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.34655904769897</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.2429256439209</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.17630410194397</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.19110894203186</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.23552346229553</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.08747529983521</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.15039587020874</t>
+    <t xml:space="preserve">2.33545517921448</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.34655952453613</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.24292540550232</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.17630434036255</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.19110870361328</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.23552322387695</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.08747553825378</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.15039563179016</t>
   </si>
   <si>
     <t xml:space="preserve">2.15409684181213</t>
   </si>
   <si>
-    <t xml:space="preserve">2.25402903556824</t>
+    <t xml:space="preserve">2.2540295124054</t>
   </si>
   <si>
     <t xml:space="preserve">2.2725350856781</t>
   </si>
   <si>
-    <t xml:space="preserve">2.25032782554626</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.22812056541443</t>
+    <t xml:space="preserve">2.25032830238342</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.22812080383301</t>
   </si>
   <si>
     <t xml:space="preserve">2.40207695960999</t>
   </si>
   <si>
-    <t xml:space="preserve">2.43168687820435</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.38357138633728</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.35766291618347</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.37616872787476</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.37986993789673</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.42428421974182</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.42798566818237</t>
+    <t xml:space="preserve">2.43168663978577</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.38357090950012</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.35766267776489</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.37616896629333</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.37986969947815</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.4242844581604</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.42798542976379</t>
   </si>
   <si>
     <t xml:space="preserve">2.44649147987366</t>
@@ -1358,49 +1358,49 @@
     <t xml:space="preserve">2.45019268989563</t>
   </si>
   <si>
-    <t xml:space="preserve">2.50200963020325</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.49460697174072</t>
+    <t xml:space="preserve">2.50200939178467</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.4946072101593</t>
   </si>
   <si>
     <t xml:space="preserve">2.49090600013733</t>
   </si>
   <si>
-    <t xml:space="preserve">2.51311302185059</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.4983081817627</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.50571060180664</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.56122875213623</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.53161931037903</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.5686309337616</t>
+    <t xml:space="preserve">2.51311326026917</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.49830842018127</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.50571036338806</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.56122851371765</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.53161883354187</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.56863117218018</t>
   </si>
   <si>
     <t xml:space="preserve">2.5279176235199</t>
   </si>
   <si>
-    <t xml:space="preserve">2.53902173042297</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.52051544189453</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.52421689033508</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.54272246360779</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.55382633209229</t>
+    <t xml:space="preserve">2.53902149200439</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.52051568031311</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.5242166519165</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.54272294044495</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.55382609367371</t>
   </si>
   <si>
     <t xml:space="preserve">2.57603335380554</t>
@@ -1412,7 +1412,7 @@
     <t xml:space="preserve">2.59083819389343</t>
   </si>
   <si>
-    <t xml:space="preserve">2.57973456382751</t>
+    <t xml:space="preserve">2.57973432540894</t>
   </si>
   <si>
     <t xml:space="preserve">2.62785005569458</t>
@@ -1421,49 +1421,49 @@
     <t xml:space="preserve">2.64635634422302</t>
   </si>
   <si>
-    <t xml:space="preserve">2.64265465736389</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.63895416259766</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.65745949745178</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.67226457595825</t>
+    <t xml:space="preserve">2.64265489578247</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.63895392417908</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.65745973587036</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.67226433753967</t>
   </si>
   <si>
     <t xml:space="preserve">2.71297764778137</t>
   </si>
   <si>
-    <t xml:space="preserve">2.72778272628784</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.70187425613403</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.69077038764954</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.74258708953857</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.75739192962646</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.82401371002197</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.8203125</t>
+    <t xml:space="preserve">2.72778224945068</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.70187401771545</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.69077062606812</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.74258732795715</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.75739216804504</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.82401347160339</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.82031202316284</t>
   </si>
   <si>
     <t xml:space="preserve">2.84992170333862</t>
   </si>
   <si>
-    <t xml:space="preserve">2.83881831169128</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.02654075622559</t>
+    <t xml:space="preserve">2.83881855010986</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.02654099464417</t>
   </si>
   <si>
     <t xml:space="preserve">2.74035239219666</t>
@@ -1472,46 +1472,46 @@
     <t xml:space="preserve">2.73643207550049</t>
   </si>
   <si>
-    <t xml:space="preserve">2.68938732147217</t>
+    <t xml:space="preserve">2.68938755989075</t>
   </si>
   <si>
     <t xml:space="preserve">2.70898914337158</t>
   </si>
   <si>
-    <t xml:space="preserve">2.68154668807983</t>
+    <t xml:space="preserve">2.68154644966125</t>
   </si>
   <si>
     <t xml:space="preserve">2.75603413581848</t>
   </si>
   <si>
-    <t xml:space="preserve">2.84228277206421</t>
+    <t xml:space="preserve">2.84228253364563</t>
   </si>
   <si>
     <t xml:space="preserve">2.79915833473206</t>
   </si>
   <si>
-    <t xml:space="preserve">2.82268071174622</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.78347659111023</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.77563571929932</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.76779508590698</t>
+    <t xml:space="preserve">2.82268047332764</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.78347682952881</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.7756359577179</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.76779532432556</t>
   </si>
   <si>
     <t xml:space="preserve">2.79131746292114</t>
   </si>
   <si>
-    <t xml:space="preserve">2.78739738464355</t>
+    <t xml:space="preserve">2.78739714622498</t>
   </si>
   <si>
     <t xml:space="preserve">2.84620332717896</t>
   </si>
   <si>
-    <t xml:space="preserve">2.85796451568604</t>
+    <t xml:space="preserve">2.85796403884888</t>
   </si>
   <si>
     <t xml:space="preserve">2.82660102844238</t>
@@ -1529,34 +1529,34 @@
     <t xml:space="preserve">2.8736457824707</t>
   </si>
   <si>
-    <t xml:space="preserve">2.99517750740051</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.92461085319519</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.95597386360168</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.97165536880493</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.94813299179077</t>
+    <t xml:space="preserve">2.99517774581909</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.92461061477661</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.95597410202026</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.97165560722351</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.94813323020935</t>
   </si>
   <si>
     <t xml:space="preserve">2.94029259681702</t>
   </si>
   <si>
-    <t xml:space="preserve">2.9638147354126</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.95989465713501</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.00693917274475</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.1049485206604</t>
+    <t xml:space="preserve">2.96381449699402</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.95989418029785</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.00693893432617</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.10494875907898</t>
   </si>
   <si>
     <t xml:space="preserve">3.06966519355774</t>
@@ -1565,7 +1565,7 @@
     <t xml:space="preserve">3.03830218315125</t>
   </si>
   <si>
-    <t xml:space="preserve">3.07750606536865</t>
+    <t xml:space="preserve">3.07750582695007</t>
   </si>
   <si>
     <t xml:space="preserve">3.13631200790405</t>
@@ -1583,16 +1583,16 @@
     <t xml:space="preserve">3.25000309944153</t>
   </si>
   <si>
-    <t xml:space="preserve">3.25392365455627</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.26960492134094</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.30096817016602</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.33233165740967</t>
+    <t xml:space="preserve">3.25392389297485</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.26960515975952</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.30096840858459</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.33233141899109</t>
   </si>
   <si>
     <t xml:space="preserve">3.3127293586731</t>
@@ -1601,28 +1601,28 @@
     <t xml:space="preserve">3.27744603157043</t>
   </si>
   <si>
-    <t xml:space="preserve">3.20687890052795</t>
+    <t xml:space="preserve">3.20687913894653</t>
   </si>
   <si>
     <t xml:space="preserve">3.22648072242737</t>
   </si>
   <si>
-    <t xml:space="preserve">3.25784420967102</t>
+    <t xml:space="preserve">3.25784397125244</t>
   </si>
   <si>
     <t xml:space="preserve">3.24216270446777</t>
   </si>
   <si>
-    <t xml:space="preserve">3.19119715690613</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.14023208618164</t>
+    <t xml:space="preserve">3.19119763374329</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.14023232460022</t>
   </si>
   <si>
     <t xml:space="preserve">3.12847113609314</t>
   </si>
   <si>
-    <t xml:space="preserve">3.11670970916748</t>
+    <t xml:space="preserve">3.11670994758606</t>
   </si>
   <si>
     <t xml:space="preserve">3.05006337165833</t>
@@ -1631,16 +1631,16 @@
     <t xml:space="preserve">3.05398368835449</t>
   </si>
   <si>
-    <t xml:space="preserve">3.21864008903503</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.21471953392029</t>
+    <t xml:space="preserve">3.21864032745361</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.21472001075745</t>
   </si>
   <si>
     <t xml:space="preserve">3.1637544631958</t>
   </si>
   <si>
-    <t xml:space="preserve">3.14807295799255</t>
+    <t xml:space="preserve">3.14807271957397</t>
   </si>
   <si>
     <t xml:space="preserve">3.04222249984741</t>
@@ -1649,16 +1649,16 @@
     <t xml:space="preserve">3.12063026428223</t>
   </si>
   <si>
-    <t xml:space="preserve">3.12455058097839</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.08534693717957</t>
+    <t xml:space="preserve">3.12455081939697</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.08534669876099</t>
   </si>
   <si>
     <t xml:space="preserve">3.08926725387573</t>
   </si>
   <si>
-    <t xml:space="preserve">3.11278963088989</t>
+    <t xml:space="preserve">3.11278939247131</t>
   </si>
   <si>
     <t xml:space="preserve">3.10102844238281</t>
@@ -1670,37 +1670,37 @@
     <t xml:space="preserve">2.88148665428162</t>
   </si>
   <si>
-    <t xml:space="preserve">2.93637204170227</t>
+    <t xml:space="preserve">2.93637228012085</t>
   </si>
   <si>
     <t xml:space="preserve">2.97557616233826</t>
   </si>
   <si>
-    <t xml:space="preserve">2.98733711242676</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.97949600219727</t>
+    <t xml:space="preserve">2.98733687400818</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.97949624061584</t>
   </si>
   <si>
     <t xml:space="preserve">2.99909830093384</t>
   </si>
   <si>
-    <t xml:space="preserve">3.00301837921143</t>
+    <t xml:space="preserve">3.00301861763</t>
   </si>
   <si>
     <t xml:space="preserve">3.05790400505066</t>
   </si>
   <si>
-    <t xml:space="preserve">3.03438186645508</t>
+    <t xml:space="preserve">3.0343816280365</t>
   </si>
   <si>
     <t xml:space="preserve">3.06574511528015</t>
   </si>
   <si>
-    <t xml:space="preserve">3.04614281654358</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.03046131134033</t>
+    <t xml:space="preserve">3.04614305496216</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.03046154975891</t>
   </si>
   <si>
     <t xml:space="preserve">2.93245148658752</t>
@@ -1709,37 +1709,37 @@
     <t xml:space="preserve">2.91284966468811</t>
   </si>
   <si>
-    <t xml:space="preserve">2.90108847618103</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.9442126750946</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.8932478427887</t>
+    <t xml:space="preserve">2.90108871459961</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.94421291351318</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.89324760437012</t>
   </si>
   <si>
     <t xml:space="preserve">3.01870012283325</t>
   </si>
   <si>
-    <t xml:space="preserve">3.15199327468872</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.17551565170288</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.09710788726807</t>
+    <t xml:space="preserve">3.15199375152588</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.17551589012146</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.09710812568665</t>
   </si>
   <si>
     <t xml:space="preserve">3.10886907577515</t>
   </si>
   <si>
-    <t xml:space="preserve">3.022620677948</t>
+    <t xml:space="preserve">3.02262043952942</t>
   </si>
   <si>
     <t xml:space="preserve">3.01085948944092</t>
   </si>
   <si>
-    <t xml:space="preserve">2.91677021980286</t>
+    <t xml:space="preserve">2.91676998138428</t>
   </si>
   <si>
     <t xml:space="preserve">2.95205354690552</t>
@@ -1748,31 +1748,31 @@
     <t xml:space="preserve">2.9912576675415</t>
   </si>
   <si>
-    <t xml:space="preserve">3.13239145278931</t>
+    <t xml:space="preserve">3.13239121437073</t>
   </si>
   <si>
     <t xml:space="preserve">3.46562457084656</t>
   </si>
   <si>
-    <t xml:space="preserve">3.54795289039612</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.48522686958313</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.58323669433594</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.52443027496338</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.58715653419495</t>
+    <t xml:space="preserve">3.5479531288147</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.48522663116455</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.58323645591736</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.52443051338196</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.5871570110321</t>
   </si>
   <si>
     <t xml:space="preserve">3.61459970474243</t>
   </si>
   <si>
-    <t xml:space="preserve">3.5165901184082</t>
+    <t xml:space="preserve">3.51658987998962</t>
   </si>
   <si>
     <t xml:space="preserve">3.4225001335144</t>
@@ -1781,13 +1781,13 @@
     <t xml:space="preserve">3.39505767822266</t>
   </si>
   <si>
-    <t xml:space="preserve">3.37937617301941</t>
+    <t xml:space="preserve">3.37937593460083</t>
   </si>
   <si>
     <t xml:space="preserve">3.43818187713623</t>
   </si>
   <si>
-    <t xml:space="preserve">3.48130655288696</t>
+    <t xml:space="preserve">3.48130631446838</t>
   </si>
   <si>
     <t xml:space="preserve">3.45386362075806</t>
@@ -1799,10 +1799,10 @@
     <t xml:space="preserve">3.26176428794861</t>
   </si>
   <si>
-    <t xml:space="preserve">3.21079921722412</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.08142638206482</t>
+    <t xml:space="preserve">3.21079897880554</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.0814266204834</t>
   </si>
   <si>
     <t xml:space="preserve">3.26568460464478</t>
@@ -1811,7 +1811,7 @@
     <t xml:space="preserve">3.23432159423828</t>
   </si>
   <si>
-    <t xml:space="preserve">3.19511771202087</t>
+    <t xml:space="preserve">3.19511747360229</t>
   </si>
   <si>
     <t xml:space="preserve">2.69722843170166</t>
@@ -1823,16 +1823,16 @@
     <t xml:space="preserve">2.36399531364441</t>
   </si>
   <si>
-    <t xml:space="preserve">2.45024394989014</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.49336814880371</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.50512909889221</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.55217409133911</t>
+    <t xml:space="preserve">2.45024371147156</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.49336791038513</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.50512933731079</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.55217385292053</t>
   </si>
   <si>
     <t xml:space="preserve">2.61882042884827</t>
@@ -1844,7 +1844,7 @@
     <t xml:space="preserve">2.63450193405151</t>
   </si>
   <si>
-    <t xml:space="preserve">2.58353686332703</t>
+    <t xml:space="preserve">2.58353710174561</t>
   </si>
   <si>
     <t xml:space="preserve">2.5443332195282</t>
@@ -1853,19 +1853,19 @@
     <t xml:space="preserve">2.51689028739929</t>
   </si>
   <si>
-    <t xml:space="preserve">2.63842248916626</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.49728846549988</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.50904965400696</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.46984553337097</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.51296973228455</t>
+    <t xml:space="preserve">2.63842225074768</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.4972882270813</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.50904989242554</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.46984601020813</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.51296997070312</t>
   </si>
   <si>
     <t xml:space="preserve">2.53257179260254</t>
@@ -1874,10 +1874,10 @@
     <t xml:space="preserve">2.54041266441345</t>
   </si>
   <si>
-    <t xml:space="preserve">2.52865147590637</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.54825329780579</t>
+    <t xml:space="preserve">2.52865123748779</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.54825353622437</t>
   </si>
   <si>
     <t xml:space="preserve">2.52473115921021</t>
@@ -1886,7 +1886,7 @@
     <t xml:space="preserve">2.57177567481995</t>
   </si>
   <si>
-    <t xml:space="preserve">2.58745741844177</t>
+    <t xml:space="preserve">2.58745718002319</t>
   </si>
   <si>
     <t xml:space="preserve">2.64234256744385</t>
@@ -1895,31 +1895,31 @@
     <t xml:space="preserve">2.61097955703735</t>
   </si>
   <si>
-    <t xml:space="preserve">2.65018367767334</t>
+    <t xml:space="preserve">2.65018391609192</t>
   </si>
   <si>
     <t xml:space="preserve">2.62274098396301</t>
   </si>
   <si>
-    <t xml:space="preserve">2.62666130065918</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.72075057029724</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.92069029808044</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.30880904197693</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.44994354248047</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.43426156044006</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.50703954696655</t>
+    <t xml:space="preserve">2.62666082382202</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.72075080871582</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.92069053649902</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.30880880355835</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.44994306564331</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.43426179885864</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.50703978538513</t>
   </si>
   <si>
     <t xml:space="preserve">3.32983303070068</t>
@@ -1928,10 +1928,10 @@
     <t xml:space="preserve">3.25565385818481</t>
   </si>
   <si>
-    <t xml:space="preserve">3.14438486099243</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.14026355743408</t>
+    <t xml:space="preserve">3.14438462257385</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.1402633190155</t>
   </si>
   <si>
     <t xml:space="preserve">3.21444296836853</t>
@@ -1946,7 +1946,7 @@
     <t xml:space="preserve">3.22680616378784</t>
   </si>
   <si>
-    <t xml:space="preserve">3.27213835716248</t>
+    <t xml:space="preserve">3.2721381187439</t>
   </si>
   <si>
     <t xml:space="preserve">3.2185640335083</t>
@@ -1955,28 +1955,28 @@
     <t xml:space="preserve">3.11141610145569</t>
   </si>
   <si>
-    <t xml:space="preserve">3.06196308135986</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.08256816864014</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.09081053733826</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.11965823173523</t>
+    <t xml:space="preserve">3.06196284294128</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.08256840705872</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.09081077575684</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.11965847015381</t>
   </si>
   <si>
     <t xml:space="preserve">3.08668947219849</t>
   </si>
   <si>
-    <t xml:space="preserve">3.05784201622009</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.04135775566101</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.00014662742615</t>
+    <t xml:space="preserve">3.05784225463867</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.04135751724243</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.00014686584473</t>
   </si>
   <si>
     <t xml:space="preserve">2.94245147705078</t>
@@ -1988,43 +1988,43 @@
     <t xml:space="preserve">2.93008852005005</t>
   </si>
   <si>
-    <t xml:space="preserve">2.91772484779358</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.9012405872345</t>
+    <t xml:space="preserve">2.91772508621216</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.90124106407166</t>
   </si>
   <si>
     <t xml:space="preserve">2.90536212921143</t>
   </si>
   <si>
-    <t xml:space="preserve">2.86827230453491</t>
+    <t xml:space="preserve">2.86827254295349</t>
   </si>
   <si>
     <t xml:space="preserve">2.78997159004211</t>
   </si>
   <si>
-    <t xml:space="preserve">2.92184638977051</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.87651443481445</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.89299845695496</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.80233502388</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.76112413406372</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.74463963508606</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.75288200378418</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.71167087554932</t>
+    <t xml:space="preserve">2.92184615135193</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.87651419639587</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.89299869537354</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.80233526229858</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.76112389564514</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.74463987350464</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.7528817653656</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.7116711139679</t>
   </si>
   <si>
     <t xml:space="preserve">2.73227667808533</t>
@@ -2042,16 +2042,16 @@
     <t xml:space="preserve">2.81469798088074</t>
   </si>
   <si>
-    <t xml:space="preserve">2.81057715415955</t>
+    <t xml:space="preserve">2.81057691574097</t>
   </si>
   <si>
     <t xml:space="preserve">2.76524519920349</t>
   </si>
   <si>
-    <t xml:space="preserve">2.79409265518188</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.78172945976257</t>
+    <t xml:space="preserve">2.79409289360046</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.78172969818115</t>
   </si>
   <si>
     <t xml:space="preserve">2.78585076332092</t>
@@ -2060,13 +2060,13 @@
     <t xml:space="preserve">2.70342898368835</t>
   </si>
   <si>
-    <t xml:space="preserve">2.7075502872467</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.75700330734253</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.77348756790161</t>
+    <t xml:space="preserve">2.70755004882812</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.75700306892395</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.77348732948303</t>
   </si>
   <si>
     <t xml:space="preserve">2.74876093864441</t>
@@ -2078,55 +2078,55 @@
     <t xml:space="preserve">2.72403454780579</t>
   </si>
   <si>
-    <t xml:space="preserve">2.7776083946228</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.88475656509399</t>
+    <t xml:space="preserve">2.77760815620422</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.88475632667542</t>
   </si>
   <si>
     <t xml:space="preserve">2.64573383331299</t>
   </si>
   <si>
-    <t xml:space="preserve">2.64985513687134</t>
+    <t xml:space="preserve">2.64985489845276</t>
   </si>
   <si>
     <t xml:space="preserve">2.66221809387207</t>
   </si>
   <si>
-    <t xml:space="preserve">2.60864400863647</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.63337063789368</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.62100744247437</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.62512850761414</t>
+    <t xml:space="preserve">2.60864424705505</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.6333703994751</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.62100720405579</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.62512826919556</t>
   </si>
   <si>
     <t xml:space="preserve">2.59215974807739</t>
   </si>
   <si>
-    <t xml:space="preserve">2.60452318191528</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.62924957275391</t>
+    <t xml:space="preserve">2.60452342033386</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.62924933433533</t>
   </si>
   <si>
     <t xml:space="preserve">2.64161276817322</t>
   </si>
   <si>
-    <t xml:space="preserve">2.61276507377625</t>
+    <t xml:space="preserve">2.61276531219482</t>
   </si>
   <si>
     <t xml:space="preserve">2.58391761779785</t>
   </si>
   <si>
-    <t xml:space="preserve">2.59628081321716</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.51798057556152</t>
+    <t xml:space="preserve">2.59628105163574</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.51798033714294</t>
   </si>
   <si>
     <t xml:space="preserve">2.49737477302551</t>
@@ -2135,16 +2135,16 @@
     <t xml:space="preserve">2.57155442237854</t>
   </si>
   <si>
-    <t xml:space="preserve">2.51385903358459</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.48913264274597</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.50561690330505</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.4685275554657</t>
+    <t xml:space="preserve">2.51385927200317</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.48913288116455</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.50561714172363</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.46852707862854</t>
   </si>
   <si>
     <t xml:space="preserve">2.5097382068634</t>
@@ -2156,10 +2156,10 @@
     <t xml:space="preserve">2.42319560050964</t>
   </si>
   <si>
-    <t xml:space="preserve">2.45204329490662</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.44792222976685</t>
+    <t xml:space="preserve">2.45204305648804</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.44792199134827</t>
   </si>
   <si>
     <t xml:space="preserve">2.47676968574524</t>
@@ -2174,10 +2174,10 @@
     <t xml:space="preserve">2.86415123939514</t>
   </si>
   <si>
-    <t xml:space="preserve">2.88887786865234</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.89711976051331</t>
+    <t xml:space="preserve">2.88887739181519</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.89711999893188</t>
   </si>
   <si>
     <t xml:space="preserve">2.84766674041748</t>
@@ -2186,7 +2186,7 @@
     <t xml:space="preserve">2.84354567527771</t>
   </si>
   <si>
-    <t xml:space="preserve">2.81881928443909</t>
+    <t xml:space="preserve">2.81881904602051</t>
   </si>
   <si>
     <t xml:space="preserve">2.83530378341675</t>
@@ -2201,25 +2201,25 @@
     <t xml:space="preserve">3.01663112640381</t>
   </si>
   <si>
-    <t xml:space="preserve">2.99602556228638</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.02487325668335</t>
+    <t xml:space="preserve">2.99602580070496</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.02487349510193</t>
   </si>
   <si>
     <t xml:space="preserve">3.00838899612427</t>
   </si>
   <si>
-    <t xml:space="preserve">3.05372095108032</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.06608414649963</t>
+    <t xml:space="preserve">3.05372071266174</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.06608390808105</t>
   </si>
   <si>
     <t xml:space="preserve">3.16498994827271</t>
   </si>
   <si>
-    <t xml:space="preserve">3.10317373275757</t>
+    <t xml:space="preserve">3.10317397117615</t>
   </si>
   <si>
     <t xml:space="preserve">3.10729479789734</t>
@@ -2231,46 +2231,46 @@
     <t xml:space="preserve">2.96717810630798</t>
   </si>
   <si>
-    <t xml:space="preserve">2.98366212844849</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.95481514930725</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.98778367042542</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.02075219154358</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.07844734191895</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.0454785823822</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.04959964752197</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.03723669052124</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.09905242919922</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.09493160247803</t>
+    <t xml:space="preserve">2.98366236686707</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.95481467247009</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.98778343200684</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.020751953125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.07844710350037</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.04547882080078</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.04959988594055</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.03723645210266</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.0990526676178</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.09493184089661</t>
   </si>
   <si>
     <t xml:space="preserve">3.01251006126404</t>
   </si>
   <si>
-    <t xml:space="preserve">2.96305727958679</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.0042679309845</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.0702052116394</t>
+    <t xml:space="preserve">2.96305704116821</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.00426769256592</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.07020497322083</t>
   </si>
   <si>
     <t xml:space="preserve">3.14850544929504</t>
@@ -2282,7 +2282,7 @@
     <t xml:space="preserve">3.16911125183105</t>
   </si>
   <si>
-    <t xml:space="preserve">3.18559527397156</t>
+    <t xml:space="preserve">3.18559551239014</t>
   </si>
   <si>
     <t xml:space="preserve">3.15262675285339</t>
@@ -2300,7 +2300,7 @@
     <t xml:space="preserve">3.22268533706665</t>
   </si>
   <si>
-    <t xml:space="preserve">3.19795846939087</t>
+    <t xml:space="preserve">3.19795870780945</t>
   </si>
   <si>
     <t xml:space="preserve">3.17323207855225</t>
@@ -2330,25 +2330,25 @@
     <t xml:space="preserve">3.35868072509766</t>
   </si>
   <si>
-    <t xml:space="preserve">3.34631752967834</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.30510663986206</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.34219646453857</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.36364817619324</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.25209856033325</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.20919489860535</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.22635626792908</t>
+    <t xml:space="preserve">3.34631776809692</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.30510687828064</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.34219622612</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.36364841461182</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.25209879875183</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.20919513702393</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.22635650634766</t>
   </si>
   <si>
     <t xml:space="preserve">3.27784061431885</t>
@@ -2369,22 +2369,22 @@
     <t xml:space="preserve">3.15771055221558</t>
   </si>
   <si>
-    <t xml:space="preserve">3.17487192153931</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.17916250228882</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.16200113296509</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.14912986755371</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.18345284461975</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.17058157920837</t>
+    <t xml:space="preserve">3.17487215995789</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.17916226387024</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.16200089454651</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.14913010597229</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.18345308303833</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.17058181762695</t>
   </si>
   <si>
     <t xml:space="preserve">3.20061421394348</t>
@@ -2396,10 +2396,10 @@
     <t xml:space="preserve">3.23064684867859</t>
   </si>
   <si>
-    <t xml:space="preserve">3.22206616401672</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.12767815589905</t>
+    <t xml:space="preserve">3.2220664024353</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.12767791748047</t>
   </si>
   <si>
     <t xml:space="preserve">3.13625884056091</t>
@@ -2408,16 +2408,16 @@
     <t xml:space="preserve">3.10622596740723</t>
   </si>
   <si>
-    <t xml:space="preserve">3.07619380950928</t>
+    <t xml:space="preserve">3.0761935710907</t>
   </si>
   <si>
     <t xml:space="preserve">3.0890645980835</t>
   </si>
   <si>
-    <t xml:space="preserve">3.04187083244324</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.03758001327515</t>
+    <t xml:space="preserve">3.04187059402466</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.03758025169373</t>
   </si>
   <si>
     <t xml:space="preserve">3.0504515171051</t>
@@ -2432,10 +2432,10 @@
     <t xml:space="preserve">2.98180556297302</t>
   </si>
   <si>
-    <t xml:space="preserve">3.00754809379578</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.05903244018555</t>
+    <t xml:space="preserve">3.00754761695862</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.05903220176697</t>
   </si>
   <si>
     <t xml:space="preserve">3.08048391342163</t>
@@ -2450,25 +2450,25 @@
     <t xml:space="preserve">2.90886926651001</t>
   </si>
   <si>
-    <t xml:space="preserve">2.92174053192139</t>
+    <t xml:space="preserve">2.92174029350281</t>
   </si>
   <si>
     <t xml:space="preserve">2.93890190124512</t>
   </si>
   <si>
-    <t xml:space="preserve">3.00325751304626</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.03329014778137</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.02041864395142</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.01612854003906</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.01183795928955</t>
+    <t xml:space="preserve">3.00325727462769</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.03328990936279</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.02041888237</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.01612877845764</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.01183819770813</t>
   </si>
   <si>
     <t xml:space="preserve">3.06761288642883</t>
@@ -2480,7 +2480,7 @@
     <t xml:space="preserve">3.13196849822998</t>
   </si>
   <si>
-    <t xml:space="preserve">3.16629147529602</t>
+    <t xml:space="preserve">3.16629123687744</t>
   </si>
   <si>
     <t xml:space="preserve">3.11480712890625</t>
@@ -2489,16 +2489,16 @@
     <t xml:space="preserve">3.09335517883301</t>
   </si>
   <si>
-    <t xml:space="preserve">3.06332230567932</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.11051678657532</t>
+    <t xml:space="preserve">3.0633225440979</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.11051654815674</t>
   </si>
   <si>
     <t xml:space="preserve">3.08477449417114</t>
   </si>
   <si>
-    <t xml:space="preserve">3.07190299034119</t>
+    <t xml:space="preserve">3.07190322875977</t>
   </si>
   <si>
     <t xml:space="preserve">3.02470946311951</t>
@@ -2519,16 +2519,16 @@
     <t xml:space="preserve">2.99467658996582</t>
   </si>
   <si>
-    <t xml:space="preserve">2.98609590530396</t>
+    <t xml:space="preserve">2.98609614372253</t>
   </si>
   <si>
     <t xml:space="preserve">3.10193586349487</t>
   </si>
   <si>
-    <t xml:space="preserve">3.05474162101746</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.96893453598022</t>
+    <t xml:space="preserve">3.05474185943604</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.96893429756165</t>
   </si>
   <si>
     <t xml:space="preserve">2.91745018959045</t>
@@ -2552,19 +2552,19 @@
     <t xml:space="preserve">2.97322487831116</t>
   </si>
   <si>
-    <t xml:space="preserve">2.93461155891418</t>
+    <t xml:space="preserve">2.93461132049561</t>
   </si>
   <si>
     <t xml:space="preserve">2.79731965065002</t>
   </si>
   <si>
-    <t xml:space="preserve">2.91315960884094</t>
+    <t xml:space="preserve">2.91315984725952</t>
   </si>
   <si>
     <t xml:space="preserve">2.8917076587677</t>
   </si>
   <si>
-    <t xml:space="preserve">2.82306170463562</t>
+    <t xml:space="preserve">2.8230619430542</t>
   </si>
   <si>
     <t xml:space="preserve">2.77157735824585</t>
@@ -2585,10 +2585,10 @@
     <t xml:space="preserve">2.89599823951721</t>
   </si>
   <si>
-    <t xml:space="preserve">2.85738468170166</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.87025618553162</t>
+    <t xml:space="preserve">2.85738492012024</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.87025594711304</t>
   </si>
   <si>
     <t xml:space="preserve">3.09737634658813</t>
@@ -2600,7 +2600,7 @@
     <t xml:space="preserve">3.1108820438385</t>
   </si>
   <si>
-    <t xml:space="preserve">3.07936835289001</t>
+    <t xml:space="preserve">3.07936811447144</t>
   </si>
   <si>
     <t xml:space="preserve">3.02984619140625</t>
@@ -2609,22 +2609,22 @@
     <t xml:space="preserve">2.98932814598083</t>
   </si>
   <si>
-    <t xml:space="preserve">2.96681809425354</t>
+    <t xml:space="preserve">2.96681833267212</t>
   </si>
   <si>
     <t xml:space="preserve">3.03434801101685</t>
   </si>
   <si>
-    <t xml:space="preserve">2.98482608795166</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.96231603622437</t>
+    <t xml:space="preserve">2.98482632637024</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.96231627464294</t>
   </si>
   <si>
     <t xml:space="preserve">2.93980622291565</t>
   </si>
   <si>
-    <t xml:space="preserve">2.9308021068573</t>
+    <t xml:space="preserve">2.93080234527588</t>
   </si>
   <si>
     <t xml:space="preserve">2.95781421661377</t>
@@ -2639,7 +2639,7 @@
     <t xml:space="preserve">3.01634001731873</t>
   </si>
   <si>
-    <t xml:space="preserve">2.99833202362061</t>
+    <t xml:space="preserve">2.99833226203918</t>
   </si>
   <si>
     <t xml:space="preserve">3.04335236549377</t>
@@ -2654,13 +2654,13 @@
     <t xml:space="preserve">2.82725620269775</t>
   </si>
   <si>
-    <t xml:space="preserve">2.78673839569092</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.88128018379211</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.82275438308716</t>
+    <t xml:space="preserve">2.78673815727234</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.88128042221069</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.82275414466858</t>
   </si>
   <si>
     <t xml:space="preserve">2.77323222160339</t>
@@ -2672,22 +2672,22 @@
     <t xml:space="preserve">2.66968607902527</t>
   </si>
   <si>
-    <t xml:space="preserve">2.6561803817749</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.70120024681091</t>
+    <t xml:space="preserve">2.65618014335632</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.70120000839233</t>
   </si>
   <si>
     <t xml:space="preserve">2.71920824050903</t>
   </si>
   <si>
-    <t xml:space="preserve">2.59765410423279</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.62916827201843</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.63367009162903</t>
+    <t xml:space="preserve">2.59765434265137</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.62916803359985</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.63367033004761</t>
   </si>
   <si>
     <t xml:space="preserve">2.53912806510925</t>
@@ -2696,7 +2696,7 @@
     <t xml:space="preserve">2.56614017486572</t>
   </si>
   <si>
-    <t xml:space="preserve">2.5481321811676</t>
+    <t xml:space="preserve">2.54813194274902</t>
   </si>
   <si>
     <t xml:space="preserve">2.60665822029114</t>
@@ -2717,7 +2717,7 @@
     <t xml:space="preserve">2.42207622528076</t>
   </si>
   <si>
-    <t xml:space="preserve">2.41757416725159</t>
+    <t xml:space="preserve">2.41757392883301</t>
   </si>
   <si>
     <t xml:space="preserve">2.38606023788452</t>
@@ -2765,10 +2765,10 @@
     <t xml:space="preserve">2.44908809661865</t>
   </si>
   <si>
-    <t xml:space="preserve">2.39056205749512</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.32303190231323</t>
+    <t xml:space="preserve">2.3905622959137</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.32303214073181</t>
   </si>
   <si>
     <t xml:space="preserve">2.20598006248474</t>
@@ -2777,16 +2777,16 @@
     <t xml:space="preserve">2.23299217224121</t>
   </si>
   <si>
-    <t xml:space="preserve">2.16096043586731</t>
+    <t xml:space="preserve">2.16096019744873</t>
   </si>
   <si>
     <t xml:space="preserve">2.21948599815369</t>
   </si>
   <si>
-    <t xml:space="preserve">2.20147824287415</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.22398805618286</t>
+    <t xml:space="preserve">2.20147800445557</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.22398829460144</t>
   </si>
   <si>
     <t xml:space="preserve">2.24199604988098</t>
@@ -2798,7 +2798,7 @@
     <t xml:space="preserve">2.27351021766663</t>
   </si>
   <si>
-    <t xml:space="preserve">2.24649786949158</t>
+    <t xml:space="preserve">2.24649810791016</t>
   </si>
   <si>
     <t xml:space="preserve">2.21498417854309</t>
@@ -2810,16 +2810,16 @@
     <t xml:space="preserve">2.12044215202332</t>
   </si>
   <si>
-    <t xml:space="preserve">1.97187614440918</t>
+    <t xml:space="preserve">1.97187626361847</t>
   </si>
   <si>
     <t xml:space="preserve">2.03490424156189</t>
   </si>
   <si>
-    <t xml:space="preserve">1.98088026046753</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.94486427307129</t>
+    <t xml:space="preserve">1.98088014125824</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.944864153862</t>
   </si>
   <si>
     <t xml:space="preserve">1.89984405040741</t>
@@ -2837,28 +2837,28 @@
     <t xml:space="preserve">1.78279209136963</t>
   </si>
   <si>
-    <t xml:space="preserve">1.7575808763504</t>
+    <t xml:space="preserve">1.75758099555969</t>
   </si>
   <si>
     <t xml:space="preserve">1.72156488895416</t>
   </si>
   <si>
-    <t xml:space="preserve">1.70175611972809</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.73777210712433</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.80980408191681</t>
+    <t xml:space="preserve">1.7017560005188</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.73777198791504</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.8098042011261</t>
   </si>
   <si>
     <t xml:space="preserve">1.8773341178894</t>
   </si>
   <si>
-    <t xml:space="preserve">2.01689624786377</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.93135809898376</t>
+    <t xml:space="preserve">2.01689600944519</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.93135821819305</t>
   </si>
   <si>
     <t xml:space="preserve">2.06191611289978</t>
@@ -2879,25 +2879,25 @@
     <t xml:space="preserve">2.14745426177979</t>
   </si>
   <si>
-    <t xml:space="preserve">2.05291223526001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.17896842956543</t>
+    <t xml:space="preserve">2.05291199684143</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.17896819114685</t>
   </si>
   <si>
     <t xml:space="preserve">2.1879723072052</t>
   </si>
   <si>
-    <t xml:space="preserve">2.14295244216919</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.16996431350708</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.2825140953064</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.28701591491699</t>
+    <t xml:space="preserve">2.14295220375061</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.1699640750885</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.28251433372498</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.28701615333557</t>
   </si>
   <si>
     <t xml:space="preserve">2.26450610160828</t>
@@ -2912,25 +2912,25 @@
     <t xml:space="preserve">2.29151821136475</t>
   </si>
   <si>
-    <t xml:space="preserve">2.31853008270264</t>
+    <t xml:space="preserve">2.31853032112122</t>
   </si>
   <si>
     <t xml:space="preserve">2.30052208900452</t>
   </si>
   <si>
-    <t xml:space="preserve">2.30502390861511</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.27801203727722</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.25099992752075</t>
+    <t xml:space="preserve">2.30502414703369</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.2780122756958</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.25100016593933</t>
   </si>
   <si>
     <t xml:space="preserve">2.17446613311768</t>
   </si>
   <si>
-    <t xml:space="preserve">2.16546225547791</t>
+    <t xml:space="preserve">2.16546201705933</t>
   </si>
   <si>
     <t xml:space="preserve">2.19697618484497</t>
@@ -2948,10 +2948,10 @@
     <t xml:space="preserve">2.33653807640076</t>
   </si>
   <si>
-    <t xml:space="preserve">2.39506411552429</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.43108010292053</t>
+    <t xml:space="preserve">2.39506435394287</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.43108034133911</t>
   </si>
   <si>
     <t xml:space="preserve">2.40857005119324</t>
@@ -2996,28 +2996,28 @@
     <t xml:space="preserve">2.54363012313843</t>
   </si>
   <si>
-    <t xml:space="preserve">2.35904788970947</t>
+    <t xml:space="preserve">2.35904812812805</t>
   </si>
   <si>
     <t xml:space="preserve">2.32753419876099</t>
   </si>
   <si>
-    <t xml:space="preserve">2.38155817985535</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.3500440120697</t>
+    <t xml:space="preserve">2.38155794143677</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.35004425048828</t>
   </si>
   <si>
     <t xml:space="preserve">2.50761413574219</t>
   </si>
   <si>
-    <t xml:space="preserve">2.52562212944031</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.58865022659302</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.62016439437866</t>
+    <t xml:space="preserve">2.52562236785889</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.58864998817444</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.62016415596008</t>
   </si>
   <si>
     <t xml:space="preserve">2.54005122184753</t>
@@ -3438,6 +3438,9 @@
   </si>
   <si>
     <t xml:space="preserve">2.46499991416931</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.48000001907349</t>
   </si>
 </sst>
 </file>
@@ -60511,7 +60514,7 @@
     </row>
     <row r="2183">
       <c r="A2183" s="1" t="n">
-        <v>45502.649537037</v>
+        <v>45502.2916666667</v>
       </c>
       <c r="B2183" t="n">
         <v>72275</v>
@@ -60532,6 +60535,32 @@
         <v>1141</v>
       </c>
       <c r="H2183" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2184">
+      <c r="A2184" s="1" t="n">
+        <v>45503.6495833333</v>
+      </c>
+      <c r="B2184" t="n">
+        <v>97944</v>
+      </c>
+      <c r="C2184" t="n">
+        <v>2.48499989509583</v>
+      </c>
+      <c r="D2184" t="n">
+        <v>2.45000004768372</v>
+      </c>
+      <c r="E2184" t="n">
+        <v>2.48000001907349</v>
+      </c>
+      <c r="F2184" t="n">
+        <v>2.48000001907349</v>
+      </c>
+      <c r="G2184" t="s">
+        <v>1142</v>
+      </c>
+      <c r="H2184" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/ASC.MI.xlsx
+++ b/data/ASC.MI.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1143" uniqueCount="1143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1144" uniqueCount="1144">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -38,70 +38,70 @@
     <t xml:space="preserve">ticker</t>
   </si>
   <si>
-    <t xml:space="preserve">1.31329584121704</t>
+    <t xml:space="preserve">1.31329572200775</t>
   </si>
   <si>
     <t xml:space="preserve">ASC.MI</t>
   </si>
   <si>
-    <t xml:space="preserve">1.31448090076447</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.3026282787323</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.30381345748901</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.28959023952484</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.28247845172882</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.30973982810974</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.28366363048553</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.26588428020477</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.22676992416382</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.23032593727112</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.19121134281158</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.21491718292236</t>
+    <t xml:space="preserve">1.31448113918304</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.30262815952301</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.30381369590759</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.28959012031555</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.28247833251953</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.30973994731903</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.28366351127625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.26588416099548</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.22676980495453</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.23032581806183</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.19121146202087</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.21491706371307</t>
   </si>
   <si>
     <t xml:space="preserve">1.29196071624756</t>
   </si>
   <si>
-    <t xml:space="preserve">1.28840470314026</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.28129279613495</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.30736935138702</t>
+    <t xml:space="preserve">1.28840482234955</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.28129303455353</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.30736923217773</t>
   </si>
   <si>
     <t xml:space="preserve">1.31211042404175</t>
   </si>
   <si>
-    <t xml:space="preserve">1.29788720607758</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.23862278461456</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.24454927444458</t>
+    <t xml:space="preserve">1.297886967659</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.23862254619598</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.24454915523529</t>
   </si>
   <si>
     <t xml:space="preserve">1.24336385726929</t>
@@ -113,13 +113,13 @@
     <t xml:space="preserve">1.24099349975586</t>
   </si>
   <si>
-    <t xml:space="preserve">1.26469933986664</t>
+    <t xml:space="preserve">1.26469910144806</t>
   </si>
   <si>
     <t xml:space="preserve">1.26232850551605</t>
   </si>
   <si>
-    <t xml:space="preserve">1.26825499534607</t>
+    <t xml:space="preserve">1.26825487613678</t>
   </si>
   <si>
     <t xml:space="preserve">1.27062559127808</t>
@@ -128,16 +128,16 @@
     <t xml:space="preserve">1.32514846324921</t>
   </si>
   <si>
-    <t xml:space="preserve">1.32159280776978</t>
+    <t xml:space="preserve">1.32159268856049</t>
   </si>
   <si>
     <t xml:space="preserve">1.32396340370178</t>
   </si>
   <si>
-    <t xml:space="preserve">1.31685161590576</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.31922209262848</t>
+    <t xml:space="preserve">1.31685149669647</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.31922221183777</t>
   </si>
   <si>
     <t xml:space="preserve">1.30618405342102</t>
@@ -149,28 +149,28 @@
     <t xml:space="preserve">1.33581614494324</t>
   </si>
   <si>
-    <t xml:space="preserve">1.34411311149597</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.34648370742798</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.36070704460144</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.35833656787872</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.34766888618469</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.34292769432068</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.36189234256744</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.34055721759796</t>
+    <t xml:space="preserve">1.34411287307739</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.34648394584656</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.36070716381073</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.35833668708801</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.34766900539398</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.34292781352997</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.36189258098602</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.34055733680725</t>
   </si>
   <si>
     <t xml:space="preserve">1.35596597194672</t>
@@ -179,88 +179,88 @@
     <t xml:space="preserve">1.35952174663544</t>
   </si>
   <si>
-    <t xml:space="preserve">1.36307764053345</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.34885430335999</t>
+    <t xml:space="preserve">1.36307775974274</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.34885406494141</t>
   </si>
   <si>
     <t xml:space="preserve">1.36426293849945</t>
   </si>
   <si>
-    <t xml:space="preserve">1.38796865940094</t>
+    <t xml:space="preserve">1.38796877861023</t>
   </si>
   <si>
     <t xml:space="preserve">1.38085699081421</t>
   </si>
   <si>
-    <t xml:space="preserve">1.38322758674622</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.38678348064423</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.39152467250824</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.3986359834671</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.3784863948822</t>
+    <t xml:space="preserve">1.38322746753693</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.38678336143494</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.39152455329895</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.39863610267639</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.37848627567291</t>
   </si>
   <si>
     <t xml:space="preserve">1.37967157363892</t>
   </si>
   <si>
-    <t xml:space="preserve">1.38204216957092</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.40219211578369</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.41048908233643</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.41760063171387</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.41523027420044</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.40456259250641</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.39982163906097</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.4328111410141</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.43027973175049</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.43407678604126</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.44926559925079</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.46572029590607</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.46192312240601</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.4758460521698</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.4834406375885</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.48470604419708</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.48976910114288</t>
+    <t xml:space="preserve">1.3820424079895</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.4021919965744</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.41048920154572</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.41760075092316</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.41523003578186</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.4045627117157</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.39982151985168</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.43281102180481</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.4302796125412</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.43407690525055</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.44926571846008</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.46572017669678</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.46192264556885</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.47584617137909</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.48344051837921</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.48470616340637</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.48976922035217</t>
   </si>
   <si>
     <t xml:space="preserve">1.49483215808868</t>
@@ -272,19 +272,19 @@
     <t xml:space="preserve">1.53153848648071</t>
   </si>
   <si>
-    <t xml:space="preserve">1.52900671958923</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.54419577121735</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.55938422679901</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.58343350887299</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.54546141624451</t>
+    <t xml:space="preserve">1.52900683879852</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.54419553279877</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.55938446521759</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.58343362808228</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.5454615354538</t>
   </si>
   <si>
     <t xml:space="preserve">1.55685317516327</t>
@@ -293,46 +293,46 @@
     <t xml:space="preserve">1.53913259506226</t>
   </si>
   <si>
-    <t xml:space="preserve">1.58216786384583</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.65178322792053</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.6581118106842</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.64039146900177</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.56571328639984</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.55052435398102</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.59862208366394</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.64418864250183</t>
+    <t xml:space="preserve">1.58216774463654</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.65178298950195</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.65811169147491</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.64039182662964</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.56571304798126</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.55052447319031</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.59862232208252</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.6441890001297</t>
   </si>
   <si>
     <t xml:space="preserve">1.58849656581879</t>
   </si>
   <si>
-    <t xml:space="preserve">1.56318187713623</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.60495102405548</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.63912570476532</t>
+    <t xml:space="preserve">1.56318175792694</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.60495090484619</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.63912606239319</t>
   </si>
   <si>
     <t xml:space="preserve">1.70874094963074</t>
   </si>
   <si>
-    <t xml:space="preserve">1.69481801986694</t>
+    <t xml:space="preserve">1.69481790065765</t>
   </si>
   <si>
     <t xml:space="preserve">1.63785994052887</t>
@@ -344,13 +344,13 @@
     <t xml:space="preserve">1.70494413375854</t>
   </si>
   <si>
-    <t xml:space="preserve">1.70620965957642</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.76316773891449</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.76823043823242</t>
+    <t xml:space="preserve">1.706209897995</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.76316797733307</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.76823055744171</t>
   </si>
   <si>
     <t xml:space="preserve">1.77076208591461</t>
@@ -359,67 +359,67 @@
     <t xml:space="preserve">1.73532176017761</t>
   </si>
   <si>
-    <t xml:space="preserve">1.73405575752258</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.77202796936035</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.78468501567841</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.75051021575928</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.7467132806778</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.75304186344147</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.76443362236023</t>
+    <t xml:space="preserve">1.73405587673187</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.77202785015106</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.78468489646912</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.75051045417786</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.74671316146851</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.75304174423218</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.76443338394165</t>
   </si>
   <si>
     <t xml:space="preserve">1.80620276927948</t>
   </si>
   <si>
-    <t xml:space="preserve">1.84164333343506</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.803671002388</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.8327831029892</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.82012605667114</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.79734241962433</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.79607689380646</t>
+    <t xml:space="preserve">1.84164345264435</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.80367159843445</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.83278286457062</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.82012593746185</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.79734265804291</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.79607701301575</t>
   </si>
   <si>
     <t xml:space="preserve">1.79354548454285</t>
   </si>
   <si>
-    <t xml:space="preserve">1.81632804870605</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.82265722751617</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.80999994277954</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.82518875598907</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.81126534938812</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.70241272449493</t>
+    <t xml:space="preserve">1.81632852554321</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.82265734672546</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.80999982357025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.82518887519836</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.81126570701599</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.70241236686707</t>
   </si>
   <si>
     <t xml:space="preserve">1.71380400657654</t>
@@ -431,106 +431,106 @@
     <t xml:space="preserve">1.74038434028625</t>
   </si>
   <si>
-    <t xml:space="preserve">1.6555802822113</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.67583227157593</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.64798605442047</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.67456603050232</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.6606433391571</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.68722367286682</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.698615193367</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.66444063186646</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.67709791660309</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.65684616565704</t>
+    <t xml:space="preserve">1.65558016300201</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.67583215236664</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.64798617362976</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.6745662689209</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.66064357757568</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.68722343444824</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.69861531257629</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.66444075107574</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.6770977973938</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.65684592723846</t>
   </si>
   <si>
     <t xml:space="preserve">1.65937745571136</t>
   </si>
   <si>
-    <t xml:space="preserve">1.66190910339355</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.68469202518463</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.69228661060333</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.69608378410339</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.70114684104919</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.66317498683929</t>
+    <t xml:space="preserve">1.66190874576569</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.6846923828125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.69228649139404</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.69608402252197</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.7011467218399</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.66317474842072</t>
   </si>
   <si>
     <t xml:space="preserve">1.68975520133972</t>
   </si>
   <si>
-    <t xml:space="preserve">1.68595790863037</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.67836368083954</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.63406276702881</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.57710492610931</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.53406989574432</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.53533554077148</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.54039835929871</t>
+    <t xml:space="preserve">1.68595814704895</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.67836332321167</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.6340628862381</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.57710480690002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.53406977653503</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.53533565998077</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.540398478508</t>
   </si>
   <si>
     <t xml:space="preserve">1.52267813682556</t>
   </si>
   <si>
-    <t xml:space="preserve">1.60115361213684</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.63153147697449</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.60748243331909</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.57583904266357</t>
+    <t xml:space="preserve">1.60115373134613</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.6315313577652</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.6074823141098</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.57583892345428</t>
   </si>
   <si>
     <t xml:space="preserve">1.53786718845367</t>
   </si>
   <si>
-    <t xml:space="preserve">1.55558729171753</t>
+    <t xml:space="preserve">1.55558717250824</t>
   </si>
   <si>
     <t xml:space="preserve">1.58723068237305</t>
   </si>
   <si>
-    <t xml:space="preserve">1.61381125450134</t>
+    <t xml:space="preserve">1.61381101608276</t>
   </si>
   <si>
     <t xml:space="preserve">1.6289998292923</t>
@@ -539,34 +539,34 @@
     <t xml:space="preserve">1.62393701076508</t>
   </si>
   <si>
-    <t xml:space="preserve">1.64545452594757</t>
+    <t xml:space="preserve">1.64545440673828</t>
   </si>
   <si>
     <t xml:space="preserve">1.636594414711</t>
   </si>
   <si>
-    <t xml:space="preserve">1.63026571273804</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.68089485168457</t>
+    <t xml:space="preserve">1.63026547431946</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.68089509010315</t>
   </si>
   <si>
     <t xml:space="preserve">1.71000695228577</t>
   </si>
   <si>
-    <t xml:space="preserve">1.69988131523132</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.72139859199524</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.71760141849518</t>
+    <t xml:space="preserve">1.69988107681274</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.72139835357666</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.71760153770447</t>
   </si>
   <si>
     <t xml:space="preserve">1.72393000125885</t>
   </si>
   <si>
-    <t xml:space="preserve">1.73658740520477</t>
+    <t xml:space="preserve">1.7365870475769</t>
   </si>
   <si>
     <t xml:space="preserve">1.71506989002228</t>
@@ -578,13 +578,13 @@
     <t xml:space="preserve">1.73279011249542</t>
   </si>
   <si>
-    <t xml:space="preserve">1.75177586078644</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.76190161705017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.75937056541443</t>
+    <t xml:space="preserve">1.75177609920502</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.76190197467804</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.75937068462372</t>
   </si>
   <si>
     <t xml:space="preserve">1.73025870323181</t>
@@ -593,16 +593,16 @@
     <t xml:space="preserve">1.81253147125244</t>
   </si>
   <si>
-    <t xml:space="preserve">1.80493700504303</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.78848242759705</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.77709078788757</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.82139110565186</t>
+    <t xml:space="preserve">1.80493688583374</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.78848230838776</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.77709090709686</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.82139146327972</t>
   </si>
   <si>
     <t xml:space="preserve">1.8277200460434</t>
@@ -611,55 +611,55 @@
     <t xml:space="preserve">1.7948112487793</t>
   </si>
   <si>
-    <t xml:space="preserve">1.82898616790771</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.84037744998932</t>
+    <t xml:space="preserve">1.82898604869843</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.84037756919861</t>
   </si>
   <si>
     <t xml:space="preserve">1.8137971162796</t>
   </si>
   <si>
-    <t xml:space="preserve">1.86695790290833</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.86062955856323</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.8859441280365</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.91758739948273</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.93404197692871</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.95049643516541</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.95935678482056</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.95555913448334</t>
+    <t xml:space="preserve">1.86695802211761</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.86062920093536</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.88594424724579</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.91758728027344</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.93404173851013</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.95049619674683</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.9593563079834</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.95555925369263</t>
   </si>
   <si>
     <t xml:space="preserve">1.99732840061188</t>
   </si>
   <si>
-    <t xml:space="preserve">1.98213958740234</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.03656649589539</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.06314659118652</t>
+    <t xml:space="preserve">1.9821400642395</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.03656625747681</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.06314706802368</t>
   </si>
   <si>
     <t xml:space="preserve">2.08339834213257</t>
   </si>
   <si>
-    <t xml:space="preserve">2.10238432884216</t>
+    <t xml:space="preserve">2.10238456726074</t>
   </si>
   <si>
     <t xml:space="preserve">2.06947565078735</t>
@@ -671,28 +671,28 @@
     <t xml:space="preserve">2.11377596855164</t>
   </si>
   <si>
-    <t xml:space="preserve">2.10871315002441</t>
+    <t xml:space="preserve">2.10871338844299</t>
   </si>
   <si>
     <t xml:space="preserve">2.12516760826111</t>
   </si>
   <si>
-    <t xml:space="preserve">2.16440534591675</t>
+    <t xml:space="preserve">2.16440558433533</t>
   </si>
   <si>
     <t xml:space="preserve">2.15174841880798</t>
   </si>
   <si>
-    <t xml:space="preserve">2.15681123733521</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.19604873657227</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.20490884780884</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.21883225440979</t>
+    <t xml:space="preserve">2.15681099891663</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.19604897499084</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.20490908622742</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.21883201599121</t>
   </si>
   <si>
     <t xml:space="preserve">2.22769212722778</t>
@@ -701,58 +701,58 @@
     <t xml:space="preserve">2.23148941993713</t>
   </si>
   <si>
-    <t xml:space="preserve">2.21503496170044</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.24034929275513</t>
+    <t xml:space="preserve">2.21503472328186</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.24034953117371</t>
   </si>
   <si>
     <t xml:space="preserve">2.23275518417358</t>
   </si>
   <si>
-    <t xml:space="preserve">2.22895812988281</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.21376872062683</t>
+    <t xml:space="preserve">2.22895789146423</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.21376919746399</t>
   </si>
   <si>
     <t xml:space="preserve">2.22516059875488</t>
   </si>
   <si>
-    <t xml:space="preserve">2.27452421188354</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.24288105964661</t>
+    <t xml:space="preserve">2.27452445030212</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.24288058280945</t>
   </si>
   <si>
     <t xml:space="preserve">2.23908376693726</t>
   </si>
   <si>
-    <t xml:space="preserve">2.2783215045929</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.26946139335632</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.27325820922852</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.29224467277527</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.34160828590393</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.34920287132263</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.39350342750549</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.42274117469788</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.4094512462616</t>
+    <t xml:space="preserve">2.27832174301147</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.26946115493774</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.27325868606567</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.29224443435669</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.34160804748535</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.34920263290405</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.39350366592407</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.4227409362793</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.40945148468018</t>
   </si>
   <si>
     <t xml:space="preserve">2.39616131782532</t>
@@ -761,49 +761,49 @@
     <t xml:space="preserve">2.37755560874939</t>
   </si>
   <si>
-    <t xml:space="preserve">2.31642246246338</t>
+    <t xml:space="preserve">2.3164222240448</t>
   </si>
   <si>
     <t xml:space="preserve">2.31243515014648</t>
   </si>
   <si>
-    <t xml:space="preserve">2.35230469703674</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.31376433372498</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.3004744052887</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.3655948638916</t>
+    <t xml:space="preserve">2.35230493545532</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.31376457214355</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.30047416687012</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.36559462547302</t>
   </si>
   <si>
     <t xml:space="preserve">2.38154268264771</t>
   </si>
   <si>
-    <t xml:space="preserve">2.40014839172363</t>
+    <t xml:space="preserve">2.40014863014221</t>
   </si>
   <si>
     <t xml:space="preserve">2.41476726531982</t>
   </si>
   <si>
-    <t xml:space="preserve">2.43204402923584</t>
+    <t xml:space="preserve">2.43204426765442</t>
   </si>
   <si>
     <t xml:space="preserve">2.41875433921814</t>
   </si>
   <si>
-    <t xml:space="preserve">2.36293649673462</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.40147733688354</t>
+    <t xml:space="preserve">2.3629367351532</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.40147757530212</t>
   </si>
   <si>
     <t xml:space="preserve">2.40812253952026</t>
   </si>
   <si>
-    <t xml:space="preserve">2.42539882659912</t>
+    <t xml:space="preserve">2.4253990650177</t>
   </si>
   <si>
     <t xml:space="preserve">2.43071508407593</t>
@@ -824,25 +824,25 @@
     <t xml:space="preserve">2.40679335594177</t>
   </si>
   <si>
-    <t xml:space="preserve">2.47058463096619</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.38951659202576</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.37489771842957</t>
+    <t xml:space="preserve">2.47058439254761</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.38951635360718</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.37489748001099</t>
   </si>
   <si>
     <t xml:space="preserve">2.35762071609497</t>
   </si>
   <si>
-    <t xml:space="preserve">2.35894989967346</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.31509304046631</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.30579018592834</t>
+    <t xml:space="preserve">2.35894966125488</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.31509327888489</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.3057906627655</t>
   </si>
   <si>
     <t xml:space="preserve">2.33104109764099</t>
@@ -857,19 +857,19 @@
     <t xml:space="preserve">2.32306742668152</t>
   </si>
   <si>
-    <t xml:space="preserve">2.32838320732117</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.30446147918701</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.26592087745667</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.25661778450012</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.27921056747437</t>
+    <t xml:space="preserve">2.32838344573975</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.30446124076843</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.26592040061951</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.25661754608154</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.27921080589294</t>
   </si>
   <si>
     <t xml:space="preserve">2.29250049591064</t>
@@ -881,22 +881,22 @@
     <t xml:space="preserve">2.38552951812744</t>
   </si>
   <si>
-    <t xml:space="preserve">2.38021349906921</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.39084553718567</t>
+    <t xml:space="preserve">2.38021373748779</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.39084529876709</t>
   </si>
   <si>
     <t xml:space="preserve">2.37622666358948</t>
   </si>
   <si>
-    <t xml:space="preserve">2.35629177093506</t>
+    <t xml:space="preserve">2.35629200935364</t>
   </si>
   <si>
     <t xml:space="preserve">2.33901500701904</t>
   </si>
   <si>
-    <t xml:space="preserve">2.34034419059753</t>
+    <t xml:space="preserve">2.34034395217896</t>
   </si>
   <si>
     <t xml:space="preserve">2.32572531700134</t>
@@ -911,13 +911,13 @@
     <t xml:space="preserve">2.35496282577515</t>
   </si>
   <si>
-    <t xml:space="preserve">2.43470215797424</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.3988196849823</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.42141199111938</t>
+    <t xml:space="preserve">2.43470191955566</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.39881920814514</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.42141222953796</t>
   </si>
   <si>
     <t xml:space="preserve">2.34698891639709</t>
@@ -929,46 +929,46 @@
     <t xml:space="preserve">2.33502817153931</t>
   </si>
   <si>
-    <t xml:space="preserve">2.32971215248108</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.39483237266541</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.37223982810974</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.39749050140381</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.36825251579285</t>
+    <t xml:space="preserve">2.32971262931824</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.39483261108398</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.37223935127258</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.39749026298523</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.36825275421143</t>
   </si>
   <si>
     <t xml:space="preserve">2.41742515563965</t>
   </si>
   <si>
-    <t xml:space="preserve">2.43603086471558</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.47191405296326</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.48254561424255</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.53437614440918</t>
+    <t xml:space="preserve">2.43603110313416</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.47191381454468</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.48254537582397</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.5343759059906</t>
   </si>
   <si>
     <t xml:space="preserve">2.51311230659485</t>
   </si>
   <si>
-    <t xml:space="preserve">2.51178312301636</t>
+    <t xml:space="preserve">2.51178359985352</t>
   </si>
   <si>
     <t xml:space="preserve">2.54367876052856</t>
   </si>
   <si>
-    <t xml:space="preserve">2.45197892189026</t>
+    <t xml:space="preserve">2.45197868347168</t>
   </si>
   <si>
     <t xml:space="preserve">2.45729470252991</t>
@@ -977,19 +977,19 @@
     <t xml:space="preserve">2.40546417236328</t>
   </si>
   <si>
-    <t xml:space="preserve">2.42938613891602</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.47324252128601</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.45862364768982</t>
+    <t xml:space="preserve">2.42938590049744</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.47324228286743</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.4586238861084</t>
   </si>
   <si>
     <t xml:space="preserve">2.44134712219238</t>
   </si>
   <si>
-    <t xml:space="preserve">2.42672777175903</t>
+    <t xml:space="preserve">2.42672824859619</t>
   </si>
   <si>
     <t xml:space="preserve">2.44932079315186</t>
@@ -998,22 +998,22 @@
     <t xml:space="preserve">2.3788845539093</t>
   </si>
   <si>
-    <t xml:space="preserve">2.42872166633606</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.44533395767212</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.43868923187256</t>
+    <t xml:space="preserve">2.42872142791748</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.44533371925354</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.43868899345398</t>
   </si>
   <si>
     <t xml:space="preserve">2.44201135635376</t>
   </si>
   <si>
-    <t xml:space="preserve">2.38220715522766</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.19282627105713</t>
+    <t xml:space="preserve">2.38220691680908</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.19282674789429</t>
   </si>
   <si>
     <t xml:space="preserve">2.09979748725891</t>
@@ -1022,25 +1022,25 @@
     <t xml:space="preserve">2.15960192680359</t>
   </si>
   <si>
-    <t xml:space="preserve">2.12969994544983</t>
+    <t xml:space="preserve">2.12969970703125</t>
   </si>
   <si>
     <t xml:space="preserve">2.09315276145935</t>
   </si>
   <si>
-    <t xml:space="preserve">2.14631199836731</t>
+    <t xml:space="preserve">2.14631223678589</t>
   </si>
   <si>
     <t xml:space="preserve">2.13634443283081</t>
   </si>
   <si>
-    <t xml:space="preserve">2.17289209365845</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.17953705787659</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.12305498123169</t>
+    <t xml:space="preserve">2.17289161682129</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.17953658103943</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.12305474281311</t>
   </si>
   <si>
     <t xml:space="preserve">2.10644268989563</t>
@@ -1049,13 +1049,13 @@
     <t xml:space="preserve">2.08318519592285</t>
   </si>
   <si>
-    <t xml:space="preserve">2.07321786880493</t>
+    <t xml:space="preserve">2.07321763038635</t>
   </si>
   <si>
     <t xml:space="preserve">2.03334832191467</t>
   </si>
   <si>
-    <t xml:space="preserve">2.06989526748657</t>
+    <t xml:space="preserve">2.06989550590515</t>
   </si>
   <si>
     <t xml:space="preserve">2.07986307144165</t>
@@ -1067,241 +1067,241 @@
     <t xml:space="preserve">2.14298939704895</t>
   </si>
   <si>
-    <t xml:space="preserve">2.09647512435913</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.12637710571289</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.13302206993103</t>
+    <t xml:space="preserve">2.09647536277771</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.12637758255005</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.13302230834961</t>
   </si>
   <si>
     <t xml:space="preserve">2.18285918235779</t>
   </si>
   <si>
-    <t xml:space="preserve">2.16292452812195</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.11640977859497</t>
+    <t xml:space="preserve">2.16292428970337</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.11640954017639</t>
   </si>
   <si>
     <t xml:space="preserve">2.11973237991333</t>
   </si>
   <si>
-    <t xml:space="preserve">2.15627956390381</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.16624665260315</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.19947123527527</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.17621421813965</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.18618178367615</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.20943880081177</t>
+    <t xml:space="preserve">2.15627932548523</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.16624712944031</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.19947147369385</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.17621445655823</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.18618130683899</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.20943903923035</t>
   </si>
   <si>
     <t xml:space="preserve">2.21276140213013</t>
   </si>
   <si>
-    <t xml:space="preserve">2.2592761516571</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.34566020965576</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.32904767990112</t>
+    <t xml:space="preserve">2.25927591323853</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.3456597328186</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.32904744148254</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.34655904769897</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.44279003143311</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.39837622642517</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.36876654624939</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.41318082809448</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.3539617061615</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.31694984436035</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.30584597587585</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.29844355583191</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.29104113578796</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.27993750572205</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.26143145561218</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.22441959381104</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.12818837165833</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.18370676040649</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.23182249069214</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.22071838378906</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.20591354370117</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.18000531196594</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.25773024559021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.26513290405273</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.2022123336792</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.21331572532654</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.21701717376709</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.16149950027466</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.26883387565613</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.24662685394287</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.18740749359131</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.1689019203186</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.15779829025269</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.13929200172424</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.13559103012085</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.12078619003296</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.12448716163635</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.14669466018677</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.11708450317383</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.10968232154846</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.3243522644043</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.33175444602966</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.3724672794342</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.62044763565063</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.48350358009338</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.47980213165283</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.41688203811646</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.42058300971985</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.40577840805054</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.36506485939026</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.32065081596375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.29474210739136</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.2392246723175</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.30954718589783</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.27623653411865</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.28363871574402</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.30214476585388</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.31324863433838</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.34285807609558</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.33915686607361</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.33545565605164</t>
   </si>
   <si>
     <t xml:space="preserve">2.34655928611755</t>
   </si>
   <si>
-    <t xml:space="preserve">2.44279026985168</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.39837622642517</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.36876654624939</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.4131805896759</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.35396146774292</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.31694960594177</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.30584597587585</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.29844379425049</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.29104113578796</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.27993750572205</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.26143145561218</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.22442007064819</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.12818837165833</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.18370652198792</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.23182225227356</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.22071838378906</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.20591378211975</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.18000507354736</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.25773048400879</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.26513266563416</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.20221257209778</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.21331596374512</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.21701693534851</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.16149950027466</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.26883411407471</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.24662685394287</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.18740773200989</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.16890168190002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.15779781341553</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.13929224014282</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.13559103012085</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.12078595161438</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.12448716163635</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.14669466018677</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.11708474159241</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.10968255996704</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.32435202598572</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.33175444602966</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.37246775627136</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.62044787406921</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.48350358009338</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.47980213165283</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.41688203811646</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.42058324813843</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.40577840805054</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.36506485939026</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.32065081596375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.29474234580994</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.23922443389893</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.30954694747925</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.27623653411865</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.2836389541626</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.30214476585388</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.3132483959198</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.34285807609558</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.33915686607361</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.33545517921448</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.34655952453613</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.24292540550232</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.17630434036255</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.19110870361328</t>
+    <t xml:space="preserve">2.2429256439209</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.17630410194397</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.19110894203186</t>
   </si>
   <si>
     <t xml:space="preserve">2.23552322387695</t>
@@ -1310,7 +1310,7 @@
     <t xml:space="preserve">2.08747553825378</t>
   </si>
   <si>
-    <t xml:space="preserve">2.15039563179016</t>
+    <t xml:space="preserve">2.15039587020874</t>
   </si>
   <si>
     <t xml:space="preserve">2.15409684181213</t>
@@ -1322,22 +1322,22 @@
     <t xml:space="preserve">2.2725350856781</t>
   </si>
   <si>
-    <t xml:space="preserve">2.25032830238342</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.22812080383301</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.40207695960999</t>
+    <t xml:space="preserve">2.25032782554626</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.22812104225159</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.40207719802856</t>
   </si>
   <si>
     <t xml:space="preserve">2.43168663978577</t>
   </si>
   <si>
-    <t xml:space="preserve">2.38357090950012</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.35766267776489</t>
+    <t xml:space="preserve">2.3835711479187</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.35766243934631</t>
   </si>
   <si>
     <t xml:space="preserve">2.37616896629333</t>
@@ -1352,7 +1352,7 @@
     <t xml:space="preserve">2.42798542976379</t>
   </si>
   <si>
-    <t xml:space="preserve">2.44649147987366</t>
+    <t xml:space="preserve">2.44649171829224</t>
   </si>
   <si>
     <t xml:space="preserve">2.45019268989563</t>
@@ -1361,43 +1361,43 @@
     <t xml:space="preserve">2.50200939178467</t>
   </si>
   <si>
-    <t xml:space="preserve">2.4946072101593</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.49090600013733</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.51311326026917</t>
+    <t xml:space="preserve">2.49460697174072</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.49090576171875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.51311302185059</t>
   </si>
   <si>
     <t xml:space="preserve">2.49830842018127</t>
   </si>
   <si>
-    <t xml:space="preserve">2.50571036338806</t>
+    <t xml:space="preserve">2.50571060180664</t>
   </si>
   <si>
     <t xml:space="preserve">2.56122851371765</t>
   </si>
   <si>
-    <t xml:space="preserve">2.53161883354187</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.56863117218018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.5279176235199</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.53902149200439</t>
+    <t xml:space="preserve">2.53161907196045</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.56863141059875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.52791786193848</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.53902125358582</t>
   </si>
   <si>
     <t xml:space="preserve">2.52051568031311</t>
   </si>
   <si>
-    <t xml:space="preserve">2.5242166519165</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.54272294044495</t>
+    <t xml:space="preserve">2.52421641349792</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.54272270202637</t>
   </si>
   <si>
     <t xml:space="preserve">2.55382609367371</t>
@@ -1412,13 +1412,13 @@
     <t xml:space="preserve">2.59083819389343</t>
   </si>
   <si>
-    <t xml:space="preserve">2.57973432540894</t>
+    <t xml:space="preserve">2.57973456382751</t>
   </si>
   <si>
     <t xml:space="preserve">2.62785005569458</t>
   </si>
   <si>
-    <t xml:space="preserve">2.64635634422302</t>
+    <t xml:space="preserve">2.64635610580444</t>
   </si>
   <si>
     <t xml:space="preserve">2.64265489578247</t>
@@ -1436,10 +1436,10 @@
     <t xml:space="preserve">2.71297764778137</t>
   </si>
   <si>
-    <t xml:space="preserve">2.72778224945068</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.70187401771545</t>
+    <t xml:space="preserve">2.72778248786926</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.70187425613403</t>
   </si>
   <si>
     <t xml:space="preserve">2.69077062606812</t>
@@ -1448,37 +1448,37 @@
     <t xml:space="preserve">2.74258732795715</t>
   </si>
   <si>
-    <t xml:space="preserve">2.75739216804504</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.82401347160339</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.82031202316284</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.84992170333862</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.83881855010986</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.02654099464417</t>
+    <t xml:space="preserve">2.75739192962646</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.82401394844055</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.82031226158142</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.84992218017578</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.83881831169128</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.02654075622559</t>
   </si>
   <si>
     <t xml:space="preserve">2.74035239219666</t>
   </si>
   <si>
-    <t xml:space="preserve">2.73643207550049</t>
+    <t xml:space="preserve">2.73643231391907</t>
   </si>
   <si>
     <t xml:space="preserve">2.68938755989075</t>
   </si>
   <si>
-    <t xml:space="preserve">2.70898914337158</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.68154644966125</t>
+    <t xml:space="preserve">2.70898962020874</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.68154668807983</t>
   </si>
   <si>
     <t xml:space="preserve">2.75603413581848</t>
@@ -1490,7 +1490,7 @@
     <t xml:space="preserve">2.79915833473206</t>
   </si>
   <si>
-    <t xml:space="preserve">2.82268047332764</t>
+    <t xml:space="preserve">2.82268071174622</t>
   </si>
   <si>
     <t xml:space="preserve">2.78347682952881</t>
@@ -1499,43 +1499,43 @@
     <t xml:space="preserve">2.7756359577179</t>
   </si>
   <si>
-    <t xml:space="preserve">2.76779532432556</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.79131746292114</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.78739714622498</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.84620332717896</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.85796403884888</t>
+    <t xml:space="preserve">2.76779508590698</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.79131770133972</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.78739738464355</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.84620308876038</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.85796427726746</t>
   </si>
   <si>
     <t xml:space="preserve">2.82660102844238</t>
   </si>
   <si>
-    <t xml:space="preserve">2.8344419002533</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.85012340545654</t>
+    <t xml:space="preserve">2.83444213867188</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.85012364387512</t>
   </si>
   <si>
     <t xml:space="preserve">2.86188459396362</t>
   </si>
   <si>
-    <t xml:space="preserve">2.8736457824707</t>
+    <t xml:space="preserve">2.87364554405212</t>
   </si>
   <si>
     <t xml:space="preserve">2.99517774581909</t>
   </si>
   <si>
-    <t xml:space="preserve">2.92461061477661</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.95597410202026</t>
+    <t xml:space="preserve">2.92461085319519</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.95597386360168</t>
   </si>
   <si>
     <t xml:space="preserve">2.97165560722351</t>
@@ -1547,16 +1547,16 @@
     <t xml:space="preserve">2.94029259681702</t>
   </si>
   <si>
-    <t xml:space="preserve">2.96381449699402</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.95989418029785</t>
+    <t xml:space="preserve">2.9638147354126</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.95989441871643</t>
   </si>
   <si>
     <t xml:space="preserve">3.00693893432617</t>
   </si>
   <si>
-    <t xml:space="preserve">3.10494875907898</t>
+    <t xml:space="preserve">3.1049485206604</t>
   </si>
   <si>
     <t xml:space="preserve">3.06966519355774</t>
@@ -1565,16 +1565,16 @@
     <t xml:space="preserve">3.03830218315125</t>
   </si>
   <si>
-    <t xml:space="preserve">3.07750582695007</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.13631200790405</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.15983438491821</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.18335652351379</t>
+    <t xml:space="preserve">3.07750606536865</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.13631176948547</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.15983462333679</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.18335676193237</t>
   </si>
   <si>
     <t xml:space="preserve">3.23824191093445</t>
@@ -1583,7 +1583,7 @@
     <t xml:space="preserve">3.25000309944153</t>
   </si>
   <si>
-    <t xml:space="preserve">3.25392389297485</t>
+    <t xml:space="preserve">3.25392365455627</t>
   </si>
   <si>
     <t xml:space="preserve">3.26960515975952</t>
@@ -1592,25 +1592,25 @@
     <t xml:space="preserve">3.30096840858459</t>
   </si>
   <si>
-    <t xml:space="preserve">3.33233141899109</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.3127293586731</t>
+    <t xml:space="preserve">3.33233118057251</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.31272912025452</t>
   </si>
   <si>
     <t xml:space="preserve">3.27744603157043</t>
   </si>
   <si>
-    <t xml:space="preserve">3.20687913894653</t>
+    <t xml:space="preserve">3.20687890052795</t>
   </si>
   <si>
     <t xml:space="preserve">3.22648072242737</t>
   </si>
   <si>
-    <t xml:space="preserve">3.25784397125244</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.24216270446777</t>
+    <t xml:space="preserve">3.25784420967102</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.24216246604919</t>
   </si>
   <si>
     <t xml:space="preserve">3.19119763374329</t>
@@ -1619,7 +1619,7 @@
     <t xml:space="preserve">3.14023232460022</t>
   </si>
   <si>
-    <t xml:space="preserve">3.12847113609314</t>
+    <t xml:space="preserve">3.12847137451172</t>
   </si>
   <si>
     <t xml:space="preserve">3.11670994758606</t>
@@ -1631,16 +1631,16 @@
     <t xml:space="preserve">3.05398368835449</t>
   </si>
   <si>
-    <t xml:space="preserve">3.21864032745361</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.21472001075745</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.1637544631958</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.14807271957397</t>
+    <t xml:space="preserve">3.21864008903503</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.21471977233887</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.16375470161438</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.14807295799255</t>
   </si>
   <si>
     <t xml:space="preserve">3.04222249984741</t>
@@ -1649,13 +1649,13 @@
     <t xml:space="preserve">3.12063026428223</t>
   </si>
   <si>
-    <t xml:space="preserve">3.12455081939697</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.08534669876099</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.08926725387573</t>
+    <t xml:space="preserve">3.12455058097839</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.08534693717957</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.08926701545715</t>
   </si>
   <si>
     <t xml:space="preserve">3.11278939247131</t>
@@ -1667,13 +1667,13 @@
     <t xml:space="preserve">2.98341679573059</t>
   </si>
   <si>
-    <t xml:space="preserve">2.88148665428162</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.93637228012085</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.97557616233826</t>
+    <t xml:space="preserve">2.88148641586304</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.93637204170227</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.97557592391968</t>
   </si>
   <si>
     <t xml:space="preserve">2.98733687400818</t>
@@ -1685,16 +1685,16 @@
     <t xml:space="preserve">2.99909830093384</t>
   </si>
   <si>
-    <t xml:space="preserve">3.00301861763</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.05790400505066</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.0343816280365</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.06574511528015</t>
+    <t xml:space="preserve">3.00301885604858</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.05790424346924</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.03438186645508</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.06574535369873</t>
   </si>
   <si>
     <t xml:space="preserve">3.04614305496216</t>
@@ -1703,13 +1703,13 @@
     <t xml:space="preserve">3.03046154975891</t>
   </si>
   <si>
-    <t xml:space="preserve">2.93245148658752</t>
+    <t xml:space="preserve">2.9324517250061</t>
   </si>
   <si>
     <t xml:space="preserve">2.91284966468811</t>
   </si>
   <si>
-    <t xml:space="preserve">2.90108871459961</t>
+    <t xml:space="preserve">2.90108847618103</t>
   </si>
   <si>
     <t xml:space="preserve">2.94421291351318</t>
@@ -1721,7 +1721,7 @@
     <t xml:space="preserve">3.01870012283325</t>
   </si>
   <si>
-    <t xml:space="preserve">3.15199375152588</t>
+    <t xml:space="preserve">3.1519935131073</t>
   </si>
   <si>
     <t xml:space="preserve">3.17551589012146</t>
@@ -1733,64 +1733,64 @@
     <t xml:space="preserve">3.10886907577515</t>
   </si>
   <si>
-    <t xml:space="preserve">3.02262043952942</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.01085948944092</t>
+    <t xml:space="preserve">3.022620677948</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.01085925102234</t>
   </si>
   <si>
     <t xml:space="preserve">2.91676998138428</t>
   </si>
   <si>
-    <t xml:space="preserve">2.95205354690552</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.9912576675415</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.13239121437073</t>
+    <t xml:space="preserve">2.9520537853241</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.99125742912292</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.13239145278931</t>
   </si>
   <si>
     <t xml:space="preserve">3.46562457084656</t>
   </si>
   <si>
-    <t xml:space="preserve">3.5479531288147</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.48522663116455</t>
+    <t xml:space="preserve">3.54795289039612</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.48522686958313</t>
   </si>
   <si>
     <t xml:space="preserve">3.58323645591736</t>
   </si>
   <si>
-    <t xml:space="preserve">3.52443051338196</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.5871570110321</t>
+    <t xml:space="preserve">3.52443027496338</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.58715653419495</t>
   </si>
   <si>
     <t xml:space="preserve">3.61459970474243</t>
   </si>
   <si>
-    <t xml:space="preserve">3.51658987998962</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.4225001335144</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.39505767822266</t>
+    <t xml:space="preserve">3.5165901184082</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.42250037193298</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.39505743980408</t>
   </si>
   <si>
     <t xml:space="preserve">3.37937593460083</t>
   </si>
   <si>
-    <t xml:space="preserve">3.43818187713623</t>
+    <t xml:space="preserve">3.43818211555481</t>
   </si>
   <si>
     <t xml:space="preserve">3.48130631446838</t>
   </si>
   <si>
-    <t xml:space="preserve">3.45386362075806</t>
+    <t xml:space="preserve">3.45386385917664</t>
   </si>
   <si>
     <t xml:space="preserve">3.28920745849609</t>
@@ -1802,7 +1802,7 @@
     <t xml:space="preserve">3.21079897880554</t>
   </si>
   <si>
-    <t xml:space="preserve">3.0814266204834</t>
+    <t xml:space="preserve">3.08142638206482</t>
   </si>
   <si>
     <t xml:space="preserve">3.26568460464478</t>
@@ -1811,31 +1811,31 @@
     <t xml:space="preserve">3.23432159423828</t>
   </si>
   <si>
-    <t xml:space="preserve">3.19511747360229</t>
+    <t xml:space="preserve">3.19511771202087</t>
   </si>
   <si>
     <t xml:space="preserve">2.69722843170166</t>
   </si>
   <si>
-    <t xml:space="preserve">2.13269209861755</t>
+    <t xml:space="preserve">2.13269186019897</t>
   </si>
   <si>
     <t xml:space="preserve">2.36399531364441</t>
   </si>
   <si>
-    <t xml:space="preserve">2.45024371147156</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.49336791038513</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.50512933731079</t>
+    <t xml:space="preserve">2.45024394989014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.49336814880371</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.50512886047363</t>
   </si>
   <si>
     <t xml:space="preserve">2.55217385292053</t>
   </si>
   <si>
-    <t xml:space="preserve">2.61882042884827</t>
+    <t xml:space="preserve">2.61882019042969</t>
   </si>
   <si>
     <t xml:space="preserve">2.60313892364502</t>
@@ -1847,22 +1847,22 @@
     <t xml:space="preserve">2.58353710174561</t>
   </si>
   <si>
-    <t xml:space="preserve">2.5443332195282</t>
+    <t xml:space="preserve">2.54433298110962</t>
   </si>
   <si>
     <t xml:space="preserve">2.51689028739929</t>
   </si>
   <si>
-    <t xml:space="preserve">2.63842225074768</t>
+    <t xml:space="preserve">2.63842248916626</t>
   </si>
   <si>
     <t xml:space="preserve">2.4972882270813</t>
   </si>
   <si>
-    <t xml:space="preserve">2.50904989242554</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.46984601020813</t>
+    <t xml:space="preserve">2.50904965400696</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.46984553337097</t>
   </si>
   <si>
     <t xml:space="preserve">2.51296997070312</t>
@@ -1874,16 +1874,16 @@
     <t xml:space="preserve">2.54041266441345</t>
   </si>
   <si>
-    <t xml:space="preserve">2.52865123748779</t>
+    <t xml:space="preserve">2.52865147590637</t>
   </si>
   <si>
     <t xml:space="preserve">2.54825353622437</t>
   </si>
   <si>
-    <t xml:space="preserve">2.52473115921021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.57177567481995</t>
+    <t xml:space="preserve">2.52473092079163</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.57177591323853</t>
   </si>
   <si>
     <t xml:space="preserve">2.58745718002319</t>
@@ -1895,28 +1895,28 @@
     <t xml:space="preserve">2.61097955703735</t>
   </si>
   <si>
-    <t xml:space="preserve">2.65018391609192</t>
+    <t xml:space="preserve">2.65018343925476</t>
   </si>
   <si>
     <t xml:space="preserve">2.62274098396301</t>
   </si>
   <si>
-    <t xml:space="preserve">2.62666082382202</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.72075080871582</t>
+    <t xml:space="preserve">2.6266610622406</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.72075057029724</t>
   </si>
   <si>
     <t xml:space="preserve">2.92069053649902</t>
   </si>
   <si>
-    <t xml:space="preserve">3.30880880355835</t>
+    <t xml:space="preserve">3.30880904197693</t>
   </si>
   <si>
     <t xml:space="preserve">3.44994306564331</t>
   </si>
   <si>
-    <t xml:space="preserve">3.43426179885864</t>
+    <t xml:space="preserve">3.43426156044006</t>
   </si>
   <si>
     <t xml:space="preserve">3.50703978538513</t>
@@ -1934,10 +1934,10 @@
     <t xml:space="preserve">3.1402633190155</t>
   </si>
   <si>
-    <t xml:space="preserve">3.21444296836853</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.24741172790527</t>
+    <t xml:space="preserve">3.21444320678711</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.24741148948669</t>
   </si>
   <si>
     <t xml:space="preserve">3.19383764266968</t>
@@ -1946,7 +1946,7 @@
     <t xml:space="preserve">3.22680616378784</t>
   </si>
   <si>
-    <t xml:space="preserve">3.2721381187439</t>
+    <t xml:space="preserve">3.27213788032532</t>
   </si>
   <si>
     <t xml:space="preserve">3.2185640335083</t>
@@ -1955,7 +1955,7 @@
     <t xml:space="preserve">3.11141610145569</t>
   </si>
   <si>
-    <t xml:space="preserve">3.06196284294128</t>
+    <t xml:space="preserve">3.06196308135986</t>
   </si>
   <si>
     <t xml:space="preserve">3.08256840705872</t>
@@ -1964,13 +1964,13 @@
     <t xml:space="preserve">3.09081077575684</t>
   </si>
   <si>
-    <t xml:space="preserve">3.11965847015381</t>
+    <t xml:space="preserve">3.11965823173523</t>
   </si>
   <si>
     <t xml:space="preserve">3.08668947219849</t>
   </si>
   <si>
-    <t xml:space="preserve">3.05784225463867</t>
+    <t xml:space="preserve">3.05784201622009</t>
   </si>
   <si>
     <t xml:space="preserve">3.04135751724243</t>
@@ -1979,7 +1979,7 @@
     <t xml:space="preserve">3.00014686584473</t>
   </si>
   <si>
-    <t xml:space="preserve">2.94245147705078</t>
+    <t xml:space="preserve">2.94245171546936</t>
   </si>
   <si>
     <t xml:space="preserve">2.91360425949097</t>
@@ -1994,10 +1994,10 @@
     <t xml:space="preserve">2.90124106407166</t>
   </si>
   <si>
-    <t xml:space="preserve">2.90536212921143</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.86827254295349</t>
+    <t xml:space="preserve">2.90536189079285</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.86827230453491</t>
   </si>
   <si>
     <t xml:space="preserve">2.78997159004211</t>
@@ -2006,19 +2006,19 @@
     <t xml:space="preserve">2.92184615135193</t>
   </si>
   <si>
-    <t xml:space="preserve">2.87651419639587</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.89299869537354</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.80233526229858</t>
+    <t xml:space="preserve">2.87651443481445</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.89299893379211</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.80233502388</t>
   </si>
   <si>
     <t xml:space="preserve">2.76112389564514</t>
   </si>
   <si>
-    <t xml:space="preserve">2.74463987350464</t>
+    <t xml:space="preserve">2.74463963508606</t>
   </si>
   <si>
     <t xml:space="preserve">2.7528817653656</t>
@@ -2033,40 +2033,40 @@
     <t xml:space="preserve">2.82706141471863</t>
   </si>
   <si>
-    <t xml:space="preserve">2.87239336967468</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.86003017425537</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.81469798088074</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.81057691574097</t>
+    <t xml:space="preserve">2.8723931312561</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.86002993583679</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.81469821929932</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.81057715415955</t>
   </si>
   <si>
     <t xml:space="preserve">2.76524519920349</t>
   </si>
   <si>
-    <t xml:space="preserve">2.79409289360046</t>
+    <t xml:space="preserve">2.79409265518188</t>
   </si>
   <si>
     <t xml:space="preserve">2.78172969818115</t>
   </si>
   <si>
-    <t xml:space="preserve">2.78585076332092</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.70342898368835</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.70755004882812</t>
+    <t xml:space="preserve">2.78585052490234</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.70342922210693</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.7075502872467</t>
   </si>
   <si>
     <t xml:space="preserve">2.75700306892395</t>
   </si>
   <si>
-    <t xml:space="preserve">2.77348732948303</t>
+    <t xml:space="preserve">2.77348756790161</t>
   </si>
   <si>
     <t xml:space="preserve">2.74876093864441</t>
@@ -2081,7 +2081,7 @@
     <t xml:space="preserve">2.77760815620422</t>
   </si>
   <si>
-    <t xml:space="preserve">2.88475632667542</t>
+    <t xml:space="preserve">2.88475656509399</t>
   </si>
   <si>
     <t xml:space="preserve">2.64573383331299</t>
@@ -2093,25 +2093,25 @@
     <t xml:space="preserve">2.66221809387207</t>
   </si>
   <si>
-    <t xml:space="preserve">2.60864424705505</t>
+    <t xml:space="preserve">2.60864400863647</t>
   </si>
   <si>
     <t xml:space="preserve">2.6333703994751</t>
   </si>
   <si>
-    <t xml:space="preserve">2.62100720405579</t>
+    <t xml:space="preserve">2.62100744247437</t>
   </si>
   <si>
     <t xml:space="preserve">2.62512826919556</t>
   </si>
   <si>
-    <t xml:space="preserve">2.59215974807739</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.60452342033386</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.62924933433533</t>
+    <t xml:space="preserve">2.59215998649597</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.60452318191528</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.62924957275391</t>
   </si>
   <si>
     <t xml:space="preserve">2.64161276817322</t>
@@ -2120,13 +2120,13 @@
     <t xml:space="preserve">2.61276531219482</t>
   </si>
   <si>
-    <t xml:space="preserve">2.58391761779785</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.59628105163574</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.51798033714294</t>
+    <t xml:space="preserve">2.58391785621643</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.59628081321716</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.51798057556152</t>
   </si>
   <si>
     <t xml:space="preserve">2.49737477302551</t>
@@ -2138,7 +2138,7 @@
     <t xml:space="preserve">2.51385927200317</t>
   </si>
   <si>
-    <t xml:space="preserve">2.48913288116455</t>
+    <t xml:space="preserve">2.48913264274597</t>
   </si>
   <si>
     <t xml:space="preserve">2.50561714172363</t>
@@ -2147,10 +2147,10 @@
     <t xml:space="preserve">2.46852707862854</t>
   </si>
   <si>
-    <t xml:space="preserve">2.5097382068634</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.40671110153198</t>
+    <t xml:space="preserve">2.50973844528198</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.40671133995056</t>
   </si>
   <si>
     <t xml:space="preserve">2.42319560050964</t>
@@ -2165,28 +2165,28 @@
     <t xml:space="preserve">2.47676968574524</t>
   </si>
   <si>
-    <t xml:space="preserve">2.69518661499023</t>
+    <t xml:space="preserve">2.69518685340881</t>
   </si>
   <si>
     <t xml:space="preserve">2.74051880836487</t>
   </si>
   <si>
-    <t xml:space="preserve">2.86415123939514</t>
+    <t xml:space="preserve">2.86415100097656</t>
   </si>
   <si>
     <t xml:space="preserve">2.88887739181519</t>
   </si>
   <si>
-    <t xml:space="preserve">2.89711999893188</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.84766674041748</t>
+    <t xml:space="preserve">2.89711976051331</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.84766697883606</t>
   </si>
   <si>
     <t xml:space="preserve">2.84354567527771</t>
   </si>
   <si>
-    <t xml:space="preserve">2.81881904602051</t>
+    <t xml:space="preserve">2.81881928443909</t>
   </si>
   <si>
     <t xml:space="preserve">2.83530378341675</t>
@@ -2243,13 +2243,13 @@
     <t xml:space="preserve">3.020751953125</t>
   </si>
   <si>
-    <t xml:space="preserve">3.07844710350037</t>
+    <t xml:space="preserve">3.07844734191895</t>
   </si>
   <si>
     <t xml:space="preserve">3.04547882080078</t>
   </si>
   <si>
-    <t xml:space="preserve">3.04959988594055</t>
+    <t xml:space="preserve">3.04959964752197</t>
   </si>
   <si>
     <t xml:space="preserve">3.03723645210266</t>
@@ -2267,19 +2267,19 @@
     <t xml:space="preserve">2.96305704116821</t>
   </si>
   <si>
-    <t xml:space="preserve">3.00426769256592</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.07020497322083</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.14850544929504</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.16086912155151</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.16911125183105</t>
+    <t xml:space="preserve">3.0042679309845</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.0702052116394</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.14850568771362</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.16086888313293</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.16911101341248</t>
   </si>
   <si>
     <t xml:space="preserve">3.18559551239014</t>
@@ -2297,7 +2297,7 @@
     <t xml:space="preserve">3.12790036201477</t>
   </si>
   <si>
-    <t xml:space="preserve">3.22268533706665</t>
+    <t xml:space="preserve">3.22268557548523</t>
   </si>
   <si>
     <t xml:space="preserve">3.19795870780945</t>
@@ -2312,16 +2312,16 @@
     <t xml:space="preserve">3.2432906627655</t>
   </si>
   <si>
-    <t xml:space="preserve">3.18971633911133</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.23916959762573</t>
+    <t xml:space="preserve">3.18971657752991</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.23916935920715</t>
   </si>
   <si>
     <t xml:space="preserve">3.27625918388367</t>
   </si>
   <si>
-    <t xml:space="preserve">3.25153255462646</t>
+    <t xml:space="preserve">3.25153279304504</t>
   </si>
   <si>
     <t xml:space="preserve">3.36280179023743</t>
@@ -3441,6 +3441,9 @@
   </si>
   <si>
     <t xml:space="preserve">2.48000001907349</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.48499989509583</t>
   </si>
 </sst>
 </file>
@@ -60540,7 +60543,7 @@
     </row>
     <row r="2184">
       <c r="A2184" s="1" t="n">
-        <v>45503.6495833333</v>
+        <v>45503.2916666667</v>
       </c>
       <c r="B2184" t="n">
         <v>97944</v>
@@ -60561,6 +60564,32 @@
         <v>1142</v>
       </c>
       <c r="H2184" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2185">
+      <c r="A2185" s="1" t="n">
+        <v>45504.6493287037</v>
+      </c>
+      <c r="B2185" t="n">
+        <v>160659</v>
+      </c>
+      <c r="C2185" t="n">
+        <v>2.50500011444092</v>
+      </c>
+      <c r="D2185" t="n">
+        <v>2.47000002861023</v>
+      </c>
+      <c r="E2185" t="n">
+        <v>2.49000000953674</v>
+      </c>
+      <c r="F2185" t="n">
+        <v>2.48499989509583</v>
+      </c>
+      <c r="G2185" t="s">
+        <v>1143</v>
+      </c>
+      <c r="H2185" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/ASC.MI.xlsx
+++ b/data/ASC.MI.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1144" uniqueCount="1144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1145" uniqueCount="1145">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -38,7 +38,7 @@
     <t xml:space="preserve">ticker</t>
   </si>
   <si>
-    <t xml:space="preserve">1.31329572200775</t>
+    <t xml:space="preserve">1.31329584121704</t>
   </si>
   <si>
     <t xml:space="preserve">ASC.MI</t>
@@ -50,7 +50,7 @@
     <t xml:space="preserve">1.30262815952301</t>
   </si>
   <si>
-    <t xml:space="preserve">1.30381369590759</t>
+    <t xml:space="preserve">1.3038135766983</t>
   </si>
   <si>
     <t xml:space="preserve">1.28959012031555</t>
@@ -65,10 +65,10 @@
     <t xml:space="preserve">1.28366351127625</t>
   </si>
   <si>
-    <t xml:space="preserve">1.26588416099548</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.22676980495453</t>
+    <t xml:space="preserve">1.26588439941406</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.22676992416382</t>
   </si>
   <si>
     <t xml:space="preserve">1.23032581806183</t>
@@ -80,16 +80,16 @@
     <t xml:space="preserve">1.21491706371307</t>
   </si>
   <si>
-    <t xml:space="preserve">1.29196071624756</t>
+    <t xml:space="preserve">1.29196059703827</t>
   </si>
   <si>
     <t xml:space="preserve">1.28840482234955</t>
   </si>
   <si>
-    <t xml:space="preserve">1.28129303455353</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.30736923217773</t>
+    <t xml:space="preserve">1.28129291534424</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.30736935138702</t>
   </si>
   <si>
     <t xml:space="preserve">1.31211042404175</t>
@@ -98,61 +98,61 @@
     <t xml:space="preserve">1.297886967659</t>
   </si>
   <si>
-    <t xml:space="preserve">1.23862254619598</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.24454915523529</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.24336385726929</t>
+    <t xml:space="preserve">1.23862278461456</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.244549036026</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.24336397647858</t>
   </si>
   <si>
     <t xml:space="preserve">1.22439932823181</t>
   </si>
   <si>
-    <t xml:space="preserve">1.24099349975586</t>
+    <t xml:space="preserve">1.24099338054657</t>
   </si>
   <si>
     <t xml:space="preserve">1.26469910144806</t>
   </si>
   <si>
-    <t xml:space="preserve">1.26232850551605</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.26825487613678</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.27062559127808</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.32514846324921</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.32159268856049</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.32396340370178</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.31685149669647</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.31922221183777</t>
+    <t xml:space="preserve">1.26232862472534</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.26825511455536</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.27062547206879</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.32514870166779</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.3215925693512</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.32396328449249</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.31685161590576</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.31922209262848</t>
   </si>
   <si>
     <t xml:space="preserve">1.30618405342102</t>
   </si>
   <si>
-    <t xml:space="preserve">1.31803691387177</t>
+    <t xml:space="preserve">1.31803667545319</t>
   </si>
   <si>
     <t xml:space="preserve">1.33581614494324</t>
   </si>
   <si>
-    <t xml:space="preserve">1.34411287307739</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.34648394584656</t>
+    <t xml:space="preserve">1.34411311149597</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.34648382663727</t>
   </si>
   <si>
     <t xml:space="preserve">1.36070716381073</t>
@@ -161,7 +161,7 @@
     <t xml:space="preserve">1.35833668708801</t>
   </si>
   <si>
-    <t xml:space="preserve">1.34766900539398</t>
+    <t xml:space="preserve">1.3476687669754</t>
   </si>
   <si>
     <t xml:space="preserve">1.34292781352997</t>
@@ -170,7 +170,7 @@
     <t xml:space="preserve">1.36189258098602</t>
   </si>
   <si>
-    <t xml:space="preserve">1.34055733680725</t>
+    <t xml:space="preserve">1.34055745601654</t>
   </si>
   <si>
     <t xml:space="preserve">1.35596597194672</t>
@@ -179,22 +179,22 @@
     <t xml:space="preserve">1.35952174663544</t>
   </si>
   <si>
-    <t xml:space="preserve">1.36307775974274</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.34885406494141</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.36426293849945</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.38796877861023</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.38085699081421</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.38322746753693</t>
+    <t xml:space="preserve">1.36307752132416</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.34885430335999</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.36426305770874</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.38796865940094</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.38085687160492</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.38322770595551</t>
   </si>
   <si>
     <t xml:space="preserve">1.38678336143494</t>
@@ -203,55 +203,55 @@
     <t xml:space="preserve">1.39152455329895</t>
   </si>
   <si>
-    <t xml:space="preserve">1.39863610267639</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.37848627567291</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.37967157363892</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.3820424079895</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.4021919965744</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.41048920154572</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.41760075092316</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.41523003578186</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.4045627117157</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.39982151985168</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.43281102180481</t>
+    <t xml:space="preserve">1.39863622188568</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.37848663330078</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.37967169284821</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.38204228878021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.40219235420227</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.410489320755</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.41760087013245</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.41523027420044</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.40456259250641</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.39982175827026</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.4328111410141</t>
   </si>
   <si>
     <t xml:space="preserve">1.4302796125412</t>
   </si>
   <si>
-    <t xml:space="preserve">1.43407690525055</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.44926571846008</t>
+    <t xml:space="preserve">1.43407678604126</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.44926559925079</t>
   </si>
   <si>
     <t xml:space="preserve">1.46572017669678</t>
   </si>
   <si>
-    <t xml:space="preserve">1.46192264556885</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.47584617137909</t>
+    <t xml:space="preserve">1.46192312240601</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.4758460521698</t>
   </si>
   <si>
     <t xml:space="preserve">1.48344051837921</t>
@@ -263,118 +263,118 @@
     <t xml:space="preserve">1.48976922035217</t>
   </si>
   <si>
-    <t xml:space="preserve">1.49483215808868</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.50242650508881</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.53153848648071</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.52900683879852</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.54419553279877</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.55938446521759</t>
+    <t xml:space="preserve">1.49483227729797</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.5024266242981</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.53153860569</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.52900695800781</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.54419565200806</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.5593843460083</t>
   </si>
   <si>
     <t xml:space="preserve">1.58343362808228</t>
   </si>
   <si>
-    <t xml:space="preserve">1.5454615354538</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.55685317516327</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.53913259506226</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.58216774463654</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.65178298950195</t>
+    <t xml:space="preserve">1.54546129703522</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.55685305595398</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.53913283348083</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.58216786384583</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.65178322792053</t>
   </si>
   <si>
     <t xml:space="preserve">1.65811169147491</t>
   </si>
   <si>
-    <t xml:space="preserve">1.64039182662964</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.56571304798126</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.55052447319031</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.59862232208252</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.6441890001297</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.58849656581879</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.56318175792694</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.60495090484619</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.63912606239319</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.70874094963074</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.69481790065765</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.63785994052887</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.69355237483978</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.70494413375854</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.706209897995</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.76316797733307</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.76823055744171</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.77076208591461</t>
+    <t xml:space="preserve">1.64039158821106</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.56571328639984</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.55052435398102</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.59862220287323</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.64418876171112</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.5884964466095</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.56318187713623</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.60495102405548</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.63912582397461</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.70874118804932</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.69481801986694</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.63786017894745</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.69355261325836</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.70494389533997</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.70620977878571</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.7631676197052</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.76823079586029</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.7707622051239</t>
   </si>
   <si>
     <t xml:space="preserve">1.73532176017761</t>
   </si>
   <si>
-    <t xml:space="preserve">1.73405587673187</t>
+    <t xml:space="preserve">1.73405611515045</t>
   </si>
   <si>
     <t xml:space="preserve">1.77202785015106</t>
   </si>
   <si>
-    <t xml:space="preserve">1.78468489646912</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.75051045417786</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.74671316146851</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.75304174423218</t>
+    <t xml:space="preserve">1.78468525409698</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.75051069259644</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.74671292304993</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.75304186344147</t>
   </si>
   <si>
     <t xml:space="preserve">1.76443338394165</t>
@@ -386,79 +386,79 @@
     <t xml:space="preserve">1.84164345264435</t>
   </si>
   <si>
-    <t xml:space="preserve">1.80367159843445</t>
+    <t xml:space="preserve">1.803671002388</t>
   </si>
   <si>
     <t xml:space="preserve">1.83278286457062</t>
   </si>
   <si>
-    <t xml:space="preserve">1.82012593746185</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.79734265804291</t>
+    <t xml:space="preserve">1.82012569904327</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.79734253883362</t>
   </si>
   <si>
     <t xml:space="preserve">1.79607701301575</t>
   </si>
   <si>
-    <t xml:space="preserve">1.79354548454285</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.81632852554321</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.82265734672546</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.80999982357025</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.82518887519836</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.81126570701599</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.70241236686707</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.71380400657654</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.7897481918335</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.74038434028625</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.65558016300201</t>
+    <t xml:space="preserve">1.79354536533356</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.8163286447525</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.82265722751617</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.80999994277954</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.82518875598907</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.8112655878067</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.70241248607635</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.71380388736725</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.78974831104279</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.74038445949554</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.6555802822113</t>
   </si>
   <si>
     <t xml:space="preserve">1.67583215236664</t>
   </si>
   <si>
-    <t xml:space="preserve">1.64798617362976</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.6745662689209</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.66064357757568</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.68722343444824</t>
+    <t xml:space="preserve">1.64798605442047</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.67456638813019</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.66064321994781</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.68722367286682</t>
   </si>
   <si>
     <t xml:space="preserve">1.69861531257629</t>
   </si>
   <si>
-    <t xml:space="preserve">1.66444075107574</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.6770977973938</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.65684592723846</t>
+    <t xml:space="preserve">1.66444039344788</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.67709803581238</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.65684604644775</t>
   </si>
   <si>
     <t xml:space="preserve">1.65937745571136</t>
@@ -467,34 +467,34 @@
     <t xml:space="preserve">1.66190874576569</t>
   </si>
   <si>
-    <t xml:space="preserve">1.6846923828125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.69228649139404</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.69608402252197</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.7011467218399</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.66317474842072</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.68975520133972</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.68595814704895</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.67836332321167</t>
+    <t xml:space="preserve">1.68469214439392</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.69228661060333</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.69608390331268</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.70114660263062</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.66317451000214</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.68975508213043</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.68595802783966</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.67836344242096</t>
   </si>
   <si>
     <t xml:space="preserve">1.6340628862381</t>
   </si>
   <si>
-    <t xml:space="preserve">1.57710480690002</t>
+    <t xml:space="preserve">1.57710468769073</t>
   </si>
   <si>
     <t xml:space="preserve">1.53406977653503</t>
@@ -503,10 +503,10 @@
     <t xml:space="preserve">1.53533565998077</t>
   </si>
   <si>
-    <t xml:space="preserve">1.540398478508</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.52267813682556</t>
+    <t xml:space="preserve">1.54039835929871</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.52267825603485</t>
   </si>
   <si>
     <t xml:space="preserve">1.60115373134613</t>
@@ -515,19 +515,19 @@
     <t xml:space="preserve">1.6315313577652</t>
   </si>
   <si>
-    <t xml:space="preserve">1.6074823141098</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.57583892345428</t>
+    <t xml:space="preserve">1.60748267173767</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.57583916187286</t>
   </si>
   <si>
     <t xml:space="preserve">1.53786718845367</t>
   </si>
   <si>
-    <t xml:space="preserve">1.55558717250824</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.58723068237305</t>
+    <t xml:space="preserve">1.55558729171753</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.58723056316376</t>
   </si>
   <si>
     <t xml:space="preserve">1.61381101608276</t>
@@ -536,19 +536,19 @@
     <t xml:space="preserve">1.6289998292923</t>
   </si>
   <si>
-    <t xml:space="preserve">1.62393701076508</t>
+    <t xml:space="preserve">1.6239367723465</t>
   </si>
   <si>
     <t xml:space="preserve">1.64545440673828</t>
   </si>
   <si>
-    <t xml:space="preserve">1.636594414711</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.63026547431946</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.68089509010315</t>
+    <t xml:space="preserve">1.63659429550171</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.63026559352875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.68089497089386</t>
   </si>
   <si>
     <t xml:space="preserve">1.71000695228577</t>
@@ -557,16 +557,16 @@
     <t xml:space="preserve">1.69988107681274</t>
   </si>
   <si>
-    <t xml:space="preserve">1.72139835357666</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.71760153770447</t>
+    <t xml:space="preserve">1.72139859199524</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.71760129928589</t>
   </si>
   <si>
     <t xml:space="preserve">1.72393000125885</t>
   </si>
   <si>
-    <t xml:space="preserve">1.7365870475769</t>
+    <t xml:space="preserve">1.73658716678619</t>
   </si>
   <si>
     <t xml:space="preserve">1.71506989002228</t>
@@ -581,40 +581,40 @@
     <t xml:space="preserve">1.75177609920502</t>
   </si>
   <si>
-    <t xml:space="preserve">1.76190197467804</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.75937068462372</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.73025870323181</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.81253147125244</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.80493688583374</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.78848230838776</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.77709090709686</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.82139146327972</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.8277200460434</t>
+    <t xml:space="preserve">1.76190209388733</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.75937032699585</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.73025858402252</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.81253182888031</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.80493712425232</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.78848218917847</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.77709078788757</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.82139134407043</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.82772028446198</t>
   </si>
   <si>
     <t xml:space="preserve">1.7948112487793</t>
   </si>
   <si>
-    <t xml:space="preserve">1.82898604869843</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.84037756919861</t>
+    <t xml:space="preserve">1.82898569107056</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.84037744998932</t>
   </si>
   <si>
     <t xml:space="preserve">1.8137971162796</t>
@@ -623,133 +623,133 @@
     <t xml:space="preserve">1.86695802211761</t>
   </si>
   <si>
-    <t xml:space="preserve">1.86062920093536</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.88594424724579</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.91758728027344</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.93404173851013</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.95049619674683</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.9593563079834</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.95555925369263</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.99732840061188</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.9821400642395</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.03656625747681</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.06314706802368</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.08339834213257</t>
+    <t xml:space="preserve">1.86062932014465</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.8859441280365</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.91758716106415</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.93404197692871</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.95049643516541</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.95935654640198</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.95555937290192</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.99732863903046</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.98213982582092</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.03656649589539</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.0631468296051</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.08339858055115</t>
   </si>
   <si>
     <t xml:space="preserve">2.10238456726074</t>
   </si>
   <si>
-    <t xml:space="preserve">2.06947565078735</t>
+    <t xml:space="preserve">2.0694751739502</t>
   </si>
   <si>
     <t xml:space="preserve">2.0720067024231</t>
   </si>
   <si>
-    <t xml:space="preserve">2.11377596855164</t>
+    <t xml:space="preserve">2.11377573013306</t>
   </si>
   <si>
     <t xml:space="preserve">2.10871338844299</t>
   </si>
   <si>
-    <t xml:space="preserve">2.12516760826111</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.16440558433533</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.15174841880798</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.15681099891663</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.19604897499084</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.20490908622742</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.21883201599121</t>
+    <t xml:space="preserve">2.12516784667969</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.16440534591675</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.1517481803894</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.15681123733521</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.19604873657227</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.20490884780884</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.21883225440979</t>
   </si>
   <si>
     <t xml:space="preserve">2.22769212722778</t>
   </si>
   <si>
-    <t xml:space="preserve">2.23148941993713</t>
+    <t xml:space="preserve">2.23148918151855</t>
   </si>
   <si>
     <t xml:space="preserve">2.21503472328186</t>
   </si>
   <si>
-    <t xml:space="preserve">2.24034953117371</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.23275518417358</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.22895789146423</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.21376919746399</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.22516059875488</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.27452445030212</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.24288058280945</t>
+    <t xml:space="preserve">2.24034976959229</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.232754945755</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.22895812988281</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.21376895904541</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.22516083717346</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.27452421188354</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.24288082122803</t>
   </si>
   <si>
     <t xml:space="preserve">2.23908376693726</t>
   </si>
   <si>
-    <t xml:space="preserve">2.27832174301147</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.26946115493774</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.27325868606567</t>
+    <t xml:space="preserve">2.2783215045929</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.26946139335632</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.27325844764709</t>
   </si>
   <si>
     <t xml:space="preserve">2.29224443435669</t>
   </si>
   <si>
-    <t xml:space="preserve">2.34160804748535</t>
+    <t xml:space="preserve">2.34160852432251</t>
   </si>
   <si>
     <t xml:space="preserve">2.34920263290405</t>
   </si>
   <si>
-    <t xml:space="preserve">2.39350366592407</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.4227409362793</t>
+    <t xml:space="preserve">2.39350295066833</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.42274117469788</t>
   </si>
   <si>
     <t xml:space="preserve">2.40945148468018</t>
@@ -758,46 +758,46 @@
     <t xml:space="preserve">2.39616131782532</t>
   </si>
   <si>
-    <t xml:space="preserve">2.37755560874939</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.3164222240448</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.31243515014648</t>
+    <t xml:space="preserve">2.37755584716797</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.31642270088196</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.31243538856506</t>
   </si>
   <si>
     <t xml:space="preserve">2.35230493545532</t>
   </si>
   <si>
-    <t xml:space="preserve">2.31376457214355</t>
+    <t xml:space="preserve">2.3137640953064</t>
   </si>
   <si>
     <t xml:space="preserve">2.30047416687012</t>
   </si>
   <si>
-    <t xml:space="preserve">2.36559462547302</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.38154268264771</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.40014863014221</t>
+    <t xml:space="preserve">2.3655948638916</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.38154292106628</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.40014839172363</t>
   </si>
   <si>
     <t xml:space="preserve">2.41476726531982</t>
   </si>
   <si>
-    <t xml:space="preserve">2.43204426765442</t>
+    <t xml:space="preserve">2.43204402923584</t>
   </si>
   <si>
     <t xml:space="preserve">2.41875433921814</t>
   </si>
   <si>
-    <t xml:space="preserve">2.3629367351532</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.40147757530212</t>
+    <t xml:space="preserve">2.36293649673462</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.40147733688354</t>
   </si>
   <si>
     <t xml:space="preserve">2.40812253952026</t>
@@ -806,16 +806,16 @@
     <t xml:space="preserve">2.4253990650177</t>
   </si>
   <si>
-    <t xml:space="preserve">2.43071508407593</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.40413570404053</t>
+    <t xml:space="preserve">2.43071484565735</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.40413546562195</t>
   </si>
   <si>
     <t xml:space="preserve">2.392174243927</t>
   </si>
   <si>
-    <t xml:space="preserve">2.412109375</t>
+    <t xml:space="preserve">2.41210913658142</t>
   </si>
   <si>
     <t xml:space="preserve">2.41343832015991</t>
@@ -824,7 +824,10 @@
     <t xml:space="preserve">2.40679335594177</t>
   </si>
   <si>
-    <t xml:space="preserve">2.47058439254761</t>
+    <t xml:space="preserve">2.39350318908691</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.47058486938477</t>
   </si>
   <si>
     <t xml:space="preserve">2.38951635360718</t>
@@ -833,16 +836,16 @@
     <t xml:space="preserve">2.37489748001099</t>
   </si>
   <si>
-    <t xml:space="preserve">2.35762071609497</t>
+    <t xml:space="preserve">2.35762095451355</t>
   </si>
   <si>
     <t xml:space="preserve">2.35894966125488</t>
   </si>
   <si>
-    <t xml:space="preserve">2.31509327888489</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.3057906627655</t>
+    <t xml:space="preserve">2.31509304046631</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.30579018592834</t>
   </si>
   <si>
     <t xml:space="preserve">2.33104109764099</t>
@@ -854,31 +857,31 @@
     <t xml:space="preserve">2.31908011436462</t>
   </si>
   <si>
-    <t xml:space="preserve">2.32306742668152</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.32838344573975</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.30446124076843</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.26592040061951</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.25661754608154</t>
+    <t xml:space="preserve">2.32306718826294</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.32838320732117</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.30446147918701</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.26592063903809</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.2566180229187</t>
   </si>
   <si>
     <t xml:space="preserve">2.27921080589294</t>
   </si>
   <si>
-    <t xml:space="preserve">2.29250049591064</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.30180358886719</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.38552951812744</t>
+    <t xml:space="preserve">2.29250073432922</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.30180335044861</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.38552927970886</t>
   </si>
   <si>
     <t xml:space="preserve">2.38021373748779</t>
@@ -887,34 +890,34 @@
     <t xml:space="preserve">2.39084529876709</t>
   </si>
   <si>
-    <t xml:space="preserve">2.37622666358948</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.35629200935364</t>
+    <t xml:space="preserve">2.37622690200806</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.35629177093506</t>
   </si>
   <si>
     <t xml:space="preserve">2.33901500701904</t>
   </si>
   <si>
-    <t xml:space="preserve">2.34034395217896</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.32572531700134</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.35097575187683</t>
+    <t xml:space="preserve">2.34034419059753</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.32572507858276</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.35097599029541</t>
   </si>
   <si>
     <t xml:space="preserve">2.30977749824524</t>
   </si>
   <si>
-    <t xml:space="preserve">2.35496282577515</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.43470191955566</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.39881920814514</t>
+    <t xml:space="preserve">2.35496258735657</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.43470215797424</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.39881944656372</t>
   </si>
   <si>
     <t xml:space="preserve">2.42141222953796</t>
@@ -929,91 +932,91 @@
     <t xml:space="preserve">2.33502817153931</t>
   </si>
   <si>
-    <t xml:space="preserve">2.32971262931824</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.39483261108398</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.37223935127258</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.39749026298523</t>
+    <t xml:space="preserve">2.3297119140625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.39483237266541</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.37223958969116</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.39749050140381</t>
   </si>
   <si>
     <t xml:space="preserve">2.36825275421143</t>
   </si>
   <si>
-    <t xml:space="preserve">2.41742515563965</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.43603110313416</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.47191381454468</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.48254537582397</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.5343759059906</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.51311230659485</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.51178359985352</t>
+    <t xml:space="preserve">2.41742539405823</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.43603086471558</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.47191333770752</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.48254561424255</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.53437614440918</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.51311182975769</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.51178336143494</t>
   </si>
   <si>
     <t xml:space="preserve">2.54367876052856</t>
   </si>
   <si>
-    <t xml:space="preserve">2.45197868347168</t>
+    <t xml:space="preserve">2.45197892189026</t>
   </si>
   <si>
     <t xml:space="preserve">2.45729470252991</t>
   </si>
   <si>
-    <t xml:space="preserve">2.40546417236328</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.42938590049744</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.47324228286743</t>
+    <t xml:space="preserve">2.40546441078186</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.42938613891602</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.47324252128601</t>
   </si>
   <si>
     <t xml:space="preserve">2.4586238861084</t>
   </si>
   <si>
-    <t xml:space="preserve">2.44134712219238</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.42672824859619</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.44932079315186</t>
+    <t xml:space="preserve">2.4413468837738</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.42672801017761</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.44932103157043</t>
   </si>
   <si>
     <t xml:space="preserve">2.3788845539093</t>
   </si>
   <si>
-    <t xml:space="preserve">2.42872142791748</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.44533371925354</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.43868899345398</t>
+    <t xml:space="preserve">2.42872166633606</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.44533395767212</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.43868923187256</t>
   </si>
   <si>
     <t xml:space="preserve">2.44201135635376</t>
   </si>
   <si>
-    <t xml:space="preserve">2.38220691680908</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.19282674789429</t>
+    <t xml:space="preserve">2.38220739364624</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.19282650947571</t>
   </si>
   <si>
     <t xml:space="preserve">2.09979748725891</t>
@@ -1022,22 +1025,22 @@
     <t xml:space="preserve">2.15960192680359</t>
   </si>
   <si>
-    <t xml:space="preserve">2.12969970703125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.09315276145935</t>
+    <t xml:space="preserve">2.12969946861267</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.09315252304077</t>
   </si>
   <si>
     <t xml:space="preserve">2.14631223678589</t>
   </si>
   <si>
-    <t xml:space="preserve">2.13634443283081</t>
+    <t xml:space="preserve">2.13634467124939</t>
   </si>
   <si>
     <t xml:space="preserve">2.17289161682129</t>
   </si>
   <si>
-    <t xml:space="preserve">2.17953658103943</t>
+    <t xml:space="preserve">2.17953681945801</t>
   </si>
   <si>
     <t xml:space="preserve">2.12305474281311</t>
@@ -1049,40 +1052,40 @@
     <t xml:space="preserve">2.08318519592285</t>
   </si>
   <si>
-    <t xml:space="preserve">2.07321763038635</t>
+    <t xml:space="preserve">2.07321810722351</t>
   </si>
   <si>
     <t xml:space="preserve">2.03334832191467</t>
   </si>
   <si>
-    <t xml:space="preserve">2.06989550590515</t>
+    <t xml:space="preserve">2.06989526748657</t>
   </si>
   <si>
     <t xml:space="preserve">2.07986307144165</t>
   </si>
   <si>
-    <t xml:space="preserve">2.10312008857727</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.14298939704895</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.09647536277771</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.12637758255005</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.13302230834961</t>
+    <t xml:space="preserve">2.10311985015869</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.14298987388611</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.09647512435913</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.12637734413147</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.13302206993103</t>
   </si>
   <si>
     <t xml:space="preserve">2.18285918235779</t>
   </si>
   <si>
-    <t xml:space="preserve">2.16292428970337</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.11640954017639</t>
+    <t xml:space="preserve">2.16292452812195</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.11640977859497</t>
   </si>
   <si>
     <t xml:space="preserve">2.11973237991333</t>
@@ -1091,91 +1094,91 @@
     <t xml:space="preserve">2.15627932548523</t>
   </si>
   <si>
-    <t xml:space="preserve">2.16624712944031</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.19947147369385</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.17621445655823</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.18618130683899</t>
+    <t xml:space="preserve">2.16624689102173</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.19947123527527</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.17621421813965</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.18618154525757</t>
   </si>
   <si>
     <t xml:space="preserve">2.20943903923035</t>
   </si>
   <si>
-    <t xml:space="preserve">2.21276140213013</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.25927591323853</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.3456597328186</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.32904744148254</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.34655904769897</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.44279003143311</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.39837622642517</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.36876654624939</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.41318082809448</t>
+    <t xml:space="preserve">2.21276116371155</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.25927567481995</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.34565997123718</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.3290479183197</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.34655928611755</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.44279050827026</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.39837574958801</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.36876630783081</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.4131805896759</t>
   </si>
   <si>
     <t xml:space="preserve">2.3539617061615</t>
   </si>
   <si>
-    <t xml:space="preserve">2.31694984436035</t>
+    <t xml:space="preserve">2.31694960594177</t>
   </si>
   <si>
     <t xml:space="preserve">2.30584597587585</t>
   </si>
   <si>
-    <t xml:space="preserve">2.29844355583191</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.29104113578796</t>
+    <t xml:space="preserve">2.29844379425049</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.29104089736938</t>
   </si>
   <si>
     <t xml:space="preserve">2.27993750572205</t>
   </si>
   <si>
-    <t xml:space="preserve">2.26143145561218</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.22441959381104</t>
+    <t xml:space="preserve">2.26143169403076</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.22441983222961</t>
   </si>
   <si>
     <t xml:space="preserve">2.12818837165833</t>
   </si>
   <si>
-    <t xml:space="preserve">2.18370676040649</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.23182249069214</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.22071838378906</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.20591354370117</t>
+    <t xml:space="preserve">2.18370652198792</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.2318217754364</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.22071886062622</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.20591402053833</t>
   </si>
   <si>
     <t xml:space="preserve">2.18000531196594</t>
   </si>
   <si>
-    <t xml:space="preserve">2.25773024559021</t>
+    <t xml:space="preserve">2.25773048400879</t>
   </si>
   <si>
     <t xml:space="preserve">2.26513290405273</t>
@@ -1184,16 +1187,16 @@
     <t xml:space="preserve">2.2022123336792</t>
   </si>
   <si>
-    <t xml:space="preserve">2.21331572532654</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.21701717376709</t>
+    <t xml:space="preserve">2.21331596374512</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.21701693534851</t>
   </si>
   <si>
     <t xml:space="preserve">2.16149950027466</t>
   </si>
   <si>
-    <t xml:space="preserve">2.26883387565613</t>
+    <t xml:space="preserve">2.26883411407471</t>
   </si>
   <si>
     <t xml:space="preserve">2.24662685394287</t>
@@ -1202,13 +1205,13 @@
     <t xml:space="preserve">2.18740749359131</t>
   </si>
   <si>
-    <t xml:space="preserve">2.1689019203186</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.15779829025269</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.13929200172424</t>
+    <t xml:space="preserve">2.16890144348145</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.15779805183411</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.13929224014282</t>
   </si>
   <si>
     <t xml:space="preserve">2.13559103012085</t>
@@ -1223,7 +1226,7 @@
     <t xml:space="preserve">2.14669466018677</t>
   </si>
   <si>
-    <t xml:space="preserve">2.11708450317383</t>
+    <t xml:space="preserve">2.11708498001099</t>
   </si>
   <si>
     <t xml:space="preserve">2.10968232154846</t>
@@ -1232,13 +1235,13 @@
     <t xml:space="preserve">2.3243522644043</t>
   </si>
   <si>
-    <t xml:space="preserve">2.33175444602966</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.3724672794342</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.62044763565063</t>
+    <t xml:space="preserve">2.33175420761108</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.37246751785278</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.62044787406921</t>
   </si>
   <si>
     <t xml:space="preserve">2.48350358009338</t>
@@ -1250,70 +1253,67 @@
     <t xml:space="preserve">2.41688203811646</t>
   </si>
   <si>
-    <t xml:space="preserve">2.42058300971985</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.40577840805054</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.36506485939026</t>
+    <t xml:space="preserve">2.42058324813843</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.40577864646912</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.36506509780884</t>
   </si>
   <si>
     <t xml:space="preserve">2.32065081596375</t>
   </si>
   <si>
-    <t xml:space="preserve">2.29474210739136</t>
+    <t xml:space="preserve">2.29474234580994</t>
   </si>
   <si>
     <t xml:space="preserve">2.2392246723175</t>
   </si>
   <si>
-    <t xml:space="preserve">2.30954718589783</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.27623653411865</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.28363871574402</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.30214476585388</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.31324863433838</t>
+    <t xml:space="preserve">2.30954694747925</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.27623629570007</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.2836389541626</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.30214500427246</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.3132483959198</t>
   </si>
   <si>
     <t xml:space="preserve">2.34285807609558</t>
   </si>
   <si>
-    <t xml:space="preserve">2.33915686607361</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.33545565605164</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.34655928611755</t>
+    <t xml:space="preserve">2.33915710449219</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.33545541763306</t>
   </si>
   <si>
     <t xml:space="preserve">2.2429256439209</t>
   </si>
   <si>
-    <t xml:space="preserve">2.17630410194397</t>
+    <t xml:space="preserve">2.17630434036255</t>
   </si>
   <si>
     <t xml:space="preserve">2.19110894203186</t>
   </si>
   <si>
-    <t xml:space="preserve">2.23552322387695</t>
+    <t xml:space="preserve">2.23552346229553</t>
   </si>
   <si>
     <t xml:space="preserve">2.08747553825378</t>
   </si>
   <si>
-    <t xml:space="preserve">2.15039587020874</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.15409684181213</t>
+    <t xml:space="preserve">2.15039563179016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.15409708023071</t>
   </si>
   <si>
     <t xml:space="preserve">2.2540295124054</t>
@@ -1325,10 +1325,10 @@
     <t xml:space="preserve">2.25032782554626</t>
   </si>
   <si>
-    <t xml:space="preserve">2.22812104225159</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.40207719802856</t>
+    <t xml:space="preserve">2.22812056541443</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.40207743644714</t>
   </si>
   <si>
     <t xml:space="preserve">2.43168663978577</t>
@@ -1337,13 +1337,13 @@
     <t xml:space="preserve">2.3835711479187</t>
   </si>
   <si>
-    <t xml:space="preserve">2.35766243934631</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.37616896629333</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.37986969947815</t>
+    <t xml:space="preserve">2.35766291618347</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.37616872787476</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.37986993789673</t>
   </si>
   <si>
     <t xml:space="preserve">2.4242844581604</t>
@@ -1352,13 +1352,13 @@
     <t xml:space="preserve">2.42798542976379</t>
   </si>
   <si>
-    <t xml:space="preserve">2.44649171829224</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.45019268989563</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.50200939178467</t>
+    <t xml:space="preserve">2.44649147987366</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.45019245147705</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.50200963020325</t>
   </si>
   <si>
     <t xml:space="preserve">2.49460697174072</t>
@@ -1367,43 +1367,43 @@
     <t xml:space="preserve">2.49090576171875</t>
   </si>
   <si>
-    <t xml:space="preserve">2.51311302185059</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.49830842018127</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.50571060180664</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.56122851371765</t>
+    <t xml:space="preserve">2.51311278343201</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.49830794334412</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.50571084022522</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.56122875213623</t>
   </si>
   <si>
     <t xml:space="preserve">2.53161907196045</t>
   </si>
   <si>
-    <t xml:space="preserve">2.56863141059875</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.52791786193848</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.53902125358582</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.52051568031311</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.52421641349792</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.54272270202637</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.55382609367371</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.57603335380554</t>
+    <t xml:space="preserve">2.56863117218018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.5279176235199</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.53902149200439</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.52051544189453</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.52421689033508</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.54272246360779</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.55382633209229</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.57603359222412</t>
   </si>
   <si>
     <t xml:space="preserve">2.60194182395935</t>
@@ -1412,7 +1412,7 @@
     <t xml:space="preserve">2.59083819389343</t>
   </si>
   <si>
-    <t xml:space="preserve">2.57973456382751</t>
+    <t xml:space="preserve">2.57973432540894</t>
   </si>
   <si>
     <t xml:space="preserve">2.62785005569458</t>
@@ -1421,13 +1421,13 @@
     <t xml:space="preserve">2.64635610580444</t>
   </si>
   <si>
-    <t xml:space="preserve">2.64265489578247</t>
+    <t xml:space="preserve">2.64265465736389</t>
   </si>
   <si>
     <t xml:space="preserve">2.63895392417908</t>
   </si>
   <si>
-    <t xml:space="preserve">2.65745973587036</t>
+    <t xml:space="preserve">2.65745949745178</t>
   </si>
   <si>
     <t xml:space="preserve">2.67226433753967</t>
@@ -1436,7 +1436,7 @@
     <t xml:space="preserve">2.71297764778137</t>
   </si>
   <si>
-    <t xml:space="preserve">2.72778248786926</t>
+    <t xml:space="preserve">2.72778224945068</t>
   </si>
   <si>
     <t xml:space="preserve">2.70187425613403</t>
@@ -1448,34 +1448,34 @@
     <t xml:space="preserve">2.74258732795715</t>
   </si>
   <si>
-    <t xml:space="preserve">2.75739192962646</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.82401394844055</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.82031226158142</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.84992218017578</t>
+    <t xml:space="preserve">2.75739216804504</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.82401347160339</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.8203125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.84992170333862</t>
   </si>
   <si>
     <t xml:space="preserve">2.83881831169128</t>
   </si>
   <si>
-    <t xml:space="preserve">3.02654075622559</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.74035239219666</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.73643231391907</t>
+    <t xml:space="preserve">3.02654099464417</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.74035263061523</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.73643207550049</t>
   </si>
   <si>
     <t xml:space="preserve">2.68938755989075</t>
   </si>
   <si>
-    <t xml:space="preserve">2.70898962020874</t>
+    <t xml:space="preserve">2.70898938179016</t>
   </si>
   <si>
     <t xml:space="preserve">2.68154668807983</t>
@@ -1493,46 +1493,46 @@
     <t xml:space="preserve">2.82268071174622</t>
   </si>
   <si>
-    <t xml:space="preserve">2.78347682952881</t>
+    <t xml:space="preserve">2.78347659111023</t>
   </si>
   <si>
     <t xml:space="preserve">2.7756359577179</t>
   </si>
   <si>
-    <t xml:space="preserve">2.76779508590698</t>
+    <t xml:space="preserve">2.76779532432556</t>
   </si>
   <si>
     <t xml:space="preserve">2.79131770133972</t>
   </si>
   <si>
-    <t xml:space="preserve">2.78739738464355</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.84620308876038</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.85796427726746</t>
+    <t xml:space="preserve">2.78739714622498</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.84620332717896</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.85796403884888</t>
   </si>
   <si>
     <t xml:space="preserve">2.82660102844238</t>
   </si>
   <si>
-    <t xml:space="preserve">2.83444213867188</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.85012364387512</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.86188459396362</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.87364554405212</t>
+    <t xml:space="preserve">2.8344419002533</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.85012340545654</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.8618848323822</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.8736457824707</t>
   </si>
   <si>
     <t xml:space="preserve">2.99517774581909</t>
   </si>
   <si>
-    <t xml:space="preserve">2.92461085319519</t>
+    <t xml:space="preserve">2.92461061477661</t>
   </si>
   <si>
     <t xml:space="preserve">2.95597386360168</t>
@@ -1544,10 +1544,10 @@
     <t xml:space="preserve">2.94813323020935</t>
   </si>
   <si>
-    <t xml:space="preserve">2.94029259681702</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.9638147354126</t>
+    <t xml:space="preserve">2.94029235839844</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.96381449699402</t>
   </si>
   <si>
     <t xml:space="preserve">2.95989441871643</t>
@@ -1556,31 +1556,31 @@
     <t xml:space="preserve">3.00693893432617</t>
   </si>
   <si>
-    <t xml:space="preserve">3.1049485206604</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.06966519355774</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.03830218315125</t>
+    <t xml:space="preserve">3.10494875907898</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.06966543197632</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.03830194473267</t>
   </si>
   <si>
     <t xml:space="preserve">3.07750606536865</t>
   </si>
   <si>
-    <t xml:space="preserve">3.13631176948547</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.15983462333679</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.18335676193237</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.23824191093445</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.25000309944153</t>
+    <t xml:space="preserve">3.13631200790405</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.15983438491821</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.18335652351379</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.23824214935303</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.25000333786011</t>
   </si>
   <si>
     <t xml:space="preserve">3.25392365455627</t>
@@ -1592,13 +1592,13 @@
     <t xml:space="preserve">3.30096840858459</t>
   </si>
   <si>
-    <t xml:space="preserve">3.33233118057251</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.31272912025452</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.27744603157043</t>
+    <t xml:space="preserve">3.33233141899109</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.3127293586731</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.27744579315186</t>
   </si>
   <si>
     <t xml:space="preserve">3.20687890052795</t>
@@ -1607,22 +1607,22 @@
     <t xml:space="preserve">3.22648072242737</t>
   </si>
   <si>
-    <t xml:space="preserve">3.25784420967102</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.24216246604919</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.19119763374329</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.14023232460022</t>
+    <t xml:space="preserve">3.25784397125244</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.24216270446777</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.19119739532471</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.1402325630188</t>
   </si>
   <si>
     <t xml:space="preserve">3.12847137451172</t>
   </si>
   <si>
-    <t xml:space="preserve">3.11670994758606</t>
+    <t xml:space="preserve">3.11670970916748</t>
   </si>
   <si>
     <t xml:space="preserve">3.05006337165833</t>
@@ -1631,7 +1631,7 @@
     <t xml:space="preserve">3.05398368835449</t>
   </si>
   <si>
-    <t xml:space="preserve">3.21864008903503</t>
+    <t xml:space="preserve">3.21864032745361</t>
   </si>
   <si>
     <t xml:space="preserve">3.21471977233887</t>
@@ -1640,10 +1640,10 @@
     <t xml:space="preserve">3.16375470161438</t>
   </si>
   <si>
-    <t xml:space="preserve">3.14807295799255</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.04222249984741</t>
+    <t xml:space="preserve">3.14807271957397</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.04222273826599</t>
   </si>
   <si>
     <t xml:space="preserve">3.12063026428223</t>
@@ -1652,49 +1652,49 @@
     <t xml:space="preserve">3.12455058097839</t>
   </si>
   <si>
-    <t xml:space="preserve">3.08534693717957</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.08926701545715</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.11278939247131</t>
+    <t xml:space="preserve">3.08534669876099</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.08926725387573</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.11278963088989</t>
   </si>
   <si>
     <t xml:space="preserve">3.10102844238281</t>
   </si>
   <si>
-    <t xml:space="preserve">2.98341679573059</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.88148641586304</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.93637204170227</t>
+    <t xml:space="preserve">2.98341655731201</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.88148665428162</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.93637180328369</t>
   </si>
   <si>
     <t xml:space="preserve">2.97557592391968</t>
   </si>
   <si>
-    <t xml:space="preserve">2.98733687400818</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.97949624061584</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.99909830093384</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.00301885604858</t>
+    <t xml:space="preserve">2.98733735084534</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.97949600219727</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.99909806251526</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.00301861763</t>
   </si>
   <si>
     <t xml:space="preserve">3.05790424346924</t>
   </si>
   <si>
-    <t xml:space="preserve">3.03438186645508</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.06574535369873</t>
+    <t xml:space="preserve">3.0343816280365</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.06574487686157</t>
   </si>
   <si>
     <t xml:space="preserve">3.04614305496216</t>
@@ -1709,7 +1709,7 @@
     <t xml:space="preserve">2.91284966468811</t>
   </si>
   <si>
-    <t xml:space="preserve">2.90108847618103</t>
+    <t xml:space="preserve">2.90108871459961</t>
   </si>
   <si>
     <t xml:space="preserve">2.94421291351318</t>
@@ -1721,7 +1721,7 @@
     <t xml:space="preserve">3.01870012283325</t>
   </si>
   <si>
-    <t xml:space="preserve">3.1519935131073</t>
+    <t xml:space="preserve">3.15199327468872</t>
   </si>
   <si>
     <t xml:space="preserve">3.17551589012146</t>
@@ -1739,25 +1739,25 @@
     <t xml:space="preserve">3.01085925102234</t>
   </si>
   <si>
-    <t xml:space="preserve">2.91676998138428</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.9520537853241</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.99125742912292</t>
+    <t xml:space="preserve">2.91677021980286</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.95205354690552</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.9912576675415</t>
   </si>
   <si>
     <t xml:space="preserve">3.13239145278931</t>
   </si>
   <si>
-    <t xml:space="preserve">3.46562457084656</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.54795289039612</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.48522686958313</t>
+    <t xml:space="preserve">3.46562480926514</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.5479531288147</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.48522639274597</t>
   </si>
   <si>
     <t xml:space="preserve">3.58323645591736</t>
@@ -1766,19 +1766,19 @@
     <t xml:space="preserve">3.52443027496338</t>
   </si>
   <si>
-    <t xml:space="preserve">3.58715653419495</t>
+    <t xml:space="preserve">3.5871570110321</t>
   </si>
   <si>
     <t xml:space="preserve">3.61459970474243</t>
   </si>
   <si>
-    <t xml:space="preserve">3.5165901184082</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.42250037193298</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.39505743980408</t>
+    <t xml:space="preserve">3.51658964157104</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.4225001335144</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.39505767822266</t>
   </si>
   <si>
     <t xml:space="preserve">3.37937593460083</t>
@@ -1790,16 +1790,16 @@
     <t xml:space="preserve">3.48130631446838</t>
   </si>
   <si>
-    <t xml:space="preserve">3.45386385917664</t>
+    <t xml:space="preserve">3.45386338233948</t>
   </si>
   <si>
     <t xml:space="preserve">3.28920745849609</t>
   </si>
   <si>
-    <t xml:space="preserve">3.26176428794861</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.21079897880554</t>
+    <t xml:space="preserve">3.26176404953003</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.21079921722412</t>
   </si>
   <si>
     <t xml:space="preserve">3.08142638206482</t>
@@ -1817,25 +1817,25 @@
     <t xml:space="preserve">2.69722843170166</t>
   </si>
   <si>
-    <t xml:space="preserve">2.13269186019897</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.36399531364441</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.45024394989014</t>
+    <t xml:space="preserve">2.13269209861755</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.36399507522583</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.45024371147156</t>
   </si>
   <si>
     <t xml:space="preserve">2.49336814880371</t>
   </si>
   <si>
-    <t xml:space="preserve">2.50512886047363</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.55217385292053</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.61882019042969</t>
+    <t xml:space="preserve">2.50512933731079</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.55217361450195</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.61882042884827</t>
   </si>
   <si>
     <t xml:space="preserve">2.60313892364502</t>
@@ -1847,13 +1847,13 @@
     <t xml:space="preserve">2.58353710174561</t>
   </si>
   <si>
-    <t xml:space="preserve">2.54433298110962</t>
+    <t xml:space="preserve">2.5443332195282</t>
   </si>
   <si>
     <t xml:space="preserve">2.51689028739929</t>
   </si>
   <si>
-    <t xml:space="preserve">2.63842248916626</t>
+    <t xml:space="preserve">2.63842225074768</t>
   </si>
   <si>
     <t xml:space="preserve">2.4972882270813</t>
@@ -1868,7 +1868,7 @@
     <t xml:space="preserve">2.51296997070312</t>
   </si>
   <si>
-    <t xml:space="preserve">2.53257179260254</t>
+    <t xml:space="preserve">2.53257203102112</t>
   </si>
   <si>
     <t xml:space="preserve">2.54041266441345</t>
@@ -1883,7 +1883,7 @@
     <t xml:space="preserve">2.52473092079163</t>
   </si>
   <si>
-    <t xml:space="preserve">2.57177591323853</t>
+    <t xml:space="preserve">2.57177567481995</t>
   </si>
   <si>
     <t xml:space="preserve">2.58745718002319</t>
@@ -1895,7 +1895,7 @@
     <t xml:space="preserve">2.61097955703735</t>
   </si>
   <si>
-    <t xml:space="preserve">2.65018343925476</t>
+    <t xml:space="preserve">2.65018391609192</t>
   </si>
   <si>
     <t xml:space="preserve">2.62274098396301</t>
@@ -1910,13 +1910,13 @@
     <t xml:space="preserve">2.92069053649902</t>
   </si>
   <si>
-    <t xml:space="preserve">3.30880904197693</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.44994306564331</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.43426156044006</t>
+    <t xml:space="preserve">3.30880880355835</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.44994282722473</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.43426179885864</t>
   </si>
   <si>
     <t xml:space="preserve">3.50703978538513</t>
@@ -1925,34 +1925,34 @@
     <t xml:space="preserve">3.32983303070068</t>
   </si>
   <si>
-    <t xml:space="preserve">3.25565385818481</t>
+    <t xml:space="preserve">3.25565409660339</t>
   </si>
   <si>
     <t xml:space="preserve">3.14438462257385</t>
   </si>
   <si>
-    <t xml:space="preserve">3.1402633190155</t>
+    <t xml:space="preserve">3.14026355743408</t>
   </si>
   <si>
     <t xml:space="preserve">3.21444320678711</t>
   </si>
   <si>
-    <t xml:space="preserve">3.24741148948669</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.19383764266968</t>
+    <t xml:space="preserve">3.24741172790527</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.1938374042511</t>
   </si>
   <si>
     <t xml:space="preserve">3.22680616378784</t>
   </si>
   <si>
-    <t xml:space="preserve">3.27213788032532</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.2185640335083</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.11141610145569</t>
+    <t xml:space="preserve">3.2721381187439</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.21856379508972</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.11141633987427</t>
   </si>
   <si>
     <t xml:space="preserve">3.06196308135986</t>
@@ -1964,7 +1964,7 @@
     <t xml:space="preserve">3.09081077575684</t>
   </si>
   <si>
-    <t xml:space="preserve">3.11965823173523</t>
+    <t xml:space="preserve">3.11965799331665</t>
   </si>
   <si>
     <t xml:space="preserve">3.08668947219849</t>
@@ -1973,7 +1973,7 @@
     <t xml:space="preserve">3.05784201622009</t>
   </si>
   <si>
-    <t xml:space="preserve">3.04135751724243</t>
+    <t xml:space="preserve">3.04135775566101</t>
   </si>
   <si>
     <t xml:space="preserve">3.00014686584473</t>
@@ -1991,10 +1991,10 @@
     <t xml:space="preserve">2.91772508621216</t>
   </si>
   <si>
-    <t xml:space="preserve">2.90124106407166</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.90536189079285</t>
+    <t xml:space="preserve">2.90124082565308</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.90536212921143</t>
   </si>
   <si>
     <t xml:space="preserve">2.86827230453491</t>
@@ -2006,16 +2006,16 @@
     <t xml:space="preserve">2.92184615135193</t>
   </si>
   <si>
-    <t xml:space="preserve">2.87651443481445</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.89299893379211</t>
+    <t xml:space="preserve">2.87651419639587</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.89299869537354</t>
   </si>
   <si>
     <t xml:space="preserve">2.80233502388</t>
   </si>
   <si>
-    <t xml:space="preserve">2.76112389564514</t>
+    <t xml:space="preserve">2.76112413406372</t>
   </si>
   <si>
     <t xml:space="preserve">2.74463963508606</t>
@@ -2027,7 +2027,7 @@
     <t xml:space="preserve">2.7116711139679</t>
   </si>
   <si>
-    <t xml:space="preserve">2.73227667808533</t>
+    <t xml:space="preserve">2.73227643966675</t>
   </si>
   <si>
     <t xml:space="preserve">2.82706141471863</t>
@@ -2036,7 +2036,7 @@
     <t xml:space="preserve">2.8723931312561</t>
   </si>
   <si>
-    <t xml:space="preserve">2.86002993583679</t>
+    <t xml:space="preserve">2.86003017425537</t>
   </si>
   <si>
     <t xml:space="preserve">2.81469821929932</t>
@@ -2048,25 +2048,25 @@
     <t xml:space="preserve">2.76524519920349</t>
   </si>
   <si>
-    <t xml:space="preserve">2.79409265518188</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.78172969818115</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.78585052490234</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.70342922210693</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.7075502872467</t>
+    <t xml:space="preserve">2.79409289360046</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.78172945976257</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.78585076332092</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.70342898368835</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.70755004882812</t>
   </si>
   <si>
     <t xml:space="preserve">2.75700306892395</t>
   </si>
   <si>
-    <t xml:space="preserve">2.77348756790161</t>
+    <t xml:space="preserve">2.77348732948303</t>
   </si>
   <si>
     <t xml:space="preserve">2.74876093864441</t>
@@ -2084,7 +2084,7 @@
     <t xml:space="preserve">2.88475656509399</t>
   </si>
   <si>
-    <t xml:space="preserve">2.64573383331299</t>
+    <t xml:space="preserve">2.64573359489441</t>
   </si>
   <si>
     <t xml:space="preserve">2.64985489845276</t>
@@ -2093,16 +2093,16 @@
     <t xml:space="preserve">2.66221809387207</t>
   </si>
   <si>
-    <t xml:space="preserve">2.60864400863647</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.6333703994751</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.62100744247437</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.62512826919556</t>
+    <t xml:space="preserve">2.60864424705505</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.63337063789368</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.62100720405579</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.62512850761414</t>
   </si>
   <si>
     <t xml:space="preserve">2.59215998649597</t>
@@ -2120,7 +2120,7 @@
     <t xml:space="preserve">2.61276531219482</t>
   </si>
   <si>
-    <t xml:space="preserve">2.58391785621643</t>
+    <t xml:space="preserve">2.58391761779785</t>
   </si>
   <si>
     <t xml:space="preserve">2.59628081321716</t>
@@ -2129,31 +2129,31 @@
     <t xml:space="preserve">2.51798057556152</t>
   </si>
   <si>
-    <t xml:space="preserve">2.49737477302551</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.57155442237854</t>
+    <t xml:space="preserve">2.49737501144409</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.57155418395996</t>
   </si>
   <si>
     <t xml:space="preserve">2.51385927200317</t>
   </si>
   <si>
-    <t xml:space="preserve">2.48913264274597</t>
+    <t xml:space="preserve">2.48913288116455</t>
   </si>
   <si>
     <t xml:space="preserve">2.50561714172363</t>
   </si>
   <si>
-    <t xml:space="preserve">2.46852707862854</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.50973844528198</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.40671133995056</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.42319560050964</t>
+    <t xml:space="preserve">2.46852731704712</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.5097382068634</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.40671110153198</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.42319536209106</t>
   </si>
   <si>
     <t xml:space="preserve">2.45204305648804</t>
@@ -2162,7 +2162,7 @@
     <t xml:space="preserve">2.44792199134827</t>
   </si>
   <si>
-    <t xml:space="preserve">2.47676968574524</t>
+    <t xml:space="preserve">2.47676944732666</t>
   </si>
   <si>
     <t xml:space="preserve">2.69518685340881</t>
@@ -2171,16 +2171,16 @@
     <t xml:space="preserve">2.74051880836487</t>
   </si>
   <si>
-    <t xml:space="preserve">2.86415100097656</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.88887739181519</t>
+    <t xml:space="preserve">2.86415123939514</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.88887763023376</t>
   </si>
   <si>
     <t xml:space="preserve">2.89711976051331</t>
   </si>
   <si>
-    <t xml:space="preserve">2.84766697883606</t>
+    <t xml:space="preserve">2.84766674041748</t>
   </si>
   <si>
     <t xml:space="preserve">2.84354567527771</t>
@@ -2198,10 +2198,10 @@
     <t xml:space="preserve">3.03311538696289</t>
   </si>
   <si>
-    <t xml:space="preserve">3.01663112640381</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.99602580070496</t>
+    <t xml:space="preserve">3.01663136482239</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.99602556228638</t>
   </si>
   <si>
     <t xml:space="preserve">3.02487349510193</t>
@@ -2210,10 +2210,10 @@
     <t xml:space="preserve">3.00838899612427</t>
   </si>
   <si>
-    <t xml:space="preserve">3.05372071266174</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.06608390808105</t>
+    <t xml:space="preserve">3.05372047424316</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.06608414649963</t>
   </si>
   <si>
     <t xml:space="preserve">3.16498994827271</t>
@@ -2234,7 +2234,7 @@
     <t xml:space="preserve">2.98366236686707</t>
   </si>
   <si>
-    <t xml:space="preserve">2.95481467247009</t>
+    <t xml:space="preserve">2.95481491088867</t>
   </si>
   <si>
     <t xml:space="preserve">2.98778343200684</t>
@@ -2246,16 +2246,16 @@
     <t xml:space="preserve">3.07844734191895</t>
   </si>
   <si>
-    <t xml:space="preserve">3.04547882080078</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.04959964752197</t>
+    <t xml:space="preserve">3.0454785823822</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.04959988594055</t>
   </si>
   <si>
     <t xml:space="preserve">3.03723645210266</t>
   </si>
   <si>
-    <t xml:space="preserve">3.0990526676178</t>
+    <t xml:space="preserve">3.09905242919922</t>
   </si>
   <si>
     <t xml:space="preserve">3.09493184089661</t>
@@ -2273,10 +2273,10 @@
     <t xml:space="preserve">3.0702052116394</t>
   </si>
   <si>
-    <t xml:space="preserve">3.14850568771362</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.16086888313293</t>
+    <t xml:space="preserve">3.14850544929504</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.16086912155151</t>
   </si>
   <si>
     <t xml:space="preserve">3.16911101341248</t>
@@ -2288,7 +2288,7 @@
     <t xml:space="preserve">3.15262675285339</t>
   </si>
   <si>
-    <t xml:space="preserve">3.11553692817688</t>
+    <t xml:space="preserve">3.11553716659546</t>
   </si>
   <si>
     <t xml:space="preserve">3.13202118873596</t>
@@ -2297,31 +2297,31 @@
     <t xml:space="preserve">3.12790036201477</t>
   </si>
   <si>
-    <t xml:space="preserve">3.22268557548523</t>
+    <t xml:space="preserve">3.22268533706665</t>
   </si>
   <si>
     <t xml:space="preserve">3.19795870780945</t>
   </si>
   <si>
-    <t xml:space="preserve">3.17323207855225</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.20620083808899</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.2432906627655</t>
+    <t xml:space="preserve">3.17323184013367</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.20620107650757</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.24329042434692</t>
   </si>
   <si>
     <t xml:space="preserve">3.18971657752991</t>
   </si>
   <si>
-    <t xml:space="preserve">3.23916935920715</t>
+    <t xml:space="preserve">3.23916959762573</t>
   </si>
   <si>
     <t xml:space="preserve">3.27625918388367</t>
   </si>
   <si>
-    <t xml:space="preserve">3.25153279304504</t>
+    <t xml:space="preserve">3.25153255462646</t>
   </si>
   <si>
     <t xml:space="preserve">3.36280179023743</t>
@@ -2330,7 +2330,7 @@
     <t xml:space="preserve">3.35868072509766</t>
   </si>
   <si>
-    <t xml:space="preserve">3.34631776809692</t>
+    <t xml:space="preserve">3.34631752967834</t>
   </si>
   <si>
     <t xml:space="preserve">3.30510687828064</t>
@@ -2339,7 +2339,7 @@
     <t xml:space="preserve">3.34219622612</t>
   </si>
   <si>
-    <t xml:space="preserve">3.36364841461182</t>
+    <t xml:space="preserve">3.36364817619324</t>
   </si>
   <si>
     <t xml:space="preserve">3.25209879875183</t>
@@ -2351,16 +2351,16 @@
     <t xml:space="preserve">3.22635650634766</t>
   </si>
   <si>
-    <t xml:space="preserve">3.27784061431885</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.23493719100952</t>
+    <t xml:space="preserve">3.27784085273743</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.2349374294281</t>
   </si>
   <si>
     <t xml:space="preserve">3.21348547935486</t>
   </si>
   <si>
-    <t xml:space="preserve">3.19632387161255</t>
+    <t xml:space="preserve">3.19632411003113</t>
   </si>
   <si>
     <t xml:space="preserve">3.21777582168579</t>
@@ -2372,10 +2372,10 @@
     <t xml:space="preserve">3.17487215995789</t>
   </si>
   <si>
-    <t xml:space="preserve">3.17916226387024</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.16200089454651</t>
+    <t xml:space="preserve">3.17916250228882</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.16200113296509</t>
   </si>
   <si>
     <t xml:space="preserve">3.14913010597229</t>
@@ -2387,7 +2387,7 @@
     <t xml:space="preserve">3.17058181762695</t>
   </si>
   <si>
-    <t xml:space="preserve">3.20061421394348</t>
+    <t xml:space="preserve">3.20061445236206</t>
   </si>
   <si>
     <t xml:space="preserve">3.19203352928162</t>
@@ -2399,7 +2399,7 @@
     <t xml:space="preserve">3.2220664024353</t>
   </si>
   <si>
-    <t xml:space="preserve">3.12767791748047</t>
+    <t xml:space="preserve">3.12767815589905</t>
   </si>
   <si>
     <t xml:space="preserve">3.13625884056091</t>
@@ -2408,13 +2408,13 @@
     <t xml:space="preserve">3.10622596740723</t>
   </si>
   <si>
-    <t xml:space="preserve">3.0761935710907</t>
+    <t xml:space="preserve">3.07619380950928</t>
   </si>
   <si>
     <t xml:space="preserve">3.0890645980835</t>
   </si>
   <si>
-    <t xml:space="preserve">3.04187059402466</t>
+    <t xml:space="preserve">3.04187083244324</t>
   </si>
   <si>
     <t xml:space="preserve">3.03758025169373</t>
@@ -2429,10 +2429,10 @@
     <t xml:space="preserve">3.02899956703186</t>
   </si>
   <si>
-    <t xml:space="preserve">2.98180556297302</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.00754761695862</t>
+    <t xml:space="preserve">2.98180532455444</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.0075478553772</t>
   </si>
   <si>
     <t xml:space="preserve">3.05903220176697</t>
@@ -2456,16 +2456,16 @@
     <t xml:space="preserve">2.93890190124512</t>
   </si>
   <si>
-    <t xml:space="preserve">3.00325727462769</t>
+    <t xml:space="preserve">3.00325751304626</t>
   </si>
   <si>
     <t xml:space="preserve">3.03328990936279</t>
   </si>
   <si>
-    <t xml:space="preserve">3.02041888237</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.01612877845764</t>
+    <t xml:space="preserve">3.02041864395142</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.01612854003906</t>
   </si>
   <si>
     <t xml:space="preserve">3.01183819770813</t>
@@ -2480,7 +2480,7 @@
     <t xml:space="preserve">3.13196849822998</t>
   </si>
   <si>
-    <t xml:space="preserve">3.16629123687744</t>
+    <t xml:space="preserve">3.16629147529602</t>
   </si>
   <si>
     <t xml:space="preserve">3.11480712890625</t>
@@ -2492,7 +2492,7 @@
     <t xml:space="preserve">3.0633225440979</t>
   </si>
   <si>
-    <t xml:space="preserve">3.11051654815674</t>
+    <t xml:space="preserve">3.11051678657532</t>
   </si>
   <si>
     <t xml:space="preserve">3.08477449417114</t>
@@ -2507,7 +2507,7 @@
     <t xml:space="preserve">2.96464395523071</t>
   </si>
   <si>
-    <t xml:space="preserve">2.94748258590698</t>
+    <t xml:space="preserve">2.9474823474884</t>
   </si>
   <si>
     <t xml:space="preserve">2.95177316665649</t>
@@ -2525,10 +2525,10 @@
     <t xml:space="preserve">3.10193586349487</t>
   </si>
   <si>
-    <t xml:space="preserve">3.05474185943604</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.96893429756165</t>
+    <t xml:space="preserve">3.05474162101746</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.96893453598022</t>
   </si>
   <si>
     <t xml:space="preserve">2.91745018959045</t>
@@ -2552,19 +2552,19 @@
     <t xml:space="preserve">2.97322487831116</t>
   </si>
   <si>
-    <t xml:space="preserve">2.93461132049561</t>
+    <t xml:space="preserve">2.93461155891418</t>
   </si>
   <si>
     <t xml:space="preserve">2.79731965065002</t>
   </si>
   <si>
-    <t xml:space="preserve">2.91315984725952</t>
+    <t xml:space="preserve">2.91315960884094</t>
   </si>
   <si>
     <t xml:space="preserve">2.8917076587677</t>
   </si>
   <si>
-    <t xml:space="preserve">2.8230619430542</t>
+    <t xml:space="preserve">2.82306170463562</t>
   </si>
   <si>
     <t xml:space="preserve">2.77157735824585</t>
@@ -2582,10 +2582,10 @@
     <t xml:space="preserve">2.83164262771606</t>
   </si>
   <si>
-    <t xml:space="preserve">2.89599823951721</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.85738492012024</t>
+    <t xml:space="preserve">2.89599800109863</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.85738468170166</t>
   </si>
   <si>
     <t xml:space="preserve">2.87025594711304</t>
@@ -2600,7 +2600,7 @@
     <t xml:space="preserve">3.1108820438385</t>
   </si>
   <si>
-    <t xml:space="preserve">3.07936811447144</t>
+    <t xml:space="preserve">3.07936835289001</t>
   </si>
   <si>
     <t xml:space="preserve">3.02984619140625</t>
@@ -2609,22 +2609,22 @@
     <t xml:space="preserve">2.98932814598083</t>
   </si>
   <si>
-    <t xml:space="preserve">2.96681833267212</t>
+    <t xml:space="preserve">2.96681809425354</t>
   </si>
   <si>
     <t xml:space="preserve">3.03434801101685</t>
   </si>
   <si>
-    <t xml:space="preserve">2.98482632637024</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.96231627464294</t>
+    <t xml:space="preserve">2.98482608795166</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.96231603622437</t>
   </si>
   <si>
     <t xml:space="preserve">2.93980622291565</t>
   </si>
   <si>
-    <t xml:space="preserve">2.93080234527588</t>
+    <t xml:space="preserve">2.9308021068573</t>
   </si>
   <si>
     <t xml:space="preserve">2.95781421661377</t>
@@ -2639,7 +2639,7 @@
     <t xml:space="preserve">3.01634001731873</t>
   </si>
   <si>
-    <t xml:space="preserve">2.99833226203918</t>
+    <t xml:space="preserve">2.99833202362061</t>
   </si>
   <si>
     <t xml:space="preserve">3.04335236549377</t>
@@ -2654,13 +2654,13 @@
     <t xml:space="preserve">2.82725620269775</t>
   </si>
   <si>
-    <t xml:space="preserve">2.78673815727234</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.88128042221069</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.82275414466858</t>
+    <t xml:space="preserve">2.78673839569092</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.88128018379211</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.82275438308716</t>
   </si>
   <si>
     <t xml:space="preserve">2.77323222160339</t>
@@ -2672,22 +2672,22 @@
     <t xml:space="preserve">2.66968607902527</t>
   </si>
   <si>
-    <t xml:space="preserve">2.65618014335632</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.70120000839233</t>
+    <t xml:space="preserve">2.6561803817749</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.70120024681091</t>
   </si>
   <si>
     <t xml:space="preserve">2.71920824050903</t>
   </si>
   <si>
-    <t xml:space="preserve">2.59765434265137</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.62916803359985</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.63367033004761</t>
+    <t xml:space="preserve">2.59765410423279</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.62916827201843</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.63367009162903</t>
   </si>
   <si>
     <t xml:space="preserve">2.53912806510925</t>
@@ -2696,7 +2696,7 @@
     <t xml:space="preserve">2.56614017486572</t>
   </si>
   <si>
-    <t xml:space="preserve">2.54813194274902</t>
+    <t xml:space="preserve">2.5481321811676</t>
   </si>
   <si>
     <t xml:space="preserve">2.60665822029114</t>
@@ -2717,7 +2717,7 @@
     <t xml:space="preserve">2.42207622528076</t>
   </si>
   <si>
-    <t xml:space="preserve">2.41757392883301</t>
+    <t xml:space="preserve">2.41757416725159</t>
   </si>
   <si>
     <t xml:space="preserve">2.38606023788452</t>
@@ -2765,10 +2765,10 @@
     <t xml:space="preserve">2.44908809661865</t>
   </si>
   <si>
-    <t xml:space="preserve">2.3905622959137</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.32303214073181</t>
+    <t xml:space="preserve">2.39056205749512</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.32303190231323</t>
   </si>
   <si>
     <t xml:space="preserve">2.20598006248474</t>
@@ -2777,16 +2777,16 @@
     <t xml:space="preserve">2.23299217224121</t>
   </si>
   <si>
-    <t xml:space="preserve">2.16096019744873</t>
+    <t xml:space="preserve">2.16096043586731</t>
   </si>
   <si>
     <t xml:space="preserve">2.21948599815369</t>
   </si>
   <si>
-    <t xml:space="preserve">2.20147800445557</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.22398829460144</t>
+    <t xml:space="preserve">2.20147824287415</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.22398805618286</t>
   </si>
   <si>
     <t xml:space="preserve">2.24199604988098</t>
@@ -2798,7 +2798,7 @@
     <t xml:space="preserve">2.27351021766663</t>
   </si>
   <si>
-    <t xml:space="preserve">2.24649810791016</t>
+    <t xml:space="preserve">2.24649786949158</t>
   </si>
   <si>
     <t xml:space="preserve">2.21498417854309</t>
@@ -2810,16 +2810,16 @@
     <t xml:space="preserve">2.12044215202332</t>
   </si>
   <si>
-    <t xml:space="preserve">1.97187626361847</t>
+    <t xml:space="preserve">1.97187614440918</t>
   </si>
   <si>
     <t xml:space="preserve">2.03490424156189</t>
   </si>
   <si>
-    <t xml:space="preserve">1.98088014125824</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.944864153862</t>
+    <t xml:space="preserve">1.98088026046753</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.94486427307129</t>
   </si>
   <si>
     <t xml:space="preserve">1.89984405040741</t>
@@ -2837,28 +2837,28 @@
     <t xml:space="preserve">1.78279209136963</t>
   </si>
   <si>
-    <t xml:space="preserve">1.75758099555969</t>
+    <t xml:space="preserve">1.7575808763504</t>
   </si>
   <si>
     <t xml:space="preserve">1.72156488895416</t>
   </si>
   <si>
-    <t xml:space="preserve">1.7017560005188</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.73777198791504</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.8098042011261</t>
+    <t xml:space="preserve">1.70175611972809</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.73777210712433</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.80980408191681</t>
   </si>
   <si>
     <t xml:space="preserve">1.8773341178894</t>
   </si>
   <si>
-    <t xml:space="preserve">2.01689600944519</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.93135821819305</t>
+    <t xml:space="preserve">2.01689624786377</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.93135809898376</t>
   </si>
   <si>
     <t xml:space="preserve">2.06191611289978</t>
@@ -2879,25 +2879,25 @@
     <t xml:space="preserve">2.14745426177979</t>
   </si>
   <si>
-    <t xml:space="preserve">2.05291199684143</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.17896819114685</t>
+    <t xml:space="preserve">2.05291223526001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.17896842956543</t>
   </si>
   <si>
     <t xml:space="preserve">2.1879723072052</t>
   </si>
   <si>
-    <t xml:space="preserve">2.14295220375061</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.1699640750885</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.28251433372498</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.28701615333557</t>
+    <t xml:space="preserve">2.14295244216919</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.16996431350708</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.2825140953064</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.28701591491699</t>
   </si>
   <si>
     <t xml:space="preserve">2.26450610160828</t>
@@ -2912,25 +2912,25 @@
     <t xml:space="preserve">2.29151821136475</t>
   </si>
   <si>
-    <t xml:space="preserve">2.31853032112122</t>
+    <t xml:space="preserve">2.31853008270264</t>
   </si>
   <si>
     <t xml:space="preserve">2.30052208900452</t>
   </si>
   <si>
-    <t xml:space="preserve">2.30502414703369</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.2780122756958</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.25100016593933</t>
+    <t xml:space="preserve">2.30502390861511</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.27801203727722</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.25099992752075</t>
   </si>
   <si>
     <t xml:space="preserve">2.17446613311768</t>
   </si>
   <si>
-    <t xml:space="preserve">2.16546201705933</t>
+    <t xml:space="preserve">2.16546225547791</t>
   </si>
   <si>
     <t xml:space="preserve">2.19697618484497</t>
@@ -2948,10 +2948,10 @@
     <t xml:space="preserve">2.33653807640076</t>
   </si>
   <si>
-    <t xml:space="preserve">2.39506435394287</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.43108034133911</t>
+    <t xml:space="preserve">2.39506411552429</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.43108010292053</t>
   </si>
   <si>
     <t xml:space="preserve">2.40857005119324</t>
@@ -2996,28 +2996,28 @@
     <t xml:space="preserve">2.54363012313843</t>
   </si>
   <si>
-    <t xml:space="preserve">2.35904812812805</t>
+    <t xml:space="preserve">2.35904788970947</t>
   </si>
   <si>
     <t xml:space="preserve">2.32753419876099</t>
   </si>
   <si>
-    <t xml:space="preserve">2.38155794143677</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.35004425048828</t>
+    <t xml:space="preserve">2.38155817985535</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.3500440120697</t>
   </si>
   <si>
     <t xml:space="preserve">2.50761413574219</t>
   </si>
   <si>
-    <t xml:space="preserve">2.52562236785889</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.58864998817444</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.62016415596008</t>
+    <t xml:space="preserve">2.52562212944031</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.58865022659302</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.62016439437866</t>
   </si>
   <si>
     <t xml:space="preserve">2.54005122184753</t>
@@ -3444,6 +3444,9 @@
   </si>
   <si>
     <t xml:space="preserve">2.48499989509583</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.5</t>
   </si>
 </sst>
 </file>
@@ -13423,7 +13426,7 @@
         <v>3.60199999809265</v>
       </c>
       <c r="G371" t="s">
-        <v>244</v>
+        <v>270</v>
       </c>
       <c r="H371" t="s">
         <v>9</v>
@@ -13501,7 +13504,7 @@
         <v>3.71799993515015</v>
       </c>
       <c r="G374" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="H374" t="s">
         <v>9</v>
@@ -13579,7 +13582,7 @@
         <v>3.59599995613098</v>
       </c>
       <c r="G377" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="H377" t="s">
         <v>9</v>
@@ -13605,7 +13608,7 @@
         <v>3.57399988174438</v>
       </c>
       <c r="G378" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="H378" t="s">
         <v>9</v>
@@ -13631,7 +13634,7 @@
         <v>3.54800009727478</v>
       </c>
       <c r="G379" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="H379" t="s">
         <v>9</v>
@@ -13657,7 +13660,7 @@
         <v>3.54999995231628</v>
       </c>
       <c r="G380" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="H380" t="s">
         <v>9</v>
@@ -13839,7 +13842,7 @@
         <v>3.48399996757507</v>
       </c>
       <c r="G387" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="H387" t="s">
         <v>9</v>
@@ -13865,7 +13868,7 @@
         <v>3.47000002861023</v>
       </c>
       <c r="G388" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="H388" t="s">
         <v>9</v>
@@ -13891,7 +13894,7 @@
         <v>3.47000002861023</v>
       </c>
       <c r="G389" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="H389" t="s">
         <v>9</v>
@@ -13917,7 +13920,7 @@
         <v>3.50799989700317</v>
       </c>
       <c r="G390" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="H390" t="s">
         <v>9</v>
@@ -13943,7 +13946,7 @@
         <v>3.49399995803833</v>
       </c>
       <c r="G391" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="H391" t="s">
         <v>9</v>
@@ -13969,7 +13972,7 @@
         <v>3.49000000953674</v>
       </c>
       <c r="G392" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="H392" t="s">
         <v>9</v>
@@ -13995,7 +13998,7 @@
         <v>3.49600005149841</v>
       </c>
       <c r="G393" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="H393" t="s">
         <v>9</v>
@@ -14021,7 +14024,7 @@
         <v>3.49399995803833</v>
       </c>
       <c r="G394" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="H394" t="s">
         <v>9</v>
@@ -14073,7 +14076,7 @@
         <v>3.50399994850159</v>
       </c>
       <c r="G396" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="H396" t="s">
         <v>9</v>
@@ -14125,7 +14128,7 @@
         <v>3.46799993515015</v>
       </c>
       <c r="G398" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="H398" t="s">
         <v>9</v>
@@ -14151,7 +14154,7 @@
         <v>3.41000008583069</v>
       </c>
       <c r="G399" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="H399" t="s">
         <v>9</v>
@@ -14177,7 +14180,7 @@
         <v>3.39599990844727</v>
       </c>
       <c r="G400" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="H400" t="s">
         <v>9</v>
@@ -14203,7 +14206,7 @@
         <v>3.47000002861023</v>
       </c>
       <c r="G401" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="H401" t="s">
         <v>9</v>
@@ -14229,7 +14232,7 @@
         <v>3.4300000667572</v>
       </c>
       <c r="G402" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="H402" t="s">
         <v>9</v>
@@ -14281,7 +14284,7 @@
         <v>3.45000004768372</v>
       </c>
       <c r="G404" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="H404" t="s">
         <v>9</v>
@@ -14307,7 +14310,7 @@
         <v>3.46399998664856</v>
       </c>
       <c r="G405" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="H405" t="s">
         <v>9</v>
@@ -14333,7 +14336,7 @@
         <v>3.4300000667572</v>
       </c>
       <c r="G406" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="H406" t="s">
         <v>9</v>
@@ -14359,7 +14362,7 @@
         <v>3.58999991416931</v>
       </c>
       <c r="G407" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="H407" t="s">
         <v>9</v>
@@ -14385,7 +14388,7 @@
         <v>3.54999995231628</v>
       </c>
       <c r="G408" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="H408" t="s">
         <v>9</v>
@@ -14411,7 +14414,7 @@
         <v>3.58200001716614</v>
       </c>
       <c r="G409" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="H409" t="s">
         <v>9</v>
@@ -14437,7 +14440,7 @@
         <v>3.59800004959106</v>
       </c>
       <c r="G410" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="H410" t="s">
         <v>9</v>
@@ -14463,7 +14466,7 @@
         <v>3.57599997520447</v>
       </c>
       <c r="G411" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="H411" t="s">
         <v>9</v>
@@ -14515,7 +14518,7 @@
         <v>3.58200001716614</v>
       </c>
       <c r="G413" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="H413" t="s">
         <v>9</v>
@@ -14541,7 +14544,7 @@
       